--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="464">
   <si>
     <t>Source:</t>
   </si>
@@ -1413,6 +1413,18 @@
   </si>
   <si>
     <t>$/kWh (2014)</t>
+  </si>
+  <si>
+    <t>Extension through 2050</t>
+  </si>
+  <si>
+    <t>We estimate 2031-2050 values via extrapolation from 2022-2030.</t>
+  </si>
+  <si>
+    <t>(All subsidies hold relatively constant in 2022 and thereafter.  Solar PV and solar thermal are the</t>
+  </si>
+  <si>
+    <t>ones that take the longest to reach steady levels.)</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2403,6 +2415,27 @@
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>269</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -26562,7 +26595,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26571,7 +26604,7 @@
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>246</v>
       </c>
@@ -26629,8 +26662,68 @@
       <c r="S1">
         <v>2030</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T1" s="11">
+        <v>2031</v>
+      </c>
+      <c r="U1" s="11">
+        <v>2032</v>
+      </c>
+      <c r="V1" s="11">
+        <v>2033</v>
+      </c>
+      <c r="W1" s="11">
+        <v>2034</v>
+      </c>
+      <c r="X1" s="11">
+        <v>2035</v>
+      </c>
+      <c r="Y1" s="11">
+        <v>2036</v>
+      </c>
+      <c r="Z1" s="11">
+        <v>2037</v>
+      </c>
+      <c r="AA1" s="11">
+        <v>2038</v>
+      </c>
+      <c r="AB1" s="11">
+        <v>2039</v>
+      </c>
+      <c r="AC1" s="11">
+        <v>2040</v>
+      </c>
+      <c r="AD1" s="11">
+        <v>2041</v>
+      </c>
+      <c r="AE1" s="11">
+        <v>2042</v>
+      </c>
+      <c r="AF1" s="11">
+        <v>2043</v>
+      </c>
+      <c r="AG1" s="11">
+        <v>2044</v>
+      </c>
+      <c r="AH1" s="11">
+        <v>2045</v>
+      </c>
+      <c r="AI1" s="11">
+        <v>2046</v>
+      </c>
+      <c r="AJ1" s="11">
+        <v>2047</v>
+      </c>
+      <c r="AK1" s="11">
+        <v>2048</v>
+      </c>
+      <c r="AL1" s="11">
+        <v>2049</v>
+      </c>
+      <c r="AM1" s="11">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>247</v>
       </c>
@@ -26688,8 +26781,88 @@
       <c r="S2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T2">
+        <f>TREND($K2:$S2,$K$1:$S$1,T$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="11">
+        <f t="shared" ref="U2:AM16" si="0">TREND($K2:$S2,$K$1:$S$1,U$1)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM2" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>252</v>
       </c>
@@ -26765,8 +26938,88 @@
         <f>SUM(Calculations!T52,Calculations!T57)</f>
         <v>6.7858477375517943E-9</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T3" s="11">
+        <f t="shared" ref="T3:AI16" si="1">TREND($K3:$S3,$K$1:$S$1,T$1)</f>
+        <v>6.7594782754250792E-9</v>
+      </c>
+      <c r="U3" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7376161848157339E-9</v>
+      </c>
+      <c r="V3" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7157540942063821E-9</v>
+      </c>
+      <c r="W3" s="11">
+        <f t="shared" si="1"/>
+        <v>6.6938920035970368E-9</v>
+      </c>
+      <c r="X3" s="11">
+        <f t="shared" si="1"/>
+        <v>6.6720299129876916E-9</v>
+      </c>
+      <c r="Y3" s="11">
+        <f t="shared" si="1"/>
+        <v>6.6501678223783463E-9</v>
+      </c>
+      <c r="Z3" s="11">
+        <f t="shared" si="1"/>
+        <v>6.6283057317689944E-9</v>
+      </c>
+      <c r="AA3" s="11">
+        <f t="shared" si="1"/>
+        <v>6.6064436411596492E-9</v>
+      </c>
+      <c r="AB3" s="11">
+        <f t="shared" si="1"/>
+        <v>6.5845815505503039E-9</v>
+      </c>
+      <c r="AC3" s="11">
+        <f t="shared" si="1"/>
+        <v>6.5627194599409521E-9</v>
+      </c>
+      <c r="AD3" s="11">
+        <f t="shared" si="1"/>
+        <v>6.5408573693316068E-9</v>
+      </c>
+      <c r="AE3" s="11">
+        <f t="shared" si="1"/>
+        <v>6.5189952787222615E-9</v>
+      </c>
+      <c r="AF3" s="11">
+        <f t="shared" si="1"/>
+        <v>6.4971331881129097E-9</v>
+      </c>
+      <c r="AG3" s="11">
+        <f t="shared" si="1"/>
+        <v>6.4752710975035644E-9</v>
+      </c>
+      <c r="AH3" s="11">
+        <f t="shared" si="1"/>
+        <v>6.4534090068942192E-9</v>
+      </c>
+      <c r="AI3" s="11">
+        <f t="shared" si="1"/>
+        <v>6.4315469162848739E-9</v>
+      </c>
+      <c r="AJ3" s="11">
+        <f t="shared" si="0"/>
+        <v>6.409684825675522E-9</v>
+      </c>
+      <c r="AK3" s="11">
+        <f t="shared" si="0"/>
+        <v>6.3878227350661768E-9</v>
+      </c>
+      <c r="AL3" s="11">
+        <f t="shared" si="0"/>
+        <v>6.3659606444568315E-9</v>
+      </c>
+      <c r="AM3" s="11">
+        <f t="shared" si="0"/>
+        <v>6.3440985538474797E-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>253</v>
       </c>
@@ -26842,8 +27095,88 @@
         <f>SUM(Calculations!T64,Calculations!T70,Calculations!T76)</f>
         <v>4.9003947294522342E-8</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T4" s="11">
+        <f t="shared" si="1"/>
+        <v>4.8939074884730932E-8</v>
+      </c>
+      <c r="U4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.8646149558778486E-8</v>
+      </c>
+      <c r="V4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.8353224232826039E-8</v>
+      </c>
+      <c r="W4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.8060298906873592E-8</v>
+      </c>
+      <c r="X4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.7767373580921146E-8</v>
+      </c>
+      <c r="Y4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.7474448254968805E-8</v>
+      </c>
+      <c r="Z4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.7181522929016358E-8</v>
+      </c>
+      <c r="AA4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.6888597603063911E-8</v>
+      </c>
+      <c r="AB4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.6595672277111465E-8</v>
+      </c>
+      <c r="AC4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.6302746951159018E-8</v>
+      </c>
+      <c r="AD4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.6009821625206571E-8</v>
+      </c>
+      <c r="AE4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.5716896299254125E-8</v>
+      </c>
+      <c r="AF4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.5423970973301678E-8</v>
+      </c>
+      <c r="AG4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.5131045647349337E-8</v>
+      </c>
+      <c r="AH4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.4838120321396891E-8</v>
+      </c>
+      <c r="AI4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.4545194995444444E-8</v>
+      </c>
+      <c r="AJ4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.4252269669491997E-8</v>
+      </c>
+      <c r="AK4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.3959344343539551E-8</v>
+      </c>
+      <c r="AL4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.3666419017587104E-8</v>
+      </c>
+      <c r="AM4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.3373493691634657E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -26901,8 +27234,88 @@
       <c r="S5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -26960,8 +27373,88 @@
       <c r="S6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -27019,8 +27512,88 @@
       <c r="S7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T7" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -27078,8 +27651,88 @@
       <c r="S8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>254</v>
       </c>
@@ -27137,8 +27790,88 @@
       <c r="S9" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>255</v>
       </c>
@@ -27214,8 +27947,88 @@
         <f>SUM(Calculations!T84,Calculations!T92,Calculations!T100,Calculations!T108,Calculations!T115)</f>
         <v>6.3780684141315403E-8</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T10" s="11">
+        <f t="shared" si="1"/>
+        <v>6.3209141888319771E-8</v>
+      </c>
+      <c r="U10" s="11">
+        <f t="shared" si="0"/>
+        <v>6.2744071975616508E-8</v>
+      </c>
+      <c r="V10" s="11">
+        <f t="shared" si="0"/>
+        <v>6.2279002062913245E-8</v>
+      </c>
+      <c r="W10" s="11">
+        <f t="shared" si="0"/>
+        <v>6.1813932150209982E-8</v>
+      </c>
+      <c r="X10" s="11">
+        <f t="shared" si="0"/>
+        <v>6.1348862237506614E-8</v>
+      </c>
+      <c r="Y10" s="11">
+        <f t="shared" si="0"/>
+        <v>6.0883792324803351E-8</v>
+      </c>
+      <c r="Z10" s="11">
+        <f t="shared" si="0"/>
+        <v>6.0418722412100088E-8</v>
+      </c>
+      <c r="AA10" s="11">
+        <f t="shared" si="0"/>
+        <v>5.9953652499396825E-8</v>
+      </c>
+      <c r="AB10" s="11">
+        <f t="shared" si="0"/>
+        <v>5.9488582586693457E-8</v>
+      </c>
+      <c r="AC10" s="11">
+        <f t="shared" si="0"/>
+        <v>5.9023512673990194E-8</v>
+      </c>
+      <c r="AD10" s="11">
+        <f t="shared" si="0"/>
+        <v>5.8558442761286931E-8</v>
+      </c>
+      <c r="AE10" s="11">
+        <f t="shared" si="0"/>
+        <v>5.8093372848583668E-8</v>
+      </c>
+      <c r="AF10" s="11">
+        <f t="shared" si="0"/>
+        <v>5.76283029358803E-8</v>
+      </c>
+      <c r="AG10" s="11">
+        <f t="shared" si="0"/>
+        <v>5.7163233023177037E-8</v>
+      </c>
+      <c r="AH10" s="11">
+        <f t="shared" si="0"/>
+        <v>5.6698163110473774E-8</v>
+      </c>
+      <c r="AI10" s="11">
+        <f t="shared" si="0"/>
+        <v>5.6233093197770511E-8</v>
+      </c>
+      <c r="AJ10" s="11">
+        <f t="shared" si="0"/>
+        <v>5.5768023285067143E-8</v>
+      </c>
+      <c r="AK10" s="11">
+        <f t="shared" si="0"/>
+        <v>5.530295337236388E-8</v>
+      </c>
+      <c r="AL10" s="11">
+        <f t="shared" si="0"/>
+        <v>5.4837883459660617E-8</v>
+      </c>
+      <c r="AM10" s="11">
+        <f t="shared" si="0"/>
+        <v>5.4372813546957248E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>256</v>
       </c>
@@ -27291,8 +28104,88 @@
         <f>SUM(Calculations!T84,Calculations!T92,Calculations!T100,Calculations!T108,Calculations!T115)</f>
         <v>6.3780684141315403E-8</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T11" s="11">
+        <f t="shared" si="1"/>
+        <v>6.3209141888319771E-8</v>
+      </c>
+      <c r="U11" s="11">
+        <f t="shared" si="0"/>
+        <v>6.2744071975616508E-8</v>
+      </c>
+      <c r="V11" s="11">
+        <f t="shared" si="0"/>
+        <v>6.2279002062913245E-8</v>
+      </c>
+      <c r="W11" s="11">
+        <f t="shared" si="0"/>
+        <v>6.1813932150209982E-8</v>
+      </c>
+      <c r="X11" s="11">
+        <f t="shared" si="0"/>
+        <v>6.1348862237506614E-8</v>
+      </c>
+      <c r="Y11" s="11">
+        <f t="shared" si="0"/>
+        <v>6.0883792324803351E-8</v>
+      </c>
+      <c r="Z11" s="11">
+        <f t="shared" si="0"/>
+        <v>6.0418722412100088E-8</v>
+      </c>
+      <c r="AA11" s="11">
+        <f t="shared" si="0"/>
+        <v>5.9953652499396825E-8</v>
+      </c>
+      <c r="AB11" s="11">
+        <f t="shared" si="0"/>
+        <v>5.9488582586693457E-8</v>
+      </c>
+      <c r="AC11" s="11">
+        <f t="shared" si="0"/>
+        <v>5.9023512673990194E-8</v>
+      </c>
+      <c r="AD11" s="11">
+        <f t="shared" si="0"/>
+        <v>5.8558442761286931E-8</v>
+      </c>
+      <c r="AE11" s="11">
+        <f t="shared" si="0"/>
+        <v>5.8093372848583668E-8</v>
+      </c>
+      <c r="AF11" s="11">
+        <f t="shared" si="0"/>
+        <v>5.76283029358803E-8</v>
+      </c>
+      <c r="AG11" s="11">
+        <f t="shared" si="0"/>
+        <v>5.7163233023177037E-8</v>
+      </c>
+      <c r="AH11" s="11">
+        <f t="shared" si="0"/>
+        <v>5.6698163110473774E-8</v>
+      </c>
+      <c r="AI11" s="11">
+        <f t="shared" si="0"/>
+        <v>5.6233093197770511E-8</v>
+      </c>
+      <c r="AJ11" s="11">
+        <f t="shared" si="0"/>
+        <v>5.5768023285067143E-8</v>
+      </c>
+      <c r="AK11" s="11">
+        <f t="shared" si="0"/>
+        <v>5.530295337236388E-8</v>
+      </c>
+      <c r="AL11" s="11">
+        <f t="shared" si="0"/>
+        <v>5.4837883459660617E-8</v>
+      </c>
+      <c r="AM11" s="11">
+        <f t="shared" si="0"/>
+        <v>5.4372813546957248E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -27350,8 +28243,88 @@
       <c r="S12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -27409,8 +28382,88 @@
       <c r="S13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>257</v>
       </c>
@@ -27486,8 +28539,88 @@
         <f>SUM(Calculations!T84,Calculations!T92,Calculations!T100,Calculations!T108,Calculations!T115)</f>
         <v>6.3780684141315403E-8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T14" s="11">
+        <f t="shared" si="1"/>
+        <v>6.3209141888319771E-8</v>
+      </c>
+      <c r="U14" s="11">
+        <f t="shared" si="0"/>
+        <v>6.2744071975616508E-8</v>
+      </c>
+      <c r="V14" s="11">
+        <f t="shared" si="0"/>
+        <v>6.2279002062913245E-8</v>
+      </c>
+      <c r="W14" s="11">
+        <f t="shared" si="0"/>
+        <v>6.1813932150209982E-8</v>
+      </c>
+      <c r="X14" s="11">
+        <f t="shared" si="0"/>
+        <v>6.1348862237506614E-8</v>
+      </c>
+      <c r="Y14" s="11">
+        <f t="shared" si="0"/>
+        <v>6.0883792324803351E-8</v>
+      </c>
+      <c r="Z14" s="11">
+        <f t="shared" si="0"/>
+        <v>6.0418722412100088E-8</v>
+      </c>
+      <c r="AA14" s="11">
+        <f t="shared" si="0"/>
+        <v>5.9953652499396825E-8</v>
+      </c>
+      <c r="AB14" s="11">
+        <f t="shared" si="0"/>
+        <v>5.9488582586693457E-8</v>
+      </c>
+      <c r="AC14" s="11">
+        <f t="shared" si="0"/>
+        <v>5.9023512673990194E-8</v>
+      </c>
+      <c r="AD14" s="11">
+        <f t="shared" si="0"/>
+        <v>5.8558442761286931E-8</v>
+      </c>
+      <c r="AE14" s="11">
+        <f t="shared" si="0"/>
+        <v>5.8093372848583668E-8</v>
+      </c>
+      <c r="AF14" s="11">
+        <f t="shared" si="0"/>
+        <v>5.76283029358803E-8</v>
+      </c>
+      <c r="AG14" s="11">
+        <f t="shared" si="0"/>
+        <v>5.7163233023177037E-8</v>
+      </c>
+      <c r="AH14" s="11">
+        <f t="shared" si="0"/>
+        <v>5.6698163110473774E-8</v>
+      </c>
+      <c r="AI14" s="11">
+        <f t="shared" si="0"/>
+        <v>5.6233093197770511E-8</v>
+      </c>
+      <c r="AJ14" s="11">
+        <f t="shared" si="0"/>
+        <v>5.5768023285067143E-8</v>
+      </c>
+      <c r="AK14" s="11">
+        <f t="shared" si="0"/>
+        <v>5.530295337236388E-8</v>
+      </c>
+      <c r="AL14" s="11">
+        <f t="shared" si="0"/>
+        <v>5.4837883459660617E-8</v>
+      </c>
+      <c r="AM14" s="11">
+        <f t="shared" si="0"/>
+        <v>5.4372813546957248E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>263</v>
       </c>
@@ -27545,8 +28678,88 @@
       <c r="S15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>449</v>
       </c>
@@ -27602,6 +28815,86 @@
         <v>0</v>
       </c>
       <c r="S16" s="11">
+        <v>0</v>
+      </c>
+      <c r="T16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="11">
+        <f t="shared" ref="Y16:AM16" si="2">TREND($K16:$S16,$K$1:$S$1,Y$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -27615,7 +28908,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27624,7 +28917,7 @@
     <col min="1" max="1" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>246</v>
       </c>
@@ -27682,8 +28975,68 @@
       <c r="S1">
         <v>2030</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T1" s="11">
+        <v>2031</v>
+      </c>
+      <c r="U1" s="11">
+        <v>2032</v>
+      </c>
+      <c r="V1" s="11">
+        <v>2033</v>
+      </c>
+      <c r="W1" s="11">
+        <v>2034</v>
+      </c>
+      <c r="X1" s="11">
+        <v>2035</v>
+      </c>
+      <c r="Y1" s="11">
+        <v>2036</v>
+      </c>
+      <c r="Z1" s="11">
+        <v>2037</v>
+      </c>
+      <c r="AA1" s="11">
+        <v>2038</v>
+      </c>
+      <c r="AB1" s="11">
+        <v>2039</v>
+      </c>
+      <c r="AC1" s="11">
+        <v>2040</v>
+      </c>
+      <c r="AD1" s="11">
+        <v>2041</v>
+      </c>
+      <c r="AE1" s="11">
+        <v>2042</v>
+      </c>
+      <c r="AF1" s="11">
+        <v>2043</v>
+      </c>
+      <c r="AG1" s="11">
+        <v>2044</v>
+      </c>
+      <c r="AH1" s="11">
+        <v>2045</v>
+      </c>
+      <c r="AI1" s="11">
+        <v>2046</v>
+      </c>
+      <c r="AJ1" s="11">
+        <v>2047</v>
+      </c>
+      <c r="AK1" s="11">
+        <v>2048</v>
+      </c>
+      <c r="AL1" s="11">
+        <v>2049</v>
+      </c>
+      <c r="AM1" s="11">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>426</v>
       </c>
@@ -27759,8 +29112,88 @@
         <f>Calculations!T39</f>
         <v>0.179215285620583</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T2" s="11">
+        <f t="shared" ref="T2:AI6" si="0">TREND($K2:$S2,$K$1:$S$1,T$1)</f>
+        <v>0.17917987043529535</v>
+      </c>
+      <c r="U2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.17934434874442637</v>
+      </c>
+      <c r="V2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.17950882705355745</v>
+      </c>
+      <c r="W2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.17967330536268852</v>
+      </c>
+      <c r="X2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.1798377836718196</v>
+      </c>
+      <c r="Y2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.18000226198095068</v>
+      </c>
+      <c r="Z2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.18016674029008176</v>
+      </c>
+      <c r="AA2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.18033121859921278</v>
+      </c>
+      <c r="AB2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.18049569690834386</v>
+      </c>
+      <c r="AC2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.18066017521747493</v>
+      </c>
+      <c r="AD2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.18082465352660601</v>
+      </c>
+      <c r="AE2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.18098913183573709</v>
+      </c>
+      <c r="AF2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.18115361014486817</v>
+      </c>
+      <c r="AG2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.18131808845399924</v>
+      </c>
+      <c r="AH2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.18148256676313027</v>
+      </c>
+      <c r="AI2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.18164704507226134</v>
+      </c>
+      <c r="AJ2" s="11">
+        <f t="shared" ref="U2:AM12" si="1">TREND($K2:$S2,$K$1:$S$1,AJ$1)</f>
+        <v>0.18181152338139242</v>
+      </c>
+      <c r="AK2" s="11">
+        <f t="shared" si="1"/>
+        <v>0.1819760016905235</v>
+      </c>
+      <c r="AL2" s="11">
+        <f t="shared" si="1"/>
+        <v>0.18214047999965458</v>
+      </c>
+      <c r="AM2" s="11">
+        <f t="shared" si="1"/>
+        <v>0.18230495830878565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>455</v>
       </c>
@@ -27818,8 +29251,88 @@
       <c r="S3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>258</v>
       </c>
@@ -27895,8 +29408,88 @@
         <f>Calculations!T45</f>
         <v>0.37149462041240644</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.37139297250483627</v>
+      </c>
+      <c r="U4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.37136249871111671</v>
+      </c>
+      <c r="V4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.3713320249173972</v>
+      </c>
+      <c r="W4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.37130155112367763</v>
+      </c>
+      <c r="X4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.37127107732995812</v>
+      </c>
+      <c r="Y4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.37124060353623856</v>
+      </c>
+      <c r="Z4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.37121012974251905</v>
+      </c>
+      <c r="AA4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.37117965594879948</v>
+      </c>
+      <c r="AB4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.37114918215507997</v>
+      </c>
+      <c r="AC4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.37111870836136041</v>
+      </c>
+      <c r="AD4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.37108823456764084</v>
+      </c>
+      <c r="AE4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.37105776077392133</v>
+      </c>
+      <c r="AF4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.37102728698020176</v>
+      </c>
+      <c r="AG4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.37099681318648225</v>
+      </c>
+      <c r="AH4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.37096633939276269</v>
+      </c>
+      <c r="AI4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.37093586559904318</v>
+      </c>
+      <c r="AJ4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.37090539180532361</v>
+      </c>
+      <c r="AK4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.3708749180116041</v>
+      </c>
+      <c r="AL4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.37084444421788454</v>
+      </c>
+      <c r="AM4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.37081397042416497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>259</v>
       </c>
@@ -27972,8 +29565,88 @@
         <f>'Subsidies Paid'!W5*About!$A$69</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>260</v>
       </c>
@@ -28049,8 +29722,88 @@
         <f>'Subsidies Paid'!W8*About!$A$69</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>264</v>
       </c>
@@ -28126,8 +29879,88 @@
         <f>Calculations!T11</f>
         <v>1.4850808810885161</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T7" s="11">
+        <f>TREND($K7:$S7,$K$1:$S$1,T$1)</f>
+        <v>1.4441877793508837</v>
+      </c>
+      <c r="U7" s="11">
+        <f t="shared" si="1"/>
+        <v>1.4032946776132462</v>
+      </c>
+      <c r="V7" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3624015758755945</v>
+      </c>
+      <c r="W7" s="11">
+        <f t="shared" si="1"/>
+        <v>1.321508474137957</v>
+      </c>
+      <c r="X7" s="11">
+        <f t="shared" si="1"/>
+        <v>1.2806153724003195</v>
+      </c>
+      <c r="Y7" s="11">
+        <f t="shared" si="1"/>
+        <v>1.2397222706626678</v>
+      </c>
+      <c r="Z7" s="11">
+        <f t="shared" si="1"/>
+        <v>1.1988291689250303</v>
+      </c>
+      <c r="AA7" s="11">
+        <f t="shared" si="1"/>
+        <v>1.1579360671873928</v>
+      </c>
+      <c r="AB7" s="11">
+        <f t="shared" si="1"/>
+        <v>1.1170429654497553</v>
+      </c>
+      <c r="AC7" s="11">
+        <f t="shared" si="1"/>
+        <v>1.0761498637121036</v>
+      </c>
+      <c r="AD7" s="11">
+        <f t="shared" si="1"/>
+        <v>1.0352567619744661</v>
+      </c>
+      <c r="AE7" s="11">
+        <f t="shared" si="1"/>
+        <v>0.99436366023682865</v>
+      </c>
+      <c r="AF7" s="11">
+        <f t="shared" si="1"/>
+        <v>0.95347055849917695</v>
+      </c>
+      <c r="AG7" s="11">
+        <f t="shared" si="1"/>
+        <v>0.91257745676153945</v>
+      </c>
+      <c r="AH7" s="11">
+        <f t="shared" si="1"/>
+        <v>0.87168435502390196</v>
+      </c>
+      <c r="AI7" s="11">
+        <f t="shared" si="1"/>
+        <v>0.83079125328626446</v>
+      </c>
+      <c r="AJ7" s="11">
+        <f t="shared" si="1"/>
+        <v>0.78989815154861276</v>
+      </c>
+      <c r="AK7" s="11">
+        <f t="shared" si="1"/>
+        <v>0.74900504981097527</v>
+      </c>
+      <c r="AL7" s="11">
+        <f t="shared" si="1"/>
+        <v>0.70811194807333777</v>
+      </c>
+      <c r="AM7" s="11">
+        <f t="shared" si="1"/>
+        <v>0.66721884633568607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>265</v>
       </c>
@@ -28203,8 +30036,88 @@
         <f>Calculations!T22</f>
         <v>2.5521825595218259</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T8" s="11">
+        <f t="shared" ref="T8:AI12" si="2">TREND($K8:$S8,$K$1:$S$1,T$1)</f>
+        <v>2.5259287960092891</v>
+      </c>
+      <c r="U8" s="11">
+        <f t="shared" si="2"/>
+        <v>2.499675180630085</v>
+      </c>
+      <c r="V8" s="11">
+        <f t="shared" si="2"/>
+        <v>2.4734215652508809</v>
+      </c>
+      <c r="W8" s="11">
+        <f t="shared" si="2"/>
+        <v>2.4471679498716767</v>
+      </c>
+      <c r="X8" s="11">
+        <f t="shared" si="2"/>
+        <v>2.4209143344924797</v>
+      </c>
+      <c r="Y8" s="11">
+        <f t="shared" si="2"/>
+        <v>2.3946607191132756</v>
+      </c>
+      <c r="Z8" s="11">
+        <f t="shared" si="2"/>
+        <v>2.3684071037340715</v>
+      </c>
+      <c r="AA8" s="11">
+        <f t="shared" si="2"/>
+        <v>2.3421534883548674</v>
+      </c>
+      <c r="AB8" s="11">
+        <f t="shared" si="2"/>
+        <v>2.3158998729756632</v>
+      </c>
+      <c r="AC8" s="11">
+        <f t="shared" si="2"/>
+        <v>2.2896462575964662</v>
+      </c>
+      <c r="AD8" s="11">
+        <f t="shared" si="2"/>
+        <v>2.2633926422172621</v>
+      </c>
+      <c r="AE8" s="11">
+        <f t="shared" si="2"/>
+        <v>2.237139026838058</v>
+      </c>
+      <c r="AF8" s="11">
+        <f t="shared" si="2"/>
+        <v>2.2108854114588539</v>
+      </c>
+      <c r="AG8" s="11">
+        <f t="shared" si="2"/>
+        <v>2.1846317960796497</v>
+      </c>
+      <c r="AH8" s="11">
+        <f t="shared" si="2"/>
+        <v>2.1583781807004456</v>
+      </c>
+      <c r="AI8" s="11">
+        <f t="shared" si="2"/>
+        <v>2.1321245653212486</v>
+      </c>
+      <c r="AJ8" s="11">
+        <f t="shared" si="1"/>
+        <v>2.1058709499420445</v>
+      </c>
+      <c r="AK8" s="11">
+        <f t="shared" si="1"/>
+        <v>2.0796173345628404</v>
+      </c>
+      <c r="AL8" s="11">
+        <f t="shared" si="1"/>
+        <v>2.0533637191836362</v>
+      </c>
+      <c r="AM8" s="11">
+        <f t="shared" si="1"/>
+        <v>2.0271101038044321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>454</v>
       </c>
@@ -28280,8 +30193,88 @@
         <f>'Subsidies Paid'!W2*About!$A$69</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T9" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>456</v>
       </c>
@@ -28339,8 +30332,88 @@
       <c r="S10" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T10" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>457</v>
       </c>
@@ -28416,8 +30489,88 @@
         <f>Calculations!T33/1000</f>
         <v>1.8969341161121983E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T11" s="11">
+        <f t="shared" si="2"/>
+        <v>1.8969341161121987E-3</v>
+      </c>
+      <c r="U11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8969341161121987E-3</v>
+      </c>
+      <c r="V11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8969341161121987E-3</v>
+      </c>
+      <c r="W11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8969341161121987E-3</v>
+      </c>
+      <c r="X11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8969341161121987E-3</v>
+      </c>
+      <c r="Y11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8969341161121987E-3</v>
+      </c>
+      <c r="Z11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8969341161121987E-3</v>
+      </c>
+      <c r="AA11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8969341161121987E-3</v>
+      </c>
+      <c r="AB11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8969341161121987E-3</v>
+      </c>
+      <c r="AC11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8969341161121987E-3</v>
+      </c>
+      <c r="AD11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8969341161121987E-3</v>
+      </c>
+      <c r="AE11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8969341161121987E-3</v>
+      </c>
+      <c r="AF11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8969341161121987E-3</v>
+      </c>
+      <c r="AG11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8969341161121987E-3</v>
+      </c>
+      <c r="AH11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8969341161121987E-3</v>
+      </c>
+      <c r="AI11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8969341161121987E-3</v>
+      </c>
+      <c r="AJ11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8969341161121987E-3</v>
+      </c>
+      <c r="AK11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8969341161121987E-3</v>
+      </c>
+      <c r="AL11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8969341161121987E-3</v>
+      </c>
+      <c r="AM11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8969341161121987E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>458</v>
       </c>
@@ -28475,6 +30628,174 @@
       <c r="S12" s="11">
         <v>0</v>
       </c>
+      <c r="T12" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="20115" windowHeight="9030"/>
+    <workbookView xWindow="360" yWindow="110" windowWidth="19420" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2119,22 +2119,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="83.28515625" customWidth="1"/>
+    <col min="2" max="2" width="83.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2142,298 +2142,298 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="9" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="18" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="11" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="19" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="20" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="21" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="22" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="9" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="24" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="11" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="25" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="11" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="27" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="28" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="9" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="30" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="11" t="s">
         <v>434</v>
       </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="11" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="33" spans="2:2" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="34" spans="2:2" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="11" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="35" spans="2:2" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="11">
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="71" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>463</v>
       </c>
@@ -2457,19 +2457,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="54" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" style="11" customWidth="1"/>
     <col min="3" max="3" width="9" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="11"/>
-    <col min="7" max="7" width="10.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="11"/>
+    <col min="7" max="7" width="10.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="11"/>
+    <col min="12" max="16384" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3754,16 +3754,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>389</v>
       </c>
@@ -3787,7 +3787,7 @@
       <c r="S1" s="42"/>
       <c r="T1" s="42"/>
     </row>
-    <row r="2" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>390</v>
       </c>
@@ -3811,7 +3811,7 @@
       <c r="S2" s="39"/>
       <c r="T2" s="39"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
         <v>391</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>370</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>1209865.6922051923</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>371</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>373</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>2715.6</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>374</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>375</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>81468</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>377</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>378</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>120986.56922051923</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>379</v>
       </c>
@@ -4444,8 +4444,8 @@
         <v>1.4850808810885161</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
         <v>380</v>
       </c>
@@ -4469,7 +4469,7 @@
       <c r="S13" s="39"/>
       <c r="T13" s="39"/>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>391</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>381</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>4594388</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>382</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>383</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>6000.6</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>384</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>385</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>180018</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>386</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>387</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>459438.80000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>388</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>2.5521825595218259</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="40" t="s">
         <v>440</v>
       </c>
@@ -5126,7 +5126,7 @@
       <c r="S24" s="39"/>
       <c r="T24" s="39"/>
     </row>
-    <row r="25" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="44" t="s">
         <v>391</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>441</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>4362000</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>442</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>443</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>7665</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>444</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>445</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>229950</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>446</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>447</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>436200</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>448</v>
       </c>
@@ -5777,8 +5777,8 @@
         <v>1.8969341161121982</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="43" t="s">
         <v>345</v>
       </c>
@@ -5802,7 +5802,7 @@
       <c r="S35" s="43"/>
       <c r="T35" s="43"/>
     </row>
-    <row r="36" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="45" t="s">
         <v>32</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>392</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>300000000</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>393</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>1673964355</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>396</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>0.179215285620583</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="40" t="s">
         <v>397</v>
       </c>
@@ -6125,7 +6125,7 @@
       <c r="S41" s="40"/>
       <c r="T41" s="40"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="45" t="s">
         <v>363</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>400</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>300000000</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>401</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>807548706</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>398</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>0.37149462041240644</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="42" t="s">
         <v>399</v>
       </c>
@@ -6448,7 +6448,7 @@
       <c r="S47" s="42"/>
       <c r="T47" s="42"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="40" t="s">
         <v>345</v>
       </c>
@@ -6472,7 +6472,7 @@
       <c r="S48" s="40"/>
       <c r="T48" s="40"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="45" t="s">
         <v>353</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>404</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>405</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>2.2546925E+16</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>422</v>
       </c>
@@ -6771,12 +6771,12 @@
         <v>4.4351945997070553E-9</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="45" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>404</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>53000000</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>405</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>2.2546925E+16</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>422</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>2.3506531378447394E-9</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" s="40" t="s">
         <v>406</v>
       </c>
@@ -7037,7 +7037,7 @@
       <c r="S59" s="40"/>
       <c r="T59" s="40"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="47" t="s">
         <v>30</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
         <v>413</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>1620000000.0000002</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
         <v>407</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>3.3372585E+16</v>
       </c>
     </row>
-    <row r="63" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
         <v>414</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>2.6790613E+16</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
         <v>421</v>
       </c>
@@ -7416,12 +7416,12 @@
         <v>2.6926760110059308E-8</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" s="47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>413</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>140000000</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>407</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>3.3905524999999996E+16</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
         <v>414</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>2.6790613E+16</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
         <v>421</v>
       </c>
@@ -7739,13 +7739,13 @@
         <v>2.3065717953916606E-9</v>
       </c>
     </row>
-    <row r="71" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" s="47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
         <v>413</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>1200000000</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
         <v>407</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>3.3905524999999996E+16</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
         <v>414</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>2.6790613E+16</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
         <v>421</v>
       </c>
@@ -8063,8 +8063,8 @@
         <v>1.9770615389071378E-8</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" s="40" t="s">
         <v>408</v>
       </c>
@@ -8088,7 +8088,7 @@
       <c r="S78" s="40"/>
       <c r="T78" s="40"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" s="47" t="s">
         <v>353</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
         <v>409</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>1300000000</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
         <v>416</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>10.041026</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>419</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>5751000</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>420</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>0.57490319201804529</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="s">
         <v>423</v>
       </c>
@@ -8544,12 +8544,12 @@
         <v>3.5458776691070718E-8</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" s="47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
         <v>424</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>1620000000.0000002</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="s">
         <v>425</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>0.34741419627060954</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
         <v>416</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>10.041026</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="s">
         <v>419</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>5751000</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="s">
         <v>420</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>0.57490319201804529</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92" s="11" t="s">
         <v>423</v>
       </c>
@@ -9027,12 +9027,12 @@
         <v>1.53512226891424E-8</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94" s="47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95" s="11" t="s">
         <v>424</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>140000000</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96" s="11" t="s">
         <v>425</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>0.34741419627060954</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="s">
         <v>416</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>10.041026</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="s">
         <v>419</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>5751000</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="s">
         <v>420</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>0.57490319201804529</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100" s="11" t="s">
         <v>423</v>
       </c>
@@ -9510,12 +9510,12 @@
         <v>1.3266488743703307E-9</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103" s="11" t="s">
         <v>424</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>1200000000</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104" s="11" t="s">
         <v>425</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>0.34741419627060954</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105" s="11" t="s">
         <v>416</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>10.041026</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106" s="11" t="s">
         <v>419</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>5751000</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="s">
         <v>420</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>0.57490319201804529</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="s">
         <v>423</v>
       </c>
@@ -9993,12 +9993,12 @@
         <v>1.1371276066031406E-8</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110" s="47" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" s="11" t="s">
         <v>409</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112" s="11" t="s">
         <v>416</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>10.041026</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113" s="11" t="s">
         <v>419</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>5751000</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114" s="11" t="s">
         <v>420</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>0.57490319201804529</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115" s="11" t="s">
         <v>423</v>
       </c>
@@ -10407,10 +10407,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="11" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="45.7265625" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13202,7 +13202,7 @@
         <v>2.7033999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>-6.581E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
         <v>74</v>
       </c>
@@ -13392,13 +13392,13 @@
         <v>3.1419999999999998E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>75</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>9.7769999999999992E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
         <v>76</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>1.2154999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>274</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>2.7947E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
         <v>77</v>
       </c>
@@ -13778,7 +13778,7 @@
         <v>1.0399E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
         <v>78</v>
       </c>
@@ -13873,7 +13873,7 @@
         <v>1.0477E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
         <v>79</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>80</v>
       </c>
@@ -14063,12 +14063,12 @@
         <v>6.0219999999999996E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
         <v>75</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>2.8006E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>76</v>
       </c>
@@ -14258,7 +14258,7 @@
         <v>3.0426999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
         <v>274</v>
       </c>
@@ -14353,7 +14353,7 @@
         <v>4.6503999999999997E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
         <v>77</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>2.8639000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
         <v>78</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>2.8718E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="18" t="s">
         <v>79</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>2.6096000000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
         <v>80</v>
       </c>
@@ -14733,8 +14733,8 @@
         <v>2.4183E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="54" t="s">
         <v>82</v>
       </c>
@@ -14769,220 +14769,220 @@
       <c r="AD63" s="54"/>
       <c r="AE63" s="54"/>
     </row>
-    <row r="64" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="25" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="25" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="25" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="25" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="25" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="25" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="25" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="25" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="25" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="25" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="25" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="25" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="25" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="25" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="25" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="25" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A63:AE63"/>
@@ -14997,10 +14997,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="11" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="45.7265625" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -17613,7 +17613,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>172</v>
       </c>
@@ -17708,7 +17708,7 @@
         <v>2.6199999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>173</v>
       </c>
@@ -17803,7 +17803,7 @@
         <v>-1.5568E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>181</v>
       </c>
@@ -17898,7 +17898,7 @@
         <v>1.2623000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
         <v>175</v>
       </c>
@@ -17993,7 +17993,7 @@
         <v>2.0209999999999998E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>191</v>
       </c>
@@ -18088,7 +18088,7 @@
         <v>2.0219999999999998E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
         <v>192</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>8.0230000000000006E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
         <v>292</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>8.0680000000000005E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>193</v>
       </c>
@@ -18373,8 +18373,8 @@
         <v>6.9230000000000003E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
         <v>194</v>
       </c>
@@ -18469,13 +18469,13 @@
         <v>-1.8422999999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
         <v>196</v>
       </c>
@@ -18570,7 +18570,7 @@
         <v>4.8989999999999997E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
         <v>197</v>
       </c>
@@ -18665,7 +18665,7 @@
         <v>7.9819999999999995E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
         <v>198</v>
       </c>
@@ -18760,7 +18760,7 @@
         <v>8.6969999999999999E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>199</v>
       </c>
@@ -18855,7 +18855,7 @@
         <v>3.3910999999999997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
         <v>200</v>
       </c>
@@ -18950,7 +18950,7 @@
         <v>7.1139999999999997E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
         <v>201</v>
       </c>
@@ -19045,7 +19045,7 @@
         <v>3.0671E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
         <v>202</v>
       </c>
@@ -19140,18 +19140,18 @@
         <v>8.3149999999999995E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="17" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="s">
         <v>196</v>
       </c>
@@ -19246,7 +19246,7 @@
         <v>6.4869999999999997E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="s">
         <v>197</v>
       </c>
@@ -19341,7 +19341,7 @@
         <v>5.561E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="s">
         <v>198</v>
       </c>
@@ -19436,7 +19436,7 @@
         <v>7.4070000000000004E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
         <v>199</v>
       </c>
@@ -19531,7 +19531,7 @@
         <v>8.6569999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
         <v>204</v>
       </c>
@@ -19626,12 +19626,12 @@
         <v>6.0219999999999996E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="s">
         <v>196</v>
       </c>
@@ -19726,7 +19726,7 @@
         <v>2.4656999999999998E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
         <v>197</v>
       </c>
@@ -19821,7 +19821,7 @@
         <v>2.3713999999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="18" t="s">
         <v>198</v>
       </c>
@@ -19916,7 +19916,7 @@
         <v>2.5593000000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="18" t="s">
         <v>199</v>
       </c>
@@ -20011,7 +20011,7 @@
         <v>2.6865E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="17" t="s">
         <v>204</v>
       </c>
@@ -20106,18 +20106,18 @@
         <v>2.4183E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="17" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="18" t="s">
         <v>207</v>
       </c>
@@ -20212,7 +20212,7 @@
         <v>5.1289999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18" t="s">
         <v>208</v>
       </c>
@@ -20307,7 +20307,7 @@
         <v>1.2226000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="18" t="s">
         <v>209</v>
       </c>
@@ -20402,12 +20402,12 @@
         <v>5.816E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="s">
         <v>207</v>
       </c>
@@ -20502,7 +20502,7 @@
         <v>2.3274E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
         <v>208</v>
       </c>
@@ -20597,7 +20597,7 @@
         <v>3.0498999999999998E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="s">
         <v>209</v>
       </c>
@@ -20692,13 +20692,13 @@
         <v>2.3973000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="s">
         <v>211</v>
       </c>
@@ -20793,7 +20793,7 @@
         <v>-2.7751000000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="s">
         <v>212</v>
       </c>
@@ -20888,7 +20888,7 @@
         <v>-2.7049999999999999E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
         <v>213</v>
       </c>
@@ -20983,8 +20983,8 @@
         <v>-5.3062999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="90" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="54" t="s">
         <v>111</v>
       </c>
@@ -21019,155 +21019,155 @@
       <c r="AD90" s="54"/>
       <c r="AE90" s="54"/>
     </row>
-    <row r="91" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="25" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="25" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="94" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="25" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="95" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="25" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="25" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="25" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="25" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="25" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="25" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="25" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="25" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="25" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="25" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="25" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="25" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="25" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="25" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="25" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="25" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="25" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A90:AE90"/>
@@ -21182,10 +21182,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="11" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="45.7265625" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -24437,7 +24437,7 @@
       </c>
     </row>
     <row r="40" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
         <v>127</v>
       </c>
@@ -24532,19 +24532,19 @@
         <v>7.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
         <v>130</v>
       </c>
@@ -24639,7 +24639,7 @@
         <v>9.8309999999999995E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>131</v>
       </c>
@@ -24734,7 +24734,7 @@
         <v>-8.4110000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
         <v>318</v>
       </c>
@@ -24829,7 +24829,7 @@
         <v>9.9335999999999994E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
         <v>132</v>
       </c>
@@ -24924,7 +24924,7 @@
         <v>9.9059999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
         <v>133</v>
       </c>
@@ -25019,7 +25019,7 @@
         <v>5.032E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>134</v>
       </c>
@@ -25114,7 +25114,7 @@
         <v>5.8050000000000003E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
         <v>135</v>
       </c>
@@ -25209,7 +25209,7 @@
         <v>-4.424E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
         <v>136</v>
       </c>
@@ -25304,12 +25304,12 @@
         <v>6.6629999999999997E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
         <v>138</v>
       </c>
@@ -25404,7 +25404,7 @@
         <v>-1.2684000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>139</v>
       </c>
@@ -25499,7 +25499,7 @@
         <v>9.6889999999999997E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
         <v>140</v>
       </c>
@@ -25594,7 +25594,7 @@
         <v>-1.9759999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
         <v>141</v>
       </c>
@@ -25689,7 +25689,7 @@
         <v>-1.4481000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
         <v>319</v>
       </c>
@@ -25784,7 +25784,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
         <v>142</v>
       </c>
@@ -25879,8 +25879,8 @@
         <v>5.9100000000000005E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
         <v>320</v>
       </c>
@@ -25975,8 +25975,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="s">
         <v>321</v>
       </c>
@@ -26071,7 +26071,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="s">
         <v>322</v>
       </c>
@@ -26166,7 +26166,7 @@
         <v>1.5269999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
         <v>143</v>
       </c>
@@ -26261,12 +26261,12 @@
         <v>-2.3323E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="30" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
         <v>324</v>
       </c>
@@ -26361,9 +26361,9 @@
         <v>1.0267E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="71" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="54" t="s">
         <v>144</v>
       </c>
@@ -26398,190 +26398,190 @@
       <c r="AD71" s="54"/>
       <c r="AE71" s="54"/>
     </row>
-    <row r="72" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="25" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="25" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="25" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="25" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="25" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="25" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="25" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="25" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="25" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="25" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="25" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="25" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="25" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="25" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="25" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="25" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="25" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="25" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="25" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="25" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="25" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="25" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A71:AE71"/>
@@ -26599,9 +26599,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.35">
@@ -28912,7 +28912,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
   </cols>
@@ -30276,298 +30276,298 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <f>'Subsidies Paid'!F9*About!$A$69</f>
+        <v>2.2332999999999999E-2</v>
       </c>
       <c r="C10" s="11">
-        <v>0</v>
+        <f>'Subsidies Paid'!G9*About!$A$69</f>
+        <v>2.2332999999999999E-2</v>
       </c>
       <c r="D10" s="11">
-        <v>0</v>
+        <f>'Subsidies Paid'!H9*About!$A$69</f>
+        <v>2.2332999999999999E-2</v>
       </c>
       <c r="E10" s="11">
-        <v>0</v>
+        <f>'Subsidies Paid'!I9*About!$A$69</f>
+        <v>2.2332999999999999E-2</v>
       </c>
       <c r="F10" s="11">
-        <v>0</v>
+        <f>Calculations!G33/1000</f>
+        <v>1.8969341161121983E-3</v>
       </c>
       <c r="G10" s="11">
-        <v>0</v>
+        <f>Calculations!H33/1000</f>
+        <v>1.8969341161121983E-3</v>
       </c>
       <c r="H10" s="11">
-        <v>0</v>
+        <f>Calculations!I33/1000</f>
+        <v>1.8969341161121983E-3</v>
       </c>
       <c r="I10" s="11">
-        <v>0</v>
+        <f>Calculations!J33/1000</f>
+        <v>1.8969341161121983E-3</v>
       </c>
       <c r="J10" s="11">
-        <v>0</v>
+        <f>Calculations!K33/1000</f>
+        <v>1.8969341161121983E-3</v>
       </c>
       <c r="K10" s="11">
-        <v>0</v>
+        <f>Calculations!L33/1000</f>
+        <v>1.8969341161121983E-3</v>
       </c>
       <c r="L10" s="11">
-        <v>0</v>
+        <f>Calculations!M33/1000</f>
+        <v>1.8969341161121983E-3</v>
       </c>
       <c r="M10" s="11">
-        <v>0</v>
+        <f>Calculations!N33/1000</f>
+        <v>1.8969341161121983E-3</v>
       </c>
       <c r="N10" s="11">
-        <v>0</v>
+        <f>Calculations!O33/1000</f>
+        <v>1.8969341161121983E-3</v>
       </c>
       <c r="O10" s="11">
-        <v>0</v>
+        <f>Calculations!P33/1000</f>
+        <v>1.8969341161121983E-3</v>
       </c>
       <c r="P10" s="11">
-        <v>0</v>
+        <f>Calculations!Q33/1000</f>
+        <v>1.8969341161121983E-3</v>
       </c>
       <c r="Q10" s="11">
-        <v>0</v>
+        <f>Calculations!R33/1000</f>
+        <v>1.8969341161121983E-3</v>
       </c>
       <c r="R10" s="11">
-        <v>0</v>
+        <f>Calculations!S33/1000</f>
+        <v>1.8969341161121983E-3</v>
       </c>
       <c r="S10" s="11">
-        <v>0</v>
+        <f>Calculations!T33/1000</f>
+        <v>1.8969341161121983E-3</v>
       </c>
       <c r="T10" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>TREND($K10:$S10,$K$1:$S$1,T$1)</f>
+        <v>1.8969341161121987E-3</v>
       </c>
       <c r="U10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND($K10:$S10,$K$1:$S$1,U$1)</f>
+        <v>1.8969341161121987E-3</v>
       </c>
       <c r="V10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND($K10:$S10,$K$1:$S$1,V$1)</f>
+        <v>1.8969341161121987E-3</v>
       </c>
       <c r="W10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND($K10:$S10,$K$1:$S$1,W$1)</f>
+        <v>1.8969341161121987E-3</v>
       </c>
       <c r="X10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND($K10:$S10,$K$1:$S$1,X$1)</f>
+        <v>1.8969341161121987E-3</v>
       </c>
       <c r="Y10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND($K10:$S10,$K$1:$S$1,Y$1)</f>
+        <v>1.8969341161121987E-3</v>
       </c>
       <c r="Z10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND($K10:$S10,$K$1:$S$1,Z$1)</f>
+        <v>1.8969341161121987E-3</v>
       </c>
       <c r="AA10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND($K10:$S10,$K$1:$S$1,AA$1)</f>
+        <v>1.8969341161121987E-3</v>
       </c>
       <c r="AB10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND($K10:$S10,$K$1:$S$1,AB$1)</f>
+        <v>1.8969341161121987E-3</v>
       </c>
       <c r="AC10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND($K10:$S10,$K$1:$S$1,AC$1)</f>
+        <v>1.8969341161121987E-3</v>
       </c>
       <c r="AD10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND($K10:$S10,$K$1:$S$1,AD$1)</f>
+        <v>1.8969341161121987E-3</v>
       </c>
       <c r="AE10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND($K10:$S10,$K$1:$S$1,AE$1)</f>
+        <v>1.8969341161121987E-3</v>
       </c>
       <c r="AF10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND($K10:$S10,$K$1:$S$1,AF$1)</f>
+        <v>1.8969341161121987E-3</v>
       </c>
       <c r="AG10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND($K10:$S10,$K$1:$S$1,AG$1)</f>
+        <v>1.8969341161121987E-3</v>
       </c>
       <c r="AH10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND($K10:$S10,$K$1:$S$1,AH$1)</f>
+        <v>1.8969341161121987E-3</v>
       </c>
       <c r="AI10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND($K10:$S10,$K$1:$S$1,AI$1)</f>
+        <v>1.8969341161121987E-3</v>
       </c>
       <c r="AJ10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND($K10:$S10,$K$1:$S$1,AJ$1)</f>
+        <v>1.8969341161121987E-3</v>
       </c>
       <c r="AK10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND($K10:$S10,$K$1:$S$1,AK$1)</f>
+        <v>1.8969341161121987E-3</v>
       </c>
       <c r="AL10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND($K10:$S10,$K$1:$S$1,AL$1)</f>
+        <v>1.8969341161121987E-3</v>
       </c>
       <c r="AM10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND($K10:$S10,$K$1:$S$1,AM$1)</f>
+        <v>1.8969341161121987E-3</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B11">
-        <f>'Subsidies Paid'!F9*About!$A$69</f>
-        <v>2.2332999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="11">
-        <f>'Subsidies Paid'!G9*About!$A$69</f>
-        <v>2.2332999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="11">
-        <f>'Subsidies Paid'!H9*About!$A$69</f>
-        <v>2.2332999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="11">
-        <f>'Subsidies Paid'!I9*About!$A$69</f>
-        <v>2.2332999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="11">
-        <f>Calculations!G33/1000</f>
-        <v>1.8969341161121983E-3</v>
+        <v>0</v>
       </c>
       <c r="G11" s="11">
-        <f>Calculations!H33/1000</f>
-        <v>1.8969341161121983E-3</v>
+        <v>0</v>
       </c>
       <c r="H11" s="11">
-        <f>Calculations!I33/1000</f>
-        <v>1.8969341161121983E-3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
-        <f>Calculations!J33/1000</f>
-        <v>1.8969341161121983E-3</v>
+        <v>0</v>
       </c>
       <c r="J11" s="11">
-        <f>Calculations!K33/1000</f>
-        <v>1.8969341161121983E-3</v>
+        <v>0</v>
       </c>
       <c r="K11" s="11">
-        <f>Calculations!L33/1000</f>
-        <v>1.8969341161121983E-3</v>
+        <v>0</v>
       </c>
       <c r="L11" s="11">
-        <f>Calculations!M33/1000</f>
-        <v>1.8969341161121983E-3</v>
+        <v>0</v>
       </c>
       <c r="M11" s="11">
-        <f>Calculations!N33/1000</f>
-        <v>1.8969341161121983E-3</v>
+        <v>0</v>
       </c>
       <c r="N11" s="11">
-        <f>Calculations!O33/1000</f>
-        <v>1.8969341161121983E-3</v>
+        <v>0</v>
       </c>
       <c r="O11" s="11">
-        <f>Calculations!P33/1000</f>
-        <v>1.8969341161121983E-3</v>
+        <v>0</v>
       </c>
       <c r="P11" s="11">
-        <f>Calculations!Q33/1000</f>
-        <v>1.8969341161121983E-3</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="11">
-        <f>Calculations!R33/1000</f>
-        <v>1.8969341161121983E-3</v>
+        <v>0</v>
       </c>
       <c r="R11" s="11">
-        <f>Calculations!S33/1000</f>
-        <v>1.8969341161121983E-3</v>
+        <v>0</v>
       </c>
       <c r="S11" s="11">
-        <f>Calculations!T33/1000</f>
-        <v>1.8969341161121983E-3</v>
+        <v>0</v>
       </c>
       <c r="T11" s="11">
         <f t="shared" si="2"/>
-        <v>1.8969341161121987E-3</v>
+        <v>0</v>
       </c>
       <c r="U11" s="11">
         <f t="shared" si="1"/>
-        <v>1.8969341161121987E-3</v>
+        <v>0</v>
       </c>
       <c r="V11" s="11">
         <f t="shared" si="1"/>
-        <v>1.8969341161121987E-3</v>
+        <v>0</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="1"/>
-        <v>1.8969341161121987E-3</v>
+        <v>0</v>
       </c>
       <c r="X11" s="11">
         <f t="shared" si="1"/>
-        <v>1.8969341161121987E-3</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="11">
         <f t="shared" si="1"/>
-        <v>1.8969341161121987E-3</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="11">
         <f t="shared" si="1"/>
-        <v>1.8969341161121987E-3</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="11">
         <f t="shared" si="1"/>
-        <v>1.8969341161121987E-3</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="11">
         <f t="shared" si="1"/>
-        <v>1.8969341161121987E-3</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="11">
         <f t="shared" si="1"/>
-        <v>1.8969341161121987E-3</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="11">
         <f t="shared" si="1"/>
-        <v>1.8969341161121987E-3</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="11">
         <f t="shared" si="1"/>
-        <v>1.8969341161121987E-3</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="11">
         <f t="shared" si="1"/>
-        <v>1.8969341161121987E-3</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="11">
         <f t="shared" si="1"/>
-        <v>1.8969341161121987E-3</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="11">
         <f t="shared" si="1"/>
-        <v>1.8969341161121987E-3</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="11">
         <f t="shared" si="1"/>
-        <v>1.8969341161121987E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="11">
         <f t="shared" si="1"/>
-        <v>1.8969341161121987E-3</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="11">
         <f t="shared" si="1"/>
-        <v>1.8969341161121987E-3</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="11">
         <f t="shared" si="1"/>
-        <v>1.8969341161121987E-3</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="11">
         <f t="shared" si="1"/>
-        <v>1.8969341161121987E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.35">
@@ -30808,41 +30808,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="87.7109375" style="11" customWidth="1"/>
-    <col min="3" max="12" width="9.140625" style="11"/>
-    <col min="13" max="13" width="11.5703125" style="11" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="32.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="87.7265625" style="11" customWidth="1"/>
+    <col min="3" max="12" width="9.1796875" style="11"/>
+    <col min="13" max="13" width="11.54296875" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -30862,7 +30862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -30903,7 +30903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>33</v>
       </c>
@@ -30952,7 +30952,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
         <v>22</v>
       </c>
@@ -30993,7 +30993,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>23</v>
       </c>
@@ -31044,7 +31044,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
         <v>23</v>
       </c>
@@ -31085,7 +31085,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -31136,7 +31136,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
         <v>25</v>
       </c>
@@ -31167,7 +31167,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>26</v>
       </c>
@@ -31198,7 +31198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>26</v>
       </c>
@@ -31237,7 +31237,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
         <v>26</v>
       </c>
@@ -31276,7 +31276,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="29.15" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
         <v>42</v>
       </c>
@@ -31317,7 +31317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
         <v>26</v>
       </c>
@@ -31361,7 +31361,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="29.15" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
         <v>42</v>
       </c>
@@ -31407,7 +31407,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="29.15" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
         <v>42</v>
       </c>
@@ -31453,7 +31453,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="34" t="s">
         <v>26</v>
       </c>
@@ -31484,7 +31484,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
         <v>33</v>
       </c>
@@ -31518,7 +31518,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="31" t="s">
         <v>37</v>
       </c>
@@ -31552,7 +31552,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="29.15" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
         <v>42</v>
       </c>
@@ -31583,7 +31583,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
         <v>40</v>
       </c>
@@ -31614,7 +31614,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
         <v>42</v>
       </c>
@@ -31648,22 +31648,22 @@
         <v>365</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
     </row>
   </sheetData>

--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="110" windowWidth="19420" windowHeight="9030"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="19425" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="467">
   <si>
     <t>Source:</t>
   </si>
@@ -780,9 +780,6 @@
     <t>from generating a warning about missing data.</t>
   </si>
   <si>
-    <t>coal ($/BTU)</t>
-  </si>
-  <si>
     <t>natural gas ($/BTU)</t>
   </si>
   <si>
@@ -804,9 +801,6 @@
     <t>hydro ($/MWh)</t>
   </si>
   <si>
-    <t>wind ($/MWh)</t>
-  </si>
-  <si>
     <t>BS BAU Subsidy per Unit Electricity Output</t>
   </si>
   <si>
@@ -1300,9 +1294,6 @@
   </si>
   <si>
     <t>Proportion of Petroleum Production Relative to Total Qualfying Production</t>
-  </si>
-  <si>
-    <t>coal ($/MWh)</t>
   </si>
   <si>
     <t>Database of State Incentives for Renewables &amp; Efficiency (DSIRE)</t>
@@ -1425,6 +1416,24 @@
   </si>
   <si>
     <t>ones that take the longest to reach steady levels.)</t>
+  </si>
+  <si>
+    <t>lignite ($/BTU)</t>
+  </si>
+  <si>
+    <t>lignite ($/MWh)</t>
+  </si>
+  <si>
+    <t>offshore wind ($/MWh)</t>
+  </si>
+  <si>
+    <t>hard coal ($/BTU)</t>
+  </si>
+  <si>
+    <t>hard coal ($/MWh)</t>
+  </si>
+  <si>
+    <t>onshore wind ($/MWh)</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1700,7 @@
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1800,6 +1809,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2119,22 +2129,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="83.26953125" customWidth="1"/>
+    <col min="2" max="2" width="83.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2142,300 +2152,300 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B14" s="11" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B17" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B18" s="11" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="20" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B23" s="9" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B24" s="11" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>460</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -2457,19 +2467,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="11" customWidth="1"/>
     <col min="3" max="3" width="9" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="11"/>
-    <col min="7" max="7" width="10.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="10.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="11"/>
+    <col min="12" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2477,13 +2487,13 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>166</v>
@@ -2548,16 +2558,16 @@
         <v>25</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F2" s="50">
         <v>1.0999999999999999E-2</v>
@@ -2614,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
@@ -2622,16 +2632,16 @@
         <v>26</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F3" s="50">
         <v>0</v>
@@ -2688,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
@@ -2702,13 +2712,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G4" s="3">
         <v>0.4</v>
@@ -2726,43 +2736,43 @@
         <v>0.3</v>
       </c>
       <c r="L4" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M4" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N4" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O4" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="P4" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q4" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S4" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="T4" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="U4" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="V4" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W4" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
@@ -2770,16 +2780,16 @@
         <v>24</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F5" s="50">
         <v>1.0999999999999999E-2</v>
@@ -2836,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -2844,19 +2854,19 @@
         <v>40</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G6" s="51">
         <v>0.2</v>
@@ -2874,60 +2884,60 @@
         <v>0.3</v>
       </c>
       <c r="L6" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M6" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N6" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O6" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="P6" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q6" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R6" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S6" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="T6" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="U6" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="V6" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W6" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F7" s="50">
         <v>0.3</v>
@@ -2984,7 +2994,7 @@
         <v>0.1</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
@@ -2992,16 +3002,16 @@
         <v>23</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F8" s="50">
         <v>2.3E-2</v>
@@ -3061,24 +3071,24 @@
         <v>0</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F9" s="50">
         <f>0.023</f>
@@ -3139,24 +3149,24 @@
         <v>0</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F10" s="50">
         <v>0.1</v>
@@ -3213,7 +3223,7 @@
         <v>0.1</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
@@ -3221,73 +3231,73 @@
         <v>26</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C11" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>356</v>
-      </c>
       <c r="F11" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H11" s="50">
         <v>53000000</v>
       </c>
       <c r="I11" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K11" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L11" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M11" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N11" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O11" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="P11" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q11" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R11" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S11" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="T11" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="U11" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="V11" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W11" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X11" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
@@ -3295,19 +3305,19 @@
         <v>26</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G12" s="50">
         <v>0.1</v>
@@ -3325,60 +3335,60 @@
         <v>0.1</v>
       </c>
       <c r="L12" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M12" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N12" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O12" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="P12" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q12" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R12" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S12" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="T12" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="U12" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="V12" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W12" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G13" s="50">
         <v>1.1000000000000001</v>
@@ -3396,43 +3406,43 @@
         <v>1.3</v>
       </c>
       <c r="L13" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M13" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N13" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O13" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="P13" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R13" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S13" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="T13" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="U13" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="V13" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W13" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
@@ -3443,16 +3453,16 @@
         <v>30</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G14" s="52">
         <v>1.0200000000000002</v>
@@ -3470,43 +3480,43 @@
         <v>1.6200000000000003</v>
       </c>
       <c r="L14" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M14" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N14" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O14" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="P14" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q14" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R14" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S14" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="T14" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="U14" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="V14" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W14" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X14" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
@@ -3517,16 +3527,16 @@
         <v>31</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G15" s="52">
         <v>0.14000000000000001</v>
@@ -3544,43 +3554,43 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="L15" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M15" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N15" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O15" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="P15" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q15" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R15" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S15" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="T15" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="U15" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="V15" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W15" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
@@ -3591,16 +3601,16 @@
         <v>38</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G16" s="50">
         <v>1.1000000000000001</v>
@@ -3618,117 +3628,117 @@
         <v>1.2</v>
       </c>
       <c r="L16" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M16" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N16" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O16" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="P16" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R16" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S16" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="T16" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="U16" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="V16" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W16" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>356</v>
-      </c>
       <c r="F17" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H17" s="50">
         <v>10000000</v>
       </c>
       <c r="I17" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J17" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K17" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L17" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M17" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N17" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O17" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="P17" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R17" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S17" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="T17" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="U17" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="V17" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W17" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -3754,18 +3764,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -3787,9 +3797,9 @@
       <c r="S1" s="42"/>
       <c r="T1" s="42"/>
     </row>
-    <row r="2" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="39"/>
@@ -3811,9 +3821,9 @@
       <c r="S2" s="39"/>
       <c r="T2" s="39"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>0</v>
@@ -3873,12 +3883,12 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>372</v>
       </c>
       <c r="C4" s="11">
         <v>2545454.5454545454</v>
@@ -3935,12 +3945,12 @@
         <v>1209865.6922051923</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C5" s="11">
         <v>0.31</v>
@@ -3997,9 +4007,9 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C6" s="11">
         <f t="shared" ref="C6:T6" si="0">C5*8760</f>
@@ -4074,12 +4084,12 @@
         <v>2715.6</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>376</v>
       </c>
       <c r="C7" s="11">
         <v>30</v>
@@ -4136,9 +4146,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C8" s="11">
         <f t="shared" ref="C8:T8" si="1">C6*C7</f>
@@ -4213,9 +4223,9 @@
         <v>81468</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C9" s="11">
         <f>'Subsidies Paid'!F7</f>
@@ -4290,9 +4300,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C10" s="11">
         <f t="shared" ref="C10:T10" si="2">C9*C4</f>
@@ -4367,9 +4377,9 @@
         <v>120986.56922051923</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C11" s="11">
         <f t="shared" ref="C11:T11" si="3">C10/C8</f>
@@ -4444,10 +4454,10 @@
         <v>1.4850808810885161</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="39"/>
@@ -4469,9 +4479,9 @@
       <c r="S13" s="39"/>
       <c r="T13" s="39"/>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>0</v>
@@ -4531,12 +4541,12 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C15" s="11">
         <v>5067000</v>
@@ -4593,12 +4603,12 @@
         <v>4594388</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C16" s="11">
         <v>0.68500000000000005</v>
@@ -4655,9 +4665,9 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C17" s="11">
         <f t="shared" ref="C17:T17" si="4">C16*8760</f>
@@ -4732,12 +4742,12 @@
         <v>6000.6</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C18" s="11">
         <v>30</v>
@@ -4794,9 +4804,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C19" s="11">
         <f t="shared" ref="C19:T19" si="5">C17*C18</f>
@@ -4871,9 +4881,9 @@
         <v>180018</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C20" s="11">
         <f>'Subsidies Paid'!F7</f>
@@ -4948,9 +4958,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C21" s="11">
         <f t="shared" ref="C21:T21" si="6">C20*C15</f>
@@ -5025,9 +5035,9 @@
         <v>459438.80000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C22" s="11">
         <f t="shared" ref="C22:T22" si="7">C21/C19</f>
@@ -5102,9 +5112,9 @@
         <v>2.5521825595218259</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="40" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B24" s="40"/>
       <c r="C24" s="39"/>
@@ -5126,9 +5136,9 @@
       <c r="S24" s="39"/>
       <c r="T24" s="39"/>
     </row>
-    <row r="25" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" s="44" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>0</v>
@@ -5188,12 +5198,12 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C26" s="11">
         <f>4362*1000</f>
@@ -5268,12 +5278,12 @@
         <v>4362000</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" s="11" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C27" s="11">
         <v>0.875</v>
@@ -5330,9 +5340,9 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C28" s="11">
         <f t="shared" ref="C28:T28" si="9">C27*8760</f>
@@ -5407,12 +5417,12 @@
         <v>7665</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C29" s="11">
         <v>30</v>
@@ -5469,9 +5479,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C30" s="11">
         <f t="shared" ref="C30:T30" si="10">C28*C29</f>
@@ -5546,9 +5556,9 @@
         <v>229950</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C31" s="11">
         <f>'Subsidies Paid'!F10</f>
@@ -5623,9 +5633,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C32" s="11">
         <f t="shared" ref="C32:T32" si="11">C31*C26</f>
@@ -5700,9 +5710,9 @@
         <v>436200</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C33" s="11">
         <f t="shared" ref="C33:T33" si="12">C32/C30</f>
@@ -5777,10 +5787,10 @@
         <v>1.8969341161121982</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
@@ -5802,7 +5812,7 @@
       <c r="S35" s="43"/>
       <c r="T35" s="43"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>32</v>
       </c>
@@ -5864,12 +5874,12 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C37" s="10">
         <f>D37</f>
@@ -5944,12 +5954,12 @@
         <v>300000000</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>391</v>
+      </c>
+      <c r="B38" t="s">
         <v>393</v>
-      </c>
-      <c r="B38" t="s">
-        <v>395</v>
       </c>
       <c r="C38" s="10">
         <f>'AEO Table 8'!C10*10^6</f>
@@ -6024,9 +6034,9 @@
         <v>1673964355</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C39">
         <f>C37/C38</f>
@@ -6101,9 +6111,9 @@
         <v>0.179215285620583</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
@@ -6125,9 +6135,9 @@
       <c r="S41" s="40"/>
       <c r="T41" s="40"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>0</v>
@@ -6187,12 +6197,12 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C43" s="10">
         <f>D43</f>
@@ -6267,12 +6277,12 @@
         <v>300000000</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B44" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C44" s="10">
         <f>'AEO Table 8'!B13*10^6</f>
@@ -6347,9 +6357,9 @@
         <v>807548706</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C45">
         <f>C43/C44</f>
@@ -6424,9 +6434,9 @@
         <v>0.37149462041240644</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="42" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
@@ -6448,9 +6458,9 @@
       <c r="S47" s="42"/>
       <c r="T47" s="42"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="40" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B48" s="40"/>
       <c r="C48" s="40"/>
@@ -6472,9 +6482,9 @@
       <c r="S48" s="40"/>
       <c r="T48" s="40"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>0</v>
@@ -6534,12 +6544,12 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C50" s="10">
         <f>D50</f>
@@ -6614,12 +6624,12 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B51" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C51" s="10">
         <f>'AEO Table 1'!C10*10^15</f>
@@ -6694,9 +6704,9 @@
         <v>2.2546925E+16</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C52">
         <f>C50/C51</f>
@@ -6771,17 +6781,17 @@
         <v>4.4351945997070553E-9</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C55" s="10">
         <f>$E$55</f>
@@ -6856,12 +6866,12 @@
         <v>53000000</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B56" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C56" s="10">
         <f>'AEO Table 1'!C10*10^15</f>
@@ -6936,9 +6946,9 @@
         <v>2.2546925E+16</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C57">
         <f>C55/C56</f>
@@ -7013,9 +7023,9 @@
         <v>2.3506531378447394E-9</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="40" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B59" s="40"/>
       <c r="C59" s="40"/>
@@ -7037,7 +7047,7 @@
       <c r="S59" s="40"/>
       <c r="T59" s="40"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
         <v>30</v>
       </c>
@@ -7099,12 +7109,12 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C61" s="10">
         <f>D61</f>
@@ -7179,12 +7189,12 @@
         <v>1620000000.0000002</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C62" s="10">
         <f>'AEO Table 1'!C9*10^15</f>
@@ -7259,12 +7269,12 @@
         <v>3.3372585E+16</v>
       </c>
     </row>
-    <row r="63" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C63" s="10">
         <f>SUM('AEO Table 1'!C7:C8)*10^15</f>
@@ -7339,9 +7349,9 @@
         <v>2.6790613E+16</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C64" s="10">
         <f t="shared" ref="C64:T64" si="22">C61*(C62/SUM(C62:C63))/C62</f>
@@ -7416,17 +7426,17 @@
         <v>2.6926760110059308E-8</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C67" s="10">
         <f>D67</f>
@@ -7501,12 +7511,12 @@
         <v>140000000</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C68" s="10">
         <f>'AEO Table 1'!C9*10^15</f>
@@ -7581,12 +7591,12 @@
         <v>3.3905524999999996E+16</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C69" s="10">
         <f>SUM('AEO Table 1'!C7:C8)*10^15</f>
@@ -7661,9 +7671,9 @@
         <v>2.6790613E+16</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="10">
@@ -7739,18 +7749,18 @@
         <v>2.3065717953916606E-9</v>
       </c>
     </row>
-    <row r="71" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C73" s="10">
         <f>D73</f>
@@ -7825,12 +7835,12 @@
         <v>1200000000</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C74" s="10">
         <f>'AEO Table 1'!C9*10^15</f>
@@ -7905,12 +7915,12 @@
         <v>3.3905524999999996E+16</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C75" s="10">
         <f>SUM('AEO Table 1'!C7:C8)*10^15</f>
@@ -7985,9 +7995,9 @@
         <v>2.6790613E+16</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="10">
@@ -8063,10 +8073,10 @@
         <v>1.9770615389071378E-8</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="40" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B78" s="40"/>
       <c r="C78" s="40"/>
@@ -8088,9 +8098,9 @@
       <c r="S78" s="40"/>
       <c r="T78" s="40"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="47" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C79" s="11">
         <v>2013</v>
@@ -8147,12 +8157,12 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C80">
         <f>D80</f>
@@ -8227,12 +8237,12 @@
         <v>1300000000</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B81" t="s">
         <v>416</v>
-      </c>
-      <c r="B81" t="s">
-        <v>418</v>
       </c>
       <c r="C81" s="5">
         <f>'AEO Table 11'!C7</f>
@@ -8307,12 +8317,12 @@
         <v>10.041026</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C82">
         <f>5.751*10^6</f>
@@ -8387,12 +8397,12 @@
         <v>5751000</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B83" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C83" s="41">
         <f>('AEO Table 11'!B7-'AEO Table 11'!B12)/'AEO Table 11'!B14</f>
@@ -8467,9 +8477,9 @@
         <v>0.57490319201804529</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C84">
         <f>C80/(C81*C82*10^6*365)*C83</f>
@@ -8544,17 +8554,17 @@
         <v>3.5458776691070718E-8</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C87" s="11">
         <f>D87</f>
@@ -8629,12 +8639,12 @@
         <v>1620000000.0000002</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C88" s="41">
         <f>'AEO Table 1'!C7/SUM('AEO Table 1'!C7:C9)</f>
@@ -8709,12 +8719,12 @@
         <v>0.34741419627060954</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>416</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>418</v>
       </c>
       <c r="C89" s="5">
         <f>'AEO Table 11'!C7</f>
@@ -8789,12 +8799,12 @@
         <v>10.041026</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C90" s="11">
         <f>5.751*10^6</f>
@@ -8869,12 +8879,12 @@
         <v>5751000</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C91" s="41">
         <f>('AEO Table 11'!B7-'AEO Table 11'!B12)/'AEO Table 11'!B14</f>
@@ -8949,9 +8959,9 @@
         <v>0.57490319201804529</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92">
@@ -9027,17 +9037,17 @@
         <v>1.53512226891424E-8</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C95">
         <f>D95</f>
@@ -9112,12 +9122,12 @@
         <v>140000000</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C96" s="41">
         <f>'AEO Table 1'!C7/SUM('AEO Table 1'!C7:C9)</f>
@@ -9192,12 +9202,12 @@
         <v>0.34741419627060954</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B97" s="11" t="s">
         <v>416</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>418</v>
       </c>
       <c r="C97" s="5">
         <f>'AEO Table 11'!C7</f>
@@ -9272,12 +9282,12 @@
         <v>10.041026</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C98" s="11">
         <f>5.751*10^6</f>
@@ -9352,12 +9362,12 @@
         <v>5751000</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C99" s="41">
         <f>('AEO Table 11'!B7-'AEO Table 11'!B12)/'AEO Table 11'!B14</f>
@@ -9432,9 +9442,9 @@
         <v>0.57490319201804529</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="11">
@@ -9510,17 +9520,17 @@
         <v>1.3266488743703307E-9</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C103" s="11">
         <f>D103</f>
@@ -9595,12 +9605,12 @@
         <v>1200000000</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C104" s="11">
         <f>'AEO Table 1'!C7/SUM('AEO Table 1'!C7:C9)</f>
@@ -9675,12 +9685,12 @@
         <v>0.34741419627060954</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B105" s="11" t="s">
         <v>416</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>418</v>
       </c>
       <c r="C105" s="5">
         <f>'AEO Table 11'!C7</f>
@@ -9755,12 +9765,12 @@
         <v>10.041026</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C106" s="11">
         <f>5.751*10^6</f>
@@ -9835,12 +9845,12 @@
         <v>5751000</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C107" s="41">
         <f>('AEO Table 11'!B7-'AEO Table 11'!B12)/'AEO Table 11'!B14</f>
@@ -9915,9 +9925,9 @@
         <v>0.57490319201804529</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B108" s="11"/>
       <c r="C108" s="11">
@@ -9993,17 +10003,17 @@
         <v>1.1371276066031406E-8</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="47" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C111" s="11">
         <f>D111</f>
@@ -10078,12 +10088,12 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>416</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>418</v>
       </c>
       <c r="C112" s="5">
         <f>'AEO Table 11'!C7</f>
@@ -10158,12 +10168,12 @@
         <v>10.041026</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C113" s="11">
         <f>5.751*10^6</f>
@@ -10238,12 +10248,12 @@
         <v>5751000</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C114" s="41">
         <f>('AEO Table 11'!B7-'AEO Table 11'!B12)/'AEO Table 11'!B14</f>
@@ -10318,9 +10328,9 @@
         <v>0.57490319201804529</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="11">
@@ -10407,10 +10417,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="11" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="11"/>
+    <col min="1" max="1" width="45.7109375" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10515,7 +10525,7 @@
         <v>45</v>
       </c>
       <c r="AE3" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -11096,7 +11106,7 @@
     </row>
     <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B12" s="19">
         <v>2.6190349999999998</v>
@@ -12245,7 +12255,7 @@
         <v>5.8587E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>65</v>
       </c>
@@ -12340,7 +12350,7 @@
         <v>7.6119999999999998E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>56</v>
       </c>
@@ -12435,8 +12445,8 @@
         <v>2.7858000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>66</v>
       </c>
@@ -12531,13 +12541,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>69</v>
       </c>
@@ -12632,7 +12642,7 @@
         <v>3.0600000000000001E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>70</v>
       </c>
@@ -12727,7 +12737,7 @@
         <v>4.712E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>71</v>
       </c>
@@ -12822,7 +12832,7 @@
         <v>1.9940000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>52</v>
       </c>
@@ -12917,9 +12927,9 @@
         <v>2.0209999999999998E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B38" s="19">
         <v>2.6190349999999998</v>
@@ -13012,7 +13022,7 @@
         <v>3.9249999999999997E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>72</v>
       </c>
@@ -13107,7 +13117,7 @@
         <v>7.0029999999999997E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>54</v>
       </c>
@@ -13202,7 +13212,7 @@
         <v>2.7033999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -13297,7 +13307,7 @@
         <v>-6.581E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>74</v>
       </c>
@@ -13392,13 +13402,13 @@
         <v>3.1419999999999998E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>75</v>
       </c>
@@ -13493,7 +13503,7 @@
         <v>9.7769999999999992E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>76</v>
       </c>
@@ -13588,9 +13598,9 @@
         <v>1.2154999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B47" s="19">
         <v>2.79094</v>
@@ -13683,7 +13693,7 @@
         <v>2.7947E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>77</v>
       </c>
@@ -13778,7 +13788,7 @@
         <v>1.0399E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>78</v>
       </c>
@@ -13873,7 +13883,7 @@
         <v>1.0477E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>79</v>
       </c>
@@ -13968,7 +13978,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>80</v>
       </c>
@@ -14063,12 +14073,12 @@
         <v>6.0219999999999996E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>75</v>
       </c>
@@ -14163,7 +14173,7 @@
         <v>2.8006E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>76</v>
       </c>
@@ -14258,9 +14268,9 @@
         <v>3.0426999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B57" s="19">
         <v>2.75</v>
@@ -14353,7 +14363,7 @@
         <v>4.6503999999999997E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>77</v>
       </c>
@@ -14448,7 +14458,7 @@
         <v>2.8639000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>78</v>
       </c>
@@ -14543,7 +14553,7 @@
         <v>2.8718E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>79</v>
       </c>
@@ -14638,7 +14648,7 @@
         <v>2.6096000000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>80</v>
       </c>
@@ -14733,256 +14743,256 @@
         <v>2.4183E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="63" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="54" t="s">
+    <row r="62" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="54"/>
-      <c r="R63" s="54"/>
-      <c r="S63" s="54"/>
-      <c r="T63" s="54"/>
-      <c r="U63" s="54"/>
-      <c r="V63" s="54"/>
-      <c r="W63" s="54"/>
-      <c r="X63" s="54"/>
-      <c r="Y63" s="54"/>
-      <c r="Z63" s="54"/>
-      <c r="AA63" s="54"/>
-      <c r="AB63" s="54"/>
-      <c r="AC63" s="54"/>
-      <c r="AD63" s="54"/>
-      <c r="AE63" s="54"/>
-    </row>
-    <row r="64" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="55"/>
+      <c r="N63" s="55"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55"/>
+      <c r="R63" s="55"/>
+      <c r="S63" s="55"/>
+      <c r="T63" s="55"/>
+      <c r="U63" s="55"/>
+      <c r="V63" s="55"/>
+      <c r="W63" s="55"/>
+      <c r="X63" s="55"/>
+      <c r="Y63" s="55"/>
+      <c r="Z63" s="55"/>
+      <c r="AA63" s="55"/>
+      <c r="AB63" s="55"/>
+      <c r="AC63" s="55"/>
+      <c r="AD63" s="55"/>
+      <c r="AE63" s="55"/>
+    </row>
+    <row r="64" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="25" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="25" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="25" t="s">
+    <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="25" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="25" t="s">
+    <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="25" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="25" t="s">
+    <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="25" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="25" t="s">
+    <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="25" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="25" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="25" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="25" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="25" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="25" t="s">
+    <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="25" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="25" t="s">
+    <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="25" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="25" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="25" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A63:AE63"/>
@@ -14997,10 +15007,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="11" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="11"/>
+    <col min="1" max="1" width="45.7109375" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -15105,7 +15115,7 @@
         <v>45</v>
       </c>
       <c r="AE3" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16462,7 +16472,7 @@
     </row>
     <row r="24" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B24" s="28">
         <v>3890.3598630000001</v>
@@ -16746,13 +16756,13 @@
         <v>6.8450000000000004E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>172</v>
       </c>
@@ -16847,7 +16857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>173</v>
       </c>
@@ -16942,7 +16952,7 @@
         <v>-4.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>181</v>
       </c>
@@ -17037,7 +17047,7 @@
         <v>3.2848000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>186</v>
       </c>
@@ -17132,7 +17142,7 @@
         <v>2.1486000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>187</v>
       </c>
@@ -17227,7 +17237,7 @@
         <v>3.1387999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>188</v>
       </c>
@@ -17322,9 +17332,9 @@
         <v>4.8000000000000001E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B36" s="28">
         <v>164.48966999999999</v>
@@ -17417,7 +17427,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>189</v>
       </c>
@@ -17512,7 +17522,7 @@
         <v>3.2618000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>190</v>
       </c>
@@ -17607,13 +17617,13 @@
         <v>1.4049000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>172</v>
       </c>
@@ -17708,7 +17718,7 @@
         <v>2.6199999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>173</v>
       </c>
@@ -17803,7 +17813,7 @@
         <v>-1.5568E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>181</v>
       </c>
@@ -17898,7 +17908,7 @@
         <v>1.2623000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>175</v>
       </c>
@@ -17993,7 +18003,7 @@
         <v>2.0209999999999998E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>191</v>
       </c>
@@ -18088,7 +18098,7 @@
         <v>2.0219999999999998E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>192</v>
       </c>
@@ -18183,9 +18193,9 @@
         <v>8.0230000000000006E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B47" s="28">
         <v>4054.8496089999999</v>
@@ -18278,7 +18288,7 @@
         <v>8.0680000000000005E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>193</v>
       </c>
@@ -18373,8 +18383,8 @@
         <v>6.9230000000000003E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>194</v>
       </c>
@@ -18469,13 +18479,13 @@
         <v>-1.8422999999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>196</v>
       </c>
@@ -18570,7 +18580,7 @@
         <v>4.8989999999999997E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>197</v>
       </c>
@@ -18665,7 +18675,7 @@
         <v>7.9819999999999995E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>198</v>
       </c>
@@ -18760,7 +18770,7 @@
         <v>8.6969999999999999E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>199</v>
       </c>
@@ -18855,7 +18865,7 @@
         <v>3.3910999999999997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>200</v>
       </c>
@@ -18950,7 +18960,7 @@
         <v>7.1139999999999997E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>201</v>
       </c>
@@ -19045,7 +19055,7 @@
         <v>3.0671E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>202</v>
       </c>
@@ -19140,18 +19150,18 @@
         <v>8.3149999999999995E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>196</v>
       </c>
@@ -19246,7 +19256,7 @@
         <v>6.4869999999999997E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>197</v>
       </c>
@@ -19341,7 +19351,7 @@
         <v>5.561E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>198</v>
       </c>
@@ -19436,7 +19446,7 @@
         <v>7.4070000000000004E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>199</v>
       </c>
@@ -19531,7 +19541,7 @@
         <v>8.6569999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
         <v>204</v>
       </c>
@@ -19626,12 +19636,12 @@
         <v>6.0219999999999996E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>196</v>
       </c>
@@ -19726,7 +19736,7 @@
         <v>2.4656999999999998E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>197</v>
       </c>
@@ -19821,7 +19831,7 @@
         <v>2.3713999999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>198</v>
       </c>
@@ -19916,7 +19926,7 @@
         <v>2.5593000000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>199</v>
       </c>
@@ -20011,7 +20021,7 @@
         <v>2.6865E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>204</v>
       </c>
@@ -20106,18 +20116,18 @@
         <v>2.4183E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>207</v>
       </c>
@@ -20212,7 +20222,7 @@
         <v>5.1289999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>208</v>
       </c>
@@ -20307,7 +20317,7 @@
         <v>1.2226000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>209</v>
       </c>
@@ -20402,12 +20412,12 @@
         <v>5.816E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>207</v>
       </c>
@@ -20502,7 +20512,7 @@
         <v>2.3274E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
         <v>208</v>
       </c>
@@ -20597,7 +20607,7 @@
         <v>3.0498999999999998E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
         <v>209</v>
       </c>
@@ -20692,13 +20702,13 @@
         <v>2.3973000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
         <v>211</v>
       </c>
@@ -20793,7 +20803,7 @@
         <v>-2.7751000000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
         <v>212</v>
       </c>
@@ -20888,7 +20898,7 @@
         <v>-2.7049999999999999E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>213</v>
       </c>
@@ -20983,191 +20993,191 @@
         <v>-5.3062999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="90" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="54" t="s">
+    <row r="89" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="B90" s="54"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="54"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="54"/>
-      <c r="H90" s="54"/>
-      <c r="I90" s="54"/>
-      <c r="J90" s="54"/>
-      <c r="K90" s="54"/>
-      <c r="L90" s="54"/>
-      <c r="M90" s="54"/>
-      <c r="N90" s="54"/>
-      <c r="O90" s="54"/>
-      <c r="P90" s="54"/>
-      <c r="Q90" s="54"/>
-      <c r="R90" s="54"/>
-      <c r="S90" s="54"/>
-      <c r="T90" s="54"/>
-      <c r="U90" s="54"/>
-      <c r="V90" s="54"/>
-      <c r="W90" s="54"/>
-      <c r="X90" s="54"/>
-      <c r="Y90" s="54"/>
-      <c r="Z90" s="54"/>
-      <c r="AA90" s="54"/>
-      <c r="AB90" s="54"/>
-      <c r="AC90" s="54"/>
-      <c r="AD90" s="54"/>
-      <c r="AE90" s="54"/>
-    </row>
-    <row r="91" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="55"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="55"/>
+      <c r="I90" s="55"/>
+      <c r="J90" s="55"/>
+      <c r="K90" s="55"/>
+      <c r="L90" s="55"/>
+      <c r="M90" s="55"/>
+      <c r="N90" s="55"/>
+      <c r="O90" s="55"/>
+      <c r="P90" s="55"/>
+      <c r="Q90" s="55"/>
+      <c r="R90" s="55"/>
+      <c r="S90" s="55"/>
+      <c r="T90" s="55"/>
+      <c r="U90" s="55"/>
+      <c r="V90" s="55"/>
+      <c r="W90" s="55"/>
+      <c r="X90" s="55"/>
+      <c r="Y90" s="55"/>
+      <c r="Z90" s="55"/>
+      <c r="AA90" s="55"/>
+      <c r="AB90" s="55"/>
+      <c r="AC90" s="55"/>
+      <c r="AD90" s="55"/>
+      <c r="AE90" s="55"/>
+    </row>
+    <row r="91" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="94" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="95" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="25" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="25" t="s">
+    <row r="118" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="25" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="25" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A90:AE90"/>
@@ -21182,10 +21192,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="11" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="11"/>
+    <col min="1" max="1" width="45.7109375" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -21290,7 +21300,7 @@
         <v>45</v>
       </c>
       <c r="AE3" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -22157,7 +22167,7 @@
     <row r="15" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B16" s="19">
         <v>-1.046</v>
@@ -22252,7 +22262,7 @@
     </row>
     <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B17" s="19">
         <v>0.81799999999999995</v>
@@ -22347,7 +22357,7 @@
     </row>
     <row r="18" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B18" s="19">
         <v>0.59799999999999998</v>
@@ -22442,7 +22452,7 @@
     </row>
     <row r="19" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B19" s="19">
         <v>0.61899999999999999</v>
@@ -22537,7 +22547,7 @@
     </row>
     <row r="20" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B20" s="19">
         <v>3.081</v>
@@ -22632,7 +22642,7 @@
     </row>
     <row r="21" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B21" s="19">
         <v>1.0589999999999999</v>
@@ -22727,7 +22737,7 @@
     </row>
     <row r="22" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B22" s="19">
         <v>-6.5000000000000002E-2</v>
@@ -22822,7 +22832,7 @@
     </row>
     <row r="23" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B23" s="19">
         <v>2.411</v>
@@ -22917,7 +22927,7 @@
     </row>
     <row r="24" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B24" s="19">
         <v>0.88045499999999999</v>
@@ -23012,7 +23022,7 @@
     </row>
     <row r="25" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B25" s="19">
         <v>0.82249099999999997</v>
@@ -23107,7 +23117,7 @@
     </row>
     <row r="26" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B26" s="19">
         <v>0.83858600000000005</v>
@@ -23202,7 +23212,7 @@
     </row>
     <row r="27" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B27" s="19">
         <v>-1.6095000000000002E-2</v>
@@ -23295,9 +23305,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B28" s="19">
         <v>0</v>
@@ -23390,9 +23400,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B29" s="19">
         <v>5.7964000000000002E-2</v>
@@ -23486,9 +23496,9 @@
         <v>3.9999915264794517E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B30" s="19">
         <v>6.4000000000000001E-2</v>
@@ -23581,9 +23591,9 @@
         <v>3.4550000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B31" s="19">
         <v>-6.0359999999999997E-3</v>
@@ -23676,9 +23686,9 @@
         <v>8.7519999999999994E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B32" s="19">
         <v>0</v>
@@ -23771,9 +23781,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B33" s="19">
         <v>0</v>
@@ -23866,9 +23876,9 @@
         <v>0.31925399999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B34" s="19">
         <v>0</v>
@@ -23961,9 +23971,9 @@
         <v>0.31925399999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B35" s="19">
         <v>0</v>
@@ -24056,9 +24066,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B36" s="19">
         <v>0</v>
@@ -24151,9 +24161,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B37" s="19">
         <v>0</v>
@@ -24246,9 +24256,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B38" s="19">
         <v>0</v>
@@ -24341,9 +24351,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B39" s="19">
         <v>0.191</v>
@@ -24436,8 +24446,8 @@
         <v>1.5975E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>127</v>
       </c>
@@ -24532,19 +24542,19 @@
         <v>7.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>130</v>
       </c>
@@ -24639,7 +24649,7 @@
         <v>9.8309999999999995E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>131</v>
       </c>
@@ -24734,9 +24744,9 @@
         <v>-8.4110000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B48" s="19">
         <v>8.0510000000000009E-3</v>
@@ -24829,7 +24839,7 @@
         <v>9.9335999999999994E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>132</v>
       </c>
@@ -24924,7 +24934,7 @@
         <v>9.9059999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>133</v>
       </c>
@@ -25019,7 +25029,7 @@
         <v>5.032E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>134</v>
       </c>
@@ -25114,7 +25124,7 @@
         <v>5.8050000000000003E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>135</v>
       </c>
@@ -25209,7 +25219,7 @@
         <v>-4.424E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>136</v>
       </c>
@@ -25304,12 +25314,12 @@
         <v>6.6629999999999997E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>138</v>
       </c>
@@ -25404,7 +25414,7 @@
         <v>-1.2684000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>139</v>
       </c>
@@ -25499,7 +25509,7 @@
         <v>9.6889999999999997E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>140</v>
       </c>
@@ -25594,7 +25604,7 @@
         <v>-1.9759999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>141</v>
       </c>
@@ -25689,9 +25699,9 @@
         <v>-1.4481000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B59" s="19">
         <v>1.8412000000000001E-2</v>
@@ -25784,7 +25794,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>142</v>
       </c>
@@ -25879,10 +25889,10 @@
         <v>5.9100000000000005E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B62" s="19">
         <v>-3.1578000000000002E-2</v>
@@ -25975,10 +25985,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B64" s="24">
         <v>17.367000999999998</v>
@@ -26071,9 +26081,9 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B65" s="24">
         <v>88.699996999999996</v>
@@ -26166,7 +26176,7 @@
         <v>1.5269999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>143</v>
       </c>
@@ -26261,14 +26271,14 @@
         <v>-2.3323E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B68" s="19">
         <v>345.06951900000001</v>
@@ -26361,227 +26371,227 @@
         <v>1.0267E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="71" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="54" t="s">
+    <row r="69" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="B71" s="54"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="54"/>
-      <c r="M71" s="54"/>
-      <c r="N71" s="54"/>
-      <c r="O71" s="54"/>
-      <c r="P71" s="54"/>
-      <c r="Q71" s="54"/>
-      <c r="R71" s="54"/>
-      <c r="S71" s="54"/>
-      <c r="T71" s="54"/>
-      <c r="U71" s="54"/>
-      <c r="V71" s="54"/>
-      <c r="W71" s="54"/>
-      <c r="X71" s="54"/>
-      <c r="Y71" s="54"/>
-      <c r="Z71" s="54"/>
-      <c r="AA71" s="54"/>
-      <c r="AB71" s="54"/>
-      <c r="AC71" s="54"/>
-      <c r="AD71" s="54"/>
-      <c r="AE71" s="54"/>
-    </row>
-    <row r="72" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="55"/>
+      <c r="J71" s="55"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="55"/>
+      <c r="M71" s="55"/>
+      <c r="N71" s="55"/>
+      <c r="O71" s="55"/>
+      <c r="P71" s="55"/>
+      <c r="Q71" s="55"/>
+      <c r="R71" s="55"/>
+      <c r="S71" s="55"/>
+      <c r="T71" s="55"/>
+      <c r="U71" s="55"/>
+      <c r="V71" s="55"/>
+      <c r="W71" s="55"/>
+      <c r="X71" s="55"/>
+      <c r="Y71" s="55"/>
+      <c r="Z71" s="55"/>
+      <c r="AA71" s="55"/>
+      <c r="AB71" s="55"/>
+      <c r="AC71" s="55"/>
+      <c r="AD71" s="55"/>
+      <c r="AE71" s="55"/>
+    </row>
+    <row r="72" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="25" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="25" t="s">
+    <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="25" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="25" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="25" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="25" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="25" t="s">
+    <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="25" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="25" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="25" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A71:AE71"/>
@@ -26595,2307 +26605,2465 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" style="8" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="8">
         <v>2013</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="8">
         <v>2014</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="8">
         <v>2015</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="8">
         <v>2016</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="8">
         <v>2017</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="8">
         <v>2018</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="8">
         <v>2019</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="8">
         <v>2020</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="8">
         <v>2021</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="8">
         <v>2022</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="8">
         <v>2023</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="8">
         <v>2024</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="8">
         <v>2025</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="8">
         <v>2026</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="8">
         <v>2027</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="8">
         <v>2028</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="8">
         <v>2029</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="8">
         <v>2030</v>
       </c>
-      <c r="T1" s="11">
+      <c r="T1" s="8">
         <v>2031</v>
       </c>
-      <c r="U1" s="11">
+      <c r="U1" s="8">
         <v>2032</v>
       </c>
-      <c r="V1" s="11">
+      <c r="V1" s="8">
         <v>2033</v>
       </c>
-      <c r="W1" s="11">
+      <c r="W1" s="8">
         <v>2034</v>
       </c>
-      <c r="X1" s="11">
+      <c r="X1" s="8">
         <v>2035</v>
       </c>
-      <c r="Y1" s="11">
+      <c r="Y1" s="8">
         <v>2036</v>
       </c>
-      <c r="Z1" s="11">
+      <c r="Z1" s="8">
         <v>2037</v>
       </c>
-      <c r="AA1" s="11">
+      <c r="AA1" s="8">
         <v>2038</v>
       </c>
-      <c r="AB1" s="11">
+      <c r="AB1" s="8">
         <v>2039</v>
       </c>
-      <c r="AC1" s="11">
+      <c r="AC1" s="8">
         <v>2040</v>
       </c>
-      <c r="AD1" s="11">
+      <c r="AD1" s="8">
         <v>2041</v>
       </c>
-      <c r="AE1" s="11">
+      <c r="AE1" s="8">
         <v>2042</v>
       </c>
-      <c r="AF1" s="11">
+      <c r="AF1" s="8">
         <v>2043</v>
       </c>
-      <c r="AG1" s="11">
+      <c r="AG1" s="8">
         <v>2044</v>
       </c>
-      <c r="AH1" s="11">
+      <c r="AH1" s="8">
         <v>2045</v>
       </c>
-      <c r="AI1" s="11">
+      <c r="AI1" s="8">
         <v>2046</v>
       </c>
-      <c r="AJ1" s="11">
+      <c r="AJ1" s="8">
         <v>2047</v>
       </c>
-      <c r="AK1" s="11">
+      <c r="AK1" s="8">
         <v>2048</v>
       </c>
-      <c r="AL1" s="11">
+      <c r="AL1" s="8">
         <v>2049</v>
       </c>
-      <c r="AM1" s="11">
+      <c r="AM1" s="8">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0</v>
+      </c>
+      <c r="P2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0</v>
+      </c>
+      <c r="S2" s="8">
+        <v>0</v>
+      </c>
+      <c r="T2" s="8">
         <f>TREND($K2:$S2,$K$1:$S$1,T$1)</f>
         <v>0</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="8">
         <f t="shared" ref="U2:AM16" si="0">TREND($K2:$S2,$K$1:$S$1,U$1)</f>
         <v>0</v>
       </c>
-      <c r="V2" s="11">
+      <c r="V2" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X2" s="11">
+      <c r="X2" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Y2" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z2" s="11">
+      <c r="Z2" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA2" s="11">
+      <c r="AA2" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB2" s="11">
+      <c r="AB2" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC2" s="11">
+      <c r="AC2" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD2" s="11">
+      <c r="AD2" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE2" s="11">
+      <c r="AE2" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF2" s="11">
+      <c r="AF2" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AG2" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH2" s="11">
+      <c r="AH2" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI2" s="11">
+      <c r="AI2" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ2" s="11">
+      <c r="AJ2" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK2" s="11">
+      <c r="AK2" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL2" s="11">
+      <c r="AL2" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM2" s="11">
+      <c r="AM2" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B3" s="10">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3" s="54">
         <f>SUM(Calculations!C52,Calculations!C57)</f>
         <v>7.6539429286997198E-9</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="54">
         <f>SUM(Calculations!D52,Calculations!D57)</f>
         <v>7.5235956925890277E-9</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="54">
         <f>SUM(Calculations!E52,Calculations!E57)</f>
         <v>7.6101240912803052E-9</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="54">
         <f>SUM(Calculations!F52,Calculations!F57)</f>
         <v>7.6738534059269834E-9</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="54">
         <f>SUM(Calculations!G52,Calculations!G57)</f>
         <v>7.5569180398895622E-9</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="54">
         <f>SUM(Calculations!H52,Calculations!H57)</f>
         <v>7.4627772037617665E-9</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="54">
         <f>SUM(Calculations!I52,Calculations!I57)</f>
         <v>7.2153250107781863E-9</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="54">
         <f>SUM(Calculations!J52,Calculations!J57)</f>
         <v>7.0564840648447537E-9</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="54">
         <f>SUM(Calculations!K52,Calculations!K57)</f>
         <v>7.0306651882357209E-9</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="54">
         <f>SUM(Calculations!L52,Calculations!L57)</f>
         <v>6.9835267732212879E-9</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="54">
         <f>SUM(Calculations!M52,Calculations!M57)</f>
         <v>6.9365652468288334E-9</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="54">
         <f>SUM(Calculations!N52,Calculations!N57)</f>
         <v>6.888277407949315E-9</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="54">
         <f>SUM(Calculations!O52,Calculations!O57)</f>
         <v>6.8794234018020312E-9</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="54">
         <f>SUM(Calculations!P52,Calculations!P57)</f>
         <v>6.8583594571084028E-9</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="54">
         <f>SUM(Calculations!Q52,Calculations!Q57)</f>
         <v>6.8385135967752245E-9</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="54">
         <f>SUM(Calculations!R52,Calculations!R57)</f>
         <v>6.839603737499227E-9</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="54">
         <f>SUM(Calculations!S52,Calculations!S57)</f>
         <v>6.8089811975102084E-9</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="54">
         <f>SUM(Calculations!T52,Calculations!T57)</f>
         <v>6.7858477375517943E-9</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="8">
         <f t="shared" ref="T3:AI16" si="1">TREND($K3:$S3,$K$1:$S$1,T$1)</f>
         <v>6.7594782754250792E-9</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="8">
         <f t="shared" si="1"/>
         <v>6.7376161848157339E-9</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="8">
         <f t="shared" si="1"/>
         <v>6.7157540942063821E-9</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="8">
         <f t="shared" si="1"/>
         <v>6.6938920035970368E-9</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="8">
         <f t="shared" si="1"/>
         <v>6.6720299129876916E-9</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="8">
         <f t="shared" si="1"/>
         <v>6.6501678223783463E-9</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="Z3" s="8">
         <f t="shared" si="1"/>
         <v>6.6283057317689944E-9</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="8">
         <f t="shared" si="1"/>
         <v>6.6064436411596492E-9</v>
       </c>
-      <c r="AB3" s="11">
+      <c r="AB3" s="8">
         <f t="shared" si="1"/>
         <v>6.5845815505503039E-9</v>
       </c>
-      <c r="AC3" s="11">
+      <c r="AC3" s="8">
         <f t="shared" si="1"/>
         <v>6.5627194599409521E-9</v>
       </c>
-      <c r="AD3" s="11">
+      <c r="AD3" s="8">
         <f t="shared" si="1"/>
         <v>6.5408573693316068E-9</v>
       </c>
-      <c r="AE3" s="11">
+      <c r="AE3" s="8">
         <f t="shared" si="1"/>
         <v>6.5189952787222615E-9</v>
       </c>
-      <c r="AF3" s="11">
+      <c r="AF3" s="8">
         <f t="shared" si="1"/>
         <v>6.4971331881129097E-9</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AG3" s="8">
         <f t="shared" si="1"/>
         <v>6.4752710975035644E-9</v>
       </c>
-      <c r="AH3" s="11">
+      <c r="AH3" s="8">
         <f t="shared" si="1"/>
         <v>6.4534090068942192E-9</v>
       </c>
-      <c r="AI3" s="11">
+      <c r="AI3" s="8">
         <f t="shared" si="1"/>
         <v>6.4315469162848739E-9</v>
       </c>
-      <c r="AJ3" s="11">
+      <c r="AJ3" s="8">
         <f t="shared" si="0"/>
         <v>6.409684825675522E-9</v>
       </c>
-      <c r="AK3" s="11">
+      <c r="AK3" s="8">
         <f t="shared" si="0"/>
         <v>6.3878227350661768E-9</v>
       </c>
-      <c r="AL3" s="11">
+      <c r="AL3" s="8">
         <f t="shared" si="0"/>
         <v>6.3659606444568315E-9</v>
       </c>
-      <c r="AM3" s="11">
+      <c r="AM3" s="8">
         <f t="shared" si="0"/>
         <v>6.3440985538474797E-9</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B4" s="10">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="54">
         <f>SUM(Calculations!C64,Calculations!C70,Calculations!C76)</f>
         <v>5.109970753557214E-8</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="54">
         <f>SUM(Calculations!D64,Calculations!D70,Calculations!D76)</f>
         <v>4.7287195480549013E-8</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="54">
         <f>SUM(Calculations!E64,Calculations!E70,Calculations!E76)</f>
         <v>5.4655562430456038E-8</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="54">
         <f>SUM(Calculations!F64,Calculations!F70,Calculations!F76)</f>
         <v>5.6624843546965761E-8</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="54">
         <f>SUM(Calculations!G64,Calculations!G70,Calculations!G76)</f>
         <v>5.476431972002837E-8</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="54">
         <f>SUM(Calculations!H64,Calculations!H70,Calculations!H76)</f>
         <v>5.3712696565081482E-8</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="54">
         <f>SUM(Calculations!I64,Calculations!I70,Calculations!I76)</f>
         <v>5.2642476899205136E-8</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="54">
         <f>SUM(Calculations!J64,Calculations!J70,Calculations!J76)</f>
         <v>5.1976494621715427E-8</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="54">
         <f>SUM(Calculations!K64,Calculations!K70,Calculations!K76)</f>
         <v>5.1656459610401648E-8</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="54">
         <f>SUM(Calculations!L64,Calculations!L70,Calculations!L76)</f>
         <v>5.1406116161673028E-8</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="54">
         <f>SUM(Calculations!M64,Calculations!M70,Calculations!M76)</f>
         <v>5.1213574882607657E-8</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="54">
         <f>SUM(Calculations!N64,Calculations!N70,Calculations!N76)</f>
         <v>5.0889320939626105E-8</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="54">
         <f>SUM(Calculations!O64,Calculations!O70,Calculations!O76)</f>
         <v>5.0749628205891569E-8</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="54">
         <f>SUM(Calculations!P64,Calculations!P70,Calculations!P76)</f>
         <v>5.0766235775960409E-8</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="54">
         <f>SUM(Calculations!Q64,Calculations!Q70,Calculations!Q76)</f>
         <v>5.0405324723056246E-8</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="54">
         <f>SUM(Calculations!R64,Calculations!R70,Calculations!R76)</f>
         <v>4.9800671019933433E-8</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="54">
         <f>SUM(Calculations!S64,Calculations!S70,Calculations!S76)</f>
         <v>4.9398494627166787E-8</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="54">
         <f>SUM(Calculations!T64,Calculations!T70,Calculations!T76)</f>
         <v>4.9003947294522342E-8</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="8">
         <f t="shared" si="1"/>
         <v>4.8939074884730932E-8</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="8">
         <f t="shared" si="0"/>
         <v>4.8646149558778486E-8</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="8">
         <f t="shared" si="0"/>
         <v>4.8353224232826039E-8</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="8">
         <f t="shared" si="0"/>
         <v>4.8060298906873592E-8</v>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="8">
         <f t="shared" si="0"/>
         <v>4.7767373580921146E-8</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="8">
         <f t="shared" si="0"/>
         <v>4.7474448254968805E-8</v>
       </c>
-      <c r="Z4" s="11">
+      <c r="Z4" s="8">
         <f t="shared" si="0"/>
         <v>4.7181522929016358E-8</v>
       </c>
-      <c r="AA4" s="11">
+      <c r="AA4" s="8">
         <f t="shared" si="0"/>
         <v>4.6888597603063911E-8</v>
       </c>
-      <c r="AB4" s="11">
+      <c r="AB4" s="8">
         <f t="shared" si="0"/>
         <v>4.6595672277111465E-8</v>
       </c>
-      <c r="AC4" s="11">
+      <c r="AC4" s="8">
         <f t="shared" si="0"/>
         <v>4.6302746951159018E-8</v>
       </c>
-      <c r="AD4" s="11">
+      <c r="AD4" s="8">
         <f t="shared" si="0"/>
         <v>4.6009821625206571E-8</v>
       </c>
-      <c r="AE4" s="11">
+      <c r="AE4" s="8">
         <f t="shared" si="0"/>
         <v>4.5716896299254125E-8</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AF4" s="8">
         <f t="shared" si="0"/>
         <v>4.5423970973301678E-8</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AG4" s="8">
         <f t="shared" si="0"/>
         <v>4.5131045647349337E-8</v>
       </c>
-      <c r="AH4" s="11">
+      <c r="AH4" s="8">
         <f t="shared" si="0"/>
         <v>4.4838120321396891E-8</v>
       </c>
-      <c r="AI4" s="11">
+      <c r="AI4" s="8">
         <f t="shared" si="0"/>
         <v>4.4545194995444444E-8</v>
       </c>
-      <c r="AJ4" s="11">
+      <c r="AJ4" s="8">
         <f t="shared" si="0"/>
         <v>4.4252269669491997E-8</v>
       </c>
-      <c r="AK4" s="11">
+      <c r="AK4" s="8">
         <f t="shared" si="0"/>
         <v>4.3959344343539551E-8</v>
       </c>
-      <c r="AL4" s="11">
+      <c r="AL4" s="8">
         <f t="shared" si="0"/>
         <v>4.3666419017587104E-8</v>
       </c>
-      <c r="AM4" s="11">
+      <c r="AM4" s="8">
         <f t="shared" si="0"/>
         <v>4.3373493691634657E-8</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5" s="11">
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0</v>
+      </c>
+      <c r="T5" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="AA5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB5" s="11">
+      <c r="AB5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="11">
+      <c r="AC5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="11">
+      <c r="AD5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE5" s="11">
+      <c r="AE5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AF5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG5" s="11">
+      <c r="AG5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="AH5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI5" s="11">
+      <c r="AI5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ5" s="11">
+      <c r="AJ5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK5" s="11">
+      <c r="AK5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL5" s="11">
+      <c r="AL5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM5" s="11">
+      <c r="AM5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6" s="11">
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0</v>
+      </c>
+      <c r="T6" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X6" s="11">
+      <c r="X6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="AA6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="11">
+      <c r="AB6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="11">
+      <c r="AC6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="11">
+      <c r="AD6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="11">
+      <c r="AE6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="11">
+      <c r="AF6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="11">
+      <c r="AG6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH6" s="11">
+      <c r="AH6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI6" s="11">
+      <c r="AI6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ6" s="11">
+      <c r="AJ6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK6" s="11">
+      <c r="AK6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL6" s="11">
+      <c r="AL6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM6" s="11">
+      <c r="AM6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7" s="11">
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="11">
+      <c r="AB7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="11">
+      <c r="AC7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="11">
+      <c r="AD7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="11">
+      <c r="AE7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="11">
+      <c r="AF7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="11">
+      <c r="AG7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH7" s="11">
+      <c r="AH7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI7" s="11">
+      <c r="AI7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ7" s="11">
+      <c r="AJ7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK7" s="11">
+      <c r="AK7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL7" s="11">
+      <c r="AL7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM7" s="11">
+      <c r="AM7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8" s="11">
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U8" s="11">
+      <c r="U8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V8" s="11">
+      <c r="V8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W8" s="11">
+      <c r="W8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X8" s="11">
+      <c r="X8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="11">
+      <c r="AA8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="11">
+      <c r="AB8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="11">
+      <c r="AC8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="11">
+      <c r="AD8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="11">
+      <c r="AE8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="11">
+      <c r="AF8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="11">
+      <c r="AG8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH8" s="11">
+      <c r="AH8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI8" s="11">
+      <c r="AI8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ8" s="11">
+      <c r="AJ8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK8" s="11">
+      <c r="AK8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL8" s="11">
+      <c r="AL8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM8" s="11">
+      <c r="AM8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="54">
+        <v>0</v>
+      </c>
+      <c r="C9" s="54">
+        <v>0</v>
+      </c>
+      <c r="D9" s="54">
+        <v>0</v>
+      </c>
+      <c r="E9" s="54">
+        <v>0</v>
+      </c>
+      <c r="F9" s="54">
+        <v>0</v>
+      </c>
+      <c r="G9" s="54">
+        <v>0</v>
+      </c>
+      <c r="H9" s="54">
+        <v>0</v>
+      </c>
+      <c r="I9" s="54">
+        <v>0</v>
+      </c>
+      <c r="J9" s="54">
+        <v>0</v>
+      </c>
+      <c r="K9" s="54">
+        <v>0</v>
+      </c>
+      <c r="L9" s="54">
+        <v>0</v>
+      </c>
+      <c r="M9" s="54">
+        <v>0</v>
+      </c>
+      <c r="N9" s="54">
+        <v>0</v>
+      </c>
+      <c r="O9" s="54">
+        <v>0</v>
+      </c>
+      <c r="P9" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="54">
+        <v>0</v>
+      </c>
+      <c r="R9" s="54">
+        <v>0</v>
+      </c>
+      <c r="S9" s="54">
+        <v>0</v>
+      </c>
+      <c r="T9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0</v>
-      </c>
-      <c r="L9" s="10">
-        <v>0</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-      <c r="N9" s="10">
-        <v>0</v>
-      </c>
-      <c r="O9" s="10">
-        <v>0</v>
-      </c>
-      <c r="P9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>0</v>
-      </c>
-      <c r="R9" s="10">
-        <v>0</v>
-      </c>
-      <c r="S9" s="10">
-        <v>0</v>
-      </c>
-      <c r="T9" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AL9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AM9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B10" s="10">
+      <c r="B10" s="54">
         <f>SUM(Calculations!C84,Calculations!C92,Calculations!C100,Calculations!C108,Calculations!C115)</f>
         <v>5.2393464502875904E-8</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="54">
         <f>SUM(Calculations!D84,Calculations!D92,Calculations!D100,Calculations!D108,Calculations!D115)</f>
         <v>5.149869415753965E-8</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="54">
         <f>SUM(Calculations!E84,Calculations!E92,Calculations!E100,Calculations!E108,Calculations!E115)</f>
         <v>5.7954934656777387E-8</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="54">
         <f>SUM(Calculations!F84,Calculations!F92,Calculations!F100,Calculations!F108,Calculations!F115)</f>
         <v>6.4976106571392809E-8</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="54">
         <f>SUM(Calculations!G84,Calculations!G92,Calculations!G100,Calculations!G108,Calculations!G115)</f>
         <v>6.6413188523490536E-8</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="54">
         <f>SUM(Calculations!H84,Calculations!H92,Calculations!H100,Calculations!H108,Calculations!H115)</f>
         <v>6.7718137699922401E-8</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="54">
         <f>SUM(Calculations!I84,Calculations!I92,Calculations!I100,Calculations!I108,Calculations!I115)</f>
         <v>6.8242018747833381E-8</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="54">
         <f>SUM(Calculations!J84,Calculations!J92,Calculations!J100,Calculations!J108,Calculations!J115)</f>
         <v>6.8726721247942847E-8</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="54">
         <f>SUM(Calculations!K84,Calculations!K92,Calculations!K100,Calculations!K108,Calculations!K115)</f>
         <v>6.8486184052615888E-8</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="54">
         <f>SUM(Calculations!L84,Calculations!L92,Calculations!L100,Calculations!L108,Calculations!L115)</f>
         <v>6.7478975029243343E-8</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="54">
         <f>SUM(Calculations!M84,Calculations!M92,Calculations!M100,Calculations!M108,Calculations!M115)</f>
         <v>6.6961033303587117E-8</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="54">
         <f>SUM(Calculations!N84,Calculations!N92,Calculations!N100,Calculations!N108,Calculations!N115)</f>
         <v>6.6010857464014898E-8</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="54">
         <f>SUM(Calculations!O84,Calculations!O92,Calculations!O100,Calculations!O108,Calculations!O115)</f>
         <v>6.6164412731161085E-8</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="54">
         <f>SUM(Calculations!P84,Calculations!P92,Calculations!P100,Calculations!P108,Calculations!P115)</f>
         <v>6.6178463930175767E-8</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="54">
         <f>SUM(Calculations!Q84,Calculations!Q92,Calculations!Q100,Calculations!Q108,Calculations!Q115)</f>
         <v>6.4824933227320252E-8</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="54">
         <f>SUM(Calculations!R84,Calculations!R92,Calculations!R100,Calculations!R108,Calculations!R115)</f>
         <v>6.4099926586982498E-8</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="54">
         <f>SUM(Calculations!S84,Calculations!S92,Calculations!S100,Calculations!S108,Calculations!S115)</f>
         <v>6.4311136652727113E-8</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S10" s="54">
         <f>SUM(Calculations!T84,Calculations!T92,Calculations!T100,Calculations!T108,Calculations!T115)</f>
         <v>6.3780684141315403E-8</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="8">
         <f t="shared" si="1"/>
         <v>6.3209141888319771E-8</v>
       </c>
-      <c r="U10" s="11">
+      <c r="U10" s="8">
         <f t="shared" si="0"/>
         <v>6.2744071975616508E-8</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V10" s="8">
         <f t="shared" si="0"/>
         <v>6.2279002062913245E-8</v>
       </c>
-      <c r="W10" s="11">
+      <c r="W10" s="8">
         <f t="shared" si="0"/>
         <v>6.1813932150209982E-8</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X10" s="8">
         <f t="shared" si="0"/>
         <v>6.1348862237506614E-8</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10" s="8">
         <f t="shared" si="0"/>
         <v>6.0883792324803351E-8</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10" s="8">
         <f t="shared" si="0"/>
         <v>6.0418722412100088E-8</v>
       </c>
-      <c r="AA10" s="11">
+      <c r="AA10" s="8">
         <f t="shared" si="0"/>
         <v>5.9953652499396825E-8</v>
       </c>
-      <c r="AB10" s="11">
+      <c r="AB10" s="8">
         <f t="shared" si="0"/>
         <v>5.9488582586693457E-8</v>
       </c>
-      <c r="AC10" s="11">
+      <c r="AC10" s="8">
         <f t="shared" si="0"/>
         <v>5.9023512673990194E-8</v>
       </c>
-      <c r="AD10" s="11">
+      <c r="AD10" s="8">
         <f t="shared" si="0"/>
         <v>5.8558442761286931E-8</v>
       </c>
-      <c r="AE10" s="11">
+      <c r="AE10" s="8">
         <f t="shared" si="0"/>
         <v>5.8093372848583668E-8</v>
       </c>
-      <c r="AF10" s="11">
+      <c r="AF10" s="8">
         <f t="shared" si="0"/>
         <v>5.76283029358803E-8</v>
       </c>
-      <c r="AG10" s="11">
+      <c r="AG10" s="8">
         <f t="shared" si="0"/>
         <v>5.7163233023177037E-8</v>
       </c>
-      <c r="AH10" s="11">
+      <c r="AH10" s="8">
         <f t="shared" si="0"/>
         <v>5.6698163110473774E-8</v>
       </c>
-      <c r="AI10" s="11">
+      <c r="AI10" s="8">
         <f t="shared" si="0"/>
         <v>5.6233093197770511E-8</v>
       </c>
-      <c r="AJ10" s="11">
+      <c r="AJ10" s="8">
         <f t="shared" si="0"/>
         <v>5.5768023285067143E-8</v>
       </c>
-      <c r="AK10" s="11">
+      <c r="AK10" s="8">
         <f t="shared" si="0"/>
         <v>5.530295337236388E-8</v>
       </c>
-      <c r="AL10" s="11">
+      <c r="AL10" s="8">
         <f t="shared" si="0"/>
         <v>5.4837883459660617E-8</v>
       </c>
-      <c r="AM10" s="11">
+      <c r="AM10" s="8">
         <f t="shared" si="0"/>
         <v>5.4372813546957248E-8</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>256</v>
-      </c>
-      <c r="B11" s="10">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="54">
         <f>SUM(Calculations!C84,Calculations!C92,Calculations!C100,Calculations!C108,Calculations!C115)</f>
         <v>5.2393464502875904E-8</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="54">
         <f>SUM(Calculations!D84,Calculations!D92,Calculations!D100,Calculations!D108,Calculations!D115)</f>
         <v>5.149869415753965E-8</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="54">
         <f>SUM(Calculations!E84,Calculations!E92,Calculations!E100,Calculations!E108,Calculations!E115)</f>
         <v>5.7954934656777387E-8</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="54">
         <f>SUM(Calculations!F84,Calculations!F92,Calculations!F100,Calculations!F108,Calculations!F115)</f>
         <v>6.4976106571392809E-8</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="54">
         <f>SUM(Calculations!G84,Calculations!G92,Calculations!G100,Calculations!G108,Calculations!G115)</f>
         <v>6.6413188523490536E-8</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="54">
         <f>SUM(Calculations!H84,Calculations!H92,Calculations!H100,Calculations!H108,Calculations!H115)</f>
         <v>6.7718137699922401E-8</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="54">
         <f>SUM(Calculations!I84,Calculations!I92,Calculations!I100,Calculations!I108,Calculations!I115)</f>
         <v>6.8242018747833381E-8</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="54">
         <f>SUM(Calculations!J84,Calculations!J92,Calculations!J100,Calculations!J108,Calculations!J115)</f>
         <v>6.8726721247942847E-8</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="54">
         <f>SUM(Calculations!K84,Calculations!K92,Calculations!K100,Calculations!K108,Calculations!K115)</f>
         <v>6.8486184052615888E-8</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="54">
         <f>SUM(Calculations!L84,Calculations!L92,Calculations!L100,Calculations!L108,Calculations!L115)</f>
         <v>6.7478975029243343E-8</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="54">
         <f>SUM(Calculations!M84,Calculations!M92,Calculations!M100,Calculations!M108,Calculations!M115)</f>
         <v>6.6961033303587117E-8</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="54">
         <f>SUM(Calculations!N84,Calculations!N92,Calculations!N100,Calculations!N108,Calculations!N115)</f>
         <v>6.6010857464014898E-8</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="54">
         <f>SUM(Calculations!O84,Calculations!O92,Calculations!O100,Calculations!O108,Calculations!O115)</f>
         <v>6.6164412731161085E-8</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="54">
         <f>SUM(Calculations!P84,Calculations!P92,Calculations!P100,Calculations!P108,Calculations!P115)</f>
         <v>6.6178463930175767E-8</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="54">
         <f>SUM(Calculations!Q84,Calculations!Q92,Calculations!Q100,Calculations!Q108,Calculations!Q115)</f>
         <v>6.4824933227320252E-8</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="54">
         <f>SUM(Calculations!R84,Calculations!R92,Calculations!R100,Calculations!R108,Calculations!R115)</f>
         <v>6.4099926586982498E-8</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="54">
         <f>SUM(Calculations!S84,Calculations!S92,Calculations!S100,Calculations!S108,Calculations!S115)</f>
         <v>6.4311136652727113E-8</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="54">
         <f>SUM(Calculations!T84,Calculations!T92,Calculations!T100,Calculations!T108,Calculations!T115)</f>
         <v>6.3780684141315403E-8</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="8">
         <f t="shared" si="1"/>
         <v>6.3209141888319771E-8</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U11" s="8">
         <f t="shared" si="0"/>
         <v>6.2744071975616508E-8</v>
       </c>
-      <c r="V11" s="11">
+      <c r="V11" s="8">
         <f t="shared" si="0"/>
         <v>6.2279002062913245E-8</v>
       </c>
-      <c r="W11" s="11">
+      <c r="W11" s="8">
         <f t="shared" si="0"/>
         <v>6.1813932150209982E-8</v>
       </c>
-      <c r="X11" s="11">
+      <c r="X11" s="8">
         <f t="shared" si="0"/>
         <v>6.1348862237506614E-8</v>
       </c>
-      <c r="Y11" s="11">
+      <c r="Y11" s="8">
         <f t="shared" si="0"/>
         <v>6.0883792324803351E-8</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="Z11" s="8">
         <f t="shared" si="0"/>
         <v>6.0418722412100088E-8</v>
       </c>
-      <c r="AA11" s="11">
+      <c r="AA11" s="8">
         <f t="shared" si="0"/>
         <v>5.9953652499396825E-8</v>
       </c>
-      <c r="AB11" s="11">
+      <c r="AB11" s="8">
         <f t="shared" si="0"/>
         <v>5.9488582586693457E-8</v>
       </c>
-      <c r="AC11" s="11">
+      <c r="AC11" s="8">
         <f t="shared" si="0"/>
         <v>5.9023512673990194E-8</v>
       </c>
-      <c r="AD11" s="11">
+      <c r="AD11" s="8">
         <f t="shared" si="0"/>
         <v>5.8558442761286931E-8</v>
       </c>
-      <c r="AE11" s="11">
+      <c r="AE11" s="8">
         <f t="shared" si="0"/>
         <v>5.8093372848583668E-8</v>
       </c>
-      <c r="AF11" s="11">
+      <c r="AF11" s="8">
         <f t="shared" si="0"/>
         <v>5.76283029358803E-8</v>
       </c>
-      <c r="AG11" s="11">
+      <c r="AG11" s="8">
         <f t="shared" si="0"/>
         <v>5.7163233023177037E-8</v>
       </c>
-      <c r="AH11" s="11">
+      <c r="AH11" s="8">
         <f t="shared" si="0"/>
         <v>5.6698163110473774E-8</v>
       </c>
-      <c r="AI11" s="11">
+      <c r="AI11" s="8">
         <f t="shared" si="0"/>
         <v>5.6233093197770511E-8</v>
       </c>
-      <c r="AJ11" s="11">
+      <c r="AJ11" s="8">
         <f t="shared" si="0"/>
         <v>5.5768023285067143E-8</v>
       </c>
-      <c r="AK11" s="11">
+      <c r="AK11" s="8">
         <f t="shared" si="0"/>
         <v>5.530295337236388E-8</v>
       </c>
-      <c r="AL11" s="11">
+      <c r="AL11" s="8">
         <f t="shared" si="0"/>
         <v>5.4837883459660617E-8</v>
       </c>
-      <c r="AM11" s="11">
+      <c r="AM11" s="8">
         <f t="shared" si="0"/>
         <v>5.4372813546957248E-8</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12" s="11">
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0</v>
+      </c>
+      <c r="T12" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U12" s="11">
+      <c r="U12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W12" s="11">
+      <c r="W12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X12" s="11">
+      <c r="X12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="Y12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="11">
+      <c r="AA12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="11">
+      <c r="AB12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="11">
+      <c r="AC12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="11">
+      <c r="AD12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="11">
+      <c r="AE12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="11">
+      <c r="AF12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG12" s="11">
+      <c r="AG12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH12" s="11">
+      <c r="AH12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI12" s="11">
+      <c r="AI12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ12" s="11">
+      <c r="AJ12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK12" s="11">
+      <c r="AK12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL12" s="11">
+      <c r="AL12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM12" s="11">
+      <c r="AM12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13" s="11">
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0</v>
+      </c>
+      <c r="T13" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U13" s="11">
+      <c r="U13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W13" s="11">
+      <c r="W13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X13" s="11">
+      <c r="X13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="Y13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Z13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="11">
+      <c r="AA13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="11">
+      <c r="AB13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="11">
+      <c r="AC13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="11">
+      <c r="AD13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="11">
+      <c r="AE13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="11">
+      <c r="AF13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="11">
+      <c r="AG13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH13" s="11">
+      <c r="AH13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI13" s="11">
+      <c r="AI13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ13" s="11">
+      <c r="AJ13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK13" s="11">
+      <c r="AK13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL13" s="11">
+      <c r="AL13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM13" s="11">
+      <c r="AM13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B14" s="10">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="54">
         <f>SUM(Calculations!C84,Calculations!C92,Calculations!C100,Calculations!C108,Calculations!C115)</f>
         <v>5.2393464502875904E-8</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="54">
         <f>SUM(Calculations!D84,Calculations!D92,Calculations!D100,Calculations!D108,Calculations!D115)</f>
         <v>5.149869415753965E-8</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="54">
         <f>SUM(Calculations!E84,Calculations!E92,Calculations!E100,Calculations!E108,Calculations!E115)</f>
         <v>5.7954934656777387E-8</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="54">
         <f>SUM(Calculations!F84,Calculations!F92,Calculations!F100,Calculations!F108,Calculations!F115)</f>
         <v>6.4976106571392809E-8</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="54">
         <f>SUM(Calculations!G84,Calculations!G92,Calculations!G100,Calculations!G108,Calculations!G115)</f>
         <v>6.6413188523490536E-8</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="54">
         <f>SUM(Calculations!H84,Calculations!H92,Calculations!H100,Calculations!H108,Calculations!H115)</f>
         <v>6.7718137699922401E-8</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="54">
         <f>SUM(Calculations!I84,Calculations!I92,Calculations!I100,Calculations!I108,Calculations!I115)</f>
         <v>6.8242018747833381E-8</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="54">
         <f>SUM(Calculations!J84,Calculations!J92,Calculations!J100,Calculations!J108,Calculations!J115)</f>
         <v>6.8726721247942847E-8</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="54">
         <f>SUM(Calculations!K84,Calculations!K92,Calculations!K100,Calculations!K108,Calculations!K115)</f>
         <v>6.8486184052615888E-8</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="54">
         <f>SUM(Calculations!L84,Calculations!L92,Calculations!L100,Calculations!L108,Calculations!L115)</f>
         <v>6.7478975029243343E-8</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="54">
         <f>SUM(Calculations!M84,Calculations!M92,Calculations!M100,Calculations!M108,Calculations!M115)</f>
         <v>6.6961033303587117E-8</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="54">
         <f>SUM(Calculations!N84,Calculations!N92,Calculations!N100,Calculations!N108,Calculations!N115)</f>
         <v>6.6010857464014898E-8</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="54">
         <f>SUM(Calculations!O84,Calculations!O92,Calculations!O100,Calculations!O108,Calculations!O115)</f>
         <v>6.6164412731161085E-8</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="54">
         <f>SUM(Calculations!P84,Calculations!P92,Calculations!P100,Calculations!P108,Calculations!P115)</f>
         <v>6.6178463930175767E-8</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="54">
         <f>SUM(Calculations!Q84,Calculations!Q92,Calculations!Q100,Calculations!Q108,Calculations!Q115)</f>
         <v>6.4824933227320252E-8</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="54">
         <f>SUM(Calculations!R84,Calculations!R92,Calculations!R100,Calculations!R108,Calculations!R115)</f>
         <v>6.4099926586982498E-8</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R14" s="54">
         <f>SUM(Calculations!S84,Calculations!S92,Calculations!S100,Calculations!S108,Calculations!S115)</f>
         <v>6.4311136652727113E-8</v>
       </c>
-      <c r="S14" s="10">
+      <c r="S14" s="54">
         <f>SUM(Calculations!T84,Calculations!T92,Calculations!T100,Calculations!T108,Calculations!T115)</f>
         <v>6.3780684141315403E-8</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="8">
         <f t="shared" si="1"/>
         <v>6.3209141888319771E-8</v>
       </c>
-      <c r="U14" s="11">
+      <c r="U14" s="8">
         <f t="shared" si="0"/>
         <v>6.2744071975616508E-8</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V14" s="8">
         <f t="shared" si="0"/>
         <v>6.2279002062913245E-8</v>
       </c>
-      <c r="W14" s="11">
+      <c r="W14" s="8">
         <f t="shared" si="0"/>
         <v>6.1813932150209982E-8</v>
       </c>
-      <c r="X14" s="11">
+      <c r="X14" s="8">
         <f t="shared" si="0"/>
         <v>6.1348862237506614E-8</v>
       </c>
-      <c r="Y14" s="11">
+      <c r="Y14" s="8">
         <f t="shared" si="0"/>
         <v>6.0883792324803351E-8</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="Z14" s="8">
         <f t="shared" si="0"/>
         <v>6.0418722412100088E-8</v>
       </c>
-      <c r="AA14" s="11">
+      <c r="AA14" s="8">
         <f t="shared" si="0"/>
         <v>5.9953652499396825E-8</v>
       </c>
-      <c r="AB14" s="11">
+      <c r="AB14" s="8">
         <f t="shared" si="0"/>
         <v>5.9488582586693457E-8</v>
       </c>
-      <c r="AC14" s="11">
+      <c r="AC14" s="8">
         <f t="shared" si="0"/>
         <v>5.9023512673990194E-8</v>
       </c>
-      <c r="AD14" s="11">
+      <c r="AD14" s="8">
         <f t="shared" si="0"/>
         <v>5.8558442761286931E-8</v>
       </c>
-      <c r="AE14" s="11">
+      <c r="AE14" s="8">
         <f t="shared" si="0"/>
         <v>5.8093372848583668E-8</v>
       </c>
-      <c r="AF14" s="11">
+      <c r="AF14" s="8">
         <f t="shared" si="0"/>
         <v>5.76283029358803E-8</v>
       </c>
-      <c r="AG14" s="11">
+      <c r="AG14" s="8">
         <f t="shared" si="0"/>
         <v>5.7163233023177037E-8</v>
       </c>
-      <c r="AH14" s="11">
+      <c r="AH14" s="8">
         <f t="shared" si="0"/>
         <v>5.6698163110473774E-8</v>
       </c>
-      <c r="AI14" s="11">
+      <c r="AI14" s="8">
         <f t="shared" si="0"/>
         <v>5.6233093197770511E-8</v>
       </c>
-      <c r="AJ14" s="11">
+      <c r="AJ14" s="8">
         <f t="shared" si="0"/>
         <v>5.5768023285067143E-8</v>
       </c>
-      <c r="AK14" s="11">
+      <c r="AK14" s="8">
         <f t="shared" si="0"/>
         <v>5.530295337236388E-8</v>
       </c>
-      <c r="AL14" s="11">
+      <c r="AL14" s="8">
         <f t="shared" si="0"/>
         <v>5.4837883459660617E-8</v>
       </c>
-      <c r="AM14" s="11">
+      <c r="AM14" s="8">
         <f t="shared" si="0"/>
         <v>5.4372813546957248E-8</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>263</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15" s="11">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0</v>
+      </c>
+      <c r="S15" s="8">
+        <v>0</v>
+      </c>
+      <c r="T15" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V15" s="11">
+      <c r="V15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W15" s="11">
+      <c r="W15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X15" s="11">
+      <c r="X15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="Y15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="11">
+      <c r="Z15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="11">
+      <c r="AA15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="11">
+      <c r="AB15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="11">
+      <c r="AC15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="11">
+      <c r="AD15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="11">
+      <c r="AE15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="11">
+      <c r="AF15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="11">
+      <c r="AG15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH15" s="11">
+      <c r="AH15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI15" s="11">
+      <c r="AI15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="11">
+      <c r="AJ15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="11">
+      <c r="AK15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL15" s="11">
+      <c r="AL15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM15" s="11">
+      <c r="AM15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>449</v>
-      </c>
-      <c r="B16" s="11">
-        <v>0</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11">
-        <v>0</v>
-      </c>
-      <c r="K16" s="11">
-        <v>0</v>
-      </c>
-      <c r="L16" s="11">
-        <v>0</v>
-      </c>
-      <c r="M16" s="11">
-        <v>0</v>
-      </c>
-      <c r="N16" s="11">
-        <v>0</v>
-      </c>
-      <c r="O16" s="11">
-        <v>0</v>
-      </c>
-      <c r="P16" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>0</v>
-      </c>
-      <c r="R16" s="11">
-        <v>0</v>
-      </c>
-      <c r="S16" s="11">
-        <v>0</v>
-      </c>
-      <c r="T16" s="11">
+      <c r="A16" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0</v>
+      </c>
+      <c r="S16" s="8">
+        <v>0</v>
+      </c>
+      <c r="T16" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U16" s="11">
+      <c r="U16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W16" s="11">
+      <c r="W16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="Y16" s="8">
         <f t="shared" ref="Y16:AM16" si="2">TREND($K16:$S16,$K$1:$S$1,Y$1)</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="Z16" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="11">
+      <c r="AA16" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="11">
+      <c r="AB16" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="11">
+      <c r="AC16" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="11">
+      <c r="AD16" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="11">
+      <c r="AE16" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="11">
+      <c r="AF16" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="11">
+      <c r="AG16" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH16" s="11">
+      <c r="AH16" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI16" s="11">
+      <c r="AI16" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ16" s="11">
+      <c r="AJ16" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK16" s="11">
+      <c r="AK16" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL16" s="11">
+      <c r="AL16" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AM16" s="11">
+      <c r="AM16" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="B17" s="54">
+        <f>B3</f>
+        <v>7.6539429286997198E-9</v>
+      </c>
+      <c r="C17" s="54">
+        <f t="shared" ref="C17:AM17" si="3">C3</f>
+        <v>7.5235956925890277E-9</v>
+      </c>
+      <c r="D17" s="54">
+        <f t="shared" si="3"/>
+        <v>7.6101240912803052E-9</v>
+      </c>
+      <c r="E17" s="54">
+        <f t="shared" si="3"/>
+        <v>7.6738534059269834E-9</v>
+      </c>
+      <c r="F17" s="54">
+        <f t="shared" si="3"/>
+        <v>7.5569180398895622E-9</v>
+      </c>
+      <c r="G17" s="54">
+        <f t="shared" si="3"/>
+        <v>7.4627772037617665E-9</v>
+      </c>
+      <c r="H17" s="54">
+        <f t="shared" si="3"/>
+        <v>7.2153250107781863E-9</v>
+      </c>
+      <c r="I17" s="54">
+        <f t="shared" si="3"/>
+        <v>7.0564840648447537E-9</v>
+      </c>
+      <c r="J17" s="54">
+        <f t="shared" si="3"/>
+        <v>7.0306651882357209E-9</v>
+      </c>
+      <c r="K17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.9835267732212879E-9</v>
+      </c>
+      <c r="L17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.9365652468288334E-9</v>
+      </c>
+      <c r="M17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.888277407949315E-9</v>
+      </c>
+      <c r="N17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.8794234018020312E-9</v>
+      </c>
+      <c r="O17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.8583594571084028E-9</v>
+      </c>
+      <c r="P17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.8385135967752245E-9</v>
+      </c>
+      <c r="Q17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.839603737499227E-9</v>
+      </c>
+      <c r="R17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.8089811975102084E-9</v>
+      </c>
+      <c r="S17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.7858477375517943E-9</v>
+      </c>
+      <c r="T17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.7594782754250792E-9</v>
+      </c>
+      <c r="U17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.7376161848157339E-9</v>
+      </c>
+      <c r="V17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.7157540942063821E-9</v>
+      </c>
+      <c r="W17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.6938920035970368E-9</v>
+      </c>
+      <c r="X17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.6720299129876916E-9</v>
+      </c>
+      <c r="Y17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.6501678223783463E-9</v>
+      </c>
+      <c r="Z17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.6283057317689944E-9</v>
+      </c>
+      <c r="AA17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.6064436411596492E-9</v>
+      </c>
+      <c r="AB17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.5845815505503039E-9</v>
+      </c>
+      <c r="AC17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.5627194599409521E-9</v>
+      </c>
+      <c r="AD17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.5408573693316068E-9</v>
+      </c>
+      <c r="AE17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.5189952787222615E-9</v>
+      </c>
+      <c r="AF17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.4971331881129097E-9</v>
+      </c>
+      <c r="AG17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.4752710975035644E-9</v>
+      </c>
+      <c r="AH17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.4534090068942192E-9</v>
+      </c>
+      <c r="AI17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.4315469162848739E-9</v>
+      </c>
+      <c r="AJ17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.409684825675522E-9</v>
+      </c>
+      <c r="AK17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.3878227350661768E-9</v>
+      </c>
+      <c r="AL17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.3659606444568315E-9</v>
+      </c>
+      <c r="AM17" s="54">
+        <f t="shared" si="3"/>
+        <v>6.3440985538474797E-9</v>
       </c>
     </row>
   </sheetData>
@@ -28912,7 +29080,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
   </cols>
@@ -29038,7 +29206,7 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="B2" s="53">
         <f>Calculations!C39</f>
@@ -29195,7 +29363,7 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -29334,7 +29502,7 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" s="53">
         <f>Calculations!C45</f>
@@ -29491,7 +29659,7 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B5" s="53">
         <f>'Subsidies Paid'!F5*About!$A$69</f>
@@ -29648,7 +29816,7 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>466</v>
       </c>
       <c r="B6" s="53">
         <f>'Subsidies Paid'!F8*About!$A$69</f>
@@ -29805,7 +29973,7 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B7" s="53">
         <f>Calculations!C11</f>
@@ -29962,7 +30130,7 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B8" s="53">
         <f>Calculations!C22</f>
@@ -30119,7 +30287,7 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B9" s="53">
         <f>'Subsidies Paid'!F2*About!$A$69</f>
@@ -30276,7 +30444,7 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B10">
         <f>'Subsidies Paid'!F9*About!$A$69</f>
@@ -30351,89 +30519,89 @@
         <v>1.8969341161121983E-3</v>
       </c>
       <c r="T10" s="11">
-        <f>TREND($K10:$S10,$K$1:$S$1,T$1)</f>
+        <f t="shared" ref="T10:AM10" si="3">TREND($K10:$S10,$K$1:$S$1,T$1)</f>
         <v>1.8969341161121987E-3</v>
       </c>
       <c r="U10" s="11">
-        <f>TREND($K10:$S10,$K$1:$S$1,U$1)</f>
+        <f t="shared" si="3"/>
         <v>1.8969341161121987E-3</v>
       </c>
       <c r="V10" s="11">
-        <f>TREND($K10:$S10,$K$1:$S$1,V$1)</f>
+        <f t="shared" si="3"/>
         <v>1.8969341161121987E-3</v>
       </c>
       <c r="W10" s="11">
-        <f>TREND($K10:$S10,$K$1:$S$1,W$1)</f>
+        <f t="shared" si="3"/>
         <v>1.8969341161121987E-3</v>
       </c>
       <c r="X10" s="11">
-        <f>TREND($K10:$S10,$K$1:$S$1,X$1)</f>
+        <f t="shared" si="3"/>
         <v>1.8969341161121987E-3</v>
       </c>
       <c r="Y10" s="11">
-        <f>TREND($K10:$S10,$K$1:$S$1,Y$1)</f>
+        <f t="shared" si="3"/>
         <v>1.8969341161121987E-3</v>
       </c>
       <c r="Z10" s="11">
-        <f>TREND($K10:$S10,$K$1:$S$1,Z$1)</f>
+        <f t="shared" si="3"/>
         <v>1.8969341161121987E-3</v>
       </c>
       <c r="AA10" s="11">
-        <f>TREND($K10:$S10,$K$1:$S$1,AA$1)</f>
+        <f t="shared" si="3"/>
         <v>1.8969341161121987E-3</v>
       </c>
       <c r="AB10" s="11">
-        <f>TREND($K10:$S10,$K$1:$S$1,AB$1)</f>
+        <f t="shared" si="3"/>
         <v>1.8969341161121987E-3</v>
       </c>
       <c r="AC10" s="11">
-        <f>TREND($K10:$S10,$K$1:$S$1,AC$1)</f>
+        <f t="shared" si="3"/>
         <v>1.8969341161121987E-3</v>
       </c>
       <c r="AD10" s="11">
-        <f>TREND($K10:$S10,$K$1:$S$1,AD$1)</f>
+        <f t="shared" si="3"/>
         <v>1.8969341161121987E-3</v>
       </c>
       <c r="AE10" s="11">
-        <f>TREND($K10:$S10,$K$1:$S$1,AE$1)</f>
+        <f t="shared" si="3"/>
         <v>1.8969341161121987E-3</v>
       </c>
       <c r="AF10" s="11">
-        <f>TREND($K10:$S10,$K$1:$S$1,AF$1)</f>
+        <f t="shared" si="3"/>
         <v>1.8969341161121987E-3</v>
       </c>
       <c r="AG10" s="11">
-        <f>TREND($K10:$S10,$K$1:$S$1,AG$1)</f>
+        <f t="shared" si="3"/>
         <v>1.8969341161121987E-3</v>
       </c>
       <c r="AH10" s="11">
-        <f>TREND($K10:$S10,$K$1:$S$1,AH$1)</f>
+        <f t="shared" si="3"/>
         <v>1.8969341161121987E-3</v>
       </c>
       <c r="AI10" s="11">
-        <f>TREND($K10:$S10,$K$1:$S$1,AI$1)</f>
+        <f t="shared" si="3"/>
         <v>1.8969341161121987E-3</v>
       </c>
       <c r="AJ10" s="11">
-        <f>TREND($K10:$S10,$K$1:$S$1,AJ$1)</f>
+        <f t="shared" si="3"/>
         <v>1.8969341161121987E-3</v>
       </c>
       <c r="AK10" s="11">
-        <f>TREND($K10:$S10,$K$1:$S$1,AK$1)</f>
+        <f t="shared" si="3"/>
         <v>1.8969341161121987E-3</v>
       </c>
       <c r="AL10" s="11">
-        <f>TREND($K10:$S10,$K$1:$S$1,AL$1)</f>
+        <f t="shared" si="3"/>
         <v>1.8969341161121987E-3</v>
       </c>
       <c r="AM10" s="11">
-        <f>TREND($K10:$S10,$K$1:$S$1,AM$1)</f>
+        <f t="shared" si="3"/>
         <v>1.8969341161121987E-3</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -30572,7 +30740,7 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B12" s="11">
         <v>0</v>
@@ -30710,48 +30878,318 @@
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
+      <c r="A13" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B13" s="53">
+        <f>B2</f>
+        <v>0.25804437668107366</v>
+      </c>
+      <c r="C13" s="53">
+        <f t="shared" ref="C13:AM13" si="4">C2</f>
+        <v>0.25331235590386003</v>
+      </c>
+      <c r="D13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.25706009179888362</v>
+      </c>
+      <c r="E13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.26206152397302362</v>
+      </c>
+      <c r="F13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.19258262264252479</v>
+      </c>
+      <c r="G13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.19037387980614121</v>
+      </c>
+      <c r="H13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.18338073303506605</v>
+      </c>
+      <c r="I13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.17963517740926405</v>
+      </c>
+      <c r="J13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.17912781898270258</v>
+      </c>
+      <c r="K13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.17846052098763929</v>
+      </c>
+      <c r="L13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.17781788453577635</v>
+      </c>
+      <c r="M13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.17727178894091716</v>
+      </c>
+      <c r="N13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.17808277547761217</v>
+      </c>
+      <c r="O13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.17820479120082908</v>
+      </c>
+      <c r="P13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.17842464456383406</v>
+      </c>
+      <c r="Q13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.17871385361967512</v>
+      </c>
+      <c r="R13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.17902576505989351</v>
+      </c>
+      <c r="S13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.179215285620583</v>
+      </c>
+      <c r="T13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.17917987043529535</v>
+      </c>
+      <c r="U13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.17934434874442637</v>
+      </c>
+      <c r="V13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.17950882705355745</v>
+      </c>
+      <c r="W13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.17967330536268852</v>
+      </c>
+      <c r="X13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.1798377836718196</v>
+      </c>
+      <c r="Y13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.18000226198095068</v>
+      </c>
+      <c r="Z13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.18016674029008176</v>
+      </c>
+      <c r="AA13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.18033121859921278</v>
+      </c>
+      <c r="AB13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.18049569690834386</v>
+      </c>
+      <c r="AC13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.18066017521747493</v>
+      </c>
+      <c r="AD13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.18082465352660601</v>
+      </c>
+      <c r="AE13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.18098913183573709</v>
+      </c>
+      <c r="AF13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.18115361014486817</v>
+      </c>
+      <c r="AG13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.18131808845399924</v>
+      </c>
+      <c r="AH13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.18148256676313027</v>
+      </c>
+      <c r="AI13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.18164704507226134</v>
+      </c>
+      <c r="AJ13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.18181152338139242</v>
+      </c>
+      <c r="AK13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.1819760016905235</v>
+      </c>
+      <c r="AL13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.18214047999965458</v>
+      </c>
+      <c r="AM13" s="53">
+        <f t="shared" si="4"/>
+        <v>0.18230495830878565</v>
+      </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
-      <c r="AK14" s="11"/>
-      <c r="AL14" s="11"/>
-      <c r="AM14" s="11"/>
+      <c r="A14" t="s">
+        <v>463</v>
+      </c>
+      <c r="B14" s="53">
+        <f>B6</f>
+        <v>2.2332999999999999E-2</v>
+      </c>
+      <c r="C14" s="53">
+        <f t="shared" ref="C14:AM14" si="5">C6</f>
+        <v>2.2332999999999999E-2</v>
+      </c>
+      <c r="D14" s="53">
+        <f t="shared" si="5"/>
+        <v>2.2332999999999999E-2</v>
+      </c>
+      <c r="E14" s="53">
+        <f t="shared" si="5"/>
+        <v>2.2332999999999999E-2</v>
+      </c>
+      <c r="F14" s="53">
+        <f t="shared" si="5"/>
+        <v>1.7866399999999998E-2</v>
+      </c>
+      <c r="G14" s="53">
+        <f t="shared" si="5"/>
+        <v>1.33998E-2</v>
+      </c>
+      <c r="H14" s="53">
+        <f t="shared" si="5"/>
+        <v>8.9331999999999988E-3</v>
+      </c>
+      <c r="I14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="T15" s="11"/>
@@ -30808,41 +31246,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="87.7265625" style="11" customWidth="1"/>
-    <col min="3" max="12" width="9.1796875" style="11"/>
-    <col min="13" max="13" width="11.54296875" style="11" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="11"/>
+    <col min="1" max="1" width="32.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="87.7109375" style="11" customWidth="1"/>
+    <col min="3" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="11.5703125" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -30862,7 +31300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -30903,7 +31341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>33</v>
       </c>
@@ -30952,7 +31390,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
         <v>22</v>
       </c>
@@ -30993,7 +31431,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>23</v>
       </c>
@@ -31044,7 +31482,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
         <v>23</v>
       </c>
@@ -31085,7 +31523,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
         <v>24</v>
       </c>
@@ -31136,7 +31574,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
         <v>25</v>
       </c>
@@ -31167,7 +31605,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>26</v>
       </c>
@@ -31198,7 +31636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>26</v>
       </c>
@@ -31234,10 +31672,10 @@
         <v>0.1</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
         <v>26</v>
       </c>
@@ -31273,10 +31711,10 @@
         <v>0.1</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="29.15" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="29.1" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
         <v>42</v>
       </c>
@@ -31317,12 +31755,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C19" s="35">
         <v>0.1</v>
@@ -31358,10 +31796,10 @@
         <v>0.5</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="29.15" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="29.1" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
         <v>42</v>
       </c>
@@ -31407,7 +31845,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="29.15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="29.1" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
         <v>42</v>
       </c>
@@ -31453,7 +31891,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="34" t="s">
         <v>26</v>
       </c>
@@ -31484,7 +31922,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
         <v>33</v>
       </c>
@@ -31515,10 +31953,10 @@
         <v>1.4</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="31" t="s">
         <v>37</v>
       </c>
@@ -31549,10 +31987,10 @@
         <v>0.8</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="29.15" x14ac:dyDescent="0.35">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="29.1" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
         <v>42</v>
       </c>
@@ -31583,7 +32021,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
         <v>40</v>
       </c>
@@ -31614,7 +32052,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>42</v>
       </c>
@@ -31645,25 +32083,25 @@
         <v>0.5</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
     </row>
   </sheetData>

--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\United States\Model\InputData\fuels\BS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\fuels\BS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5793DB-0217-48B9-8B55-41CD0F1497AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="0" windowWidth="19095" windowHeight="10155" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105" yWindow="0" windowWidth="19095" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <sheet name="BS-BSpUECB" sheetId="16" r:id="rId9"/>
     <sheet name="JCT Table 1_Notes" sheetId="15" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1921,7 +1920,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -2304,21 +2303,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Header: bottom row" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Header: bottom row" xfId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Parent row" xfId="6"/>
     <cellStyle name="Percent" xfId="8" builtinId="5"/>
-    <cellStyle name="Table title" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Table title" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2409,23 +2408,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2461,23 +2443,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2653,10 +2618,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -2988,11 +2953,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B42" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B51" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B48" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B45" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="B42" r:id="rId2"/>
+    <hyperlink ref="B51" r:id="rId3"/>
+    <hyperlink ref="B48" r:id="rId4"/>
+    <hyperlink ref="B45" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
@@ -3000,7 +2965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
@@ -3867,11 +3832,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5150,24 +5115,24 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y14">
+  <sortState ref="A2:Y14">
     <sortCondition ref="D2:D14"/>
     <sortCondition ref="A2:A14"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C11" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10197,42 +10162,42 @@
     </row>
     <row r="71" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="62" t="s">
+      <c r="B72" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="62"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="62"/>
-      <c r="J72" s="62"/>
-      <c r="K72" s="62"/>
-      <c r="L72" s="62"/>
-      <c r="M72" s="62"/>
-      <c r="N72" s="62"/>
-      <c r="O72" s="62"/>
-      <c r="P72" s="62"/>
-      <c r="Q72" s="62"/>
-      <c r="R72" s="62"/>
-      <c r="S72" s="62"/>
-      <c r="T72" s="62"/>
-      <c r="U72" s="62"/>
-      <c r="V72" s="62"/>
-      <c r="W72" s="62"/>
-      <c r="X72" s="62"/>
-      <c r="Y72" s="62"/>
-      <c r="Z72" s="62"/>
-      <c r="AA72" s="62"/>
-      <c r="AB72" s="62"/>
-      <c r="AC72" s="62"/>
-      <c r="AD72" s="62"/>
-      <c r="AE72" s="62"/>
-      <c r="AF72" s="62"/>
-      <c r="AG72" s="62"/>
-      <c r="AH72" s="62"/>
-      <c r="AI72" s="62"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="63"/>
+      <c r="K72" s="63"/>
+      <c r="L72" s="63"/>
+      <c r="M72" s="63"/>
+      <c r="N72" s="63"/>
+      <c r="O72" s="63"/>
+      <c r="P72" s="63"/>
+      <c r="Q72" s="63"/>
+      <c r="R72" s="63"/>
+      <c r="S72" s="63"/>
+      <c r="T72" s="63"/>
+      <c r="U72" s="63"/>
+      <c r="V72" s="63"/>
+      <c r="W72" s="63"/>
+      <c r="X72" s="63"/>
+      <c r="Y72" s="63"/>
+      <c r="Z72" s="63"/>
+      <c r="AA72" s="63"/>
+      <c r="AB72" s="63"/>
+      <c r="AC72" s="63"/>
+      <c r="AD72" s="63"/>
+      <c r="AE72" s="63"/>
+      <c r="AF72" s="63"/>
+      <c r="AG72" s="63"/>
+      <c r="AH72" s="63"/>
+      <c r="AI72" s="63"/>
     </row>
     <row r="73" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="47" t="s">
@@ -10405,7 +10370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17406,42 +17371,42 @@
     </row>
     <row r="99" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="100" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B100" s="62" t="s">
+      <c r="B100" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C100" s="62"/>
-      <c r="D100" s="62"/>
-      <c r="E100" s="62"/>
-      <c r="F100" s="62"/>
-      <c r="G100" s="62"/>
-      <c r="H100" s="62"/>
-      <c r="I100" s="62"/>
-      <c r="J100" s="62"/>
-      <c r="K100" s="62"/>
-      <c r="L100" s="62"/>
-      <c r="M100" s="62"/>
-      <c r="N100" s="62"/>
-      <c r="O100" s="62"/>
-      <c r="P100" s="62"/>
-      <c r="Q100" s="62"/>
-      <c r="R100" s="62"/>
-      <c r="S100" s="62"/>
-      <c r="T100" s="62"/>
-      <c r="U100" s="62"/>
-      <c r="V100" s="62"/>
-      <c r="W100" s="62"/>
-      <c r="X100" s="62"/>
-      <c r="Y100" s="62"/>
-      <c r="Z100" s="62"/>
-      <c r="AA100" s="62"/>
-      <c r="AB100" s="62"/>
-      <c r="AC100" s="62"/>
-      <c r="AD100" s="62"/>
-      <c r="AE100" s="62"/>
-      <c r="AF100" s="62"/>
-      <c r="AG100" s="62"/>
-      <c r="AH100" s="62"/>
-      <c r="AI100" s="62"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="63"/>
+      <c r="F100" s="63"/>
+      <c r="G100" s="63"/>
+      <c r="H100" s="63"/>
+      <c r="I100" s="63"/>
+      <c r="J100" s="63"/>
+      <c r="K100" s="63"/>
+      <c r="L100" s="63"/>
+      <c r="M100" s="63"/>
+      <c r="N100" s="63"/>
+      <c r="O100" s="63"/>
+      <c r="P100" s="63"/>
+      <c r="Q100" s="63"/>
+      <c r="R100" s="63"/>
+      <c r="S100" s="63"/>
+      <c r="T100" s="63"/>
+      <c r="U100" s="63"/>
+      <c r="V100" s="63"/>
+      <c r="W100" s="63"/>
+      <c r="X100" s="63"/>
+      <c r="Y100" s="63"/>
+      <c r="Z100" s="63"/>
+      <c r="AA100" s="63"/>
+      <c r="AB100" s="63"/>
+      <c r="AC100" s="63"/>
+      <c r="AD100" s="63"/>
+      <c r="AE100" s="63"/>
+      <c r="AF100" s="63"/>
+      <c r="AG100" s="63"/>
+      <c r="AH100" s="63"/>
+      <c r="AI100" s="63"/>
     </row>
     <row r="101" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B101" s="47" t="s">
@@ -17568,7 +17533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI136"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -23880,42 +23845,42 @@
     <row r="81" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="82" spans="2:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="83" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="62" t="s">
+      <c r="B83" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C83" s="62"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="62"/>
-      <c r="I83" s="62"/>
-      <c r="J83" s="62"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="62"/>
-      <c r="M83" s="62"/>
-      <c r="N83" s="62"/>
-      <c r="O83" s="62"/>
-      <c r="P83" s="62"/>
-      <c r="Q83" s="62"/>
-      <c r="R83" s="62"/>
-      <c r="S83" s="62"/>
-      <c r="T83" s="62"/>
-      <c r="U83" s="62"/>
-      <c r="V83" s="62"/>
-      <c r="W83" s="62"/>
-      <c r="X83" s="62"/>
-      <c r="Y83" s="62"/>
-      <c r="Z83" s="62"/>
-      <c r="AA83" s="62"/>
-      <c r="AB83" s="62"/>
-      <c r="AC83" s="62"/>
-      <c r="AD83" s="62"/>
-      <c r="AE83" s="62"/>
-      <c r="AF83" s="62"/>
-      <c r="AG83" s="62"/>
-      <c r="AH83" s="62"/>
-      <c r="AI83" s="62"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="63"/>
+      <c r="L83" s="63"/>
+      <c r="M83" s="63"/>
+      <c r="N83" s="63"/>
+      <c r="O83" s="63"/>
+      <c r="P83" s="63"/>
+      <c r="Q83" s="63"/>
+      <c r="R83" s="63"/>
+      <c r="S83" s="63"/>
+      <c r="T83" s="63"/>
+      <c r="U83" s="63"/>
+      <c r="V83" s="63"/>
+      <c r="W83" s="63"/>
+      <c r="X83" s="63"/>
+      <c r="Y83" s="63"/>
+      <c r="Z83" s="63"/>
+      <c r="AA83" s="63"/>
+      <c r="AB83" s="63"/>
+      <c r="AC83" s="63"/>
+      <c r="AD83" s="63"/>
+      <c r="AE83" s="63"/>
+      <c r="AF83" s="63"/>
+      <c r="AG83" s="63"/>
+      <c r="AH83" s="63"/>
+      <c r="AI83" s="63"/>
     </row>
     <row r="84" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="47" t="s">
@@ -24091,10 +24056,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AJ51" sqref="AJ51"/>
     </sheetView>
   </sheetViews>
@@ -25048,131 +25013,131 @@
         <v>310</v>
       </c>
       <c r="C12" s="8">
-        <f>C11*C10</f>
+        <f t="shared" ref="C12:AH12" si="3">C11*C10</f>
         <v>1095687</v>
       </c>
       <c r="D12" s="8">
-        <f>D11*D10</f>
+        <f t="shared" si="3"/>
         <v>909381.20000000007</v>
       </c>
       <c r="E12" s="8">
-        <f>E11*E10</f>
+        <f t="shared" si="3"/>
         <v>735449</v>
       </c>
       <c r="F12" s="8">
-        <f>F11*F10</f>
+        <f t="shared" si="3"/>
         <v>327097</v>
       </c>
       <c r="G12" s="8">
-        <f>G11*G10</f>
+        <f t="shared" si="3"/>
         <v>319899</v>
       </c>
       <c r="H12" s="8">
-        <f>H11*H10</f>
+        <f t="shared" si="3"/>
         <v>312701</v>
       </c>
       <c r="I12" s="8">
-        <f>I11*I10</f>
+        <f t="shared" si="3"/>
         <v>305503</v>
       </c>
       <c r="J12" s="8">
-        <f>J11*J10</f>
+        <f t="shared" si="3"/>
         <v>298306</v>
       </c>
       <c r="K12" s="8">
-        <f>K11*K10</f>
+        <f t="shared" si="3"/>
         <v>291108</v>
       </c>
       <c r="L12" s="8">
-        <f>L11*L10</f>
+        <f t="shared" si="3"/>
         <v>283910</v>
       </c>
       <c r="M12" s="8">
-        <f>M11*M10</f>
+        <f t="shared" si="3"/>
         <v>276712</v>
       </c>
       <c r="N12" s="8">
-        <f>N11*N10</f>
+        <f t="shared" si="3"/>
         <v>269514</v>
       </c>
       <c r="O12" s="8">
-        <f>O11*O10</f>
+        <f t="shared" si="3"/>
         <v>262316</v>
       </c>
       <c r="P12" s="8">
-        <f>P11*P10</f>
+        <f t="shared" si="3"/>
         <v>260811</v>
       </c>
       <c r="Q12" s="8">
-        <f>Q11*Q10</f>
+        <f t="shared" si="3"/>
         <v>259305</v>
       </c>
       <c r="R12" s="8">
-        <f>R11*R10</f>
+        <f t="shared" si="3"/>
         <v>257799</v>
       </c>
       <c r="S12" s="8">
-        <f>S11*S10</f>
+        <f t="shared" si="3"/>
         <v>256293</v>
       </c>
       <c r="T12" s="8">
-        <f>T11*T10</f>
+        <f t="shared" si="3"/>
         <v>254787</v>
       </c>
       <c r="U12" s="8">
-        <f>U11*U10</f>
+        <f t="shared" si="3"/>
         <v>253281</v>
       </c>
       <c r="V12" s="8">
-        <f>V11*V10</f>
+        <f t="shared" si="3"/>
         <v>251776</v>
       </c>
       <c r="W12" s="8">
-        <f>W11*W10</f>
+        <f t="shared" si="3"/>
         <v>250270</v>
       </c>
       <c r="X12" s="8">
-        <f>X11*X10</f>
+        <f t="shared" si="3"/>
         <v>248764</v>
       </c>
       <c r="Y12" s="8">
-        <f>Y11*Y10</f>
+        <f t="shared" si="3"/>
         <v>247258</v>
       </c>
       <c r="Z12" s="8">
-        <f>Z11*Z10</f>
+        <f t="shared" si="3"/>
         <v>245752</v>
       </c>
       <c r="AA12" s="8">
-        <f>AA11*AA10</f>
+        <f t="shared" si="3"/>
         <v>244246</v>
       </c>
       <c r="AB12" s="8">
-        <f>AB11*AB10</f>
+        <f t="shared" si="3"/>
         <v>242740</v>
       </c>
       <c r="AC12" s="8">
-        <f>AC11*AC10</f>
+        <f t="shared" si="3"/>
         <v>241235</v>
       </c>
       <c r="AD12" s="8">
-        <f>AD11*AD10</f>
+        <f t="shared" si="3"/>
         <v>239729</v>
       </c>
       <c r="AE12" s="8">
-        <f>AE11*AE10</f>
+        <f t="shared" si="3"/>
         <v>238223</v>
       </c>
       <c r="AF12" s="8">
-        <f>AF11*AF10</f>
+        <f t="shared" si="3"/>
         <v>236717</v>
       </c>
       <c r="AG12" s="8">
-        <f>AG11*AG10</f>
+        <f t="shared" si="3"/>
         <v>235211</v>
       </c>
       <c r="AH12" s="8">
-        <f>AH11*AH10</f>
+        <f t="shared" si="3"/>
         <v>233705</v>
       </c>
     </row>
@@ -25479,79 +25444,79 @@
         <v>0.1</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" ref="P17:AH17" si="3">O17</f>
+        <f t="shared" ref="P17:AH17" si="4">O17</f>
         <v>0.1</v>
       </c>
       <c r="Q17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="R17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="S17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="T17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="U17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="V17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="W17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="X17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="Y17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="Z17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="AA17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="AB17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="AC17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="AD17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="AE17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="AF17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="AG17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="AH17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
     </row>
@@ -25560,131 +25525,131 @@
         <v>360</v>
       </c>
       <c r="C18" s="31">
-        <f t="shared" ref="C18:AH18" si="4">C16*C17</f>
+        <f t="shared" ref="C18:AH18" si="5">C16*C17</f>
         <v>256048</v>
       </c>
       <c r="D18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>255439</v>
       </c>
       <c r="E18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>254830</v>
       </c>
       <c r="F18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>254221</v>
       </c>
       <c r="G18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>253612</v>
       </c>
       <c r="H18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>253003</v>
       </c>
       <c r="I18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>252395</v>
       </c>
       <c r="J18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>251786</v>
       </c>
       <c r="K18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>251177</v>
       </c>
       <c r="L18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>250568</v>
       </c>
       <c r="M18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>249959</v>
       </c>
       <c r="N18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>249350</v>
       </c>
       <c r="O18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>248741</v>
       </c>
       <c r="P18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>248132</v>
       </c>
       <c r="Q18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>247523</v>
       </c>
       <c r="R18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>246914</v>
       </c>
       <c r="S18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>246305</v>
       </c>
       <c r="T18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>245696</v>
       </c>
       <c r="U18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>245088</v>
       </c>
       <c r="V18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>244479</v>
       </c>
       <c r="W18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>243870</v>
       </c>
       <c r="X18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>243261</v>
       </c>
       <c r="Y18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>242652</v>
       </c>
       <c r="Z18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>242043</v>
       </c>
       <c r="AA18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>241434</v>
       </c>
       <c r="AB18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>240825</v>
       </c>
       <c r="AC18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>240216</v>
       </c>
       <c r="AD18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>239607</v>
       </c>
       <c r="AE18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>238998</v>
       </c>
       <c r="AF18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>238389</v>
       </c>
       <c r="AG18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>237780</v>
       </c>
       <c r="AH18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>237172</v>
       </c>
     </row>
@@ -25855,87 +25820,87 @@
         <v>300000000</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" ref="F22:Q22" si="5">E22</f>
+        <f t="shared" ref="F22:Q22" si="6">E22</f>
         <v>300000000</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300000000</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300000000</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300000000</v>
       </c>
       <c r="J22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300000000</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300000000</v>
       </c>
       <c r="L22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300000000</v>
       </c>
       <c r="M22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300000000</v>
       </c>
       <c r="N22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300000000</v>
       </c>
       <c r="O22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300000000</v>
       </c>
       <c r="P22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300000000</v>
       </c>
       <c r="Q22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300000000</v>
       </c>
       <c r="R22" s="7">
-        <f t="shared" ref="R22" si="6">Q22</f>
+        <f t="shared" ref="R22" si="7">Q22</f>
         <v>300000000</v>
       </c>
       <c r="S22" s="7">
-        <f t="shared" ref="S22" si="7">R22</f>
+        <f t="shared" ref="S22" si="8">R22</f>
         <v>300000000</v>
       </c>
       <c r="T22" s="7">
-        <f t="shared" ref="T22" si="8">S22</f>
+        <f t="shared" ref="T22" si="9">S22</f>
         <v>300000000</v>
       </c>
       <c r="U22" s="7">
-        <f t="shared" ref="U22" si="9">T22</f>
+        <f t="shared" ref="U22" si="10">T22</f>
         <v>300000000</v>
       </c>
       <c r="V22" s="7">
-        <f t="shared" ref="V22" si="10">U22</f>
+        <f t="shared" ref="V22" si="11">U22</f>
         <v>300000000</v>
       </c>
       <c r="W22" s="7">
-        <f t="shared" ref="W22" si="11">V22</f>
+        <f t="shared" ref="W22" si="12">V22</f>
         <v>300000000</v>
       </c>
       <c r="X22" s="7">
-        <f t="shared" ref="X22" si="12">W22</f>
+        <f t="shared" ref="X22" si="13">W22</f>
         <v>300000000</v>
       </c>
       <c r="Y22" s="7">
-        <f t="shared" ref="Y22" si="13">X22</f>
+        <f t="shared" ref="Y22" si="14">X22</f>
         <v>300000000</v>
       </c>
       <c r="Z22" s="7">
-        <f t="shared" ref="Z22" si="14">Y22</f>
+        <f t="shared" ref="Z22" si="15">Y22</f>
         <v>300000000</v>
       </c>
       <c r="AA22" s="7">
@@ -25943,31 +25908,31 @@
         <v>300000000</v>
       </c>
       <c r="AB22" s="7">
-        <f t="shared" ref="AB22:AJ22" si="15">AA22</f>
+        <f t="shared" ref="AB22:AH22" si="16">AA22</f>
         <v>300000000</v>
       </c>
       <c r="AC22" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>300000000</v>
       </c>
       <c r="AD22" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>300000000</v>
       </c>
       <c r="AE22" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>300000000</v>
       </c>
       <c r="AF22" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>300000000</v>
       </c>
       <c r="AG22" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>300000000</v>
       </c>
       <c r="AH22" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>300000000</v>
       </c>
       <c r="AI22" s="7"/>
@@ -26120,127 +26085,127 @@
         <v>0.31269731656692296</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" ref="C24:P24" si="16">D22/D23</f>
+        <f t="shared" ref="D24:P24" si="17">D22/D23</f>
         <v>0.34285778860529786</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.3622498402976298</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.37598025289549725</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.40646738989562903</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.41415229287630889</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.42323668613563886</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.39946945449758892</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.40009106872906414</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.40096047140548391</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.40118376652093307</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.40197253766231777</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.40455090151073586</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.40526200782514737</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" ref="Q24:R24" si="17">Q22/Q23</f>
+        <f t="shared" ref="Q24:R24" si="18">Q22/Q23</f>
         <v>0.40191554233607107</v>
       </c>
       <c r="R24" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.40537862357361099</v>
       </c>
       <c r="S24" s="8">
-        <f t="shared" ref="S24:AA24" si="18">S22/S23</f>
+        <f t="shared" ref="S24:AA24" si="19">S22/S23</f>
         <v>0.41050739265180025</v>
       </c>
       <c r="T24" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.41390216809681823</v>
       </c>
       <c r="U24" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.41454867472941087</v>
       </c>
       <c r="V24" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.4196434670496747</v>
       </c>
       <c r="W24" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.42276478981633353</v>
       </c>
       <c r="X24" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.424336572612173</v>
       </c>
       <c r="Y24" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.42632767697024587</v>
       </c>
       <c r="Z24" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.42810908238255907</v>
       </c>
       <c r="AA24" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.42964122355639361</v>
       </c>
       <c r="AB24" s="8">
-        <f t="shared" ref="AB24:AJ24" si="19">AB22/AB23</f>
+        <f t="shared" ref="AB24:AH24" si="20">AB22/AB23</f>
         <v>0.42964272552180816</v>
       </c>
       <c r="AC24" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.43184498257581788</v>
       </c>
       <c r="AD24" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.4277449404086352</v>
       </c>
       <c r="AE24" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.42808186375576363</v>
       </c>
       <c r="AF24" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.42853720191730743</v>
       </c>
       <c r="AG24" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.4303143276189097</v>
       </c>
       <c r="AH24" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.42845475850445314</v>
       </c>
       <c r="AI24" s="8"/>
@@ -26412,119 +26377,119 @@
         <v>300000000</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" ref="F28:P28" si="20">E28</f>
+        <f t="shared" ref="F28:P28" si="21">E28</f>
         <v>300000000</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>300000000</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>300000000</v>
       </c>
       <c r="I28" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>300000000</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>300000000</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>300000000</v>
       </c>
       <c r="L28" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>300000000</v>
       </c>
       <c r="M28" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>300000000</v>
       </c>
       <c r="N28" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>300000000</v>
       </c>
       <c r="O28" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>300000000</v>
       </c>
       <c r="P28" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>300000000</v>
       </c>
       <c r="Q28" s="7">
-        <f t="shared" ref="Q28" si="21">P28</f>
+        <f t="shared" ref="Q28" si="22">P28</f>
         <v>300000000</v>
       </c>
       <c r="R28" s="7">
-        <f t="shared" ref="R28" si="22">Q28</f>
+        <f t="shared" ref="R28" si="23">Q28</f>
         <v>300000000</v>
       </c>
       <c r="S28" s="7">
-        <f t="shared" ref="S28" si="23">R28</f>
+        <f t="shared" ref="S28" si="24">R28</f>
         <v>300000000</v>
       </c>
       <c r="T28" s="7">
-        <f t="shared" ref="T28" si="24">S28</f>
+        <f t="shared" ref="T28" si="25">S28</f>
         <v>300000000</v>
       </c>
       <c r="U28" s="7">
-        <f t="shared" ref="U28" si="25">T28</f>
+        <f t="shared" ref="U28" si="26">T28</f>
         <v>300000000</v>
       </c>
       <c r="V28" s="7">
-        <f t="shared" ref="V28" si="26">U28</f>
+        <f t="shared" ref="V28" si="27">U28</f>
         <v>300000000</v>
       </c>
       <c r="W28" s="7">
-        <f t="shared" ref="W28" si="27">V28</f>
+        <f t="shared" ref="W28" si="28">V28</f>
         <v>300000000</v>
       </c>
       <c r="X28" s="7">
-        <f t="shared" ref="X28" si="28">W28</f>
+        <f t="shared" ref="X28" si="29">W28</f>
         <v>300000000</v>
       </c>
       <c r="Y28" s="7">
-        <f t="shared" ref="Y28" si="29">X28</f>
+        <f t="shared" ref="Y28" si="30">X28</f>
         <v>300000000</v>
       </c>
       <c r="Z28" s="7">
-        <f t="shared" ref="Z28" si="30">Y28</f>
+        <f t="shared" ref="Z28" si="31">Y28</f>
         <v>300000000</v>
       </c>
       <c r="AA28" s="7">
-        <f t="shared" ref="AA28" si="31">Z28</f>
+        <f t="shared" ref="AA28" si="32">Z28</f>
         <v>300000000</v>
       </c>
       <c r="AB28" s="7">
-        <f t="shared" ref="AB28" si="32">AA28</f>
+        <f t="shared" ref="AB28" si="33">AA28</f>
         <v>300000000</v>
       </c>
       <c r="AC28" s="7">
-        <f t="shared" ref="AC28" si="33">AB28</f>
+        <f t="shared" ref="AC28" si="34">AB28</f>
         <v>300000000</v>
       </c>
       <c r="AD28" s="7">
-        <f t="shared" ref="AD28" si="34">AC28</f>
+        <f t="shared" ref="AD28" si="35">AC28</f>
         <v>300000000</v>
       </c>
       <c r="AE28" s="7">
-        <f t="shared" ref="AE28" si="35">AD28</f>
+        <f t="shared" ref="AE28" si="36">AD28</f>
         <v>300000000</v>
       </c>
       <c r="AF28" s="7">
-        <f t="shared" ref="AF28" si="36">AE28</f>
+        <f t="shared" ref="AF28" si="37">AE28</f>
         <v>300000000</v>
       </c>
       <c r="AG28" s="7">
-        <f t="shared" ref="AG28" si="37">AF28</f>
+        <f t="shared" ref="AG28" si="38">AF28</f>
         <v>300000000</v>
       </c>
       <c r="AH28" s="7">
-        <f t="shared" ref="AH28" si="38">AG28</f>
+        <f t="shared" ref="AH28" si="39">AG28</f>
         <v>300000000</v>
       </c>
       <c r="AI28" s="7"/>
@@ -26673,131 +26638,131 @@
         <v>318</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" ref="C30:P30" si="39">C28/C29</f>
+        <f t="shared" ref="C30:P30" si="40">C28/C29</f>
         <v>0.37162888102353153</v>
       </c>
       <c r="D30" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.37827603358236273</v>
       </c>
       <c r="E30" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.38450965530531978</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.39183748446290906</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.39077117894992563</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.38920346778110254</v>
       </c>
       <c r="I30" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.40120478963145811</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.44212293094868654</v>
       </c>
       <c r="K30" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.44194070500122506</v>
       </c>
       <c r="L30" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.44170916404520622</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.44147897587790957</v>
       </c>
       <c r="N30" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.4410383924935054</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.440349140033651</v>
       </c>
       <c r="P30" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.43988143828673171</v>
       </c>
       <c r="Q30" s="8">
-        <f t="shared" ref="Q30:AA30" si="40">Q28/Q29</f>
+        <f t="shared" ref="Q30:AA30" si="41">Q28/Q29</f>
         <v>0.45010927167755732</v>
       </c>
       <c r="R30" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.46159649913152001</v>
       </c>
       <c r="S30" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.46060079029085221</v>
       </c>
       <c r="T30" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.45986328712074165</v>
       </c>
       <c r="U30" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.45971447082116323</v>
       </c>
       <c r="V30" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.4595660936566317</v>
       </c>
       <c r="W30" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.4595660936566317</v>
       </c>
       <c r="X30" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.46563683144870682</v>
       </c>
       <c r="Y30" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.46473363612722918</v>
       </c>
       <c r="Z30" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.46408260091121134</v>
       </c>
       <c r="AA30" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.46980971748030226</v>
       </c>
       <c r="AB30" s="8">
-        <f t="shared" ref="AB30:AJ30" si="41">AB28/AB29</f>
+        <f t="shared" ref="AB30:AH30" si="42">AB28/AB29</f>
         <v>0.46925461882003083</v>
       </c>
       <c r="AC30" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.46865462219392789</v>
       </c>
       <c r="AD30" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.46834283737290167</v>
       </c>
       <c r="AE30" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.46803155547376307</v>
       </c>
       <c r="AF30" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.46783794918706301</v>
       </c>
       <c r="AG30" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.46760410763960386</v>
       </c>
       <c r="AH30" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.46726661976950429</v>
       </c>
       <c r="AI30" s="8"/>
@@ -27009,119 +26974,119 @@
         <v>100000000</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" ref="F35:P35" si="42">E35</f>
+        <f t="shared" ref="F35:P35" si="43">E35</f>
         <v>100000000</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>100000000</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>100000000</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>100000000</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>100000000</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>100000000</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>100000000</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>100000000</v>
       </c>
       <c r="N35" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>100000000</v>
       </c>
       <c r="O35" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>100000000</v>
       </c>
       <c r="P35" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>100000000</v>
       </c>
       <c r="Q35" s="7">
-        <f t="shared" ref="Q35" si="43">P35</f>
+        <f t="shared" ref="Q35" si="44">P35</f>
         <v>100000000</v>
       </c>
       <c r="R35" s="7">
-        <f t="shared" ref="R35" si="44">Q35</f>
+        <f t="shared" ref="R35" si="45">Q35</f>
         <v>100000000</v>
       </c>
       <c r="S35" s="7">
-        <f t="shared" ref="S35" si="45">R35</f>
+        <f t="shared" ref="S35" si="46">R35</f>
         <v>100000000</v>
       </c>
       <c r="T35" s="7">
-        <f t="shared" ref="T35" si="46">S35</f>
+        <f t="shared" ref="T35" si="47">S35</f>
         <v>100000000</v>
       </c>
       <c r="U35" s="7">
-        <f t="shared" ref="U35" si="47">T35</f>
+        <f t="shared" ref="U35" si="48">T35</f>
         <v>100000000</v>
       </c>
       <c r="V35" s="7">
-        <f t="shared" ref="V35" si="48">U35</f>
+        <f t="shared" ref="V35" si="49">U35</f>
         <v>100000000</v>
       </c>
       <c r="W35" s="7">
-        <f t="shared" ref="W35" si="49">V35</f>
+        <f t="shared" ref="W35" si="50">V35</f>
         <v>100000000</v>
       </c>
       <c r="X35" s="7">
-        <f t="shared" ref="X35" si="50">W35</f>
+        <f t="shared" ref="X35" si="51">W35</f>
         <v>100000000</v>
       </c>
       <c r="Y35" s="7">
-        <f t="shared" ref="Y35" si="51">X35</f>
+        <f t="shared" ref="Y35" si="52">X35</f>
         <v>100000000</v>
       </c>
       <c r="Z35" s="7">
-        <f t="shared" ref="Z35" si="52">Y35</f>
+        <f t="shared" ref="Z35" si="53">Y35</f>
         <v>100000000</v>
       </c>
       <c r="AA35" s="7">
-        <f t="shared" ref="AA35" si="53">Z35</f>
+        <f t="shared" ref="AA35" si="54">Z35</f>
         <v>100000000</v>
       </c>
       <c r="AB35" s="7">
-        <f t="shared" ref="AB35" si="54">AA35</f>
+        <f t="shared" ref="AB35" si="55">AA35</f>
         <v>100000000</v>
       </c>
       <c r="AC35" s="7">
-        <f t="shared" ref="AC35" si="55">AB35</f>
+        <f t="shared" ref="AC35" si="56">AB35</f>
         <v>100000000</v>
       </c>
       <c r="AD35" s="7">
-        <f t="shared" ref="AD35" si="56">AC35</f>
+        <f t="shared" ref="AD35" si="57">AC35</f>
         <v>100000000</v>
       </c>
       <c r="AE35" s="7">
-        <f t="shared" ref="AE35" si="57">AD35</f>
+        <f t="shared" ref="AE35" si="58">AD35</f>
         <v>100000000</v>
       </c>
       <c r="AF35" s="7">
-        <f t="shared" ref="AF35" si="58">AE35</f>
+        <f t="shared" ref="AF35" si="59">AE35</f>
         <v>100000000</v>
       </c>
       <c r="AG35" s="7">
-        <f t="shared" ref="AG35" si="59">AF35</f>
+        <f t="shared" ref="AG35" si="60">AF35</f>
         <v>100000000</v>
       </c>
       <c r="AH35" s="7">
-        <f t="shared" ref="AH35" si="60">AG35</f>
+        <f t="shared" ref="AH35" si="61">AG35</f>
         <v>100000000</v>
       </c>
       <c r="AI35" s="7"/>
@@ -27274,7 +27239,7 @@
         <v>7.3706703484639192E-9</v>
       </c>
       <c r="D37" s="8">
-        <f t="shared" ref="C37:P37" si="61">D35/D36</f>
+        <f t="shared" ref="D37:P37" si="62">D35/D36</f>
         <v>8.1289564647233365E-9</v>
       </c>
       <c r="E37" s="7">
@@ -27282,119 +27247,119 @@
         <v>8.3919792818815483E-9</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>8.2658741566948539E-9</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>8.6742471490785611E-9</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>8.7475403010116095E-9</v>
       </c>
       <c r="I37" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>9.1247169969023407E-9</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>8.791305398960428E-9</v>
       </c>
       <c r="K37" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>8.8133386001844808E-9</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>8.8880079885415806E-9</v>
       </c>
       <c r="M37" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>8.9560745740087906E-9</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>8.9680749982175949E-9</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>9.0123679428990785E-9</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>9.0291211730634224E-9</v>
       </c>
       <c r="Q37" s="8">
-        <f t="shared" ref="Q37:AJ37" si="62">Q35/Q36</f>
+        <f t="shared" ref="Q37:AH37" si="63">Q35/Q36</f>
         <v>8.977747843971411E-9</v>
       </c>
       <c r="R37" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.042049145345515E-9</v>
       </c>
       <c r="S37" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.1225119602973688E-9</v>
       </c>
       <c r="T37" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.174172209854418E-9</v>
       </c>
       <c r="U37" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.1859148326069118E-9</v>
       </c>
       <c r="V37" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.2687863701384175E-9</v>
       </c>
       <c r="W37" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.3109609563474215E-9</v>
       </c>
       <c r="X37" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.335163647752536E-9</v>
       </c>
       <c r="Y37" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.3673471700916342E-9</v>
       </c>
       <c r="Z37" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.3719983246615799E-9</v>
       </c>
       <c r="AA37" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.375912979526381E-9</v>
       </c>
       <c r="AB37" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.3766963029655576E-9</v>
       </c>
       <c r="AC37" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.4016719557339193E-9</v>
       </c>
       <c r="AD37" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.3454773450209115E-9</v>
       </c>
       <c r="AE37" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.3601968486838066E-9</v>
       </c>
       <c r="AF37" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.3683195099094807E-9</v>
       </c>
       <c r="AG37" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.3900593076145871E-9</v>
       </c>
       <c r="AH37" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.3675007301966811E-9</v>
       </c>
       <c r="AI37" s="8"/>
@@ -27412,7 +27377,7 @@
       <c r="B40" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C40" s="63">
+      <c r="C40" s="62">
         <f>'Subsidies Paid'!H11</f>
         <v>53000000</v>
       </c>
@@ -27457,7 +27422,7 @@
       <c r="B41" t="s">
         <v>315</v>
       </c>
-      <c r="C41" s="63">
+      <c r="C41" s="62">
         <f>INDEX('AEO Table 1'!19:19,MATCH(Calculations!C34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>1.3567287E+16</v>
       </c>
@@ -27516,115 +27481,115 @@
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="G42" s="8">
-        <f t="shared" ref="D42:AJ42" si="63">F42</f>
+        <f t="shared" ref="G42:AH42" si="64">F42</f>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="H42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="I42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="J42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="K42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="L42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="M42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="P42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="R42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="S42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="T42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="U42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="V42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="W42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="X42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="Y42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="Z42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="AA42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="AB42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="AC42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="AD42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="AE42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="AF42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="AG42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="AH42" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.9064552846858775E-9</v>
       </c>
       <c r="AI42" s="8"/>
@@ -27796,119 +27761,119 @@
         <v>1620000000.0000002</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" ref="F46:P46" si="64">E46</f>
+        <f t="shared" ref="F46:P46" si="65">E46</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1620000000.0000002</v>
       </c>
       <c r="H46" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1620000000.0000002</v>
       </c>
       <c r="I46" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1620000000.0000002</v>
       </c>
       <c r="J46" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1620000000.0000002</v>
       </c>
       <c r="K46" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1620000000.0000002</v>
       </c>
       <c r="L46" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1620000000.0000002</v>
       </c>
       <c r="M46" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1620000000.0000002</v>
       </c>
       <c r="N46" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1620000000.0000002</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1620000000.0000002</v>
       </c>
       <c r="P46" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1620000000.0000002</v>
       </c>
       <c r="Q46" s="7">
-        <f t="shared" ref="Q46" si="65">P46</f>
+        <f t="shared" ref="Q46" si="66">P46</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="R46" s="7">
-        <f t="shared" ref="R46" si="66">Q46</f>
+        <f t="shared" ref="R46" si="67">Q46</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="S46" s="7">
-        <f t="shared" ref="S46" si="67">R46</f>
+        <f t="shared" ref="S46" si="68">R46</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="T46" s="7">
-        <f t="shared" ref="T46" si="68">S46</f>
+        <f t="shared" ref="T46" si="69">S46</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="U46" s="7">
-        <f t="shared" ref="U46" si="69">T46</f>
+        <f t="shared" ref="U46" si="70">T46</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="V46" s="7">
-        <f t="shared" ref="V46" si="70">U46</f>
+        <f t="shared" ref="V46" si="71">U46</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="W46" s="7">
-        <f t="shared" ref="W46" si="71">V46</f>
+        <f t="shared" ref="W46" si="72">V46</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="X46" s="7">
-        <f t="shared" ref="X46" si="72">W46</f>
+        <f t="shared" ref="X46" si="73">W46</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="Y46" s="7">
-        <f t="shared" ref="Y46" si="73">X46</f>
+        <f t="shared" ref="Y46" si="74">X46</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="Z46" s="7">
-        <f t="shared" ref="Z46" si="74">Y46</f>
+        <f t="shared" ref="Z46" si="75">Y46</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="AA46" s="7">
-        <f t="shared" ref="AA46" si="75">Z46</f>
+        <f t="shared" ref="AA46" si="76">Z46</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="AB46" s="7">
-        <f t="shared" ref="AB46" si="76">AA46</f>
+        <f t="shared" ref="AB46" si="77">AA46</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="AC46" s="7">
-        <f t="shared" ref="AC46" si="77">AB46</f>
+        <f t="shared" ref="AC46" si="78">AB46</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="AD46" s="7">
-        <f t="shared" ref="AD46" si="78">AC46</f>
+        <f t="shared" ref="AD46" si="79">AC46</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="AE46" s="7">
-        <f t="shared" ref="AE46" si="79">AD46</f>
+        <f t="shared" ref="AE46" si="80">AD46</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="AF46" s="7">
-        <f t="shared" ref="AF46" si="80">AE46</f>
+        <f t="shared" ref="AF46" si="81">AE46</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="AG46" s="7">
-        <f t="shared" ref="AG46" si="81">AF46</f>
+        <f t="shared" ref="AG46" si="82">AF46</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="AH46" s="7">
-        <f t="shared" ref="AH46" si="82">AG46</f>
+        <f t="shared" ref="AH46" si="83">AG46</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="AI46" s="7"/>
@@ -28203,123 +28168,123 @@
         <v>2.2489652573322277E-8</v>
       </c>
       <c r="E49" s="7">
-        <f t="shared" ref="C49:P49" si="83">E46*(E47/SUM(E47:E48))/E47</f>
+        <f t="shared" ref="E49:P49" si="84">E46*(E47/SUM(E47:E48))/E47</f>
         <v>2.2049985520509512E-8</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2.1517569633545032E-8</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2.1325093387454493E-8</v>
       </c>
       <c r="H49" s="7">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2.0982281357083705E-8</v>
       </c>
       <c r="I49" s="7">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2.0773777829601092E-8</v>
       </c>
       <c r="J49" s="7">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2.0642450396478403E-8</v>
       </c>
       <c r="K49" s="7">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2.0466969059817563E-8</v>
       </c>
       <c r="L49" s="7">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2.0438746974103441E-8</v>
       </c>
       <c r="M49" s="7">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2.0444342643396718E-8</v>
       </c>
       <c r="N49" s="7">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2.0352812486686656E-8</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2.0240953811717699E-8</v>
       </c>
       <c r="P49" s="7">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2.0108316550233104E-8</v>
       </c>
       <c r="Q49" s="7">
-        <f t="shared" ref="Q49:AJ49" si="84">Q46*(Q47/SUM(Q47:Q48))/Q47</f>
+        <f t="shared" ref="Q49:AH49" si="85">Q46*(Q47/SUM(Q47:Q48))/Q47</f>
         <v>1.999148412138119E-8</v>
       </c>
       <c r="R49" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1.9978536146018535E-8</v>
       </c>
       <c r="S49" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1.9951565972550047E-8</v>
       </c>
       <c r="T49" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1.9956559497519459E-8</v>
       </c>
       <c r="U49" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>2.0006639734436314E-8</v>
       </c>
       <c r="V49" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>2.003719373164842E-8</v>
       </c>
       <c r="W49" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1.998971615479153E-8</v>
       </c>
       <c r="X49" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1.9853185448507236E-8</v>
       </c>
       <c r="Y49" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1.9750394032552553E-8</v>
       </c>
       <c r="Z49" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1.9689091022120882E-8</v>
       </c>
       <c r="AA49" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1.9661955160547147E-8</v>
       </c>
       <c r="AB49" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1.9711175071846327E-8</v>
       </c>
       <c r="AC49" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1.9782091470412751E-8</v>
       </c>
       <c r="AD49" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1.9839775686107512E-8</v>
       </c>
       <c r="AE49" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1.9879367579888E-8</v>
       </c>
       <c r="AF49" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1.992033293221325E-8</v>
       </c>
       <c r="AG49" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>2.0027454425734876E-8</v>
       </c>
       <c r="AH49" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>4.9096305221182947E-8</v>
       </c>
       <c r="AI49" s="7"/>
@@ -28392,119 +28357,119 @@
         <v>140000000</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" ref="F52:P52" si="85">E52</f>
+        <f t="shared" ref="F52:P52" si="86">E52</f>
         <v>140000000</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>140000000</v>
       </c>
       <c r="H52" s="7">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>140000000</v>
       </c>
       <c r="I52" s="7">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>140000000</v>
       </c>
       <c r="J52" s="7">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>140000000</v>
       </c>
       <c r="K52" s="7">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>140000000</v>
       </c>
       <c r="L52" s="7">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>140000000</v>
       </c>
       <c r="M52" s="7">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>140000000</v>
       </c>
       <c r="N52" s="7">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>140000000</v>
       </c>
       <c r="O52" s="7">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>140000000</v>
       </c>
       <c r="P52" s="7">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>140000000</v>
       </c>
       <c r="Q52" s="7">
-        <f t="shared" ref="Q52" si="86">P52</f>
+        <f t="shared" ref="Q52" si="87">P52</f>
         <v>140000000</v>
       </c>
       <c r="R52" s="7">
-        <f t="shared" ref="R52" si="87">Q52</f>
+        <f t="shared" ref="R52" si="88">Q52</f>
         <v>140000000</v>
       </c>
       <c r="S52" s="7">
-        <f t="shared" ref="S52" si="88">R52</f>
+        <f t="shared" ref="S52" si="89">R52</f>
         <v>140000000</v>
       </c>
       <c r="T52" s="7">
-        <f t="shared" ref="T52" si="89">S52</f>
+        <f t="shared" ref="T52" si="90">S52</f>
         <v>140000000</v>
       </c>
       <c r="U52" s="7">
-        <f t="shared" ref="U52" si="90">T52</f>
+        <f t="shared" ref="U52" si="91">T52</f>
         <v>140000000</v>
       </c>
       <c r="V52" s="7">
-        <f t="shared" ref="V52" si="91">U52</f>
+        <f t="shared" ref="V52" si="92">U52</f>
         <v>140000000</v>
       </c>
       <c r="W52" s="7">
-        <f t="shared" ref="W52" si="92">V52</f>
+        <f t="shared" ref="W52" si="93">V52</f>
         <v>140000000</v>
       </c>
       <c r="X52" s="7">
-        <f t="shared" ref="X52" si="93">W52</f>
+        <f t="shared" ref="X52" si="94">W52</f>
         <v>140000000</v>
       </c>
       <c r="Y52" s="7">
-        <f t="shared" ref="Y52" si="94">X52</f>
+        <f t="shared" ref="Y52" si="95">X52</f>
         <v>140000000</v>
       </c>
       <c r="Z52" s="7">
-        <f t="shared" ref="Z52" si="95">Y52</f>
+        <f t="shared" ref="Z52" si="96">Y52</f>
         <v>140000000</v>
       </c>
       <c r="AA52" s="7">
-        <f t="shared" ref="AA52" si="96">Z52</f>
+        <f t="shared" ref="AA52" si="97">Z52</f>
         <v>140000000</v>
       </c>
       <c r="AB52" s="7">
-        <f t="shared" ref="AB52" si="97">AA52</f>
+        <f t="shared" ref="AB52" si="98">AA52</f>
         <v>140000000</v>
       </c>
       <c r="AC52" s="7">
-        <f t="shared" ref="AC52" si="98">AB52</f>
+        <f t="shared" ref="AC52" si="99">AB52</f>
         <v>140000000</v>
       </c>
       <c r="AD52" s="7">
-        <f t="shared" ref="AD52" si="99">AC52</f>
+        <f t="shared" ref="AD52" si="100">AC52</f>
         <v>140000000</v>
       </c>
       <c r="AE52" s="7">
-        <f t="shared" ref="AE52" si="100">AD52</f>
+        <f t="shared" ref="AE52" si="101">AD52</f>
         <v>140000000</v>
       </c>
       <c r="AF52" s="7">
-        <f t="shared" ref="AF52" si="101">AE52</f>
+        <f t="shared" ref="AF52" si="102">AE52</f>
         <v>140000000</v>
       </c>
       <c r="AG52" s="7">
-        <f t="shared" ref="AG52" si="102">AF52</f>
+        <f t="shared" ref="AG52" si="103">AF52</f>
         <v>140000000</v>
       </c>
       <c r="AH52" s="7">
-        <f t="shared" ref="AH52" si="103">AG52</f>
+        <f t="shared" ref="AH52" si="104">AG52</f>
         <v>140000000</v>
       </c>
       <c r="AI52" s="7"/>
@@ -28522,127 +28487,127 @@
         <v>3.5031666E+16</v>
       </c>
       <c r="D53" s="7">
-        <f t="shared" ref="D53:AJ53" si="104">D47</f>
+        <f t="shared" ref="D53:AH53" si="105">D47</f>
         <v>3.7331188E+16</v>
       </c>
       <c r="E53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3.7590195E+16</v>
       </c>
       <c r="F53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3.7847775E+16</v>
       </c>
       <c r="G53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3.8332695E+16</v>
       </c>
       <c r="H53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3.9291294E+16</v>
       </c>
       <c r="I53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3.9964729E+16</v>
       </c>
       <c r="J53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.0147495E+16</v>
       </c>
       <c r="K53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.0689774E+16</v>
       </c>
       <c r="L53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.0984024E+16</v>
       </c>
       <c r="M53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.0933514E+16</v>
       </c>
       <c r="N53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.1105022E+16</v>
       </c>
       <c r="O53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.1415512E+16</v>
       </c>
       <c r="P53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.1783867E+16</v>
       </c>
       <c r="Q53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.2303432E+16</v>
       </c>
       <c r="R53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.2534462E+16</v>
       </c>
       <c r="S53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.2787468E+16</v>
       </c>
       <c r="T53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.3062252E+16</v>
       </c>
       <c r="U53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.3329517E+16</v>
       </c>
       <c r="V53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.3569817E+16</v>
       </c>
       <c r="W53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.3935242E+16</v>
       </c>
       <c r="X53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.4149738E+16</v>
       </c>
       <c r="Y53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.4370525E+16</v>
       </c>
       <c r="Z53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.4607227E+16</v>
       </c>
       <c r="AA53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.4817394E+16</v>
       </c>
       <c r="AB53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.4978981E+16</v>
       </c>
       <c r="AC53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.5196522E+16</v>
       </c>
       <c r="AD53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.5565365E+16</v>
       </c>
       <c r="AE53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.6018311E+16</v>
       </c>
       <c r="AF53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.6380791E+16</v>
       </c>
       <c r="AG53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.6616814E+16</v>
       </c>
       <c r="AH53" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>9259000000000</v>
       </c>
       <c r="AI53" s="7"/>
@@ -28660,127 +28625,127 @@
         <v>3.2213896E+16</v>
       </c>
       <c r="D54" s="7">
-        <f t="shared" ref="D54:AJ54" si="105">D48</f>
+        <f t="shared" ref="D54:AH54" si="106">D48</f>
         <v>3.4701938999999996E+16</v>
       </c>
       <c r="E54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.5879241E+16</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.7439538E+16</v>
       </c>
       <c r="G54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.7634147E+16</v>
       </c>
       <c r="H54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.7916707E+16</v>
       </c>
       <c r="I54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.8018198E+16</v>
       </c>
       <c r="J54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.833156E+16</v>
       </c>
       <c r="K54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.8462151E+16</v>
       </c>
       <c r="L54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.8277195E+16</v>
       </c>
       <c r="M54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.8306011E+16</v>
       </c>
       <c r="N54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.8490857E+16</v>
       </c>
       <c r="O54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.8620242E+16</v>
       </c>
       <c r="P54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.8779814E+16</v>
       </c>
       <c r="Q54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.8731072E+16</v>
       </c>
       <c r="R54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.855256E+16</v>
       </c>
       <c r="S54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.8409166E+16</v>
       </c>
       <c r="T54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.8114065E+16</v>
       </c>
       <c r="U54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.7643601E+16</v>
       </c>
       <c r="V54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.7279827999999992E+16</v>
       </c>
       <c r="W54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.7106429E+16</v>
       </c>
       <c r="X54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.7449258E+16</v>
       </c>
       <c r="Y54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.7653155E+16</v>
       </c>
       <c r="Z54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.7671838E+16</v>
       </c>
       <c r="AA54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.7575226E+16</v>
       </c>
       <c r="AB54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.72079E+16</v>
       </c>
       <c r="AC54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.6695729E+16</v>
       </c>
       <c r="AD54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.6088784E+16</v>
       </c>
       <c r="AE54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.5473215000000004E+16</v>
       </c>
       <c r="AF54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.4943151E+16</v>
       </c>
       <c r="AG54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.4272148E+16</v>
       </c>
       <c r="AH54" s="7">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>3.2987114000000004E+16</v>
       </c>
       <c r="AI54" s="7"/>
@@ -28792,131 +28757,131 @@
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="7">
-        <f t="shared" ref="C55:AJ55" si="106">C52*(C53/SUM(C53:C54))/C53</f>
+        <f t="shared" ref="C55:AH55" si="107">C52*(C53/SUM(C53:C54))/C53</f>
         <v>2.0819217779754745E-9</v>
       </c>
       <c r="D55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.9435502223858752E-9</v>
       </c>
       <c r="E55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.9055543042415622E-9</v>
       </c>
       <c r="F55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.8595430547508048E-9</v>
       </c>
       <c r="G55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.8429093050886598E-9</v>
       </c>
       <c r="H55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.813283574068962E-9</v>
       </c>
       <c r="I55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.7952647507062668E-9</v>
       </c>
       <c r="J55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.7839154663623308E-9</v>
       </c>
       <c r="K55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.7687504125768261E-9</v>
       </c>
       <c r="L55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.7663114668978281E-9</v>
       </c>
       <c r="M55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.766795043256506E-9</v>
       </c>
       <c r="N55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.7588850297136612E-9</v>
       </c>
       <c r="O55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.74921823064227E-9</v>
       </c>
       <c r="P55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.7377557512547125E-9</v>
       </c>
       <c r="Q55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.7276591216008431E-9</v>
       </c>
       <c r="R55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.7265401607670338E-9</v>
       </c>
       <c r="S55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.724209405035189E-9</v>
       </c>
       <c r="T55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.7246409442300763E-9</v>
       </c>
       <c r="U55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.7289688659389402E-9</v>
       </c>
       <c r="V55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.7316093348338138E-9</v>
       </c>
       <c r="W55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.7275063343646999E-9</v>
       </c>
       <c r="X55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.7157073844388968E-9</v>
       </c>
       <c r="Y55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.7068241756526897E-9</v>
       </c>
       <c r="Z55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.70152638462773E-9</v>
       </c>
       <c r="AA55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.699181310170741E-9</v>
       </c>
       <c r="AB55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.7034348827521511E-9</v>
       </c>
       <c r="AC55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.70956346040604E-9</v>
       </c>
       <c r="AD55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.714548516083365E-9</v>
       </c>
       <c r="AE55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.7179700377680988E-9</v>
       </c>
       <c r="AF55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.7215102534011446E-9</v>
       </c>
       <c r="AG55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.7307676664215321E-9</v>
       </c>
       <c r="AH55" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>4.2428905746701309E-9</v>
       </c>
       <c r="AI55" s="7"/>
@@ -28968,119 +28933,119 @@
         <v>1200000000</v>
       </c>
       <c r="F58" s="7">
-        <f t="shared" ref="F58:P58" si="107">E58</f>
+        <f t="shared" ref="F58:P58" si="108">E58</f>
         <v>1200000000</v>
       </c>
       <c r="G58" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>1200000000</v>
       </c>
       <c r="H58" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>1200000000</v>
       </c>
       <c r="I58" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>1200000000</v>
       </c>
       <c r="J58" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>1200000000</v>
       </c>
       <c r="K58" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>1200000000</v>
       </c>
       <c r="L58" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>1200000000</v>
       </c>
       <c r="M58" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>1200000000</v>
       </c>
       <c r="N58" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>1200000000</v>
       </c>
       <c r="O58" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>1200000000</v>
       </c>
       <c r="P58" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>1200000000</v>
       </c>
       <c r="Q58" s="7">
-        <f t="shared" ref="Q58" si="108">P58</f>
+        <f t="shared" ref="Q58" si="109">P58</f>
         <v>1200000000</v>
       </c>
       <c r="R58" s="7">
-        <f t="shared" ref="R58" si="109">Q58</f>
+        <f t="shared" ref="R58" si="110">Q58</f>
         <v>1200000000</v>
       </c>
       <c r="S58" s="7">
-        <f t="shared" ref="S58" si="110">R58</f>
+        <f t="shared" ref="S58" si="111">R58</f>
         <v>1200000000</v>
       </c>
       <c r="T58" s="7">
-        <f t="shared" ref="T58" si="111">S58</f>
+        <f t="shared" ref="T58" si="112">S58</f>
         <v>1200000000</v>
       </c>
       <c r="U58" s="7">
-        <f t="shared" ref="U58" si="112">T58</f>
+        <f t="shared" ref="U58" si="113">T58</f>
         <v>1200000000</v>
       </c>
       <c r="V58" s="7">
-        <f t="shared" ref="V58" si="113">U58</f>
+        <f t="shared" ref="V58" si="114">U58</f>
         <v>1200000000</v>
       </c>
       <c r="W58" s="7">
-        <f t="shared" ref="W58" si="114">V58</f>
+        <f t="shared" ref="W58" si="115">V58</f>
         <v>1200000000</v>
       </c>
       <c r="X58" s="7">
-        <f t="shared" ref="X58" si="115">W58</f>
+        <f t="shared" ref="X58" si="116">W58</f>
         <v>1200000000</v>
       </c>
       <c r="Y58" s="7">
-        <f t="shared" ref="Y58" si="116">X58</f>
+        <f t="shared" ref="Y58" si="117">X58</f>
         <v>1200000000</v>
       </c>
       <c r="Z58" s="7">
-        <f t="shared" ref="Z58" si="117">Y58</f>
+        <f t="shared" ref="Z58" si="118">Y58</f>
         <v>1200000000</v>
       </c>
       <c r="AA58" s="7">
-        <f t="shared" ref="AA58" si="118">Z58</f>
+        <f t="shared" ref="AA58" si="119">Z58</f>
         <v>1200000000</v>
       </c>
       <c r="AB58" s="7">
-        <f t="shared" ref="AB58" si="119">AA58</f>
+        <f t="shared" ref="AB58" si="120">AA58</f>
         <v>1200000000</v>
       </c>
       <c r="AC58" s="7">
-        <f t="shared" ref="AC58" si="120">AB58</f>
+        <f t="shared" ref="AC58" si="121">AB58</f>
         <v>1200000000</v>
       </c>
       <c r="AD58" s="7">
-        <f t="shared" ref="AD58" si="121">AC58</f>
+        <f t="shared" ref="AD58" si="122">AC58</f>
         <v>1200000000</v>
       </c>
       <c r="AE58" s="7">
-        <f t="shared" ref="AE58" si="122">AD58</f>
+        <f t="shared" ref="AE58" si="123">AD58</f>
         <v>1200000000</v>
       </c>
       <c r="AF58" s="7">
-        <f t="shared" ref="AF58" si="123">AE58</f>
+        <f t="shared" ref="AF58" si="124">AE58</f>
         <v>1200000000</v>
       </c>
       <c r="AG58" s="7">
-        <f t="shared" ref="AG58" si="124">AF58</f>
+        <f t="shared" ref="AG58" si="125">AF58</f>
         <v>1200000000</v>
       </c>
       <c r="AH58" s="7">
-        <f t="shared" ref="AH58" si="125">AG58</f>
+        <f t="shared" ref="AH58" si="126">AG58</f>
         <v>1200000000</v>
       </c>
       <c r="AI58" s="7"/>
@@ -29098,127 +29063,127 @@
         <v>3.5031666E+16</v>
       </c>
       <c r="D59" s="7">
-        <f t="shared" ref="D59:AJ59" si="126">D47</f>
+        <f t="shared" ref="D59:AH59" si="127">D47</f>
         <v>3.7331188E+16</v>
       </c>
       <c r="E59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>3.7590195E+16</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>3.7847775E+16</v>
       </c>
       <c r="G59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>3.8332695E+16</v>
       </c>
       <c r="H59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>3.9291294E+16</v>
       </c>
       <c r="I59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>3.9964729E+16</v>
       </c>
       <c r="J59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.0147495E+16</v>
       </c>
       <c r="K59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.0689774E+16</v>
       </c>
       <c r="L59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.0984024E+16</v>
       </c>
       <c r="M59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.0933514E+16</v>
       </c>
       <c r="N59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.1105022E+16</v>
       </c>
       <c r="O59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.1415512E+16</v>
       </c>
       <c r="P59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.1783867E+16</v>
       </c>
       <c r="Q59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.2303432E+16</v>
       </c>
       <c r="R59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.2534462E+16</v>
       </c>
       <c r="S59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.2787468E+16</v>
       </c>
       <c r="T59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.3062252E+16</v>
       </c>
       <c r="U59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.3329517E+16</v>
       </c>
       <c r="V59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.3569817E+16</v>
       </c>
       <c r="W59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.3935242E+16</v>
       </c>
       <c r="X59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.4149738E+16</v>
       </c>
       <c r="Y59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.4370525E+16</v>
       </c>
       <c r="Z59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.4607227E+16</v>
       </c>
       <c r="AA59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.4817394E+16</v>
       </c>
       <c r="AB59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.4978981E+16</v>
       </c>
       <c r="AC59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.5196522E+16</v>
       </c>
       <c r="AD59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.5565365E+16</v>
       </c>
       <c r="AE59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.6018311E+16</v>
       </c>
       <c r="AF59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.6380791E+16</v>
       </c>
       <c r="AG59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.6616814E+16</v>
       </c>
       <c r="AH59" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>9259000000000</v>
       </c>
       <c r="AI59" s="7"/>
@@ -29236,127 +29201,127 @@
         <v>3.2213896E+16</v>
       </c>
       <c r="D60" s="7">
-        <f t="shared" ref="D60:AJ60" si="127">D48</f>
+        <f t="shared" ref="D60:AH60" si="128">D48</f>
         <v>3.4701938999999996E+16</v>
       </c>
       <c r="E60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.5879241E+16</v>
       </c>
       <c r="F60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.7439538E+16</v>
       </c>
       <c r="G60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.7634147E+16</v>
       </c>
       <c r="H60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.7916707E+16</v>
       </c>
       <c r="I60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.8018198E+16</v>
       </c>
       <c r="J60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.833156E+16</v>
       </c>
       <c r="K60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.8462151E+16</v>
       </c>
       <c r="L60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.8277195E+16</v>
       </c>
       <c r="M60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.8306011E+16</v>
       </c>
       <c r="N60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.8490857E+16</v>
       </c>
       <c r="O60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.8620242E+16</v>
       </c>
       <c r="P60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.8779814E+16</v>
       </c>
       <c r="Q60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.8731072E+16</v>
       </c>
       <c r="R60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.855256E+16</v>
       </c>
       <c r="S60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.8409166E+16</v>
       </c>
       <c r="T60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.8114065E+16</v>
       </c>
       <c r="U60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.7643601E+16</v>
       </c>
       <c r="V60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.7279827999999992E+16</v>
       </c>
       <c r="W60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.7106429E+16</v>
       </c>
       <c r="X60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.7449258E+16</v>
       </c>
       <c r="Y60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.7653155E+16</v>
       </c>
       <c r="Z60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.7671838E+16</v>
       </c>
       <c r="AA60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.7575226E+16</v>
       </c>
       <c r="AB60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.72079E+16</v>
       </c>
       <c r="AC60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.6695729E+16</v>
       </c>
       <c r="AD60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.6088784E+16</v>
       </c>
       <c r="AE60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.5473215000000004E+16</v>
       </c>
       <c r="AF60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.4943151E+16</v>
       </c>
       <c r="AG60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.4272148E+16</v>
       </c>
       <c r="AH60" s="7">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>3.2987114000000004E+16</v>
       </c>
       <c r="AI60" s="7"/>
@@ -29368,131 +29333,131 @@
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="7">
-        <f t="shared" ref="C61:AJ61" si="128">C58*(C59/SUM(C59:C60))/C59</f>
+        <f t="shared" ref="C61:AH61" si="129">C58*(C59/SUM(C59:C60))/C59</f>
         <v>1.7845043811218352E-8</v>
       </c>
       <c r="D61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.6659001906164646E-8</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.633332260778482E-8</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.5938940469292614E-8</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.5796365472188511E-8</v>
       </c>
       <c r="H61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.5542430634876816E-8</v>
       </c>
       <c r="I61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.5387983577482287E-8</v>
       </c>
       <c r="J61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.5290703997391406E-8</v>
       </c>
       <c r="K61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.5160717822087081E-8</v>
       </c>
       <c r="L61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.5139812573409957E-8</v>
       </c>
       <c r="M61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.5143957513627196E-8</v>
       </c>
       <c r="N61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.5076157397545668E-8</v>
       </c>
       <c r="O61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.4993299119790887E-8</v>
       </c>
       <c r="P61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.4895049296468962E-8</v>
       </c>
       <c r="Q61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.4808506756578655E-8</v>
       </c>
       <c r="R61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.4798915663717432E-8</v>
       </c>
       <c r="S61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.4778937757444477E-8</v>
       </c>
       <c r="T61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.4782636664829227E-8</v>
       </c>
       <c r="U61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.4819733136619488E-8</v>
       </c>
       <c r="V61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.4842365727146975E-8</v>
       </c>
       <c r="W61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.4807197151697427E-8</v>
       </c>
       <c r="X61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.4706063295190545E-8</v>
       </c>
       <c r="Y61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.4629921505594481E-8</v>
       </c>
       <c r="Z61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.4584511868237685E-8</v>
       </c>
       <c r="AA61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.4564411230034924E-8</v>
       </c>
       <c r="AB61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.4600870423589869E-8</v>
       </c>
       <c r="AC61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.465340108919463E-8</v>
       </c>
       <c r="AD61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.4696130137857414E-8</v>
       </c>
       <c r="AE61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.4725457466583703E-8</v>
       </c>
       <c r="AF61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.4755802172009814E-8</v>
       </c>
       <c r="AG61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>1.4835151426470275E-8</v>
       </c>
       <c r="AH61" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>3.636763349717255E-8</v>
       </c>
       <c r="AI61" s="7"/>
@@ -29662,119 +29627,119 @@
         <v>1300000000</v>
       </c>
       <c r="F65" s="8">
-        <f t="shared" ref="F65:P65" si="129">E65</f>
+        <f t="shared" ref="F65:P65" si="130">E65</f>
         <v>1300000000</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>1300000000</v>
       </c>
       <c r="H65" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>1300000000</v>
       </c>
       <c r="I65" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>1300000000</v>
       </c>
       <c r="J65" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>1300000000</v>
       </c>
       <c r="K65" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>1300000000</v>
       </c>
       <c r="L65" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>1300000000</v>
       </c>
       <c r="M65" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>1300000000</v>
       </c>
       <c r="N65" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>1300000000</v>
       </c>
       <c r="O65" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>1300000000</v>
       </c>
       <c r="P65" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>1300000000</v>
       </c>
       <c r="Q65" s="8">
-        <f t="shared" ref="Q65" si="130">P65</f>
+        <f t="shared" ref="Q65" si="131">P65</f>
         <v>1300000000</v>
       </c>
       <c r="R65" s="8">
-        <f t="shared" ref="R65" si="131">Q65</f>
+        <f t="shared" ref="R65" si="132">Q65</f>
         <v>1300000000</v>
       </c>
       <c r="S65" s="8">
-        <f t="shared" ref="S65" si="132">R65</f>
+        <f t="shared" ref="S65" si="133">R65</f>
         <v>1300000000</v>
       </c>
       <c r="T65" s="8">
-        <f t="shared" ref="T65" si="133">S65</f>
+        <f t="shared" ref="T65" si="134">S65</f>
         <v>1300000000</v>
       </c>
       <c r="U65" s="8">
-        <f t="shared" ref="U65" si="134">T65</f>
+        <f t="shared" ref="U65" si="135">T65</f>
         <v>1300000000</v>
       </c>
       <c r="V65" s="8">
-        <f t="shared" ref="V65" si="135">U65</f>
+        <f t="shared" ref="V65" si="136">U65</f>
         <v>1300000000</v>
       </c>
       <c r="W65" s="8">
-        <f t="shared" ref="W65" si="136">V65</f>
+        <f t="shared" ref="W65" si="137">V65</f>
         <v>1300000000</v>
       </c>
       <c r="X65" s="8">
-        <f t="shared" ref="X65" si="137">W65</f>
+        <f t="shared" ref="X65" si="138">W65</f>
         <v>1300000000</v>
       </c>
       <c r="Y65" s="8">
-        <f t="shared" ref="Y65" si="138">X65</f>
+        <f t="shared" ref="Y65" si="139">X65</f>
         <v>1300000000</v>
       </c>
       <c r="Z65" s="8">
-        <f t="shared" ref="Z65" si="139">Y65</f>
+        <f t="shared" ref="Z65" si="140">Y65</f>
         <v>1300000000</v>
       </c>
       <c r="AA65" s="8">
-        <f t="shared" ref="AA65" si="140">Z65</f>
+        <f t="shared" ref="AA65" si="141">Z65</f>
         <v>1300000000</v>
       </c>
       <c r="AB65" s="8">
-        <f t="shared" ref="AB65" si="141">AA65</f>
+        <f t="shared" ref="AB65" si="142">AA65</f>
         <v>1300000000</v>
       </c>
       <c r="AC65" s="8">
-        <f t="shared" ref="AC65" si="142">AB65</f>
+        <f t="shared" ref="AC65" si="143">AB65</f>
         <v>1300000000</v>
       </c>
       <c r="AD65" s="8">
-        <f t="shared" ref="AD65" si="143">AC65</f>
+        <f t="shared" ref="AD65" si="144">AC65</f>
         <v>1300000000</v>
       </c>
       <c r="AE65" s="8">
-        <f t="shared" ref="AE65" si="144">AD65</f>
+        <f t="shared" ref="AE65" si="145">AD65</f>
         <v>1300000000</v>
       </c>
       <c r="AF65" s="8">
-        <f t="shared" ref="AF65" si="145">AE65</f>
+        <f t="shared" ref="AF65" si="146">AE65</f>
         <v>1300000000</v>
       </c>
       <c r="AG65" s="8">
-        <f t="shared" ref="AG65" si="146">AF65</f>
+        <f t="shared" ref="AG65" si="147">AF65</f>
         <v>1300000000</v>
       </c>
       <c r="AH65" s="8">
-        <f t="shared" ref="AH65" si="147">AG65</f>
+        <f t="shared" ref="AH65" si="148">AG65</f>
         <v>1300000000</v>
       </c>
       <c r="AI65" s="8"/>
@@ -29926,131 +29891,131 @@
         <v>337</v>
       </c>
       <c r="C67" s="8">
-        <f t="shared" ref="C67:AJ67" si="148">5.751*10^6</f>
+        <f t="shared" ref="C67:AH67" si="149">5.751*10^6</f>
         <v>5751000</v>
       </c>
       <c r="D67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="E67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="F67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="H67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="I67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="J67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="K67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="L67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="M67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="N67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="O67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="P67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="Q67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="R67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="S67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="T67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="U67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="V67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="W67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="X67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="Y67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="Z67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="AA67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="AB67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="AC67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="AD67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="AE67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="AF67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="AG67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="AH67" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>5751000</v>
       </c>
       <c r="AI67" s="8"/>
@@ -30199,131 +30164,131 @@
         <v>343</v>
       </c>
       <c r="C69" s="8">
-        <f t="shared" ref="C69:AJ69" si="149">C65/(C66*C67*10^6*365)*C68</f>
+        <f t="shared" ref="C69:AH69" si="150">C65/(C66*C67*10^6*365)*C68</f>
         <v>2.8391402856541175E-8</v>
       </c>
       <c r="D69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7459498580642747E-8</v>
       </c>
       <c r="E69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.8047014731914613E-8</v>
       </c>
       <c r="F69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7567673434565973E-8</v>
       </c>
       <c r="G69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.731732231211553E-8</v>
       </c>
       <c r="H69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.6326755976936322E-8</v>
       </c>
       <c r="I69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7209118092973433E-8</v>
       </c>
       <c r="J69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.6402636828045388E-8</v>
       </c>
       <c r="K69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7017537539489206E-8</v>
       </c>
       <c r="L69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.6890366168212153E-8</v>
       </c>
       <c r="M69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7093172180467283E-8</v>
       </c>
       <c r="N69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7532217181327385E-8</v>
       </c>
       <c r="O69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7788155340933465E-8</v>
       </c>
       <c r="P69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7667496458183555E-8</v>
       </c>
       <c r="Q69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7983112437473829E-8</v>
       </c>
       <c r="R69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.748348709303913E-8</v>
       </c>
       <c r="S69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7531524867602357E-8</v>
       </c>
       <c r="T69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7915945363520629E-8</v>
       </c>
       <c r="U69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7262034624457902E-8</v>
       </c>
       <c r="V69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7686595856230615E-8</v>
       </c>
       <c r="W69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7855822585529442E-8</v>
       </c>
       <c r="X69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7690765947252437E-8</v>
       </c>
       <c r="Y69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7084030271431836E-8</v>
       </c>
       <c r="Z69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7361195385922159E-8</v>
       </c>
       <c r="AA69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7277683476766576E-8</v>
       </c>
       <c r="AB69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7230516353386009E-8</v>
       </c>
       <c r="AC69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7187107908258505E-8</v>
       </c>
       <c r="AD69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.8403521391368185E-8</v>
       </c>
       <c r="AE69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.757794174059768E-8</v>
       </c>
       <c r="AF69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7218860501858672E-8</v>
       </c>
       <c r="AG69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.7561777885506369E-8</v>
       </c>
       <c r="AH69" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>2.9828201486621416E-8</v>
       </c>
       <c r="AI69" s="8"/>
@@ -30396,119 +30361,119 @@
         <v>1620000000.0000002</v>
       </c>
       <c r="F72" s="8">
-        <f t="shared" ref="F72:P72" si="150">E72</f>
+        <f t="shared" ref="F72:P72" si="151">E72</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="G72" s="8">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>1620000000.0000002</v>
       </c>
       <c r="H72" s="8">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>1620000000.0000002</v>
       </c>
       <c r="I72" s="8">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>1620000000.0000002</v>
       </c>
       <c r="J72" s="8">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>1620000000.0000002</v>
       </c>
       <c r="K72" s="8">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>1620000000.0000002</v>
       </c>
       <c r="L72" s="8">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>1620000000.0000002</v>
       </c>
       <c r="M72" s="8">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>1620000000.0000002</v>
       </c>
       <c r="N72" s="8">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>1620000000.0000002</v>
       </c>
       <c r="O72" s="8">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>1620000000.0000002</v>
       </c>
       <c r="P72" s="8">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>1620000000.0000002</v>
       </c>
       <c r="Q72" s="8">
-        <f t="shared" ref="Q72" si="151">P72</f>
+        <f t="shared" ref="Q72" si="152">P72</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="R72" s="8">
-        <f t="shared" ref="R72" si="152">Q72</f>
+        <f t="shared" ref="R72" si="153">Q72</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="S72" s="8">
-        <f t="shared" ref="S72" si="153">R72</f>
+        <f t="shared" ref="S72" si="154">R72</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="T72" s="8">
-        <f t="shared" ref="T72" si="154">S72</f>
+        <f t="shared" ref="T72" si="155">S72</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="U72" s="8">
-        <f t="shared" ref="U72" si="155">T72</f>
+        <f t="shared" ref="U72" si="156">T72</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="V72" s="8">
-        <f t="shared" ref="V72" si="156">U72</f>
+        <f t="shared" ref="V72" si="157">U72</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="W72" s="8">
-        <f t="shared" ref="W72" si="157">V72</f>
+        <f t="shared" ref="W72" si="158">V72</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="X72" s="8">
-        <f t="shared" ref="X72" si="158">W72</f>
+        <f t="shared" ref="X72" si="159">W72</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="Y72" s="8">
-        <f t="shared" ref="Y72" si="159">X72</f>
+        <f t="shared" ref="Y72" si="160">X72</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="Z72" s="8">
-        <f t="shared" ref="Z72" si="160">Y72</f>
+        <f t="shared" ref="Z72" si="161">Y72</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="AA72" s="8">
-        <f t="shared" ref="AA72" si="161">Z72</f>
+        <f t="shared" ref="AA72" si="162">Z72</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="AB72" s="8">
-        <f t="shared" ref="AB72" si="162">AA72</f>
+        <f t="shared" ref="AB72" si="163">AA72</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="AC72" s="8">
-        <f t="shared" ref="AC72" si="163">AB72</f>
+        <f t="shared" ref="AC72" si="164">AB72</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="AD72" s="8">
-        <f t="shared" ref="AD72" si="164">AC72</f>
+        <f t="shared" ref="AD72" si="165">AC72</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="AE72" s="8">
-        <f t="shared" ref="AE72" si="165">AD72</f>
+        <f t="shared" ref="AE72" si="166">AD72</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="AF72" s="8">
-        <f t="shared" ref="AF72" si="166">AE72</f>
+        <f t="shared" ref="AF72" si="167">AE72</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="AG72" s="8">
-        <f t="shared" ref="AG72" si="167">AF72</f>
+        <f t="shared" ref="AG72" si="168">AF72</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="AH72" s="8">
-        <f t="shared" ref="AH72" si="168">AG72</f>
+        <f t="shared" ref="AH72" si="169">AG72</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="AI72" s="8"/>
@@ -30664,127 +30629,127 @@
         <v>12.261958999999999</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" ref="D74:AJ76" si="169">D66</f>
+        <f t="shared" ref="D74:AH76" si="170">D66</f>
         <v>13.172337000000001</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>13.680125</v>
       </c>
       <c r="F74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>14.066001</v>
       </c>
       <c r="G74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>14.14066</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>14.241999</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>14.240686</v>
       </c>
       <c r="J74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>14.309774000000001</v>
       </c>
       <c r="K74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>14.302415999999999</v>
       </c>
       <c r="L74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>14.180683</v>
       </c>
       <c r="M74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>14.190842</v>
       </c>
       <c r="N74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>14.294427000000001</v>
       </c>
       <c r="O74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>14.363591</v>
       </c>
       <c r="P74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>14.458278</v>
       </c>
       <c r="Q74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>14.448694</v>
       </c>
       <c r="R74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>14.351179999999999</v>
       </c>
       <c r="S74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>14.269263</v>
       </c>
       <c r="T74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>14.149504</v>
       </c>
       <c r="U74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>13.968852999999999</v>
       </c>
       <c r="V74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>13.821403999999999</v>
       </c>
       <c r="W74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>13.750157</v>
       </c>
       <c r="X74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>13.901033</v>
       </c>
       <c r="Y74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>13.992407999999999</v>
       </c>
       <c r="Z74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>14.00568</v>
       </c>
       <c r="AA74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>13.959783</v>
       </c>
       <c r="AB74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>13.803350999999999</v>
       </c>
       <c r="AC74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>13.581116</v>
       </c>
       <c r="AD74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>13.321483000000001</v>
       </c>
       <c r="AE74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>13.036129000000001</v>
       </c>
       <c r="AF74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>12.781387</v>
       </c>
       <c r="AG74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>12.489962999999999</v>
       </c>
       <c r="AH74" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>11.961895</v>
       </c>
       <c r="AI74" s="4"/>
@@ -30798,131 +30763,131 @@
         <v>337</v>
       </c>
       <c r="C75" s="8">
-        <f t="shared" ref="C75:R76" si="170">C67</f>
+        <f t="shared" ref="C75:R76" si="171">C67</f>
         <v>5751000</v>
       </c>
       <c r="D75" s="8">
+        <f t="shared" si="171"/>
+        <v>5751000</v>
+      </c>
+      <c r="E75" s="8">
+        <f t="shared" si="171"/>
+        <v>5751000</v>
+      </c>
+      <c r="F75" s="8">
+        <f t="shared" si="171"/>
+        <v>5751000</v>
+      </c>
+      <c r="G75" s="8">
+        <f t="shared" si="171"/>
+        <v>5751000</v>
+      </c>
+      <c r="H75" s="8">
+        <f t="shared" si="171"/>
+        <v>5751000</v>
+      </c>
+      <c r="I75" s="8">
+        <f t="shared" si="171"/>
+        <v>5751000</v>
+      </c>
+      <c r="J75" s="8">
+        <f t="shared" si="171"/>
+        <v>5751000</v>
+      </c>
+      <c r="K75" s="8">
+        <f t="shared" si="171"/>
+        <v>5751000</v>
+      </c>
+      <c r="L75" s="8">
+        <f t="shared" si="171"/>
+        <v>5751000</v>
+      </c>
+      <c r="M75" s="8">
+        <f t="shared" si="171"/>
+        <v>5751000</v>
+      </c>
+      <c r="N75" s="8">
+        <f t="shared" si="171"/>
+        <v>5751000</v>
+      </c>
+      <c r="O75" s="8">
+        <f t="shared" si="171"/>
+        <v>5751000</v>
+      </c>
+      <c r="P75" s="8">
+        <f t="shared" si="171"/>
+        <v>5751000</v>
+      </c>
+      <c r="Q75" s="8">
+        <f t="shared" si="171"/>
+        <v>5751000</v>
+      </c>
+      <c r="R75" s="8">
+        <f t="shared" si="171"/>
+        <v>5751000</v>
+      </c>
+      <c r="S75" s="8">
         <f t="shared" si="170"/>
         <v>5751000</v>
       </c>
-      <c r="E75" s="8">
+      <c r="T75" s="8">
         <f t="shared" si="170"/>
         <v>5751000</v>
       </c>
-      <c r="F75" s="8">
+      <c r="U75" s="8">
         <f t="shared" si="170"/>
         <v>5751000</v>
       </c>
-      <c r="G75" s="8">
+      <c r="V75" s="8">
         <f t="shared" si="170"/>
         <v>5751000</v>
       </c>
-      <c r="H75" s="8">
+      <c r="W75" s="8">
         <f t="shared" si="170"/>
         <v>5751000</v>
       </c>
-      <c r="I75" s="8">
+      <c r="X75" s="8">
         <f t="shared" si="170"/>
         <v>5751000</v>
       </c>
-      <c r="J75" s="8">
+      <c r="Y75" s="8">
         <f t="shared" si="170"/>
         <v>5751000</v>
       </c>
-      <c r="K75" s="8">
+      <c r="Z75" s="8">
         <f t="shared" si="170"/>
         <v>5751000</v>
       </c>
-      <c r="L75" s="8">
+      <c r="AA75" s="8">
         <f t="shared" si="170"/>
         <v>5751000</v>
       </c>
-      <c r="M75" s="8">
+      <c r="AB75" s="8">
         <f t="shared" si="170"/>
         <v>5751000</v>
       </c>
-      <c r="N75" s="8">
+      <c r="AC75" s="8">
         <f t="shared" si="170"/>
         <v>5751000</v>
       </c>
-      <c r="O75" s="8">
+      <c r="AD75" s="8">
         <f t="shared" si="170"/>
         <v>5751000</v>
       </c>
-      <c r="P75" s="8">
+      <c r="AE75" s="8">
         <f t="shared" si="170"/>
         <v>5751000</v>
       </c>
-      <c r="Q75" s="8">
+      <c r="AF75" s="8">
         <f t="shared" si="170"/>
         <v>5751000</v>
       </c>
-      <c r="R75" s="8">
+      <c r="AG75" s="8">
         <f t="shared" si="170"/>
         <v>5751000</v>
       </c>
-      <c r="S75" s="8">
-        <f t="shared" si="169"/>
-        <v>5751000</v>
-      </c>
-      <c r="T75" s="8">
-        <f t="shared" si="169"/>
-        <v>5751000</v>
-      </c>
-      <c r="U75" s="8">
-        <f t="shared" si="169"/>
-        <v>5751000</v>
-      </c>
-      <c r="V75" s="8">
-        <f t="shared" si="169"/>
-        <v>5751000</v>
-      </c>
-      <c r="W75" s="8">
-        <f t="shared" si="169"/>
-        <v>5751000</v>
-      </c>
-      <c r="X75" s="8">
-        <f t="shared" si="169"/>
-        <v>5751000</v>
-      </c>
-      <c r="Y75" s="8">
-        <f t="shared" si="169"/>
-        <v>5751000</v>
-      </c>
-      <c r="Z75" s="8">
-        <f t="shared" si="169"/>
-        <v>5751000</v>
-      </c>
-      <c r="AA75" s="8">
-        <f t="shared" si="169"/>
-        <v>5751000</v>
-      </c>
-      <c r="AB75" s="8">
-        <f t="shared" si="169"/>
-        <v>5751000</v>
-      </c>
-      <c r="AC75" s="8">
-        <f t="shared" si="169"/>
-        <v>5751000</v>
-      </c>
-      <c r="AD75" s="8">
-        <f t="shared" si="169"/>
-        <v>5751000</v>
-      </c>
-      <c r="AE75" s="8">
-        <f t="shared" si="169"/>
-        <v>5751000</v>
-      </c>
-      <c r="AF75" s="8">
-        <f t="shared" si="169"/>
-        <v>5751000</v>
-      </c>
-      <c r="AG75" s="8">
-        <f t="shared" si="169"/>
-        <v>5751000</v>
-      </c>
       <c r="AH75" s="8">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>5751000</v>
       </c>
       <c r="AI75" s="8"/>
@@ -30936,131 +30901,131 @@
         <v>338</v>
       </c>
       <c r="C76" s="15">
+        <f t="shared" si="171"/>
+        <v>0.56213366042614288</v>
+      </c>
+      <c r="D76" s="15">
         <f t="shared" si="170"/>
-        <v>0.56213366042614288</v>
-      </c>
-      <c r="D76" s="15">
-        <f t="shared" si="169"/>
         <v>0.58404769663101408</v>
       </c>
       <c r="E76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.61954033758396365</v>
       </c>
       <c r="F76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.62612874052332901</v>
       </c>
       <c r="G76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.62373582180688736</v>
       </c>
       <c r="H76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.60542615456818205</v>
       </c>
       <c r="I76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.62565980630693829</v>
       </c>
       <c r="J76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.61006057051940887</v>
       </c>
       <c r="K76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.62394750021167089</v>
       </c>
       <c r="L76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.61572493929465044</v>
       </c>
       <c r="M76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.62081314126427445</v>
       </c>
       <c r="N76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.63547843536551607</v>
       </c>
       <c r="O76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.6444891760436422</v>
       </c>
       <c r="P76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.64592086514924563</v>
       </c>
       <c r="Q76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.65285613672038845</v>
       </c>
       <c r="R76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.63687225039502715</v>
       </c>
       <c r="S76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.63434378374824996</v>
       </c>
       <c r="T76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.63780282082885176</v>
       </c>
       <c r="U76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.6149104758357683</v>
       </c>
       <c r="V76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.61789488865315834</v>
       </c>
       <c r="W76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.61846698985411863</v>
       </c>
       <c r="X76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.62154835715887014</v>
       </c>
       <c r="Y76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.61192561131464784</v>
       </c>
       <c r="Z76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.61877412764198936</v>
       </c>
       <c r="AA76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.61486395287291473</v>
       </c>
       <c r="AB76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.60692256979673898</v>
       </c>
       <c r="AC76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.59619914566401311</v>
       </c>
       <c r="AD76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.61096684136677748</v>
       </c>
       <c r="AE76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.58050154367456797</v>
       </c>
       <c r="AF76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.56174705510378276</v>
       </c>
       <c r="AG76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.55585467174245473</v>
       </c>
       <c r="AH76" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.57612926173862544</v>
       </c>
       <c r="AI76" s="15"/>
@@ -31072,131 +31037,131 @@
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="8">
-        <f t="shared" ref="C77:AJ77" si="171">(C72*C73)/(C74*10^6*C75*365)*C76</f>
+        <f t="shared" ref="C77:AH77" si="172">(C72*C73)/(C74*10^6*C75*365)*C76</f>
         <v>1.3475294898941501E-8</v>
       </c>
       <c r="D77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.328879744780193E-8</v>
       </c>
       <c r="E77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.3603510515744058E-8</v>
       </c>
       <c r="F77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.3408597460411743E-8</v>
       </c>
       <c r="G77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.3275825118900266E-8</v>
       </c>
       <c r="H77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.2755336895453217E-8</v>
       </c>
       <c r="I77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.3000402446411994E-8</v>
       </c>
       <c r="J77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.2518797645865321E-8</v>
       </c>
       <c r="K77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.2752522045438528E-8</v>
       </c>
       <c r="L77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.2525367450660413E-8</v>
       </c>
       <c r="M77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.2575154886292484E-8</v>
       </c>
       <c r="N77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.2850082974707195E-8</v>
       </c>
       <c r="O77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.2982973581229513E-8</v>
       </c>
       <c r="P77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.293746300435574E-8</v>
       </c>
       <c r="Q77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.3022767235339251E-8</v>
       </c>
       <c r="R77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.2647134350814155E-8</v>
       </c>
       <c r="S77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.2579636353374946E-8</v>
       </c>
       <c r="T77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.2645284949969666E-8</v>
       </c>
       <c r="U77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.2212233351103202E-8</v>
       </c>
       <c r="V77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.2281267812403744E-8</v>
       </c>
       <c r="W77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.2276799789666595E-8</v>
       </c>
       <c r="X77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.2233911361488729E-8</v>
       </c>
       <c r="Y77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.1982226700597959E-8</v>
       </c>
       <c r="Z77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.207631348565903E-8</v>
       </c>
       <c r="AA77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.1976317533250309E-8</v>
       </c>
       <c r="AB77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.1841520520799166E-8</v>
       </c>
       <c r="AC77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.1677514558922101E-8</v>
       </c>
       <c r="AD77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.2027325884974744E-8</v>
       </c>
       <c r="AE77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.1462661133581428E-8</v>
       </c>
       <c r="AF77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.1099739637723749E-8</v>
       </c>
       <c r="AG77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.1021606819288282E-8</v>
       </c>
       <c r="AH77" s="8">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1.1578435698151272E-8</v>
       </c>
       <c r="AI77" s="8"/>
@@ -31269,119 +31234,119 @@
         <v>140000000</v>
       </c>
       <c r="F80" s="8">
-        <f t="shared" ref="F80:P80" si="172">E80</f>
+        <f t="shared" ref="F80:P80" si="173">E80</f>
         <v>140000000</v>
       </c>
       <c r="G80" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>140000000</v>
       </c>
       <c r="H80" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>140000000</v>
       </c>
       <c r="I80" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>140000000</v>
       </c>
       <c r="J80" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>140000000</v>
       </c>
       <c r="K80" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>140000000</v>
       </c>
       <c r="L80" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>140000000</v>
       </c>
       <c r="M80" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>140000000</v>
       </c>
       <c r="N80" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>140000000</v>
       </c>
       <c r="O80" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>140000000</v>
       </c>
       <c r="P80" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>140000000</v>
       </c>
       <c r="Q80" s="8">
-        <f t="shared" ref="Q80" si="173">P80</f>
+        <f t="shared" ref="Q80" si="174">P80</f>
         <v>140000000</v>
       </c>
       <c r="R80" s="8">
-        <f t="shared" ref="R80" si="174">Q80</f>
+        <f t="shared" ref="R80" si="175">Q80</f>
         <v>140000000</v>
       </c>
       <c r="S80" s="8">
-        <f t="shared" ref="S80" si="175">R80</f>
+        <f t="shared" ref="S80" si="176">R80</f>
         <v>140000000</v>
       </c>
       <c r="T80" s="8">
-        <f t="shared" ref="T80" si="176">S80</f>
+        <f t="shared" ref="T80" si="177">S80</f>
         <v>140000000</v>
       </c>
       <c r="U80" s="8">
-        <f t="shared" ref="U80" si="177">T80</f>
+        <f t="shared" ref="U80" si="178">T80</f>
         <v>140000000</v>
       </c>
       <c r="V80" s="8">
-        <f t="shared" ref="V80" si="178">U80</f>
+        <f t="shared" ref="V80" si="179">U80</f>
         <v>140000000</v>
       </c>
       <c r="W80" s="8">
-        <f t="shared" ref="W80" si="179">V80</f>
+        <f t="shared" ref="W80" si="180">V80</f>
         <v>140000000</v>
       </c>
       <c r="X80" s="8">
-        <f t="shared" ref="X80" si="180">W80</f>
+        <f t="shared" ref="X80" si="181">W80</f>
         <v>140000000</v>
       </c>
       <c r="Y80" s="8">
-        <f t="shared" ref="Y80" si="181">X80</f>
+        <f t="shared" ref="Y80" si="182">X80</f>
         <v>140000000</v>
       </c>
       <c r="Z80" s="8">
-        <f t="shared" ref="Z80" si="182">Y80</f>
+        <f t="shared" ref="Z80" si="183">Y80</f>
         <v>140000000</v>
       </c>
       <c r="AA80" s="8">
-        <f t="shared" ref="AA80" si="183">Z80</f>
+        <f t="shared" ref="AA80" si="184">Z80</f>
         <v>140000000</v>
       </c>
       <c r="AB80" s="8">
-        <f t="shared" ref="AB80" si="184">AA80</f>
+        <f t="shared" ref="AB80" si="185">AA80</f>
         <v>140000000</v>
       </c>
       <c r="AC80" s="8">
-        <f t="shared" ref="AC80" si="185">AB80</f>
+        <f t="shared" ref="AC80" si="186">AB80</f>
         <v>140000000</v>
       </c>
       <c r="AD80" s="8">
-        <f t="shared" ref="AD80" si="186">AC80</f>
+        <f t="shared" ref="AD80" si="187">AC80</f>
         <v>140000000</v>
       </c>
       <c r="AE80" s="8">
-        <f t="shared" ref="AE80" si="187">AD80</f>
+        <f t="shared" ref="AE80" si="188">AD80</f>
         <v>140000000</v>
       </c>
       <c r="AF80" s="8">
-        <f t="shared" ref="AF80" si="188">AE80</f>
+        <f t="shared" ref="AF80" si="189">AE80</f>
         <v>140000000</v>
       </c>
       <c r="AG80" s="8">
-        <f t="shared" ref="AG80" si="189">AF80</f>
+        <f t="shared" ref="AG80" si="190">AF80</f>
         <v>140000000</v>
       </c>
       <c r="AH80" s="8">
-        <f t="shared" ref="AH80" si="190">AG80</f>
+        <f t="shared" ref="AH80" si="191">AG80</f>
         <v>140000000</v>
       </c>
       <c r="AI80" s="8"/>
@@ -31399,127 +31364,127 @@
         <v>0.38087262918555126</v>
       </c>
       <c r="D81" s="15">
-        <f t="shared" ref="D81:AJ84" si="191">D73</f>
+        <f t="shared" ref="D81:AH84" si="192">D73</f>
         <v>0.38834830768938461</v>
       </c>
       <c r="E81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.38921779846420512</v>
       </c>
       <c r="F81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.39031170482773814</v>
       </c>
       <c r="G81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.38998843988100884</v>
       </c>
       <c r="H81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.38879701640151876</v>
       </c>
       <c r="I81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.38341638566193137</v>
       </c>
       <c r="J81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.38049035759536443</v>
       </c>
       <c r="K81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.37877268904124056</v>
       </c>
       <c r="L81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.37378519618753508</v>
       </c>
       <c r="M81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.37246187367681205</v>
       </c>
       <c r="N81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.37453558178005586</v>
       </c>
       <c r="O81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.37492361267063351</v>
       </c>
       <c r="P81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.37523867662811172</v>
       </c>
       <c r="Q81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.37345269553020466</v>
       </c>
       <c r="R81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.36927391849944774</v>
       </c>
       <c r="S81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.36666221583248038</v>
       </c>
       <c r="T81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.3635001700153197</v>
       </c>
       <c r="U81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.35947208190712021</v>
       </c>
       <c r="V81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.35596063955115875</v>
       </c>
       <c r="W81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.35366943077643948</v>
       </c>
       <c r="X81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.35453465954819402</v>
       </c>
       <c r="Y81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.35501980351721796</v>
       </c>
       <c r="Z81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.3541829481435097</v>
       </c>
       <c r="AA81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.35232556273295951</v>
       </c>
       <c r="AB81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.34896344291067094</v>
       </c>
       <c r="AC81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.34467973011474423</v>
       </c>
       <c r="AD81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.33980145193769712</v>
       </c>
       <c r="AE81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.33354308528110932</v>
       </c>
       <c r="AF81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.32724362116879757</v>
       </c>
       <c r="AG81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.32089727071198237</v>
       </c>
       <c r="AH81" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.31149505587211729</v>
       </c>
       <c r="AI81" s="15"/>
@@ -31533,131 +31498,131 @@
         <v>338</v>
       </c>
       <c r="C82" s="4">
-        <f t="shared" ref="C82:R84" si="192">C74</f>
+        <f t="shared" ref="C82:R84" si="193">C74</f>
         <v>12.261958999999999</v>
       </c>
       <c r="D82" s="4">
+        <f t="shared" si="193"/>
+        <v>13.172337000000001</v>
+      </c>
+      <c r="E82" s="4">
+        <f t="shared" si="193"/>
+        <v>13.680125</v>
+      </c>
+      <c r="F82" s="4">
+        <f t="shared" si="193"/>
+        <v>14.066001</v>
+      </c>
+      <c r="G82" s="4">
+        <f t="shared" si="193"/>
+        <v>14.14066</v>
+      </c>
+      <c r="H82" s="4">
+        <f t="shared" si="193"/>
+        <v>14.241999</v>
+      </c>
+      <c r="I82" s="4">
+        <f t="shared" si="193"/>
+        <v>14.240686</v>
+      </c>
+      <c r="J82" s="4">
+        <f t="shared" si="193"/>
+        <v>14.309774000000001</v>
+      </c>
+      <c r="K82" s="4">
+        <f t="shared" si="193"/>
+        <v>14.302415999999999</v>
+      </c>
+      <c r="L82" s="4">
+        <f t="shared" si="193"/>
+        <v>14.180683</v>
+      </c>
+      <c r="M82" s="4">
+        <f t="shared" si="193"/>
+        <v>14.190842</v>
+      </c>
+      <c r="N82" s="4">
+        <f t="shared" si="193"/>
+        <v>14.294427000000001</v>
+      </c>
+      <c r="O82" s="4">
+        <f t="shared" si="193"/>
+        <v>14.363591</v>
+      </c>
+      <c r="P82" s="4">
+        <f t="shared" si="193"/>
+        <v>14.458278</v>
+      </c>
+      <c r="Q82" s="4">
+        <f t="shared" si="193"/>
+        <v>14.448694</v>
+      </c>
+      <c r="R82" s="4">
+        <f t="shared" si="193"/>
+        <v>14.351179999999999</v>
+      </c>
+      <c r="S82" s="4">
         <f t="shared" si="192"/>
-        <v>13.172337000000001</v>
-      </c>
-      <c r="E82" s="4">
+        <v>14.269263</v>
+      </c>
+      <c r="T82" s="4">
         <f t="shared" si="192"/>
-        <v>13.680125</v>
-      </c>
-      <c r="F82" s="4">
+        <v>14.149504</v>
+      </c>
+      <c r="U82" s="4">
         <f t="shared" si="192"/>
-        <v>14.066001</v>
-      </c>
-      <c r="G82" s="4">
+        <v>13.968852999999999</v>
+      </c>
+      <c r="V82" s="4">
         <f t="shared" si="192"/>
-        <v>14.14066</v>
-      </c>
-      <c r="H82" s="4">
+        <v>13.821403999999999</v>
+      </c>
+      <c r="W82" s="4">
         <f t="shared" si="192"/>
-        <v>14.241999</v>
-      </c>
-      <c r="I82" s="4">
+        <v>13.750157</v>
+      </c>
+      <c r="X82" s="4">
         <f t="shared" si="192"/>
-        <v>14.240686</v>
-      </c>
-      <c r="J82" s="4">
+        <v>13.901033</v>
+      </c>
+      <c r="Y82" s="4">
         <f t="shared" si="192"/>
-        <v>14.309774000000001</v>
-      </c>
-      <c r="K82" s="4">
+        <v>13.992407999999999</v>
+      </c>
+      <c r="Z82" s="4">
         <f t="shared" si="192"/>
-        <v>14.302415999999999</v>
-      </c>
-      <c r="L82" s="4">
+        <v>14.00568</v>
+      </c>
+      <c r="AA82" s="4">
         <f t="shared" si="192"/>
-        <v>14.180683</v>
-      </c>
-      <c r="M82" s="4">
+        <v>13.959783</v>
+      </c>
+      <c r="AB82" s="4">
         <f t="shared" si="192"/>
-        <v>14.190842</v>
-      </c>
-      <c r="N82" s="4">
+        <v>13.803350999999999</v>
+      </c>
+      <c r="AC82" s="4">
         <f t="shared" si="192"/>
-        <v>14.294427000000001</v>
-      </c>
-      <c r="O82" s="4">
+        <v>13.581116</v>
+      </c>
+      <c r="AD82" s="4">
         <f t="shared" si="192"/>
-        <v>14.363591</v>
-      </c>
-      <c r="P82" s="4">
+        <v>13.321483000000001</v>
+      </c>
+      <c r="AE82" s="4">
         <f t="shared" si="192"/>
-        <v>14.458278</v>
-      </c>
-      <c r="Q82" s="4">
+        <v>13.036129000000001</v>
+      </c>
+      <c r="AF82" s="4">
         <f t="shared" si="192"/>
-        <v>14.448694</v>
-      </c>
-      <c r="R82" s="4">
+        <v>12.781387</v>
+      </c>
+      <c r="AG82" s="4">
         <f t="shared" si="192"/>
-        <v>14.351179999999999</v>
-      </c>
-      <c r="S82" s="4">
-        <f t="shared" si="191"/>
-        <v>14.269263</v>
-      </c>
-      <c r="T82" s="4">
-        <f t="shared" si="191"/>
-        <v>14.149504</v>
-      </c>
-      <c r="U82" s="4">
-        <f t="shared" si="191"/>
-        <v>13.968852999999999</v>
-      </c>
-      <c r="V82" s="4">
-        <f t="shared" si="191"/>
-        <v>13.821403999999999</v>
-      </c>
-      <c r="W82" s="4">
-        <f t="shared" si="191"/>
-        <v>13.750157</v>
-      </c>
-      <c r="X82" s="4">
-        <f t="shared" si="191"/>
-        <v>13.901033</v>
-      </c>
-      <c r="Y82" s="4">
-        <f t="shared" si="191"/>
-        <v>13.992407999999999</v>
-      </c>
-      <c r="Z82" s="4">
-        <f t="shared" si="191"/>
-        <v>14.00568</v>
-      </c>
-      <c r="AA82" s="4">
-        <f t="shared" si="191"/>
-        <v>13.959783</v>
-      </c>
-      <c r="AB82" s="4">
-        <f t="shared" si="191"/>
-        <v>13.803350999999999</v>
-      </c>
-      <c r="AC82" s="4">
-        <f t="shared" si="191"/>
-        <v>13.581116</v>
-      </c>
-      <c r="AD82" s="4">
-        <f t="shared" si="191"/>
-        <v>13.321483000000001</v>
-      </c>
-      <c r="AE82" s="4">
-        <f t="shared" si="191"/>
-        <v>13.036129000000001</v>
-      </c>
-      <c r="AF82" s="4">
-        <f t="shared" si="191"/>
-        <v>12.781387</v>
-      </c>
-      <c r="AG82" s="4">
-        <f t="shared" si="191"/>
         <v>12.489962999999999</v>
       </c>
       <c r="AH82" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>11.961895</v>
       </c>
       <c r="AI82" s="4"/>
@@ -31671,131 +31636,131 @@
         <v>337</v>
       </c>
       <c r="C83" s="8">
+        <f t="shared" si="193"/>
+        <v>5751000</v>
+      </c>
+      <c r="D83" s="8">
         <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="D83" s="8">
-        <f t="shared" si="191"/>
+      <c r="E83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="E83" s="8">
-        <f t="shared" si="191"/>
+      <c r="F83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="F83" s="8">
-        <f t="shared" si="191"/>
+      <c r="G83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="G83" s="8">
-        <f t="shared" si="191"/>
+      <c r="H83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="H83" s="8">
-        <f t="shared" si="191"/>
+      <c r="I83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="I83" s="8">
-        <f t="shared" si="191"/>
+      <c r="J83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="J83" s="8">
-        <f t="shared" si="191"/>
+      <c r="K83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="K83" s="8">
-        <f t="shared" si="191"/>
+      <c r="L83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="L83" s="8">
-        <f t="shared" si="191"/>
+      <c r="M83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="M83" s="8">
-        <f t="shared" si="191"/>
+      <c r="N83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="N83" s="8">
-        <f t="shared" si="191"/>
+      <c r="O83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="O83" s="8">
-        <f t="shared" si="191"/>
+      <c r="P83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="P83" s="8">
-        <f t="shared" si="191"/>
+      <c r="Q83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="Q83" s="8">
-        <f t="shared" si="191"/>
+      <c r="R83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="R83" s="8">
-        <f t="shared" si="191"/>
+      <c r="S83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="S83" s="8">
-        <f t="shared" si="191"/>
+      <c r="T83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="T83" s="8">
-        <f t="shared" si="191"/>
+      <c r="U83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="U83" s="8">
-        <f t="shared" si="191"/>
+      <c r="V83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="V83" s="8">
-        <f t="shared" si="191"/>
+      <c r="W83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="W83" s="8">
-        <f t="shared" si="191"/>
+      <c r="X83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="X83" s="8">
-        <f t="shared" si="191"/>
+      <c r="Y83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="Y83" s="8">
-        <f t="shared" si="191"/>
+      <c r="Z83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="Z83" s="8">
-        <f t="shared" si="191"/>
+      <c r="AA83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="AA83" s="8">
-        <f t="shared" si="191"/>
+      <c r="AB83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="AB83" s="8">
-        <f t="shared" si="191"/>
+      <c r="AC83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="AC83" s="8">
-        <f t="shared" si="191"/>
+      <c r="AD83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="AD83" s="8">
-        <f t="shared" si="191"/>
+      <c r="AE83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="AE83" s="8">
-        <f t="shared" si="191"/>
+      <c r="AF83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="AF83" s="8">
-        <f t="shared" si="191"/>
+      <c r="AG83" s="8">
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
-      <c r="AG83" s="8">
-        <f t="shared" si="191"/>
-        <v>5751000</v>
-      </c>
       <c r="AH83" s="8">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>5751000</v>
       </c>
       <c r="AI83" s="8"/>
@@ -31809,131 +31774,131 @@
         <v>338</v>
       </c>
       <c r="C84" s="15">
+        <f t="shared" si="193"/>
+        <v>0.56213366042614288</v>
+      </c>
+      <c r="D84" s="15">
         <f t="shared" si="192"/>
-        <v>0.56213366042614288</v>
-      </c>
-      <c r="D84" s="15">
-        <f t="shared" si="191"/>
         <v>0.58404769663101408</v>
       </c>
       <c r="E84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.61954033758396365</v>
       </c>
       <c r="F84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.62612874052332901</v>
       </c>
       <c r="G84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.62373582180688736</v>
       </c>
       <c r="H84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.60542615456818205</v>
       </c>
       <c r="I84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.62565980630693829</v>
       </c>
       <c r="J84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.61006057051940887</v>
       </c>
       <c r="K84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.62394750021167089</v>
       </c>
       <c r="L84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.61572493929465044</v>
       </c>
       <c r="M84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.62081314126427445</v>
       </c>
       <c r="N84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.63547843536551607</v>
       </c>
       <c r="O84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.6444891760436422</v>
       </c>
       <c r="P84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.64592086514924563</v>
       </c>
       <c r="Q84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.65285613672038845</v>
       </c>
       <c r="R84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.63687225039502715</v>
       </c>
       <c r="S84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.63434378374824996</v>
       </c>
       <c r="T84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.63780282082885176</v>
       </c>
       <c r="U84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.6149104758357683</v>
       </c>
       <c r="V84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.61789488865315834</v>
       </c>
       <c r="W84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.61846698985411863</v>
       </c>
       <c r="X84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.62154835715887014</v>
       </c>
       <c r="Y84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.61192561131464784</v>
       </c>
       <c r="Z84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.61877412764198936</v>
       </c>
       <c r="AA84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.61486395287291473</v>
       </c>
       <c r="AB84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.60692256979673898</v>
       </c>
       <c r="AC84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.59619914566401311</v>
       </c>
       <c r="AD84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.61096684136677748</v>
       </c>
       <c r="AE84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.58050154367456797</v>
       </c>
       <c r="AF84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.56174705510378276</v>
       </c>
       <c r="AG84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.55585467174245473</v>
       </c>
       <c r="AH84" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.57612926173862544</v>
       </c>
       <c r="AI84" s="15"/>
@@ -31945,131 +31910,131 @@
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8">
-        <f t="shared" ref="C85:AJ85" si="193">(C80*C81)/(C82*10^6*C83*365)*C84</f>
+        <f t="shared" ref="C85:AH85" si="194">(C80*C81)/(C82*10^6*C83*365)*C84</f>
         <v>1.1645316579332159E-9</v>
       </c>
       <c r="D85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.1484145942544874E-9</v>
       </c>
       <c r="E85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.1756120198791158E-9</v>
       </c>
       <c r="F85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.1587676817639777E-9</v>
       </c>
       <c r="G85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.1472935287938502E-9</v>
       </c>
       <c r="H85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.102313065039167E-9</v>
       </c>
       <c r="I85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.1234915694430117E-9</v>
       </c>
       <c r="J85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.0818714014945339E-9</v>
       </c>
       <c r="K85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.1020698063959218E-9</v>
       </c>
       <c r="L85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.0824391624027517E-9</v>
       </c>
       <c r="M85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.0867417802968809E-9</v>
       </c>
       <c r="N85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.1105009978142019E-9</v>
       </c>
       <c r="O85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.121985371217365E-9</v>
       </c>
       <c r="P85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.1180523584011133E-9</v>
       </c>
       <c r="Q85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.125424328979935E-9</v>
       </c>
       <c r="R85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.0929622278481367E-9</v>
       </c>
       <c r="S85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.0871290675756124E-9</v>
       </c>
       <c r="T85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.0928024030837981E-9</v>
       </c>
       <c r="U85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.0553781908360789E-9</v>
       </c>
       <c r="V85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.0613441319361258E-9</v>
       </c>
       <c r="W85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.060958006514397E-9</v>
       </c>
       <c r="X85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.057251599141001E-9</v>
       </c>
       <c r="Y85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.0355010728911815E-9</v>
       </c>
       <c r="Z85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.0436320296248543E-9</v>
       </c>
       <c r="AA85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.0349904041080514E-9</v>
       </c>
       <c r="AB85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.0233412795752364E-9</v>
       </c>
       <c r="AC85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.0091679248451198E-9</v>
       </c>
       <c r="AD85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.0393985332694223E-9</v>
       </c>
       <c r="AE85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>9.9060034487740714E-10</v>
       </c>
       <c r="AF85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>9.5923675881563259E-10</v>
       </c>
       <c r="AG85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>9.5248453993849329E-10</v>
       </c>
       <c r="AH85" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.0006055541612209E-9</v>
       </c>
       <c r="AI85" s="8"/>
@@ -32142,119 +32107,119 @@
         <v>1200000000</v>
       </c>
       <c r="F88" s="8">
-        <f t="shared" ref="F88:P88" si="194">E88</f>
+        <f t="shared" ref="F88:P88" si="195">E88</f>
         <v>1200000000</v>
       </c>
       <c r="G88" s="8">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>1200000000</v>
       </c>
       <c r="H88" s="8">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>1200000000</v>
       </c>
       <c r="I88" s="8">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>1200000000</v>
       </c>
       <c r="J88" s="8">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>1200000000</v>
       </c>
       <c r="K88" s="8">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>1200000000</v>
       </c>
       <c r="L88" s="8">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>1200000000</v>
       </c>
       <c r="M88" s="8">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>1200000000</v>
       </c>
       <c r="N88" s="8">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>1200000000</v>
       </c>
       <c r="O88" s="8">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>1200000000</v>
       </c>
       <c r="P88" s="8">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>1200000000</v>
       </c>
       <c r="Q88" s="8">
-        <f t="shared" ref="Q88" si="195">P88</f>
+        <f t="shared" ref="Q88" si="196">P88</f>
         <v>1200000000</v>
       </c>
       <c r="R88" s="8">
-        <f t="shared" ref="R88" si="196">Q88</f>
+        <f t="shared" ref="R88" si="197">Q88</f>
         <v>1200000000</v>
       </c>
       <c r="S88" s="8">
-        <f t="shared" ref="S88" si="197">R88</f>
+        <f t="shared" ref="S88" si="198">R88</f>
         <v>1200000000</v>
       </c>
       <c r="T88" s="8">
-        <f t="shared" ref="T88" si="198">S88</f>
+        <f t="shared" ref="T88" si="199">S88</f>
         <v>1200000000</v>
       </c>
       <c r="U88" s="8">
-        <f t="shared" ref="U88" si="199">T88</f>
+        <f t="shared" ref="U88" si="200">T88</f>
         <v>1200000000</v>
       </c>
       <c r="V88" s="8">
-        <f t="shared" ref="V88" si="200">U88</f>
+        <f t="shared" ref="V88" si="201">U88</f>
         <v>1200000000</v>
       </c>
       <c r="W88" s="8">
-        <f t="shared" ref="W88" si="201">V88</f>
+        <f t="shared" ref="W88" si="202">V88</f>
         <v>1200000000</v>
       </c>
       <c r="X88" s="8">
-        <f t="shared" ref="X88" si="202">W88</f>
+        <f t="shared" ref="X88" si="203">W88</f>
         <v>1200000000</v>
       </c>
       <c r="Y88" s="8">
-        <f t="shared" ref="Y88" si="203">X88</f>
+        <f t="shared" ref="Y88" si="204">X88</f>
         <v>1200000000</v>
       </c>
       <c r="Z88" s="8">
-        <f t="shared" ref="Z88" si="204">Y88</f>
+        <f t="shared" ref="Z88" si="205">Y88</f>
         <v>1200000000</v>
       </c>
       <c r="AA88" s="8">
-        <f t="shared" ref="AA88" si="205">Z88</f>
+        <f t="shared" ref="AA88" si="206">Z88</f>
         <v>1200000000</v>
       </c>
       <c r="AB88" s="8">
-        <f t="shared" ref="AB88" si="206">AA88</f>
+        <f t="shared" ref="AB88" si="207">AA88</f>
         <v>1200000000</v>
       </c>
       <c r="AC88" s="8">
-        <f t="shared" ref="AC88" si="207">AB88</f>
+        <f t="shared" ref="AC88" si="208">AB88</f>
         <v>1200000000</v>
       </c>
       <c r="AD88" s="8">
-        <f t="shared" ref="AD88" si="208">AC88</f>
+        <f t="shared" ref="AD88" si="209">AC88</f>
         <v>1200000000</v>
       </c>
       <c r="AE88" s="8">
-        <f t="shared" ref="AE88" si="209">AD88</f>
+        <f t="shared" ref="AE88" si="210">AD88</f>
         <v>1200000000</v>
       </c>
       <c r="AF88" s="8">
-        <f t="shared" ref="AF88" si="210">AE88</f>
+        <f t="shared" ref="AF88" si="211">AE88</f>
         <v>1200000000</v>
       </c>
       <c r="AG88" s="8">
-        <f t="shared" ref="AG88" si="211">AF88</f>
+        <f t="shared" ref="AG88" si="212">AF88</f>
         <v>1200000000</v>
       </c>
       <c r="AH88" s="8">
-        <f t="shared" ref="AH88" si="212">AG88</f>
+        <f t="shared" ref="AH88" si="213">AG88</f>
         <v>1200000000</v>
       </c>
       <c r="AI88" s="8"/>
@@ -32272,7 +32237,7 @@
         <v>0.38087262918555126</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" ref="D89:AJ92" si="213">D81</f>
+        <f t="shared" ref="D89:AH92" si="214">D81</f>
         <v>0.38834830768938461</v>
       </c>
       <c r="E89" s="15">
@@ -32280,119 +32245,119 @@
         <v>0.38921779846420512</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.39031170482773814</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.38998843988100884</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.38879701640151876</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.38341638566193137</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.38049035759536443</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.37877268904124056</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.37378519618753508</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.37246187367681205</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.37453558178005586</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.37492361267063351</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.37523867662811172</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.37345269553020466</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.36927391849944774</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.36666221583248038</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.3635001700153197</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.35947208190712021</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.35596063955115875</v>
       </c>
       <c r="W89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.35366943077643948</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.35453465954819402</v>
       </c>
       <c r="Y89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.35501980351721796</v>
       </c>
       <c r="Z89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.3541829481435097</v>
       </c>
       <c r="AA89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.35232556273295951</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.34896344291067094</v>
       </c>
       <c r="AC89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.34467973011474423</v>
       </c>
       <c r="AD89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.33980145193769712</v>
       </c>
       <c r="AE89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.33354308528110932</v>
       </c>
       <c r="AF89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.32724362116879757</v>
       </c>
       <c r="AG89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.32089727071198237</v>
       </c>
       <c r="AH89" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.31149505587211729</v>
       </c>
       <c r="AI89" s="15"/>
@@ -32406,131 +32371,131 @@
         <v>338</v>
       </c>
       <c r="C90" s="4">
-        <f t="shared" ref="C90:R92" si="214">C82</f>
+        <f t="shared" ref="C90:R92" si="215">C82</f>
         <v>12.261958999999999</v>
       </c>
       <c r="D90" s="4">
+        <f t="shared" si="215"/>
+        <v>13.172337000000001</v>
+      </c>
+      <c r="E90" s="4">
+        <f t="shared" si="215"/>
+        <v>13.680125</v>
+      </c>
+      <c r="F90" s="4">
+        <f t="shared" si="215"/>
+        <v>14.066001</v>
+      </c>
+      <c r="G90" s="4">
+        <f t="shared" si="215"/>
+        <v>14.14066</v>
+      </c>
+      <c r="H90" s="4">
+        <f t="shared" si="215"/>
+        <v>14.241999</v>
+      </c>
+      <c r="I90" s="4">
+        <f t="shared" si="215"/>
+        <v>14.240686</v>
+      </c>
+      <c r="J90" s="4">
+        <f t="shared" si="215"/>
+        <v>14.309774000000001</v>
+      </c>
+      <c r="K90" s="4">
+        <f t="shared" si="215"/>
+        <v>14.302415999999999</v>
+      </c>
+      <c r="L90" s="4">
+        <f t="shared" si="215"/>
+        <v>14.180683</v>
+      </c>
+      <c r="M90" s="4">
+        <f t="shared" si="215"/>
+        <v>14.190842</v>
+      </c>
+      <c r="N90" s="4">
+        <f t="shared" si="215"/>
+        <v>14.294427000000001</v>
+      </c>
+      <c r="O90" s="4">
+        <f t="shared" si="215"/>
+        <v>14.363591</v>
+      </c>
+      <c r="P90" s="4">
+        <f t="shared" si="215"/>
+        <v>14.458278</v>
+      </c>
+      <c r="Q90" s="4">
+        <f t="shared" si="215"/>
+        <v>14.448694</v>
+      </c>
+      <c r="R90" s="4">
+        <f t="shared" si="215"/>
+        <v>14.351179999999999</v>
+      </c>
+      <c r="S90" s="4">
         <f t="shared" si="214"/>
-        <v>13.172337000000001</v>
-      </c>
-      <c r="E90" s="4">
+        <v>14.269263</v>
+      </c>
+      <c r="T90" s="4">
         <f t="shared" si="214"/>
-        <v>13.680125</v>
-      </c>
-      <c r="F90" s="4">
+        <v>14.149504</v>
+      </c>
+      <c r="U90" s="4">
         <f t="shared" si="214"/>
-        <v>14.066001</v>
-      </c>
-      <c r="G90" s="4">
+        <v>13.968852999999999</v>
+      </c>
+      <c r="V90" s="4">
         <f t="shared" si="214"/>
-        <v>14.14066</v>
-      </c>
-      <c r="H90" s="4">
+        <v>13.821403999999999</v>
+      </c>
+      <c r="W90" s="4">
         <f t="shared" si="214"/>
-        <v>14.241999</v>
-      </c>
-      <c r="I90" s="4">
+        <v>13.750157</v>
+      </c>
+      <c r="X90" s="4">
         <f t="shared" si="214"/>
-        <v>14.240686</v>
-      </c>
-      <c r="J90" s="4">
+        <v>13.901033</v>
+      </c>
+      <c r="Y90" s="4">
         <f t="shared" si="214"/>
-        <v>14.309774000000001</v>
-      </c>
-      <c r="K90" s="4">
+        <v>13.992407999999999</v>
+      </c>
+      <c r="Z90" s="4">
         <f t="shared" si="214"/>
-        <v>14.302415999999999</v>
-      </c>
-      <c r="L90" s="4">
+        <v>14.00568</v>
+      </c>
+      <c r="AA90" s="4">
         <f t="shared" si="214"/>
-        <v>14.180683</v>
-      </c>
-      <c r="M90" s="4">
+        <v>13.959783</v>
+      </c>
+      <c r="AB90" s="4">
         <f t="shared" si="214"/>
-        <v>14.190842</v>
-      </c>
-      <c r="N90" s="4">
+        <v>13.803350999999999</v>
+      </c>
+      <c r="AC90" s="4">
         <f t="shared" si="214"/>
-        <v>14.294427000000001</v>
-      </c>
-      <c r="O90" s="4">
+        <v>13.581116</v>
+      </c>
+      <c r="AD90" s="4">
         <f t="shared" si="214"/>
-        <v>14.363591</v>
-      </c>
-      <c r="P90" s="4">
+        <v>13.321483000000001</v>
+      </c>
+      <c r="AE90" s="4">
         <f t="shared" si="214"/>
-        <v>14.458278</v>
-      </c>
-      <c r="Q90" s="4">
+        <v>13.036129000000001</v>
+      </c>
+      <c r="AF90" s="4">
         <f t="shared" si="214"/>
-        <v>14.448694</v>
-      </c>
-      <c r="R90" s="4">
+        <v>12.781387</v>
+      </c>
+      <c r="AG90" s="4">
         <f t="shared" si="214"/>
-        <v>14.351179999999999</v>
-      </c>
-      <c r="S90" s="4">
-        <f t="shared" si="213"/>
-        <v>14.269263</v>
-      </c>
-      <c r="T90" s="4">
-        <f t="shared" si="213"/>
-        <v>14.149504</v>
-      </c>
-      <c r="U90" s="4">
-        <f t="shared" si="213"/>
-        <v>13.968852999999999</v>
-      </c>
-      <c r="V90" s="4">
-        <f t="shared" si="213"/>
-        <v>13.821403999999999</v>
-      </c>
-      <c r="W90" s="4">
-        <f t="shared" si="213"/>
-        <v>13.750157</v>
-      </c>
-      <c r="X90" s="4">
-        <f t="shared" si="213"/>
-        <v>13.901033</v>
-      </c>
-      <c r="Y90" s="4">
-        <f t="shared" si="213"/>
-        <v>13.992407999999999</v>
-      </c>
-      <c r="Z90" s="4">
-        <f t="shared" si="213"/>
-        <v>14.00568</v>
-      </c>
-      <c r="AA90" s="4">
-        <f t="shared" si="213"/>
-        <v>13.959783</v>
-      </c>
-      <c r="AB90" s="4">
-        <f t="shared" si="213"/>
-        <v>13.803350999999999</v>
-      </c>
-      <c r="AC90" s="4">
-        <f t="shared" si="213"/>
-        <v>13.581116</v>
-      </c>
-      <c r="AD90" s="4">
-        <f t="shared" si="213"/>
-        <v>13.321483000000001</v>
-      </c>
-      <c r="AE90" s="4">
-        <f t="shared" si="213"/>
-        <v>13.036129000000001</v>
-      </c>
-      <c r="AF90" s="4">
-        <f t="shared" si="213"/>
-        <v>12.781387</v>
-      </c>
-      <c r="AG90" s="4">
-        <f t="shared" si="213"/>
         <v>12.489962999999999</v>
       </c>
       <c r="AH90" s="4">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>11.961895</v>
       </c>
       <c r="AI90" s="4"/>
@@ -32544,131 +32509,131 @@
         <v>337</v>
       </c>
       <c r="C91" s="8">
+        <f t="shared" si="215"/>
+        <v>5751000</v>
+      </c>
+      <c r="D91" s="8">
         <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="D91" s="8">
-        <f t="shared" si="213"/>
+      <c r="E91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="E91" s="8">
-        <f t="shared" si="213"/>
+      <c r="F91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="F91" s="8">
-        <f t="shared" si="213"/>
+      <c r="G91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="G91" s="8">
-        <f t="shared" si="213"/>
+      <c r="H91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="H91" s="8">
-        <f t="shared" si="213"/>
+      <c r="I91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="I91" s="8">
-        <f t="shared" si="213"/>
+      <c r="J91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="J91" s="8">
-        <f t="shared" si="213"/>
+      <c r="K91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="K91" s="8">
-        <f t="shared" si="213"/>
+      <c r="L91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="L91" s="8">
-        <f t="shared" si="213"/>
+      <c r="M91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="M91" s="8">
-        <f t="shared" si="213"/>
+      <c r="N91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="N91" s="8">
-        <f t="shared" si="213"/>
+      <c r="O91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="O91" s="8">
-        <f t="shared" si="213"/>
+      <c r="P91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="P91" s="8">
-        <f t="shared" si="213"/>
+      <c r="Q91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="Q91" s="8">
-        <f t="shared" si="213"/>
+      <c r="R91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="R91" s="8">
-        <f t="shared" si="213"/>
+      <c r="S91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="S91" s="8">
-        <f t="shared" si="213"/>
+      <c r="T91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="T91" s="8">
-        <f t="shared" si="213"/>
+      <c r="U91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="U91" s="8">
-        <f t="shared" si="213"/>
+      <c r="V91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="V91" s="8">
-        <f t="shared" si="213"/>
+      <c r="W91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="W91" s="8">
-        <f t="shared" si="213"/>
+      <c r="X91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="X91" s="8">
-        <f t="shared" si="213"/>
+      <c r="Y91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="Y91" s="8">
-        <f t="shared" si="213"/>
+      <c r="Z91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="Z91" s="8">
-        <f t="shared" si="213"/>
+      <c r="AA91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="AA91" s="8">
-        <f t="shared" si="213"/>
+      <c r="AB91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="AB91" s="8">
-        <f t="shared" si="213"/>
+      <c r="AC91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="AC91" s="8">
-        <f t="shared" si="213"/>
+      <c r="AD91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="AD91" s="8">
-        <f t="shared" si="213"/>
+      <c r="AE91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="AE91" s="8">
-        <f t="shared" si="213"/>
+      <c r="AF91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="AF91" s="8">
-        <f t="shared" si="213"/>
+      <c r="AG91" s="8">
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
-      <c r="AG91" s="8">
-        <f t="shared" si="213"/>
-        <v>5751000</v>
-      </c>
       <c r="AH91" s="8">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>5751000</v>
       </c>
       <c r="AI91" s="8"/>
@@ -32682,131 +32647,131 @@
         <v>338</v>
       </c>
       <c r="C92" s="15">
+        <f t="shared" si="215"/>
+        <v>0.56213366042614288</v>
+      </c>
+      <c r="D92" s="15">
         <f t="shared" si="214"/>
-        <v>0.56213366042614288</v>
-      </c>
-      <c r="D92" s="15">
-        <f t="shared" si="213"/>
         <v>0.58404769663101408</v>
       </c>
       <c r="E92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.61954033758396365</v>
       </c>
       <c r="F92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.62612874052332901</v>
       </c>
       <c r="G92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.62373582180688736</v>
       </c>
       <c r="H92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.60542615456818205</v>
       </c>
       <c r="I92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.62565980630693829</v>
       </c>
       <c r="J92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.61006057051940887</v>
       </c>
       <c r="K92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.62394750021167089</v>
       </c>
       <c r="L92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.61572493929465044</v>
       </c>
       <c r="M92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.62081314126427445</v>
       </c>
       <c r="N92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.63547843536551607</v>
       </c>
       <c r="O92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.6444891760436422</v>
       </c>
       <c r="P92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.64592086514924563</v>
       </c>
       <c r="Q92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.65285613672038845</v>
       </c>
       <c r="R92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.63687225039502715</v>
       </c>
       <c r="S92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.63434378374824996</v>
       </c>
       <c r="T92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.63780282082885176</v>
       </c>
       <c r="U92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.6149104758357683</v>
       </c>
       <c r="V92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.61789488865315834</v>
       </c>
       <c r="W92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.61846698985411863</v>
       </c>
       <c r="X92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.62154835715887014</v>
       </c>
       <c r="Y92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.61192561131464784</v>
       </c>
       <c r="Z92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.61877412764198936</v>
       </c>
       <c r="AA92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.61486395287291473</v>
       </c>
       <c r="AB92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.60692256979673898</v>
       </c>
       <c r="AC92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.59619914566401311</v>
       </c>
       <c r="AD92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.61096684136677748</v>
       </c>
       <c r="AE92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.58050154367456797</v>
       </c>
       <c r="AF92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.56174705510378276</v>
       </c>
       <c r="AG92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.55585467174245473</v>
       </c>
       <c r="AH92" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.57612926173862544</v>
       </c>
       <c r="AI92" s="15"/>
@@ -32818,131 +32783,131 @@
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="8">
-        <f t="shared" ref="C93:AJ93" si="215">(C88*C89)/(C90*10^6*C91*365)*C92</f>
+        <f t="shared" ref="C93:AH93" si="216">(C88*C89)/(C90*10^6*C91*365)*C92</f>
         <v>9.9816999251418503E-9</v>
       </c>
       <c r="D93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.8435536650384656E-9</v>
       </c>
       <c r="E93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>1.0076674456106708E-8</v>
       </c>
       <c r="F93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.9322944151198082E-9</v>
       </c>
       <c r="G93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.8339445325187159E-9</v>
       </c>
       <c r="H93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.4483977003357169E-9</v>
       </c>
       <c r="I93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.629927738082958E-9</v>
       </c>
       <c r="J93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.2731834413817188E-9</v>
       </c>
       <c r="K93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.4463126262507581E-9</v>
       </c>
       <c r="L93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.278049963452156E-9</v>
       </c>
       <c r="M93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.3149295454018362E-9</v>
       </c>
       <c r="N93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.5185799812645866E-9</v>
       </c>
       <c r="O93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.6170174675774151E-9</v>
       </c>
       <c r="P93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.5833059291523979E-9</v>
       </c>
       <c r="Q93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.6464942483994439E-9</v>
       </c>
       <c r="R93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.3682476672697431E-9</v>
       </c>
       <c r="S93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.3182491506481062E-9</v>
       </c>
       <c r="T93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.3668777407182696E-9</v>
       </c>
       <c r="U93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.0460987785949634E-9</v>
       </c>
       <c r="V93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.0972354165953649E-9</v>
       </c>
       <c r="W93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.0939257701234007E-9</v>
       </c>
       <c r="X93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.062156564065723E-9</v>
       </c>
       <c r="Y93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>8.8757234819244119E-9</v>
       </c>
       <c r="Z93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>8.9454173967844668E-9</v>
       </c>
       <c r="AA93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>8.8713463209261541E-9</v>
       </c>
       <c r="AB93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>8.771496682073455E-9</v>
       </c>
       <c r="AC93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>8.6500107843867424E-9</v>
       </c>
       <c r="AD93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>8.9091302851664769E-9</v>
       </c>
       <c r="AE93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>8.4908600989492041E-9</v>
       </c>
       <c r="AF93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>8.2220293612768501E-9</v>
       </c>
       <c r="AG93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>8.1641531994728001E-9</v>
       </c>
       <c r="AH93" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>8.5766190356676068E-9</v>
       </c>
       <c r="AI93" s="8"/>
@@ -33093,7 +33058,7 @@
         <v>337</v>
       </c>
       <c r="C98" s="8">
-        <f t="shared" ref="C98" si="216">5.751*10^6</f>
+        <f t="shared" ref="C98" si="217">5.751*10^6</f>
         <v>5751000</v>
       </c>
       <c r="D98" s="8"/>
@@ -33185,7 +33150,7 @@
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="D100" s="8">
-        <f t="shared" ref="D100:AJ100" si="217">C100</f>
+        <f t="shared" ref="D100:AH100" si="218">C100</f>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="E100" s="8">
@@ -33193,119 +33158,119 @@
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="F100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="G100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="H100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="I100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="J100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="K100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="L100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="M100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="N100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="O100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="P100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="Q100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="R100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="S100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="T100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="U100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="V100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="W100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="X100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="Y100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="Z100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="AA100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="AB100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="AC100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="AD100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="AE100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="AF100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="AG100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="AH100" s="8">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>2.1839540658877823E-10</v>
       </c>
       <c r="AI100" s="8"/>
@@ -33317,7 +33282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -35182,7 +35147,7 @@
         <v>1.29355764577493E-8</v>
       </c>
       <c r="P17" s="28">
-        <f t="shared" ref="P17:AI17" si="1">P3</f>
+        <f t="shared" ref="P17:AG17" si="1">P3</f>
         <v>1.2884203128657288E-8</v>
       </c>
       <c r="Q17" s="28">
@@ -35835,14 +35800,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -36450,20 +36415,20 @@
         <v>380</v>
       </c>
       <c r="B6" s="27">
-        <f>'Subsidies Paid'!J8*About!$A$70*1000</f>
-        <v>17.866399999999999</v>
-      </c>
-      <c r="C6" s="27">
-        <f>'Subsidies Paid'!K8*About!$A$70*1000</f>
-        <v>13.399799999999999</v>
-      </c>
-      <c r="D6" s="27">
         <f>'Subsidies Paid'!L8*About!$A$70*1000</f>
         <v>8.9331999999999994</v>
       </c>
-      <c r="E6" s="27">
+      <c r="C6" s="27">
         <f>'Subsidies Paid'!M8*About!$A$70*1000</f>
         <v>8.9331999999999994</v>
+      </c>
+      <c r="D6" s="27">
+        <f>'Subsidies Paid'!N8*About!$A$70*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="27">
+        <f>'Subsidies Paid'!O8*About!$A$70*1000</f>
+        <v>0</v>
       </c>
       <c r="F6" s="27">
         <f>'Subsidies Paid'!N8*About!$A$70*1000</f>
@@ -37199,7 +37164,7 @@
         <v>376</v>
       </c>
       <c r="B13" s="27">
-        <f t="shared" ref="B13:AI13" si="0">B2</f>
+        <f t="shared" ref="B13:AG13" si="0">B2</f>
         <v>0.31269731656692296</v>
       </c>
       <c r="C13" s="27">
@@ -37334,20 +37299,20 @@
         <v>377</v>
       </c>
       <c r="B14" s="27">
-        <f t="shared" ref="B14:AI14" si="1">B6</f>
-        <v>17.866399999999999</v>
+        <f t="shared" ref="B14:AG14" si="1">B6</f>
+        <v>8.9331999999999994</v>
       </c>
       <c r="C14" s="27">
         <f t="shared" si="1"/>
-        <v>13.399799999999999</v>
+        <v>8.9331999999999994</v>
       </c>
       <c r="D14" s="27">
         <f t="shared" si="1"/>
-        <v>8.9331999999999994</v>
+        <v>0</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="1"/>
-        <v>8.9331999999999994</v>
+        <v>0</v>
       </c>
       <c r="F14" s="27">
         <f t="shared" si="1"/>
@@ -37477,7 +37442,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" ref="D15:AI15" si="2">D11</f>
+        <f t="shared" ref="D15:AG15" si="2">D11</f>
         <v>0</v>
       </c>
       <c r="E15" s="8">
@@ -37612,7 +37577,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" ref="D16:AI16" si="3">D11</f>
+        <f t="shared" ref="D16:AG16" si="3">D11</f>
         <v>0</v>
       </c>
       <c r="E16" s="8">
@@ -37843,13 +37808,13 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>

--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -24059,8 +24059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AJ51" sqref="AJ51"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47:AH47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27891,128 +27891,128 @@
         <v>3.5031666E+16</v>
       </c>
       <c r="D47" s="7">
-        <f>'AEO Table 1'!E18*10^15</f>
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!D34,'AEO Table 1'!13:13,0))*10^15</f>
+        <v>3.6033657E+16</v>
+      </c>
+      <c r="E47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!E34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>3.7331188E+16</v>
       </c>
-      <c r="E47" s="7">
-        <f>'AEO Table 1'!F18*10^15</f>
+      <c r="F47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!F34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>3.7590195E+16</v>
       </c>
-      <c r="F47" s="7">
-        <f>'AEO Table 1'!G18*10^15</f>
+      <c r="G47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!G34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>3.7847775E+16</v>
       </c>
-      <c r="G47" s="7">
-        <f>'AEO Table 1'!H18*10^15</f>
+      <c r="H47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!H34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>3.8332695E+16</v>
       </c>
-      <c r="H47" s="7">
-        <f>'AEO Table 1'!I18*10^15</f>
+      <c r="I47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!I34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>3.9291294E+16</v>
       </c>
-      <c r="I47" s="7">
-        <f>'AEO Table 1'!J18*10^15</f>
+      <c r="J47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!J34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>3.9964729E+16</v>
       </c>
-      <c r="J47" s="7">
-        <f>'AEO Table 1'!K18*10^15</f>
+      <c r="K47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!K34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.0147495E+16</v>
       </c>
-      <c r="K47" s="7">
-        <f>'AEO Table 1'!L18*10^15</f>
+      <c r="L47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!L34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.0689774E+16</v>
       </c>
-      <c r="L47" s="7">
-        <f>'AEO Table 1'!M18*10^15</f>
+      <c r="M47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!M34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.0984024E+16</v>
       </c>
-      <c r="M47" s="7">
-        <f>'AEO Table 1'!N18*10^15</f>
+      <c r="N47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!N34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.0933514E+16</v>
       </c>
-      <c r="N47" s="7">
-        <f>'AEO Table 1'!O18*10^15</f>
+      <c r="O47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!O34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.1105022E+16</v>
       </c>
-      <c r="O47" s="7">
-        <f>'AEO Table 1'!P18*10^15</f>
+      <c r="P47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!P34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.1415512E+16</v>
       </c>
-      <c r="P47" s="7">
-        <f>'AEO Table 1'!Q18*10^15</f>
+      <c r="Q47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!Q34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.1783867E+16</v>
       </c>
-      <c r="Q47" s="7">
-        <f>'AEO Table 1'!R18*10^15</f>
+      <c r="R47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!R34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.2303432E+16</v>
       </c>
-      <c r="R47" s="7">
-        <f>'AEO Table 1'!S18*10^15</f>
+      <c r="S47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!S34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.2534462E+16</v>
       </c>
-      <c r="S47" s="7">
-        <f>'AEO Table 1'!T18*10^15</f>
+      <c r="T47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!T34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.2787468E+16</v>
       </c>
-      <c r="T47" s="7">
-        <f>'AEO Table 1'!U18*10^15</f>
+      <c r="U47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!U34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.3062252E+16</v>
       </c>
-      <c r="U47" s="7">
-        <f>'AEO Table 1'!V18*10^15</f>
+      <c r="V47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!V34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.3329517E+16</v>
       </c>
-      <c r="V47" s="7">
-        <f>'AEO Table 1'!W18*10^15</f>
+      <c r="W47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!W34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.3569817E+16</v>
       </c>
-      <c r="W47" s="7">
-        <f>'AEO Table 1'!X18*10^15</f>
+      <c r="X47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!X34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.3935242E+16</v>
       </c>
-      <c r="X47" s="7">
-        <f>'AEO Table 1'!Y18*10^15</f>
+      <c r="Y47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!Y34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.4149738E+16</v>
       </c>
-      <c r="Y47" s="7">
-        <f>'AEO Table 1'!Z18*10^15</f>
+      <c r="Z47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!Z34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.4370525E+16</v>
       </c>
-      <c r="Z47" s="7">
-        <f>'AEO Table 1'!AA18*10^15</f>
+      <c r="AA47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!AA34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.4607227E+16</v>
       </c>
-      <c r="AA47" s="7">
-        <f>'AEO Table 1'!AB18*10^15</f>
+      <c r="AB47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!AB34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.4817394E+16</v>
       </c>
-      <c r="AB47" s="7">
-        <f>'AEO Table 1'!AC18*10^15</f>
+      <c r="AC47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!AC34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.4978981E+16</v>
       </c>
-      <c r="AC47" s="7">
-        <f>'AEO Table 1'!AD18*10^15</f>
+      <c r="AD47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!AD34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.5196522E+16</v>
       </c>
-      <c r="AD47" s="7">
-        <f>'AEO Table 1'!AE18*10^15</f>
+      <c r="AE47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!AE34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.5565365E+16</v>
       </c>
-      <c r="AE47" s="7">
-        <f>'AEO Table 1'!AF18*10^15</f>
+      <c r="AF47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!AF34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.6018311E+16</v>
       </c>
-      <c r="AF47" s="7">
-        <f>'AEO Table 1'!AG18*10^15</f>
+      <c r="AG47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!AG34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.6380791E+16</v>
       </c>
-      <c r="AG47" s="7">
-        <f>'AEO Table 1'!AH18*10^15</f>
+      <c r="AH47" s="7">
+        <f>INDEX('AEO Table 1'!18:18,MATCH(Calculations!AH34,'AEO Table 1'!13:13,0))*10^15</f>
         <v>4.6616814E+16</v>
-      </c>
-      <c r="AH47" s="7">
-        <f>'AEO Table 1'!AI18*10^15</f>
-        <v>9259000000000</v>
       </c>
       <c r="AI47" s="7"/>
       <c r="AJ47" s="7"/>
@@ -28165,127 +28165,127 @@
       </c>
       <c r="D49" s="7">
         <f>D46*(D47/SUM(D47:D48))/D47</f>
-        <v>2.2489652573322277E-8</v>
+        <v>2.2902189160885848E-8</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" ref="E49:P49" si="84">E46*(E47/SUM(E47:E48))/E47</f>
-        <v>2.2049985520509512E-8</v>
+        <v>2.2127994906299485E-8</v>
       </c>
       <c r="F49" s="7">
         <f t="shared" si="84"/>
-        <v>2.1517569633545032E-8</v>
+        <v>2.1591440289411669E-8</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="84"/>
-        <v>2.1325093387454493E-8</v>
+        <v>2.1462092605432069E-8</v>
       </c>
       <c r="H49" s="7">
         <f t="shared" si="84"/>
-        <v>2.0982281357083705E-8</v>
+        <v>2.1246068264246853E-8</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="84"/>
-        <v>2.0773777829601092E-8</v>
+        <v>2.0954736062681669E-8</v>
       </c>
       <c r="J49" s="7">
         <f t="shared" si="84"/>
-        <v>2.0642450396478403E-8</v>
+        <v>2.0690635797566348E-8</v>
       </c>
       <c r="K49" s="7">
         <f t="shared" si="84"/>
-        <v>2.0466969059817563E-8</v>
+        <v>2.0608157935223373E-8</v>
       </c>
       <c r="L49" s="7">
         <f t="shared" si="84"/>
-        <v>2.0438746974103441E-8</v>
+        <v>2.051490668205842E-8</v>
       </c>
       <c r="M49" s="7">
         <f t="shared" si="84"/>
-        <v>2.0444342643396718E-8</v>
+        <v>2.0431319017578943E-8</v>
       </c>
       <c r="N49" s="7">
         <f t="shared" si="84"/>
-        <v>2.0352812486686656E-8</v>
+        <v>2.0396762097115002E-8</v>
       </c>
       <c r="O49" s="7">
         <f t="shared" si="84"/>
-        <v>2.0240953811717699E-8</v>
+        <v>2.0319782196017565E-8</v>
       </c>
       <c r="P49" s="7">
         <f t="shared" si="84"/>
-        <v>2.0108316550233104E-8</v>
+        <v>2.0200678528322213E-8</v>
       </c>
       <c r="Q49" s="7">
         <f t="shared" ref="Q49:AH49" si="85">Q46*(Q47/SUM(Q47:Q48))/Q47</f>
-        <v>1.999148412138119E-8</v>
+        <v>2.0120489689497254E-8</v>
       </c>
       <c r="R49" s="7">
         <f t="shared" si="85"/>
-        <v>1.9978536146018535E-8</v>
+        <v>2.0035620860356275E-8</v>
       </c>
       <c r="S49" s="7">
         <f t="shared" si="85"/>
-        <v>1.9951565972550047E-8</v>
+        <v>2.0013928706037249E-8</v>
       </c>
       <c r="T49" s="7">
         <f t="shared" si="85"/>
-        <v>1.9956559497519459E-8</v>
+        <v>2.0024342431187308E-8</v>
       </c>
       <c r="U49" s="7">
         <f t="shared" si="85"/>
-        <v>2.0006639734436314E-8</v>
+        <v>2.0072893597940164E-8</v>
       </c>
       <c r="V49" s="7">
         <f t="shared" si="85"/>
-        <v>2.003719373164842E-8</v>
+        <v>2.0096925486741025E-8</v>
       </c>
       <c r="W49" s="7">
         <f t="shared" si="85"/>
-        <v>1.998971615479153E-8</v>
+        <v>2.008026005572942E-8</v>
       </c>
       <c r="X49" s="7">
         <f t="shared" si="85"/>
-        <v>1.9853185448507236E-8</v>
+        <v>1.9905510263010773E-8</v>
       </c>
       <c r="Y49" s="7">
         <f t="shared" si="85"/>
-        <v>1.9750394032552553E-8</v>
+        <v>1.9803700585503743E-8</v>
       </c>
       <c r="Z49" s="7">
         <f t="shared" si="85"/>
-        <v>1.9689091022120882E-8</v>
+        <v>1.9745896397450186E-8</v>
       </c>
       <c r="AA49" s="7">
         <f t="shared" si="85"/>
-        <v>1.9661955160547147E-8</v>
+        <v>1.971223711222151E-8</v>
       </c>
       <c r="AB49" s="7">
         <f t="shared" si="85"/>
-        <v>1.9711175071846327E-8</v>
+        <v>1.9750005406868765E-8</v>
       </c>
       <c r="AC49" s="7">
         <f t="shared" si="85"/>
-        <v>1.9782091470412751E-8</v>
+        <v>1.9834781170328004E-8</v>
       </c>
       <c r="AD49" s="7">
         <f t="shared" si="85"/>
-        <v>1.9839775686107512E-8</v>
+        <v>1.9929801334573316E-8</v>
       </c>
       <c r="AE49" s="7">
         <f t="shared" si="85"/>
-        <v>1.9879367579888E-8</v>
+        <v>1.9990478609077307E-8</v>
       </c>
       <c r="AF49" s="7">
         <f t="shared" si="85"/>
-        <v>1.992033293221325E-8</v>
+        <v>2.0009520085000442E-8</v>
       </c>
       <c r="AG49" s="7">
         <f t="shared" si="85"/>
-        <v>2.0027454425734876E-8</v>
+        <v>2.0086062827791064E-8</v>
       </c>
       <c r="AH49" s="7">
         <f t="shared" si="85"/>
-        <v>4.9096305221182947E-8</v>
+        <v>2.035075455070509E-8</v>
       </c>
       <c r="AI49" s="7"/>
       <c r="AJ49" s="7"/>
@@ -28488,127 +28488,127 @@
       </c>
       <c r="D53" s="7">
         <f t="shared" ref="D53:AH53" si="105">D47</f>
-        <v>3.7331188E+16</v>
+        <v>3.6033657E+16</v>
       </c>
       <c r="E53" s="7">
         <f t="shared" si="105"/>
-        <v>3.7590195E+16</v>
+        <v>3.7331188E+16</v>
       </c>
       <c r="F53" s="7">
         <f t="shared" si="105"/>
-        <v>3.7847775E+16</v>
+        <v>3.7590195E+16</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="105"/>
-        <v>3.8332695E+16</v>
+        <v>3.7847775E+16</v>
       </c>
       <c r="H53" s="7">
         <f t="shared" si="105"/>
-        <v>3.9291294E+16</v>
+        <v>3.8332695E+16</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" si="105"/>
-        <v>3.9964729E+16</v>
+        <v>3.9291294E+16</v>
       </c>
       <c r="J53" s="7">
         <f t="shared" si="105"/>
-        <v>4.0147495E+16</v>
+        <v>3.9964729E+16</v>
       </c>
       <c r="K53" s="7">
         <f t="shared" si="105"/>
-        <v>4.0689774E+16</v>
+        <v>4.0147495E+16</v>
       </c>
       <c r="L53" s="7">
         <f t="shared" si="105"/>
-        <v>4.0984024E+16</v>
+        <v>4.0689774E+16</v>
       </c>
       <c r="M53" s="7">
         <f t="shared" si="105"/>
-        <v>4.0933514E+16</v>
+        <v>4.0984024E+16</v>
       </c>
       <c r="N53" s="7">
         <f t="shared" si="105"/>
-        <v>4.1105022E+16</v>
+        <v>4.0933514E+16</v>
       </c>
       <c r="O53" s="7">
         <f t="shared" si="105"/>
-        <v>4.1415512E+16</v>
+        <v>4.1105022E+16</v>
       </c>
       <c r="P53" s="7">
         <f t="shared" si="105"/>
-        <v>4.1783867E+16</v>
+        <v>4.1415512E+16</v>
       </c>
       <c r="Q53" s="7">
         <f t="shared" si="105"/>
-        <v>4.2303432E+16</v>
+        <v>4.1783867E+16</v>
       </c>
       <c r="R53" s="7">
         <f t="shared" si="105"/>
-        <v>4.2534462E+16</v>
+        <v>4.2303432E+16</v>
       </c>
       <c r="S53" s="7">
         <f t="shared" si="105"/>
-        <v>4.2787468E+16</v>
+        <v>4.2534462E+16</v>
       </c>
       <c r="T53" s="7">
         <f t="shared" si="105"/>
-        <v>4.3062252E+16</v>
+        <v>4.2787468E+16</v>
       </c>
       <c r="U53" s="7">
         <f t="shared" si="105"/>
-        <v>4.3329517E+16</v>
+        <v>4.3062252E+16</v>
       </c>
       <c r="V53" s="7">
         <f t="shared" si="105"/>
-        <v>4.3569817E+16</v>
+        <v>4.3329517E+16</v>
       </c>
       <c r="W53" s="7">
         <f t="shared" si="105"/>
-        <v>4.3935242E+16</v>
+        <v>4.3569817E+16</v>
       </c>
       <c r="X53" s="7">
         <f t="shared" si="105"/>
-        <v>4.4149738E+16</v>
+        <v>4.3935242E+16</v>
       </c>
       <c r="Y53" s="7">
         <f t="shared" si="105"/>
-        <v>4.4370525E+16</v>
+        <v>4.4149738E+16</v>
       </c>
       <c r="Z53" s="7">
         <f t="shared" si="105"/>
-        <v>4.4607227E+16</v>
+        <v>4.4370525E+16</v>
       </c>
       <c r="AA53" s="7">
         <f t="shared" si="105"/>
-        <v>4.4817394E+16</v>
+        <v>4.4607227E+16</v>
       </c>
       <c r="AB53" s="7">
         <f t="shared" si="105"/>
-        <v>4.4978981E+16</v>
+        <v>4.4817394E+16</v>
       </c>
       <c r="AC53" s="7">
         <f t="shared" si="105"/>
-        <v>4.5196522E+16</v>
+        <v>4.4978981E+16</v>
       </c>
       <c r="AD53" s="7">
         <f t="shared" si="105"/>
-        <v>4.5565365E+16</v>
+        <v>4.5196522E+16</v>
       </c>
       <c r="AE53" s="7">
         <f t="shared" si="105"/>
-        <v>4.6018311E+16</v>
+        <v>4.5565365E+16</v>
       </c>
       <c r="AF53" s="7">
         <f t="shared" si="105"/>
-        <v>4.6380791E+16</v>
+        <v>4.6018311E+16</v>
       </c>
       <c r="AG53" s="7">
         <f t="shared" si="105"/>
-        <v>4.6616814E+16</v>
+        <v>4.6380791E+16</v>
       </c>
       <c r="AH53" s="7">
         <f t="shared" si="105"/>
-        <v>9259000000000</v>
+        <v>4.6616814E+16</v>
       </c>
       <c r="AI53" s="7"/>
       <c r="AJ53" s="7"/>
@@ -28762,127 +28762,127 @@
       </c>
       <c r="D55" s="7">
         <f t="shared" si="107"/>
-        <v>1.9435502223858752E-9</v>
+        <v>1.9792015324222333E-9</v>
       </c>
       <c r="E55" s="7">
         <f t="shared" si="107"/>
-        <v>1.9055543042415622E-9</v>
+        <v>1.9122958560999554E-9</v>
       </c>
       <c r="F55" s="7">
         <f t="shared" si="107"/>
-        <v>1.8595430547508048E-9</v>
+        <v>1.8659269385911315E-9</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" si="107"/>
-        <v>1.8429093050886598E-9</v>
+        <v>1.854748743679314E-9</v>
       </c>
       <c r="H55" s="7">
         <f t="shared" si="107"/>
-        <v>1.813283574068962E-9</v>
+        <v>1.8360799734534313E-9</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="107"/>
-        <v>1.7952647507062668E-9</v>
+        <v>1.8109031165280453E-9</v>
       </c>
       <c r="J55" s="7">
         <f t="shared" si="107"/>
-        <v>1.7839154663623308E-9</v>
+        <v>1.7880796368267211E-9</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" si="107"/>
-        <v>1.7687504125768261E-9</v>
+        <v>1.7809519203279457E-9</v>
       </c>
       <c r="L55" s="7">
         <f t="shared" si="107"/>
-        <v>1.7663114668978281E-9</v>
+        <v>1.7728931700544315E-9</v>
       </c>
       <c r="M55" s="7">
         <f t="shared" si="107"/>
-        <v>1.766795043256506E-9</v>
+        <v>1.7656695447290443E-9</v>
       </c>
       <c r="N55" s="7">
         <f t="shared" si="107"/>
-        <v>1.7588850297136612E-9</v>
+        <v>1.7626831441951235E-9</v>
       </c>
       <c r="O55" s="7">
         <f t="shared" si="107"/>
-        <v>1.74921823064227E-9</v>
+        <v>1.7560305601496659E-9</v>
       </c>
       <c r="P55" s="7">
         <f t="shared" si="107"/>
-        <v>1.7377557512547125E-9</v>
+        <v>1.7457376505957467E-9</v>
       </c>
       <c r="Q55" s="7">
         <f t="shared" si="107"/>
-        <v>1.7276591216008431E-9</v>
+        <v>1.7388077509442068E-9</v>
       </c>
       <c r="R55" s="7">
         <f t="shared" si="107"/>
-        <v>1.7265401607670338E-9</v>
+        <v>1.7314734076851101E-9</v>
       </c>
       <c r="S55" s="7">
         <f t="shared" si="107"/>
-        <v>1.724209405035189E-9</v>
+        <v>1.7295987770649471E-9</v>
       </c>
       <c r="T55" s="7">
         <f t="shared" si="107"/>
-        <v>1.7246409442300763E-9</v>
+        <v>1.730498728621125E-9</v>
       </c>
       <c r="U55" s="7">
         <f t="shared" si="107"/>
-        <v>1.7289688659389402E-9</v>
+        <v>1.7346945084639646E-9</v>
       </c>
       <c r="V55" s="7">
         <f t="shared" si="107"/>
-        <v>1.7316093348338138E-9</v>
+        <v>1.7367713383603353E-9</v>
       </c>
       <c r="W55" s="7">
         <f t="shared" si="107"/>
-        <v>1.7275063343646999E-9</v>
+        <v>1.7353311159272332E-9</v>
       </c>
       <c r="X55" s="7">
         <f t="shared" si="107"/>
-        <v>1.7157073844388968E-9</v>
+        <v>1.7202292819885853E-9</v>
       </c>
       <c r="Y55" s="7">
         <f t="shared" si="107"/>
-        <v>1.7068241756526897E-9</v>
+        <v>1.7114309147966197E-9</v>
       </c>
       <c r="Z55" s="7">
         <f t="shared" si="107"/>
-        <v>1.70152638462773E-9</v>
+        <v>1.70643549113767E-9</v>
       </c>
       <c r="AA55" s="7">
         <f t="shared" si="107"/>
-        <v>1.699181310170741E-9</v>
+        <v>1.7035266640191428E-9</v>
       </c>
       <c r="AB55" s="7">
         <f t="shared" si="107"/>
-        <v>1.7034348827521511E-9</v>
+        <v>1.7067905907170537E-9</v>
       </c>
       <c r="AC55" s="7">
         <f t="shared" si="107"/>
-        <v>1.70956346040604E-9</v>
+        <v>1.7141168912629136E-9</v>
       </c>
       <c r="AD55" s="7">
         <f t="shared" si="107"/>
-        <v>1.714548516083365E-9</v>
+        <v>1.7223285103952246E-9</v>
       </c>
       <c r="AE55" s="7">
         <f t="shared" si="107"/>
-        <v>1.7179700377680988E-9</v>
+        <v>1.7275722254758164E-9</v>
       </c>
       <c r="AF55" s="7">
         <f t="shared" si="107"/>
-        <v>1.7215102534011446E-9</v>
+        <v>1.7292177851234949E-9</v>
       </c>
       <c r="AG55" s="7">
         <f t="shared" si="107"/>
-        <v>1.7307676664215321E-9</v>
+        <v>1.7358325900560179E-9</v>
       </c>
       <c r="AH55" s="7">
         <f t="shared" si="107"/>
-        <v>4.2428905746701309E-9</v>
+        <v>1.7587071833942671E-9</v>
       </c>
       <c r="AI55" s="7"/>
       <c r="AJ55" s="7"/>
@@ -29064,127 +29064,127 @@
       </c>
       <c r="D59" s="7">
         <f t="shared" ref="D59:AH59" si="127">D47</f>
-        <v>3.7331188E+16</v>
+        <v>3.6033657E+16</v>
       </c>
       <c r="E59" s="7">
         <f t="shared" si="127"/>
-        <v>3.7590195E+16</v>
+        <v>3.7331188E+16</v>
       </c>
       <c r="F59" s="7">
         <f t="shared" si="127"/>
-        <v>3.7847775E+16</v>
+        <v>3.7590195E+16</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="127"/>
-        <v>3.8332695E+16</v>
+        <v>3.7847775E+16</v>
       </c>
       <c r="H59" s="7">
         <f t="shared" si="127"/>
-        <v>3.9291294E+16</v>
+        <v>3.8332695E+16</v>
       </c>
       <c r="I59" s="7">
         <f t="shared" si="127"/>
-        <v>3.9964729E+16</v>
+        <v>3.9291294E+16</v>
       </c>
       <c r="J59" s="7">
         <f t="shared" si="127"/>
-        <v>4.0147495E+16</v>
+        <v>3.9964729E+16</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="127"/>
-        <v>4.0689774E+16</v>
+        <v>4.0147495E+16</v>
       </c>
       <c r="L59" s="7">
         <f t="shared" si="127"/>
-        <v>4.0984024E+16</v>
+        <v>4.0689774E+16</v>
       </c>
       <c r="M59" s="7">
         <f t="shared" si="127"/>
-        <v>4.0933514E+16</v>
+        <v>4.0984024E+16</v>
       </c>
       <c r="N59" s="7">
         <f t="shared" si="127"/>
-        <v>4.1105022E+16</v>
+        <v>4.0933514E+16</v>
       </c>
       <c r="O59" s="7">
         <f t="shared" si="127"/>
-        <v>4.1415512E+16</v>
+        <v>4.1105022E+16</v>
       </c>
       <c r="P59" s="7">
         <f t="shared" si="127"/>
-        <v>4.1783867E+16</v>
+        <v>4.1415512E+16</v>
       </c>
       <c r="Q59" s="7">
         <f t="shared" si="127"/>
-        <v>4.2303432E+16</v>
+        <v>4.1783867E+16</v>
       </c>
       <c r="R59" s="7">
         <f t="shared" si="127"/>
-        <v>4.2534462E+16</v>
+        <v>4.2303432E+16</v>
       </c>
       <c r="S59" s="7">
         <f t="shared" si="127"/>
-        <v>4.2787468E+16</v>
+        <v>4.2534462E+16</v>
       </c>
       <c r="T59" s="7">
         <f t="shared" si="127"/>
-        <v>4.3062252E+16</v>
+        <v>4.2787468E+16</v>
       </c>
       <c r="U59" s="7">
         <f t="shared" si="127"/>
-        <v>4.3329517E+16</v>
+        <v>4.3062252E+16</v>
       </c>
       <c r="V59" s="7">
         <f t="shared" si="127"/>
-        <v>4.3569817E+16</v>
+        <v>4.3329517E+16</v>
       </c>
       <c r="W59" s="7">
         <f t="shared" si="127"/>
-        <v>4.3935242E+16</v>
+        <v>4.3569817E+16</v>
       </c>
       <c r="X59" s="7">
         <f t="shared" si="127"/>
-        <v>4.4149738E+16</v>
+        <v>4.3935242E+16</v>
       </c>
       <c r="Y59" s="7">
         <f t="shared" si="127"/>
-        <v>4.4370525E+16</v>
+        <v>4.4149738E+16</v>
       </c>
       <c r="Z59" s="7">
         <f t="shared" si="127"/>
-        <v>4.4607227E+16</v>
+        <v>4.4370525E+16</v>
       </c>
       <c r="AA59" s="7">
         <f t="shared" si="127"/>
-        <v>4.4817394E+16</v>
+        <v>4.4607227E+16</v>
       </c>
       <c r="AB59" s="7">
         <f t="shared" si="127"/>
-        <v>4.4978981E+16</v>
+        <v>4.4817394E+16</v>
       </c>
       <c r="AC59" s="7">
         <f t="shared" si="127"/>
-        <v>4.5196522E+16</v>
+        <v>4.4978981E+16</v>
       </c>
       <c r="AD59" s="7">
         <f t="shared" si="127"/>
-        <v>4.5565365E+16</v>
+        <v>4.5196522E+16</v>
       </c>
       <c r="AE59" s="7">
         <f t="shared" si="127"/>
-        <v>4.6018311E+16</v>
+        <v>4.5565365E+16</v>
       </c>
       <c r="AF59" s="7">
         <f t="shared" si="127"/>
-        <v>4.6380791E+16</v>
+        <v>4.6018311E+16</v>
       </c>
       <c r="AG59" s="7">
         <f t="shared" si="127"/>
-        <v>4.6616814E+16</v>
+        <v>4.6380791E+16</v>
       </c>
       <c r="AH59" s="7">
         <f t="shared" si="127"/>
-        <v>9259000000000</v>
+        <v>4.6616814E+16</v>
       </c>
       <c r="AI59" s="7"/>
       <c r="AJ59" s="7"/>
@@ -29338,127 +29338,127 @@
       </c>
       <c r="D61" s="7">
         <f t="shared" si="129"/>
-        <v>1.6659001906164646E-8</v>
+        <v>1.6964584563619144E-8</v>
       </c>
       <c r="E61" s="7">
         <f t="shared" si="129"/>
-        <v>1.633332260778482E-8</v>
+        <v>1.6391107337999616E-8</v>
       </c>
       <c r="F61" s="7">
         <f t="shared" si="129"/>
-        <v>1.5938940469292614E-8</v>
+        <v>1.599365947363827E-8</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="129"/>
-        <v>1.5796365472188511E-8</v>
+        <v>1.5897846374394123E-8</v>
       </c>
       <c r="H61" s="7">
         <f t="shared" si="129"/>
-        <v>1.5542430634876816E-8</v>
+        <v>1.5737828343886555E-8</v>
       </c>
       <c r="I61" s="7">
         <f t="shared" si="129"/>
-        <v>1.5387983577482287E-8</v>
+        <v>1.552202671309753E-8</v>
       </c>
       <c r="J61" s="7">
         <f t="shared" si="129"/>
-        <v>1.5290703997391406E-8</v>
+        <v>1.5326396887086182E-8</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="129"/>
-        <v>1.5160717822087081E-8</v>
+        <v>1.5265302174239533E-8</v>
       </c>
       <c r="L61" s="7">
         <f t="shared" si="129"/>
-        <v>1.5139812573409957E-8</v>
+        <v>1.5196227171895125E-8</v>
       </c>
       <c r="M61" s="7">
         <f t="shared" si="129"/>
-        <v>1.5143957513627196E-8</v>
+        <v>1.5134310383391806E-8</v>
       </c>
       <c r="N61" s="7">
         <f t="shared" si="129"/>
-        <v>1.5076157397545668E-8</v>
+        <v>1.5108712664529631E-8</v>
       </c>
       <c r="O61" s="7">
         <f t="shared" si="129"/>
-        <v>1.4993299119790887E-8</v>
+        <v>1.5051690515568565E-8</v>
       </c>
       <c r="P61" s="7">
         <f t="shared" si="129"/>
-        <v>1.4895049296468962E-8</v>
+        <v>1.4963465576534973E-8</v>
       </c>
       <c r="Q61" s="7">
         <f t="shared" si="129"/>
-        <v>1.4808506756578655E-8</v>
+        <v>1.4904066436664629E-8</v>
       </c>
       <c r="R61" s="7">
         <f t="shared" si="129"/>
-        <v>1.4798915663717432E-8</v>
+        <v>1.4841200637300945E-8</v>
       </c>
       <c r="S61" s="7">
         <f t="shared" si="129"/>
-        <v>1.4778937757444477E-8</v>
+        <v>1.4825132374842405E-8</v>
       </c>
       <c r="T61" s="7">
         <f t="shared" si="129"/>
-        <v>1.4782636664829227E-8</v>
+        <v>1.4832846245323927E-8</v>
       </c>
       <c r="U61" s="7">
         <f t="shared" si="129"/>
-        <v>1.4819733136619488E-8</v>
+        <v>1.4868810072548269E-8</v>
       </c>
       <c r="V61" s="7">
         <f t="shared" si="129"/>
-        <v>1.4842365727146975E-8</v>
+        <v>1.4886611471660016E-8</v>
       </c>
       <c r="W61" s="7">
         <f t="shared" si="129"/>
-        <v>1.4807197151697427E-8</v>
+        <v>1.4874266707947714E-8</v>
       </c>
       <c r="X61" s="7">
         <f t="shared" si="129"/>
-        <v>1.4706063295190545E-8</v>
+        <v>1.4744822417045016E-8</v>
       </c>
       <c r="Y61" s="7">
         <f t="shared" si="129"/>
-        <v>1.4629921505594481E-8</v>
+        <v>1.4669407841113884E-8</v>
       </c>
       <c r="Z61" s="7">
         <f t="shared" si="129"/>
-        <v>1.4584511868237685E-8</v>
+        <v>1.4626589924037171E-8</v>
       </c>
       <c r="AA61" s="7">
         <f t="shared" si="129"/>
-        <v>1.4564411230034924E-8</v>
+        <v>1.4601657120164081E-8</v>
       </c>
       <c r="AB61" s="7">
         <f t="shared" si="129"/>
-        <v>1.4600870423589869E-8</v>
+        <v>1.4629633634717602E-8</v>
       </c>
       <c r="AC61" s="7">
         <f t="shared" si="129"/>
-        <v>1.465340108919463E-8</v>
+        <v>1.4692430496539258E-8</v>
       </c>
       <c r="AD61" s="7">
         <f t="shared" si="129"/>
-        <v>1.4696130137857414E-8</v>
+        <v>1.4762815803387638E-8</v>
       </c>
       <c r="AE61" s="7">
         <f t="shared" si="129"/>
-        <v>1.4725457466583703E-8</v>
+        <v>1.4807761932649854E-8</v>
       </c>
       <c r="AF61" s="7">
         <f t="shared" si="129"/>
-        <v>1.4755802172009814E-8</v>
+        <v>1.4821866729629954E-8</v>
       </c>
       <c r="AG61" s="7">
         <f t="shared" si="129"/>
-        <v>1.4835151426470275E-8</v>
+        <v>1.4878565057623009E-8</v>
       </c>
       <c r="AH61" s="7">
         <f t="shared" si="129"/>
-        <v>3.636763349717255E-8</v>
+        <v>1.5074633000522288E-8</v>
       </c>
       <c r="AI61" s="7"/>
       <c r="AJ61" s="7"/>
@@ -33288,8 +33288,8 @@
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -33645,127 +33645,127 @@
       </c>
       <c r="C4" s="28">
         <f>SUM(Calculations!D49,Calculations!D55,Calculations!D61)</f>
-        <v>4.1092204701872802E-8</v>
+        <v>4.1845975256927227E-8</v>
       </c>
       <c r="D4" s="28">
         <f>SUM(Calculations!E49,Calculations!E55,Calculations!E61)</f>
-        <v>4.0288862432535892E-8</v>
+        <v>4.0431398100399054E-8</v>
       </c>
       <c r="E4" s="28">
         <f>SUM(Calculations!F49,Calculations!F55,Calculations!F61)</f>
-        <v>3.9316053157588455E-8</v>
+        <v>3.9451026701641067E-8</v>
       </c>
       <c r="F4" s="28">
         <f>SUM(Calculations!G49,Calculations!G55,Calculations!G61)</f>
-        <v>3.8964368164731665E-8</v>
+        <v>3.9214687723505507E-8</v>
       </c>
       <c r="G4" s="28">
         <f>SUM(Calculations!H49,Calculations!H55,Calculations!H61)</f>
-        <v>3.833799556602948E-8</v>
+        <v>3.8819976581586842E-8</v>
       </c>
       <c r="H4" s="28">
         <f>SUM(Calculations!I49,Calculations!I55,Calculations!I61)</f>
-        <v>3.7957026157789647E-8</v>
+        <v>3.8287665892307243E-8</v>
       </c>
       <c r="I4" s="28">
         <f>SUM(Calculations!J49,Calculations!J55,Calculations!J61)</f>
-        <v>3.7717069860232141E-8</v>
+        <v>3.7805112321479254E-8</v>
       </c>
       <c r="J4" s="28">
         <f>SUM(Calculations!K49,Calculations!K55,Calculations!K61)</f>
-        <v>3.7396437294481469E-8</v>
+        <v>3.765441202979085E-8</v>
       </c>
       <c r="K4" s="28">
         <f>SUM(Calculations!L49,Calculations!L55,Calculations!L61)</f>
-        <v>3.7344871014411223E-8</v>
+        <v>3.7484027024007976E-8</v>
       </c>
       <c r="L4" s="28">
         <f>SUM(Calculations!M49,Calculations!M55,Calculations!M61)</f>
-        <v>3.7355095200280417E-8</v>
+        <v>3.7331298945699793E-8</v>
       </c>
       <c r="M4" s="28">
         <f>SUM(Calculations!N49,Calculations!N55,Calculations!N61)</f>
-        <v>3.7187854913945984E-8</v>
+        <v>3.7268157905839758E-8</v>
       </c>
       <c r="N4" s="28">
         <f>SUM(Calculations!O49,Calculations!O55,Calculations!O61)</f>
-        <v>3.6983471162150855E-8</v>
+        <v>3.7127503271735796E-8</v>
       </c>
       <c r="O4" s="28">
         <f>SUM(Calculations!P49,Calculations!P55,Calculations!P61)</f>
-        <v>3.6741121597956781E-8</v>
+        <v>3.6909881755452932E-8</v>
       </c>
       <c r="P4" s="28">
         <f>SUM(Calculations!Q49,Calculations!Q55,Calculations!Q61)</f>
-        <v>3.652764999956069E-8</v>
+        <v>3.6763363877106087E-8</v>
       </c>
       <c r="Q4" s="28">
         <f>SUM(Calculations!R49,Calculations!R55,Calculations!R61)</f>
-        <v>3.6503991970503002E-8</v>
+        <v>3.6608294905342332E-8</v>
       </c>
       <c r="R4" s="28">
         <f>SUM(Calculations!S49,Calculations!S55,Calculations!S61)</f>
-        <v>3.6454713135029713E-8</v>
+        <v>3.65686598579446E-8</v>
       </c>
       <c r="S4" s="28">
         <f>SUM(Calculations!T49,Calculations!T55,Calculations!T61)</f>
-        <v>3.646383710657876E-8</v>
+        <v>3.6587687405132364E-8</v>
       </c>
       <c r="T4" s="28">
         <f>SUM(Calculations!U49,Calculations!U55,Calculations!U61)</f>
-        <v>3.6555341736994743E-8</v>
+        <v>3.6676398178952397E-8</v>
       </c>
       <c r="U4" s="28">
         <f>SUM(Calculations!V49,Calculations!V55,Calculations!V61)</f>
-        <v>3.6611168793629211E-8</v>
+        <v>3.6720308296761374E-8</v>
       </c>
       <c r="V4" s="28">
         <f>SUM(Calculations!W49,Calculations!W55,Calculations!W61)</f>
-        <v>3.6524419640853654E-8</v>
+        <v>3.6689857879604365E-8</v>
       </c>
       <c r="W4" s="28">
         <f>SUM(Calculations!X49,Calculations!X55,Calculations!X61)</f>
-        <v>3.6274956128136681E-8</v>
+        <v>3.6370561962044375E-8</v>
       </c>
       <c r="X4" s="28">
         <f>SUM(Calculations!Y49,Calculations!Y55,Calculations!Y61)</f>
-        <v>3.6087139713799726E-8</v>
+        <v>3.618453934141425E-8</v>
       </c>
       <c r="Y4" s="28">
         <f>SUM(Calculations!Z49,Calculations!Z55,Calculations!Z61)</f>
-        <v>3.5975129274986296E-8</v>
+        <v>3.6078921812625026E-8</v>
       </c>
       <c r="Z4" s="28">
         <f>SUM(Calculations!AA49,Calculations!AA55,Calculations!AA61)</f>
-        <v>3.5925547700752817E-8</v>
+        <v>3.6017420896404737E-8</v>
       </c>
       <c r="AA4" s="28">
         <f>SUM(Calculations!AB49,Calculations!AB55,Calculations!AB61)</f>
-        <v>3.6015480378188342E-8</v>
+        <v>3.6086429632303422E-8</v>
       </c>
       <c r="AB4" s="28">
         <f>SUM(Calculations!AC49,Calculations!AC55,Calculations!AC61)</f>
-        <v>3.6145056020013418E-8</v>
+        <v>3.6241328558130178E-8</v>
       </c>
       <c r="AC4" s="28">
         <f>SUM(Calculations!AD49,Calculations!AD55,Calculations!AD61)</f>
-        <v>3.6250454340048288E-8</v>
+        <v>3.6414945648356179E-8</v>
       </c>
       <c r="AD4" s="28">
         <f>SUM(Calculations!AE49,Calculations!AE55,Calculations!AE61)</f>
-        <v>3.6322795084239807E-8</v>
+        <v>3.6525812767202976E-8</v>
       </c>
       <c r="AE4" s="28">
         <f>SUM(Calculations!AF49,Calculations!AF55,Calculations!AF61)</f>
-        <v>3.6397645357624208E-8</v>
+        <v>3.6560604599753893E-8</v>
       </c>
       <c r="AF4" s="28">
         <f>SUM(Calculations!AG49,Calculations!AG55,Calculations!AG61)</f>
-        <v>3.6593373518626685E-8</v>
+        <v>3.6700460475470092E-8</v>
       </c>
       <c r="AG4" s="28">
         <f>SUM(Calculations!AH49,Calculations!AH55,Calculations!AH61)</f>
-        <v>8.9706829293025634E-8</v>
+        <v>3.7184094734621651E-8</v>
       </c>
       <c r="AH4" s="28"/>
       <c r="AI4" s="28"/>

--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -2621,7 +2621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -2968,7 +2968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -37815,7 +37815,7 @@
   <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+      <selection activeCell="B17" sqref="B17:AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -38719,97 +38719,97 @@
         <v>0</v>
       </c>
       <c r="C9" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9" s="31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9" s="31">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I9" s="31">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J9" s="31">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K9" s="31">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L9" s="31">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M9" s="31">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N9" s="31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O9" s="31">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P9" s="31">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R9" s="31">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="S9" s="31">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="T9" s="31">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U9" s="31">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="V9" s="31">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W9" s="31">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="X9" s="31">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="31">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="31">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="31">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="31">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="31">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="31">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="31">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="31">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="31">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="31"/>
       <c r="AI9" s="31"/>
@@ -39639,97 +39639,97 @@
         <v>0</v>
       </c>
       <c r="C17" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17" s="31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17" s="31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H17" s="31">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I17" s="31">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J17" s="31">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K17" s="31">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L17" s="31">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M17" s="31">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N17" s="31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O17" s="31">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P17" s="31">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R17" s="31">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="S17" s="31">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="T17" s="31">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U17" s="31">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="V17" s="31">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W17" s="31">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="X17" s="31">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="31">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="31">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="31">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="31">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="31">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="31">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="31">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="31">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="31">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="31"/>
       <c r="AI17" s="31"/>

--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -1236,9 +1236,6 @@
     <t>offshore wind ($/MW)</t>
   </si>
   <si>
-    <t>Model output, due to endogenous learning</t>
-  </si>
-  <si>
     <t>Solar PV  - $/MW</t>
   </si>
   <si>
@@ -1915,6 +1912,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Petroleum Products (billion 2019 dollars)</t>
+  </si>
+  <si>
+    <t>Model output, due to endogenous learning (variable Construction Cost per Unit Capacity before Construction Subsidies)</t>
   </si>
 </sst>
 </file>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B40" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.45">
@@ -2933,12 +2933,12 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" s="44" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.45">
@@ -5148,7 +5148,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="46" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C1" s="49">
         <v>2019</v>
@@ -5256,10 +5256,10 @@
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -5267,23 +5267,23 @@
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="48" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="48"/>
       <c r="G4" s="48" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="48" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
@@ -5291,11 +5291,11 @@
     </row>
     <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="48" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D6" s="48"/>
       <c r="E6" s="48" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
@@ -5305,7 +5305,7 @@
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="45" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>43</v>
@@ -5417,7 +5417,7 @@
         <v>45</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -5532,7 +5532,7 @@
     </row>
     <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B16" s="52" t="s">
         <v>48</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="45" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>49</v>
@@ -5746,7 +5746,7 @@
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="45" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B18" s="52" t="s">
         <v>50</v>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="45" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>51</v>
@@ -5960,7 +5960,7 @@
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B20" s="52" t="s">
         <v>52</v>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B21" s="52" t="s">
         <v>236</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="45" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B22" s="52" t="s">
         <v>53</v>
@@ -6281,7 +6281,7 @@
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B23" s="52" t="s">
         <v>54</v>
@@ -6388,7 +6388,7 @@
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="45" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>55</v>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B25" s="51" t="s">
         <v>56</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="45" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B28" s="52" t="s">
         <v>58</v>
@@ -6714,7 +6714,7 @@
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="45" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B29" s="52" t="s">
         <v>59</v>
@@ -6821,7 +6821,7 @@
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="45" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B30" s="52" t="s">
         <v>64</v>
@@ -6928,10 +6928,10 @@
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="45" t="s">
+        <v>416</v>
+      </c>
+      <c r="B31" s="52" t="s">
         <v>417</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>418</v>
       </c>
       <c r="C31" s="53">
         <v>0.29147099999999998</v>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="45" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B32" s="51" t="s">
         <v>56</v>
@@ -7148,10 +7148,10 @@
     </row>
     <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="45" t="s">
+        <v>419</v>
+      </c>
+      <c r="B35" s="52" t="s">
         <v>420</v>
-      </c>
-      <c r="B35" s="52" t="s">
-        <v>421</v>
       </c>
       <c r="C35" s="53">
         <v>16.702090999999999</v>
@@ -7255,7 +7255,7 @@
     </row>
     <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="45" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B36" s="52" t="s">
         <v>64</v>
@@ -7362,7 +7362,7 @@
     </row>
     <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="45" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B37" s="52" t="s">
         <v>61</v>
@@ -7469,7 +7469,7 @@
     </row>
     <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="45" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B38" s="51" t="s">
         <v>56</v>
@@ -7577,10 +7577,10 @@
     <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="B40" s="51" t="s">
         <v>425</v>
-      </c>
-      <c r="B40" s="51" t="s">
-        <v>426</v>
       </c>
       <c r="C40" s="55">
         <v>2.0051730000000001</v>
@@ -7690,10 +7690,10 @@
     </row>
     <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="45" t="s">
+        <v>426</v>
+      </c>
+      <c r="B43" s="52" t="s">
         <v>427</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>428</v>
       </c>
       <c r="C43" s="53">
         <v>38.035392999999999</v>
@@ -7797,7 +7797,7 @@
     </row>
     <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="45" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B44" s="52" t="s">
         <v>64</v>
@@ -7904,10 +7904,10 @@
     </row>
     <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="B45" s="52" t="s">
         <v>430</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>431</v>
       </c>
       <c r="C45" s="53">
         <v>11.249905999999999</v>
@@ -8011,7 +8011,7 @@
     </row>
     <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B46" s="52" t="s">
         <v>52</v>
@@ -8118,7 +8118,7 @@
     </row>
     <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="45" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B47" s="52" t="s">
         <v>236</v>
@@ -8225,10 +8225,10 @@
     </row>
     <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="B48" s="52" t="s">
         <v>434</v>
-      </c>
-      <c r="B48" s="52" t="s">
-        <v>435</v>
       </c>
       <c r="C48" s="53">
         <v>3.2253970000000001</v>
@@ -8332,7 +8332,7 @@
     </row>
     <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B49" s="52" t="s">
         <v>54</v>
@@ -8439,10 +8439,10 @@
     </row>
     <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="45" t="s">
+        <v>436</v>
+      </c>
+      <c r="B50" s="52" t="s">
         <v>437</v>
-      </c>
-      <c r="B50" s="52" t="s">
-        <v>438</v>
       </c>
       <c r="C50" s="53">
         <v>0.28126800000000002</v>
@@ -8546,7 +8546,7 @@
     </row>
     <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B51" s="51" t="s">
         <v>65</v>
@@ -8654,12 +8654,12 @@
     <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="51" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="45" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B54" s="52" t="s">
         <v>66</v>
@@ -8766,7 +8766,7 @@
     </row>
     <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B55" s="52" t="s">
         <v>67</v>
@@ -8873,10 +8873,10 @@
     </row>
     <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="45" t="s">
+        <v>441</v>
+      </c>
+      <c r="B56" s="52" t="s">
         <v>442</v>
-      </c>
-      <c r="B56" s="52" t="s">
-        <v>443</v>
       </c>
       <c r="C56" s="53">
         <v>2.5672429999999999</v>
@@ -8980,10 +8980,10 @@
     </row>
     <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="B57" s="52" t="s">
         <v>444</v>
-      </c>
-      <c r="B57" s="52" t="s">
-        <v>445</v>
       </c>
       <c r="C57" s="58">
         <v>34.304488999999997</v>
@@ -9087,10 +9087,10 @@
     </row>
     <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="B58" s="52" t="s">
         <v>446</v>
-      </c>
-      <c r="B58" s="52" t="s">
-        <v>447</v>
       </c>
       <c r="C58" s="53">
         <v>1.7060120000000001</v>
@@ -9194,10 +9194,10 @@
     </row>
     <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="45" t="s">
+        <v>447</v>
+      </c>
+      <c r="B59" s="52" t="s">
         <v>448</v>
-      </c>
-      <c r="B59" s="52" t="s">
-        <v>449</v>
       </c>
       <c r="C59" s="53">
         <v>2.1898119999999999</v>
@@ -9301,7 +9301,7 @@
     </row>
     <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="45" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B60" s="52" t="s">
         <v>68</v>
@@ -9413,7 +9413,7 @@
     </row>
     <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B64" s="52" t="s">
         <v>66</v>
@@ -9520,7 +9520,7 @@
     </row>
     <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B65" s="52" t="s">
         <v>67</v>
@@ -9627,10 +9627,10 @@
     </row>
     <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="45" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B66" s="52" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C66" s="53">
         <v>2.5672429999999999</v>
@@ -9734,10 +9734,10 @@
     </row>
     <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="45" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B67" s="52" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C67" s="58">
         <v>34.304488999999997</v>
@@ -9841,10 +9841,10 @@
     </row>
     <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C68" s="53">
         <v>1.7060120000000001</v>
@@ -9948,10 +9948,10 @@
     </row>
     <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="45" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B69" s="52" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C69" s="53">
         <v>2.1898119999999999</v>
@@ -10055,7 +10055,7 @@
     </row>
     <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="45" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B70" s="52" t="s">
         <v>68</v>
@@ -10236,7 +10236,7 @@
     </row>
     <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="47" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10246,22 +10246,22 @@
     </row>
     <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="47" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="47" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="47" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="47" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="86" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10276,12 +10276,12 @@
     </row>
     <row r="88" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="47" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="89" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="47" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="90" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10291,12 +10291,12 @@
     </row>
     <row r="91" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="47" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="47" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="93" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10306,7 +10306,7 @@
     </row>
     <row r="94" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="47" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="95" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10316,7 +10316,7 @@
     </row>
     <row r="96" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="47" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10326,17 +10326,17 @@
     </row>
     <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="47" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="47" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -10386,7 +10386,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="46" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C1" s="49">
         <v>2019</v>
@@ -10494,10 +10494,10 @@
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -10505,23 +10505,23 @@
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="48" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="48"/>
       <c r="G4" s="48" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="48" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
@@ -10529,11 +10529,11 @@
     </row>
     <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="48" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D6" s="48"/>
       <c r="E6" s="48" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
@@ -10543,7 +10543,7 @@
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="45" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>138</v>
@@ -10655,7 +10655,7 @@
         <v>45</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -10781,7 +10781,7 @@
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="45" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>143</v>
@@ -10888,7 +10888,7 @@
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="45" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B20" s="52" t="s">
         <v>144</v>
@@ -10995,7 +10995,7 @@
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="45" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B21" s="52" t="s">
         <v>145</v>
@@ -11102,7 +11102,7 @@
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="45" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B22" s="52" t="s">
         <v>146</v>
@@ -11209,7 +11209,7 @@
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="45" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B23" s="52" t="s">
         <v>147</v>
@@ -11316,7 +11316,7 @@
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="45" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>148</v>
@@ -11423,7 +11423,7 @@
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="45" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B25" s="52" t="s">
         <v>149</v>
@@ -11530,7 +11530,7 @@
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="45" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B26" s="51" t="s">
         <v>150</v>
@@ -11642,7 +11642,7 @@
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B28" s="52" t="s">
         <v>143</v>
@@ -11749,7 +11749,7 @@
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="45" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B29" s="52" t="s">
         <v>144</v>
@@ -11856,7 +11856,7 @@
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="45" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B30" s="52" t="s">
         <v>152</v>
@@ -11963,7 +11963,7 @@
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="45" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B31" s="52" t="s">
         <v>153</v>
@@ -12070,10 +12070,10 @@
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="45" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C32" s="57">
         <v>0.22128500000000001</v>
@@ -12177,7 +12177,7 @@
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="45" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B33" s="51" t="s">
         <v>150</v>
@@ -12284,7 +12284,7 @@
     </row>
     <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="45" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B34" s="51" t="s">
         <v>238</v>
@@ -12391,7 +12391,7 @@
     </row>
     <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="45" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B35" s="52" t="s">
         <v>154</v>
@@ -12499,7 +12499,7 @@
     <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="45" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B37" s="51" t="s">
         <v>155</v>
@@ -12612,7 +12612,7 @@
     </row>
     <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="45" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B40" s="52" t="s">
         <v>143</v>
@@ -12719,7 +12719,7 @@
     </row>
     <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="45" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B41" s="52" t="s">
         <v>144</v>
@@ -12826,7 +12826,7 @@
     </row>
     <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="45" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B42" s="52" t="s">
         <v>152</v>
@@ -12933,7 +12933,7 @@
     </row>
     <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="45" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B43" s="52" t="s">
         <v>157</v>
@@ -13040,7 +13040,7 @@
     </row>
     <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="45" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B44" s="52" t="s">
         <v>158</v>
@@ -13147,7 +13147,7 @@
     </row>
     <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="45" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B45" s="52" t="s">
         <v>159</v>
@@ -13254,7 +13254,7 @@
     </row>
     <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="45" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B46" s="51" t="s">
         <v>239</v>
@@ -13361,7 +13361,7 @@
     </row>
     <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="45" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B47" s="52" t="s">
         <v>160</v>
@@ -13468,7 +13468,7 @@
     </row>
     <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="45" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B48" s="51" t="s">
         <v>161</v>
@@ -13581,7 +13581,7 @@
     </row>
     <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B51" s="52" t="s">
         <v>143</v>
@@ -13688,7 +13688,7 @@
     </row>
     <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B52" s="52" t="s">
         <v>144</v>
@@ -13795,7 +13795,7 @@
     </row>
     <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="45" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B53" s="52" t="s">
         <v>152</v>
@@ -13902,7 +13902,7 @@
     </row>
     <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="45" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B54" s="52" t="s">
         <v>146</v>
@@ -14009,7 +14009,7 @@
     </row>
     <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="45" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B55" s="52" t="s">
         <v>162</v>
@@ -14116,7 +14116,7 @@
     </row>
     <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B56" s="52" t="s">
         <v>163</v>
@@ -14223,7 +14223,7 @@
     </row>
     <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B57" s="51" t="s">
         <v>241</v>
@@ -14330,7 +14330,7 @@
     </row>
     <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="45" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B58" s="51" t="s">
         <v>164</v>
@@ -14438,7 +14438,7 @@
     <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="45" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B60" s="51" t="s">
         <v>165</v>
@@ -14551,7 +14551,7 @@
     </row>
     <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="45" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B63" s="52" t="s">
         <v>167</v>
@@ -14658,7 +14658,7 @@
     </row>
     <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="45" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B64" s="52" t="s">
         <v>168</v>
@@ -14765,7 +14765,7 @@
     </row>
     <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="45" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B65" s="52" t="s">
         <v>169</v>
@@ -14872,7 +14872,7 @@
     </row>
     <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B66" s="52" t="s">
         <v>170</v>
@@ -14979,7 +14979,7 @@
     </row>
     <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="45" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B67" s="51" t="s">
         <v>171</v>
@@ -15086,7 +15086,7 @@
     </row>
     <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B68" s="52" t="s">
         <v>172</v>
@@ -15193,7 +15193,7 @@
     </row>
     <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="45" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B69" s="51" t="s">
         <v>173</v>
@@ -15306,12 +15306,12 @@
     </row>
     <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="51" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="73" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B73" s="52" t="s">
         <v>167</v>
@@ -15418,7 +15418,7 @@
     </row>
     <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="45" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B74" s="52" t="s">
         <v>168</v>
@@ -15525,7 +15525,7 @@
     </row>
     <row r="75" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B75" s="52" t="s">
         <v>169</v>
@@ -15632,7 +15632,7 @@
     </row>
     <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="45" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B76" s="52" t="s">
         <v>170</v>
@@ -15739,7 +15739,7 @@
     </row>
     <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="45" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B77" s="51" t="s">
         <v>175</v>
@@ -15851,7 +15851,7 @@
     </row>
     <row r="79" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="45" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B79" s="52" t="s">
         <v>167</v>
@@ -15958,7 +15958,7 @@
     </row>
     <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="45" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B80" s="52" t="s">
         <v>168</v>
@@ -16065,7 +16065,7 @@
     </row>
     <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="45" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B81" s="52" t="s">
         <v>169</v>
@@ -16172,7 +16172,7 @@
     </row>
     <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="45" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B82" s="52" t="s">
         <v>170</v>
@@ -16279,7 +16279,7 @@
     </row>
     <row r="83" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="45" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B83" s="51" t="s">
         <v>175</v>
@@ -16392,12 +16392,12 @@
     </row>
     <row r="86" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="51" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="87" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B87" s="52" t="s">
         <v>178</v>
@@ -16504,7 +16504,7 @@
     </row>
     <row r="88" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="45" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B88" s="52" t="s">
         <v>179</v>
@@ -16611,7 +16611,7 @@
     </row>
     <row r="89" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="45" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B89" s="52" t="s">
         <v>180</v>
@@ -16723,7 +16723,7 @@
     </row>
     <row r="91" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B91" s="52" t="s">
         <v>178</v>
@@ -16830,7 +16830,7 @@
     </row>
     <row r="92" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="45" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B92" s="52" t="s">
         <v>179</v>
@@ -16937,7 +16937,7 @@
     </row>
     <row r="93" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="45" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B93" s="52" t="s">
         <v>180</v>
@@ -17050,7 +17050,7 @@
     </row>
     <row r="96" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="45" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B96" s="52" t="s">
         <v>182</v>
@@ -17157,7 +17157,7 @@
     </row>
     <row r="97" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="45" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B97" s="52" t="s">
         <v>183</v>
@@ -17264,7 +17264,7 @@
     </row>
     <row r="98" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B98" s="52" t="s">
         <v>184</v>
@@ -17420,7 +17420,7 @@
     </row>
     <row r="103" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="47" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -17495,17 +17495,17 @@
     </row>
     <row r="118" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B118" s="47" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="119" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B119" s="47" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="120" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B120" s="47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="121" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -17549,7 +17549,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="46" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C1" s="49">
         <v>2019</v>
@@ -17657,10 +17657,10 @@
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -17668,23 +17668,23 @@
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="48" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="48"/>
       <c r="G4" s="48" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="48" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
@@ -17692,11 +17692,11 @@
     </row>
     <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="48" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D6" s="48"/>
       <c r="E6" s="48" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
@@ -17706,7 +17706,7 @@
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="45" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>89</v>
@@ -17818,7 +17818,7 @@
         <v>45</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -17933,7 +17933,7 @@
     </row>
     <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="45" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B16" s="52" t="s">
         <v>93</v>
@@ -18040,7 +18040,7 @@
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="45" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>94</v>
@@ -18147,7 +18147,7 @@
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="45" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B18" s="52" t="s">
         <v>95</v>
@@ -18254,7 +18254,7 @@
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="45" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>96</v>
@@ -18361,7 +18361,7 @@
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="45" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B20" s="52" t="s">
         <v>97</v>
@@ -18468,7 +18468,7 @@
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="45" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B21" s="52" t="s">
         <v>98</v>
@@ -18575,7 +18575,7 @@
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="45" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B22" s="52" t="s">
         <v>99</v>
@@ -18682,7 +18682,7 @@
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="45" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B23" s="51" t="s">
         <v>100</v>
@@ -18790,7 +18790,7 @@
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="45" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B25" s="52" t="s">
         <v>242</v>
@@ -18897,7 +18897,7 @@
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="45" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B26" s="52" t="s">
         <v>243</v>
@@ -19004,7 +19004,7 @@
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="45" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B27" s="52" t="s">
         <v>244</v>
@@ -19111,7 +19111,7 @@
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="45" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B28" s="52" t="s">
         <v>245</v>
@@ -19218,7 +19218,7 @@
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="45" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B29" s="52" t="s">
         <v>246</v>
@@ -19325,7 +19325,7 @@
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="45" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B30" s="52" t="s">
         <v>247</v>
@@ -19432,7 +19432,7 @@
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="45" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B31" s="52" t="s">
         <v>248</v>
@@ -19539,7 +19539,7 @@
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="45" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B32" s="52" t="s">
         <v>249</v>
@@ -19646,10 +19646,10 @@
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="45" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C33" s="53">
         <v>1.0901460000000001</v>
@@ -19753,7 +19753,7 @@
     </row>
     <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="45" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B34" s="52" t="s">
         <v>250</v>
@@ -19860,7 +19860,7 @@
     </row>
     <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="45" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B35" s="52" t="s">
         <v>251</v>
@@ -19967,7 +19967,7 @@
     </row>
     <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="45" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B36" s="52" t="s">
         <v>252</v>
@@ -20074,7 +20074,7 @@
     </row>
     <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="45" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B37" s="52" t="s">
         <v>253</v>
@@ -20181,7 +20181,7 @@
     </row>
     <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="45" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B38" s="52" t="s">
         <v>254</v>
@@ -20288,7 +20288,7 @@
     </row>
     <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="45" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B39" s="52" t="s">
         <v>251</v>
@@ -20395,7 +20395,7 @@
     </row>
     <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="45" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B40" s="52" t="s">
         <v>252</v>
@@ -20502,7 +20502,7 @@
     </row>
     <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="45" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B41" s="52" t="s">
         <v>253</v>
@@ -20609,7 +20609,7 @@
     </row>
     <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="45" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B42" s="52" t="s">
         <v>255</v>
@@ -20716,7 +20716,7 @@
     </row>
     <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="45" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B43" s="52" t="s">
         <v>251</v>
@@ -20823,7 +20823,7 @@
     </row>
     <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="45" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B44" s="52" t="s">
         <v>252</v>
@@ -20930,7 +20930,7 @@
     </row>
     <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="45" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B45" s="52" t="s">
         <v>253</v>
@@ -21037,7 +21037,7 @@
     </row>
     <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="45" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B46" s="52" t="s">
         <v>256</v>
@@ -21144,7 +21144,7 @@
     </row>
     <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="45" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B47" s="52" t="s">
         <v>257</v>
@@ -21251,7 +21251,7 @@
     </row>
     <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="45" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B48" s="52" t="s">
         <v>258</v>
@@ -21359,7 +21359,7 @@
     <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="45" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B50" s="51" t="s">
         <v>101</v>
@@ -21478,7 +21478,7 @@
     </row>
     <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="45" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B55" s="52" t="s">
         <v>104</v>
@@ -21585,7 +21585,7 @@
     </row>
     <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="45" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B56" s="52" t="s">
         <v>105</v>
@@ -21692,7 +21692,7 @@
     </row>
     <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="45" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B57" s="52" t="s">
         <v>259</v>
@@ -21799,7 +21799,7 @@
     </row>
     <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="45" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B58" s="52" t="s">
         <v>106</v>
@@ -21906,7 +21906,7 @@
     </row>
     <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="45" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B59" s="52" t="s">
         <v>107</v>
@@ -22013,7 +22013,7 @@
     </row>
     <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="45" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B60" s="52" t="s">
         <v>108</v>
@@ -22120,7 +22120,7 @@
     </row>
     <row r="61" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="45" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B61" s="52" t="s">
         <v>109</v>
@@ -22227,7 +22227,7 @@
     </row>
     <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="45" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B62" s="52" t="s">
         <v>110</v>
@@ -22339,7 +22339,7 @@
     </row>
     <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="45" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B64" s="52" t="s">
         <v>112</v>
@@ -22446,7 +22446,7 @@
     </row>
     <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="45" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B65" s="52" t="s">
         <v>113</v>
@@ -22553,7 +22553,7 @@
     </row>
     <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="45" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B66" s="52" t="s">
         <v>114</v>
@@ -22660,7 +22660,7 @@
     </row>
     <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="45" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B67" s="52" t="s">
         <v>115</v>
@@ -22767,7 +22767,7 @@
     </row>
     <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="45" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B68" s="52" t="s">
         <v>260</v>
@@ -22874,7 +22874,7 @@
     </row>
     <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="45" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B69" s="51" t="s">
         <v>116</v>
@@ -22982,7 +22982,7 @@
     <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="45" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B71" s="52" t="s">
         <v>261</v>
@@ -23090,7 +23090,7 @@
     <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="73" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="45" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B73" s="52" t="s">
         <v>262</v>
@@ -23197,7 +23197,7 @@
     </row>
     <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="45" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B74" s="52" t="s">
         <v>263</v>
@@ -23304,10 +23304,10 @@
     </row>
     <row r="75" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="45" t="s">
+        <v>580</v>
+      </c>
+      <c r="B75" s="52" t="s">
         <v>581</v>
-      </c>
-      <c r="B75" s="52" t="s">
-        <v>582</v>
       </c>
       <c r="C75" s="53">
         <v>9.2183740000000007</v>
@@ -23411,10 +23411,10 @@
     </row>
     <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="45" t="s">
+        <v>582</v>
+      </c>
+      <c r="B76" s="52" t="s">
         <v>583</v>
-      </c>
-      <c r="B76" s="52" t="s">
-        <v>584</v>
       </c>
       <c r="C76" s="53">
         <v>8.7448569999999997</v>
@@ -23518,10 +23518,10 @@
     </row>
     <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="45" t="s">
+        <v>584</v>
+      </c>
+      <c r="B77" s="52" t="s">
         <v>585</v>
-      </c>
-      <c r="B77" s="52" t="s">
-        <v>586</v>
       </c>
       <c r="C77" s="53">
         <v>0.47351700000000002</v>
@@ -23625,7 +23625,7 @@
     </row>
     <row r="78" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="45" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B78" s="52" t="s">
         <v>117</v>
@@ -23737,10 +23737,10 @@
     </row>
     <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C80" s="57">
         <v>173.50422699999999</v>
@@ -23944,7 +23944,7 @@
     </row>
     <row r="96" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="47" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -23954,17 +23954,17 @@
     </row>
     <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="47" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="47" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -24009,17 +24009,17 @@
     </row>
     <row r="109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B109" s="47" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B110" s="47" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B111" s="47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="112" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -24059,8 +24059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47:AH47"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -24116,7 +24116,7 @@
     </row>
     <row r="2" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="13"/>
@@ -24263,103 +24263,103 @@
         <v>304</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>395</v>
+        <v>621</v>
       </c>
       <c r="C4" s="7">
-        <v>1122140</v>
+        <v>1284590</v>
       </c>
       <c r="D4" s="7">
-        <v>1093330</v>
+        <v>1221260</v>
       </c>
       <c r="E4" s="7">
-        <v>1068540</v>
+        <v>1163880</v>
       </c>
       <c r="F4" s="7">
-        <v>1046900</v>
+        <v>1116630</v>
       </c>
       <c r="G4" s="7">
-        <v>1027790</v>
+        <v>1067190</v>
       </c>
       <c r="H4" s="7">
-        <v>1010730</v>
+        <v>1024270</v>
       </c>
       <c r="I4" s="8">
-        <v>995371</v>
+        <v>981536</v>
       </c>
       <c r="J4" s="8">
-        <v>979717</v>
+        <v>928581</v>
       </c>
       <c r="K4" s="8">
-        <v>965590</v>
+        <v>881475</v>
       </c>
       <c r="L4" s="8">
-        <v>952751</v>
+        <v>840697</v>
       </c>
       <c r="M4" s="8">
-        <v>941011</v>
+        <v>800405</v>
       </c>
       <c r="N4" s="8">
-        <v>930219</v>
+        <v>760881</v>
       </c>
       <c r="O4" s="8">
-        <v>920839</v>
+        <v>750426</v>
       </c>
       <c r="P4" s="8">
-        <v>912101</v>
+        <v>740565</v>
       </c>
       <c r="Q4" s="8">
-        <v>903931</v>
+        <v>731346</v>
       </c>
       <c r="R4" s="8">
-        <v>896269</v>
+        <v>722375</v>
       </c>
       <c r="S4" s="8">
-        <v>889064</v>
+        <v>713743</v>
       </c>
       <c r="T4" s="8">
-        <v>881185</v>
+        <v>706003</v>
       </c>
       <c r="U4" s="8">
-        <v>873806</v>
+        <v>698929</v>
       </c>
       <c r="V4" s="8">
-        <v>866873</v>
+        <v>692286</v>
       </c>
       <c r="W4" s="8">
-        <v>860342</v>
+        <v>686161</v>
       </c>
       <c r="X4" s="8">
-        <v>854175</v>
+        <v>680812</v>
       </c>
       <c r="Y4" s="8">
-        <v>848033</v>
+        <v>675443</v>
       </c>
       <c r="Z4" s="8">
-        <v>842223</v>
+        <v>670805</v>
       </c>
       <c r="AA4" s="8">
-        <v>836717</v>
+        <v>666412</v>
       </c>
       <c r="AB4" s="8">
-        <v>831488</v>
+        <v>662174</v>
       </c>
       <c r="AC4" s="8">
-        <v>826512</v>
+        <v>658407</v>
       </c>
       <c r="AD4" s="8">
-        <v>821449</v>
+        <v>654639</v>
       </c>
       <c r="AE4" s="8">
-        <v>816631</v>
+        <v>651301</v>
       </c>
       <c r="AF4" s="8">
-        <v>812038</v>
+        <v>648071</v>
       </c>
       <c r="AG4" s="8">
-        <v>807654</v>
+        <v>645034</v>
       </c>
       <c r="AH4" s="8">
-        <v>803461</v>
+        <v>642140</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.45">
@@ -24501,137 +24501,137 @@
       </c>
       <c r="C6" s="31">
         <f t="shared" ref="C6:AH6" si="1">C5*C4</f>
-        <v>336642</v>
+        <v>385377</v>
       </c>
       <c r="D6" s="31">
         <f t="shared" si="1"/>
-        <v>284265.8</v>
+        <v>317527.60000000003</v>
       </c>
       <c r="E6" s="31">
         <f t="shared" si="1"/>
-        <v>235078.8</v>
+        <v>256053.6</v>
       </c>
       <c r="F6" s="31">
         <f t="shared" si="1"/>
-        <v>104690</v>
+        <v>111663</v>
       </c>
       <c r="G6" s="31">
         <f t="shared" si="1"/>
-        <v>102779</v>
+        <v>106719</v>
       </c>
       <c r="H6" s="31">
         <f t="shared" si="1"/>
-        <v>101073</v>
+        <v>102427</v>
       </c>
       <c r="I6" s="31">
         <f t="shared" si="1"/>
-        <v>99537.1</v>
+        <v>98153.600000000006</v>
       </c>
       <c r="J6" s="31">
         <f t="shared" si="1"/>
-        <v>97971.700000000012</v>
+        <v>92858.1</v>
       </c>
       <c r="K6" s="31">
         <f t="shared" si="1"/>
-        <v>96559</v>
+        <v>88147.5</v>
       </c>
       <c r="L6" s="31">
         <f t="shared" si="1"/>
-        <v>95275.1</v>
+        <v>84069.700000000012</v>
       </c>
       <c r="M6" s="31">
         <f t="shared" si="1"/>
-        <v>94101.1</v>
+        <v>80040.5</v>
       </c>
       <c r="N6" s="31">
         <f t="shared" si="1"/>
-        <v>93021.900000000009</v>
+        <v>76088.100000000006</v>
       </c>
       <c r="O6" s="31">
         <f t="shared" si="1"/>
-        <v>92083.900000000009</v>
+        <v>75042.600000000006</v>
       </c>
       <c r="P6" s="31">
         <f t="shared" si="1"/>
-        <v>91210.1</v>
+        <v>74056.5</v>
       </c>
       <c r="Q6" s="31">
         <f t="shared" si="1"/>
-        <v>90393.1</v>
+        <v>73134.600000000006</v>
       </c>
       <c r="R6" s="31">
         <f t="shared" si="1"/>
-        <v>89626.900000000009</v>
+        <v>72237.5</v>
       </c>
       <c r="S6" s="31">
         <f t="shared" si="1"/>
-        <v>88906.400000000009</v>
+        <v>71374.3</v>
       </c>
       <c r="T6" s="31">
         <f t="shared" si="1"/>
-        <v>88118.5</v>
+        <v>70600.3</v>
       </c>
       <c r="U6" s="31">
         <f t="shared" si="1"/>
-        <v>87380.6</v>
+        <v>69892.900000000009</v>
       </c>
       <c r="V6" s="31">
         <f t="shared" si="1"/>
-        <v>86687.3</v>
+        <v>69228.600000000006</v>
       </c>
       <c r="W6" s="31">
         <f t="shared" si="1"/>
-        <v>86034.200000000012</v>
+        <v>68616.100000000006</v>
       </c>
       <c r="X6" s="31">
         <f t="shared" si="1"/>
-        <v>85417.5</v>
+        <v>68081.2</v>
       </c>
       <c r="Y6" s="31">
         <f t="shared" si="1"/>
-        <v>84803.3</v>
+        <v>67544.3</v>
       </c>
       <c r="Z6" s="31">
         <f t="shared" si="1"/>
-        <v>84222.3</v>
+        <v>67080.5</v>
       </c>
       <c r="AA6" s="31">
         <f t="shared" si="1"/>
-        <v>83671.700000000012</v>
+        <v>66641.2</v>
       </c>
       <c r="AB6" s="31">
         <f t="shared" si="1"/>
-        <v>83148.800000000003</v>
+        <v>66217.400000000009</v>
       </c>
       <c r="AC6" s="31">
         <f t="shared" si="1"/>
-        <v>82651.200000000012</v>
+        <v>65840.7</v>
       </c>
       <c r="AD6" s="31">
         <f t="shared" si="1"/>
-        <v>82144.900000000009</v>
+        <v>65463.9</v>
       </c>
       <c r="AE6" s="31">
         <f t="shared" si="1"/>
-        <v>81663.100000000006</v>
+        <v>65130.100000000006</v>
       </c>
       <c r="AF6" s="31">
         <f t="shared" si="1"/>
-        <v>81203.8</v>
+        <v>64807.100000000006</v>
       </c>
       <c r="AG6" s="31">
         <f t="shared" si="1"/>
-        <v>80765.400000000009</v>
+        <v>64503.4</v>
       </c>
       <c r="AH6" s="31">
         <f t="shared" si="1"/>
-        <v>80346.100000000006</v>
+        <v>64214</v>
       </c>
     </row>
     <row r="7" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="13"/>
@@ -24776,103 +24776,103 @@
         <v>308</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>395</v>
+        <v>621</v>
       </c>
       <c r="C10" s="7">
-        <v>3652290</v>
+        <v>6831840</v>
       </c>
       <c r="D10" s="7">
-        <v>3497620</v>
+        <v>6500520</v>
       </c>
       <c r="E10" s="7">
-        <v>3342950</v>
+        <v>6169200</v>
       </c>
       <c r="F10" s="7">
-        <v>3270970</v>
+        <v>5843880</v>
       </c>
       <c r="G10" s="7">
-        <v>3198990</v>
+        <v>5630240</v>
       </c>
       <c r="H10" s="7">
-        <v>3127010</v>
+        <v>5422800</v>
       </c>
       <c r="I10" s="7">
-        <v>3055030</v>
+        <v>5233450</v>
       </c>
       <c r="J10" s="7">
-        <v>2983060</v>
+        <v>5058220</v>
       </c>
       <c r="K10" s="7">
-        <v>2911080</v>
+        <v>4898610</v>
       </c>
       <c r="L10" s="7">
-        <v>2839100</v>
+        <v>4753980</v>
       </c>
       <c r="M10" s="7">
-        <v>2767120</v>
+        <v>4620220</v>
       </c>
       <c r="N10" s="7">
-        <v>2695140</v>
+        <v>4501030</v>
       </c>
       <c r="O10" s="7">
-        <v>2623160</v>
+        <v>4393600</v>
       </c>
       <c r="P10" s="7">
-        <v>2608110</v>
+        <v>4297490</v>
       </c>
       <c r="Q10" s="7">
-        <v>2593050</v>
+        <v>4212530</v>
       </c>
       <c r="R10" s="7">
-        <v>2577990</v>
+        <v>4135500</v>
       </c>
       <c r="S10" s="7">
-        <v>2562930</v>
+        <v>4069500</v>
       </c>
       <c r="T10" s="7">
-        <v>2547870</v>
+        <v>4010230</v>
       </c>
       <c r="U10" s="7">
-        <v>2532810</v>
+        <v>3958590</v>
       </c>
       <c r="V10" s="7">
-        <v>2517760</v>
+        <v>3914720</v>
       </c>
       <c r="W10" s="7">
-        <v>2502700</v>
+        <v>3876450</v>
       </c>
       <c r="X10" s="7">
-        <v>2487640</v>
+        <v>3843370</v>
       </c>
       <c r="Y10" s="7">
-        <v>2472580</v>
+        <v>3814240</v>
       </c>
       <c r="Z10" s="7">
-        <v>2457520</v>
+        <v>3789350</v>
       </c>
       <c r="AA10" s="7">
-        <v>2442460</v>
+        <v>3768370</v>
       </c>
       <c r="AB10" s="7">
-        <v>2427400</v>
+        <v>3749030</v>
       </c>
       <c r="AC10" s="7">
-        <v>2412350</v>
+        <v>3730660</v>
       </c>
       <c r="AD10" s="7">
-        <v>2397290</v>
+        <v>3714590</v>
       </c>
       <c r="AE10" s="7">
-        <v>2382230</v>
+        <v>3697200</v>
       </c>
       <c r="AF10" s="7">
-        <v>2367170</v>
+        <v>3680150</v>
       </c>
       <c r="AG10" s="7">
-        <v>2352110</v>
+        <v>3662120</v>
       </c>
       <c r="AH10" s="7">
-        <v>2337050</v>
+        <v>3640820</v>
       </c>
     </row>
     <row r="11" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.45">
@@ -25014,136 +25014,136 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" ref="C12:AH12" si="3">C11*C10</f>
-        <v>1095687</v>
+        <v>2049552</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="3"/>
-        <v>909381.20000000007</v>
+        <v>1690135.2</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="3"/>
-        <v>735449</v>
+        <v>1357224</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="3"/>
-        <v>327097</v>
+        <v>584388</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="3"/>
-        <v>319899</v>
+        <v>563024</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="3"/>
-        <v>312701</v>
+        <v>542280</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="3"/>
-        <v>305503</v>
+        <v>523345</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" si="3"/>
-        <v>298306</v>
+        <v>505822</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" si="3"/>
-        <v>291108</v>
+        <v>489861</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" si="3"/>
-        <v>283910</v>
+        <v>475398</v>
       </c>
       <c r="M12" s="8">
         <f t="shared" si="3"/>
-        <v>276712</v>
+        <v>462022</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" si="3"/>
-        <v>269514</v>
+        <v>450103</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" si="3"/>
-        <v>262316</v>
+        <v>439360</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" si="3"/>
-        <v>260811</v>
+        <v>429749</v>
       </c>
       <c r="Q12" s="8">
         <f t="shared" si="3"/>
-        <v>259305</v>
+        <v>421253</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="3"/>
-        <v>257799</v>
+        <v>413550</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" si="3"/>
-        <v>256293</v>
+        <v>406950</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="3"/>
-        <v>254787</v>
+        <v>401023</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="3"/>
-        <v>253281</v>
+        <v>395859</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="3"/>
-        <v>251776</v>
+        <v>391472</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="3"/>
-        <v>250270</v>
+        <v>387645</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="3"/>
-        <v>248764</v>
+        <v>384337</v>
       </c>
       <c r="Y12" s="8">
         <f t="shared" si="3"/>
-        <v>247258</v>
+        <v>381424</v>
       </c>
       <c r="Z12" s="8">
         <f t="shared" si="3"/>
-        <v>245752</v>
+        <v>378935</v>
       </c>
       <c r="AA12" s="8">
         <f t="shared" si="3"/>
-        <v>244246</v>
+        <v>376837</v>
       </c>
       <c r="AB12" s="8">
         <f t="shared" si="3"/>
-        <v>242740</v>
+        <v>374903</v>
       </c>
       <c r="AC12" s="8">
         <f t="shared" si="3"/>
-        <v>241235</v>
+        <v>373066</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" si="3"/>
-        <v>239729</v>
+        <v>371459</v>
       </c>
       <c r="AE12" s="8">
         <f t="shared" si="3"/>
-        <v>238223</v>
+        <v>369720</v>
       </c>
       <c r="AF12" s="8">
         <f t="shared" si="3"/>
-        <v>236717</v>
+        <v>368015</v>
       </c>
       <c r="AG12" s="8">
         <f t="shared" si="3"/>
-        <v>235211</v>
+        <v>366212</v>
       </c>
       <c r="AH12" s="8">
         <f t="shared" si="3"/>
-        <v>233705</v>
+        <v>364082</v>
       </c>
     </row>
     <row r="14" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="13"/>
@@ -25656,7 +25656,7 @@
     <row r="19" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="20" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A20" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -26213,7 +26213,7 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -35223,7 +35223,7 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B18" s="28">
         <f>SUM(Calculations!C$69,Calculations!C$77,Calculations!C$85,Calculations!C$93,Calculations!C$100)</f>
@@ -35358,7 +35358,7 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B19" s="28">
         <f>SUM(Calculations!C$69,Calculations!C$77,Calculations!C$85,Calculations!C$93,Calculations!C$100)</f>
@@ -35493,7 +35493,7 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B20" s="6">
         <v>0</v>
@@ -35594,7 +35594,7 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B21" s="6">
         <v>0</v>
@@ -35695,7 +35695,7 @@
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B22" s="6">
         <v>0</v>
@@ -37431,7 +37431,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B15">
         <f>B11</f>
@@ -37566,7 +37566,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B16">
         <f>B11</f>
@@ -37701,7 +37701,7 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -38447,131 +38447,131 @@
       </c>
       <c r="B7" s="31">
         <f>(Calculations!C6)*(About!$A$70)</f>
-        <v>326879.38199999998</v>
+        <v>374201.06699999998</v>
       </c>
       <c r="C7" s="31">
         <f>(Calculations!D6)*(About!$A$70)</f>
-        <v>276022.09179999999</v>
+        <v>308319.29960000003</v>
       </c>
       <c r="D7" s="31">
         <f>(Calculations!E6)*(About!$A$70)</f>
-        <v>228261.51479999998</v>
+        <v>248628.04560000001</v>
       </c>
       <c r="E7" s="31">
         <f>(Calculations!F6)*(About!$A$70)</f>
-        <v>101653.98999999999</v>
+        <v>108424.773</v>
       </c>
       <c r="F7" s="31">
         <f>(Calculations!G6)*(About!$A$70)</f>
-        <v>99798.409</v>
+        <v>103624.14899999999</v>
       </c>
       <c r="G7" s="31">
         <f>(Calculations!H6)*(About!$A$70)</f>
-        <v>98141.883000000002</v>
+        <v>99456.616999999998</v>
       </c>
       <c r="H7" s="31">
         <f>(Calculations!I6)*(About!$A$70)</f>
-        <v>96650.52410000001</v>
+        <v>95307.145600000003</v>
       </c>
       <c r="I7" s="31">
         <f>(Calculations!J6)*(About!$A$70)</f>
-        <v>95130.520700000008</v>
+        <v>90165.215100000001</v>
       </c>
       <c r="J7" s="31">
         <f>(Calculations!K6)*(About!$A$70)</f>
-        <v>93758.789000000004</v>
+        <v>85591.222500000003</v>
       </c>
       <c r="K7" s="31">
         <f>(Calculations!L6)*(About!$A$70)</f>
-        <v>92512.122100000008</v>
+        <v>81631.678700000004</v>
       </c>
       <c r="L7" s="31">
         <f>(Calculations!M6)*(About!$A$70)</f>
-        <v>91372.16810000001</v>
+        <v>77719.325499999992</v>
       </c>
       <c r="M7" s="31">
         <f>(Calculations!N6)*(About!$A$70)</f>
-        <v>90324.264900000009</v>
+        <v>73881.545100000003</v>
       </c>
       <c r="N7" s="31">
         <f>(Calculations!O6)*(About!$A$70)</f>
-        <v>89413.466899999999</v>
+        <v>72866.364600000001</v>
       </c>
       <c r="O7" s="31">
         <f>(Calculations!P6)*(About!$A$70)</f>
-        <v>88565.007100000003</v>
+        <v>71908.861499999999</v>
       </c>
       <c r="P7" s="31">
         <f>(Calculations!Q6)*(About!$A$70)</f>
-        <v>87771.700100000002</v>
+        <v>71013.69660000001</v>
       </c>
       <c r="Q7" s="31">
         <f>(Calculations!R6)*(About!$A$70)</f>
-        <v>87027.719900000011</v>
+        <v>70142.612500000003</v>
       </c>
       <c r="R7" s="31">
         <f>(Calculations!S6)*(About!$A$70)</f>
-        <v>86328.114400000006</v>
+        <v>69304.445300000007</v>
       </c>
       <c r="S7" s="31">
         <f>(Calculations!T6)*(About!$A$70)</f>
-        <v>85563.063500000004</v>
+        <v>68552.891300000003</v>
       </c>
       <c r="T7" s="31">
         <f>(Calculations!U6)*(About!$A$70)</f>
-        <v>84846.562600000005</v>
+        <v>67866.005900000004</v>
       </c>
       <c r="U7" s="31">
         <f>(Calculations!V6)*(About!$A$70)</f>
-        <v>84173.368300000002</v>
+        <v>67220.970600000001</v>
       </c>
       <c r="V7" s="31">
         <f>(Calculations!W6)*(About!$A$70)</f>
-        <v>83539.208200000008</v>
+        <v>66626.233099999998</v>
       </c>
       <c r="W7" s="31">
         <f>(Calculations!X6)*(About!$A$70)</f>
-        <v>82940.392500000002</v>
+        <v>66106.845199999996</v>
       </c>
       <c r="X7" s="31">
         <f>(Calculations!Y6)*(About!$A$70)</f>
-        <v>82344.004300000001</v>
+        <v>65585.515299999999</v>
       </c>
       <c r="Y7" s="31">
         <f>(Calculations!Z6)*(About!$A$70)</f>
-        <v>81779.853300000002</v>
+        <v>65135.165499999996</v>
       </c>
       <c r="Z7" s="31">
         <f>(Calculations!AA6)*(About!$A$70)</f>
-        <v>81245.220700000005</v>
+        <v>64708.605199999998</v>
       </c>
       <c r="AA7" s="31">
         <f>(Calculations!AB6)*(About!$A$70)</f>
-        <v>80737.484800000006</v>
+        <v>64297.095400000006</v>
       </c>
       <c r="AB7" s="31">
         <f>(Calculations!AC6)*(About!$A$70)</f>
-        <v>80254.315200000012</v>
+        <v>63931.319699999993</v>
       </c>
       <c r="AC7" s="31">
         <f>(Calculations!AD6)*(About!$A$70)</f>
-        <v>79762.697899999999</v>
+        <v>63565.446900000003</v>
       </c>
       <c r="AD7" s="31">
         <f>(Calculations!AE6)*(About!$A$70)</f>
-        <v>79294.8701</v>
+        <v>63241.327100000002</v>
       </c>
       <c r="AE7" s="31">
         <f>(Calculations!AF6)*(About!$A$70)</f>
-        <v>78848.889800000004</v>
+        <v>62927.694100000001</v>
       </c>
       <c r="AF7" s="31">
         <f>(Calculations!AG6)*(About!$A$70)</f>
-        <v>78423.203400000013</v>
+        <v>62632.801399999997</v>
       </c>
       <c r="AG7" s="31">
         <f>(Calculations!AH6)*(About!$A$70)</f>
-        <v>78016.063099999999</v>
+        <v>62351.794000000002</v>
       </c>
       <c r="AH7" s="31"/>
       <c r="AI7" s="31"/>
@@ -38582,131 +38582,131 @@
       </c>
       <c r="B8" s="31">
         <f>(Calculations!C12)*(About!$A$70)</f>
-        <v>1063912.077</v>
+        <v>1990114.9919999999</v>
       </c>
       <c r="C8" s="31">
         <f>(Calculations!D12)*(About!$A$70)</f>
-        <v>883009.14520000003</v>
+        <v>1641121.2792</v>
       </c>
       <c r="D8" s="31">
         <f>(Calculations!E12)*(About!$A$70)</f>
-        <v>714120.97899999993</v>
+        <v>1317864.504</v>
       </c>
       <c r="E8" s="31">
         <f>(Calculations!F12)*(About!$A$70)</f>
-        <v>317611.18699999998</v>
+        <v>567440.74800000002</v>
       </c>
       <c r="F8" s="31">
         <f>(Calculations!G12)*(About!$A$70)</f>
-        <v>310621.929</v>
+        <v>546696.304</v>
       </c>
       <c r="G8" s="31">
         <f>(Calculations!H12)*(About!$A$70)</f>
-        <v>303632.67099999997</v>
+        <v>526553.88</v>
       </c>
       <c r="H8" s="31">
         <f>(Calculations!I12)*(About!$A$70)</f>
-        <v>296643.413</v>
+        <v>508167.995</v>
       </c>
       <c r="I8" s="31">
         <f>(Calculations!J12)*(About!$A$70)</f>
-        <v>289655.12599999999</v>
+        <v>491153.16200000001</v>
       </c>
       <c r="J8" s="31">
         <f>(Calculations!K12)*(About!$A$70)</f>
-        <v>282665.86800000002</v>
+        <v>475655.03099999996</v>
       </c>
       <c r="K8" s="31">
         <f>(Calculations!L12)*(About!$A$70)</f>
-        <v>275676.61</v>
+        <v>461611.45799999998</v>
       </c>
       <c r="L8" s="31">
         <f>(Calculations!M12)*(About!$A$70)</f>
-        <v>268687.35200000001</v>
+        <v>448623.36199999996</v>
       </c>
       <c r="M8" s="31">
         <f>(Calculations!N12)*(About!$A$70)</f>
-        <v>261698.09399999998</v>
+        <v>437050.01299999998</v>
       </c>
       <c r="N8" s="31">
         <f>(Calculations!O12)*(About!$A$70)</f>
-        <v>254708.83599999998</v>
+        <v>426618.56</v>
       </c>
       <c r="O8" s="31">
         <f>(Calculations!P12)*(About!$A$70)</f>
-        <v>253247.481</v>
+        <v>417286.27899999998</v>
       </c>
       <c r="P8" s="31">
         <f>(Calculations!Q12)*(About!$A$70)</f>
-        <v>251785.155</v>
+        <v>409036.663</v>
       </c>
       <c r="Q8" s="31">
         <f>(Calculations!R12)*(About!$A$70)</f>
-        <v>250322.829</v>
+        <v>401557.05</v>
       </c>
       <c r="R8" s="31">
         <f>(Calculations!S12)*(About!$A$70)</f>
-        <v>248860.503</v>
+        <v>395148.45</v>
       </c>
       <c r="S8" s="31">
         <f>(Calculations!T12)*(About!$A$70)</f>
-        <v>247398.177</v>
+        <v>389393.33299999998</v>
       </c>
       <c r="T8" s="31">
         <f>(Calculations!U12)*(About!$A$70)</f>
-        <v>245935.851</v>
+        <v>384379.08899999998</v>
       </c>
       <c r="U8" s="31">
         <f>(Calculations!V12)*(About!$A$70)</f>
-        <v>244474.49599999998</v>
+        <v>380119.31199999998</v>
       </c>
       <c r="V8" s="31">
         <f>(Calculations!W12)*(About!$A$70)</f>
-        <v>243012.16999999998</v>
+        <v>376403.29499999998</v>
       </c>
       <c r="W8" s="31">
         <f>(Calculations!X12)*(About!$A$70)</f>
-        <v>241549.84399999998</v>
+        <v>373191.22700000001</v>
       </c>
       <c r="X8" s="31">
         <f>(Calculations!Y12)*(About!$A$70)</f>
-        <v>240087.51799999998</v>
+        <v>370362.70399999997</v>
       </c>
       <c r="Y8" s="31">
         <f>(Calculations!Z12)*(About!$A$70)</f>
-        <v>238625.19199999998</v>
+        <v>367945.88500000001</v>
       </c>
       <c r="Z8" s="31">
         <f>(Calculations!AA12)*(About!$A$70)</f>
-        <v>237162.86599999998</v>
+        <v>365908.72700000001</v>
       </c>
       <c r="AA8" s="31">
         <f>(Calculations!AB12)*(About!$A$70)</f>
-        <v>235700.54</v>
+        <v>364030.81299999997</v>
       </c>
       <c r="AB8" s="31">
         <f>(Calculations!AC12)*(About!$A$70)</f>
-        <v>234239.185</v>
+        <v>362247.08600000001</v>
       </c>
       <c r="AC8" s="31">
         <f>(Calculations!AD12)*(About!$A$70)</f>
-        <v>232776.859</v>
+        <v>360686.68900000001</v>
       </c>
       <c r="AD8" s="31">
         <f>(Calculations!AE12)*(About!$A$70)</f>
-        <v>231314.533</v>
+        <v>358998.12</v>
       </c>
       <c r="AE8" s="31">
         <f>(Calculations!AF12)*(About!$A$70)</f>
-        <v>229852.20699999999</v>
+        <v>357342.565</v>
       </c>
       <c r="AF8" s="31">
         <f>(Calculations!AG12)*(About!$A$70)</f>
-        <v>228389.88099999999</v>
+        <v>355591.85200000001</v>
       </c>
       <c r="AG8" s="31">
         <f>(Calculations!AH12)*(About!$A$70)</f>
-        <v>226927.55499999999</v>
+        <v>353523.62199999997</v>
       </c>
       <c r="AH8" s="31"/>
       <c r="AI8" s="31"/>
@@ -39363,7 +39363,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B15" s="31">
         <f t="shared" ref="B15:C15" si="0">B11</f>
@@ -39498,7 +39498,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B16" s="31">
         <f t="shared" ref="B16:C16" si="2">B11</f>
@@ -39633,7 +39633,7 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B17" s="31">
         <v>0</v>

--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="650">
   <si>
     <t>Source:</t>
   </si>
@@ -1988,6 +1988,18 @@
   </si>
   <si>
     <t>Section 9.2.2; Section 9.2.1, second paragraph</t>
+  </si>
+  <si>
+    <t>PTC Lifetime Adjustment</t>
+  </si>
+  <si>
+    <t>The PTC for wind is only available for 10 years of a project. We therefore multiply the PTC values by 10 and divide by the</t>
+  </si>
+  <si>
+    <t>average plant lifetime.</t>
+  </si>
+  <si>
+    <t>Average plant lifetime (see elec/BGCL)</t>
   </si>
 </sst>
 </file>
@@ -2754,10 +2766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3164,6 +3176,31 @@
     <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" s="6" t="s">
         <v>367</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" s="29" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" s="6">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3188,7 +3225,7 @@
   <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:AG14"/>
+      <selection activeCell="B8" sqref="B8:AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3954,100 +3991,132 @@
         <v>381</v>
       </c>
       <c r="B8" s="26">
-        <v>0</v>
+        <f>Calculations!C18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>1373199.8399999999</v>
       </c>
       <c r="C8" s="26">
-        <v>0</v>
+        <f>Calculations!D18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>1132390.5839999998</v>
       </c>
       <c r="D8" s="26">
-        <v>0</v>
+        <f>Calculations!E18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>1074674.6399999999</v>
       </c>
       <c r="E8" s="26">
-        <v>0</v>
+        <f>Calculations!F18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>1018003.8959999999</v>
       </c>
       <c r="F8" s="26">
-        <v>0</v>
+        <f>Calculations!G18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>829897.37599999993</v>
       </c>
       <c r="G8" s="26">
-        <v>0</v>
+        <f>Calculations!H18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>363327.6</v>
       </c>
       <c r="H8" s="26">
-        <v>0</v>
+        <f>Calculations!I18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>350641.14999999997</v>
       </c>
       <c r="I8" s="26">
-        <v>0</v>
+        <f>Calculations!J18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>338900.74</v>
       </c>
       <c r="J8" s="26">
-        <v>0</v>
+        <f>Calculations!K18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>328206.86999999994</v>
       </c>
       <c r="K8" s="26">
-        <v>0</v>
+        <f>Calculations!L18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>318516.65999999997</v>
       </c>
       <c r="L8" s="26">
-        <v>0</v>
+        <f>Calculations!M18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>309554.74</v>
       </c>
       <c r="M8" s="26">
-        <v>0</v>
+        <f>Calculations!N18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>301569.00999999995</v>
       </c>
       <c r="N8" s="26">
-        <v>0</v>
+        <f>Calculations!O18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>294371.19999999995</v>
       </c>
       <c r="O8" s="26">
-        <v>0</v>
+        <f>Calculations!P18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>287931.82999999996</v>
       </c>
       <c r="P8" s="26">
-        <v>0</v>
+        <f>Calculations!Q18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>282239.50999999995</v>
       </c>
       <c r="Q8" s="26">
-        <v>0</v>
+        <f>Calculations!R18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>277078.49999999994</v>
       </c>
       <c r="R8" s="26">
-        <v>0</v>
+        <f>Calculations!S18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>272656.5</v>
       </c>
       <c r="S8" s="26">
-        <v>0</v>
+        <f>Calculations!T18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>268685.40999999997</v>
       </c>
       <c r="T8" s="26">
-        <v>0</v>
+        <f>Calculations!U18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>265225.52999999997</v>
       </c>
       <c r="U8" s="26">
-        <v>0</v>
+        <f>Calculations!V18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>262286.24</v>
       </c>
       <c r="V8" s="26">
-        <v>0</v>
+        <f>Calculations!W18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>259722.14999999997</v>
       </c>
       <c r="W8" s="26">
-        <v>0</v>
+        <f>Calculations!X18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>257505.78999999998</v>
       </c>
       <c r="X8" s="26">
-        <v>0</v>
+        <f>Calculations!Y18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>255554.08</v>
       </c>
       <c r="Y8" s="26">
-        <v>0</v>
+        <f>Calculations!Z18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>253886.44999999998</v>
       </c>
       <c r="Z8" s="26">
-        <v>0</v>
+        <f>Calculations!AA18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>252480.78999999998</v>
       </c>
       <c r="AA8" s="26">
-        <v>0</v>
+        <f>Calculations!AB18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>251185.00999999998</v>
       </c>
       <c r="AB8" s="26">
-        <v>0</v>
+        <f>Calculations!AC18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>249954.21999999997</v>
       </c>
       <c r="AC8" s="26">
-        <v>0</v>
+        <f>Calculations!AD18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>248877.52999999997</v>
       </c>
       <c r="AD8" s="26">
-        <v>0</v>
+        <f>Calculations!AE18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>247712.39999999997</v>
       </c>
       <c r="AE8" s="26">
-        <v>0</v>
+        <f>Calculations!AF18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>246570.05</v>
       </c>
       <c r="AF8" s="26">
-        <v>0</v>
+        <f>Calculations!AG18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>245362.03999999998</v>
       </c>
       <c r="AG8" s="26">
-        <v>0</v>
+        <f>Calculations!AH18*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>243934.93999999997</v>
       </c>
       <c r="AH8" s="26"/>
       <c r="AI8" s="26"/>
@@ -5983,8 +6052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26364,7 +26433,7 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:XFD111"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -39279,28 +39348,28 @@
         <v>373</v>
       </c>
       <c r="B6" s="24">
-        <f>'Subsidies Paid'!I9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>13.839024708887294</v>
+        <f>'Subsidies Paid'!L9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30*(10/About!$A$104)</f>
+        <v>2.0056557549112024</v>
       </c>
       <c r="C6" s="24">
-        <f>'Subsidies Paid'!J9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>11.071219767109838</v>
+        <f>'Subsidies Paid'!M9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30*(10/About!$A$104)</f>
+        <v>3.0084836323668029</v>
       </c>
       <c r="D6" s="24">
-        <f>'Subsidies Paid'!K9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>8.3034148253323767</v>
+        <f>'Subsidies Paid'!N9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30*(10/About!$A$104)</f>
+        <v>3.0084836323668029</v>
       </c>
       <c r="E6" s="24">
-        <f>'Subsidies Paid'!L9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>6.0169672647336077</v>
+        <f>D6</f>
+        <v>3.0084836323668029</v>
       </c>
       <c r="F6" s="24">
-        <f>'Subsidies Paid'!M9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>9.0254508971004093</v>
+        <f t="shared" ref="F6:G6" si="0">E6</f>
+        <v>3.0084836323668029</v>
       </c>
       <c r="G6" s="24">
-        <f>'Subsidies Paid'!N9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>9.0254508971004093</v>
+        <f t="shared" si="0"/>
+        <v>3.0084836323668029</v>
       </c>
       <c r="H6" s="24">
         <f>'Subsidies Paid'!O9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
@@ -40029,131 +40098,131 @@
         <v>369</v>
       </c>
       <c r="B13" s="24">
-        <f t="shared" ref="B13:AG13" si="0">B2</f>
+        <f t="shared" ref="B13:AG13" si="1">B2</f>
         <v>0.31269731656692296</v>
       </c>
       <c r="C13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34285778860529786</v>
       </c>
       <c r="D13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3622498402976298</v>
       </c>
       <c r="E13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.37598025289549725</v>
       </c>
       <c r="F13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40646738989562903</v>
       </c>
       <c r="G13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41415229287630889</v>
       </c>
       <c r="H13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42323668613563886</v>
       </c>
       <c r="I13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39946945449758892</v>
       </c>
       <c r="J13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40009106872906414</v>
       </c>
       <c r="K13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40096047140548391</v>
       </c>
       <c r="L13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40118376652093307</v>
       </c>
       <c r="M13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40197253766231777</v>
       </c>
       <c r="N13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40455090151073586</v>
       </c>
       <c r="O13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40526200782514737</v>
       </c>
       <c r="P13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40191554233607107</v>
       </c>
       <c r="Q13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40537862357361099</v>
       </c>
       <c r="R13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41050739265180025</v>
       </c>
       <c r="S13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41390216809681823</v>
       </c>
       <c r="T13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41454867472941087</v>
       </c>
       <c r="U13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4196434670496747</v>
       </c>
       <c r="V13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42276478981633353</v>
       </c>
       <c r="W13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.424336572612173</v>
       </c>
       <c r="X13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42632767697024587</v>
       </c>
       <c r="Y13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42810908238255907</v>
       </c>
       <c r="Z13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42964122355639361</v>
       </c>
       <c r="AA13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42964272552180816</v>
       </c>
       <c r="AB13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.43184498257581788</v>
       </c>
       <c r="AC13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4277449404086352</v>
       </c>
       <c r="AD13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42808186375576363</v>
       </c>
       <c r="AE13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42853720191730743</v>
       </c>
       <c r="AF13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4303143276189097</v>
       </c>
       <c r="AG13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42845475850445314</v>
       </c>
       <c r="AH13" s="24"/>
@@ -40164,12 +40233,12 @@
         <v>370</v>
       </c>
       <c r="B14" s="24">
-        <f>'Subsidies Paid'!I10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>13.839024708887294</v>
+        <f>'Subsidies Paid'!L10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30*(10/About!$A$104)</f>
+        <v>2.0056557549112024</v>
       </c>
       <c r="C14" s="24">
-        <f>'Subsidies Paid'!J10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>11.071219767109838</v>
+        <f>'Subsidies Paid'!M10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30*(10/About!$A$104)</f>
+        <v>3.0084836323668029</v>
       </c>
       <c r="D14" s="24">
         <f>'Subsidies Paid'!N10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
@@ -40287,123 +40356,123 @@
         <v>0</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" ref="D15:AG15" si="1">D11</f>
+        <f t="shared" ref="D15:AG15" si="2">D11</f>
         <v>0</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH15" s="8"/>
@@ -40422,123 +40491,123 @@
         <v>0</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" ref="D16:AG16" si="2">D11</f>
+        <f t="shared" ref="D16:AG16" si="3">D11</f>
         <v>0</v>
       </c>
       <c r="E16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH16" s="8"/>

--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\fuels\BS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\fuels\BS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB36A26C-06DE-46E2-BBF2-96AE76947CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3ACF60-0249-4231-977B-83373F11D324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23130" yWindow="2295" windowWidth="29265" windowHeight="19425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="AEO Table 8" sheetId="9" r:id="rId4"/>
     <sheet name="AEO Table 11" sheetId="6" r:id="rId5"/>
     <sheet name="Calculations" sheetId="14" r:id="rId6"/>
-    <sheet name="Monetizing Tax Credit Penalty" sheetId="17" r:id="rId7"/>
-    <sheet name="BS-BSfTFpEUP" sheetId="10" r:id="rId8"/>
-    <sheet name="BS-BSpUEO-PreRet" sheetId="11" r:id="rId9"/>
-    <sheet name="BS-BSpUEO-PreNonRet" sheetId="18" r:id="rId10"/>
-    <sheet name="BS-BSpUEO-NewBlt" sheetId="19" r:id="rId11"/>
-    <sheet name="BS-BSpUECB" sheetId="16" r:id="rId12"/>
-    <sheet name="JCT Table 1_Notes" sheetId="15" r:id="rId13"/>
+    <sheet name="Wind PV Calcs" sheetId="20" r:id="rId7"/>
+    <sheet name="Monetizing Tax Credit Penalty" sheetId="17" r:id="rId8"/>
+    <sheet name="BS-BSfTFpEUP" sheetId="10" r:id="rId9"/>
+    <sheet name="BS-BSpUEO-PreRet" sheetId="11" r:id="rId10"/>
+    <sheet name="BS-BSpUEO-PreNonRet" sheetId="18" r:id="rId11"/>
+    <sheet name="BS-BSpUEO-NewBlt" sheetId="19" r:id="rId12"/>
+    <sheet name="BS-BSpUECB" sheetId="16" r:id="rId13"/>
+    <sheet name="JCT Table 1_Notes" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="dollars_2020_2012">About!$A$86</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="665">
   <si>
     <t>Source:</t>
   </si>
@@ -1796,12 +1797,6 @@
     <t>PTC Lifetime Adjustment</t>
   </si>
   <si>
-    <t>The PTC for wind is only available for 10 years of a project. We therefore multiply the PTC values by 10 and divide by the</t>
-  </si>
-  <si>
-    <t>average plant lifetime.</t>
-  </si>
-  <si>
     <t>Average plant lifetime (see elec/BGCL)</t>
   </si>
   <si>
@@ -2025,6 +2020,39 @@
   </si>
   <si>
     <t>credit values shifted by 2 years for commenced construction provision</t>
+  </si>
+  <si>
+    <t>Lifetime of PTC</t>
+  </si>
+  <si>
+    <t>Lifetime of Wind Plant (see elec/BGCL)</t>
+  </si>
+  <si>
+    <t>Onshore wind expected capacity factor (see elec/BECF)</t>
+  </si>
+  <si>
+    <t>Offshore wind expected capacity factor (see elec/BECF)</t>
+  </si>
+  <si>
+    <t>Discount rate</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Hours per year</t>
+  </si>
+  <si>
+    <t>Multiplier to Adjust for Onshore Wind Lifetime</t>
+  </si>
+  <si>
+    <t>Multiplier to Adjust for Offshore Wind Lifetime</t>
+  </si>
+  <si>
+    <t>The PTC for wind is only available for 10 years of a project. We therefore multiply the PTC values by the ratio</t>
+  </si>
+  <si>
+    <t>of the present value of costs over 10 years to the present value of costs over 30 years, using a 3% discount rate.</t>
   </si>
 </sst>
 </file>
@@ -2279,7 +2307,7 @@
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2419,10 +2447,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2820,7 +2853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3000,12 +3035,12 @@
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="37" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
@@ -3015,7 +3050,7 @@
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="37" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
@@ -3025,7 +3060,7 @@
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="37" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
@@ -3035,7 +3070,7 @@
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="37" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
@@ -3183,7 +3218,7 @@
         <v>0.88711067149387013</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3193,12 +3228,12 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3243,17 +3278,17 @@
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>579</v>
+        <v>663</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>580</v>
+        <v>664</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
@@ -3272,6 +3307,1941 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AJ17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:AF14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="8">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="8">
+        <v>2022</v>
+      </c>
+      <c r="E1" s="8">
+        <v>2023</v>
+      </c>
+      <c r="F1" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G1" s="8">
+        <v>2025</v>
+      </c>
+      <c r="H1" s="8">
+        <v>2026</v>
+      </c>
+      <c r="I1" s="8">
+        <v>2027</v>
+      </c>
+      <c r="J1" s="8">
+        <v>2028</v>
+      </c>
+      <c r="K1" s="8">
+        <v>2029</v>
+      </c>
+      <c r="L1" s="8">
+        <v>2030</v>
+      </c>
+      <c r="M1" s="8">
+        <v>2031</v>
+      </c>
+      <c r="N1" s="8">
+        <v>2032</v>
+      </c>
+      <c r="O1" s="8">
+        <v>2033</v>
+      </c>
+      <c r="P1" s="8">
+        <v>2034</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>2035</v>
+      </c>
+      <c r="R1" s="8">
+        <v>2036</v>
+      </c>
+      <c r="S1" s="8">
+        <v>2037</v>
+      </c>
+      <c r="T1" s="8">
+        <v>2038</v>
+      </c>
+      <c r="U1" s="8">
+        <v>2039</v>
+      </c>
+      <c r="V1" s="8">
+        <v>2040</v>
+      </c>
+      <c r="W1" s="8">
+        <v>2041</v>
+      </c>
+      <c r="X1" s="8">
+        <v>2042</v>
+      </c>
+      <c r="Y1" s="8">
+        <v>2043</v>
+      </c>
+      <c r="Z1" s="8">
+        <v>2044</v>
+      </c>
+      <c r="AA1" s="8">
+        <v>2045</v>
+      </c>
+      <c r="AB1" s="8">
+        <v>2046</v>
+      </c>
+      <c r="AC1" s="8">
+        <v>2047</v>
+      </c>
+      <c r="AD1" s="8">
+        <v>2048</v>
+      </c>
+      <c r="AE1" s="8">
+        <v>2049</v>
+      </c>
+      <c r="AF1" s="8">
+        <v>2050</v>
+      </c>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="24">
+        <f>Calculations!D33</f>
+        <v>0.39217710728623101</v>
+      </c>
+      <c r="C2" s="24">
+        <f>Calculations!E33</f>
+        <v>0.3211969604300805</v>
+      </c>
+      <c r="D2" s="24">
+        <f>Calculations!F33</f>
+        <v>0.32111860492873623</v>
+      </c>
+      <c r="E2" s="24">
+        <f>Calculations!G33</f>
+        <v>0.39321461571543892</v>
+      </c>
+      <c r="F2" s="24">
+        <f>Calculations!H33</f>
+        <v>0.47227294140628784</v>
+      </c>
+      <c r="G2" s="24">
+        <f>Calculations!I33</f>
+        <v>0.60948798354925293</v>
+      </c>
+      <c r="H2" s="24">
+        <f>Calculations!J33</f>
+        <v>0.60013560183950687</v>
+      </c>
+      <c r="I2" s="24">
+        <f>Calculations!K33</f>
+        <v>0.62212437394768827</v>
+      </c>
+      <c r="J2" s="24">
+        <f>Calculations!L33</f>
+        <v>0.61730030780527556</v>
+      </c>
+      <c r="K2" s="24">
+        <f>Calculations!M33</f>
+        <v>0.61484334009963648</v>
+      </c>
+      <c r="L2" s="24">
+        <f>Calculations!N33</f>
+        <v>0.60778483146290729</v>
+      </c>
+      <c r="M2" s="24">
+        <f>Calculations!O33</f>
+        <v>0.61692824959120485</v>
+      </c>
+      <c r="N2" s="24">
+        <f>Calculations!P33</f>
+        <v>0.63234162591902898</v>
+      </c>
+      <c r="O2" s="24">
+        <f>Calculations!Q33</f>
+        <v>0.63531229654785482</v>
+      </c>
+      <c r="P2" s="24">
+        <f>Calculations!R33</f>
+        <v>0.65017081309273927</v>
+      </c>
+      <c r="Q2" s="24">
+        <f>Calculations!S33</f>
+        <v>0.66801056140729842</v>
+      </c>
+      <c r="R2" s="24">
+        <f>Calculations!T33</f>
+        <v>0.67803605662854083</v>
+      </c>
+      <c r="S2" s="24">
+        <f>Calculations!U33</f>
+        <v>0.68846401097411636</v>
+      </c>
+      <c r="T2" s="24">
+        <f>Calculations!V33</f>
+        <v>0.70548534562782961</v>
+      </c>
+      <c r="U2" s="24">
+        <f>Calculations!W33</f>
+        <v>0.7085253826809359</v>
+      </c>
+      <c r="V2" s="24">
+        <f>Calculations!X33</f>
+        <v>0.71461730522268652</v>
+      </c>
+      <c r="W2" s="24">
+        <f>Calculations!Y33</f>
+        <v>0.71797791743559813</v>
+      </c>
+      <c r="X2" s="24">
+        <f>Calculations!Z33</f>
+        <v>0.72198051036715638</v>
+      </c>
+      <c r="Y2" s="24">
+        <f>Calculations!AA33</f>
+        <v>0.7209091979925063</v>
+      </c>
+      <c r="Z2" s="24">
+        <f>Calculations!AB33</f>
+        <v>0.72179512989523797</v>
+      </c>
+      <c r="AA2" s="24">
+        <f>Calculations!AC33</f>
+        <v>0.74420441324578579</v>
+      </c>
+      <c r="AB2" s="24">
+        <f>Calculations!AD33</f>
+        <v>0.75502495533649872</v>
+      </c>
+      <c r="AC2" s="24">
+        <f>Calculations!AE33</f>
+        <v>0.76224244837640609</v>
+      </c>
+      <c r="AD2" s="24">
+        <f>Calculations!AF33</f>
+        <v>0.77891521988422252</v>
+      </c>
+      <c r="AE2" s="24">
+        <f>Calculations!AG33</f>
+        <v>0.79305495971060069</v>
+      </c>
+      <c r="AF2" s="24">
+        <f>Calculations!AH33</f>
+        <v>0.79197761731865401</v>
+      </c>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0</v>
+      </c>
+      <c r="T3" s="8">
+        <v>0</v>
+      </c>
+      <c r="U3" s="8">
+        <v>0</v>
+      </c>
+      <c r="V3" s="8">
+        <v>0</v>
+      </c>
+      <c r="W3" s="8">
+        <v>0</v>
+      </c>
+      <c r="X3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="24">
+        <f>Calculations!D39</f>
+        <v>0.3822667786942785</v>
+      </c>
+      <c r="C4" s="24">
+        <f>Calculations!E39</f>
+        <v>0.39443572157150553</v>
+      </c>
+      <c r="D4" s="24">
+        <f>Calculations!F39</f>
+        <v>0.40723086674334885</v>
+      </c>
+      <c r="E4" s="24">
+        <f>Calculations!G39</f>
+        <v>0.40010800462129015</v>
+      </c>
+      <c r="F4" s="24">
+        <f>Calculations!H39</f>
+        <v>0.39844513003746906</v>
+      </c>
+      <c r="G4" s="24">
+        <f>Calculations!I39</f>
+        <v>0.40271755686722605</v>
+      </c>
+      <c r="H4" s="24">
+        <f>Calculations!J39</f>
+        <v>0.46767805340247015</v>
+      </c>
+      <c r="I4" s="24">
+        <f>Calculations!K39</f>
+        <v>0.52040018059204618</v>
+      </c>
+      <c r="J4" s="24">
+        <f>Calculations!L39</f>
+        <v>0.53864874887274061</v>
+      </c>
+      <c r="K4" s="24">
+        <f>Calculations!M39</f>
+        <v>0.59290565028946041</v>
+      </c>
+      <c r="L4" s="24">
+        <f>Calculations!N39</f>
+        <v>0.59202932098623817</v>
+      </c>
+      <c r="M4" s="24">
+        <f>Calculations!O39</f>
+        <v>0.61185818859970653</v>
+      </c>
+      <c r="N4" s="24">
+        <f>Calculations!P39</f>
+        <v>0.62479995077076222</v>
+      </c>
+      <c r="O4" s="24">
+        <f>Calculations!Q39</f>
+        <v>0.63501000401110419</v>
+      </c>
+      <c r="P4" s="24">
+        <f>Calculations!R39</f>
+        <v>0.65833298737934842</v>
+      </c>
+      <c r="Q4" s="24">
+        <f>Calculations!S39</f>
+        <v>0.65630941712720936</v>
+      </c>
+      <c r="R4" s="24">
+        <f>Calculations!T39</f>
+        <v>0.66851940282525524</v>
+      </c>
+      <c r="S4" s="24">
+        <f>Calculations!U39</f>
+        <v>0.69392874455140163</v>
+      </c>
+      <c r="T4" s="24">
+        <f>Calculations!V39</f>
+        <v>0.70547952247389201</v>
+      </c>
+      <c r="U4" s="24">
+        <f>Calculations!W39</f>
+        <v>0.70547952247389201</v>
+      </c>
+      <c r="V4" s="24">
+        <f>Calculations!X39</f>
+        <v>0.70490788165115481</v>
+      </c>
+      <c r="W4" s="24">
+        <f>Calculations!Y39</f>
+        <v>0.70284013010976487</v>
+      </c>
+      <c r="X4" s="24">
+        <f>Calculations!Z39</f>
+        <v>0.70135214943323099</v>
+      </c>
+      <c r="Y4" s="24">
+        <f>Calculations!AA39</f>
+        <v>0.73228366539716583</v>
+      </c>
+      <c r="Z4" s="24">
+        <f>Calculations!AB39</f>
+        <v>0.82286931116638973</v>
+      </c>
+      <c r="AA4" s="24">
+        <f>Calculations!AC39</f>
+        <v>0.82102596258151184</v>
+      </c>
+      <c r="AB4" s="24">
+        <f>Calculations!AD39</f>
+        <v>0.82006975294633289</v>
+      </c>
+      <c r="AC4" s="24">
+        <f>Calculations!AE39</f>
+        <v>0.83692616669997488</v>
+      </c>
+      <c r="AD4" s="24">
+        <f>Calculations!AF39</f>
+        <v>0.8730118707876432</v>
+      </c>
+      <c r="AE4" s="24">
+        <f>Calculations!AG39</f>
+        <v>0.87219810030776468</v>
+      </c>
+      <c r="AF4" s="24">
+        <f>Calculations!AH39</f>
+        <v>0.87102458247095493</v>
+      </c>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="24">
+        <f>'Subsidies Paid'!K5*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="24">
+        <f>'Subsidies Paid'!L5*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="24">
+        <f>'Subsidies Paid'!M5*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
+        <f>'Subsidies Paid'!N5*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="24">
+        <f>'Subsidies Paid'!O5*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="24">
+        <f>'Subsidies Paid'!P5*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="24">
+        <f>'Subsidies Paid'!Q5*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="24">
+        <f>'Subsidies Paid'!R5*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="24">
+        <f>'Subsidies Paid'!S5*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="24">
+        <f>'Subsidies Paid'!T5*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="24">
+        <f>'Subsidies Paid'!U5*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="24">
+        <f>'Subsidies Paid'!V5*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="24">
+        <f>'Subsidies Paid'!W5*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="24">
+        <v>0</v>
+      </c>
+      <c r="P5" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>0</v>
+      </c>
+      <c r="R5" s="24">
+        <v>0</v>
+      </c>
+      <c r="S5" s="24">
+        <v>0</v>
+      </c>
+      <c r="T5" s="24">
+        <v>0</v>
+      </c>
+      <c r="U5" s="24">
+        <v>0</v>
+      </c>
+      <c r="V5" s="24">
+        <v>0</v>
+      </c>
+      <c r="W5" s="24">
+        <v>0</v>
+      </c>
+      <c r="X5" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" s="27">
+        <v>0</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0</v>
+      </c>
+      <c r="F6" s="27">
+        <v>0</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0</v>
+      </c>
+      <c r="H6" s="27">
+        <v>0</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
+        <v>0</v>
+      </c>
+      <c r="K6" s="27">
+        <v>0</v>
+      </c>
+      <c r="L6" s="27">
+        <v>0</v>
+      </c>
+      <c r="M6" s="27">
+        <v>0</v>
+      </c>
+      <c r="N6" s="27">
+        <v>0</v>
+      </c>
+      <c r="O6" s="27">
+        <v>0</v>
+      </c>
+      <c r="P6" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="27">
+        <v>0</v>
+      </c>
+      <c r="R6" s="27">
+        <v>0</v>
+      </c>
+      <c r="S6" s="27">
+        <v>0</v>
+      </c>
+      <c r="T6" s="27">
+        <v>0</v>
+      </c>
+      <c r="U6" s="27">
+        <v>0</v>
+      </c>
+      <c r="V6" s="27">
+        <v>0</v>
+      </c>
+      <c r="W6" s="27">
+        <v>0</v>
+      </c>
+      <c r="X6" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="27">
+        <v>0</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0</v>
+      </c>
+      <c r="H7" s="27">
+        <v>0</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0</v>
+      </c>
+      <c r="K7" s="27">
+        <v>0</v>
+      </c>
+      <c r="L7" s="27">
+        <v>0</v>
+      </c>
+      <c r="M7" s="27">
+        <v>0</v>
+      </c>
+      <c r="N7" s="27">
+        <v>0</v>
+      </c>
+      <c r="O7" s="27">
+        <v>0</v>
+      </c>
+      <c r="P7" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>0</v>
+      </c>
+      <c r="R7" s="27">
+        <v>0</v>
+      </c>
+      <c r="S7" s="27">
+        <v>0</v>
+      </c>
+      <c r="T7" s="27">
+        <v>0</v>
+      </c>
+      <c r="U7" s="27">
+        <v>0</v>
+      </c>
+      <c r="V7" s="27">
+        <v>0</v>
+      </c>
+      <c r="W7" s="27">
+        <v>0</v>
+      </c>
+      <c r="X7" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="27">
+        <v>0</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0</v>
+      </c>
+      <c r="G8" s="27">
+        <v>0</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0</v>
+      </c>
+      <c r="I8" s="27">
+        <v>0</v>
+      </c>
+      <c r="J8" s="27">
+        <v>0</v>
+      </c>
+      <c r="K8" s="27">
+        <v>0</v>
+      </c>
+      <c r="L8" s="27">
+        <v>0</v>
+      </c>
+      <c r="M8" s="27">
+        <v>0</v>
+      </c>
+      <c r="N8" s="27">
+        <v>0</v>
+      </c>
+      <c r="O8" s="27">
+        <v>0</v>
+      </c>
+      <c r="P8" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>0</v>
+      </c>
+      <c r="R8" s="27">
+        <v>0</v>
+      </c>
+      <c r="S8" s="27">
+        <v>0</v>
+      </c>
+      <c r="T8" s="27">
+        <v>0</v>
+      </c>
+      <c r="U8" s="27">
+        <v>0</v>
+      </c>
+      <c r="V8" s="27">
+        <v>0</v>
+      </c>
+      <c r="W8" s="27">
+        <v>0</v>
+      </c>
+      <c r="X8" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" s="24">
+        <f>'Subsidies Paid'!K2*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="24">
+        <f>'Subsidies Paid'!L2*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="24">
+        <f>'Subsidies Paid'!M2*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="24">
+        <f>'Subsidies Paid'!N2*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="24">
+        <f>'Subsidies Paid'!O2*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="24">
+        <f>'Subsidies Paid'!P2*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="24">
+        <f>'Subsidies Paid'!Q2*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="24">
+        <f>'Subsidies Paid'!R2*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="24">
+        <f>'Subsidies Paid'!S2*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="24">
+        <f>'Subsidies Paid'!T2*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="24">
+        <f>'Subsidies Paid'!U2*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="24">
+        <f>'Subsidies Paid'!V2*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="24">
+        <f>'Subsidies Paid'!W2*About!$A$80*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="24">
+        <v>0</v>
+      </c>
+      <c r="P9" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>0</v>
+      </c>
+      <c r="R9" s="24">
+        <v>0</v>
+      </c>
+      <c r="S9" s="24">
+        <v>0</v>
+      </c>
+      <c r="T9" s="24">
+        <v>0</v>
+      </c>
+      <c r="U9" s="24">
+        <v>0</v>
+      </c>
+      <c r="V9" s="24">
+        <v>0</v>
+      </c>
+      <c r="W9" s="24">
+        <v>0</v>
+      </c>
+      <c r="X9" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0</v>
+      </c>
+      <c r="T10" s="8">
+        <v>0</v>
+      </c>
+      <c r="U10" s="8">
+        <v>0</v>
+      </c>
+      <c r="V10" s="8">
+        <v>0</v>
+      </c>
+      <c r="W10" s="8">
+        <v>0</v>
+      </c>
+      <c r="X10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0</v>
+      </c>
+      <c r="U11" s="8">
+        <v>0</v>
+      </c>
+      <c r="V11" s="8">
+        <v>0</v>
+      </c>
+      <c r="W11" s="8">
+        <v>0</v>
+      </c>
+      <c r="X11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0</v>
+      </c>
+      <c r="T12" s="8">
+        <v>0</v>
+      </c>
+      <c r="U12" s="8">
+        <v>0</v>
+      </c>
+      <c r="V12" s="8">
+        <v>0</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B13" s="24">
+        <f t="shared" ref="B13:AF13" si="0">B2</f>
+        <v>0.39217710728623101</v>
+      </c>
+      <c r="C13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.3211969604300805</v>
+      </c>
+      <c r="D13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.32111860492873623</v>
+      </c>
+      <c r="E13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.39321461571543892</v>
+      </c>
+      <c r="F13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.47227294140628784</v>
+      </c>
+      <c r="G13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.60948798354925293</v>
+      </c>
+      <c r="H13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.60013560183950687</v>
+      </c>
+      <c r="I13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.62212437394768827</v>
+      </c>
+      <c r="J13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.61730030780527556</v>
+      </c>
+      <c r="K13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.61484334009963648</v>
+      </c>
+      <c r="L13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.60778483146290729</v>
+      </c>
+      <c r="M13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.61692824959120485</v>
+      </c>
+      <c r="N13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.63234162591902898</v>
+      </c>
+      <c r="O13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.63531229654785482</v>
+      </c>
+      <c r="P13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.65017081309273927</v>
+      </c>
+      <c r="Q13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.66801056140729842</v>
+      </c>
+      <c r="R13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.67803605662854083</v>
+      </c>
+      <c r="S13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.68846401097411636</v>
+      </c>
+      <c r="T13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.70548534562782961</v>
+      </c>
+      <c r="U13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.7085253826809359</v>
+      </c>
+      <c r="V13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.71461730522268652</v>
+      </c>
+      <c r="W13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.71797791743559813</v>
+      </c>
+      <c r="X13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.72198051036715638</v>
+      </c>
+      <c r="Y13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.7209091979925063</v>
+      </c>
+      <c r="Z13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.72179512989523797</v>
+      </c>
+      <c r="AA13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.74420441324578579</v>
+      </c>
+      <c r="AB13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.75502495533649872</v>
+      </c>
+      <c r="AC13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.76224244837640609</v>
+      </c>
+      <c r="AD13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.77891521988422252</v>
+      </c>
+      <c r="AE13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.79305495971060069</v>
+      </c>
+      <c r="AF13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.79197761731865401</v>
+      </c>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" s="74">
+        <f>B10</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="74">
+        <f t="shared" ref="C14:AF14" si="1">C10</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>543</v>
+      </c>
+      <c r="B15" s="8">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" ref="C15:AF15" si="2">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>544</v>
+      </c>
+      <c r="B16" s="8">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" ref="C16:AF16" si="3">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>545</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0</v>
+      </c>
+      <c r="S17" s="8">
+        <v>0</v>
+      </c>
+      <c r="T17" s="8">
+        <v>0</v>
+      </c>
+      <c r="U17" s="8">
+        <v>0</v>
+      </c>
+      <c r="V17" s="8">
+        <v>0</v>
+      </c>
+      <c r="W17" s="8">
+        <v>0</v>
+      </c>
+      <c r="X17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5787507D-9487-4016-91C5-565BD6813830}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -4975,14 +6945,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08E3047-FC9F-40F8-9F20-DB7C78346204}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5566,24 +7538,24 @@
         <v>333</v>
       </c>
       <c r="B6" s="24">
-        <f>'Subsidies Paid'!M9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30*(10/About!$A$106)</f>
-        <v>3.0084836323668029</v>
+        <f>'Subsidies Paid'!M9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30*'Wind PV Calcs'!$B$9</f>
+        <v>3.9279180235249935</v>
       </c>
       <c r="C6" s="24">
-        <f>'Subsidies Paid'!N9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30*(10/About!$A$106)</f>
-        <v>3.0084836323668029</v>
+        <f>'Subsidies Paid'!N9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30*'Wind PV Calcs'!$B$9</f>
+        <v>3.9279180235249935</v>
       </c>
       <c r="D6" s="24">
         <f>C6</f>
-        <v>3.0084836323668029</v>
+        <v>3.9279180235249935</v>
       </c>
       <c r="E6" s="24">
         <f t="shared" ref="E6:F6" si="0">D6</f>
-        <v>3.0084836323668029</v>
+        <v>3.9279180235249935</v>
       </c>
       <c r="F6" s="24">
         <f t="shared" si="0"/>
-        <v>3.0084836323668029</v>
+        <v>3.9279180235249935</v>
       </c>
       <c r="G6" s="24">
         <f>'Subsidies Paid'!O9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
@@ -6418,8 +8390,8 @@
         <v>330</v>
       </c>
       <c r="B14" s="24">
-        <f>'Subsidies Paid'!M10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30*(10/About!$A$106)</f>
-        <v>3.0084836323668029</v>
+        <f>'Subsidies Paid'!M10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30*'Wind PV Calcs'!$B$10</f>
+        <v>3.9279180235249931</v>
       </c>
       <c r="C14" s="24">
         <f>'Subsidies Paid'!N10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
@@ -6885,14 +8857,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8790,7 +10764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
@@ -11129,7 +13103,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="61" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C1" s="63">
         <v>2020</v>
@@ -11231,7 +13205,7 @@
         <v>531</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E3" s="67"/>
       <c r="F3" s="67"/>
@@ -11243,7 +13217,7 @@
         <v>532</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E4" s="67"/>
       <c r="F4" s="67"/>
@@ -11257,7 +13231,7 @@
         <v>534</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E5" s="67"/>
       <c r="F5" s="67"/>
@@ -11270,7 +13244,7 @@
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="66" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F6" s="67"/>
       <c r="G6" s="67"/>
@@ -11292,7 +13266,7 @@
         <v>43</v>
       </c>
       <c r="AH10" s="68" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11300,7 +13274,7 @@
         <v>44</v>
       </c>
       <c r="AH11" s="68" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11337,7 +13311,7 @@
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="68" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11438,7 +13412,7 @@
         <v>2050</v>
       </c>
       <c r="AH13" s="69" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -14482,7 +16456,7 @@
     <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="64" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15951,7 +17925,7 @@
     <row r="71" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="75" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C72" s="76"/>
       <c r="D72" s="76"/>
@@ -15988,7 +17962,7 @@
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B73" s="41" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="74" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15998,7 +17972,7 @@
     </row>
     <row r="75" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="41" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16008,7 +17982,7 @@
     </row>
     <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="41" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16023,32 +17997,32 @@
     </row>
     <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="41" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="41" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="41" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="41" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="41" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="41" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="86" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16063,12 +18037,12 @@
     </row>
     <row r="88" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="41" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="89" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="41" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="90" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16078,12 +18052,12 @@
     </row>
     <row r="91" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="41" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="41" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="93" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16093,37 +18067,37 @@
     </row>
     <row r="94" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="41" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="95" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="41" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="96" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="41" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="97" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="41" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="98" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="41" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="99" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="41" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="41" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="103" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16136,39 +18110,39 @@
     <row r="110" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="111" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="112" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="74"/>
-      <c r="C112" s="74"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="74"/>
-      <c r="H112" s="74"/>
-      <c r="I112" s="74"/>
-      <c r="J112" s="74"/>
-      <c r="K112" s="74"/>
-      <c r="L112" s="74"/>
-      <c r="M112" s="74"/>
-      <c r="N112" s="74"/>
-      <c r="O112" s="74"/>
-      <c r="P112" s="74"/>
-      <c r="Q112" s="74"/>
-      <c r="R112" s="74"/>
-      <c r="S112" s="74"/>
-      <c r="T112" s="74"/>
-      <c r="U112" s="74"/>
-      <c r="V112" s="74"/>
-      <c r="W112" s="74"/>
-      <c r="X112" s="74"/>
-      <c r="Y112" s="74"/>
-      <c r="Z112" s="74"/>
-      <c r="AA112" s="74"/>
-      <c r="AB112" s="74"/>
-      <c r="AC112" s="74"/>
-      <c r="AD112" s="74"/>
-      <c r="AE112" s="74"/>
-      <c r="AF112" s="74"/>
-      <c r="AG112" s="74"/>
-      <c r="AH112" s="74"/>
+      <c r="B112" s="77"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="77"/>
+      <c r="K112" s="77"/>
+      <c r="L112" s="77"/>
+      <c r="M112" s="77"/>
+      <c r="N112" s="77"/>
+      <c r="O112" s="77"/>
+      <c r="P112" s="77"/>
+      <c r="Q112" s="77"/>
+      <c r="R112" s="77"/>
+      <c r="S112" s="77"/>
+      <c r="T112" s="77"/>
+      <c r="U112" s="77"/>
+      <c r="V112" s="77"/>
+      <c r="W112" s="77"/>
+      <c r="X112" s="77"/>
+      <c r="Y112" s="77"/>
+      <c r="Z112" s="77"/>
+      <c r="AA112" s="77"/>
+      <c r="AB112" s="77"/>
+      <c r="AC112" s="77"/>
+      <c r="AD112" s="77"/>
+      <c r="AE112" s="77"/>
+      <c r="AF112" s="77"/>
+      <c r="AG112" s="77"/>
+      <c r="AH112" s="77"/>
     </row>
     <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16347,39 +18321,39 @@
     <row r="306" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="307" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="74"/>
-      <c r="C308" s="74"/>
-      <c r="D308" s="74"/>
-      <c r="E308" s="74"/>
-      <c r="F308" s="74"/>
-      <c r="G308" s="74"/>
-      <c r="H308" s="74"/>
-      <c r="I308" s="74"/>
-      <c r="J308" s="74"/>
-      <c r="K308" s="74"/>
-      <c r="L308" s="74"/>
-      <c r="M308" s="74"/>
-      <c r="N308" s="74"/>
-      <c r="O308" s="74"/>
-      <c r="P308" s="74"/>
-      <c r="Q308" s="74"/>
-      <c r="R308" s="74"/>
-      <c r="S308" s="74"/>
-      <c r="T308" s="74"/>
-      <c r="U308" s="74"/>
-      <c r="V308" s="74"/>
-      <c r="W308" s="74"/>
-      <c r="X308" s="74"/>
-      <c r="Y308" s="74"/>
-      <c r="Z308" s="74"/>
-      <c r="AA308" s="74"/>
-      <c r="AB308" s="74"/>
-      <c r="AC308" s="74"/>
-      <c r="AD308" s="74"/>
-      <c r="AE308" s="74"/>
-      <c r="AF308" s="74"/>
-      <c r="AG308" s="74"/>
-      <c r="AH308" s="74"/>
+      <c r="B308" s="77"/>
+      <c r="C308" s="77"/>
+      <c r="D308" s="77"/>
+      <c r="E308" s="77"/>
+      <c r="F308" s="77"/>
+      <c r="G308" s="77"/>
+      <c r="H308" s="77"/>
+      <c r="I308" s="77"/>
+      <c r="J308" s="77"/>
+      <c r="K308" s="77"/>
+      <c r="L308" s="77"/>
+      <c r="M308" s="77"/>
+      <c r="N308" s="77"/>
+      <c r="O308" s="77"/>
+      <c r="P308" s="77"/>
+      <c r="Q308" s="77"/>
+      <c r="R308" s="77"/>
+      <c r="S308" s="77"/>
+      <c r="T308" s="77"/>
+      <c r="U308" s="77"/>
+      <c r="V308" s="77"/>
+      <c r="W308" s="77"/>
+      <c r="X308" s="77"/>
+      <c r="Y308" s="77"/>
+      <c r="Z308" s="77"/>
+      <c r="AA308" s="77"/>
+      <c r="AB308" s="77"/>
+      <c r="AC308" s="77"/>
+      <c r="AD308" s="77"/>
+      <c r="AE308" s="77"/>
+      <c r="AF308" s="77"/>
+      <c r="AG308" s="77"/>
+      <c r="AH308" s="77"/>
     </row>
     <row r="309" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="310" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16538,39 +18512,39 @@
     <row r="508" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="74"/>
-      <c r="C511" s="74"/>
-      <c r="D511" s="74"/>
-      <c r="E511" s="74"/>
-      <c r="F511" s="74"/>
-      <c r="G511" s="74"/>
-      <c r="H511" s="74"/>
-      <c r="I511" s="74"/>
-      <c r="J511" s="74"/>
-      <c r="K511" s="74"/>
-      <c r="L511" s="74"/>
-      <c r="M511" s="74"/>
-      <c r="N511" s="74"/>
-      <c r="O511" s="74"/>
-      <c r="P511" s="74"/>
-      <c r="Q511" s="74"/>
-      <c r="R511" s="74"/>
-      <c r="S511" s="74"/>
-      <c r="T511" s="74"/>
-      <c r="U511" s="74"/>
-      <c r="V511" s="74"/>
-      <c r="W511" s="74"/>
-      <c r="X511" s="74"/>
-      <c r="Y511" s="74"/>
-      <c r="Z511" s="74"/>
-      <c r="AA511" s="74"/>
-      <c r="AB511" s="74"/>
-      <c r="AC511" s="74"/>
-      <c r="AD511" s="74"/>
-      <c r="AE511" s="74"/>
-      <c r="AF511" s="74"/>
-      <c r="AG511" s="74"/>
-      <c r="AH511" s="74"/>
+      <c r="B511" s="77"/>
+      <c r="C511" s="77"/>
+      <c r="D511" s="77"/>
+      <c r="E511" s="77"/>
+      <c r="F511" s="77"/>
+      <c r="G511" s="77"/>
+      <c r="H511" s="77"/>
+      <c r="I511" s="77"/>
+      <c r="J511" s="77"/>
+      <c r="K511" s="77"/>
+      <c r="L511" s="77"/>
+      <c r="M511" s="77"/>
+      <c r="N511" s="77"/>
+      <c r="O511" s="77"/>
+      <c r="P511" s="77"/>
+      <c r="Q511" s="77"/>
+      <c r="R511" s="77"/>
+      <c r="S511" s="77"/>
+      <c r="T511" s="77"/>
+      <c r="U511" s="77"/>
+      <c r="V511" s="77"/>
+      <c r="W511" s="77"/>
+      <c r="X511" s="77"/>
+      <c r="Y511" s="77"/>
+      <c r="Z511" s="77"/>
+      <c r="AA511" s="77"/>
+      <c r="AB511" s="77"/>
+      <c r="AC511" s="77"/>
+      <c r="AD511" s="77"/>
+      <c r="AE511" s="77"/>
+      <c r="AF511" s="77"/>
+      <c r="AG511" s="77"/>
+      <c r="AH511" s="77"/>
     </row>
     <row r="512" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="513" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16711,39 +18685,39 @@
     <row r="710" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="711" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B712" s="74"/>
-      <c r="C712" s="74"/>
-      <c r="D712" s="74"/>
-      <c r="E712" s="74"/>
-      <c r="F712" s="74"/>
-      <c r="G712" s="74"/>
-      <c r="H712" s="74"/>
-      <c r="I712" s="74"/>
-      <c r="J712" s="74"/>
-      <c r="K712" s="74"/>
-      <c r="L712" s="74"/>
-      <c r="M712" s="74"/>
-      <c r="N712" s="74"/>
-      <c r="O712" s="74"/>
-      <c r="P712" s="74"/>
-      <c r="Q712" s="74"/>
-      <c r="R712" s="74"/>
-      <c r="S712" s="74"/>
-      <c r="T712" s="74"/>
-      <c r="U712" s="74"/>
-      <c r="V712" s="74"/>
-      <c r="W712" s="74"/>
-      <c r="X712" s="74"/>
-      <c r="Y712" s="74"/>
-      <c r="Z712" s="74"/>
-      <c r="AA712" s="74"/>
-      <c r="AB712" s="74"/>
-      <c r="AC712" s="74"/>
-      <c r="AD712" s="74"/>
-      <c r="AE712" s="74"/>
-      <c r="AF712" s="74"/>
-      <c r="AG712" s="74"/>
-      <c r="AH712" s="74"/>
+      <c r="B712" s="77"/>
+      <c r="C712" s="77"/>
+      <c r="D712" s="77"/>
+      <c r="E712" s="77"/>
+      <c r="F712" s="77"/>
+      <c r="G712" s="77"/>
+      <c r="H712" s="77"/>
+      <c r="I712" s="77"/>
+      <c r="J712" s="77"/>
+      <c r="K712" s="77"/>
+      <c r="L712" s="77"/>
+      <c r="M712" s="77"/>
+      <c r="N712" s="77"/>
+      <c r="O712" s="77"/>
+      <c r="P712" s="77"/>
+      <c r="Q712" s="77"/>
+      <c r="R712" s="77"/>
+      <c r="S712" s="77"/>
+      <c r="T712" s="77"/>
+      <c r="U712" s="77"/>
+      <c r="V712" s="77"/>
+      <c r="W712" s="77"/>
+      <c r="X712" s="77"/>
+      <c r="Y712" s="77"/>
+      <c r="Z712" s="77"/>
+      <c r="AA712" s="77"/>
+      <c r="AB712" s="77"/>
+      <c r="AC712" s="77"/>
+      <c r="AD712" s="77"/>
+      <c r="AE712" s="77"/>
+      <c r="AF712" s="77"/>
+      <c r="AG712" s="77"/>
+      <c r="AH712" s="77"/>
     </row>
     <row r="713" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="714" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16866,39 +18840,39 @@
     <row r="885" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="886" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B887" s="74"/>
-      <c r="C887" s="74"/>
-      <c r="D887" s="74"/>
-      <c r="E887" s="74"/>
-      <c r="F887" s="74"/>
-      <c r="G887" s="74"/>
-      <c r="H887" s="74"/>
-      <c r="I887" s="74"/>
-      <c r="J887" s="74"/>
-      <c r="K887" s="74"/>
-      <c r="L887" s="74"/>
-      <c r="M887" s="74"/>
-      <c r="N887" s="74"/>
-      <c r="O887" s="74"/>
-      <c r="P887" s="74"/>
-      <c r="Q887" s="74"/>
-      <c r="R887" s="74"/>
-      <c r="S887" s="74"/>
-      <c r="T887" s="74"/>
-      <c r="U887" s="74"/>
-      <c r="V887" s="74"/>
-      <c r="W887" s="74"/>
-      <c r="X887" s="74"/>
-      <c r="Y887" s="74"/>
-      <c r="Z887" s="74"/>
-      <c r="AA887" s="74"/>
-      <c r="AB887" s="74"/>
-      <c r="AC887" s="74"/>
-      <c r="AD887" s="74"/>
-      <c r="AE887" s="74"/>
-      <c r="AF887" s="74"/>
-      <c r="AG887" s="74"/>
-      <c r="AH887" s="74"/>
+      <c r="B887" s="77"/>
+      <c r="C887" s="77"/>
+      <c r="D887" s="77"/>
+      <c r="E887" s="77"/>
+      <c r="F887" s="77"/>
+      <c r="G887" s="77"/>
+      <c r="H887" s="77"/>
+      <c r="I887" s="77"/>
+      <c r="J887" s="77"/>
+      <c r="K887" s="77"/>
+      <c r="L887" s="77"/>
+      <c r="M887" s="77"/>
+      <c r="N887" s="77"/>
+      <c r="O887" s="77"/>
+      <c r="P887" s="77"/>
+      <c r="Q887" s="77"/>
+      <c r="R887" s="77"/>
+      <c r="S887" s="77"/>
+      <c r="T887" s="77"/>
+      <c r="U887" s="77"/>
+      <c r="V887" s="77"/>
+      <c r="W887" s="77"/>
+      <c r="X887" s="77"/>
+      <c r="Y887" s="77"/>
+      <c r="Z887" s="77"/>
+      <c r="AA887" s="77"/>
+      <c r="AB887" s="77"/>
+      <c r="AC887" s="77"/>
+      <c r="AD887" s="77"/>
+      <c r="AE887" s="77"/>
+      <c r="AF887" s="77"/>
+      <c r="AG887" s="77"/>
+      <c r="AH887" s="77"/>
     </row>
     <row r="888" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="889" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17061,39 +19035,39 @@
     <row r="1098" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1099" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1100" s="74"/>
-      <c r="C1100" s="74"/>
-      <c r="D1100" s="74"/>
-      <c r="E1100" s="74"/>
-      <c r="F1100" s="74"/>
-      <c r="G1100" s="74"/>
-      <c r="H1100" s="74"/>
-      <c r="I1100" s="74"/>
-      <c r="J1100" s="74"/>
-      <c r="K1100" s="74"/>
-      <c r="L1100" s="74"/>
-      <c r="M1100" s="74"/>
-      <c r="N1100" s="74"/>
-      <c r="O1100" s="74"/>
-      <c r="P1100" s="74"/>
-      <c r="Q1100" s="74"/>
-      <c r="R1100" s="74"/>
-      <c r="S1100" s="74"/>
-      <c r="T1100" s="74"/>
-      <c r="U1100" s="74"/>
-      <c r="V1100" s="74"/>
-      <c r="W1100" s="74"/>
-      <c r="X1100" s="74"/>
-      <c r="Y1100" s="74"/>
-      <c r="Z1100" s="74"/>
-      <c r="AA1100" s="74"/>
-      <c r="AB1100" s="74"/>
-      <c r="AC1100" s="74"/>
-      <c r="AD1100" s="74"/>
-      <c r="AE1100" s="74"/>
-      <c r="AF1100" s="74"/>
-      <c r="AG1100" s="74"/>
-      <c r="AH1100" s="74"/>
+      <c r="B1100" s="77"/>
+      <c r="C1100" s="77"/>
+      <c r="D1100" s="77"/>
+      <c r="E1100" s="77"/>
+      <c r="F1100" s="77"/>
+      <c r="G1100" s="77"/>
+      <c r="H1100" s="77"/>
+      <c r="I1100" s="77"/>
+      <c r="J1100" s="77"/>
+      <c r="K1100" s="77"/>
+      <c r="L1100" s="77"/>
+      <c r="M1100" s="77"/>
+      <c r="N1100" s="77"/>
+      <c r="O1100" s="77"/>
+      <c r="P1100" s="77"/>
+      <c r="Q1100" s="77"/>
+      <c r="R1100" s="77"/>
+      <c r="S1100" s="77"/>
+      <c r="T1100" s="77"/>
+      <c r="U1100" s="77"/>
+      <c r="V1100" s="77"/>
+      <c r="W1100" s="77"/>
+      <c r="X1100" s="77"/>
+      <c r="Y1100" s="77"/>
+      <c r="Z1100" s="77"/>
+      <c r="AA1100" s="77"/>
+      <c r="AB1100" s="77"/>
+      <c r="AC1100" s="77"/>
+      <c r="AD1100" s="77"/>
+      <c r="AE1100" s="77"/>
+      <c r="AF1100" s="77"/>
+      <c r="AG1100" s="77"/>
+      <c r="AH1100" s="77"/>
     </row>
     <row r="1101" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1102" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17181,39 +19155,39 @@
     <row r="1225" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1226" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1227" s="74"/>
-      <c r="C1227" s="74"/>
-      <c r="D1227" s="74"/>
-      <c r="E1227" s="74"/>
-      <c r="F1227" s="74"/>
-      <c r="G1227" s="74"/>
-      <c r="H1227" s="74"/>
-      <c r="I1227" s="74"/>
-      <c r="J1227" s="74"/>
-      <c r="K1227" s="74"/>
-      <c r="L1227" s="74"/>
-      <c r="M1227" s="74"/>
-      <c r="N1227" s="74"/>
-      <c r="O1227" s="74"/>
-      <c r="P1227" s="74"/>
-      <c r="Q1227" s="74"/>
-      <c r="R1227" s="74"/>
-      <c r="S1227" s="74"/>
-      <c r="T1227" s="74"/>
-      <c r="U1227" s="74"/>
-      <c r="V1227" s="74"/>
-      <c r="W1227" s="74"/>
-      <c r="X1227" s="74"/>
-      <c r="Y1227" s="74"/>
-      <c r="Z1227" s="74"/>
-      <c r="AA1227" s="74"/>
-      <c r="AB1227" s="74"/>
-      <c r="AC1227" s="74"/>
-      <c r="AD1227" s="74"/>
-      <c r="AE1227" s="74"/>
-      <c r="AF1227" s="74"/>
-      <c r="AG1227" s="74"/>
-      <c r="AH1227" s="74"/>
+      <c r="B1227" s="77"/>
+      <c r="C1227" s="77"/>
+      <c r="D1227" s="77"/>
+      <c r="E1227" s="77"/>
+      <c r="F1227" s="77"/>
+      <c r="G1227" s="77"/>
+      <c r="H1227" s="77"/>
+      <c r="I1227" s="77"/>
+      <c r="J1227" s="77"/>
+      <c r="K1227" s="77"/>
+      <c r="L1227" s="77"/>
+      <c r="M1227" s="77"/>
+      <c r="N1227" s="77"/>
+      <c r="O1227" s="77"/>
+      <c r="P1227" s="77"/>
+      <c r="Q1227" s="77"/>
+      <c r="R1227" s="77"/>
+      <c r="S1227" s="77"/>
+      <c r="T1227" s="77"/>
+      <c r="U1227" s="77"/>
+      <c r="V1227" s="77"/>
+      <c r="W1227" s="77"/>
+      <c r="X1227" s="77"/>
+      <c r="Y1227" s="77"/>
+      <c r="Z1227" s="77"/>
+      <c r="AA1227" s="77"/>
+      <c r="AB1227" s="77"/>
+      <c r="AC1227" s="77"/>
+      <c r="AD1227" s="77"/>
+      <c r="AE1227" s="77"/>
+      <c r="AF1227" s="77"/>
+      <c r="AG1227" s="77"/>
+      <c r="AH1227" s="77"/>
     </row>
     <row r="1228" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1229" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17307,39 +19281,39 @@
     <row r="1388" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1389" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1390" s="74"/>
-      <c r="C1390" s="74"/>
-      <c r="D1390" s="74"/>
-      <c r="E1390" s="74"/>
-      <c r="F1390" s="74"/>
-      <c r="G1390" s="74"/>
-      <c r="H1390" s="74"/>
-      <c r="I1390" s="74"/>
-      <c r="J1390" s="74"/>
-      <c r="K1390" s="74"/>
-      <c r="L1390" s="74"/>
-      <c r="M1390" s="74"/>
-      <c r="N1390" s="74"/>
-      <c r="O1390" s="74"/>
-      <c r="P1390" s="74"/>
-      <c r="Q1390" s="74"/>
-      <c r="R1390" s="74"/>
-      <c r="S1390" s="74"/>
-      <c r="T1390" s="74"/>
-      <c r="U1390" s="74"/>
-      <c r="V1390" s="74"/>
-      <c r="W1390" s="74"/>
-      <c r="X1390" s="74"/>
-      <c r="Y1390" s="74"/>
-      <c r="Z1390" s="74"/>
-      <c r="AA1390" s="74"/>
-      <c r="AB1390" s="74"/>
-      <c r="AC1390" s="74"/>
-      <c r="AD1390" s="74"/>
-      <c r="AE1390" s="74"/>
-      <c r="AF1390" s="74"/>
-      <c r="AG1390" s="74"/>
-      <c r="AH1390" s="74"/>
+      <c r="B1390" s="77"/>
+      <c r="C1390" s="77"/>
+      <c r="D1390" s="77"/>
+      <c r="E1390" s="77"/>
+      <c r="F1390" s="77"/>
+      <c r="G1390" s="77"/>
+      <c r="H1390" s="77"/>
+      <c r="I1390" s="77"/>
+      <c r="J1390" s="77"/>
+      <c r="K1390" s="77"/>
+      <c r="L1390" s="77"/>
+      <c r="M1390" s="77"/>
+      <c r="N1390" s="77"/>
+      <c r="O1390" s="77"/>
+      <c r="P1390" s="77"/>
+      <c r="Q1390" s="77"/>
+      <c r="R1390" s="77"/>
+      <c r="S1390" s="77"/>
+      <c r="T1390" s="77"/>
+      <c r="U1390" s="77"/>
+      <c r="V1390" s="77"/>
+      <c r="W1390" s="77"/>
+      <c r="X1390" s="77"/>
+      <c r="Y1390" s="77"/>
+      <c r="Z1390" s="77"/>
+      <c r="AA1390" s="77"/>
+      <c r="AB1390" s="77"/>
+      <c r="AC1390" s="77"/>
+      <c r="AD1390" s="77"/>
+      <c r="AE1390" s="77"/>
+      <c r="AF1390" s="77"/>
+      <c r="AG1390" s="77"/>
+      <c r="AH1390" s="77"/>
     </row>
     <row r="1391" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1392" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17434,39 +19408,39 @@
     <row r="1500" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1501" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1502" s="74"/>
-      <c r="C1502" s="74"/>
-      <c r="D1502" s="74"/>
-      <c r="E1502" s="74"/>
-      <c r="F1502" s="74"/>
-      <c r="G1502" s="74"/>
-      <c r="H1502" s="74"/>
-      <c r="I1502" s="74"/>
-      <c r="J1502" s="74"/>
-      <c r="K1502" s="74"/>
-      <c r="L1502" s="74"/>
-      <c r="M1502" s="74"/>
-      <c r="N1502" s="74"/>
-      <c r="O1502" s="74"/>
-      <c r="P1502" s="74"/>
-      <c r="Q1502" s="74"/>
-      <c r="R1502" s="74"/>
-      <c r="S1502" s="74"/>
-      <c r="T1502" s="74"/>
-      <c r="U1502" s="74"/>
-      <c r="V1502" s="74"/>
-      <c r="W1502" s="74"/>
-      <c r="X1502" s="74"/>
-      <c r="Y1502" s="74"/>
-      <c r="Z1502" s="74"/>
-      <c r="AA1502" s="74"/>
-      <c r="AB1502" s="74"/>
-      <c r="AC1502" s="74"/>
-      <c r="AD1502" s="74"/>
-      <c r="AE1502" s="74"/>
-      <c r="AF1502" s="74"/>
-      <c r="AG1502" s="74"/>
-      <c r="AH1502" s="74"/>
+      <c r="B1502" s="77"/>
+      <c r="C1502" s="77"/>
+      <c r="D1502" s="77"/>
+      <c r="E1502" s="77"/>
+      <c r="F1502" s="77"/>
+      <c r="G1502" s="77"/>
+      <c r="H1502" s="77"/>
+      <c r="I1502" s="77"/>
+      <c r="J1502" s="77"/>
+      <c r="K1502" s="77"/>
+      <c r="L1502" s="77"/>
+      <c r="M1502" s="77"/>
+      <c r="N1502" s="77"/>
+      <c r="O1502" s="77"/>
+      <c r="P1502" s="77"/>
+      <c r="Q1502" s="77"/>
+      <c r="R1502" s="77"/>
+      <c r="S1502" s="77"/>
+      <c r="T1502" s="77"/>
+      <c r="U1502" s="77"/>
+      <c r="V1502" s="77"/>
+      <c r="W1502" s="77"/>
+      <c r="X1502" s="77"/>
+      <c r="Y1502" s="77"/>
+      <c r="Z1502" s="77"/>
+      <c r="AA1502" s="77"/>
+      <c r="AB1502" s="77"/>
+      <c r="AC1502" s="77"/>
+      <c r="AD1502" s="77"/>
+      <c r="AE1502" s="77"/>
+      <c r="AF1502" s="77"/>
+      <c r="AG1502" s="77"/>
+      <c r="AH1502" s="77"/>
     </row>
     <row r="1503" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1504" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17517,39 +19491,39 @@
     <row r="1602" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1603" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1604" s="74"/>
-      <c r="C1604" s="74"/>
-      <c r="D1604" s="74"/>
-      <c r="E1604" s="74"/>
-      <c r="F1604" s="74"/>
-      <c r="G1604" s="74"/>
-      <c r="H1604" s="74"/>
-      <c r="I1604" s="74"/>
-      <c r="J1604" s="74"/>
-      <c r="K1604" s="74"/>
-      <c r="L1604" s="74"/>
-      <c r="M1604" s="74"/>
-      <c r="N1604" s="74"/>
-      <c r="O1604" s="74"/>
-      <c r="P1604" s="74"/>
-      <c r="Q1604" s="74"/>
-      <c r="R1604" s="74"/>
-      <c r="S1604" s="74"/>
-      <c r="T1604" s="74"/>
-      <c r="U1604" s="74"/>
-      <c r="V1604" s="74"/>
-      <c r="W1604" s="74"/>
-      <c r="X1604" s="74"/>
-      <c r="Y1604" s="74"/>
-      <c r="Z1604" s="74"/>
-      <c r="AA1604" s="74"/>
-      <c r="AB1604" s="74"/>
-      <c r="AC1604" s="74"/>
-      <c r="AD1604" s="74"/>
-      <c r="AE1604" s="74"/>
-      <c r="AF1604" s="74"/>
-      <c r="AG1604" s="74"/>
-      <c r="AH1604" s="74"/>
+      <c r="B1604" s="77"/>
+      <c r="C1604" s="77"/>
+      <c r="D1604" s="77"/>
+      <c r="E1604" s="77"/>
+      <c r="F1604" s="77"/>
+      <c r="G1604" s="77"/>
+      <c r="H1604" s="77"/>
+      <c r="I1604" s="77"/>
+      <c r="J1604" s="77"/>
+      <c r="K1604" s="77"/>
+      <c r="L1604" s="77"/>
+      <c r="M1604" s="77"/>
+      <c r="N1604" s="77"/>
+      <c r="O1604" s="77"/>
+      <c r="P1604" s="77"/>
+      <c r="Q1604" s="77"/>
+      <c r="R1604" s="77"/>
+      <c r="S1604" s="77"/>
+      <c r="T1604" s="77"/>
+      <c r="U1604" s="77"/>
+      <c r="V1604" s="77"/>
+      <c r="W1604" s="77"/>
+      <c r="X1604" s="77"/>
+      <c r="Y1604" s="77"/>
+      <c r="Z1604" s="77"/>
+      <c r="AA1604" s="77"/>
+      <c r="AB1604" s="77"/>
+      <c r="AC1604" s="77"/>
+      <c r="AD1604" s="77"/>
+      <c r="AE1604" s="77"/>
+      <c r="AF1604" s="77"/>
+      <c r="AG1604" s="77"/>
+      <c r="AH1604" s="77"/>
     </row>
     <row r="1605" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1606" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17625,39 +19599,39 @@
     <row r="1695" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1697" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1698" s="74"/>
-      <c r="C1698" s="74"/>
-      <c r="D1698" s="74"/>
-      <c r="E1698" s="74"/>
-      <c r="F1698" s="74"/>
-      <c r="G1698" s="74"/>
-      <c r="H1698" s="74"/>
-      <c r="I1698" s="74"/>
-      <c r="J1698" s="74"/>
-      <c r="K1698" s="74"/>
-      <c r="L1698" s="74"/>
-      <c r="M1698" s="74"/>
-      <c r="N1698" s="74"/>
-      <c r="O1698" s="74"/>
-      <c r="P1698" s="74"/>
-      <c r="Q1698" s="74"/>
-      <c r="R1698" s="74"/>
-      <c r="S1698" s="74"/>
-      <c r="T1698" s="74"/>
-      <c r="U1698" s="74"/>
-      <c r="V1698" s="74"/>
-      <c r="W1698" s="74"/>
-      <c r="X1698" s="74"/>
-      <c r="Y1698" s="74"/>
-      <c r="Z1698" s="74"/>
-      <c r="AA1698" s="74"/>
-      <c r="AB1698" s="74"/>
-      <c r="AC1698" s="74"/>
-      <c r="AD1698" s="74"/>
-      <c r="AE1698" s="74"/>
-      <c r="AF1698" s="74"/>
-      <c r="AG1698" s="74"/>
-      <c r="AH1698" s="74"/>
+      <c r="B1698" s="77"/>
+      <c r="C1698" s="77"/>
+      <c r="D1698" s="77"/>
+      <c r="E1698" s="77"/>
+      <c r="F1698" s="77"/>
+      <c r="G1698" s="77"/>
+      <c r="H1698" s="77"/>
+      <c r="I1698" s="77"/>
+      <c r="J1698" s="77"/>
+      <c r="K1698" s="77"/>
+      <c r="L1698" s="77"/>
+      <c r="M1698" s="77"/>
+      <c r="N1698" s="77"/>
+      <c r="O1698" s="77"/>
+      <c r="P1698" s="77"/>
+      <c r="Q1698" s="77"/>
+      <c r="R1698" s="77"/>
+      <c r="S1698" s="77"/>
+      <c r="T1698" s="77"/>
+      <c r="U1698" s="77"/>
+      <c r="V1698" s="77"/>
+      <c r="W1698" s="77"/>
+      <c r="X1698" s="77"/>
+      <c r="Y1698" s="77"/>
+      <c r="Z1698" s="77"/>
+      <c r="AA1698" s="77"/>
+      <c r="AB1698" s="77"/>
+      <c r="AC1698" s="77"/>
+      <c r="AD1698" s="77"/>
+      <c r="AE1698" s="77"/>
+      <c r="AF1698" s="77"/>
+      <c r="AG1698" s="77"/>
+      <c r="AH1698" s="77"/>
     </row>
     <row r="1699" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1700" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17768,39 +19742,39 @@
     <row r="1943" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1944" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1945" s="74"/>
-      <c r="C1945" s="74"/>
-      <c r="D1945" s="74"/>
-      <c r="E1945" s="74"/>
-      <c r="F1945" s="74"/>
-      <c r="G1945" s="74"/>
-      <c r="H1945" s="74"/>
-      <c r="I1945" s="74"/>
-      <c r="J1945" s="74"/>
-      <c r="K1945" s="74"/>
-      <c r="L1945" s="74"/>
-      <c r="M1945" s="74"/>
-      <c r="N1945" s="74"/>
-      <c r="O1945" s="74"/>
-      <c r="P1945" s="74"/>
-      <c r="Q1945" s="74"/>
-      <c r="R1945" s="74"/>
-      <c r="S1945" s="74"/>
-      <c r="T1945" s="74"/>
-      <c r="U1945" s="74"/>
-      <c r="V1945" s="74"/>
-      <c r="W1945" s="74"/>
-      <c r="X1945" s="74"/>
-      <c r="Y1945" s="74"/>
-      <c r="Z1945" s="74"/>
-      <c r="AA1945" s="74"/>
-      <c r="AB1945" s="74"/>
-      <c r="AC1945" s="74"/>
-      <c r="AD1945" s="74"/>
-      <c r="AE1945" s="74"/>
-      <c r="AF1945" s="74"/>
-      <c r="AG1945" s="74"/>
-      <c r="AH1945" s="74"/>
+      <c r="B1945" s="77"/>
+      <c r="C1945" s="77"/>
+      <c r="D1945" s="77"/>
+      <c r="E1945" s="77"/>
+      <c r="F1945" s="77"/>
+      <c r="G1945" s="77"/>
+      <c r="H1945" s="77"/>
+      <c r="I1945" s="77"/>
+      <c r="J1945" s="77"/>
+      <c r="K1945" s="77"/>
+      <c r="L1945" s="77"/>
+      <c r="M1945" s="77"/>
+      <c r="N1945" s="77"/>
+      <c r="O1945" s="77"/>
+      <c r="P1945" s="77"/>
+      <c r="Q1945" s="77"/>
+      <c r="R1945" s="77"/>
+      <c r="S1945" s="77"/>
+      <c r="T1945" s="77"/>
+      <c r="U1945" s="77"/>
+      <c r="V1945" s="77"/>
+      <c r="W1945" s="77"/>
+      <c r="X1945" s="77"/>
+      <c r="Y1945" s="77"/>
+      <c r="Z1945" s="77"/>
+      <c r="AA1945" s="77"/>
+      <c r="AB1945" s="77"/>
+      <c r="AC1945" s="77"/>
+      <c r="AD1945" s="77"/>
+      <c r="AE1945" s="77"/>
+      <c r="AF1945" s="77"/>
+      <c r="AG1945" s="77"/>
+      <c r="AH1945" s="77"/>
     </row>
     <row r="1946" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1947" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17861,39 +19835,39 @@
     <row r="2029" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2030" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2031" s="74"/>
-      <c r="C2031" s="74"/>
-      <c r="D2031" s="74"/>
-      <c r="E2031" s="74"/>
-      <c r="F2031" s="74"/>
-      <c r="G2031" s="74"/>
-      <c r="H2031" s="74"/>
-      <c r="I2031" s="74"/>
-      <c r="J2031" s="74"/>
-      <c r="K2031" s="74"/>
-      <c r="L2031" s="74"/>
-      <c r="M2031" s="74"/>
-      <c r="N2031" s="74"/>
-      <c r="O2031" s="74"/>
-      <c r="P2031" s="74"/>
-      <c r="Q2031" s="74"/>
-      <c r="R2031" s="74"/>
-      <c r="S2031" s="74"/>
-      <c r="T2031" s="74"/>
-      <c r="U2031" s="74"/>
-      <c r="V2031" s="74"/>
-      <c r="W2031" s="74"/>
-      <c r="X2031" s="74"/>
-      <c r="Y2031" s="74"/>
-      <c r="Z2031" s="74"/>
-      <c r="AA2031" s="74"/>
-      <c r="AB2031" s="74"/>
-      <c r="AC2031" s="74"/>
-      <c r="AD2031" s="74"/>
-      <c r="AE2031" s="74"/>
-      <c r="AF2031" s="74"/>
-      <c r="AG2031" s="74"/>
-      <c r="AH2031" s="74"/>
+      <c r="B2031" s="77"/>
+      <c r="C2031" s="77"/>
+      <c r="D2031" s="77"/>
+      <c r="E2031" s="77"/>
+      <c r="F2031" s="77"/>
+      <c r="G2031" s="77"/>
+      <c r="H2031" s="77"/>
+      <c r="I2031" s="77"/>
+      <c r="J2031" s="77"/>
+      <c r="K2031" s="77"/>
+      <c r="L2031" s="77"/>
+      <c r="M2031" s="77"/>
+      <c r="N2031" s="77"/>
+      <c r="O2031" s="77"/>
+      <c r="P2031" s="77"/>
+      <c r="Q2031" s="77"/>
+      <c r="R2031" s="77"/>
+      <c r="S2031" s="77"/>
+      <c r="T2031" s="77"/>
+      <c r="U2031" s="77"/>
+      <c r="V2031" s="77"/>
+      <c r="W2031" s="77"/>
+      <c r="X2031" s="77"/>
+      <c r="Y2031" s="77"/>
+      <c r="Z2031" s="77"/>
+      <c r="AA2031" s="77"/>
+      <c r="AB2031" s="77"/>
+      <c r="AC2031" s="77"/>
+      <c r="AD2031" s="77"/>
+      <c r="AE2031" s="77"/>
+      <c r="AF2031" s="77"/>
+      <c r="AG2031" s="77"/>
+      <c r="AH2031" s="77"/>
     </row>
     <row r="2032" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2033" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17962,39 +19936,39 @@
     <row r="2151" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2152" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2153" s="74"/>
-      <c r="C2153" s="74"/>
-      <c r="D2153" s="74"/>
-      <c r="E2153" s="74"/>
-      <c r="F2153" s="74"/>
-      <c r="G2153" s="74"/>
-      <c r="H2153" s="74"/>
-      <c r="I2153" s="74"/>
-      <c r="J2153" s="74"/>
-      <c r="K2153" s="74"/>
-      <c r="L2153" s="74"/>
-      <c r="M2153" s="74"/>
-      <c r="N2153" s="74"/>
-      <c r="O2153" s="74"/>
-      <c r="P2153" s="74"/>
-      <c r="Q2153" s="74"/>
-      <c r="R2153" s="74"/>
-      <c r="S2153" s="74"/>
-      <c r="T2153" s="74"/>
-      <c r="U2153" s="74"/>
-      <c r="V2153" s="74"/>
-      <c r="W2153" s="74"/>
-      <c r="X2153" s="74"/>
-      <c r="Y2153" s="74"/>
-      <c r="Z2153" s="74"/>
-      <c r="AA2153" s="74"/>
-      <c r="AB2153" s="74"/>
-      <c r="AC2153" s="74"/>
-      <c r="AD2153" s="74"/>
-      <c r="AE2153" s="74"/>
-      <c r="AF2153" s="74"/>
-      <c r="AG2153" s="74"/>
-      <c r="AH2153" s="74"/>
+      <c r="B2153" s="77"/>
+      <c r="C2153" s="77"/>
+      <c r="D2153" s="77"/>
+      <c r="E2153" s="77"/>
+      <c r="F2153" s="77"/>
+      <c r="G2153" s="77"/>
+      <c r="H2153" s="77"/>
+      <c r="I2153" s="77"/>
+      <c r="J2153" s="77"/>
+      <c r="K2153" s="77"/>
+      <c r="L2153" s="77"/>
+      <c r="M2153" s="77"/>
+      <c r="N2153" s="77"/>
+      <c r="O2153" s="77"/>
+      <c r="P2153" s="77"/>
+      <c r="Q2153" s="77"/>
+      <c r="R2153" s="77"/>
+      <c r="S2153" s="77"/>
+      <c r="T2153" s="77"/>
+      <c r="U2153" s="77"/>
+      <c r="V2153" s="77"/>
+      <c r="W2153" s="77"/>
+      <c r="X2153" s="77"/>
+      <c r="Y2153" s="77"/>
+      <c r="Z2153" s="77"/>
+      <c r="AA2153" s="77"/>
+      <c r="AB2153" s="77"/>
+      <c r="AC2153" s="77"/>
+      <c r="AD2153" s="77"/>
+      <c r="AE2153" s="77"/>
+      <c r="AF2153" s="77"/>
+      <c r="AG2153" s="77"/>
+      <c r="AH2153" s="77"/>
     </row>
     <row r="2154" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2155" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18062,39 +20036,39 @@
     <row r="2315" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2316" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2317" s="74"/>
-      <c r="C2317" s="74"/>
-      <c r="D2317" s="74"/>
-      <c r="E2317" s="74"/>
-      <c r="F2317" s="74"/>
-      <c r="G2317" s="74"/>
-      <c r="H2317" s="74"/>
-      <c r="I2317" s="74"/>
-      <c r="J2317" s="74"/>
-      <c r="K2317" s="74"/>
-      <c r="L2317" s="74"/>
-      <c r="M2317" s="74"/>
-      <c r="N2317" s="74"/>
-      <c r="O2317" s="74"/>
-      <c r="P2317" s="74"/>
-      <c r="Q2317" s="74"/>
-      <c r="R2317" s="74"/>
-      <c r="S2317" s="74"/>
-      <c r="T2317" s="74"/>
-      <c r="U2317" s="74"/>
-      <c r="V2317" s="74"/>
-      <c r="W2317" s="74"/>
-      <c r="X2317" s="74"/>
-      <c r="Y2317" s="74"/>
-      <c r="Z2317" s="74"/>
-      <c r="AA2317" s="74"/>
-      <c r="AB2317" s="74"/>
-      <c r="AC2317" s="74"/>
-      <c r="AD2317" s="74"/>
-      <c r="AE2317" s="74"/>
-      <c r="AF2317" s="74"/>
-      <c r="AG2317" s="74"/>
-      <c r="AH2317" s="74"/>
+      <c r="B2317" s="77"/>
+      <c r="C2317" s="77"/>
+      <c r="D2317" s="77"/>
+      <c r="E2317" s="77"/>
+      <c r="F2317" s="77"/>
+      <c r="G2317" s="77"/>
+      <c r="H2317" s="77"/>
+      <c r="I2317" s="77"/>
+      <c r="J2317" s="77"/>
+      <c r="K2317" s="77"/>
+      <c r="L2317" s="77"/>
+      <c r="M2317" s="77"/>
+      <c r="N2317" s="77"/>
+      <c r="O2317" s="77"/>
+      <c r="P2317" s="77"/>
+      <c r="Q2317" s="77"/>
+      <c r="R2317" s="77"/>
+      <c r="S2317" s="77"/>
+      <c r="T2317" s="77"/>
+      <c r="U2317" s="77"/>
+      <c r="V2317" s="77"/>
+      <c r="W2317" s="77"/>
+      <c r="X2317" s="77"/>
+      <c r="Y2317" s="77"/>
+      <c r="Z2317" s="77"/>
+      <c r="AA2317" s="77"/>
+      <c r="AB2317" s="77"/>
+      <c r="AC2317" s="77"/>
+      <c r="AD2317" s="77"/>
+      <c r="AE2317" s="77"/>
+      <c r="AF2317" s="77"/>
+      <c r="AG2317" s="77"/>
+      <c r="AH2317" s="77"/>
     </row>
     <row r="2318" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2319" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18177,39 +20151,39 @@
     <row r="2417" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2418" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2419" s="74"/>
-      <c r="C2419" s="74"/>
-      <c r="D2419" s="74"/>
-      <c r="E2419" s="74"/>
-      <c r="F2419" s="74"/>
-      <c r="G2419" s="74"/>
-      <c r="H2419" s="74"/>
-      <c r="I2419" s="74"/>
-      <c r="J2419" s="74"/>
-      <c r="K2419" s="74"/>
-      <c r="L2419" s="74"/>
-      <c r="M2419" s="74"/>
-      <c r="N2419" s="74"/>
-      <c r="O2419" s="74"/>
-      <c r="P2419" s="74"/>
-      <c r="Q2419" s="74"/>
-      <c r="R2419" s="74"/>
-      <c r="S2419" s="74"/>
-      <c r="T2419" s="74"/>
-      <c r="U2419" s="74"/>
-      <c r="V2419" s="74"/>
-      <c r="W2419" s="74"/>
-      <c r="X2419" s="74"/>
-      <c r="Y2419" s="74"/>
-      <c r="Z2419" s="74"/>
-      <c r="AA2419" s="74"/>
-      <c r="AB2419" s="74"/>
-      <c r="AC2419" s="74"/>
-      <c r="AD2419" s="74"/>
-      <c r="AE2419" s="74"/>
-      <c r="AF2419" s="74"/>
-      <c r="AG2419" s="74"/>
-      <c r="AH2419" s="74"/>
+      <c r="B2419" s="77"/>
+      <c r="C2419" s="77"/>
+      <c r="D2419" s="77"/>
+      <c r="E2419" s="77"/>
+      <c r="F2419" s="77"/>
+      <c r="G2419" s="77"/>
+      <c r="H2419" s="77"/>
+      <c r="I2419" s="77"/>
+      <c r="J2419" s="77"/>
+      <c r="K2419" s="77"/>
+      <c r="L2419" s="77"/>
+      <c r="M2419" s="77"/>
+      <c r="N2419" s="77"/>
+      <c r="O2419" s="77"/>
+      <c r="P2419" s="77"/>
+      <c r="Q2419" s="77"/>
+      <c r="R2419" s="77"/>
+      <c r="S2419" s="77"/>
+      <c r="T2419" s="77"/>
+      <c r="U2419" s="77"/>
+      <c r="V2419" s="77"/>
+      <c r="W2419" s="77"/>
+      <c r="X2419" s="77"/>
+      <c r="Y2419" s="77"/>
+      <c r="Z2419" s="77"/>
+      <c r="AA2419" s="77"/>
+      <c r="AB2419" s="77"/>
+      <c r="AC2419" s="77"/>
+      <c r="AD2419" s="77"/>
+      <c r="AE2419" s="77"/>
+      <c r="AF2419" s="77"/>
+      <c r="AG2419" s="77"/>
+      <c r="AH2419" s="77"/>
     </row>
     <row r="2420" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2421" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18279,39 +20253,39 @@
     <row r="2507" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2508" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2509" s="74"/>
-      <c r="C2509" s="74"/>
-      <c r="D2509" s="74"/>
-      <c r="E2509" s="74"/>
-      <c r="F2509" s="74"/>
-      <c r="G2509" s="74"/>
-      <c r="H2509" s="74"/>
-      <c r="I2509" s="74"/>
-      <c r="J2509" s="74"/>
-      <c r="K2509" s="74"/>
-      <c r="L2509" s="74"/>
-      <c r="M2509" s="74"/>
-      <c r="N2509" s="74"/>
-      <c r="O2509" s="74"/>
-      <c r="P2509" s="74"/>
-      <c r="Q2509" s="74"/>
-      <c r="R2509" s="74"/>
-      <c r="S2509" s="74"/>
-      <c r="T2509" s="74"/>
-      <c r="U2509" s="74"/>
-      <c r="V2509" s="74"/>
-      <c r="W2509" s="74"/>
-      <c r="X2509" s="74"/>
-      <c r="Y2509" s="74"/>
-      <c r="Z2509" s="74"/>
-      <c r="AA2509" s="74"/>
-      <c r="AB2509" s="74"/>
-      <c r="AC2509" s="74"/>
-      <c r="AD2509" s="74"/>
-      <c r="AE2509" s="74"/>
-      <c r="AF2509" s="74"/>
-      <c r="AG2509" s="74"/>
-      <c r="AH2509" s="74"/>
+      <c r="B2509" s="77"/>
+      <c r="C2509" s="77"/>
+      <c r="D2509" s="77"/>
+      <c r="E2509" s="77"/>
+      <c r="F2509" s="77"/>
+      <c r="G2509" s="77"/>
+      <c r="H2509" s="77"/>
+      <c r="I2509" s="77"/>
+      <c r="J2509" s="77"/>
+      <c r="K2509" s="77"/>
+      <c r="L2509" s="77"/>
+      <c r="M2509" s="77"/>
+      <c r="N2509" s="77"/>
+      <c r="O2509" s="77"/>
+      <c r="P2509" s="77"/>
+      <c r="Q2509" s="77"/>
+      <c r="R2509" s="77"/>
+      <c r="S2509" s="77"/>
+      <c r="T2509" s="77"/>
+      <c r="U2509" s="77"/>
+      <c r="V2509" s="77"/>
+      <c r="W2509" s="77"/>
+      <c r="X2509" s="77"/>
+      <c r="Y2509" s="77"/>
+      <c r="Z2509" s="77"/>
+      <c r="AA2509" s="77"/>
+      <c r="AB2509" s="77"/>
+      <c r="AC2509" s="77"/>
+      <c r="AD2509" s="77"/>
+      <c r="AE2509" s="77"/>
+      <c r="AF2509" s="77"/>
+      <c r="AG2509" s="77"/>
+      <c r="AH2509" s="77"/>
     </row>
     <row r="2510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18376,39 +20350,39 @@
     <row r="2596" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2597" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2598" s="74"/>
-      <c r="C2598" s="74"/>
-      <c r="D2598" s="74"/>
-      <c r="E2598" s="74"/>
-      <c r="F2598" s="74"/>
-      <c r="G2598" s="74"/>
-      <c r="H2598" s="74"/>
-      <c r="I2598" s="74"/>
-      <c r="J2598" s="74"/>
-      <c r="K2598" s="74"/>
-      <c r="L2598" s="74"/>
-      <c r="M2598" s="74"/>
-      <c r="N2598" s="74"/>
-      <c r="O2598" s="74"/>
-      <c r="P2598" s="74"/>
-      <c r="Q2598" s="74"/>
-      <c r="R2598" s="74"/>
-      <c r="S2598" s="74"/>
-      <c r="T2598" s="74"/>
-      <c r="U2598" s="74"/>
-      <c r="V2598" s="74"/>
-      <c r="W2598" s="74"/>
-      <c r="X2598" s="74"/>
-      <c r="Y2598" s="74"/>
-      <c r="Z2598" s="74"/>
-      <c r="AA2598" s="74"/>
-      <c r="AB2598" s="74"/>
-      <c r="AC2598" s="74"/>
-      <c r="AD2598" s="74"/>
-      <c r="AE2598" s="74"/>
-      <c r="AF2598" s="74"/>
-      <c r="AG2598" s="74"/>
-      <c r="AH2598" s="74"/>
+      <c r="B2598" s="77"/>
+      <c r="C2598" s="77"/>
+      <c r="D2598" s="77"/>
+      <c r="E2598" s="77"/>
+      <c r="F2598" s="77"/>
+      <c r="G2598" s="77"/>
+      <c r="H2598" s="77"/>
+      <c r="I2598" s="77"/>
+      <c r="J2598" s="77"/>
+      <c r="K2598" s="77"/>
+      <c r="L2598" s="77"/>
+      <c r="M2598" s="77"/>
+      <c r="N2598" s="77"/>
+      <c r="O2598" s="77"/>
+      <c r="P2598" s="77"/>
+      <c r="Q2598" s="77"/>
+      <c r="R2598" s="77"/>
+      <c r="S2598" s="77"/>
+      <c r="T2598" s="77"/>
+      <c r="U2598" s="77"/>
+      <c r="V2598" s="77"/>
+      <c r="W2598" s="77"/>
+      <c r="X2598" s="77"/>
+      <c r="Y2598" s="77"/>
+      <c r="Z2598" s="77"/>
+      <c r="AA2598" s="77"/>
+      <c r="AB2598" s="77"/>
+      <c r="AC2598" s="77"/>
+      <c r="AD2598" s="77"/>
+      <c r="AE2598" s="77"/>
+      <c r="AF2598" s="77"/>
+      <c r="AG2598" s="77"/>
+      <c r="AH2598" s="77"/>
     </row>
     <row r="2599" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2600" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18515,39 +20489,39 @@
     <row r="2717" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2718" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2719" s="74"/>
-      <c r="C2719" s="74"/>
-      <c r="D2719" s="74"/>
-      <c r="E2719" s="74"/>
-      <c r="F2719" s="74"/>
-      <c r="G2719" s="74"/>
-      <c r="H2719" s="74"/>
-      <c r="I2719" s="74"/>
-      <c r="J2719" s="74"/>
-      <c r="K2719" s="74"/>
-      <c r="L2719" s="74"/>
-      <c r="M2719" s="74"/>
-      <c r="N2719" s="74"/>
-      <c r="O2719" s="74"/>
-      <c r="P2719" s="74"/>
-      <c r="Q2719" s="74"/>
-      <c r="R2719" s="74"/>
-      <c r="S2719" s="74"/>
-      <c r="T2719" s="74"/>
-      <c r="U2719" s="74"/>
-      <c r="V2719" s="74"/>
-      <c r="W2719" s="74"/>
-      <c r="X2719" s="74"/>
-      <c r="Y2719" s="74"/>
-      <c r="Z2719" s="74"/>
-      <c r="AA2719" s="74"/>
-      <c r="AB2719" s="74"/>
-      <c r="AC2719" s="74"/>
-      <c r="AD2719" s="74"/>
-      <c r="AE2719" s="74"/>
-      <c r="AF2719" s="74"/>
-      <c r="AG2719" s="74"/>
-      <c r="AH2719" s="74"/>
+      <c r="B2719" s="77"/>
+      <c r="C2719" s="77"/>
+      <c r="D2719" s="77"/>
+      <c r="E2719" s="77"/>
+      <c r="F2719" s="77"/>
+      <c r="G2719" s="77"/>
+      <c r="H2719" s="77"/>
+      <c r="I2719" s="77"/>
+      <c r="J2719" s="77"/>
+      <c r="K2719" s="77"/>
+      <c r="L2719" s="77"/>
+      <c r="M2719" s="77"/>
+      <c r="N2719" s="77"/>
+      <c r="O2719" s="77"/>
+      <c r="P2719" s="77"/>
+      <c r="Q2719" s="77"/>
+      <c r="R2719" s="77"/>
+      <c r="S2719" s="77"/>
+      <c r="T2719" s="77"/>
+      <c r="U2719" s="77"/>
+      <c r="V2719" s="77"/>
+      <c r="W2719" s="77"/>
+      <c r="X2719" s="77"/>
+      <c r="Y2719" s="77"/>
+      <c r="Z2719" s="77"/>
+      <c r="AA2719" s="77"/>
+      <c r="AB2719" s="77"/>
+      <c r="AC2719" s="77"/>
+      <c r="AD2719" s="77"/>
+      <c r="AE2719" s="77"/>
+      <c r="AF2719" s="77"/>
+      <c r="AG2719" s="77"/>
+      <c r="AH2719" s="77"/>
     </row>
     <row r="2720" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2721" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18627,39 +20601,39 @@
     <row r="2835" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2836" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2837" s="74"/>
-      <c r="C2837" s="74"/>
-      <c r="D2837" s="74"/>
-      <c r="E2837" s="74"/>
-      <c r="F2837" s="74"/>
-      <c r="G2837" s="74"/>
-      <c r="H2837" s="74"/>
-      <c r="I2837" s="74"/>
-      <c r="J2837" s="74"/>
-      <c r="K2837" s="74"/>
-      <c r="L2837" s="74"/>
-      <c r="M2837" s="74"/>
-      <c r="N2837" s="74"/>
-      <c r="O2837" s="74"/>
-      <c r="P2837" s="74"/>
-      <c r="Q2837" s="74"/>
-      <c r="R2837" s="74"/>
-      <c r="S2837" s="74"/>
-      <c r="T2837" s="74"/>
-      <c r="U2837" s="74"/>
-      <c r="V2837" s="74"/>
-      <c r="W2837" s="74"/>
-      <c r="X2837" s="74"/>
-      <c r="Y2837" s="74"/>
-      <c r="Z2837" s="74"/>
-      <c r="AA2837" s="74"/>
-      <c r="AB2837" s="74"/>
-      <c r="AC2837" s="74"/>
-      <c r="AD2837" s="74"/>
-      <c r="AE2837" s="74"/>
-      <c r="AF2837" s="74"/>
-      <c r="AG2837" s="74"/>
-      <c r="AH2837" s="74"/>
+      <c r="B2837" s="77"/>
+      <c r="C2837" s="77"/>
+      <c r="D2837" s="77"/>
+      <c r="E2837" s="77"/>
+      <c r="F2837" s="77"/>
+      <c r="G2837" s="77"/>
+      <c r="H2837" s="77"/>
+      <c r="I2837" s="77"/>
+      <c r="J2837" s="77"/>
+      <c r="K2837" s="77"/>
+      <c r="L2837" s="77"/>
+      <c r="M2837" s="77"/>
+      <c r="N2837" s="77"/>
+      <c r="O2837" s="77"/>
+      <c r="P2837" s="77"/>
+      <c r="Q2837" s="77"/>
+      <c r="R2837" s="77"/>
+      <c r="S2837" s="77"/>
+      <c r="T2837" s="77"/>
+      <c r="U2837" s="77"/>
+      <c r="V2837" s="77"/>
+      <c r="W2837" s="77"/>
+      <c r="X2837" s="77"/>
+      <c r="Y2837" s="77"/>
+      <c r="Z2837" s="77"/>
+      <c r="AA2837" s="77"/>
+      <c r="AB2837" s="77"/>
+      <c r="AC2837" s="77"/>
+      <c r="AD2837" s="77"/>
+      <c r="AE2837" s="77"/>
+      <c r="AF2837" s="77"/>
+      <c r="AG2837" s="77"/>
+      <c r="AH2837" s="77"/>
     </row>
     <row r="2838" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2839" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18667,27 +20641,27 @@
     <row r="2841" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B72:AG72"/>
-    <mergeCell ref="B112:AH112"/>
-    <mergeCell ref="B308:AH308"/>
-    <mergeCell ref="B511:AH511"/>
-    <mergeCell ref="B712:AH712"/>
-    <mergeCell ref="B887:AH887"/>
-    <mergeCell ref="B1100:AH1100"/>
-    <mergeCell ref="B1227:AH1227"/>
-    <mergeCell ref="B1390:AH1390"/>
-    <mergeCell ref="B1502:AH1502"/>
-    <mergeCell ref="B1604:AH1604"/>
-    <mergeCell ref="B1698:AH1698"/>
-    <mergeCell ref="B1945:AH1945"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2719:AH2719"/>
     <mergeCell ref="B2837:AH2837"/>
     <mergeCell ref="B2153:AH2153"/>
     <mergeCell ref="B2317:AH2317"/>
     <mergeCell ref="B2419:AH2419"/>
     <mergeCell ref="B2509:AH2509"/>
     <mergeCell ref="B2598:AH2598"/>
+    <mergeCell ref="B1604:AH1604"/>
+    <mergeCell ref="B1698:AH1698"/>
+    <mergeCell ref="B1945:AH1945"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2719:AH2719"/>
+    <mergeCell ref="B887:AH887"/>
+    <mergeCell ref="B1100:AH1100"/>
+    <mergeCell ref="B1227:AH1227"/>
+    <mergeCell ref="B1390:AH1390"/>
+    <mergeCell ref="B1502:AH1502"/>
+    <mergeCell ref="B72:AG72"/>
+    <mergeCell ref="B112:AH112"/>
+    <mergeCell ref="B308:AH308"/>
+    <mergeCell ref="B511:AH511"/>
+    <mergeCell ref="B712:AH712"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18712,7 +20686,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="61" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C1" s="63">
         <v>2020</v>
@@ -18814,7 +20788,7 @@
         <v>531</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E3" s="67"/>
       <c r="F3" s="67"/>
@@ -18826,7 +20800,7 @@
         <v>532</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E4" s="67"/>
       <c r="F4" s="67"/>
@@ -18840,7 +20814,7 @@
         <v>534</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E5" s="67"/>
       <c r="F5" s="67"/>
@@ -18853,7 +20827,7 @@
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="66" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F6" s="67"/>
       <c r="G6" s="67"/>
@@ -18875,7 +20849,7 @@
         <v>118</v>
       </c>
       <c r="AH10" s="68" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18883,7 +20857,7 @@
         <v>119</v>
       </c>
       <c r="AH11" s="68" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18920,7 +20894,7 @@
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="68" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19021,7 +20995,7 @@
         <v>2050</v>
       </c>
       <c r="AH13" s="69" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -23439,7 +25413,7 @@
     </row>
     <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="64" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
@@ -24495,7 +26469,7 @@
     </row>
     <row r="86" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="64" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25448,7 +27422,7 @@
     <row r="99" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="75" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C100" s="76"/>
       <c r="D100" s="76"/>
@@ -25485,32 +27459,32 @@
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B101" s="41" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B102" s="41" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="41" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="41" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="41" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="41" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25520,7 +27494,7 @@
     </row>
     <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="41" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="109" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25535,59 +27509,59 @@
     </row>
     <row r="111" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="41" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="77" t="s">
-        <v>629</v>
-      </c>
-      <c r="C112" s="74"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="74"/>
-      <c r="H112" s="74"/>
-      <c r="I112" s="74"/>
-      <c r="J112" s="74"/>
-      <c r="K112" s="74"/>
-      <c r="L112" s="74"/>
-      <c r="M112" s="74"/>
-      <c r="N112" s="74"/>
-      <c r="O112" s="74"/>
-      <c r="P112" s="74"/>
-      <c r="Q112" s="74"/>
-      <c r="R112" s="74"/>
-      <c r="S112" s="74"/>
-      <c r="T112" s="74"/>
-      <c r="U112" s="74"/>
-      <c r="V112" s="74"/>
-      <c r="W112" s="74"/>
-      <c r="X112" s="74"/>
-      <c r="Y112" s="74"/>
-      <c r="Z112" s="74"/>
-      <c r="AA112" s="74"/>
-      <c r="AB112" s="74"/>
-      <c r="AC112" s="74"/>
-      <c r="AD112" s="74"/>
-      <c r="AE112" s="74"/>
-      <c r="AF112" s="74"/>
-      <c r="AG112" s="74"/>
-      <c r="AH112" s="74"/>
+      <c r="B112" s="78" t="s">
+        <v>627</v>
+      </c>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="77"/>
+      <c r="K112" s="77"/>
+      <c r="L112" s="77"/>
+      <c r="M112" s="77"/>
+      <c r="N112" s="77"/>
+      <c r="O112" s="77"/>
+      <c r="P112" s="77"/>
+      <c r="Q112" s="77"/>
+      <c r="R112" s="77"/>
+      <c r="S112" s="77"/>
+      <c r="T112" s="77"/>
+      <c r="U112" s="77"/>
+      <c r="V112" s="77"/>
+      <c r="W112" s="77"/>
+      <c r="X112" s="77"/>
+      <c r="Y112" s="77"/>
+      <c r="Z112" s="77"/>
+      <c r="AA112" s="77"/>
+      <c r="AB112" s="77"/>
+      <c r="AC112" s="77"/>
+      <c r="AD112" s="77"/>
+      <c r="AE112" s="77"/>
+      <c r="AF112" s="77"/>
+      <c r="AG112" s="77"/>
+      <c r="AH112" s="77"/>
     </row>
     <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="41" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="41" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="115" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="41" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="116" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25597,22 +27571,22 @@
     </row>
     <row r="117" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="41" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="118" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="41" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="119" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="41" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="120" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="41" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="121" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25803,39 +27777,39 @@
     <row r="306" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="307" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="74"/>
-      <c r="C308" s="74"/>
-      <c r="D308" s="74"/>
-      <c r="E308" s="74"/>
-      <c r="F308" s="74"/>
-      <c r="G308" s="74"/>
-      <c r="H308" s="74"/>
-      <c r="I308" s="74"/>
-      <c r="J308" s="74"/>
-      <c r="K308" s="74"/>
-      <c r="L308" s="74"/>
-      <c r="M308" s="74"/>
-      <c r="N308" s="74"/>
-      <c r="O308" s="74"/>
-      <c r="P308" s="74"/>
-      <c r="Q308" s="74"/>
-      <c r="R308" s="74"/>
-      <c r="S308" s="74"/>
-      <c r="T308" s="74"/>
-      <c r="U308" s="74"/>
-      <c r="V308" s="74"/>
-      <c r="W308" s="74"/>
-      <c r="X308" s="74"/>
-      <c r="Y308" s="74"/>
-      <c r="Z308" s="74"/>
-      <c r="AA308" s="74"/>
-      <c r="AB308" s="74"/>
-      <c r="AC308" s="74"/>
-      <c r="AD308" s="74"/>
-      <c r="AE308" s="74"/>
-      <c r="AF308" s="74"/>
-      <c r="AG308" s="74"/>
-      <c r="AH308" s="74"/>
+      <c r="B308" s="77"/>
+      <c r="C308" s="77"/>
+      <c r="D308" s="77"/>
+      <c r="E308" s="77"/>
+      <c r="F308" s="77"/>
+      <c r="G308" s="77"/>
+      <c r="H308" s="77"/>
+      <c r="I308" s="77"/>
+      <c r="J308" s="77"/>
+      <c r="K308" s="77"/>
+      <c r="L308" s="77"/>
+      <c r="M308" s="77"/>
+      <c r="N308" s="77"/>
+      <c r="O308" s="77"/>
+      <c r="P308" s="77"/>
+      <c r="Q308" s="77"/>
+      <c r="R308" s="77"/>
+      <c r="S308" s="77"/>
+      <c r="T308" s="77"/>
+      <c r="U308" s="77"/>
+      <c r="V308" s="77"/>
+      <c r="W308" s="77"/>
+      <c r="X308" s="77"/>
+      <c r="Y308" s="77"/>
+      <c r="Z308" s="77"/>
+      <c r="AA308" s="77"/>
+      <c r="AB308" s="77"/>
+      <c r="AC308" s="77"/>
+      <c r="AD308" s="77"/>
+      <c r="AE308" s="77"/>
+      <c r="AF308" s="77"/>
+      <c r="AG308" s="77"/>
+      <c r="AH308" s="77"/>
     </row>
     <row r="309" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="310" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26040,39 +28014,39 @@
     <row r="509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="74"/>
-      <c r="C511" s="74"/>
-      <c r="D511" s="74"/>
-      <c r="E511" s="74"/>
-      <c r="F511" s="74"/>
-      <c r="G511" s="74"/>
-      <c r="H511" s="74"/>
-      <c r="I511" s="74"/>
-      <c r="J511" s="74"/>
-      <c r="K511" s="74"/>
-      <c r="L511" s="74"/>
-      <c r="M511" s="74"/>
-      <c r="N511" s="74"/>
-      <c r="O511" s="74"/>
-      <c r="P511" s="74"/>
-      <c r="Q511" s="74"/>
-      <c r="R511" s="74"/>
-      <c r="S511" s="74"/>
-      <c r="T511" s="74"/>
-      <c r="U511" s="74"/>
-      <c r="V511" s="74"/>
-      <c r="W511" s="74"/>
-      <c r="X511" s="74"/>
-      <c r="Y511" s="74"/>
-      <c r="Z511" s="74"/>
-      <c r="AA511" s="74"/>
-      <c r="AB511" s="74"/>
-      <c r="AC511" s="74"/>
-      <c r="AD511" s="74"/>
-      <c r="AE511" s="74"/>
-      <c r="AF511" s="74"/>
-      <c r="AG511" s="74"/>
-      <c r="AH511" s="74"/>
+      <c r="B511" s="77"/>
+      <c r="C511" s="77"/>
+      <c r="D511" s="77"/>
+      <c r="E511" s="77"/>
+      <c r="F511" s="77"/>
+      <c r="G511" s="77"/>
+      <c r="H511" s="77"/>
+      <c r="I511" s="77"/>
+      <c r="J511" s="77"/>
+      <c r="K511" s="77"/>
+      <c r="L511" s="77"/>
+      <c r="M511" s="77"/>
+      <c r="N511" s="77"/>
+      <c r="O511" s="77"/>
+      <c r="P511" s="77"/>
+      <c r="Q511" s="77"/>
+      <c r="R511" s="77"/>
+      <c r="S511" s="77"/>
+      <c r="T511" s="77"/>
+      <c r="U511" s="77"/>
+      <c r="V511" s="77"/>
+      <c r="W511" s="77"/>
+      <c r="X511" s="77"/>
+      <c r="Y511" s="77"/>
+      <c r="Z511" s="77"/>
+      <c r="AA511" s="77"/>
+      <c r="AB511" s="77"/>
+      <c r="AC511" s="77"/>
+      <c r="AD511" s="77"/>
+      <c r="AE511" s="77"/>
+      <c r="AF511" s="77"/>
+      <c r="AG511" s="77"/>
+      <c r="AH511" s="77"/>
     </row>
     <row r="512" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="513" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26275,39 +28249,39 @@
     <row r="710" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="711" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B712" s="74"/>
-      <c r="C712" s="74"/>
-      <c r="D712" s="74"/>
-      <c r="E712" s="74"/>
-      <c r="F712" s="74"/>
-      <c r="G712" s="74"/>
-      <c r="H712" s="74"/>
-      <c r="I712" s="74"/>
-      <c r="J712" s="74"/>
-      <c r="K712" s="74"/>
-      <c r="L712" s="74"/>
-      <c r="M712" s="74"/>
-      <c r="N712" s="74"/>
-      <c r="O712" s="74"/>
-      <c r="P712" s="74"/>
-      <c r="Q712" s="74"/>
-      <c r="R712" s="74"/>
-      <c r="S712" s="74"/>
-      <c r="T712" s="74"/>
-      <c r="U712" s="74"/>
-      <c r="V712" s="74"/>
-      <c r="W712" s="74"/>
-      <c r="X712" s="74"/>
-      <c r="Y712" s="74"/>
-      <c r="Z712" s="74"/>
-      <c r="AA712" s="74"/>
-      <c r="AB712" s="74"/>
-      <c r="AC712" s="74"/>
-      <c r="AD712" s="74"/>
-      <c r="AE712" s="74"/>
-      <c r="AF712" s="74"/>
-      <c r="AG712" s="74"/>
-      <c r="AH712" s="74"/>
+      <c r="B712" s="77"/>
+      <c r="C712" s="77"/>
+      <c r="D712" s="77"/>
+      <c r="E712" s="77"/>
+      <c r="F712" s="77"/>
+      <c r="G712" s="77"/>
+      <c r="H712" s="77"/>
+      <c r="I712" s="77"/>
+      <c r="J712" s="77"/>
+      <c r="K712" s="77"/>
+      <c r="L712" s="77"/>
+      <c r="M712" s="77"/>
+      <c r="N712" s="77"/>
+      <c r="O712" s="77"/>
+      <c r="P712" s="77"/>
+      <c r="Q712" s="77"/>
+      <c r="R712" s="77"/>
+      <c r="S712" s="77"/>
+      <c r="T712" s="77"/>
+      <c r="U712" s="77"/>
+      <c r="V712" s="77"/>
+      <c r="W712" s="77"/>
+      <c r="X712" s="77"/>
+      <c r="Y712" s="77"/>
+      <c r="Z712" s="77"/>
+      <c r="AA712" s="77"/>
+      <c r="AB712" s="77"/>
+      <c r="AC712" s="77"/>
+      <c r="AD712" s="77"/>
+      <c r="AE712" s="77"/>
+      <c r="AF712" s="77"/>
+      <c r="AG712" s="77"/>
+      <c r="AH712" s="77"/>
     </row>
     <row r="713" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="714" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26484,39 +28458,39 @@
     <row r="885" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="886" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B887" s="74"/>
-      <c r="C887" s="74"/>
-      <c r="D887" s="74"/>
-      <c r="E887" s="74"/>
-      <c r="F887" s="74"/>
-      <c r="G887" s="74"/>
-      <c r="H887" s="74"/>
-      <c r="I887" s="74"/>
-      <c r="J887" s="74"/>
-      <c r="K887" s="74"/>
-      <c r="L887" s="74"/>
-      <c r="M887" s="74"/>
-      <c r="N887" s="74"/>
-      <c r="O887" s="74"/>
-      <c r="P887" s="74"/>
-      <c r="Q887" s="74"/>
-      <c r="R887" s="74"/>
-      <c r="S887" s="74"/>
-      <c r="T887" s="74"/>
-      <c r="U887" s="74"/>
-      <c r="V887" s="74"/>
-      <c r="W887" s="74"/>
-      <c r="X887" s="74"/>
-      <c r="Y887" s="74"/>
-      <c r="Z887" s="74"/>
-      <c r="AA887" s="74"/>
-      <c r="AB887" s="74"/>
-      <c r="AC887" s="74"/>
-      <c r="AD887" s="74"/>
-      <c r="AE887" s="74"/>
-      <c r="AF887" s="74"/>
-      <c r="AG887" s="74"/>
-      <c r="AH887" s="74"/>
+      <c r="B887" s="77"/>
+      <c r="C887" s="77"/>
+      <c r="D887" s="77"/>
+      <c r="E887" s="77"/>
+      <c r="F887" s="77"/>
+      <c r="G887" s="77"/>
+      <c r="H887" s="77"/>
+      <c r="I887" s="77"/>
+      <c r="J887" s="77"/>
+      <c r="K887" s="77"/>
+      <c r="L887" s="77"/>
+      <c r="M887" s="77"/>
+      <c r="N887" s="77"/>
+      <c r="O887" s="77"/>
+      <c r="P887" s="77"/>
+      <c r="Q887" s="77"/>
+      <c r="R887" s="77"/>
+      <c r="S887" s="77"/>
+      <c r="T887" s="77"/>
+      <c r="U887" s="77"/>
+      <c r="V887" s="77"/>
+      <c r="W887" s="77"/>
+      <c r="X887" s="77"/>
+      <c r="Y887" s="77"/>
+      <c r="Z887" s="77"/>
+      <c r="AA887" s="77"/>
+      <c r="AB887" s="77"/>
+      <c r="AC887" s="77"/>
+      <c r="AD887" s="77"/>
+      <c r="AE887" s="77"/>
+      <c r="AF887" s="77"/>
+      <c r="AG887" s="77"/>
+      <c r="AH887" s="77"/>
     </row>
     <row r="888" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="889" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26731,39 +28705,39 @@
     <row r="1098" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1099" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1100" s="74"/>
-      <c r="C1100" s="74"/>
-      <c r="D1100" s="74"/>
-      <c r="E1100" s="74"/>
-      <c r="F1100" s="74"/>
-      <c r="G1100" s="74"/>
-      <c r="H1100" s="74"/>
-      <c r="I1100" s="74"/>
-      <c r="J1100" s="74"/>
-      <c r="K1100" s="74"/>
-      <c r="L1100" s="74"/>
-      <c r="M1100" s="74"/>
-      <c r="N1100" s="74"/>
-      <c r="O1100" s="74"/>
-      <c r="P1100" s="74"/>
-      <c r="Q1100" s="74"/>
-      <c r="R1100" s="74"/>
-      <c r="S1100" s="74"/>
-      <c r="T1100" s="74"/>
-      <c r="U1100" s="74"/>
-      <c r="V1100" s="74"/>
-      <c r="W1100" s="74"/>
-      <c r="X1100" s="74"/>
-      <c r="Y1100" s="74"/>
-      <c r="Z1100" s="74"/>
-      <c r="AA1100" s="74"/>
-      <c r="AB1100" s="74"/>
-      <c r="AC1100" s="74"/>
-      <c r="AD1100" s="74"/>
-      <c r="AE1100" s="74"/>
-      <c r="AF1100" s="74"/>
-      <c r="AG1100" s="74"/>
-      <c r="AH1100" s="74"/>
+      <c r="B1100" s="77"/>
+      <c r="C1100" s="77"/>
+      <c r="D1100" s="77"/>
+      <c r="E1100" s="77"/>
+      <c r="F1100" s="77"/>
+      <c r="G1100" s="77"/>
+      <c r="H1100" s="77"/>
+      <c r="I1100" s="77"/>
+      <c r="J1100" s="77"/>
+      <c r="K1100" s="77"/>
+      <c r="L1100" s="77"/>
+      <c r="M1100" s="77"/>
+      <c r="N1100" s="77"/>
+      <c r="O1100" s="77"/>
+      <c r="P1100" s="77"/>
+      <c r="Q1100" s="77"/>
+      <c r="R1100" s="77"/>
+      <c r="S1100" s="77"/>
+      <c r="T1100" s="77"/>
+      <c r="U1100" s="77"/>
+      <c r="V1100" s="77"/>
+      <c r="W1100" s="77"/>
+      <c r="X1100" s="77"/>
+      <c r="Y1100" s="77"/>
+      <c r="Z1100" s="77"/>
+      <c r="AA1100" s="77"/>
+      <c r="AB1100" s="77"/>
+      <c r="AC1100" s="77"/>
+      <c r="AD1100" s="77"/>
+      <c r="AE1100" s="77"/>
+      <c r="AF1100" s="77"/>
+      <c r="AG1100" s="77"/>
+      <c r="AH1100" s="77"/>
     </row>
     <row r="1101" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1102" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26892,39 +28866,39 @@
     <row r="1225" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1226" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1227" s="74"/>
-      <c r="C1227" s="74"/>
-      <c r="D1227" s="74"/>
-      <c r="E1227" s="74"/>
-      <c r="F1227" s="74"/>
-      <c r="G1227" s="74"/>
-      <c r="H1227" s="74"/>
-      <c r="I1227" s="74"/>
-      <c r="J1227" s="74"/>
-      <c r="K1227" s="74"/>
-      <c r="L1227" s="74"/>
-      <c r="M1227" s="74"/>
-      <c r="N1227" s="74"/>
-      <c r="O1227" s="74"/>
-      <c r="P1227" s="74"/>
-      <c r="Q1227" s="74"/>
-      <c r="R1227" s="74"/>
-      <c r="S1227" s="74"/>
-      <c r="T1227" s="74"/>
-      <c r="U1227" s="74"/>
-      <c r="V1227" s="74"/>
-      <c r="W1227" s="74"/>
-      <c r="X1227" s="74"/>
-      <c r="Y1227" s="74"/>
-      <c r="Z1227" s="74"/>
-      <c r="AA1227" s="74"/>
-      <c r="AB1227" s="74"/>
-      <c r="AC1227" s="74"/>
-      <c r="AD1227" s="74"/>
-      <c r="AE1227" s="74"/>
-      <c r="AF1227" s="74"/>
-      <c r="AG1227" s="74"/>
-      <c r="AH1227" s="74"/>
+      <c r="B1227" s="77"/>
+      <c r="C1227" s="77"/>
+      <c r="D1227" s="77"/>
+      <c r="E1227" s="77"/>
+      <c r="F1227" s="77"/>
+      <c r="G1227" s="77"/>
+      <c r="H1227" s="77"/>
+      <c r="I1227" s="77"/>
+      <c r="J1227" s="77"/>
+      <c r="K1227" s="77"/>
+      <c r="L1227" s="77"/>
+      <c r="M1227" s="77"/>
+      <c r="N1227" s="77"/>
+      <c r="O1227" s="77"/>
+      <c r="P1227" s="77"/>
+      <c r="Q1227" s="77"/>
+      <c r="R1227" s="77"/>
+      <c r="S1227" s="77"/>
+      <c r="T1227" s="77"/>
+      <c r="U1227" s="77"/>
+      <c r="V1227" s="77"/>
+      <c r="W1227" s="77"/>
+      <c r="X1227" s="77"/>
+      <c r="Y1227" s="77"/>
+      <c r="Z1227" s="77"/>
+      <c r="AA1227" s="77"/>
+      <c r="AB1227" s="77"/>
+      <c r="AC1227" s="77"/>
+      <c r="AD1227" s="77"/>
+      <c r="AE1227" s="77"/>
+      <c r="AF1227" s="77"/>
+      <c r="AG1227" s="77"/>
+      <c r="AH1227" s="77"/>
     </row>
     <row r="1228" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1229" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27089,39 +29063,39 @@
     <row r="1388" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1389" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1390" s="74"/>
-      <c r="C1390" s="74"/>
-      <c r="D1390" s="74"/>
-      <c r="E1390" s="74"/>
-      <c r="F1390" s="74"/>
-      <c r="G1390" s="74"/>
-      <c r="H1390" s="74"/>
-      <c r="I1390" s="74"/>
-      <c r="J1390" s="74"/>
-      <c r="K1390" s="74"/>
-      <c r="L1390" s="74"/>
-      <c r="M1390" s="74"/>
-      <c r="N1390" s="74"/>
-      <c r="O1390" s="74"/>
-      <c r="P1390" s="74"/>
-      <c r="Q1390" s="74"/>
-      <c r="R1390" s="74"/>
-      <c r="S1390" s="74"/>
-      <c r="T1390" s="74"/>
-      <c r="U1390" s="74"/>
-      <c r="V1390" s="74"/>
-      <c r="W1390" s="74"/>
-      <c r="X1390" s="74"/>
-      <c r="Y1390" s="74"/>
-      <c r="Z1390" s="74"/>
-      <c r="AA1390" s="74"/>
-      <c r="AB1390" s="74"/>
-      <c r="AC1390" s="74"/>
-      <c r="AD1390" s="74"/>
-      <c r="AE1390" s="74"/>
-      <c r="AF1390" s="74"/>
-      <c r="AG1390" s="74"/>
-      <c r="AH1390" s="74"/>
+      <c r="B1390" s="77"/>
+      <c r="C1390" s="77"/>
+      <c r="D1390" s="77"/>
+      <c r="E1390" s="77"/>
+      <c r="F1390" s="77"/>
+      <c r="G1390" s="77"/>
+      <c r="H1390" s="77"/>
+      <c r="I1390" s="77"/>
+      <c r="J1390" s="77"/>
+      <c r="K1390" s="77"/>
+      <c r="L1390" s="77"/>
+      <c r="M1390" s="77"/>
+      <c r="N1390" s="77"/>
+      <c r="O1390" s="77"/>
+      <c r="P1390" s="77"/>
+      <c r="Q1390" s="77"/>
+      <c r="R1390" s="77"/>
+      <c r="S1390" s="77"/>
+      <c r="T1390" s="77"/>
+      <c r="U1390" s="77"/>
+      <c r="V1390" s="77"/>
+      <c r="W1390" s="77"/>
+      <c r="X1390" s="77"/>
+      <c r="Y1390" s="77"/>
+      <c r="Z1390" s="77"/>
+      <c r="AA1390" s="77"/>
+      <c r="AB1390" s="77"/>
+      <c r="AC1390" s="77"/>
+      <c r="AD1390" s="77"/>
+      <c r="AE1390" s="77"/>
+      <c r="AF1390" s="77"/>
+      <c r="AG1390" s="77"/>
+      <c r="AH1390" s="77"/>
     </row>
     <row r="1391" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1392" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27235,39 +29209,39 @@
     <row r="1500" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1501" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1502" s="74"/>
-      <c r="C1502" s="74"/>
-      <c r="D1502" s="74"/>
-      <c r="E1502" s="74"/>
-      <c r="F1502" s="74"/>
-      <c r="G1502" s="74"/>
-      <c r="H1502" s="74"/>
-      <c r="I1502" s="74"/>
-      <c r="J1502" s="74"/>
-      <c r="K1502" s="74"/>
-      <c r="L1502" s="74"/>
-      <c r="M1502" s="74"/>
-      <c r="N1502" s="74"/>
-      <c r="O1502" s="74"/>
-      <c r="P1502" s="74"/>
-      <c r="Q1502" s="74"/>
-      <c r="R1502" s="74"/>
-      <c r="S1502" s="74"/>
-      <c r="T1502" s="74"/>
-      <c r="U1502" s="74"/>
-      <c r="V1502" s="74"/>
-      <c r="W1502" s="74"/>
-      <c r="X1502" s="74"/>
-      <c r="Y1502" s="74"/>
-      <c r="Z1502" s="74"/>
-      <c r="AA1502" s="74"/>
-      <c r="AB1502" s="74"/>
-      <c r="AC1502" s="74"/>
-      <c r="AD1502" s="74"/>
-      <c r="AE1502" s="74"/>
-      <c r="AF1502" s="74"/>
-      <c r="AG1502" s="74"/>
-      <c r="AH1502" s="74"/>
+      <c r="B1502" s="77"/>
+      <c r="C1502" s="77"/>
+      <c r="D1502" s="77"/>
+      <c r="E1502" s="77"/>
+      <c r="F1502" s="77"/>
+      <c r="G1502" s="77"/>
+      <c r="H1502" s="77"/>
+      <c r="I1502" s="77"/>
+      <c r="J1502" s="77"/>
+      <c r="K1502" s="77"/>
+      <c r="L1502" s="77"/>
+      <c r="M1502" s="77"/>
+      <c r="N1502" s="77"/>
+      <c r="O1502" s="77"/>
+      <c r="P1502" s="77"/>
+      <c r="Q1502" s="77"/>
+      <c r="R1502" s="77"/>
+      <c r="S1502" s="77"/>
+      <c r="T1502" s="77"/>
+      <c r="U1502" s="77"/>
+      <c r="V1502" s="77"/>
+      <c r="W1502" s="77"/>
+      <c r="X1502" s="77"/>
+      <c r="Y1502" s="77"/>
+      <c r="Z1502" s="77"/>
+      <c r="AA1502" s="77"/>
+      <c r="AB1502" s="77"/>
+      <c r="AC1502" s="77"/>
+      <c r="AD1502" s="77"/>
+      <c r="AE1502" s="77"/>
+      <c r="AF1502" s="77"/>
+      <c r="AG1502" s="77"/>
+      <c r="AH1502" s="77"/>
     </row>
     <row r="1503" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1504" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27371,39 +29345,39 @@
     <row r="1602" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1603" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1604" s="74"/>
-      <c r="C1604" s="74"/>
-      <c r="D1604" s="74"/>
-      <c r="E1604" s="74"/>
-      <c r="F1604" s="74"/>
-      <c r="G1604" s="74"/>
-      <c r="H1604" s="74"/>
-      <c r="I1604" s="74"/>
-      <c r="J1604" s="74"/>
-      <c r="K1604" s="74"/>
-      <c r="L1604" s="74"/>
-      <c r="M1604" s="74"/>
-      <c r="N1604" s="74"/>
-      <c r="O1604" s="74"/>
-      <c r="P1604" s="74"/>
-      <c r="Q1604" s="74"/>
-      <c r="R1604" s="74"/>
-      <c r="S1604" s="74"/>
-      <c r="T1604" s="74"/>
-      <c r="U1604" s="74"/>
-      <c r="V1604" s="74"/>
-      <c r="W1604" s="74"/>
-      <c r="X1604" s="74"/>
-      <c r="Y1604" s="74"/>
-      <c r="Z1604" s="74"/>
-      <c r="AA1604" s="74"/>
-      <c r="AB1604" s="74"/>
-      <c r="AC1604" s="74"/>
-      <c r="AD1604" s="74"/>
-      <c r="AE1604" s="74"/>
-      <c r="AF1604" s="74"/>
-      <c r="AG1604" s="74"/>
-      <c r="AH1604" s="74"/>
+      <c r="B1604" s="77"/>
+      <c r="C1604" s="77"/>
+      <c r="D1604" s="77"/>
+      <c r="E1604" s="77"/>
+      <c r="F1604" s="77"/>
+      <c r="G1604" s="77"/>
+      <c r="H1604" s="77"/>
+      <c r="I1604" s="77"/>
+      <c r="J1604" s="77"/>
+      <c r="K1604" s="77"/>
+      <c r="L1604" s="77"/>
+      <c r="M1604" s="77"/>
+      <c r="N1604" s="77"/>
+      <c r="O1604" s="77"/>
+      <c r="P1604" s="77"/>
+      <c r="Q1604" s="77"/>
+      <c r="R1604" s="77"/>
+      <c r="S1604" s="77"/>
+      <c r="T1604" s="77"/>
+      <c r="U1604" s="77"/>
+      <c r="V1604" s="77"/>
+      <c r="W1604" s="77"/>
+      <c r="X1604" s="77"/>
+      <c r="Y1604" s="77"/>
+      <c r="Z1604" s="77"/>
+      <c r="AA1604" s="77"/>
+      <c r="AB1604" s="77"/>
+      <c r="AC1604" s="77"/>
+      <c r="AD1604" s="77"/>
+      <c r="AE1604" s="77"/>
+      <c r="AF1604" s="77"/>
+      <c r="AG1604" s="77"/>
+      <c r="AH1604" s="77"/>
     </row>
     <row r="1605" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1606" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27499,39 +29473,39 @@
     <row r="1696" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1697" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1698" s="74"/>
-      <c r="C1698" s="74"/>
-      <c r="D1698" s="74"/>
-      <c r="E1698" s="74"/>
-      <c r="F1698" s="74"/>
-      <c r="G1698" s="74"/>
-      <c r="H1698" s="74"/>
-      <c r="I1698" s="74"/>
-      <c r="J1698" s="74"/>
-      <c r="K1698" s="74"/>
-      <c r="L1698" s="74"/>
-      <c r="M1698" s="74"/>
-      <c r="N1698" s="74"/>
-      <c r="O1698" s="74"/>
-      <c r="P1698" s="74"/>
-      <c r="Q1698" s="74"/>
-      <c r="R1698" s="74"/>
-      <c r="S1698" s="74"/>
-      <c r="T1698" s="74"/>
-      <c r="U1698" s="74"/>
-      <c r="V1698" s="74"/>
-      <c r="W1698" s="74"/>
-      <c r="X1698" s="74"/>
-      <c r="Y1698" s="74"/>
-      <c r="Z1698" s="74"/>
-      <c r="AA1698" s="74"/>
-      <c r="AB1698" s="74"/>
-      <c r="AC1698" s="74"/>
-      <c r="AD1698" s="74"/>
-      <c r="AE1698" s="74"/>
-      <c r="AF1698" s="74"/>
-      <c r="AG1698" s="74"/>
-      <c r="AH1698" s="74"/>
+      <c r="B1698" s="77"/>
+      <c r="C1698" s="77"/>
+      <c r="D1698" s="77"/>
+      <c r="E1698" s="77"/>
+      <c r="F1698" s="77"/>
+      <c r="G1698" s="77"/>
+      <c r="H1698" s="77"/>
+      <c r="I1698" s="77"/>
+      <c r="J1698" s="77"/>
+      <c r="K1698" s="77"/>
+      <c r="L1698" s="77"/>
+      <c r="M1698" s="77"/>
+      <c r="N1698" s="77"/>
+      <c r="O1698" s="77"/>
+      <c r="P1698" s="77"/>
+      <c r="Q1698" s="77"/>
+      <c r="R1698" s="77"/>
+      <c r="S1698" s="77"/>
+      <c r="T1698" s="77"/>
+      <c r="U1698" s="77"/>
+      <c r="V1698" s="77"/>
+      <c r="W1698" s="77"/>
+      <c r="X1698" s="77"/>
+      <c r="Y1698" s="77"/>
+      <c r="Z1698" s="77"/>
+      <c r="AA1698" s="77"/>
+      <c r="AB1698" s="77"/>
+      <c r="AC1698" s="77"/>
+      <c r="AD1698" s="77"/>
+      <c r="AE1698" s="77"/>
+      <c r="AF1698" s="77"/>
+      <c r="AG1698" s="77"/>
+      <c r="AH1698" s="77"/>
     </row>
     <row r="1699" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1700" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27780,39 +29754,39 @@
     <row r="1943" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1944" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1945" s="74"/>
-      <c r="C1945" s="74"/>
-      <c r="D1945" s="74"/>
-      <c r="E1945" s="74"/>
-      <c r="F1945" s="74"/>
-      <c r="G1945" s="74"/>
-      <c r="H1945" s="74"/>
-      <c r="I1945" s="74"/>
-      <c r="J1945" s="74"/>
-      <c r="K1945" s="74"/>
-      <c r="L1945" s="74"/>
-      <c r="M1945" s="74"/>
-      <c r="N1945" s="74"/>
-      <c r="O1945" s="74"/>
-      <c r="P1945" s="74"/>
-      <c r="Q1945" s="74"/>
-      <c r="R1945" s="74"/>
-      <c r="S1945" s="74"/>
-      <c r="T1945" s="74"/>
-      <c r="U1945" s="74"/>
-      <c r="V1945" s="74"/>
-      <c r="W1945" s="74"/>
-      <c r="X1945" s="74"/>
-      <c r="Y1945" s="74"/>
-      <c r="Z1945" s="74"/>
-      <c r="AA1945" s="74"/>
-      <c r="AB1945" s="74"/>
-      <c r="AC1945" s="74"/>
-      <c r="AD1945" s="74"/>
-      <c r="AE1945" s="74"/>
-      <c r="AF1945" s="74"/>
-      <c r="AG1945" s="74"/>
-      <c r="AH1945" s="74"/>
+      <c r="B1945" s="77"/>
+      <c r="C1945" s="77"/>
+      <c r="D1945" s="77"/>
+      <c r="E1945" s="77"/>
+      <c r="F1945" s="77"/>
+      <c r="G1945" s="77"/>
+      <c r="H1945" s="77"/>
+      <c r="I1945" s="77"/>
+      <c r="J1945" s="77"/>
+      <c r="K1945" s="77"/>
+      <c r="L1945" s="77"/>
+      <c r="M1945" s="77"/>
+      <c r="N1945" s="77"/>
+      <c r="O1945" s="77"/>
+      <c r="P1945" s="77"/>
+      <c r="Q1945" s="77"/>
+      <c r="R1945" s="77"/>
+      <c r="S1945" s="77"/>
+      <c r="T1945" s="77"/>
+      <c r="U1945" s="77"/>
+      <c r="V1945" s="77"/>
+      <c r="W1945" s="77"/>
+      <c r="X1945" s="77"/>
+      <c r="Y1945" s="77"/>
+      <c r="Z1945" s="77"/>
+      <c r="AA1945" s="77"/>
+      <c r="AB1945" s="77"/>
+      <c r="AC1945" s="77"/>
+      <c r="AD1945" s="77"/>
+      <c r="AE1945" s="77"/>
+      <c r="AF1945" s="77"/>
+      <c r="AG1945" s="77"/>
+      <c r="AH1945" s="77"/>
     </row>
     <row r="1946" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1947" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27900,39 +29874,39 @@
     <row r="2029" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2030" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2031" s="74"/>
-      <c r="C2031" s="74"/>
-      <c r="D2031" s="74"/>
-      <c r="E2031" s="74"/>
-      <c r="F2031" s="74"/>
-      <c r="G2031" s="74"/>
-      <c r="H2031" s="74"/>
-      <c r="I2031" s="74"/>
-      <c r="J2031" s="74"/>
-      <c r="K2031" s="74"/>
-      <c r="L2031" s="74"/>
-      <c r="M2031" s="74"/>
-      <c r="N2031" s="74"/>
-      <c r="O2031" s="74"/>
-      <c r="P2031" s="74"/>
-      <c r="Q2031" s="74"/>
-      <c r="R2031" s="74"/>
-      <c r="S2031" s="74"/>
-      <c r="T2031" s="74"/>
-      <c r="U2031" s="74"/>
-      <c r="V2031" s="74"/>
-      <c r="W2031" s="74"/>
-      <c r="X2031" s="74"/>
-      <c r="Y2031" s="74"/>
-      <c r="Z2031" s="74"/>
-      <c r="AA2031" s="74"/>
-      <c r="AB2031" s="74"/>
-      <c r="AC2031" s="74"/>
-      <c r="AD2031" s="74"/>
-      <c r="AE2031" s="74"/>
-      <c r="AF2031" s="74"/>
-      <c r="AG2031" s="74"/>
-      <c r="AH2031" s="74"/>
+      <c r="B2031" s="77"/>
+      <c r="C2031" s="77"/>
+      <c r="D2031" s="77"/>
+      <c r="E2031" s="77"/>
+      <c r="F2031" s="77"/>
+      <c r="G2031" s="77"/>
+      <c r="H2031" s="77"/>
+      <c r="I2031" s="77"/>
+      <c r="J2031" s="77"/>
+      <c r="K2031" s="77"/>
+      <c r="L2031" s="77"/>
+      <c r="M2031" s="77"/>
+      <c r="N2031" s="77"/>
+      <c r="O2031" s="77"/>
+      <c r="P2031" s="77"/>
+      <c r="Q2031" s="77"/>
+      <c r="R2031" s="77"/>
+      <c r="S2031" s="77"/>
+      <c r="T2031" s="77"/>
+      <c r="U2031" s="77"/>
+      <c r="V2031" s="77"/>
+      <c r="W2031" s="77"/>
+      <c r="X2031" s="77"/>
+      <c r="Y2031" s="77"/>
+      <c r="Z2031" s="77"/>
+      <c r="AA2031" s="77"/>
+      <c r="AB2031" s="77"/>
+      <c r="AC2031" s="77"/>
+      <c r="AD2031" s="77"/>
+      <c r="AE2031" s="77"/>
+      <c r="AF2031" s="77"/>
+      <c r="AG2031" s="77"/>
+      <c r="AH2031" s="77"/>
     </row>
     <row r="2032" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2033" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28056,39 +30030,39 @@
     <row r="2151" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2152" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2153" s="74"/>
-      <c r="C2153" s="74"/>
-      <c r="D2153" s="74"/>
-      <c r="E2153" s="74"/>
-      <c r="F2153" s="74"/>
-      <c r="G2153" s="74"/>
-      <c r="H2153" s="74"/>
-      <c r="I2153" s="74"/>
-      <c r="J2153" s="74"/>
-      <c r="K2153" s="74"/>
-      <c r="L2153" s="74"/>
-      <c r="M2153" s="74"/>
-      <c r="N2153" s="74"/>
-      <c r="O2153" s="74"/>
-      <c r="P2153" s="74"/>
-      <c r="Q2153" s="74"/>
-      <c r="R2153" s="74"/>
-      <c r="S2153" s="74"/>
-      <c r="T2153" s="74"/>
-      <c r="U2153" s="74"/>
-      <c r="V2153" s="74"/>
-      <c r="W2153" s="74"/>
-      <c r="X2153" s="74"/>
-      <c r="Y2153" s="74"/>
-      <c r="Z2153" s="74"/>
-      <c r="AA2153" s="74"/>
-      <c r="AB2153" s="74"/>
-      <c r="AC2153" s="74"/>
-      <c r="AD2153" s="74"/>
-      <c r="AE2153" s="74"/>
-      <c r="AF2153" s="74"/>
-      <c r="AG2153" s="74"/>
-      <c r="AH2153" s="74"/>
+      <c r="B2153" s="77"/>
+      <c r="C2153" s="77"/>
+      <c r="D2153" s="77"/>
+      <c r="E2153" s="77"/>
+      <c r="F2153" s="77"/>
+      <c r="G2153" s="77"/>
+      <c r="H2153" s="77"/>
+      <c r="I2153" s="77"/>
+      <c r="J2153" s="77"/>
+      <c r="K2153" s="77"/>
+      <c r="L2153" s="77"/>
+      <c r="M2153" s="77"/>
+      <c r="N2153" s="77"/>
+      <c r="O2153" s="77"/>
+      <c r="P2153" s="77"/>
+      <c r="Q2153" s="77"/>
+      <c r="R2153" s="77"/>
+      <c r="S2153" s="77"/>
+      <c r="T2153" s="77"/>
+      <c r="U2153" s="77"/>
+      <c r="V2153" s="77"/>
+      <c r="W2153" s="77"/>
+      <c r="X2153" s="77"/>
+      <c r="Y2153" s="77"/>
+      <c r="Z2153" s="77"/>
+      <c r="AA2153" s="77"/>
+      <c r="AB2153" s="77"/>
+      <c r="AC2153" s="77"/>
+      <c r="AD2153" s="77"/>
+      <c r="AE2153" s="77"/>
+      <c r="AF2153" s="77"/>
+      <c r="AG2153" s="77"/>
+      <c r="AH2153" s="77"/>
     </row>
     <row r="2154" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2155" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28254,39 +30228,39 @@
     <row r="2315" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2316" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2317" s="74"/>
-      <c r="C2317" s="74"/>
-      <c r="D2317" s="74"/>
-      <c r="E2317" s="74"/>
-      <c r="F2317" s="74"/>
-      <c r="G2317" s="74"/>
-      <c r="H2317" s="74"/>
-      <c r="I2317" s="74"/>
-      <c r="J2317" s="74"/>
-      <c r="K2317" s="74"/>
-      <c r="L2317" s="74"/>
-      <c r="M2317" s="74"/>
-      <c r="N2317" s="74"/>
-      <c r="O2317" s="74"/>
-      <c r="P2317" s="74"/>
-      <c r="Q2317" s="74"/>
-      <c r="R2317" s="74"/>
-      <c r="S2317" s="74"/>
-      <c r="T2317" s="74"/>
-      <c r="U2317" s="74"/>
-      <c r="V2317" s="74"/>
-      <c r="W2317" s="74"/>
-      <c r="X2317" s="74"/>
-      <c r="Y2317" s="74"/>
-      <c r="Z2317" s="74"/>
-      <c r="AA2317" s="74"/>
-      <c r="AB2317" s="74"/>
-      <c r="AC2317" s="74"/>
-      <c r="AD2317" s="74"/>
-      <c r="AE2317" s="74"/>
-      <c r="AF2317" s="74"/>
-      <c r="AG2317" s="74"/>
-      <c r="AH2317" s="74"/>
+      <c r="B2317" s="77"/>
+      <c r="C2317" s="77"/>
+      <c r="D2317" s="77"/>
+      <c r="E2317" s="77"/>
+      <c r="F2317" s="77"/>
+      <c r="G2317" s="77"/>
+      <c r="H2317" s="77"/>
+      <c r="I2317" s="77"/>
+      <c r="J2317" s="77"/>
+      <c r="K2317" s="77"/>
+      <c r="L2317" s="77"/>
+      <c r="M2317" s="77"/>
+      <c r="N2317" s="77"/>
+      <c r="O2317" s="77"/>
+      <c r="P2317" s="77"/>
+      <c r="Q2317" s="77"/>
+      <c r="R2317" s="77"/>
+      <c r="S2317" s="77"/>
+      <c r="T2317" s="77"/>
+      <c r="U2317" s="77"/>
+      <c r="V2317" s="77"/>
+      <c r="W2317" s="77"/>
+      <c r="X2317" s="77"/>
+      <c r="Y2317" s="77"/>
+      <c r="Z2317" s="77"/>
+      <c r="AA2317" s="77"/>
+      <c r="AB2317" s="77"/>
+      <c r="AC2317" s="77"/>
+      <c r="AD2317" s="77"/>
+      <c r="AE2317" s="77"/>
+      <c r="AF2317" s="77"/>
+      <c r="AG2317" s="77"/>
+      <c r="AH2317" s="77"/>
     </row>
     <row r="2318" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2319" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28390,39 +30364,39 @@
     <row r="2417" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2418" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2419" s="74"/>
-      <c r="C2419" s="74"/>
-      <c r="D2419" s="74"/>
-      <c r="E2419" s="74"/>
-      <c r="F2419" s="74"/>
-      <c r="G2419" s="74"/>
-      <c r="H2419" s="74"/>
-      <c r="I2419" s="74"/>
-      <c r="J2419" s="74"/>
-      <c r="K2419" s="74"/>
-      <c r="L2419" s="74"/>
-      <c r="M2419" s="74"/>
-      <c r="N2419" s="74"/>
-      <c r="O2419" s="74"/>
-      <c r="P2419" s="74"/>
-      <c r="Q2419" s="74"/>
-      <c r="R2419" s="74"/>
-      <c r="S2419" s="74"/>
-      <c r="T2419" s="74"/>
-      <c r="U2419" s="74"/>
-      <c r="V2419" s="74"/>
-      <c r="W2419" s="74"/>
-      <c r="X2419" s="74"/>
-      <c r="Y2419" s="74"/>
-      <c r="Z2419" s="74"/>
-      <c r="AA2419" s="74"/>
-      <c r="AB2419" s="74"/>
-      <c r="AC2419" s="74"/>
-      <c r="AD2419" s="74"/>
-      <c r="AE2419" s="74"/>
-      <c r="AF2419" s="74"/>
-      <c r="AG2419" s="74"/>
-      <c r="AH2419" s="74"/>
+      <c r="B2419" s="77"/>
+      <c r="C2419" s="77"/>
+      <c r="D2419" s="77"/>
+      <c r="E2419" s="77"/>
+      <c r="F2419" s="77"/>
+      <c r="G2419" s="77"/>
+      <c r="H2419" s="77"/>
+      <c r="I2419" s="77"/>
+      <c r="J2419" s="77"/>
+      <c r="K2419" s="77"/>
+      <c r="L2419" s="77"/>
+      <c r="M2419" s="77"/>
+      <c r="N2419" s="77"/>
+      <c r="O2419" s="77"/>
+      <c r="P2419" s="77"/>
+      <c r="Q2419" s="77"/>
+      <c r="R2419" s="77"/>
+      <c r="S2419" s="77"/>
+      <c r="T2419" s="77"/>
+      <c r="U2419" s="77"/>
+      <c r="V2419" s="77"/>
+      <c r="W2419" s="77"/>
+      <c r="X2419" s="77"/>
+      <c r="Y2419" s="77"/>
+      <c r="Z2419" s="77"/>
+      <c r="AA2419" s="77"/>
+      <c r="AB2419" s="77"/>
+      <c r="AC2419" s="77"/>
+      <c r="AD2419" s="77"/>
+      <c r="AE2419" s="77"/>
+      <c r="AF2419" s="77"/>
+      <c r="AG2419" s="77"/>
+      <c r="AH2419" s="77"/>
     </row>
     <row r="2420" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2421" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28514,39 +30488,39 @@
     <row r="2507" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2508" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2509" s="74"/>
-      <c r="C2509" s="74"/>
-      <c r="D2509" s="74"/>
-      <c r="E2509" s="74"/>
-      <c r="F2509" s="74"/>
-      <c r="G2509" s="74"/>
-      <c r="H2509" s="74"/>
-      <c r="I2509" s="74"/>
-      <c r="J2509" s="74"/>
-      <c r="K2509" s="74"/>
-      <c r="L2509" s="74"/>
-      <c r="M2509" s="74"/>
-      <c r="N2509" s="74"/>
-      <c r="O2509" s="74"/>
-      <c r="P2509" s="74"/>
-      <c r="Q2509" s="74"/>
-      <c r="R2509" s="74"/>
-      <c r="S2509" s="74"/>
-      <c r="T2509" s="74"/>
-      <c r="U2509" s="74"/>
-      <c r="V2509" s="74"/>
-      <c r="W2509" s="74"/>
-      <c r="X2509" s="74"/>
-      <c r="Y2509" s="74"/>
-      <c r="Z2509" s="74"/>
-      <c r="AA2509" s="74"/>
-      <c r="AB2509" s="74"/>
-      <c r="AC2509" s="74"/>
-      <c r="AD2509" s="74"/>
-      <c r="AE2509" s="74"/>
-      <c r="AF2509" s="74"/>
-      <c r="AG2509" s="74"/>
-      <c r="AH2509" s="74"/>
+      <c r="B2509" s="77"/>
+      <c r="C2509" s="77"/>
+      <c r="D2509" s="77"/>
+      <c r="E2509" s="77"/>
+      <c r="F2509" s="77"/>
+      <c r="G2509" s="77"/>
+      <c r="H2509" s="77"/>
+      <c r="I2509" s="77"/>
+      <c r="J2509" s="77"/>
+      <c r="K2509" s="77"/>
+      <c r="L2509" s="77"/>
+      <c r="M2509" s="77"/>
+      <c r="N2509" s="77"/>
+      <c r="O2509" s="77"/>
+      <c r="P2509" s="77"/>
+      <c r="Q2509" s="77"/>
+      <c r="R2509" s="77"/>
+      <c r="S2509" s="77"/>
+      <c r="T2509" s="77"/>
+      <c r="U2509" s="77"/>
+      <c r="V2509" s="77"/>
+      <c r="W2509" s="77"/>
+      <c r="X2509" s="77"/>
+      <c r="Y2509" s="77"/>
+      <c r="Z2509" s="77"/>
+      <c r="AA2509" s="77"/>
+      <c r="AB2509" s="77"/>
+      <c r="AC2509" s="77"/>
+      <c r="AD2509" s="77"/>
+      <c r="AE2509" s="77"/>
+      <c r="AF2509" s="77"/>
+      <c r="AG2509" s="77"/>
+      <c r="AH2509" s="77"/>
     </row>
     <row r="2510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28637,39 +30611,39 @@
     <row r="2596" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2597" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2598" s="74"/>
-      <c r="C2598" s="74"/>
-      <c r="D2598" s="74"/>
-      <c r="E2598" s="74"/>
-      <c r="F2598" s="74"/>
-      <c r="G2598" s="74"/>
-      <c r="H2598" s="74"/>
-      <c r="I2598" s="74"/>
-      <c r="J2598" s="74"/>
-      <c r="K2598" s="74"/>
-      <c r="L2598" s="74"/>
-      <c r="M2598" s="74"/>
-      <c r="N2598" s="74"/>
-      <c r="O2598" s="74"/>
-      <c r="P2598" s="74"/>
-      <c r="Q2598" s="74"/>
-      <c r="R2598" s="74"/>
-      <c r="S2598" s="74"/>
-      <c r="T2598" s="74"/>
-      <c r="U2598" s="74"/>
-      <c r="V2598" s="74"/>
-      <c r="W2598" s="74"/>
-      <c r="X2598" s="74"/>
-      <c r="Y2598" s="74"/>
-      <c r="Z2598" s="74"/>
-      <c r="AA2598" s="74"/>
-      <c r="AB2598" s="74"/>
-      <c r="AC2598" s="74"/>
-      <c r="AD2598" s="74"/>
-      <c r="AE2598" s="74"/>
-      <c r="AF2598" s="74"/>
-      <c r="AG2598" s="74"/>
-      <c r="AH2598" s="74"/>
+      <c r="B2598" s="77"/>
+      <c r="C2598" s="77"/>
+      <c r="D2598" s="77"/>
+      <c r="E2598" s="77"/>
+      <c r="F2598" s="77"/>
+      <c r="G2598" s="77"/>
+      <c r="H2598" s="77"/>
+      <c r="I2598" s="77"/>
+      <c r="J2598" s="77"/>
+      <c r="K2598" s="77"/>
+      <c r="L2598" s="77"/>
+      <c r="M2598" s="77"/>
+      <c r="N2598" s="77"/>
+      <c r="O2598" s="77"/>
+      <c r="P2598" s="77"/>
+      <c r="Q2598" s="77"/>
+      <c r="R2598" s="77"/>
+      <c r="S2598" s="77"/>
+      <c r="T2598" s="77"/>
+      <c r="U2598" s="77"/>
+      <c r="V2598" s="77"/>
+      <c r="W2598" s="77"/>
+      <c r="X2598" s="77"/>
+      <c r="Y2598" s="77"/>
+      <c r="Z2598" s="77"/>
+      <c r="AA2598" s="77"/>
+      <c r="AB2598" s="77"/>
+      <c r="AC2598" s="77"/>
+      <c r="AD2598" s="77"/>
+      <c r="AE2598" s="77"/>
+      <c r="AF2598" s="77"/>
+      <c r="AG2598" s="77"/>
+      <c r="AH2598" s="77"/>
     </row>
     <row r="2599" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2600" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28792,39 +30766,39 @@
     <row r="2717" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2718" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2719" s="74"/>
-      <c r="C2719" s="74"/>
-      <c r="D2719" s="74"/>
-      <c r="E2719" s="74"/>
-      <c r="F2719" s="74"/>
-      <c r="G2719" s="74"/>
-      <c r="H2719" s="74"/>
-      <c r="I2719" s="74"/>
-      <c r="J2719" s="74"/>
-      <c r="K2719" s="74"/>
-      <c r="L2719" s="74"/>
-      <c r="M2719" s="74"/>
-      <c r="N2719" s="74"/>
-      <c r="O2719" s="74"/>
-      <c r="P2719" s="74"/>
-      <c r="Q2719" s="74"/>
-      <c r="R2719" s="74"/>
-      <c r="S2719" s="74"/>
-      <c r="T2719" s="74"/>
-      <c r="U2719" s="74"/>
-      <c r="V2719" s="74"/>
-      <c r="W2719" s="74"/>
-      <c r="X2719" s="74"/>
-      <c r="Y2719" s="74"/>
-      <c r="Z2719" s="74"/>
-      <c r="AA2719" s="74"/>
-      <c r="AB2719" s="74"/>
-      <c r="AC2719" s="74"/>
-      <c r="AD2719" s="74"/>
-      <c r="AE2719" s="74"/>
-      <c r="AF2719" s="74"/>
-      <c r="AG2719" s="74"/>
-      <c r="AH2719" s="74"/>
+      <c r="B2719" s="77"/>
+      <c r="C2719" s="77"/>
+      <c r="D2719" s="77"/>
+      <c r="E2719" s="77"/>
+      <c r="F2719" s="77"/>
+      <c r="G2719" s="77"/>
+      <c r="H2719" s="77"/>
+      <c r="I2719" s="77"/>
+      <c r="J2719" s="77"/>
+      <c r="K2719" s="77"/>
+      <c r="L2719" s="77"/>
+      <c r="M2719" s="77"/>
+      <c r="N2719" s="77"/>
+      <c r="O2719" s="77"/>
+      <c r="P2719" s="77"/>
+      <c r="Q2719" s="77"/>
+      <c r="R2719" s="77"/>
+      <c r="S2719" s="77"/>
+      <c r="T2719" s="77"/>
+      <c r="U2719" s="77"/>
+      <c r="V2719" s="77"/>
+      <c r="W2719" s="77"/>
+      <c r="X2719" s="77"/>
+      <c r="Y2719" s="77"/>
+      <c r="Z2719" s="77"/>
+      <c r="AA2719" s="77"/>
+      <c r="AB2719" s="77"/>
+      <c r="AC2719" s="77"/>
+      <c r="AD2719" s="77"/>
+      <c r="AE2719" s="77"/>
+      <c r="AF2719" s="77"/>
+      <c r="AG2719" s="77"/>
+      <c r="AH2719" s="77"/>
     </row>
     <row r="2720" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2721" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28944,63 +30918,63 @@
     <row r="2835" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2836" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2837" s="74"/>
-      <c r="C2837" s="74"/>
-      <c r="D2837" s="74"/>
-      <c r="E2837" s="74"/>
-      <c r="F2837" s="74"/>
-      <c r="G2837" s="74"/>
-      <c r="H2837" s="74"/>
-      <c r="I2837" s="74"/>
-      <c r="J2837" s="74"/>
-      <c r="K2837" s="74"/>
-      <c r="L2837" s="74"/>
-      <c r="M2837" s="74"/>
-      <c r="N2837" s="74"/>
-      <c r="O2837" s="74"/>
-      <c r="P2837" s="74"/>
-      <c r="Q2837" s="74"/>
-      <c r="R2837" s="74"/>
-      <c r="S2837" s="74"/>
-      <c r="T2837" s="74"/>
-      <c r="U2837" s="74"/>
-      <c r="V2837" s="74"/>
-      <c r="W2837" s="74"/>
-      <c r="X2837" s="74"/>
-      <c r="Y2837" s="74"/>
-      <c r="Z2837" s="74"/>
-      <c r="AA2837" s="74"/>
-      <c r="AB2837" s="74"/>
-      <c r="AC2837" s="74"/>
-      <c r="AD2837" s="74"/>
-      <c r="AE2837" s="74"/>
-      <c r="AF2837" s="74"/>
-      <c r="AG2837" s="74"/>
-      <c r="AH2837" s="74"/>
+      <c r="B2837" s="77"/>
+      <c r="C2837" s="77"/>
+      <c r="D2837" s="77"/>
+      <c r="E2837" s="77"/>
+      <c r="F2837" s="77"/>
+      <c r="G2837" s="77"/>
+      <c r="H2837" s="77"/>
+      <c r="I2837" s="77"/>
+      <c r="J2837" s="77"/>
+      <c r="K2837" s="77"/>
+      <c r="L2837" s="77"/>
+      <c r="M2837" s="77"/>
+      <c r="N2837" s="77"/>
+      <c r="O2837" s="77"/>
+      <c r="P2837" s="77"/>
+      <c r="Q2837" s="77"/>
+      <c r="R2837" s="77"/>
+      <c r="S2837" s="77"/>
+      <c r="T2837" s="77"/>
+      <c r="U2837" s="77"/>
+      <c r="V2837" s="77"/>
+      <c r="W2837" s="77"/>
+      <c r="X2837" s="77"/>
+      <c r="Y2837" s="77"/>
+      <c r="Z2837" s="77"/>
+      <c r="AA2837" s="77"/>
+      <c r="AB2837" s="77"/>
+      <c r="AC2837" s="77"/>
+      <c r="AD2837" s="77"/>
+      <c r="AE2837" s="77"/>
+      <c r="AF2837" s="77"/>
+      <c r="AG2837" s="77"/>
+      <c r="AH2837" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B100:AG100"/>
-    <mergeCell ref="B112:AH112"/>
-    <mergeCell ref="B308:AH308"/>
-    <mergeCell ref="B511:AH511"/>
-    <mergeCell ref="B712:AH712"/>
-    <mergeCell ref="B887:AH887"/>
-    <mergeCell ref="B1100:AH1100"/>
-    <mergeCell ref="B1227:AH1227"/>
-    <mergeCell ref="B1390:AH1390"/>
-    <mergeCell ref="B1502:AH1502"/>
-    <mergeCell ref="B1604:AH1604"/>
-    <mergeCell ref="B1698:AH1698"/>
-    <mergeCell ref="B1945:AH1945"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2719:AH2719"/>
     <mergeCell ref="B2837:AH2837"/>
     <mergeCell ref="B2153:AH2153"/>
     <mergeCell ref="B2317:AH2317"/>
     <mergeCell ref="B2419:AH2419"/>
     <mergeCell ref="B2509:AH2509"/>
     <mergeCell ref="B2598:AH2598"/>
+    <mergeCell ref="B1604:AH1604"/>
+    <mergeCell ref="B1698:AH1698"/>
+    <mergeCell ref="B1945:AH1945"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2719:AH2719"/>
+    <mergeCell ref="B887:AH887"/>
+    <mergeCell ref="B1100:AH1100"/>
+    <mergeCell ref="B1227:AH1227"/>
+    <mergeCell ref="B1390:AH1390"/>
+    <mergeCell ref="B1502:AH1502"/>
+    <mergeCell ref="B100:AG100"/>
+    <mergeCell ref="B112:AH112"/>
+    <mergeCell ref="B308:AH308"/>
+    <mergeCell ref="B511:AH511"/>
+    <mergeCell ref="B712:AH712"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29023,7 +30997,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="61" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C1" s="63">
         <v>2020</v>
@@ -29125,7 +31099,7 @@
         <v>531</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E3" s="67"/>
       <c r="F3" s="67"/>
@@ -29137,7 +31111,7 @@
         <v>532</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E4" s="67"/>
       <c r="F4" s="67"/>
@@ -29151,7 +31125,7 @@
         <v>534</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E5" s="67"/>
       <c r="F5" s="67"/>
@@ -29164,7 +31138,7 @@
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="66" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F6" s="67"/>
       <c r="G6" s="67"/>
@@ -29186,7 +31160,7 @@
         <v>79</v>
       </c>
       <c r="AH10" s="68" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29194,7 +31168,7 @@
         <v>80</v>
       </c>
       <c r="AH11" s="68" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29231,7 +31205,7 @@
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="68" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29332,7 +31306,7 @@
         <v>2050</v>
       </c>
       <c r="AH13" s="69" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -34987,7 +36961,7 @@
         <v>529</v>
       </c>
       <c r="B80" s="65" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C80" s="46">
         <v>96.442543000000001</v>
@@ -35089,7 +37063,7 @@
     <row r="82" spans="2:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="83" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="75" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C83" s="76"/>
       <c r="D83" s="76"/>
@@ -35126,17 +37100,17 @@
     </row>
     <row r="84" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="41" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="85" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="41" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="86" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="41" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="87" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35146,7 +37120,7 @@
     </row>
     <row r="88" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="41" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="89" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35156,12 +37130,12 @@
     </row>
     <row r="90" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="41" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="91" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="41" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="92" spans="2:34" x14ac:dyDescent="0.25">
@@ -35171,17 +37145,17 @@
     </row>
     <row r="93" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="41" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="94" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="41" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="95" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="41" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="96" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35191,17 +37165,17 @@
     </row>
     <row r="97" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="41" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="98" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="41" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="99" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="41" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35211,32 +37185,32 @@
     </row>
     <row r="101" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B101" s="41" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="102" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B102" s="41" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="103" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="41" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="104" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="41" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="105" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="41" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="106" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="41" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="107" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -35246,58 +37220,58 @@
     </row>
     <row r="108" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="41" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="109" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="41" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="110" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="41" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="111" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="41" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="112" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="74"/>
-      <c r="C112" s="74"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="74"/>
-      <c r="H112" s="74"/>
-      <c r="I112" s="74"/>
-      <c r="J112" s="74"/>
-      <c r="K112" s="74"/>
-      <c r="L112" s="74"/>
-      <c r="M112" s="74"/>
-      <c r="N112" s="74"/>
-      <c r="O112" s="74"/>
-      <c r="P112" s="74"/>
-      <c r="Q112" s="74"/>
-      <c r="R112" s="74"/>
-      <c r="S112" s="74"/>
-      <c r="T112" s="74"/>
-      <c r="U112" s="74"/>
-      <c r="V112" s="74"/>
-      <c r="W112" s="74"/>
-      <c r="X112" s="74"/>
-      <c r="Y112" s="74"/>
-      <c r="Z112" s="74"/>
-      <c r="AA112" s="74"/>
-      <c r="AB112" s="74"/>
-      <c r="AC112" s="74"/>
-      <c r="AD112" s="74"/>
-      <c r="AE112" s="74"/>
-      <c r="AF112" s="74"/>
-      <c r="AG112" s="74"/>
-      <c r="AH112" s="74"/>
+      <c r="B112" s="77"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="77"/>
+      <c r="K112" s="77"/>
+      <c r="L112" s="77"/>
+      <c r="M112" s="77"/>
+      <c r="N112" s="77"/>
+      <c r="O112" s="77"/>
+      <c r="P112" s="77"/>
+      <c r="Q112" s="77"/>
+      <c r="R112" s="77"/>
+      <c r="S112" s="77"/>
+      <c r="T112" s="77"/>
+      <c r="U112" s="77"/>
+      <c r="V112" s="77"/>
+      <c r="W112" s="77"/>
+      <c r="X112" s="77"/>
+      <c r="Y112" s="77"/>
+      <c r="Z112" s="77"/>
+      <c r="AA112" s="77"/>
+      <c r="AB112" s="77"/>
+      <c r="AC112" s="77"/>
+      <c r="AD112" s="77"/>
+      <c r="AE112" s="77"/>
+      <c r="AF112" s="77"/>
+      <c r="AG112" s="77"/>
+      <c r="AH112" s="77"/>
     </row>
     <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35480,39 +37454,39 @@
     <row r="306" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="307" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="74"/>
-      <c r="C308" s="74"/>
-      <c r="D308" s="74"/>
-      <c r="E308" s="74"/>
-      <c r="F308" s="74"/>
-      <c r="G308" s="74"/>
-      <c r="H308" s="74"/>
-      <c r="I308" s="74"/>
-      <c r="J308" s="74"/>
-      <c r="K308" s="74"/>
-      <c r="L308" s="74"/>
-      <c r="M308" s="74"/>
-      <c r="N308" s="74"/>
-      <c r="O308" s="74"/>
-      <c r="P308" s="74"/>
-      <c r="Q308" s="74"/>
-      <c r="R308" s="74"/>
-      <c r="S308" s="74"/>
-      <c r="T308" s="74"/>
-      <c r="U308" s="74"/>
-      <c r="V308" s="74"/>
-      <c r="W308" s="74"/>
-      <c r="X308" s="74"/>
-      <c r="Y308" s="74"/>
-      <c r="Z308" s="74"/>
-      <c r="AA308" s="74"/>
-      <c r="AB308" s="74"/>
-      <c r="AC308" s="74"/>
-      <c r="AD308" s="74"/>
-      <c r="AE308" s="74"/>
-      <c r="AF308" s="74"/>
-      <c r="AG308" s="74"/>
-      <c r="AH308" s="74"/>
+      <c r="B308" s="77"/>
+      <c r="C308" s="77"/>
+      <c r="D308" s="77"/>
+      <c r="E308" s="77"/>
+      <c r="F308" s="77"/>
+      <c r="G308" s="77"/>
+      <c r="H308" s="77"/>
+      <c r="I308" s="77"/>
+      <c r="J308" s="77"/>
+      <c r="K308" s="77"/>
+      <c r="L308" s="77"/>
+      <c r="M308" s="77"/>
+      <c r="N308" s="77"/>
+      <c r="O308" s="77"/>
+      <c r="P308" s="77"/>
+      <c r="Q308" s="77"/>
+      <c r="R308" s="77"/>
+      <c r="S308" s="77"/>
+      <c r="T308" s="77"/>
+      <c r="U308" s="77"/>
+      <c r="V308" s="77"/>
+      <c r="W308" s="77"/>
+      <c r="X308" s="77"/>
+      <c r="Y308" s="77"/>
+      <c r="Z308" s="77"/>
+      <c r="AA308" s="77"/>
+      <c r="AB308" s="77"/>
+      <c r="AC308" s="77"/>
+      <c r="AD308" s="77"/>
+      <c r="AE308" s="77"/>
+      <c r="AF308" s="77"/>
+      <c r="AG308" s="77"/>
+      <c r="AH308" s="77"/>
     </row>
     <row r="309" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="310" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35717,39 +37691,39 @@
     <row r="509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="74"/>
-      <c r="C511" s="74"/>
-      <c r="D511" s="74"/>
-      <c r="E511" s="74"/>
-      <c r="F511" s="74"/>
-      <c r="G511" s="74"/>
-      <c r="H511" s="74"/>
-      <c r="I511" s="74"/>
-      <c r="J511" s="74"/>
-      <c r="K511" s="74"/>
-      <c r="L511" s="74"/>
-      <c r="M511" s="74"/>
-      <c r="N511" s="74"/>
-      <c r="O511" s="74"/>
-      <c r="P511" s="74"/>
-      <c r="Q511" s="74"/>
-      <c r="R511" s="74"/>
-      <c r="S511" s="74"/>
-      <c r="T511" s="74"/>
-      <c r="U511" s="74"/>
-      <c r="V511" s="74"/>
-      <c r="W511" s="74"/>
-      <c r="X511" s="74"/>
-      <c r="Y511" s="74"/>
-      <c r="Z511" s="74"/>
-      <c r="AA511" s="74"/>
-      <c r="AB511" s="74"/>
-      <c r="AC511" s="74"/>
-      <c r="AD511" s="74"/>
-      <c r="AE511" s="74"/>
-      <c r="AF511" s="74"/>
-      <c r="AG511" s="74"/>
-      <c r="AH511" s="74"/>
+      <c r="B511" s="77"/>
+      <c r="C511" s="77"/>
+      <c r="D511" s="77"/>
+      <c r="E511" s="77"/>
+      <c r="F511" s="77"/>
+      <c r="G511" s="77"/>
+      <c r="H511" s="77"/>
+      <c r="I511" s="77"/>
+      <c r="J511" s="77"/>
+      <c r="K511" s="77"/>
+      <c r="L511" s="77"/>
+      <c r="M511" s="77"/>
+      <c r="N511" s="77"/>
+      <c r="O511" s="77"/>
+      <c r="P511" s="77"/>
+      <c r="Q511" s="77"/>
+      <c r="R511" s="77"/>
+      <c r="S511" s="77"/>
+      <c r="T511" s="77"/>
+      <c r="U511" s="77"/>
+      <c r="V511" s="77"/>
+      <c r="W511" s="77"/>
+      <c r="X511" s="77"/>
+      <c r="Y511" s="77"/>
+      <c r="Z511" s="77"/>
+      <c r="AA511" s="77"/>
+      <c r="AB511" s="77"/>
+      <c r="AC511" s="77"/>
+      <c r="AD511" s="77"/>
+      <c r="AE511" s="77"/>
+      <c r="AF511" s="77"/>
+      <c r="AG511" s="77"/>
+      <c r="AH511" s="77"/>
     </row>
     <row r="512" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="513" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35952,39 +37926,39 @@
     <row r="710" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="711" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B712" s="74"/>
-      <c r="C712" s="74"/>
-      <c r="D712" s="74"/>
-      <c r="E712" s="74"/>
-      <c r="F712" s="74"/>
-      <c r="G712" s="74"/>
-      <c r="H712" s="74"/>
-      <c r="I712" s="74"/>
-      <c r="J712" s="74"/>
-      <c r="K712" s="74"/>
-      <c r="L712" s="74"/>
-      <c r="M712" s="74"/>
-      <c r="N712" s="74"/>
-      <c r="O712" s="74"/>
-      <c r="P712" s="74"/>
-      <c r="Q712" s="74"/>
-      <c r="R712" s="74"/>
-      <c r="S712" s="74"/>
-      <c r="T712" s="74"/>
-      <c r="U712" s="74"/>
-      <c r="V712" s="74"/>
-      <c r="W712" s="74"/>
-      <c r="X712" s="74"/>
-      <c r="Y712" s="74"/>
-      <c r="Z712" s="74"/>
-      <c r="AA712" s="74"/>
-      <c r="AB712" s="74"/>
-      <c r="AC712" s="74"/>
-      <c r="AD712" s="74"/>
-      <c r="AE712" s="74"/>
-      <c r="AF712" s="74"/>
-      <c r="AG712" s="74"/>
-      <c r="AH712" s="74"/>
+      <c r="B712" s="77"/>
+      <c r="C712" s="77"/>
+      <c r="D712" s="77"/>
+      <c r="E712" s="77"/>
+      <c r="F712" s="77"/>
+      <c r="G712" s="77"/>
+      <c r="H712" s="77"/>
+      <c r="I712" s="77"/>
+      <c r="J712" s="77"/>
+      <c r="K712" s="77"/>
+      <c r="L712" s="77"/>
+      <c r="M712" s="77"/>
+      <c r="N712" s="77"/>
+      <c r="O712" s="77"/>
+      <c r="P712" s="77"/>
+      <c r="Q712" s="77"/>
+      <c r="R712" s="77"/>
+      <c r="S712" s="77"/>
+      <c r="T712" s="77"/>
+      <c r="U712" s="77"/>
+      <c r="V712" s="77"/>
+      <c r="W712" s="77"/>
+      <c r="X712" s="77"/>
+      <c r="Y712" s="77"/>
+      <c r="Z712" s="77"/>
+      <c r="AA712" s="77"/>
+      <c r="AB712" s="77"/>
+      <c r="AC712" s="77"/>
+      <c r="AD712" s="77"/>
+      <c r="AE712" s="77"/>
+      <c r="AF712" s="77"/>
+      <c r="AG712" s="77"/>
+      <c r="AH712" s="77"/>
     </row>
     <row r="713" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="714" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36161,39 +38135,39 @@
     <row r="885" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="886" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B887" s="74"/>
-      <c r="C887" s="74"/>
-      <c r="D887" s="74"/>
-      <c r="E887" s="74"/>
-      <c r="F887" s="74"/>
-      <c r="G887" s="74"/>
-      <c r="H887" s="74"/>
-      <c r="I887" s="74"/>
-      <c r="J887" s="74"/>
-      <c r="K887" s="74"/>
-      <c r="L887" s="74"/>
-      <c r="M887" s="74"/>
-      <c r="N887" s="74"/>
-      <c r="O887" s="74"/>
-      <c r="P887" s="74"/>
-      <c r="Q887" s="74"/>
-      <c r="R887" s="74"/>
-      <c r="S887" s="74"/>
-      <c r="T887" s="74"/>
-      <c r="U887" s="74"/>
-      <c r="V887" s="74"/>
-      <c r="W887" s="74"/>
-      <c r="X887" s="74"/>
-      <c r="Y887" s="74"/>
-      <c r="Z887" s="74"/>
-      <c r="AA887" s="74"/>
-      <c r="AB887" s="74"/>
-      <c r="AC887" s="74"/>
-      <c r="AD887" s="74"/>
-      <c r="AE887" s="74"/>
-      <c r="AF887" s="74"/>
-      <c r="AG887" s="74"/>
-      <c r="AH887" s="74"/>
+      <c r="B887" s="77"/>
+      <c r="C887" s="77"/>
+      <c r="D887" s="77"/>
+      <c r="E887" s="77"/>
+      <c r="F887" s="77"/>
+      <c r="G887" s="77"/>
+      <c r="H887" s="77"/>
+      <c r="I887" s="77"/>
+      <c r="J887" s="77"/>
+      <c r="K887" s="77"/>
+      <c r="L887" s="77"/>
+      <c r="M887" s="77"/>
+      <c r="N887" s="77"/>
+      <c r="O887" s="77"/>
+      <c r="P887" s="77"/>
+      <c r="Q887" s="77"/>
+      <c r="R887" s="77"/>
+      <c r="S887" s="77"/>
+      <c r="T887" s="77"/>
+      <c r="U887" s="77"/>
+      <c r="V887" s="77"/>
+      <c r="W887" s="77"/>
+      <c r="X887" s="77"/>
+      <c r="Y887" s="77"/>
+      <c r="Z887" s="77"/>
+      <c r="AA887" s="77"/>
+      <c r="AB887" s="77"/>
+      <c r="AC887" s="77"/>
+      <c r="AD887" s="77"/>
+      <c r="AE887" s="77"/>
+      <c r="AF887" s="77"/>
+      <c r="AG887" s="77"/>
+      <c r="AH887" s="77"/>
     </row>
     <row r="888" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="889" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36408,39 +38382,39 @@
     <row r="1098" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1099" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1100" s="74"/>
-      <c r="C1100" s="74"/>
-      <c r="D1100" s="74"/>
-      <c r="E1100" s="74"/>
-      <c r="F1100" s="74"/>
-      <c r="G1100" s="74"/>
-      <c r="H1100" s="74"/>
-      <c r="I1100" s="74"/>
-      <c r="J1100" s="74"/>
-      <c r="K1100" s="74"/>
-      <c r="L1100" s="74"/>
-      <c r="M1100" s="74"/>
-      <c r="N1100" s="74"/>
-      <c r="O1100" s="74"/>
-      <c r="P1100" s="74"/>
-      <c r="Q1100" s="74"/>
-      <c r="R1100" s="74"/>
-      <c r="S1100" s="74"/>
-      <c r="T1100" s="74"/>
-      <c r="U1100" s="74"/>
-      <c r="V1100" s="74"/>
-      <c r="W1100" s="74"/>
-      <c r="X1100" s="74"/>
-      <c r="Y1100" s="74"/>
-      <c r="Z1100" s="74"/>
-      <c r="AA1100" s="74"/>
-      <c r="AB1100" s="74"/>
-      <c r="AC1100" s="74"/>
-      <c r="AD1100" s="74"/>
-      <c r="AE1100" s="74"/>
-      <c r="AF1100" s="74"/>
-      <c r="AG1100" s="74"/>
-      <c r="AH1100" s="74"/>
+      <c r="B1100" s="77"/>
+      <c r="C1100" s="77"/>
+      <c r="D1100" s="77"/>
+      <c r="E1100" s="77"/>
+      <c r="F1100" s="77"/>
+      <c r="G1100" s="77"/>
+      <c r="H1100" s="77"/>
+      <c r="I1100" s="77"/>
+      <c r="J1100" s="77"/>
+      <c r="K1100" s="77"/>
+      <c r="L1100" s="77"/>
+      <c r="M1100" s="77"/>
+      <c r="N1100" s="77"/>
+      <c r="O1100" s="77"/>
+      <c r="P1100" s="77"/>
+      <c r="Q1100" s="77"/>
+      <c r="R1100" s="77"/>
+      <c r="S1100" s="77"/>
+      <c r="T1100" s="77"/>
+      <c r="U1100" s="77"/>
+      <c r="V1100" s="77"/>
+      <c r="W1100" s="77"/>
+      <c r="X1100" s="77"/>
+      <c r="Y1100" s="77"/>
+      <c r="Z1100" s="77"/>
+      <c r="AA1100" s="77"/>
+      <c r="AB1100" s="77"/>
+      <c r="AC1100" s="77"/>
+      <c r="AD1100" s="77"/>
+      <c r="AE1100" s="77"/>
+      <c r="AF1100" s="77"/>
+      <c r="AG1100" s="77"/>
+      <c r="AH1100" s="77"/>
     </row>
     <row r="1101" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1102" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36569,39 +38543,39 @@
     <row r="1225" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1226" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1227" s="74"/>
-      <c r="C1227" s="74"/>
-      <c r="D1227" s="74"/>
-      <c r="E1227" s="74"/>
-      <c r="F1227" s="74"/>
-      <c r="G1227" s="74"/>
-      <c r="H1227" s="74"/>
-      <c r="I1227" s="74"/>
-      <c r="J1227" s="74"/>
-      <c r="K1227" s="74"/>
-      <c r="L1227" s="74"/>
-      <c r="M1227" s="74"/>
-      <c r="N1227" s="74"/>
-      <c r="O1227" s="74"/>
-      <c r="P1227" s="74"/>
-      <c r="Q1227" s="74"/>
-      <c r="R1227" s="74"/>
-      <c r="S1227" s="74"/>
-      <c r="T1227" s="74"/>
-      <c r="U1227" s="74"/>
-      <c r="V1227" s="74"/>
-      <c r="W1227" s="74"/>
-      <c r="X1227" s="74"/>
-      <c r="Y1227" s="74"/>
-      <c r="Z1227" s="74"/>
-      <c r="AA1227" s="74"/>
-      <c r="AB1227" s="74"/>
-      <c r="AC1227" s="74"/>
-      <c r="AD1227" s="74"/>
-      <c r="AE1227" s="74"/>
-      <c r="AF1227" s="74"/>
-      <c r="AG1227" s="74"/>
-      <c r="AH1227" s="74"/>
+      <c r="B1227" s="77"/>
+      <c r="C1227" s="77"/>
+      <c r="D1227" s="77"/>
+      <c r="E1227" s="77"/>
+      <c r="F1227" s="77"/>
+      <c r="G1227" s="77"/>
+      <c r="H1227" s="77"/>
+      <c r="I1227" s="77"/>
+      <c r="J1227" s="77"/>
+      <c r="K1227" s="77"/>
+      <c r="L1227" s="77"/>
+      <c r="M1227" s="77"/>
+      <c r="N1227" s="77"/>
+      <c r="O1227" s="77"/>
+      <c r="P1227" s="77"/>
+      <c r="Q1227" s="77"/>
+      <c r="R1227" s="77"/>
+      <c r="S1227" s="77"/>
+      <c r="T1227" s="77"/>
+      <c r="U1227" s="77"/>
+      <c r="V1227" s="77"/>
+      <c r="W1227" s="77"/>
+      <c r="X1227" s="77"/>
+      <c r="Y1227" s="77"/>
+      <c r="Z1227" s="77"/>
+      <c r="AA1227" s="77"/>
+      <c r="AB1227" s="77"/>
+      <c r="AC1227" s="77"/>
+      <c r="AD1227" s="77"/>
+      <c r="AE1227" s="77"/>
+      <c r="AF1227" s="77"/>
+      <c r="AG1227" s="77"/>
+      <c r="AH1227" s="77"/>
     </row>
     <row r="1228" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1229" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36766,39 +38740,39 @@
     <row r="1388" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1389" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1390" s="74"/>
-      <c r="C1390" s="74"/>
-      <c r="D1390" s="74"/>
-      <c r="E1390" s="74"/>
-      <c r="F1390" s="74"/>
-      <c r="G1390" s="74"/>
-      <c r="H1390" s="74"/>
-      <c r="I1390" s="74"/>
-      <c r="J1390" s="74"/>
-      <c r="K1390" s="74"/>
-      <c r="L1390" s="74"/>
-      <c r="M1390" s="74"/>
-      <c r="N1390" s="74"/>
-      <c r="O1390" s="74"/>
-      <c r="P1390" s="74"/>
-      <c r="Q1390" s="74"/>
-      <c r="R1390" s="74"/>
-      <c r="S1390" s="74"/>
-      <c r="T1390" s="74"/>
-      <c r="U1390" s="74"/>
-      <c r="V1390" s="74"/>
-      <c r="W1390" s="74"/>
-      <c r="X1390" s="74"/>
-      <c r="Y1390" s="74"/>
-      <c r="Z1390" s="74"/>
-      <c r="AA1390" s="74"/>
-      <c r="AB1390" s="74"/>
-      <c r="AC1390" s="74"/>
-      <c r="AD1390" s="74"/>
-      <c r="AE1390" s="74"/>
-      <c r="AF1390" s="74"/>
-      <c r="AG1390" s="74"/>
-      <c r="AH1390" s="74"/>
+      <c r="B1390" s="77"/>
+      <c r="C1390" s="77"/>
+      <c r="D1390" s="77"/>
+      <c r="E1390" s="77"/>
+      <c r="F1390" s="77"/>
+      <c r="G1390" s="77"/>
+      <c r="H1390" s="77"/>
+      <c r="I1390" s="77"/>
+      <c r="J1390" s="77"/>
+      <c r="K1390" s="77"/>
+      <c r="L1390" s="77"/>
+      <c r="M1390" s="77"/>
+      <c r="N1390" s="77"/>
+      <c r="O1390" s="77"/>
+      <c r="P1390" s="77"/>
+      <c r="Q1390" s="77"/>
+      <c r="R1390" s="77"/>
+      <c r="S1390" s="77"/>
+      <c r="T1390" s="77"/>
+      <c r="U1390" s="77"/>
+      <c r="V1390" s="77"/>
+      <c r="W1390" s="77"/>
+      <c r="X1390" s="77"/>
+      <c r="Y1390" s="77"/>
+      <c r="Z1390" s="77"/>
+      <c r="AA1390" s="77"/>
+      <c r="AB1390" s="77"/>
+      <c r="AC1390" s="77"/>
+      <c r="AD1390" s="77"/>
+      <c r="AE1390" s="77"/>
+      <c r="AF1390" s="77"/>
+      <c r="AG1390" s="77"/>
+      <c r="AH1390" s="77"/>
     </row>
     <row r="1391" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1392" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36912,39 +38886,39 @@
     <row r="1500" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1501" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1502" s="74"/>
-      <c r="C1502" s="74"/>
-      <c r="D1502" s="74"/>
-      <c r="E1502" s="74"/>
-      <c r="F1502" s="74"/>
-      <c r="G1502" s="74"/>
-      <c r="H1502" s="74"/>
-      <c r="I1502" s="74"/>
-      <c r="J1502" s="74"/>
-      <c r="K1502" s="74"/>
-      <c r="L1502" s="74"/>
-      <c r="M1502" s="74"/>
-      <c r="N1502" s="74"/>
-      <c r="O1502" s="74"/>
-      <c r="P1502" s="74"/>
-      <c r="Q1502" s="74"/>
-      <c r="R1502" s="74"/>
-      <c r="S1502" s="74"/>
-      <c r="T1502" s="74"/>
-      <c r="U1502" s="74"/>
-      <c r="V1502" s="74"/>
-      <c r="W1502" s="74"/>
-      <c r="X1502" s="74"/>
-      <c r="Y1502" s="74"/>
-      <c r="Z1502" s="74"/>
-      <c r="AA1502" s="74"/>
-      <c r="AB1502" s="74"/>
-      <c r="AC1502" s="74"/>
-      <c r="AD1502" s="74"/>
-      <c r="AE1502" s="74"/>
-      <c r="AF1502" s="74"/>
-      <c r="AG1502" s="74"/>
-      <c r="AH1502" s="74"/>
+      <c r="B1502" s="77"/>
+      <c r="C1502" s="77"/>
+      <c r="D1502" s="77"/>
+      <c r="E1502" s="77"/>
+      <c r="F1502" s="77"/>
+      <c r="G1502" s="77"/>
+      <c r="H1502" s="77"/>
+      <c r="I1502" s="77"/>
+      <c r="J1502" s="77"/>
+      <c r="K1502" s="77"/>
+      <c r="L1502" s="77"/>
+      <c r="M1502" s="77"/>
+      <c r="N1502" s="77"/>
+      <c r="O1502" s="77"/>
+      <c r="P1502" s="77"/>
+      <c r="Q1502" s="77"/>
+      <c r="R1502" s="77"/>
+      <c r="S1502" s="77"/>
+      <c r="T1502" s="77"/>
+      <c r="U1502" s="77"/>
+      <c r="V1502" s="77"/>
+      <c r="W1502" s="77"/>
+      <c r="X1502" s="77"/>
+      <c r="Y1502" s="77"/>
+      <c r="Z1502" s="77"/>
+      <c r="AA1502" s="77"/>
+      <c r="AB1502" s="77"/>
+      <c r="AC1502" s="77"/>
+      <c r="AD1502" s="77"/>
+      <c r="AE1502" s="77"/>
+      <c r="AF1502" s="77"/>
+      <c r="AG1502" s="77"/>
+      <c r="AH1502" s="77"/>
     </row>
     <row r="1503" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1504" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37048,39 +39022,39 @@
     <row r="1602" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1603" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1604" s="74"/>
-      <c r="C1604" s="74"/>
-      <c r="D1604" s="74"/>
-      <c r="E1604" s="74"/>
-      <c r="F1604" s="74"/>
-      <c r="G1604" s="74"/>
-      <c r="H1604" s="74"/>
-      <c r="I1604" s="74"/>
-      <c r="J1604" s="74"/>
-      <c r="K1604" s="74"/>
-      <c r="L1604" s="74"/>
-      <c r="M1604" s="74"/>
-      <c r="N1604" s="74"/>
-      <c r="O1604" s="74"/>
-      <c r="P1604" s="74"/>
-      <c r="Q1604" s="74"/>
-      <c r="R1604" s="74"/>
-      <c r="S1604" s="74"/>
-      <c r="T1604" s="74"/>
-      <c r="U1604" s="74"/>
-      <c r="V1604" s="74"/>
-      <c r="W1604" s="74"/>
-      <c r="X1604" s="74"/>
-      <c r="Y1604" s="74"/>
-      <c r="Z1604" s="74"/>
-      <c r="AA1604" s="74"/>
-      <c r="AB1604" s="74"/>
-      <c r="AC1604" s="74"/>
-      <c r="AD1604" s="74"/>
-      <c r="AE1604" s="74"/>
-      <c r="AF1604" s="74"/>
-      <c r="AG1604" s="74"/>
-      <c r="AH1604" s="74"/>
+      <c r="B1604" s="77"/>
+      <c r="C1604" s="77"/>
+      <c r="D1604" s="77"/>
+      <c r="E1604" s="77"/>
+      <c r="F1604" s="77"/>
+      <c r="G1604" s="77"/>
+      <c r="H1604" s="77"/>
+      <c r="I1604" s="77"/>
+      <c r="J1604" s="77"/>
+      <c r="K1604" s="77"/>
+      <c r="L1604" s="77"/>
+      <c r="M1604" s="77"/>
+      <c r="N1604" s="77"/>
+      <c r="O1604" s="77"/>
+      <c r="P1604" s="77"/>
+      <c r="Q1604" s="77"/>
+      <c r="R1604" s="77"/>
+      <c r="S1604" s="77"/>
+      <c r="T1604" s="77"/>
+      <c r="U1604" s="77"/>
+      <c r="V1604" s="77"/>
+      <c r="W1604" s="77"/>
+      <c r="X1604" s="77"/>
+      <c r="Y1604" s="77"/>
+      <c r="Z1604" s="77"/>
+      <c r="AA1604" s="77"/>
+      <c r="AB1604" s="77"/>
+      <c r="AC1604" s="77"/>
+      <c r="AD1604" s="77"/>
+      <c r="AE1604" s="77"/>
+      <c r="AF1604" s="77"/>
+      <c r="AG1604" s="77"/>
+      <c r="AH1604" s="77"/>
     </row>
     <row r="1605" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1606" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37176,39 +39150,39 @@
     <row r="1696" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1697" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1698" s="74"/>
-      <c r="C1698" s="74"/>
-      <c r="D1698" s="74"/>
-      <c r="E1698" s="74"/>
-      <c r="F1698" s="74"/>
-      <c r="G1698" s="74"/>
-      <c r="H1698" s="74"/>
-      <c r="I1698" s="74"/>
-      <c r="J1698" s="74"/>
-      <c r="K1698" s="74"/>
-      <c r="L1698" s="74"/>
-      <c r="M1698" s="74"/>
-      <c r="N1698" s="74"/>
-      <c r="O1698" s="74"/>
-      <c r="P1698" s="74"/>
-      <c r="Q1698" s="74"/>
-      <c r="R1698" s="74"/>
-      <c r="S1698" s="74"/>
-      <c r="T1698" s="74"/>
-      <c r="U1698" s="74"/>
-      <c r="V1698" s="74"/>
-      <c r="W1698" s="74"/>
-      <c r="X1698" s="74"/>
-      <c r="Y1698" s="74"/>
-      <c r="Z1698" s="74"/>
-      <c r="AA1698" s="74"/>
-      <c r="AB1698" s="74"/>
-      <c r="AC1698" s="74"/>
-      <c r="AD1698" s="74"/>
-      <c r="AE1698" s="74"/>
-      <c r="AF1698" s="74"/>
-      <c r="AG1698" s="74"/>
-      <c r="AH1698" s="74"/>
+      <c r="B1698" s="77"/>
+      <c r="C1698" s="77"/>
+      <c r="D1698" s="77"/>
+      <c r="E1698" s="77"/>
+      <c r="F1698" s="77"/>
+      <c r="G1698" s="77"/>
+      <c r="H1698" s="77"/>
+      <c r="I1698" s="77"/>
+      <c r="J1698" s="77"/>
+      <c r="K1698" s="77"/>
+      <c r="L1698" s="77"/>
+      <c r="M1698" s="77"/>
+      <c r="N1698" s="77"/>
+      <c r="O1698" s="77"/>
+      <c r="P1698" s="77"/>
+      <c r="Q1698" s="77"/>
+      <c r="R1698" s="77"/>
+      <c r="S1698" s="77"/>
+      <c r="T1698" s="77"/>
+      <c r="U1698" s="77"/>
+      <c r="V1698" s="77"/>
+      <c r="W1698" s="77"/>
+      <c r="X1698" s="77"/>
+      <c r="Y1698" s="77"/>
+      <c r="Z1698" s="77"/>
+      <c r="AA1698" s="77"/>
+      <c r="AB1698" s="77"/>
+      <c r="AC1698" s="77"/>
+      <c r="AD1698" s="77"/>
+      <c r="AE1698" s="77"/>
+      <c r="AF1698" s="77"/>
+      <c r="AG1698" s="77"/>
+      <c r="AH1698" s="77"/>
     </row>
     <row r="1699" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1700" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37457,39 +39431,39 @@
     <row r="1943" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1944" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1945" s="74"/>
-      <c r="C1945" s="74"/>
-      <c r="D1945" s="74"/>
-      <c r="E1945" s="74"/>
-      <c r="F1945" s="74"/>
-      <c r="G1945" s="74"/>
-      <c r="H1945" s="74"/>
-      <c r="I1945" s="74"/>
-      <c r="J1945" s="74"/>
-      <c r="K1945" s="74"/>
-      <c r="L1945" s="74"/>
-      <c r="M1945" s="74"/>
-      <c r="N1945" s="74"/>
-      <c r="O1945" s="74"/>
-      <c r="P1945" s="74"/>
-      <c r="Q1945" s="74"/>
-      <c r="R1945" s="74"/>
-      <c r="S1945" s="74"/>
-      <c r="T1945" s="74"/>
-      <c r="U1945" s="74"/>
-      <c r="V1945" s="74"/>
-      <c r="W1945" s="74"/>
-      <c r="X1945" s="74"/>
-      <c r="Y1945" s="74"/>
-      <c r="Z1945" s="74"/>
-      <c r="AA1945" s="74"/>
-      <c r="AB1945" s="74"/>
-      <c r="AC1945" s="74"/>
-      <c r="AD1945" s="74"/>
-      <c r="AE1945" s="74"/>
-      <c r="AF1945" s="74"/>
-      <c r="AG1945" s="74"/>
-      <c r="AH1945" s="74"/>
+      <c r="B1945" s="77"/>
+      <c r="C1945" s="77"/>
+      <c r="D1945" s="77"/>
+      <c r="E1945" s="77"/>
+      <c r="F1945" s="77"/>
+      <c r="G1945" s="77"/>
+      <c r="H1945" s="77"/>
+      <c r="I1945" s="77"/>
+      <c r="J1945" s="77"/>
+      <c r="K1945" s="77"/>
+      <c r="L1945" s="77"/>
+      <c r="M1945" s="77"/>
+      <c r="N1945" s="77"/>
+      <c r="O1945" s="77"/>
+      <c r="P1945" s="77"/>
+      <c r="Q1945" s="77"/>
+      <c r="R1945" s="77"/>
+      <c r="S1945" s="77"/>
+      <c r="T1945" s="77"/>
+      <c r="U1945" s="77"/>
+      <c r="V1945" s="77"/>
+      <c r="W1945" s="77"/>
+      <c r="X1945" s="77"/>
+      <c r="Y1945" s="77"/>
+      <c r="Z1945" s="77"/>
+      <c r="AA1945" s="77"/>
+      <c r="AB1945" s="77"/>
+      <c r="AC1945" s="77"/>
+      <c r="AD1945" s="77"/>
+      <c r="AE1945" s="77"/>
+      <c r="AF1945" s="77"/>
+      <c r="AG1945" s="77"/>
+      <c r="AH1945" s="77"/>
     </row>
     <row r="1946" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1947" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37577,39 +39551,39 @@
     <row r="2029" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2030" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2031" s="74"/>
-      <c r="C2031" s="74"/>
-      <c r="D2031" s="74"/>
-      <c r="E2031" s="74"/>
-      <c r="F2031" s="74"/>
-      <c r="G2031" s="74"/>
-      <c r="H2031" s="74"/>
-      <c r="I2031" s="74"/>
-      <c r="J2031" s="74"/>
-      <c r="K2031" s="74"/>
-      <c r="L2031" s="74"/>
-      <c r="M2031" s="74"/>
-      <c r="N2031" s="74"/>
-      <c r="O2031" s="74"/>
-      <c r="P2031" s="74"/>
-      <c r="Q2031" s="74"/>
-      <c r="R2031" s="74"/>
-      <c r="S2031" s="74"/>
-      <c r="T2031" s="74"/>
-      <c r="U2031" s="74"/>
-      <c r="V2031" s="74"/>
-      <c r="W2031" s="74"/>
-      <c r="X2031" s="74"/>
-      <c r="Y2031" s="74"/>
-      <c r="Z2031" s="74"/>
-      <c r="AA2031" s="74"/>
-      <c r="AB2031" s="74"/>
-      <c r="AC2031" s="74"/>
-      <c r="AD2031" s="74"/>
-      <c r="AE2031" s="74"/>
-      <c r="AF2031" s="74"/>
-      <c r="AG2031" s="74"/>
-      <c r="AH2031" s="74"/>
+      <c r="B2031" s="77"/>
+      <c r="C2031" s="77"/>
+      <c r="D2031" s="77"/>
+      <c r="E2031" s="77"/>
+      <c r="F2031" s="77"/>
+      <c r="G2031" s="77"/>
+      <c r="H2031" s="77"/>
+      <c r="I2031" s="77"/>
+      <c r="J2031" s="77"/>
+      <c r="K2031" s="77"/>
+      <c r="L2031" s="77"/>
+      <c r="M2031" s="77"/>
+      <c r="N2031" s="77"/>
+      <c r="O2031" s="77"/>
+      <c r="P2031" s="77"/>
+      <c r="Q2031" s="77"/>
+      <c r="R2031" s="77"/>
+      <c r="S2031" s="77"/>
+      <c r="T2031" s="77"/>
+      <c r="U2031" s="77"/>
+      <c r="V2031" s="77"/>
+      <c r="W2031" s="77"/>
+      <c r="X2031" s="77"/>
+      <c r="Y2031" s="77"/>
+      <c r="Z2031" s="77"/>
+      <c r="AA2031" s="77"/>
+      <c r="AB2031" s="77"/>
+      <c r="AC2031" s="77"/>
+      <c r="AD2031" s="77"/>
+      <c r="AE2031" s="77"/>
+      <c r="AF2031" s="77"/>
+      <c r="AG2031" s="77"/>
+      <c r="AH2031" s="77"/>
     </row>
     <row r="2032" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2033" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37733,39 +39707,39 @@
     <row r="2151" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2152" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2153" s="74"/>
-      <c r="C2153" s="74"/>
-      <c r="D2153" s="74"/>
-      <c r="E2153" s="74"/>
-      <c r="F2153" s="74"/>
-      <c r="G2153" s="74"/>
-      <c r="H2153" s="74"/>
-      <c r="I2153" s="74"/>
-      <c r="J2153" s="74"/>
-      <c r="K2153" s="74"/>
-      <c r="L2153" s="74"/>
-      <c r="M2153" s="74"/>
-      <c r="N2153" s="74"/>
-      <c r="O2153" s="74"/>
-      <c r="P2153" s="74"/>
-      <c r="Q2153" s="74"/>
-      <c r="R2153" s="74"/>
-      <c r="S2153" s="74"/>
-      <c r="T2153" s="74"/>
-      <c r="U2153" s="74"/>
-      <c r="V2153" s="74"/>
-      <c r="W2153" s="74"/>
-      <c r="X2153" s="74"/>
-      <c r="Y2153" s="74"/>
-      <c r="Z2153" s="74"/>
-      <c r="AA2153" s="74"/>
-      <c r="AB2153" s="74"/>
-      <c r="AC2153" s="74"/>
-      <c r="AD2153" s="74"/>
-      <c r="AE2153" s="74"/>
-      <c r="AF2153" s="74"/>
-      <c r="AG2153" s="74"/>
-      <c r="AH2153" s="74"/>
+      <c r="B2153" s="77"/>
+      <c r="C2153" s="77"/>
+      <c r="D2153" s="77"/>
+      <c r="E2153" s="77"/>
+      <c r="F2153" s="77"/>
+      <c r="G2153" s="77"/>
+      <c r="H2153" s="77"/>
+      <c r="I2153" s="77"/>
+      <c r="J2153" s="77"/>
+      <c r="K2153" s="77"/>
+      <c r="L2153" s="77"/>
+      <c r="M2153" s="77"/>
+      <c r="N2153" s="77"/>
+      <c r="O2153" s="77"/>
+      <c r="P2153" s="77"/>
+      <c r="Q2153" s="77"/>
+      <c r="R2153" s="77"/>
+      <c r="S2153" s="77"/>
+      <c r="T2153" s="77"/>
+      <c r="U2153" s="77"/>
+      <c r="V2153" s="77"/>
+      <c r="W2153" s="77"/>
+      <c r="X2153" s="77"/>
+      <c r="Y2153" s="77"/>
+      <c r="Z2153" s="77"/>
+      <c r="AA2153" s="77"/>
+      <c r="AB2153" s="77"/>
+      <c r="AC2153" s="77"/>
+      <c r="AD2153" s="77"/>
+      <c r="AE2153" s="77"/>
+      <c r="AF2153" s="77"/>
+      <c r="AG2153" s="77"/>
+      <c r="AH2153" s="77"/>
     </row>
     <row r="2154" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2155" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37931,39 +39905,39 @@
     <row r="2315" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2316" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2317" s="74"/>
-      <c r="C2317" s="74"/>
-      <c r="D2317" s="74"/>
-      <c r="E2317" s="74"/>
-      <c r="F2317" s="74"/>
-      <c r="G2317" s="74"/>
-      <c r="H2317" s="74"/>
-      <c r="I2317" s="74"/>
-      <c r="J2317" s="74"/>
-      <c r="K2317" s="74"/>
-      <c r="L2317" s="74"/>
-      <c r="M2317" s="74"/>
-      <c r="N2317" s="74"/>
-      <c r="O2317" s="74"/>
-      <c r="P2317" s="74"/>
-      <c r="Q2317" s="74"/>
-      <c r="R2317" s="74"/>
-      <c r="S2317" s="74"/>
-      <c r="T2317" s="74"/>
-      <c r="U2317" s="74"/>
-      <c r="V2317" s="74"/>
-      <c r="W2317" s="74"/>
-      <c r="X2317" s="74"/>
-      <c r="Y2317" s="74"/>
-      <c r="Z2317" s="74"/>
-      <c r="AA2317" s="74"/>
-      <c r="AB2317" s="74"/>
-      <c r="AC2317" s="74"/>
-      <c r="AD2317" s="74"/>
-      <c r="AE2317" s="74"/>
-      <c r="AF2317" s="74"/>
-      <c r="AG2317" s="74"/>
-      <c r="AH2317" s="74"/>
+      <c r="B2317" s="77"/>
+      <c r="C2317" s="77"/>
+      <c r="D2317" s="77"/>
+      <c r="E2317" s="77"/>
+      <c r="F2317" s="77"/>
+      <c r="G2317" s="77"/>
+      <c r="H2317" s="77"/>
+      <c r="I2317" s="77"/>
+      <c r="J2317" s="77"/>
+      <c r="K2317" s="77"/>
+      <c r="L2317" s="77"/>
+      <c r="M2317" s="77"/>
+      <c r="N2317" s="77"/>
+      <c r="O2317" s="77"/>
+      <c r="P2317" s="77"/>
+      <c r="Q2317" s="77"/>
+      <c r="R2317" s="77"/>
+      <c r="S2317" s="77"/>
+      <c r="T2317" s="77"/>
+      <c r="U2317" s="77"/>
+      <c r="V2317" s="77"/>
+      <c r="W2317" s="77"/>
+      <c r="X2317" s="77"/>
+      <c r="Y2317" s="77"/>
+      <c r="Z2317" s="77"/>
+      <c r="AA2317" s="77"/>
+      <c r="AB2317" s="77"/>
+      <c r="AC2317" s="77"/>
+      <c r="AD2317" s="77"/>
+      <c r="AE2317" s="77"/>
+      <c r="AF2317" s="77"/>
+      <c r="AG2317" s="77"/>
+      <c r="AH2317" s="77"/>
     </row>
     <row r="2318" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2319" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38067,39 +40041,39 @@
     <row r="2417" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2418" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2419" s="74"/>
-      <c r="C2419" s="74"/>
-      <c r="D2419" s="74"/>
-      <c r="E2419" s="74"/>
-      <c r="F2419" s="74"/>
-      <c r="G2419" s="74"/>
-      <c r="H2419" s="74"/>
-      <c r="I2419" s="74"/>
-      <c r="J2419" s="74"/>
-      <c r="K2419" s="74"/>
-      <c r="L2419" s="74"/>
-      <c r="M2419" s="74"/>
-      <c r="N2419" s="74"/>
-      <c r="O2419" s="74"/>
-      <c r="P2419" s="74"/>
-      <c r="Q2419" s="74"/>
-      <c r="R2419" s="74"/>
-      <c r="S2419" s="74"/>
-      <c r="T2419" s="74"/>
-      <c r="U2419" s="74"/>
-      <c r="V2419" s="74"/>
-      <c r="W2419" s="74"/>
-      <c r="X2419" s="74"/>
-      <c r="Y2419" s="74"/>
-      <c r="Z2419" s="74"/>
-      <c r="AA2419" s="74"/>
-      <c r="AB2419" s="74"/>
-      <c r="AC2419" s="74"/>
-      <c r="AD2419" s="74"/>
-      <c r="AE2419" s="74"/>
-      <c r="AF2419" s="74"/>
-      <c r="AG2419" s="74"/>
-      <c r="AH2419" s="74"/>
+      <c r="B2419" s="77"/>
+      <c r="C2419" s="77"/>
+      <c r="D2419" s="77"/>
+      <c r="E2419" s="77"/>
+      <c r="F2419" s="77"/>
+      <c r="G2419" s="77"/>
+      <c r="H2419" s="77"/>
+      <c r="I2419" s="77"/>
+      <c r="J2419" s="77"/>
+      <c r="K2419" s="77"/>
+      <c r="L2419" s="77"/>
+      <c r="M2419" s="77"/>
+      <c r="N2419" s="77"/>
+      <c r="O2419" s="77"/>
+      <c r="P2419" s="77"/>
+      <c r="Q2419" s="77"/>
+      <c r="R2419" s="77"/>
+      <c r="S2419" s="77"/>
+      <c r="T2419" s="77"/>
+      <c r="U2419" s="77"/>
+      <c r="V2419" s="77"/>
+      <c r="W2419" s="77"/>
+      <c r="X2419" s="77"/>
+      <c r="Y2419" s="77"/>
+      <c r="Z2419" s="77"/>
+      <c r="AA2419" s="77"/>
+      <c r="AB2419" s="77"/>
+      <c r="AC2419" s="77"/>
+      <c r="AD2419" s="77"/>
+      <c r="AE2419" s="77"/>
+      <c r="AF2419" s="77"/>
+      <c r="AG2419" s="77"/>
+      <c r="AH2419" s="77"/>
     </row>
     <row r="2420" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2421" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38191,39 +40165,39 @@
     <row r="2507" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2508" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2509" s="74"/>
-      <c r="C2509" s="74"/>
-      <c r="D2509" s="74"/>
-      <c r="E2509" s="74"/>
-      <c r="F2509" s="74"/>
-      <c r="G2509" s="74"/>
-      <c r="H2509" s="74"/>
-      <c r="I2509" s="74"/>
-      <c r="J2509" s="74"/>
-      <c r="K2509" s="74"/>
-      <c r="L2509" s="74"/>
-      <c r="M2509" s="74"/>
-      <c r="N2509" s="74"/>
-      <c r="O2509" s="74"/>
-      <c r="P2509" s="74"/>
-      <c r="Q2509" s="74"/>
-      <c r="R2509" s="74"/>
-      <c r="S2509" s="74"/>
-      <c r="T2509" s="74"/>
-      <c r="U2509" s="74"/>
-      <c r="V2509" s="74"/>
-      <c r="W2509" s="74"/>
-      <c r="X2509" s="74"/>
-      <c r="Y2509" s="74"/>
-      <c r="Z2509" s="74"/>
-      <c r="AA2509" s="74"/>
-      <c r="AB2509" s="74"/>
-      <c r="AC2509" s="74"/>
-      <c r="AD2509" s="74"/>
-      <c r="AE2509" s="74"/>
-      <c r="AF2509" s="74"/>
-      <c r="AG2509" s="74"/>
-      <c r="AH2509" s="74"/>
+      <c r="B2509" s="77"/>
+      <c r="C2509" s="77"/>
+      <c r="D2509" s="77"/>
+      <c r="E2509" s="77"/>
+      <c r="F2509" s="77"/>
+      <c r="G2509" s="77"/>
+      <c r="H2509" s="77"/>
+      <c r="I2509" s="77"/>
+      <c r="J2509" s="77"/>
+      <c r="K2509" s="77"/>
+      <c r="L2509" s="77"/>
+      <c r="M2509" s="77"/>
+      <c r="N2509" s="77"/>
+      <c r="O2509" s="77"/>
+      <c r="P2509" s="77"/>
+      <c r="Q2509" s="77"/>
+      <c r="R2509" s="77"/>
+      <c r="S2509" s="77"/>
+      <c r="T2509" s="77"/>
+      <c r="U2509" s="77"/>
+      <c r="V2509" s="77"/>
+      <c r="W2509" s="77"/>
+      <c r="X2509" s="77"/>
+      <c r="Y2509" s="77"/>
+      <c r="Z2509" s="77"/>
+      <c r="AA2509" s="77"/>
+      <c r="AB2509" s="77"/>
+      <c r="AC2509" s="77"/>
+      <c r="AD2509" s="77"/>
+      <c r="AE2509" s="77"/>
+      <c r="AF2509" s="77"/>
+      <c r="AG2509" s="77"/>
+      <c r="AH2509" s="77"/>
     </row>
     <row r="2510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38314,39 +40288,39 @@
     <row r="2596" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2597" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2598" s="74"/>
-      <c r="C2598" s="74"/>
-      <c r="D2598" s="74"/>
-      <c r="E2598" s="74"/>
-      <c r="F2598" s="74"/>
-      <c r="G2598" s="74"/>
-      <c r="H2598" s="74"/>
-      <c r="I2598" s="74"/>
-      <c r="J2598" s="74"/>
-      <c r="K2598" s="74"/>
-      <c r="L2598" s="74"/>
-      <c r="M2598" s="74"/>
-      <c r="N2598" s="74"/>
-      <c r="O2598" s="74"/>
-      <c r="P2598" s="74"/>
-      <c r="Q2598" s="74"/>
-      <c r="R2598" s="74"/>
-      <c r="S2598" s="74"/>
-      <c r="T2598" s="74"/>
-      <c r="U2598" s="74"/>
-      <c r="V2598" s="74"/>
-      <c r="W2598" s="74"/>
-      <c r="X2598" s="74"/>
-      <c r="Y2598" s="74"/>
-      <c r="Z2598" s="74"/>
-      <c r="AA2598" s="74"/>
-      <c r="AB2598" s="74"/>
-      <c r="AC2598" s="74"/>
-      <c r="AD2598" s="74"/>
-      <c r="AE2598" s="74"/>
-      <c r="AF2598" s="74"/>
-      <c r="AG2598" s="74"/>
-      <c r="AH2598" s="74"/>
+      <c r="B2598" s="77"/>
+      <c r="C2598" s="77"/>
+      <c r="D2598" s="77"/>
+      <c r="E2598" s="77"/>
+      <c r="F2598" s="77"/>
+      <c r="G2598" s="77"/>
+      <c r="H2598" s="77"/>
+      <c r="I2598" s="77"/>
+      <c r="J2598" s="77"/>
+      <c r="K2598" s="77"/>
+      <c r="L2598" s="77"/>
+      <c r="M2598" s="77"/>
+      <c r="N2598" s="77"/>
+      <c r="O2598" s="77"/>
+      <c r="P2598" s="77"/>
+      <c r="Q2598" s="77"/>
+      <c r="R2598" s="77"/>
+      <c r="S2598" s="77"/>
+      <c r="T2598" s="77"/>
+      <c r="U2598" s="77"/>
+      <c r="V2598" s="77"/>
+      <c r="W2598" s="77"/>
+      <c r="X2598" s="77"/>
+      <c r="Y2598" s="77"/>
+      <c r="Z2598" s="77"/>
+      <c r="AA2598" s="77"/>
+      <c r="AB2598" s="77"/>
+      <c r="AC2598" s="77"/>
+      <c r="AD2598" s="77"/>
+      <c r="AE2598" s="77"/>
+      <c r="AF2598" s="77"/>
+      <c r="AG2598" s="77"/>
+      <c r="AH2598" s="77"/>
     </row>
     <row r="2599" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2600" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38469,39 +40443,39 @@
     <row r="2717" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2718" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2719" s="74"/>
-      <c r="C2719" s="74"/>
-      <c r="D2719" s="74"/>
-      <c r="E2719" s="74"/>
-      <c r="F2719" s="74"/>
-      <c r="G2719" s="74"/>
-      <c r="H2719" s="74"/>
-      <c r="I2719" s="74"/>
-      <c r="J2719" s="74"/>
-      <c r="K2719" s="74"/>
-      <c r="L2719" s="74"/>
-      <c r="M2719" s="74"/>
-      <c r="N2719" s="74"/>
-      <c r="O2719" s="74"/>
-      <c r="P2719" s="74"/>
-      <c r="Q2719" s="74"/>
-      <c r="R2719" s="74"/>
-      <c r="S2719" s="74"/>
-      <c r="T2719" s="74"/>
-      <c r="U2719" s="74"/>
-      <c r="V2719" s="74"/>
-      <c r="W2719" s="74"/>
-      <c r="X2719" s="74"/>
-      <c r="Y2719" s="74"/>
-      <c r="Z2719" s="74"/>
-      <c r="AA2719" s="74"/>
-      <c r="AB2719" s="74"/>
-      <c r="AC2719" s="74"/>
-      <c r="AD2719" s="74"/>
-      <c r="AE2719" s="74"/>
-      <c r="AF2719" s="74"/>
-      <c r="AG2719" s="74"/>
-      <c r="AH2719" s="74"/>
+      <c r="B2719" s="77"/>
+      <c r="C2719" s="77"/>
+      <c r="D2719" s="77"/>
+      <c r="E2719" s="77"/>
+      <c r="F2719" s="77"/>
+      <c r="G2719" s="77"/>
+      <c r="H2719" s="77"/>
+      <c r="I2719" s="77"/>
+      <c r="J2719" s="77"/>
+      <c r="K2719" s="77"/>
+      <c r="L2719" s="77"/>
+      <c r="M2719" s="77"/>
+      <c r="N2719" s="77"/>
+      <c r="O2719" s="77"/>
+      <c r="P2719" s="77"/>
+      <c r="Q2719" s="77"/>
+      <c r="R2719" s="77"/>
+      <c r="S2719" s="77"/>
+      <c r="T2719" s="77"/>
+      <c r="U2719" s="77"/>
+      <c r="V2719" s="77"/>
+      <c r="W2719" s="77"/>
+      <c r="X2719" s="77"/>
+      <c r="Y2719" s="77"/>
+      <c r="Z2719" s="77"/>
+      <c r="AA2719" s="77"/>
+      <c r="AB2719" s="77"/>
+      <c r="AC2719" s="77"/>
+      <c r="AD2719" s="77"/>
+      <c r="AE2719" s="77"/>
+      <c r="AF2719" s="77"/>
+      <c r="AG2719" s="77"/>
+      <c r="AH2719" s="77"/>
     </row>
     <row r="2720" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2721" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38621,63 +40595,63 @@
     <row r="2835" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2836" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2837" s="74"/>
-      <c r="C2837" s="74"/>
-      <c r="D2837" s="74"/>
-      <c r="E2837" s="74"/>
-      <c r="F2837" s="74"/>
-      <c r="G2837" s="74"/>
-      <c r="H2837" s="74"/>
-      <c r="I2837" s="74"/>
-      <c r="J2837" s="74"/>
-      <c r="K2837" s="74"/>
-      <c r="L2837" s="74"/>
-      <c r="M2837" s="74"/>
-      <c r="N2837" s="74"/>
-      <c r="O2837" s="74"/>
-      <c r="P2837" s="74"/>
-      <c r="Q2837" s="74"/>
-      <c r="R2837" s="74"/>
-      <c r="S2837" s="74"/>
-      <c r="T2837" s="74"/>
-      <c r="U2837" s="74"/>
-      <c r="V2837" s="74"/>
-      <c r="W2837" s="74"/>
-      <c r="X2837" s="74"/>
-      <c r="Y2837" s="74"/>
-      <c r="Z2837" s="74"/>
-      <c r="AA2837" s="74"/>
-      <c r="AB2837" s="74"/>
-      <c r="AC2837" s="74"/>
-      <c r="AD2837" s="74"/>
-      <c r="AE2837" s="74"/>
-      <c r="AF2837" s="74"/>
-      <c r="AG2837" s="74"/>
-      <c r="AH2837" s="74"/>
+      <c r="B2837" s="77"/>
+      <c r="C2837" s="77"/>
+      <c r="D2837" s="77"/>
+      <c r="E2837" s="77"/>
+      <c r="F2837" s="77"/>
+      <c r="G2837" s="77"/>
+      <c r="H2837" s="77"/>
+      <c r="I2837" s="77"/>
+      <c r="J2837" s="77"/>
+      <c r="K2837" s="77"/>
+      <c r="L2837" s="77"/>
+      <c r="M2837" s="77"/>
+      <c r="N2837" s="77"/>
+      <c r="O2837" s="77"/>
+      <c r="P2837" s="77"/>
+      <c r="Q2837" s="77"/>
+      <c r="R2837" s="77"/>
+      <c r="S2837" s="77"/>
+      <c r="T2837" s="77"/>
+      <c r="U2837" s="77"/>
+      <c r="V2837" s="77"/>
+      <c r="W2837" s="77"/>
+      <c r="X2837" s="77"/>
+      <c r="Y2837" s="77"/>
+      <c r="Z2837" s="77"/>
+      <c r="AA2837" s="77"/>
+      <c r="AB2837" s="77"/>
+      <c r="AC2837" s="77"/>
+      <c r="AD2837" s="77"/>
+      <c r="AE2837" s="77"/>
+      <c r="AF2837" s="77"/>
+      <c r="AG2837" s="77"/>
+      <c r="AH2837" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B83:AG83"/>
-    <mergeCell ref="B112:AH112"/>
-    <mergeCell ref="B308:AH308"/>
-    <mergeCell ref="B511:AH511"/>
-    <mergeCell ref="B712:AH712"/>
-    <mergeCell ref="B887:AH887"/>
-    <mergeCell ref="B1100:AH1100"/>
-    <mergeCell ref="B1227:AH1227"/>
-    <mergeCell ref="B1390:AH1390"/>
-    <mergeCell ref="B1502:AH1502"/>
-    <mergeCell ref="B1604:AH1604"/>
-    <mergeCell ref="B1698:AH1698"/>
-    <mergeCell ref="B1945:AH1945"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2719:AH2719"/>
     <mergeCell ref="B2837:AH2837"/>
     <mergeCell ref="B2153:AH2153"/>
     <mergeCell ref="B2317:AH2317"/>
     <mergeCell ref="B2419:AH2419"/>
     <mergeCell ref="B2509:AH2509"/>
     <mergeCell ref="B2598:AH2598"/>
+    <mergeCell ref="B1604:AH1604"/>
+    <mergeCell ref="B1698:AH1698"/>
+    <mergeCell ref="B1945:AH1945"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2719:AH2719"/>
+    <mergeCell ref="B887:AH887"/>
+    <mergeCell ref="B1100:AH1100"/>
+    <mergeCell ref="B1227:AH1227"/>
+    <mergeCell ref="B1390:AH1390"/>
+    <mergeCell ref="B1502:AH1502"/>
+    <mergeCell ref="B83:AG83"/>
+    <mergeCell ref="B112:AH112"/>
+    <mergeCell ref="B308:AH308"/>
+    <mergeCell ref="B511:AH511"/>
+    <mergeCell ref="B712:AH712"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38688,7 +40662,7 @@
   <dimension ref="A1:AJ121"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:I19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39125,15 +41099,15 @@
       </c>
     </row>
     <row r="6" spans="1:36" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="78" t="s">
-        <v>655</v>
-      </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
+      <c r="C6" s="79" t="s">
+        <v>653</v>
+      </c>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
     </row>
     <row r="7" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -39144,7 +41118,7 @@
         <v>385377</v>
       </c>
       <c r="D7" s="26">
-        <f t="shared" si="1"/>
+        <f>D5*D4</f>
         <v>366378</v>
       </c>
       <c r="E7" s="26">
@@ -39626,11 +41600,11 @@
       </c>
     </row>
     <row r="13" spans="1:36" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J13" s="78" t="s">
-        <v>654</v>
-      </c>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
+      <c r="J13" s="79" t="s">
+        <v>652</v>
+      </c>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
     </row>
     <row r="14" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -40124,15 +42098,15 @@
       </c>
     </row>
     <row r="20" spans="1:36" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="78" t="s">
-        <v>655</v>
-      </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
+      <c r="C20" s="79" t="s">
+        <v>653</v>
+      </c>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
     </row>
     <row r="21" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -48379,6 +50353,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C76797-03FD-4A76-BA48-19073B7B92AA}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
+        <v>655</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>656</v>
+      </c>
+      <c r="B3">
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
+        <v>657</v>
+      </c>
+      <c r="B4">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="80" t="s">
+        <v>658</v>
+      </c>
+      <c r="B5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="80" t="s">
+        <v>660</v>
+      </c>
+      <c r="B6">
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="80" t="s">
+        <v>659</v>
+      </c>
+      <c r="B7">
+        <f>'Subsidies Paid'!M9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <v>9.0254508971004093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="80" t="s">
+        <v>661</v>
+      </c>
+      <c r="B9" s="81">
+        <f>PV(B5,B1,B7*B6*B3)/PV(B5,B2,B7*B6*B3)</f>
+        <v>0.43520463058382036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="80" t="s">
+        <v>662</v>
+      </c>
+      <c r="B10" s="81">
+        <f>PV(B5,B1,B7*B6*B4)/PV(B5,B2,B7*B6*B4)</f>
+        <v>0.43520463058382031</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A29:A30"/>
   <sheetViews>
@@ -48405,7 +50473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -50847,1931 +52915,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AJ17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1">
-        <v>2020</v>
-      </c>
-      <c r="C1" s="8">
-        <v>2021</v>
-      </c>
-      <c r="D1" s="8">
-        <v>2022</v>
-      </c>
-      <c r="E1" s="8">
-        <v>2023</v>
-      </c>
-      <c r="F1" s="8">
-        <v>2024</v>
-      </c>
-      <c r="G1" s="8">
-        <v>2025</v>
-      </c>
-      <c r="H1" s="8">
-        <v>2026</v>
-      </c>
-      <c r="I1" s="8">
-        <v>2027</v>
-      </c>
-      <c r="J1" s="8">
-        <v>2028</v>
-      </c>
-      <c r="K1" s="8">
-        <v>2029</v>
-      </c>
-      <c r="L1" s="8">
-        <v>2030</v>
-      </c>
-      <c r="M1" s="8">
-        <v>2031</v>
-      </c>
-      <c r="N1" s="8">
-        <v>2032</v>
-      </c>
-      <c r="O1" s="8">
-        <v>2033</v>
-      </c>
-      <c r="P1" s="8">
-        <v>2034</v>
-      </c>
-      <c r="Q1" s="8">
-        <v>2035</v>
-      </c>
-      <c r="R1" s="8">
-        <v>2036</v>
-      </c>
-      <c r="S1" s="8">
-        <v>2037</v>
-      </c>
-      <c r="T1" s="8">
-        <v>2038</v>
-      </c>
-      <c r="U1" s="8">
-        <v>2039</v>
-      </c>
-      <c r="V1" s="8">
-        <v>2040</v>
-      </c>
-      <c r="W1" s="8">
-        <v>2041</v>
-      </c>
-      <c r="X1" s="8">
-        <v>2042</v>
-      </c>
-      <c r="Y1" s="8">
-        <v>2043</v>
-      </c>
-      <c r="Z1" s="8">
-        <v>2044</v>
-      </c>
-      <c r="AA1" s="8">
-        <v>2045</v>
-      </c>
-      <c r="AB1" s="8">
-        <v>2046</v>
-      </c>
-      <c r="AC1" s="8">
-        <v>2047</v>
-      </c>
-      <c r="AD1" s="8">
-        <v>2048</v>
-      </c>
-      <c r="AE1" s="8">
-        <v>2049</v>
-      </c>
-      <c r="AF1" s="8">
-        <v>2050</v>
-      </c>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B2" s="24">
-        <f>Calculations!D33</f>
-        <v>0.39217710728623101</v>
-      </c>
-      <c r="C2" s="24">
-        <f>Calculations!E33</f>
-        <v>0.3211969604300805</v>
-      </c>
-      <c r="D2" s="24">
-        <f>Calculations!F33</f>
-        <v>0.32111860492873623</v>
-      </c>
-      <c r="E2" s="24">
-        <f>Calculations!G33</f>
-        <v>0.39321461571543892</v>
-      </c>
-      <c r="F2" s="24">
-        <f>Calculations!H33</f>
-        <v>0.47227294140628784</v>
-      </c>
-      <c r="G2" s="24">
-        <f>Calculations!I33</f>
-        <v>0.60948798354925293</v>
-      </c>
-      <c r="H2" s="24">
-        <f>Calculations!J33</f>
-        <v>0.60013560183950687</v>
-      </c>
-      <c r="I2" s="24">
-        <f>Calculations!K33</f>
-        <v>0.62212437394768827</v>
-      </c>
-      <c r="J2" s="24">
-        <f>Calculations!L33</f>
-        <v>0.61730030780527556</v>
-      </c>
-      <c r="K2" s="24">
-        <f>Calculations!M33</f>
-        <v>0.61484334009963648</v>
-      </c>
-      <c r="L2" s="24">
-        <f>Calculations!N33</f>
-        <v>0.60778483146290729</v>
-      </c>
-      <c r="M2" s="24">
-        <f>Calculations!O33</f>
-        <v>0.61692824959120485</v>
-      </c>
-      <c r="N2" s="24">
-        <f>Calculations!P33</f>
-        <v>0.63234162591902898</v>
-      </c>
-      <c r="O2" s="24">
-        <f>Calculations!Q33</f>
-        <v>0.63531229654785482</v>
-      </c>
-      <c r="P2" s="24">
-        <f>Calculations!R33</f>
-        <v>0.65017081309273927</v>
-      </c>
-      <c r="Q2" s="24">
-        <f>Calculations!S33</f>
-        <v>0.66801056140729842</v>
-      </c>
-      <c r="R2" s="24">
-        <f>Calculations!T33</f>
-        <v>0.67803605662854083</v>
-      </c>
-      <c r="S2" s="24">
-        <f>Calculations!U33</f>
-        <v>0.68846401097411636</v>
-      </c>
-      <c r="T2" s="24">
-        <f>Calculations!V33</f>
-        <v>0.70548534562782961</v>
-      </c>
-      <c r="U2" s="24">
-        <f>Calculations!W33</f>
-        <v>0.7085253826809359</v>
-      </c>
-      <c r="V2" s="24">
-        <f>Calculations!X33</f>
-        <v>0.71461730522268652</v>
-      </c>
-      <c r="W2" s="24">
-        <f>Calculations!Y33</f>
-        <v>0.71797791743559813</v>
-      </c>
-      <c r="X2" s="24">
-        <f>Calculations!Z33</f>
-        <v>0.72198051036715638</v>
-      </c>
-      <c r="Y2" s="24">
-        <f>Calculations!AA33</f>
-        <v>0.7209091979925063</v>
-      </c>
-      <c r="Z2" s="24">
-        <f>Calculations!AB33</f>
-        <v>0.72179512989523797</v>
-      </c>
-      <c r="AA2" s="24">
-        <f>Calculations!AC33</f>
-        <v>0.74420441324578579</v>
-      </c>
-      <c r="AB2" s="24">
-        <f>Calculations!AD33</f>
-        <v>0.75502495533649872</v>
-      </c>
-      <c r="AC2" s="24">
-        <f>Calculations!AE33</f>
-        <v>0.76224244837640609</v>
-      </c>
-      <c r="AD2" s="24">
-        <f>Calculations!AF33</f>
-        <v>0.77891521988422252</v>
-      </c>
-      <c r="AE2" s="24">
-        <f>Calculations!AG33</f>
-        <v>0.79305495971060069</v>
-      </c>
-      <c r="AF2" s="24">
-        <f>Calculations!AH33</f>
-        <v>0.79197761731865401</v>
-      </c>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>0</v>
-      </c>
-      <c r="R3" s="8">
-        <v>0</v>
-      </c>
-      <c r="S3" s="8">
-        <v>0</v>
-      </c>
-      <c r="T3" s="8">
-        <v>0</v>
-      </c>
-      <c r="U3" s="8">
-        <v>0</v>
-      </c>
-      <c r="V3" s="8">
-        <v>0</v>
-      </c>
-      <c r="W3" s="8">
-        <v>0</v>
-      </c>
-      <c r="X3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="24">
-        <f>Calculations!D39</f>
-        <v>0.3822667786942785</v>
-      </c>
-      <c r="C4" s="24">
-        <f>Calculations!E39</f>
-        <v>0.39443572157150553</v>
-      </c>
-      <c r="D4" s="24">
-        <f>Calculations!F39</f>
-        <v>0.40723086674334885</v>
-      </c>
-      <c r="E4" s="24">
-        <f>Calculations!G39</f>
-        <v>0.40010800462129015</v>
-      </c>
-      <c r="F4" s="24">
-        <f>Calculations!H39</f>
-        <v>0.39844513003746906</v>
-      </c>
-      <c r="G4" s="24">
-        <f>Calculations!I39</f>
-        <v>0.40271755686722605</v>
-      </c>
-      <c r="H4" s="24">
-        <f>Calculations!J39</f>
-        <v>0.46767805340247015</v>
-      </c>
-      <c r="I4" s="24">
-        <f>Calculations!K39</f>
-        <v>0.52040018059204618</v>
-      </c>
-      <c r="J4" s="24">
-        <f>Calculations!L39</f>
-        <v>0.53864874887274061</v>
-      </c>
-      <c r="K4" s="24">
-        <f>Calculations!M39</f>
-        <v>0.59290565028946041</v>
-      </c>
-      <c r="L4" s="24">
-        <f>Calculations!N39</f>
-        <v>0.59202932098623817</v>
-      </c>
-      <c r="M4" s="24">
-        <f>Calculations!O39</f>
-        <v>0.61185818859970653</v>
-      </c>
-      <c r="N4" s="24">
-        <f>Calculations!P39</f>
-        <v>0.62479995077076222</v>
-      </c>
-      <c r="O4" s="24">
-        <f>Calculations!Q39</f>
-        <v>0.63501000401110419</v>
-      </c>
-      <c r="P4" s="24">
-        <f>Calculations!R39</f>
-        <v>0.65833298737934842</v>
-      </c>
-      <c r="Q4" s="24">
-        <f>Calculations!S39</f>
-        <v>0.65630941712720936</v>
-      </c>
-      <c r="R4" s="24">
-        <f>Calculations!T39</f>
-        <v>0.66851940282525524</v>
-      </c>
-      <c r="S4" s="24">
-        <f>Calculations!U39</f>
-        <v>0.69392874455140163</v>
-      </c>
-      <c r="T4" s="24">
-        <f>Calculations!V39</f>
-        <v>0.70547952247389201</v>
-      </c>
-      <c r="U4" s="24">
-        <f>Calculations!W39</f>
-        <v>0.70547952247389201</v>
-      </c>
-      <c r="V4" s="24">
-        <f>Calculations!X39</f>
-        <v>0.70490788165115481</v>
-      </c>
-      <c r="W4" s="24">
-        <f>Calculations!Y39</f>
-        <v>0.70284013010976487</v>
-      </c>
-      <c r="X4" s="24">
-        <f>Calculations!Z39</f>
-        <v>0.70135214943323099</v>
-      </c>
-      <c r="Y4" s="24">
-        <f>Calculations!AA39</f>
-        <v>0.73228366539716583</v>
-      </c>
-      <c r="Z4" s="24">
-        <f>Calculations!AB39</f>
-        <v>0.82286931116638973</v>
-      </c>
-      <c r="AA4" s="24">
-        <f>Calculations!AC39</f>
-        <v>0.82102596258151184</v>
-      </c>
-      <c r="AB4" s="24">
-        <f>Calculations!AD39</f>
-        <v>0.82006975294633289</v>
-      </c>
-      <c r="AC4" s="24">
-        <f>Calculations!AE39</f>
-        <v>0.83692616669997488</v>
-      </c>
-      <c r="AD4" s="24">
-        <f>Calculations!AF39</f>
-        <v>0.8730118707876432</v>
-      </c>
-      <c r="AE4" s="24">
-        <f>Calculations!AG39</f>
-        <v>0.87219810030776468</v>
-      </c>
-      <c r="AF4" s="24">
-        <f>Calculations!AH39</f>
-        <v>0.87102458247095493</v>
-      </c>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="24">
-        <f>'Subsidies Paid'!K5*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="24">
-        <f>'Subsidies Paid'!L5*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="24">
-        <f>'Subsidies Paid'!M5*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="24">
-        <f>'Subsidies Paid'!N5*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="24">
-        <f>'Subsidies Paid'!O5*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="24">
-        <f>'Subsidies Paid'!P5*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="24">
-        <f>'Subsidies Paid'!Q5*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="24">
-        <f>'Subsidies Paid'!R5*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="24">
-        <f>'Subsidies Paid'!S5*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="24">
-        <f>'Subsidies Paid'!T5*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="24">
-        <f>'Subsidies Paid'!U5*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="24">
-        <f>'Subsidies Paid'!V5*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="24">
-        <f>'Subsidies Paid'!W5*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="24">
-        <v>0</v>
-      </c>
-      <c r="P5" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="24">
-        <v>0</v>
-      </c>
-      <c r="R5" s="24">
-        <v>0</v>
-      </c>
-      <c r="S5" s="24">
-        <v>0</v>
-      </c>
-      <c r="T5" s="24">
-        <v>0</v>
-      </c>
-      <c r="U5" s="24">
-        <v>0</v>
-      </c>
-      <c r="V5" s="24">
-        <v>0</v>
-      </c>
-      <c r="W5" s="24">
-        <v>0</v>
-      </c>
-      <c r="X5" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="24">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="24">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="24">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B6" s="24">
-        <f>'Subsidies Paid'!M9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30*(10/About!$A$106)</f>
-        <v>3.0084836323668029</v>
-      </c>
-      <c r="C6" s="24">
-        <f>'Subsidies Paid'!N9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30*(10/About!$A$106)</f>
-        <v>3.0084836323668029</v>
-      </c>
-      <c r="D6" s="24">
-        <f>C6</f>
-        <v>3.0084836323668029</v>
-      </c>
-      <c r="E6" s="24">
-        <f t="shared" ref="E6:F6" si="0">D6</f>
-        <v>3.0084836323668029</v>
-      </c>
-      <c r="F6" s="24">
-        <f t="shared" si="0"/>
-        <v>3.0084836323668029</v>
-      </c>
-      <c r="G6" s="24">
-        <f>'Subsidies Paid'!O9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="24">
-        <f>'Subsidies Paid'!P9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="24">
-        <f>'Subsidies Paid'!Q9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="24">
-        <f>'Subsidies Paid'!R9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="24">
-        <f>'Subsidies Paid'!S9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="24">
-        <f>'Subsidies Paid'!T9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="24">
-        <f>'Subsidies Paid'!U9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="24">
-        <f>'Subsidies Paid'!V9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="24">
-        <f>'Subsidies Paid'!W9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="24">
-        <v>0</v>
-      </c>
-      <c r="R6" s="24">
-        <v>0</v>
-      </c>
-      <c r="S6" s="24">
-        <v>0</v>
-      </c>
-      <c r="T6" s="24">
-        <v>0</v>
-      </c>
-      <c r="U6" s="24">
-        <v>0</v>
-      </c>
-      <c r="V6" s="24">
-        <v>0</v>
-      </c>
-      <c r="W6" s="24">
-        <v>0</v>
-      </c>
-      <c r="X6" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="24">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="24">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="24">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="27">
-        <v>0</v>
-      </c>
-      <c r="C7" s="27">
-        <v>0</v>
-      </c>
-      <c r="D7" s="27">
-        <v>0</v>
-      </c>
-      <c r="E7" s="27">
-        <v>0</v>
-      </c>
-      <c r="F7" s="27">
-        <v>0</v>
-      </c>
-      <c r="G7" s="27">
-        <v>0</v>
-      </c>
-      <c r="H7" s="27">
-        <v>0</v>
-      </c>
-      <c r="I7" s="27">
-        <v>0</v>
-      </c>
-      <c r="J7" s="27">
-        <v>0</v>
-      </c>
-      <c r="K7" s="27">
-        <v>0</v>
-      </c>
-      <c r="L7" s="27">
-        <v>0</v>
-      </c>
-      <c r="M7" s="27">
-        <v>0</v>
-      </c>
-      <c r="N7" s="27">
-        <v>0</v>
-      </c>
-      <c r="O7" s="27">
-        <v>0</v>
-      </c>
-      <c r="P7" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="27">
-        <v>0</v>
-      </c>
-      <c r="R7" s="27">
-        <v>0</v>
-      </c>
-      <c r="S7" s="27">
-        <v>0</v>
-      </c>
-      <c r="T7" s="27">
-        <v>0</v>
-      </c>
-      <c r="U7" s="27">
-        <v>0</v>
-      </c>
-      <c r="V7" s="27">
-        <v>0</v>
-      </c>
-      <c r="W7" s="27">
-        <v>0</v>
-      </c>
-      <c r="X7" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="27">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="27">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B8" s="27">
-        <v>0</v>
-      </c>
-      <c r="C8" s="27">
-        <v>0</v>
-      </c>
-      <c r="D8" s="27">
-        <v>0</v>
-      </c>
-      <c r="E8" s="27">
-        <v>0</v>
-      </c>
-      <c r="F8" s="27">
-        <v>0</v>
-      </c>
-      <c r="G8" s="27">
-        <v>0</v>
-      </c>
-      <c r="H8" s="27">
-        <v>0</v>
-      </c>
-      <c r="I8" s="27">
-        <v>0</v>
-      </c>
-      <c r="J8" s="27">
-        <v>0</v>
-      </c>
-      <c r="K8" s="27">
-        <v>0</v>
-      </c>
-      <c r="L8" s="27">
-        <v>0</v>
-      </c>
-      <c r="M8" s="27">
-        <v>0</v>
-      </c>
-      <c r="N8" s="27">
-        <v>0</v>
-      </c>
-      <c r="O8" s="27">
-        <v>0</v>
-      </c>
-      <c r="P8" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="27">
-        <v>0</v>
-      </c>
-      <c r="R8" s="27">
-        <v>0</v>
-      </c>
-      <c r="S8" s="27">
-        <v>0</v>
-      </c>
-      <c r="T8" s="27">
-        <v>0</v>
-      </c>
-      <c r="U8" s="27">
-        <v>0</v>
-      </c>
-      <c r="V8" s="27">
-        <v>0</v>
-      </c>
-      <c r="W8" s="27">
-        <v>0</v>
-      </c>
-      <c r="X8" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B9" s="24">
-        <f>'Subsidies Paid'!K2*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="24">
-        <f>'Subsidies Paid'!L2*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="24">
-        <f>'Subsidies Paid'!M2*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="24">
-        <f>'Subsidies Paid'!N2*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="24">
-        <f>'Subsidies Paid'!O2*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="24">
-        <f>'Subsidies Paid'!P2*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="24">
-        <f>'Subsidies Paid'!Q2*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="24">
-        <f>'Subsidies Paid'!R2*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="24">
-        <f>'Subsidies Paid'!S2*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="24">
-        <f>'Subsidies Paid'!T2*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="24">
-        <f>'Subsidies Paid'!U2*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="24">
-        <f>'Subsidies Paid'!V2*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="24">
-        <f>'Subsidies Paid'!W2*About!$A$80*1000</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="24">
-        <v>0</v>
-      </c>
-      <c r="P9" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="24">
-        <v>0</v>
-      </c>
-      <c r="R9" s="24">
-        <v>0</v>
-      </c>
-      <c r="S9" s="24">
-        <v>0</v>
-      </c>
-      <c r="T9" s="24">
-        <v>0</v>
-      </c>
-      <c r="U9" s="24">
-        <v>0</v>
-      </c>
-      <c r="V9" s="24">
-        <v>0</v>
-      </c>
-      <c r="W9" s="24">
-        <v>0</v>
-      </c>
-      <c r="X9" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="24">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="24">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="24">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>322</v>
-      </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>0</v>
-      </c>
-      <c r="R10" s="8">
-        <v>0</v>
-      </c>
-      <c r="S10" s="8">
-        <v>0</v>
-      </c>
-      <c r="T10" s="8">
-        <v>0</v>
-      </c>
-      <c r="U10" s="8">
-        <v>0</v>
-      </c>
-      <c r="V10" s="8">
-        <v>0</v>
-      </c>
-      <c r="W10" s="8">
-        <v>0</v>
-      </c>
-      <c r="X10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>321</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>0</v>
-      </c>
-      <c r="R11" s="8">
-        <v>0</v>
-      </c>
-      <c r="S11" s="8">
-        <v>0</v>
-      </c>
-      <c r="T11" s="8">
-        <v>0</v>
-      </c>
-      <c r="U11" s="8">
-        <v>0</v>
-      </c>
-      <c r="V11" s="8">
-        <v>0</v>
-      </c>
-      <c r="W11" s="8">
-        <v>0</v>
-      </c>
-      <c r="X11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>323</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>0</v>
-      </c>
-      <c r="R12" s="8">
-        <v>0</v>
-      </c>
-      <c r="S12" s="8">
-        <v>0</v>
-      </c>
-      <c r="T12" s="8">
-        <v>0</v>
-      </c>
-      <c r="U12" s="8">
-        <v>0</v>
-      </c>
-      <c r="V12" s="8">
-        <v>0</v>
-      </c>
-      <c r="W12" s="8">
-        <v>0</v>
-      </c>
-      <c r="X12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B13" s="24">
-        <f t="shared" ref="B13:AF13" si="1">B2</f>
-        <v>0.39217710728623101</v>
-      </c>
-      <c r="C13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.3211969604300805</v>
-      </c>
-      <c r="D13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.32111860492873623</v>
-      </c>
-      <c r="E13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.39321461571543892</v>
-      </c>
-      <c r="F13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.47227294140628784</v>
-      </c>
-      <c r="G13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.60948798354925293</v>
-      </c>
-      <c r="H13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.60013560183950687</v>
-      </c>
-      <c r="I13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.62212437394768827</v>
-      </c>
-      <c r="J13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.61730030780527556</v>
-      </c>
-      <c r="K13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.61484334009963648</v>
-      </c>
-      <c r="L13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.60778483146290729</v>
-      </c>
-      <c r="M13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.61692824959120485</v>
-      </c>
-      <c r="N13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.63234162591902898</v>
-      </c>
-      <c r="O13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.63531229654785482</v>
-      </c>
-      <c r="P13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.65017081309273927</v>
-      </c>
-      <c r="Q13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.66801056140729842</v>
-      </c>
-      <c r="R13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.67803605662854083</v>
-      </c>
-      <c r="S13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.68846401097411636</v>
-      </c>
-      <c r="T13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.70548534562782961</v>
-      </c>
-      <c r="U13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.7085253826809359</v>
-      </c>
-      <c r="V13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.71461730522268652</v>
-      </c>
-      <c r="W13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.71797791743559813</v>
-      </c>
-      <c r="X13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.72198051036715638</v>
-      </c>
-      <c r="Y13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.7209091979925063</v>
-      </c>
-      <c r="Z13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.72179512989523797</v>
-      </c>
-      <c r="AA13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.74420441324578579</v>
-      </c>
-      <c r="AB13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.75502495533649872</v>
-      </c>
-      <c r="AC13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.76224244837640609</v>
-      </c>
-      <c r="AD13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.77891521988422252</v>
-      </c>
-      <c r="AE13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.79305495971060069</v>
-      </c>
-      <c r="AF13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.79197761731865401</v>
-      </c>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>330</v>
-      </c>
-      <c r="B14" s="24">
-        <f>'Subsidies Paid'!M10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30*(10/About!$A$106)</f>
-        <v>3.0084836323668029</v>
-      </c>
-      <c r="C14" s="24">
-        <f>'Subsidies Paid'!N10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="24">
-        <f>'Subsidies Paid'!O10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="24">
-        <f>'Subsidies Paid'!P10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="24">
-        <f>'Subsidies Paid'!Q10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="24">
-        <f>'Subsidies Paid'!R10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="24">
-        <f>'Subsidies Paid'!S10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="24">
-        <f>'Subsidies Paid'!T10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="24">
-        <f>'Subsidies Paid'!U10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="24">
-        <f>'Subsidies Paid'!V10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="24">
-        <f>'Subsidies Paid'!W10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="24">
-        <v>0</v>
-      </c>
-      <c r="N14" s="24">
-        <v>0</v>
-      </c>
-      <c r="O14" s="24">
-        <v>0</v>
-      </c>
-      <c r="P14" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="24">
-        <v>0</v>
-      </c>
-      <c r="R14" s="24">
-        <v>0</v>
-      </c>
-      <c r="S14" s="24">
-        <v>0</v>
-      </c>
-      <c r="T14" s="24">
-        <v>0</v>
-      </c>
-      <c r="U14" s="24">
-        <v>0</v>
-      </c>
-      <c r="V14" s="24">
-        <v>0</v>
-      </c>
-      <c r="W14" s="24">
-        <v>0</v>
-      </c>
-      <c r="X14" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="24">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="24">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="24">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="24"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>543</v>
-      </c>
-      <c r="B15" s="8">
-        <f>B11</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="8">
-        <f t="shared" ref="C15:AF15" si="2">C11</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>544</v>
-      </c>
-      <c r="B16" s="8">
-        <f>B11</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
-        <f t="shared" ref="C16:AF16" si="3">C11</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>545</v>
-      </c>
-      <c r="B17" s="8">
-        <v>0</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="M17" s="8">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
-        <v>0</v>
-      </c>
-      <c r="O17" s="8">
-        <v>0</v>
-      </c>
-      <c r="P17" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>0</v>
-      </c>
-      <c r="R17" s="8">
-        <v>0</v>
-      </c>
-      <c r="S17" s="8">
-        <v>0</v>
-      </c>
-      <c r="T17" s="8">
-        <v>0</v>
-      </c>
-      <c r="U17" s="8">
-        <v>0</v>
-      </c>
-      <c r="V17" s="8">
-        <v>0</v>
-      </c>
-      <c r="W17" s="8">
-        <v>0</v>
-      </c>
-      <c r="X17" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us-analysis\InputData\fuels\BS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\fuels\BS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E55888-E5E6-40B8-909F-5C6D414C614C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{63915BBC-2CE2-44D8-8C74-35F10488C642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="665">
   <si>
     <t>Source:</t>
   </si>
@@ -2044,6 +2044,15 @@
   </si>
   <si>
     <t>Amount Covered by Geothermal Subsidies ($/MW), Accounting for Monetizing Tax Credit Penalty</t>
+  </si>
+  <si>
+    <t>Civil Nuclear Credit Program</t>
+  </si>
+  <si>
+    <t>https://www.energy.gov/ne/civil-nuclear-credit-program</t>
+  </si>
+  <si>
+    <t>&lt;we use the assumption in the 2022 AEO, which is that funds are used between 2022-2026</t>
   </si>
 </sst>
 </file>
@@ -2298,7 +2307,7 @@
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2446,6 +2455,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2848,7 +2858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
@@ -3660,123 +3670,123 @@
       </c>
       <c r="C4" s="24">
         <f>Calculations!D39</f>
-        <v>0.39443572157150553</v>
+        <v>0</v>
       </c>
       <c r="D4" s="24">
         <f>Calculations!E39</f>
-        <v>0.40723086674334885</v>
+        <v>1.6289234669733954</v>
       </c>
       <c r="E4" s="24">
         <f>Calculations!F39</f>
-        <v>0.40010800462129015</v>
+        <v>1.6004320184851606</v>
       </c>
       <c r="F4" s="24">
         <f>Calculations!G39</f>
-        <v>0.39844513003746906</v>
+        <v>1.5937805201498763</v>
       </c>
       <c r="G4" s="24">
         <f>Calculations!H39</f>
-        <v>0.40271755686722605</v>
+        <v>1.6108702274689042</v>
       </c>
       <c r="H4" s="24">
         <f>Calculations!I39</f>
-        <v>0.46767805340247015</v>
+        <v>1.8707122136098806</v>
       </c>
       <c r="I4" s="24">
         <f>Calculations!J39</f>
-        <v>0.52040018059204618</v>
+        <v>0</v>
       </c>
       <c r="J4" s="24">
         <f>Calculations!K39</f>
-        <v>0.53864874887274061</v>
+        <v>0</v>
       </c>
       <c r="K4" s="24">
         <f>Calculations!L39</f>
-        <v>0.59290565028946041</v>
+        <v>0</v>
       </c>
       <c r="L4" s="24">
         <f>Calculations!M39</f>
-        <v>0.59202932098623817</v>
+        <v>0</v>
       </c>
       <c r="M4" s="24">
         <f>Calculations!N39</f>
-        <v>0.61185818859970653</v>
+        <v>0</v>
       </c>
       <c r="N4" s="24">
         <f>Calculations!O39</f>
-        <v>0.62479995077076222</v>
+        <v>0</v>
       </c>
       <c r="O4" s="24">
         <f>Calculations!P39</f>
-        <v>0.63501000401110419</v>
+        <v>0</v>
       </c>
       <c r="P4" s="24">
         <f>Calculations!Q39</f>
-        <v>0.65833298737934842</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="24">
         <f>Calculations!R39</f>
-        <v>0.65630941712720936</v>
+        <v>0</v>
       </c>
       <c r="R4" s="24">
         <f>Calculations!S39</f>
-        <v>0.66851940282525524</v>
+        <v>0</v>
       </c>
       <c r="S4" s="24">
         <f>Calculations!T39</f>
-        <v>0.69392874455140163</v>
+        <v>0</v>
       </c>
       <c r="T4" s="24">
         <f>Calculations!U39</f>
-        <v>0.70547952247389201</v>
+        <v>0</v>
       </c>
       <c r="U4" s="24">
         <f>Calculations!V39</f>
-        <v>0.70547952247389201</v>
+        <v>0</v>
       </c>
       <c r="V4" s="24">
         <f>Calculations!W39</f>
-        <v>0.70490788165115481</v>
+        <v>0</v>
       </c>
       <c r="W4" s="24">
         <f>Calculations!X39</f>
-        <v>0.70284013010976487</v>
+        <v>0</v>
       </c>
       <c r="X4" s="24">
         <f>Calculations!Y39</f>
-        <v>0.70135214943323099</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="24">
         <f>Calculations!Z39</f>
-        <v>0.73228366539716583</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="24">
         <f>Calculations!AA39</f>
-        <v>0.82286931116638973</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="24">
         <f>Calculations!AB39</f>
-        <v>0.82102596258151184</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="24">
         <f>Calculations!AC39</f>
-        <v>0.82006975294633289</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="24">
         <f>Calculations!AD39</f>
-        <v>0.83692616669997488</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="24">
         <f>Calculations!AE39</f>
-        <v>0.8730118707876432</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="24">
         <f>Calculations!AF39</f>
-        <v>0.87219810030776468</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="24">
         <f>Calculations!AG39</f>
-        <v>0.87102458247095493</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="24"/>
       <c r="AH4" s="24"/>
@@ -6947,8 +6957,8 @@
   </sheetPr>
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7289,128 +7299,97 @@
         <v>188</v>
       </c>
       <c r="B4" s="24">
-        <f>Calculations!C39</f>
-        <v>0.3822667786942785</v>
+        <v>0</v>
       </c>
       <c r="C4" s="24">
-        <f>Calculations!D39</f>
-        <v>0.39443572157150553</v>
+        <v>0</v>
       </c>
       <c r="D4" s="24">
-        <f>Calculations!E39</f>
-        <v>0.40723086674334885</v>
+        <v>0</v>
       </c>
       <c r="E4" s="24">
-        <f>Calculations!F39</f>
-        <v>0.40010800462129015</v>
+        <v>0</v>
       </c>
       <c r="F4" s="24">
-        <f>Calculations!G39</f>
-        <v>0.39844513003746906</v>
+        <v>0</v>
       </c>
       <c r="G4" s="24">
-        <f>Calculations!H39</f>
-        <v>0.40271755686722605</v>
+        <v>0</v>
       </c>
       <c r="H4" s="24">
-        <f>Calculations!I39</f>
-        <v>0.46767805340247015</v>
+        <v>0</v>
       </c>
       <c r="I4" s="24">
-        <f>Calculations!J39</f>
-        <v>0.52040018059204618</v>
+        <v>0</v>
       </c>
       <c r="J4" s="24">
-        <f>Calculations!K39</f>
-        <v>0.53864874887274061</v>
+        <v>0</v>
       </c>
       <c r="K4" s="24">
-        <f>Calculations!L39</f>
-        <v>0.59290565028946041</v>
+        <v>0</v>
       </c>
       <c r="L4" s="24">
-        <f>Calculations!M39</f>
-        <v>0.59202932098623817</v>
+        <v>0</v>
       </c>
       <c r="M4" s="24">
-        <f>Calculations!N39</f>
-        <v>0.61185818859970653</v>
+        <v>0</v>
       </c>
       <c r="N4" s="24">
-        <f>Calculations!O39</f>
-        <v>0.62479995077076222</v>
+        <v>0</v>
       </c>
       <c r="O4" s="24">
-        <f>Calculations!P39</f>
-        <v>0.63501000401110419</v>
+        <v>0</v>
       </c>
       <c r="P4" s="24">
-        <f>Calculations!Q39</f>
-        <v>0.65833298737934842</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="24">
-        <f>Calculations!R39</f>
-        <v>0.65630941712720936</v>
+        <v>0</v>
       </c>
       <c r="R4" s="24">
-        <f>Calculations!S39</f>
-        <v>0.66851940282525524</v>
+        <v>0</v>
       </c>
       <c r="S4" s="24">
-        <f>Calculations!T39</f>
-        <v>0.69392874455140163</v>
+        <v>0</v>
       </c>
       <c r="T4" s="24">
-        <f>Calculations!U39</f>
-        <v>0.70547952247389201</v>
+        <v>0</v>
       </c>
       <c r="U4" s="24">
-        <f>Calculations!V39</f>
-        <v>0.70547952247389201</v>
+        <v>0</v>
       </c>
       <c r="V4" s="24">
-        <f>Calculations!W39</f>
-        <v>0.70490788165115481</v>
+        <v>0</v>
       </c>
       <c r="W4" s="24">
-        <f>Calculations!X39</f>
-        <v>0.70284013010976487</v>
+        <v>0</v>
       </c>
       <c r="X4" s="24">
-        <f>Calculations!Y39</f>
-        <v>0.70135214943323099</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="24">
-        <f>Calculations!Z39</f>
-        <v>0.73228366539716583</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="24">
-        <f>Calculations!AA39</f>
-        <v>0.82286931116638973</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="24">
-        <f>Calculations!AB39</f>
-        <v>0.82102596258151184</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="24">
-        <f>Calculations!AC39</f>
-        <v>0.82006975294633289</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="24">
-        <f>Calculations!AD39</f>
-        <v>0.83692616669997488</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="24">
-        <f>Calculations!AE39</f>
-        <v>0.8730118707876432</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="24">
-        <f>Calculations!AF39</f>
-        <v>0.87219810030776468</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="24">
-        <f>Calculations!AG39</f>
-        <v>0.87102458247095493</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="24"/>
       <c r="AH4" s="24"/>
@@ -7533,11 +7512,11 @@
         <v>330</v>
       </c>
       <c r="B6">
-        <f>-PV('Wind PV Calcs'!$B$5,'Wind PV Calcs'!$B$1,'Subsidies Paid'!M9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30*'Wind PV Calcs'!$B$6*'Wind PV Calcs'!$B$3)/('Wind PV Calcs'!$B$3*'Wind PV Calcs'!$B$6*'Wind PV Calcs'!$B$2)</f>
+        <f>-PV('Wind PV Calcs'!$B$5,'Wind PV Calcs'!$B$1,'Subsidies Paid'!M10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30*'Wind PV Calcs'!$B$6*'Wind PV Calcs'!$B$3)/('Wind PV Calcs'!$B$3*'Wind PV Calcs'!$B$6*'Wind PV Calcs'!$B$2)</f>
         <v>2.5662975615208952</v>
       </c>
       <c r="C6" s="77">
-        <f>-PV('Wind PV Calcs'!$B$5,'Wind PV Calcs'!$B$1,'Subsidies Paid'!N9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30*'Wind PV Calcs'!$B$6*'Wind PV Calcs'!$B$3)/('Wind PV Calcs'!$B$3*'Wind PV Calcs'!$B$6*'Wind PV Calcs'!$B$2)</f>
+        <f>-PV('Wind PV Calcs'!$B$5,'Wind PV Calcs'!$B$1,'Subsidies Paid'!N10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30*'Wind PV Calcs'!$B$6*'Wind PV Calcs'!$B$3)/('Wind PV Calcs'!$B$3*'Wind PV Calcs'!$B$6*'Wind PV Calcs'!$B$2)</f>
         <v>2.5662975615208952</v>
       </c>
       <c r="D6" s="24">
@@ -7553,39 +7532,39 @@
         <v>2.5662975615208952</v>
       </c>
       <c r="G6" s="24">
-        <f>'Subsidies Paid'!O9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!O10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0</v>
       </c>
       <c r="H6" s="24">
-        <f>'Subsidies Paid'!P9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!P10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0</v>
       </c>
       <c r="I6" s="24">
-        <f>'Subsidies Paid'!Q9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!Q10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0</v>
       </c>
       <c r="J6" s="24">
-        <f>'Subsidies Paid'!R9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!R10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0</v>
       </c>
       <c r="K6" s="24">
-        <f>'Subsidies Paid'!S9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!S10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0</v>
       </c>
       <c r="L6" s="24">
-        <f>'Subsidies Paid'!T9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!T10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0</v>
       </c>
       <c r="M6" s="24">
-        <f>'Subsidies Paid'!U9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!U10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0</v>
       </c>
       <c r="N6" s="24">
-        <f>'Subsidies Paid'!V9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!V10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0</v>
       </c>
       <c r="O6" s="24">
-        <f>'Subsidies Paid'!W9*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!W10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0</v>
       </c>
       <c r="P6" s="24">
@@ -8385,47 +8364,47 @@
         <v>327</v>
       </c>
       <c r="B14" s="24">
-        <f>-PV('Wind PV Calcs'!$B$5,'Wind PV Calcs'!$B$1,'Subsidies Paid'!M10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30*'Wind PV Calcs'!$B$6*'Wind PV Calcs'!$B$4)/('Wind PV Calcs'!$B$4*'Wind PV Calcs'!$B$6*'Wind PV Calcs'!$B$2)</f>
+        <f>-PV('Wind PV Calcs'!$B$5,'Wind PV Calcs'!$B$1,'Subsidies Paid'!M11*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30*'Wind PV Calcs'!$B$6*'Wind PV Calcs'!$B$4)/('Wind PV Calcs'!$B$4*'Wind PV Calcs'!$B$6*'Wind PV Calcs'!$B$2)</f>
         <v>2.5662975615208947</v>
       </c>
       <c r="C14" s="24">
-        <f>'Subsidies Paid'!N10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!N11*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0</v>
       </c>
       <c r="D14" s="24">
-        <f>'Subsidies Paid'!O10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!O11*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0</v>
       </c>
       <c r="E14" s="24">
-        <f>'Subsidies Paid'!P10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!P11*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0</v>
       </c>
       <c r="F14" s="24">
-        <f>'Subsidies Paid'!Q10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!Q11*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0</v>
       </c>
       <c r="G14" s="24">
-        <f>'Subsidies Paid'!R10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!R11*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0</v>
       </c>
       <c r="H14" s="24">
-        <f>'Subsidies Paid'!S10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!S11*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0</v>
       </c>
       <c r="I14" s="24">
-        <f>'Subsidies Paid'!T10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!T11*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0</v>
       </c>
       <c r="J14" s="24">
-        <f>'Subsidies Paid'!U10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!U11*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0</v>
       </c>
       <c r="K14" s="24">
-        <f>'Subsidies Paid'!V10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!V11*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0</v>
       </c>
       <c r="L14" s="24">
-        <f>'Subsidies Paid'!W10*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!W11*About!$A$84*1000*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0</v>
       </c>
       <c r="M14" s="24">
@@ -11628,10 +11607,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11646,7 +11625,9 @@
     <col min="8" max="9" width="10" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="12" max="14" width="9.140625" style="8"/>
+    <col min="15" max="15" width="11" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12032,8 +12013,8 @@
       <c r="E6" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F6" s="51" t="s">
-        <v>248</v>
+      <c r="F6" s="51">
+        <v>0</v>
       </c>
       <c r="G6" s="53">
         <v>0.2</v>
@@ -12050,123 +12031,128 @@
       <c r="K6" s="53">
         <v>0.3</v>
       </c>
-      <c r="L6" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q6" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="R6" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="S6" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="T6" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="U6" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="V6" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="W6" s="23" t="s">
-        <v>248</v>
+      <c r="L6" s="23">
+        <v>0</v>
+      </c>
+      <c r="M6" s="23">
+        <v>0</v>
+      </c>
+      <c r="N6" s="23">
+        <v>0</v>
+      </c>
+      <c r="O6" s="23">
+        <v>0</v>
+      </c>
+      <c r="P6" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>0</v>
+      </c>
+      <c r="R6" s="23">
+        <v>0</v>
+      </c>
+      <c r="S6" s="23">
+        <v>0</v>
+      </c>
+      <c r="T6" s="23">
+        <v>0</v>
+      </c>
+      <c r="U6" s="23">
+        <v>0</v>
+      </c>
+      <c r="V6" s="23">
+        <v>0</v>
+      </c>
+      <c r="W6" s="23">
+        <v>0</v>
       </c>
       <c r="X6" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>556</v>
+        <v>662</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>663</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>250</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="F7" s="51">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="51">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="51">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="51">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="51">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K7" s="51">
-        <v>0.3</v>
-      </c>
-      <c r="L7" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="M7" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="N7" s="23">
-        <v>0.26</v>
+        <v>0</v>
+      </c>
+      <c r="L7" s="51">
+        <v>0</v>
+      </c>
+      <c r="M7" s="51">
+        <v>0</v>
+      </c>
+      <c r="N7" s="51">
+        <v>0</v>
       </c>
       <c r="O7" s="23">
-        <v>0.26</v>
+        <f>6/5</f>
+        <v>1.2</v>
       </c>
       <c r="P7" s="23">
-        <v>0.22</v>
+        <f t="shared" ref="P7:S7" si="0">6/5</f>
+        <v>1.2</v>
       </c>
       <c r="Q7" s="23">
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>1.2</v>
       </c>
       <c r="R7" s="23">
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>1.2</v>
       </c>
       <c r="S7" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="T7" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="U7" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="V7" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="W7" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="X7" s="8" t="s">
-        <v>315</v>
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="T7" s="51">
+        <v>0</v>
+      </c>
+      <c r="U7" s="51">
+        <v>0</v>
+      </c>
+      <c r="V7" s="51">
+        <v>0</v>
+      </c>
+      <c r="W7" s="51">
+        <v>0</v>
+      </c>
+      <c r="X7" s="78" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>548</v>
+        <v>284</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>241</v>
@@ -12181,448 +12167,448 @@
         <v>239</v>
       </c>
       <c r="F8" s="51">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G8" s="51">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H8" s="51">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I8" s="51">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J8" s="51">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K8" s="51">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L8" s="23">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M8" s="23">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="N8" s="23">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="O8" s="23">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="P8" s="23">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="Q8" s="23">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R8" s="23">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="S8" s="23">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T8" s="23">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U8" s="23">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V8" s="23">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W8" s="23">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>549</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>557</v>
+        <v>241</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>556</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>250</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="51">
+        <v>0</v>
+      </c>
+      <c r="G9" s="51">
+        <v>0</v>
+      </c>
+      <c r="H9" s="51">
+        <v>0</v>
+      </c>
+      <c r="I9" s="51">
+        <v>0</v>
+      </c>
+      <c r="J9" s="51">
+        <v>0</v>
+      </c>
+      <c r="K9" s="51">
+        <v>0</v>
+      </c>
+      <c r="L9" s="23">
+        <v>0</v>
+      </c>
+      <c r="M9" s="23">
+        <v>0</v>
+      </c>
+      <c r="N9" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="O9" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="P9" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="R9" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="S9" s="23">
+        <v>0</v>
+      </c>
+      <c r="T9" s="23">
+        <v>0</v>
+      </c>
+      <c r="U9" s="23">
+        <v>0</v>
+      </c>
+      <c r="V9" s="23">
+        <v>0</v>
+      </c>
+      <c r="W9" s="23">
+        <v>0</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F10" s="51">
         <v>2.3E-2</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G10" s="51">
         <v>2.3E-2</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H10" s="51">
         <v>2.3E-2</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I10" s="51">
         <v>2.3E-2</v>
       </c>
-      <c r="J9" s="51">
-        <f>I9*0.8</f>
+      <c r="J10" s="51">
+        <f>I10*0.8</f>
         <v>1.84E-2</v>
       </c>
-      <c r="K9" s="51">
-        <f>I9*0.6</f>
+      <c r="K10" s="51">
+        <f>I10*0.6</f>
         <v>1.38E-2</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L10" s="23">
         <f>0.025*0.4</f>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M10" s="23">
         <f>0.025*0.6</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N10" s="23">
         <f>0.025*0.6</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O9" s="23">
-        <v>0</v>
-      </c>
-      <c r="P9" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="23">
-        <v>0</v>
-      </c>
-      <c r="R9" s="23">
-        <v>0</v>
-      </c>
-      <c r="S9" s="23">
-        <v>0</v>
-      </c>
-      <c r="T9" s="23">
-        <v>0</v>
-      </c>
-      <c r="U9" s="23">
-        <v>0</v>
-      </c>
-      <c r="V9" s="23">
-        <v>0</v>
-      </c>
-      <c r="W9" s="23">
-        <v>0</v>
-      </c>
-      <c r="X9" s="8" t="s">
+      <c r="O10" s="23">
+        <v>0</v>
+      </c>
+      <c r="P10" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>0</v>
+      </c>
+      <c r="R10" s="23">
+        <v>0</v>
+      </c>
+      <c r="S10" s="23">
+        <v>0</v>
+      </c>
+      <c r="T10" s="23">
+        <v>0</v>
+      </c>
+      <c r="U10" s="23">
+        <v>0</v>
+      </c>
+      <c r="V10" s="23">
+        <v>0</v>
+      </c>
+      <c r="W10" s="23">
+        <v>0</v>
+      </c>
+      <c r="X10" s="8" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="F10" s="51">
-        <f>F9</f>
+      <c r="F11" s="51">
+        <f>F10</f>
         <v>2.3E-2</v>
       </c>
-      <c r="G10" s="51">
-        <f t="shared" ref="G10:M10" si="0">G9</f>
+      <c r="G11" s="51">
+        <f t="shared" ref="G11:M11" si="1">G10</f>
         <v>2.3E-2</v>
       </c>
-      <c r="H10" s="51">
-        <f t="shared" si="0"/>
+      <c r="H11" s="51">
+        <f t="shared" si="1"/>
         <v>2.3E-2</v>
       </c>
-      <c r="I10" s="51">
-        <f t="shared" si="0"/>
+      <c r="I11" s="51">
+        <f t="shared" si="1"/>
         <v>2.3E-2</v>
       </c>
-      <c r="J10" s="51">
-        <f t="shared" si="0"/>
+      <c r="J11" s="51">
+        <f t="shared" si="1"/>
         <v>1.84E-2</v>
       </c>
-      <c r="K10" s="51">
-        <f t="shared" si="0"/>
+      <c r="K11" s="51">
+        <f t="shared" si="1"/>
         <v>1.38E-2</v>
       </c>
-      <c r="L10" s="60">
-        <f t="shared" si="0"/>
+      <c r="L11" s="60">
+        <f t="shared" si="1"/>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="M10" s="60">
-        <f t="shared" si="0"/>
+      <c r="M11" s="60">
+        <f t="shared" si="1"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N10" s="60">
-        <v>0</v>
-      </c>
-      <c r="O10" s="60">
-        <v>0</v>
-      </c>
-      <c r="P10" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="60">
-        <v>0</v>
-      </c>
-      <c r="R10" s="60">
-        <v>0</v>
-      </c>
-      <c r="S10" s="60">
-        <v>0</v>
-      </c>
-      <c r="T10" s="60">
-        <v>0</v>
-      </c>
-      <c r="U10" s="60">
-        <v>0</v>
-      </c>
-      <c r="V10" s="60">
-        <v>0</v>
-      </c>
-      <c r="W10" s="60">
-        <v>0</v>
-      </c>
-      <c r="X10" s="8" t="s">
+      <c r="N11" s="60">
+        <v>0</v>
+      </c>
+      <c r="O11" s="60">
+        <v>0</v>
+      </c>
+      <c r="P11" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="60">
+        <v>0</v>
+      </c>
+      <c r="R11" s="60">
+        <v>0</v>
+      </c>
+      <c r="S11" s="60">
+        <v>0</v>
+      </c>
+      <c r="T11" s="60">
+        <v>0</v>
+      </c>
+      <c r="U11" s="60">
+        <v>0</v>
+      </c>
+      <c r="V11" s="60">
+        <v>0</v>
+      </c>
+      <c r="W11" s="60">
+        <v>0</v>
+      </c>
+      <c r="X11" s="8" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+    <row r="12" spans="1:24" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
         <v>313</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B12" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C12" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D12" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E12" s="56" t="s">
         <v>546</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F12" s="57">
         <f>0.023</f>
         <v>2.3E-2</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G12" s="57">
         <f>0.023</f>
         <v>2.3E-2</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H12" s="57">
         <f>0.023</f>
         <v>2.3E-2</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I12" s="57">
         <f>0.023</f>
         <v>2.3E-2</v>
       </c>
-      <c r="J11" s="57">
-        <v>0</v>
-      </c>
-      <c r="K11" s="57">
-        <v>0</v>
-      </c>
-      <c r="L11" s="58">
-        <v>0</v>
-      </c>
-      <c r="M11" s="58">
-        <v>0</v>
-      </c>
-      <c r="N11" s="58">
-        <v>0</v>
-      </c>
-      <c r="O11" s="58">
-        <v>0</v>
-      </c>
-      <c r="P11" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="58">
-        <v>0</v>
-      </c>
-      <c r="R11" s="58">
-        <v>0</v>
-      </c>
-      <c r="S11" s="58">
-        <v>0</v>
-      </c>
-      <c r="T11" s="58">
-        <v>0</v>
-      </c>
-      <c r="U11" s="58">
-        <v>0</v>
-      </c>
-      <c r="V11" s="58">
-        <v>0</v>
-      </c>
-      <c r="W11" s="58">
-        <v>0</v>
-      </c>
-      <c r="X11" s="59" t="s">
+      <c r="J12" s="57">
+        <v>0</v>
+      </c>
+      <c r="K12" s="57">
+        <v>0</v>
+      </c>
+      <c r="L12" s="58">
+        <v>0</v>
+      </c>
+      <c r="M12" s="58">
+        <v>0</v>
+      </c>
+      <c r="N12" s="58">
+        <v>0</v>
+      </c>
+      <c r="O12" s="58">
+        <v>0</v>
+      </c>
+      <c r="P12" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="58">
+        <v>0</v>
+      </c>
+      <c r="R12" s="58">
+        <v>0</v>
+      </c>
+      <c r="S12" s="58">
+        <v>0</v>
+      </c>
+      <c r="T12" s="58">
+        <v>0</v>
+      </c>
+      <c r="U12" s="58">
+        <v>0</v>
+      </c>
+      <c r="V12" s="58">
+        <v>0</v>
+      </c>
+      <c r="W12" s="58">
+        <v>0</v>
+      </c>
+      <c r="X12" s="59" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F12" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="I12" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="J12" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="K12" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="L12" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="M12" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="N12" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="O12" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="P12" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="Q12" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="R12" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="S12" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="T12" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="U12" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="V12" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="W12" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="X12" s="8" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>26</v>
+        <v>313</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="G13" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="H13" s="54">
-        <v>53000000</v>
-      </c>
-      <c r="I13" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="J13" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="K13" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q13" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="R13" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="S13" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="T13" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="U13" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="V13" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="W13" s="23" t="s">
-        <v>248</v>
+        <v>239</v>
+      </c>
+      <c r="F13" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="N13" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="O13" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="P13" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="Q13" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="R13" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="S13" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="T13" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="U13" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="V13" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="W13" s="23">
+        <v>0.1</v>
       </c>
       <c r="X13" s="8" t="s">
-        <v>258</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -12630,34 +12616,34 @@
         <v>26</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>286</v>
+        <v>257</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>245</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>252</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="F14" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="G14" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="I14" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="J14" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="K14" s="51">
-        <v>0.1</v>
+      <c r="G14" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="H14" s="54">
+        <v>53000000</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="J14" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="K14" s="51" t="s">
+        <v>248</v>
       </c>
       <c r="L14" s="23" t="s">
         <v>248</v>
@@ -12695,10 +12681,13 @@
       <c r="W14" s="23" t="s">
         <v>248</v>
       </c>
+      <c r="X14" s="8" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>259</v>
+        <v>26</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>244</v>
@@ -12716,19 +12705,19 @@
         <v>248</v>
       </c>
       <c r="G15" s="51">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="H15" s="51">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I15" s="51">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="J15" s="51">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="K15" s="51">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="L15" s="23" t="s">
         <v>248</v>
@@ -12766,19 +12755,16 @@
       <c r="W15" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="X15" s="8" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>244</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>252</v>
@@ -12789,20 +12775,20 @@
       <c r="F16" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="G16" s="55">
-        <v>1.0200000000000002</v>
-      </c>
-      <c r="H16" s="55">
-        <v>1.5200000000000002</v>
-      </c>
-      <c r="I16" s="55">
-        <v>1.6200000000000003</v>
-      </c>
-      <c r="J16" s="55">
-        <v>1.6200000000000003</v>
-      </c>
-      <c r="K16" s="55">
-        <v>1.6200000000000003</v>
+      <c r="G16" s="51">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H16" s="51">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I16" s="51">
+        <v>1.2</v>
+      </c>
+      <c r="J16" s="51">
+        <v>1.3</v>
+      </c>
+      <c r="K16" s="51">
+        <v>1.3</v>
       </c>
       <c r="L16" s="23" t="s">
         <v>248</v>
@@ -12849,7 +12835,7 @@
         <v>42</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>245</v>
@@ -12864,19 +12850,19 @@
         <v>248</v>
       </c>
       <c r="G17" s="55">
-        <v>0.14000000000000001</v>
+        <v>1.0200000000000002</v>
       </c>
       <c r="H17" s="55">
-        <v>0.14000000000000001</v>
+        <v>1.5200000000000002</v>
       </c>
       <c r="I17" s="55">
-        <v>0.14000000000000001</v>
+        <v>1.6200000000000003</v>
       </c>
       <c r="J17" s="55">
-        <v>0.14000000000000001</v>
+        <v>1.6200000000000003</v>
       </c>
       <c r="K17" s="55">
-        <v>0.14000000000000001</v>
+        <v>1.6200000000000003</v>
       </c>
       <c r="L17" s="23" t="s">
         <v>248</v>
@@ -12923,10 +12909,10 @@
         <v>42</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>252</v>
@@ -12937,20 +12923,20 @@
       <c r="F18" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="G18" s="51">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H18" s="51">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I18" s="51">
-        <v>1.2</v>
-      </c>
-      <c r="J18" s="51">
-        <v>1.2</v>
-      </c>
-      <c r="K18" s="51">
-        <v>1.2</v>
+      <c r="G18" s="55">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H18" s="55">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I18" s="55">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J18" s="55">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K18" s="55">
+        <v>0.14000000000000001</v>
       </c>
       <c r="L18" s="23" t="s">
         <v>248</v>
@@ -12994,37 +12980,37 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>252</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="F19" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="G19" s="51" t="s">
-        <v>248</v>
+      <c r="G19" s="51">
+        <v>1.1000000000000001</v>
       </c>
       <c r="H19" s="51">
-        <v>10000000</v>
-      </c>
-      <c r="I19" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="J19" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="K19" s="51" t="s">
-        <v>248</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I19" s="51">
+        <v>1.2</v>
+      </c>
+      <c r="J19" s="51">
+        <v>1.2</v>
+      </c>
+      <c r="K19" s="51">
+        <v>1.2</v>
       </c>
       <c r="L19" s="23" t="s">
         <v>248</v>
@@ -13063,22 +13049,97 @@
         <v>248</v>
       </c>
       <c r="X19" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="H20" s="51">
+        <v>10000000</v>
+      </c>
+      <c r="I20" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="J20" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="K20" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="P20" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="R20" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="S20" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="T20" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="U20" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="V20" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="W20" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="X20" s="8" t="s">
         <v>258</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y14">
-    <sortCondition ref="D2:D14"/>
-    <sortCondition ref="A2:A14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y15">
+    <sortCondition ref="D2:D15"/>
+    <sortCondition ref="A2:A15"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C13" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C12" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -18105,39 +18166,39 @@
     <row r="110" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="111" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="112" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="78"/>
-      <c r="C112" s="78"/>
-      <c r="D112" s="78"/>
-      <c r="E112" s="78"/>
-      <c r="F112" s="78"/>
-      <c r="G112" s="78"/>
-      <c r="H112" s="78"/>
-      <c r="I112" s="78"/>
-      <c r="J112" s="78"/>
-      <c r="K112" s="78"/>
-      <c r="L112" s="78"/>
-      <c r="M112" s="78"/>
-      <c r="N112" s="78"/>
-      <c r="O112" s="78"/>
-      <c r="P112" s="78"/>
-      <c r="Q112" s="78"/>
-      <c r="R112" s="78"/>
-      <c r="S112" s="78"/>
-      <c r="T112" s="78"/>
-      <c r="U112" s="78"/>
-      <c r="V112" s="78"/>
-      <c r="W112" s="78"/>
-      <c r="X112" s="78"/>
-      <c r="Y112" s="78"/>
-      <c r="Z112" s="78"/>
-      <c r="AA112" s="78"/>
-      <c r="AB112" s="78"/>
-      <c r="AC112" s="78"/>
-      <c r="AD112" s="78"/>
-      <c r="AE112" s="78"/>
-      <c r="AF112" s="78"/>
-      <c r="AG112" s="78"/>
-      <c r="AH112" s="78"/>
+      <c r="B112" s="81"/>
+      <c r="C112" s="81"/>
+      <c r="D112" s="81"/>
+      <c r="E112" s="81"/>
+      <c r="F112" s="81"/>
+      <c r="G112" s="81"/>
+      <c r="H112" s="81"/>
+      <c r="I112" s="81"/>
+      <c r="J112" s="81"/>
+      <c r="K112" s="81"/>
+      <c r="L112" s="81"/>
+      <c r="M112" s="81"/>
+      <c r="N112" s="81"/>
+      <c r="O112" s="81"/>
+      <c r="P112" s="81"/>
+      <c r="Q112" s="81"/>
+      <c r="R112" s="81"/>
+      <c r="S112" s="81"/>
+      <c r="T112" s="81"/>
+      <c r="U112" s="81"/>
+      <c r="V112" s="81"/>
+      <c r="W112" s="81"/>
+      <c r="X112" s="81"/>
+      <c r="Y112" s="81"/>
+      <c r="Z112" s="81"/>
+      <c r="AA112" s="81"/>
+      <c r="AB112" s="81"/>
+      <c r="AC112" s="81"/>
+      <c r="AD112" s="81"/>
+      <c r="AE112" s="81"/>
+      <c r="AF112" s="81"/>
+      <c r="AG112" s="81"/>
+      <c r="AH112" s="81"/>
     </row>
     <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18316,39 +18377,39 @@
     <row r="306" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="307" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="78"/>
-      <c r="C308" s="78"/>
-      <c r="D308" s="78"/>
-      <c r="E308" s="78"/>
-      <c r="F308" s="78"/>
-      <c r="G308" s="78"/>
-      <c r="H308" s="78"/>
-      <c r="I308" s="78"/>
-      <c r="J308" s="78"/>
-      <c r="K308" s="78"/>
-      <c r="L308" s="78"/>
-      <c r="M308" s="78"/>
-      <c r="N308" s="78"/>
-      <c r="O308" s="78"/>
-      <c r="P308" s="78"/>
-      <c r="Q308" s="78"/>
-      <c r="R308" s="78"/>
-      <c r="S308" s="78"/>
-      <c r="T308" s="78"/>
-      <c r="U308" s="78"/>
-      <c r="V308" s="78"/>
-      <c r="W308" s="78"/>
-      <c r="X308" s="78"/>
-      <c r="Y308" s="78"/>
-      <c r="Z308" s="78"/>
-      <c r="AA308" s="78"/>
-      <c r="AB308" s="78"/>
-      <c r="AC308" s="78"/>
-      <c r="AD308" s="78"/>
-      <c r="AE308" s="78"/>
-      <c r="AF308" s="78"/>
-      <c r="AG308" s="78"/>
-      <c r="AH308" s="78"/>
+      <c r="B308" s="81"/>
+      <c r="C308" s="81"/>
+      <c r="D308" s="81"/>
+      <c r="E308" s="81"/>
+      <c r="F308" s="81"/>
+      <c r="G308" s="81"/>
+      <c r="H308" s="81"/>
+      <c r="I308" s="81"/>
+      <c r="J308" s="81"/>
+      <c r="K308" s="81"/>
+      <c r="L308" s="81"/>
+      <c r="M308" s="81"/>
+      <c r="N308" s="81"/>
+      <c r="O308" s="81"/>
+      <c r="P308" s="81"/>
+      <c r="Q308" s="81"/>
+      <c r="R308" s="81"/>
+      <c r="S308" s="81"/>
+      <c r="T308" s="81"/>
+      <c r="U308" s="81"/>
+      <c r="V308" s="81"/>
+      <c r="W308" s="81"/>
+      <c r="X308" s="81"/>
+      <c r="Y308" s="81"/>
+      <c r="Z308" s="81"/>
+      <c r="AA308" s="81"/>
+      <c r="AB308" s="81"/>
+      <c r="AC308" s="81"/>
+      <c r="AD308" s="81"/>
+      <c r="AE308" s="81"/>
+      <c r="AF308" s="81"/>
+      <c r="AG308" s="81"/>
+      <c r="AH308" s="81"/>
     </row>
     <row r="309" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="310" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18507,39 +18568,39 @@
     <row r="508" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="78"/>
-      <c r="C511" s="78"/>
-      <c r="D511" s="78"/>
-      <c r="E511" s="78"/>
-      <c r="F511" s="78"/>
-      <c r="G511" s="78"/>
-      <c r="H511" s="78"/>
-      <c r="I511" s="78"/>
-      <c r="J511" s="78"/>
-      <c r="K511" s="78"/>
-      <c r="L511" s="78"/>
-      <c r="M511" s="78"/>
-      <c r="N511" s="78"/>
-      <c r="O511" s="78"/>
-      <c r="P511" s="78"/>
-      <c r="Q511" s="78"/>
-      <c r="R511" s="78"/>
-      <c r="S511" s="78"/>
-      <c r="T511" s="78"/>
-      <c r="U511" s="78"/>
-      <c r="V511" s="78"/>
-      <c r="W511" s="78"/>
-      <c r="X511" s="78"/>
-      <c r="Y511" s="78"/>
-      <c r="Z511" s="78"/>
-      <c r="AA511" s="78"/>
-      <c r="AB511" s="78"/>
-      <c r="AC511" s="78"/>
-      <c r="AD511" s="78"/>
-      <c r="AE511" s="78"/>
-      <c r="AF511" s="78"/>
-      <c r="AG511" s="78"/>
-      <c r="AH511" s="78"/>
+      <c r="B511" s="81"/>
+      <c r="C511" s="81"/>
+      <c r="D511" s="81"/>
+      <c r="E511" s="81"/>
+      <c r="F511" s="81"/>
+      <c r="G511" s="81"/>
+      <c r="H511" s="81"/>
+      <c r="I511" s="81"/>
+      <c r="J511" s="81"/>
+      <c r="K511" s="81"/>
+      <c r="L511" s="81"/>
+      <c r="M511" s="81"/>
+      <c r="N511" s="81"/>
+      <c r="O511" s="81"/>
+      <c r="P511" s="81"/>
+      <c r="Q511" s="81"/>
+      <c r="R511" s="81"/>
+      <c r="S511" s="81"/>
+      <c r="T511" s="81"/>
+      <c r="U511" s="81"/>
+      <c r="V511" s="81"/>
+      <c r="W511" s="81"/>
+      <c r="X511" s="81"/>
+      <c r="Y511" s="81"/>
+      <c r="Z511" s="81"/>
+      <c r="AA511" s="81"/>
+      <c r="AB511" s="81"/>
+      <c r="AC511" s="81"/>
+      <c r="AD511" s="81"/>
+      <c r="AE511" s="81"/>
+      <c r="AF511" s="81"/>
+      <c r="AG511" s="81"/>
+      <c r="AH511" s="81"/>
     </row>
     <row r="512" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="513" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18680,39 +18741,39 @@
     <row r="710" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="711" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B712" s="78"/>
-      <c r="C712" s="78"/>
-      <c r="D712" s="78"/>
-      <c r="E712" s="78"/>
-      <c r="F712" s="78"/>
-      <c r="G712" s="78"/>
-      <c r="H712" s="78"/>
-      <c r="I712" s="78"/>
-      <c r="J712" s="78"/>
-      <c r="K712" s="78"/>
-      <c r="L712" s="78"/>
-      <c r="M712" s="78"/>
-      <c r="N712" s="78"/>
-      <c r="O712" s="78"/>
-      <c r="P712" s="78"/>
-      <c r="Q712" s="78"/>
-      <c r="R712" s="78"/>
-      <c r="S712" s="78"/>
-      <c r="T712" s="78"/>
-      <c r="U712" s="78"/>
-      <c r="V712" s="78"/>
-      <c r="W712" s="78"/>
-      <c r="X712" s="78"/>
-      <c r="Y712" s="78"/>
-      <c r="Z712" s="78"/>
-      <c r="AA712" s="78"/>
-      <c r="AB712" s="78"/>
-      <c r="AC712" s="78"/>
-      <c r="AD712" s="78"/>
-      <c r="AE712" s="78"/>
-      <c r="AF712" s="78"/>
-      <c r="AG712" s="78"/>
-      <c r="AH712" s="78"/>
+      <c r="B712" s="81"/>
+      <c r="C712" s="81"/>
+      <c r="D712" s="81"/>
+      <c r="E712" s="81"/>
+      <c r="F712" s="81"/>
+      <c r="G712" s="81"/>
+      <c r="H712" s="81"/>
+      <c r="I712" s="81"/>
+      <c r="J712" s="81"/>
+      <c r="K712" s="81"/>
+      <c r="L712" s="81"/>
+      <c r="M712" s="81"/>
+      <c r="N712" s="81"/>
+      <c r="O712" s="81"/>
+      <c r="P712" s="81"/>
+      <c r="Q712" s="81"/>
+      <c r="R712" s="81"/>
+      <c r="S712" s="81"/>
+      <c r="T712" s="81"/>
+      <c r="U712" s="81"/>
+      <c r="V712" s="81"/>
+      <c r="W712" s="81"/>
+      <c r="X712" s="81"/>
+      <c r="Y712" s="81"/>
+      <c r="Z712" s="81"/>
+      <c r="AA712" s="81"/>
+      <c r="AB712" s="81"/>
+      <c r="AC712" s="81"/>
+      <c r="AD712" s="81"/>
+      <c r="AE712" s="81"/>
+      <c r="AF712" s="81"/>
+      <c r="AG712" s="81"/>
+      <c r="AH712" s="81"/>
     </row>
     <row r="713" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="714" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18835,39 +18896,39 @@
     <row r="885" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="886" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B887" s="78"/>
-      <c r="C887" s="78"/>
-      <c r="D887" s="78"/>
-      <c r="E887" s="78"/>
-      <c r="F887" s="78"/>
-      <c r="G887" s="78"/>
-      <c r="H887" s="78"/>
-      <c r="I887" s="78"/>
-      <c r="J887" s="78"/>
-      <c r="K887" s="78"/>
-      <c r="L887" s="78"/>
-      <c r="M887" s="78"/>
-      <c r="N887" s="78"/>
-      <c r="O887" s="78"/>
-      <c r="P887" s="78"/>
-      <c r="Q887" s="78"/>
-      <c r="R887" s="78"/>
-      <c r="S887" s="78"/>
-      <c r="T887" s="78"/>
-      <c r="U887" s="78"/>
-      <c r="V887" s="78"/>
-      <c r="W887" s="78"/>
-      <c r="X887" s="78"/>
-      <c r="Y887" s="78"/>
-      <c r="Z887" s="78"/>
-      <c r="AA887" s="78"/>
-      <c r="AB887" s="78"/>
-      <c r="AC887" s="78"/>
-      <c r="AD887" s="78"/>
-      <c r="AE887" s="78"/>
-      <c r="AF887" s="78"/>
-      <c r="AG887" s="78"/>
-      <c r="AH887" s="78"/>
+      <c r="B887" s="81"/>
+      <c r="C887" s="81"/>
+      <c r="D887" s="81"/>
+      <c r="E887" s="81"/>
+      <c r="F887" s="81"/>
+      <c r="G887" s="81"/>
+      <c r="H887" s="81"/>
+      <c r="I887" s="81"/>
+      <c r="J887" s="81"/>
+      <c r="K887" s="81"/>
+      <c r="L887" s="81"/>
+      <c r="M887" s="81"/>
+      <c r="N887" s="81"/>
+      <c r="O887" s="81"/>
+      <c r="P887" s="81"/>
+      <c r="Q887" s="81"/>
+      <c r="R887" s="81"/>
+      <c r="S887" s="81"/>
+      <c r="T887" s="81"/>
+      <c r="U887" s="81"/>
+      <c r="V887" s="81"/>
+      <c r="W887" s="81"/>
+      <c r="X887" s="81"/>
+      <c r="Y887" s="81"/>
+      <c r="Z887" s="81"/>
+      <c r="AA887" s="81"/>
+      <c r="AB887" s="81"/>
+      <c r="AC887" s="81"/>
+      <c r="AD887" s="81"/>
+      <c r="AE887" s="81"/>
+      <c r="AF887" s="81"/>
+      <c r="AG887" s="81"/>
+      <c r="AH887" s="81"/>
     </row>
     <row r="888" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="889" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19030,39 +19091,39 @@
     <row r="1098" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1099" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1100" s="78"/>
-      <c r="C1100" s="78"/>
-      <c r="D1100" s="78"/>
-      <c r="E1100" s="78"/>
-      <c r="F1100" s="78"/>
-      <c r="G1100" s="78"/>
-      <c r="H1100" s="78"/>
-      <c r="I1100" s="78"/>
-      <c r="J1100" s="78"/>
-      <c r="K1100" s="78"/>
-      <c r="L1100" s="78"/>
-      <c r="M1100" s="78"/>
-      <c r="N1100" s="78"/>
-      <c r="O1100" s="78"/>
-      <c r="P1100" s="78"/>
-      <c r="Q1100" s="78"/>
-      <c r="R1100" s="78"/>
-      <c r="S1100" s="78"/>
-      <c r="T1100" s="78"/>
-      <c r="U1100" s="78"/>
-      <c r="V1100" s="78"/>
-      <c r="W1100" s="78"/>
-      <c r="X1100" s="78"/>
-      <c r="Y1100" s="78"/>
-      <c r="Z1100" s="78"/>
-      <c r="AA1100" s="78"/>
-      <c r="AB1100" s="78"/>
-      <c r="AC1100" s="78"/>
-      <c r="AD1100" s="78"/>
-      <c r="AE1100" s="78"/>
-      <c r="AF1100" s="78"/>
-      <c r="AG1100" s="78"/>
-      <c r="AH1100" s="78"/>
+      <c r="B1100" s="81"/>
+      <c r="C1100" s="81"/>
+      <c r="D1100" s="81"/>
+      <c r="E1100" s="81"/>
+      <c r="F1100" s="81"/>
+      <c r="G1100" s="81"/>
+      <c r="H1100" s="81"/>
+      <c r="I1100" s="81"/>
+      <c r="J1100" s="81"/>
+      <c r="K1100" s="81"/>
+      <c r="L1100" s="81"/>
+      <c r="M1100" s="81"/>
+      <c r="N1100" s="81"/>
+      <c r="O1100" s="81"/>
+      <c r="P1100" s="81"/>
+      <c r="Q1100" s="81"/>
+      <c r="R1100" s="81"/>
+      <c r="S1100" s="81"/>
+      <c r="T1100" s="81"/>
+      <c r="U1100" s="81"/>
+      <c r="V1100" s="81"/>
+      <c r="W1100" s="81"/>
+      <c r="X1100" s="81"/>
+      <c r="Y1100" s="81"/>
+      <c r="Z1100" s="81"/>
+      <c r="AA1100" s="81"/>
+      <c r="AB1100" s="81"/>
+      <c r="AC1100" s="81"/>
+      <c r="AD1100" s="81"/>
+      <c r="AE1100" s="81"/>
+      <c r="AF1100" s="81"/>
+      <c r="AG1100" s="81"/>
+      <c r="AH1100" s="81"/>
     </row>
     <row r="1101" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1102" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19150,39 +19211,39 @@
     <row r="1225" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1226" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1227" s="78"/>
-      <c r="C1227" s="78"/>
-      <c r="D1227" s="78"/>
-      <c r="E1227" s="78"/>
-      <c r="F1227" s="78"/>
-      <c r="G1227" s="78"/>
-      <c r="H1227" s="78"/>
-      <c r="I1227" s="78"/>
-      <c r="J1227" s="78"/>
-      <c r="K1227" s="78"/>
-      <c r="L1227" s="78"/>
-      <c r="M1227" s="78"/>
-      <c r="N1227" s="78"/>
-      <c r="O1227" s="78"/>
-      <c r="P1227" s="78"/>
-      <c r="Q1227" s="78"/>
-      <c r="R1227" s="78"/>
-      <c r="S1227" s="78"/>
-      <c r="T1227" s="78"/>
-      <c r="U1227" s="78"/>
-      <c r="V1227" s="78"/>
-      <c r="W1227" s="78"/>
-      <c r="X1227" s="78"/>
-      <c r="Y1227" s="78"/>
-      <c r="Z1227" s="78"/>
-      <c r="AA1227" s="78"/>
-      <c r="AB1227" s="78"/>
-      <c r="AC1227" s="78"/>
-      <c r="AD1227" s="78"/>
-      <c r="AE1227" s="78"/>
-      <c r="AF1227" s="78"/>
-      <c r="AG1227" s="78"/>
-      <c r="AH1227" s="78"/>
+      <c r="B1227" s="81"/>
+      <c r="C1227" s="81"/>
+      <c r="D1227" s="81"/>
+      <c r="E1227" s="81"/>
+      <c r="F1227" s="81"/>
+      <c r="G1227" s="81"/>
+      <c r="H1227" s="81"/>
+      <c r="I1227" s="81"/>
+      <c r="J1227" s="81"/>
+      <c r="K1227" s="81"/>
+      <c r="L1227" s="81"/>
+      <c r="M1227" s="81"/>
+      <c r="N1227" s="81"/>
+      <c r="O1227" s="81"/>
+      <c r="P1227" s="81"/>
+      <c r="Q1227" s="81"/>
+      <c r="R1227" s="81"/>
+      <c r="S1227" s="81"/>
+      <c r="T1227" s="81"/>
+      <c r="U1227" s="81"/>
+      <c r="V1227" s="81"/>
+      <c r="W1227" s="81"/>
+      <c r="X1227" s="81"/>
+      <c r="Y1227" s="81"/>
+      <c r="Z1227" s="81"/>
+      <c r="AA1227" s="81"/>
+      <c r="AB1227" s="81"/>
+      <c r="AC1227" s="81"/>
+      <c r="AD1227" s="81"/>
+      <c r="AE1227" s="81"/>
+      <c r="AF1227" s="81"/>
+      <c r="AG1227" s="81"/>
+      <c r="AH1227" s="81"/>
     </row>
     <row r="1228" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1229" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19276,39 +19337,39 @@
     <row r="1388" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1389" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1390" s="78"/>
-      <c r="C1390" s="78"/>
-      <c r="D1390" s="78"/>
-      <c r="E1390" s="78"/>
-      <c r="F1390" s="78"/>
-      <c r="G1390" s="78"/>
-      <c r="H1390" s="78"/>
-      <c r="I1390" s="78"/>
-      <c r="J1390" s="78"/>
-      <c r="K1390" s="78"/>
-      <c r="L1390" s="78"/>
-      <c r="M1390" s="78"/>
-      <c r="N1390" s="78"/>
-      <c r="O1390" s="78"/>
-      <c r="P1390" s="78"/>
-      <c r="Q1390" s="78"/>
-      <c r="R1390" s="78"/>
-      <c r="S1390" s="78"/>
-      <c r="T1390" s="78"/>
-      <c r="U1390" s="78"/>
-      <c r="V1390" s="78"/>
-      <c r="W1390" s="78"/>
-      <c r="X1390" s="78"/>
-      <c r="Y1390" s="78"/>
-      <c r="Z1390" s="78"/>
-      <c r="AA1390" s="78"/>
-      <c r="AB1390" s="78"/>
-      <c r="AC1390" s="78"/>
-      <c r="AD1390" s="78"/>
-      <c r="AE1390" s="78"/>
-      <c r="AF1390" s="78"/>
-      <c r="AG1390" s="78"/>
-      <c r="AH1390" s="78"/>
+      <c r="B1390" s="81"/>
+      <c r="C1390" s="81"/>
+      <c r="D1390" s="81"/>
+      <c r="E1390" s="81"/>
+      <c r="F1390" s="81"/>
+      <c r="G1390" s="81"/>
+      <c r="H1390" s="81"/>
+      <c r="I1390" s="81"/>
+      <c r="J1390" s="81"/>
+      <c r="K1390" s="81"/>
+      <c r="L1390" s="81"/>
+      <c r="M1390" s="81"/>
+      <c r="N1390" s="81"/>
+      <c r="O1390" s="81"/>
+      <c r="P1390" s="81"/>
+      <c r="Q1390" s="81"/>
+      <c r="R1390" s="81"/>
+      <c r="S1390" s="81"/>
+      <c r="T1390" s="81"/>
+      <c r="U1390" s="81"/>
+      <c r="V1390" s="81"/>
+      <c r="W1390" s="81"/>
+      <c r="X1390" s="81"/>
+      <c r="Y1390" s="81"/>
+      <c r="Z1390" s="81"/>
+      <c r="AA1390" s="81"/>
+      <c r="AB1390" s="81"/>
+      <c r="AC1390" s="81"/>
+      <c r="AD1390" s="81"/>
+      <c r="AE1390" s="81"/>
+      <c r="AF1390" s="81"/>
+      <c r="AG1390" s="81"/>
+      <c r="AH1390" s="81"/>
     </row>
     <row r="1391" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1392" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19403,39 +19464,39 @@
     <row r="1500" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1501" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1502" s="78"/>
-      <c r="C1502" s="78"/>
-      <c r="D1502" s="78"/>
-      <c r="E1502" s="78"/>
-      <c r="F1502" s="78"/>
-      <c r="G1502" s="78"/>
-      <c r="H1502" s="78"/>
-      <c r="I1502" s="78"/>
-      <c r="J1502" s="78"/>
-      <c r="K1502" s="78"/>
-      <c r="L1502" s="78"/>
-      <c r="M1502" s="78"/>
-      <c r="N1502" s="78"/>
-      <c r="O1502" s="78"/>
-      <c r="P1502" s="78"/>
-      <c r="Q1502" s="78"/>
-      <c r="R1502" s="78"/>
-      <c r="S1502" s="78"/>
-      <c r="T1502" s="78"/>
-      <c r="U1502" s="78"/>
-      <c r="V1502" s="78"/>
-      <c r="W1502" s="78"/>
-      <c r="X1502" s="78"/>
-      <c r="Y1502" s="78"/>
-      <c r="Z1502" s="78"/>
-      <c r="AA1502" s="78"/>
-      <c r="AB1502" s="78"/>
-      <c r="AC1502" s="78"/>
-      <c r="AD1502" s="78"/>
-      <c r="AE1502" s="78"/>
-      <c r="AF1502" s="78"/>
-      <c r="AG1502" s="78"/>
-      <c r="AH1502" s="78"/>
+      <c r="B1502" s="81"/>
+      <c r="C1502" s="81"/>
+      <c r="D1502" s="81"/>
+      <c r="E1502" s="81"/>
+      <c r="F1502" s="81"/>
+      <c r="G1502" s="81"/>
+      <c r="H1502" s="81"/>
+      <c r="I1502" s="81"/>
+      <c r="J1502" s="81"/>
+      <c r="K1502" s="81"/>
+      <c r="L1502" s="81"/>
+      <c r="M1502" s="81"/>
+      <c r="N1502" s="81"/>
+      <c r="O1502" s="81"/>
+      <c r="P1502" s="81"/>
+      <c r="Q1502" s="81"/>
+      <c r="R1502" s="81"/>
+      <c r="S1502" s="81"/>
+      <c r="T1502" s="81"/>
+      <c r="U1502" s="81"/>
+      <c r="V1502" s="81"/>
+      <c r="W1502" s="81"/>
+      <c r="X1502" s="81"/>
+      <c r="Y1502" s="81"/>
+      <c r="Z1502" s="81"/>
+      <c r="AA1502" s="81"/>
+      <c r="AB1502" s="81"/>
+      <c r="AC1502" s="81"/>
+      <c r="AD1502" s="81"/>
+      <c r="AE1502" s="81"/>
+      <c r="AF1502" s="81"/>
+      <c r="AG1502" s="81"/>
+      <c r="AH1502" s="81"/>
     </row>
     <row r="1503" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1504" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19486,39 +19547,39 @@
     <row r="1602" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1603" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1604" s="78"/>
-      <c r="C1604" s="78"/>
-      <c r="D1604" s="78"/>
-      <c r="E1604" s="78"/>
-      <c r="F1604" s="78"/>
-      <c r="G1604" s="78"/>
-      <c r="H1604" s="78"/>
-      <c r="I1604" s="78"/>
-      <c r="J1604" s="78"/>
-      <c r="K1604" s="78"/>
-      <c r="L1604" s="78"/>
-      <c r="M1604" s="78"/>
-      <c r="N1604" s="78"/>
-      <c r="O1604" s="78"/>
-      <c r="P1604" s="78"/>
-      <c r="Q1604" s="78"/>
-      <c r="R1604" s="78"/>
-      <c r="S1604" s="78"/>
-      <c r="T1604" s="78"/>
-      <c r="U1604" s="78"/>
-      <c r="V1604" s="78"/>
-      <c r="W1604" s="78"/>
-      <c r="X1604" s="78"/>
-      <c r="Y1604" s="78"/>
-      <c r="Z1604" s="78"/>
-      <c r="AA1604" s="78"/>
-      <c r="AB1604" s="78"/>
-      <c r="AC1604" s="78"/>
-      <c r="AD1604" s="78"/>
-      <c r="AE1604" s="78"/>
-      <c r="AF1604" s="78"/>
-      <c r="AG1604" s="78"/>
-      <c r="AH1604" s="78"/>
+      <c r="B1604" s="81"/>
+      <c r="C1604" s="81"/>
+      <c r="D1604" s="81"/>
+      <c r="E1604" s="81"/>
+      <c r="F1604" s="81"/>
+      <c r="G1604" s="81"/>
+      <c r="H1604" s="81"/>
+      <c r="I1604" s="81"/>
+      <c r="J1604" s="81"/>
+      <c r="K1604" s="81"/>
+      <c r="L1604" s="81"/>
+      <c r="M1604" s="81"/>
+      <c r="N1604" s="81"/>
+      <c r="O1604" s="81"/>
+      <c r="P1604" s="81"/>
+      <c r="Q1604" s="81"/>
+      <c r="R1604" s="81"/>
+      <c r="S1604" s="81"/>
+      <c r="T1604" s="81"/>
+      <c r="U1604" s="81"/>
+      <c r="V1604" s="81"/>
+      <c r="W1604" s="81"/>
+      <c r="X1604" s="81"/>
+      <c r="Y1604" s="81"/>
+      <c r="Z1604" s="81"/>
+      <c r="AA1604" s="81"/>
+      <c r="AB1604" s="81"/>
+      <c r="AC1604" s="81"/>
+      <c r="AD1604" s="81"/>
+      <c r="AE1604" s="81"/>
+      <c r="AF1604" s="81"/>
+      <c r="AG1604" s="81"/>
+      <c r="AH1604" s="81"/>
     </row>
     <row r="1605" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1606" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19594,39 +19655,39 @@
     <row r="1695" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1697" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1698" s="78"/>
-      <c r="C1698" s="78"/>
-      <c r="D1698" s="78"/>
-      <c r="E1698" s="78"/>
-      <c r="F1698" s="78"/>
-      <c r="G1698" s="78"/>
-      <c r="H1698" s="78"/>
-      <c r="I1698" s="78"/>
-      <c r="J1698" s="78"/>
-      <c r="K1698" s="78"/>
-      <c r="L1698" s="78"/>
-      <c r="M1698" s="78"/>
-      <c r="N1698" s="78"/>
-      <c r="O1698" s="78"/>
-      <c r="P1698" s="78"/>
-      <c r="Q1698" s="78"/>
-      <c r="R1698" s="78"/>
-      <c r="S1698" s="78"/>
-      <c r="T1698" s="78"/>
-      <c r="U1698" s="78"/>
-      <c r="V1698" s="78"/>
-      <c r="W1698" s="78"/>
-      <c r="X1698" s="78"/>
-      <c r="Y1698" s="78"/>
-      <c r="Z1698" s="78"/>
-      <c r="AA1698" s="78"/>
-      <c r="AB1698" s="78"/>
-      <c r="AC1698" s="78"/>
-      <c r="AD1698" s="78"/>
-      <c r="AE1698" s="78"/>
-      <c r="AF1698" s="78"/>
-      <c r="AG1698" s="78"/>
-      <c r="AH1698" s="78"/>
+      <c r="B1698" s="81"/>
+      <c r="C1698" s="81"/>
+      <c r="D1698" s="81"/>
+      <c r="E1698" s="81"/>
+      <c r="F1698" s="81"/>
+      <c r="G1698" s="81"/>
+      <c r="H1698" s="81"/>
+      <c r="I1698" s="81"/>
+      <c r="J1698" s="81"/>
+      <c r="K1698" s="81"/>
+      <c r="L1698" s="81"/>
+      <c r="M1698" s="81"/>
+      <c r="N1698" s="81"/>
+      <c r="O1698" s="81"/>
+      <c r="P1698" s="81"/>
+      <c r="Q1698" s="81"/>
+      <c r="R1698" s="81"/>
+      <c r="S1698" s="81"/>
+      <c r="T1698" s="81"/>
+      <c r="U1698" s="81"/>
+      <c r="V1698" s="81"/>
+      <c r="W1698" s="81"/>
+      <c r="X1698" s="81"/>
+      <c r="Y1698" s="81"/>
+      <c r="Z1698" s="81"/>
+      <c r="AA1698" s="81"/>
+      <c r="AB1698" s="81"/>
+      <c r="AC1698" s="81"/>
+      <c r="AD1698" s="81"/>
+      <c r="AE1698" s="81"/>
+      <c r="AF1698" s="81"/>
+      <c r="AG1698" s="81"/>
+      <c r="AH1698" s="81"/>
     </row>
     <row r="1699" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1700" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19737,39 +19798,39 @@
     <row r="1943" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1944" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1945" s="78"/>
-      <c r="C1945" s="78"/>
-      <c r="D1945" s="78"/>
-      <c r="E1945" s="78"/>
-      <c r="F1945" s="78"/>
-      <c r="G1945" s="78"/>
-      <c r="H1945" s="78"/>
-      <c r="I1945" s="78"/>
-      <c r="J1945" s="78"/>
-      <c r="K1945" s="78"/>
-      <c r="L1945" s="78"/>
-      <c r="M1945" s="78"/>
-      <c r="N1945" s="78"/>
-      <c r="O1945" s="78"/>
-      <c r="P1945" s="78"/>
-      <c r="Q1945" s="78"/>
-      <c r="R1945" s="78"/>
-      <c r="S1945" s="78"/>
-      <c r="T1945" s="78"/>
-      <c r="U1945" s="78"/>
-      <c r="V1945" s="78"/>
-      <c r="W1945" s="78"/>
-      <c r="X1945" s="78"/>
-      <c r="Y1945" s="78"/>
-      <c r="Z1945" s="78"/>
-      <c r="AA1945" s="78"/>
-      <c r="AB1945" s="78"/>
-      <c r="AC1945" s="78"/>
-      <c r="AD1945" s="78"/>
-      <c r="AE1945" s="78"/>
-      <c r="AF1945" s="78"/>
-      <c r="AG1945" s="78"/>
-      <c r="AH1945" s="78"/>
+      <c r="B1945" s="81"/>
+      <c r="C1945" s="81"/>
+      <c r="D1945" s="81"/>
+      <c r="E1945" s="81"/>
+      <c r="F1945" s="81"/>
+      <c r="G1945" s="81"/>
+      <c r="H1945" s="81"/>
+      <c r="I1945" s="81"/>
+      <c r="J1945" s="81"/>
+      <c r="K1945" s="81"/>
+      <c r="L1945" s="81"/>
+      <c r="M1945" s="81"/>
+      <c r="N1945" s="81"/>
+      <c r="O1945" s="81"/>
+      <c r="P1945" s="81"/>
+      <c r="Q1945" s="81"/>
+      <c r="R1945" s="81"/>
+      <c r="S1945" s="81"/>
+      <c r="T1945" s="81"/>
+      <c r="U1945" s="81"/>
+      <c r="V1945" s="81"/>
+      <c r="W1945" s="81"/>
+      <c r="X1945" s="81"/>
+      <c r="Y1945" s="81"/>
+      <c r="Z1945" s="81"/>
+      <c r="AA1945" s="81"/>
+      <c r="AB1945" s="81"/>
+      <c r="AC1945" s="81"/>
+      <c r="AD1945" s="81"/>
+      <c r="AE1945" s="81"/>
+      <c r="AF1945" s="81"/>
+      <c r="AG1945" s="81"/>
+      <c r="AH1945" s="81"/>
     </row>
     <row r="1946" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1947" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19830,39 +19891,39 @@
     <row r="2029" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2030" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2031" s="78"/>
-      <c r="C2031" s="78"/>
-      <c r="D2031" s="78"/>
-      <c r="E2031" s="78"/>
-      <c r="F2031" s="78"/>
-      <c r="G2031" s="78"/>
-      <c r="H2031" s="78"/>
-      <c r="I2031" s="78"/>
-      <c r="J2031" s="78"/>
-      <c r="K2031" s="78"/>
-      <c r="L2031" s="78"/>
-      <c r="M2031" s="78"/>
-      <c r="N2031" s="78"/>
-      <c r="O2031" s="78"/>
-      <c r="P2031" s="78"/>
-      <c r="Q2031" s="78"/>
-      <c r="R2031" s="78"/>
-      <c r="S2031" s="78"/>
-      <c r="T2031" s="78"/>
-      <c r="U2031" s="78"/>
-      <c r="V2031" s="78"/>
-      <c r="W2031" s="78"/>
-      <c r="X2031" s="78"/>
-      <c r="Y2031" s="78"/>
-      <c r="Z2031" s="78"/>
-      <c r="AA2031" s="78"/>
-      <c r="AB2031" s="78"/>
-      <c r="AC2031" s="78"/>
-      <c r="AD2031" s="78"/>
-      <c r="AE2031" s="78"/>
-      <c r="AF2031" s="78"/>
-      <c r="AG2031" s="78"/>
-      <c r="AH2031" s="78"/>
+      <c r="B2031" s="81"/>
+      <c r="C2031" s="81"/>
+      <c r="D2031" s="81"/>
+      <c r="E2031" s="81"/>
+      <c r="F2031" s="81"/>
+      <c r="G2031" s="81"/>
+      <c r="H2031" s="81"/>
+      <c r="I2031" s="81"/>
+      <c r="J2031" s="81"/>
+      <c r="K2031" s="81"/>
+      <c r="L2031" s="81"/>
+      <c r="M2031" s="81"/>
+      <c r="N2031" s="81"/>
+      <c r="O2031" s="81"/>
+      <c r="P2031" s="81"/>
+      <c r="Q2031" s="81"/>
+      <c r="R2031" s="81"/>
+      <c r="S2031" s="81"/>
+      <c r="T2031" s="81"/>
+      <c r="U2031" s="81"/>
+      <c r="V2031" s="81"/>
+      <c r="W2031" s="81"/>
+      <c r="X2031" s="81"/>
+      <c r="Y2031" s="81"/>
+      <c r="Z2031" s="81"/>
+      <c r="AA2031" s="81"/>
+      <c r="AB2031" s="81"/>
+      <c r="AC2031" s="81"/>
+      <c r="AD2031" s="81"/>
+      <c r="AE2031" s="81"/>
+      <c r="AF2031" s="81"/>
+      <c r="AG2031" s="81"/>
+      <c r="AH2031" s="81"/>
     </row>
     <row r="2032" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2033" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19931,39 +19992,39 @@
     <row r="2151" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2152" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2153" s="78"/>
-      <c r="C2153" s="78"/>
-      <c r="D2153" s="78"/>
-      <c r="E2153" s="78"/>
-      <c r="F2153" s="78"/>
-      <c r="G2153" s="78"/>
-      <c r="H2153" s="78"/>
-      <c r="I2153" s="78"/>
-      <c r="J2153" s="78"/>
-      <c r="K2153" s="78"/>
-      <c r="L2153" s="78"/>
-      <c r="M2153" s="78"/>
-      <c r="N2153" s="78"/>
-      <c r="O2153" s="78"/>
-      <c r="P2153" s="78"/>
-      <c r="Q2153" s="78"/>
-      <c r="R2153" s="78"/>
-      <c r="S2153" s="78"/>
-      <c r="T2153" s="78"/>
-      <c r="U2153" s="78"/>
-      <c r="V2153" s="78"/>
-      <c r="W2153" s="78"/>
-      <c r="X2153" s="78"/>
-      <c r="Y2153" s="78"/>
-      <c r="Z2153" s="78"/>
-      <c r="AA2153" s="78"/>
-      <c r="AB2153" s="78"/>
-      <c r="AC2153" s="78"/>
-      <c r="AD2153" s="78"/>
-      <c r="AE2153" s="78"/>
-      <c r="AF2153" s="78"/>
-      <c r="AG2153" s="78"/>
-      <c r="AH2153" s="78"/>
+      <c r="B2153" s="81"/>
+      <c r="C2153" s="81"/>
+      <c r="D2153" s="81"/>
+      <c r="E2153" s="81"/>
+      <c r="F2153" s="81"/>
+      <c r="G2153" s="81"/>
+      <c r="H2153" s="81"/>
+      <c r="I2153" s="81"/>
+      <c r="J2153" s="81"/>
+      <c r="K2153" s="81"/>
+      <c r="L2153" s="81"/>
+      <c r="M2153" s="81"/>
+      <c r="N2153" s="81"/>
+      <c r="O2153" s="81"/>
+      <c r="P2153" s="81"/>
+      <c r="Q2153" s="81"/>
+      <c r="R2153" s="81"/>
+      <c r="S2153" s="81"/>
+      <c r="T2153" s="81"/>
+      <c r="U2153" s="81"/>
+      <c r="V2153" s="81"/>
+      <c r="W2153" s="81"/>
+      <c r="X2153" s="81"/>
+      <c r="Y2153" s="81"/>
+      <c r="Z2153" s="81"/>
+      <c r="AA2153" s="81"/>
+      <c r="AB2153" s="81"/>
+      <c r="AC2153" s="81"/>
+      <c r="AD2153" s="81"/>
+      <c r="AE2153" s="81"/>
+      <c r="AF2153" s="81"/>
+      <c r="AG2153" s="81"/>
+      <c r="AH2153" s="81"/>
     </row>
     <row r="2154" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2155" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20031,39 +20092,39 @@
     <row r="2315" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2316" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2317" s="78"/>
-      <c r="C2317" s="78"/>
-      <c r="D2317" s="78"/>
-      <c r="E2317" s="78"/>
-      <c r="F2317" s="78"/>
-      <c r="G2317" s="78"/>
-      <c r="H2317" s="78"/>
-      <c r="I2317" s="78"/>
-      <c r="J2317" s="78"/>
-      <c r="K2317" s="78"/>
-      <c r="L2317" s="78"/>
-      <c r="M2317" s="78"/>
-      <c r="N2317" s="78"/>
-      <c r="O2317" s="78"/>
-      <c r="P2317" s="78"/>
-      <c r="Q2317" s="78"/>
-      <c r="R2317" s="78"/>
-      <c r="S2317" s="78"/>
-      <c r="T2317" s="78"/>
-      <c r="U2317" s="78"/>
-      <c r="V2317" s="78"/>
-      <c r="W2317" s="78"/>
-      <c r="X2317" s="78"/>
-      <c r="Y2317" s="78"/>
-      <c r="Z2317" s="78"/>
-      <c r="AA2317" s="78"/>
-      <c r="AB2317" s="78"/>
-      <c r="AC2317" s="78"/>
-      <c r="AD2317" s="78"/>
-      <c r="AE2317" s="78"/>
-      <c r="AF2317" s="78"/>
-      <c r="AG2317" s="78"/>
-      <c r="AH2317" s="78"/>
+      <c r="B2317" s="81"/>
+      <c r="C2317" s="81"/>
+      <c r="D2317" s="81"/>
+      <c r="E2317" s="81"/>
+      <c r="F2317" s="81"/>
+      <c r="G2317" s="81"/>
+      <c r="H2317" s="81"/>
+      <c r="I2317" s="81"/>
+      <c r="J2317" s="81"/>
+      <c r="K2317" s="81"/>
+      <c r="L2317" s="81"/>
+      <c r="M2317" s="81"/>
+      <c r="N2317" s="81"/>
+      <c r="O2317" s="81"/>
+      <c r="P2317" s="81"/>
+      <c r="Q2317" s="81"/>
+      <c r="R2317" s="81"/>
+      <c r="S2317" s="81"/>
+      <c r="T2317" s="81"/>
+      <c r="U2317" s="81"/>
+      <c r="V2317" s="81"/>
+      <c r="W2317" s="81"/>
+      <c r="X2317" s="81"/>
+      <c r="Y2317" s="81"/>
+      <c r="Z2317" s="81"/>
+      <c r="AA2317" s="81"/>
+      <c r="AB2317" s="81"/>
+      <c r="AC2317" s="81"/>
+      <c r="AD2317" s="81"/>
+      <c r="AE2317" s="81"/>
+      <c r="AF2317" s="81"/>
+      <c r="AG2317" s="81"/>
+      <c r="AH2317" s="81"/>
     </row>
     <row r="2318" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2319" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20146,39 +20207,39 @@
     <row r="2417" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2418" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2419" s="78"/>
-      <c r="C2419" s="78"/>
-      <c r="D2419" s="78"/>
-      <c r="E2419" s="78"/>
-      <c r="F2419" s="78"/>
-      <c r="G2419" s="78"/>
-      <c r="H2419" s="78"/>
-      <c r="I2419" s="78"/>
-      <c r="J2419" s="78"/>
-      <c r="K2419" s="78"/>
-      <c r="L2419" s="78"/>
-      <c r="M2419" s="78"/>
-      <c r="N2419" s="78"/>
-      <c r="O2419" s="78"/>
-      <c r="P2419" s="78"/>
-      <c r="Q2419" s="78"/>
-      <c r="R2419" s="78"/>
-      <c r="S2419" s="78"/>
-      <c r="T2419" s="78"/>
-      <c r="U2419" s="78"/>
-      <c r="V2419" s="78"/>
-      <c r="W2419" s="78"/>
-      <c r="X2419" s="78"/>
-      <c r="Y2419" s="78"/>
-      <c r="Z2419" s="78"/>
-      <c r="AA2419" s="78"/>
-      <c r="AB2419" s="78"/>
-      <c r="AC2419" s="78"/>
-      <c r="AD2419" s="78"/>
-      <c r="AE2419" s="78"/>
-      <c r="AF2419" s="78"/>
-      <c r="AG2419" s="78"/>
-      <c r="AH2419" s="78"/>
+      <c r="B2419" s="81"/>
+      <c r="C2419" s="81"/>
+      <c r="D2419" s="81"/>
+      <c r="E2419" s="81"/>
+      <c r="F2419" s="81"/>
+      <c r="G2419" s="81"/>
+      <c r="H2419" s="81"/>
+      <c r="I2419" s="81"/>
+      <c r="J2419" s="81"/>
+      <c r="K2419" s="81"/>
+      <c r="L2419" s="81"/>
+      <c r="M2419" s="81"/>
+      <c r="N2419" s="81"/>
+      <c r="O2419" s="81"/>
+      <c r="P2419" s="81"/>
+      <c r="Q2419" s="81"/>
+      <c r="R2419" s="81"/>
+      <c r="S2419" s="81"/>
+      <c r="T2419" s="81"/>
+      <c r="U2419" s="81"/>
+      <c r="V2419" s="81"/>
+      <c r="W2419" s="81"/>
+      <c r="X2419" s="81"/>
+      <c r="Y2419" s="81"/>
+      <c r="Z2419" s="81"/>
+      <c r="AA2419" s="81"/>
+      <c r="AB2419" s="81"/>
+      <c r="AC2419" s="81"/>
+      <c r="AD2419" s="81"/>
+      <c r="AE2419" s="81"/>
+      <c r="AF2419" s="81"/>
+      <c r="AG2419" s="81"/>
+      <c r="AH2419" s="81"/>
     </row>
     <row r="2420" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2421" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20248,39 +20309,39 @@
     <row r="2507" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2508" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2509" s="78"/>
-      <c r="C2509" s="78"/>
-      <c r="D2509" s="78"/>
-      <c r="E2509" s="78"/>
-      <c r="F2509" s="78"/>
-      <c r="G2509" s="78"/>
-      <c r="H2509" s="78"/>
-      <c r="I2509" s="78"/>
-      <c r="J2509" s="78"/>
-      <c r="K2509" s="78"/>
-      <c r="L2509" s="78"/>
-      <c r="M2509" s="78"/>
-      <c r="N2509" s="78"/>
-      <c r="O2509" s="78"/>
-      <c r="P2509" s="78"/>
-      <c r="Q2509" s="78"/>
-      <c r="R2509" s="78"/>
-      <c r="S2509" s="78"/>
-      <c r="T2509" s="78"/>
-      <c r="U2509" s="78"/>
-      <c r="V2509" s="78"/>
-      <c r="W2509" s="78"/>
-      <c r="X2509" s="78"/>
-      <c r="Y2509" s="78"/>
-      <c r="Z2509" s="78"/>
-      <c r="AA2509" s="78"/>
-      <c r="AB2509" s="78"/>
-      <c r="AC2509" s="78"/>
-      <c r="AD2509" s="78"/>
-      <c r="AE2509" s="78"/>
-      <c r="AF2509" s="78"/>
-      <c r="AG2509" s="78"/>
-      <c r="AH2509" s="78"/>
+      <c r="B2509" s="81"/>
+      <c r="C2509" s="81"/>
+      <c r="D2509" s="81"/>
+      <c r="E2509" s="81"/>
+      <c r="F2509" s="81"/>
+      <c r="G2509" s="81"/>
+      <c r="H2509" s="81"/>
+      <c r="I2509" s="81"/>
+      <c r="J2509" s="81"/>
+      <c r="K2509" s="81"/>
+      <c r="L2509" s="81"/>
+      <c r="M2509" s="81"/>
+      <c r="N2509" s="81"/>
+      <c r="O2509" s="81"/>
+      <c r="P2509" s="81"/>
+      <c r="Q2509" s="81"/>
+      <c r="R2509" s="81"/>
+      <c r="S2509" s="81"/>
+      <c r="T2509" s="81"/>
+      <c r="U2509" s="81"/>
+      <c r="V2509" s="81"/>
+      <c r="W2509" s="81"/>
+      <c r="X2509" s="81"/>
+      <c r="Y2509" s="81"/>
+      <c r="Z2509" s="81"/>
+      <c r="AA2509" s="81"/>
+      <c r="AB2509" s="81"/>
+      <c r="AC2509" s="81"/>
+      <c r="AD2509" s="81"/>
+      <c r="AE2509" s="81"/>
+      <c r="AF2509" s="81"/>
+      <c r="AG2509" s="81"/>
+      <c r="AH2509" s="81"/>
     </row>
     <row r="2510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20345,39 +20406,39 @@
     <row r="2596" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2597" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2598" s="78"/>
-      <c r="C2598" s="78"/>
-      <c r="D2598" s="78"/>
-      <c r="E2598" s="78"/>
-      <c r="F2598" s="78"/>
-      <c r="G2598" s="78"/>
-      <c r="H2598" s="78"/>
-      <c r="I2598" s="78"/>
-      <c r="J2598" s="78"/>
-      <c r="K2598" s="78"/>
-      <c r="L2598" s="78"/>
-      <c r="M2598" s="78"/>
-      <c r="N2598" s="78"/>
-      <c r="O2598" s="78"/>
-      <c r="P2598" s="78"/>
-      <c r="Q2598" s="78"/>
-      <c r="R2598" s="78"/>
-      <c r="S2598" s="78"/>
-      <c r="T2598" s="78"/>
-      <c r="U2598" s="78"/>
-      <c r="V2598" s="78"/>
-      <c r="W2598" s="78"/>
-      <c r="X2598" s="78"/>
-      <c r="Y2598" s="78"/>
-      <c r="Z2598" s="78"/>
-      <c r="AA2598" s="78"/>
-      <c r="AB2598" s="78"/>
-      <c r="AC2598" s="78"/>
-      <c r="AD2598" s="78"/>
-      <c r="AE2598" s="78"/>
-      <c r="AF2598" s="78"/>
-      <c r="AG2598" s="78"/>
-      <c r="AH2598" s="78"/>
+      <c r="B2598" s="81"/>
+      <c r="C2598" s="81"/>
+      <c r="D2598" s="81"/>
+      <c r="E2598" s="81"/>
+      <c r="F2598" s="81"/>
+      <c r="G2598" s="81"/>
+      <c r="H2598" s="81"/>
+      <c r="I2598" s="81"/>
+      <c r="J2598" s="81"/>
+      <c r="K2598" s="81"/>
+      <c r="L2598" s="81"/>
+      <c r="M2598" s="81"/>
+      <c r="N2598" s="81"/>
+      <c r="O2598" s="81"/>
+      <c r="P2598" s="81"/>
+      <c r="Q2598" s="81"/>
+      <c r="R2598" s="81"/>
+      <c r="S2598" s="81"/>
+      <c r="T2598" s="81"/>
+      <c r="U2598" s="81"/>
+      <c r="V2598" s="81"/>
+      <c r="W2598" s="81"/>
+      <c r="X2598" s="81"/>
+      <c r="Y2598" s="81"/>
+      <c r="Z2598" s="81"/>
+      <c r="AA2598" s="81"/>
+      <c r="AB2598" s="81"/>
+      <c r="AC2598" s="81"/>
+      <c r="AD2598" s="81"/>
+      <c r="AE2598" s="81"/>
+      <c r="AF2598" s="81"/>
+      <c r="AG2598" s="81"/>
+      <c r="AH2598" s="81"/>
     </row>
     <row r="2599" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2600" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20484,39 +20545,39 @@
     <row r="2717" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2718" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2719" s="78"/>
-      <c r="C2719" s="78"/>
-      <c r="D2719" s="78"/>
-      <c r="E2719" s="78"/>
-      <c r="F2719" s="78"/>
-      <c r="G2719" s="78"/>
-      <c r="H2719" s="78"/>
-      <c r="I2719" s="78"/>
-      <c r="J2719" s="78"/>
-      <c r="K2719" s="78"/>
-      <c r="L2719" s="78"/>
-      <c r="M2719" s="78"/>
-      <c r="N2719" s="78"/>
-      <c r="O2719" s="78"/>
-      <c r="P2719" s="78"/>
-      <c r="Q2719" s="78"/>
-      <c r="R2719" s="78"/>
-      <c r="S2719" s="78"/>
-      <c r="T2719" s="78"/>
-      <c r="U2719" s="78"/>
-      <c r="V2719" s="78"/>
-      <c r="W2719" s="78"/>
-      <c r="X2719" s="78"/>
-      <c r="Y2719" s="78"/>
-      <c r="Z2719" s="78"/>
-      <c r="AA2719" s="78"/>
-      <c r="AB2719" s="78"/>
-      <c r="AC2719" s="78"/>
-      <c r="AD2719" s="78"/>
-      <c r="AE2719" s="78"/>
-      <c r="AF2719" s="78"/>
-      <c r="AG2719" s="78"/>
-      <c r="AH2719" s="78"/>
+      <c r="B2719" s="81"/>
+      <c r="C2719" s="81"/>
+      <c r="D2719" s="81"/>
+      <c r="E2719" s="81"/>
+      <c r="F2719" s="81"/>
+      <c r="G2719" s="81"/>
+      <c r="H2719" s="81"/>
+      <c r="I2719" s="81"/>
+      <c r="J2719" s="81"/>
+      <c r="K2719" s="81"/>
+      <c r="L2719" s="81"/>
+      <c r="M2719" s="81"/>
+      <c r="N2719" s="81"/>
+      <c r="O2719" s="81"/>
+      <c r="P2719" s="81"/>
+      <c r="Q2719" s="81"/>
+      <c r="R2719" s="81"/>
+      <c r="S2719" s="81"/>
+      <c r="T2719" s="81"/>
+      <c r="U2719" s="81"/>
+      <c r="V2719" s="81"/>
+      <c r="W2719" s="81"/>
+      <c r="X2719" s="81"/>
+      <c r="Y2719" s="81"/>
+      <c r="Z2719" s="81"/>
+      <c r="AA2719" s="81"/>
+      <c r="AB2719" s="81"/>
+      <c r="AC2719" s="81"/>
+      <c r="AD2719" s="81"/>
+      <c r="AE2719" s="81"/>
+      <c r="AF2719" s="81"/>
+      <c r="AG2719" s="81"/>
+      <c r="AH2719" s="81"/>
     </row>
     <row r="2720" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2721" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20596,39 +20657,39 @@
     <row r="2835" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2836" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2837" s="78"/>
-      <c r="C2837" s="78"/>
-      <c r="D2837" s="78"/>
-      <c r="E2837" s="78"/>
-      <c r="F2837" s="78"/>
-      <c r="G2837" s="78"/>
-      <c r="H2837" s="78"/>
-      <c r="I2837" s="78"/>
-      <c r="J2837" s="78"/>
-      <c r="K2837" s="78"/>
-      <c r="L2837" s="78"/>
-      <c r="M2837" s="78"/>
-      <c r="N2837" s="78"/>
-      <c r="O2837" s="78"/>
-      <c r="P2837" s="78"/>
-      <c r="Q2837" s="78"/>
-      <c r="R2837" s="78"/>
-      <c r="S2837" s="78"/>
-      <c r="T2837" s="78"/>
-      <c r="U2837" s="78"/>
-      <c r="V2837" s="78"/>
-      <c r="W2837" s="78"/>
-      <c r="X2837" s="78"/>
-      <c r="Y2837" s="78"/>
-      <c r="Z2837" s="78"/>
-      <c r="AA2837" s="78"/>
-      <c r="AB2837" s="78"/>
-      <c r="AC2837" s="78"/>
-      <c r="AD2837" s="78"/>
-      <c r="AE2837" s="78"/>
-      <c r="AF2837" s="78"/>
-      <c r="AG2837" s="78"/>
-      <c r="AH2837" s="78"/>
+      <c r="B2837" s="81"/>
+      <c r="C2837" s="81"/>
+      <c r="D2837" s="81"/>
+      <c r="E2837" s="81"/>
+      <c r="F2837" s="81"/>
+      <c r="G2837" s="81"/>
+      <c r="H2837" s="81"/>
+      <c r="I2837" s="81"/>
+      <c r="J2837" s="81"/>
+      <c r="K2837" s="81"/>
+      <c r="L2837" s="81"/>
+      <c r="M2837" s="81"/>
+      <c r="N2837" s="81"/>
+      <c r="O2837" s="81"/>
+      <c r="P2837" s="81"/>
+      <c r="Q2837" s="81"/>
+      <c r="R2837" s="81"/>
+      <c r="S2837" s="81"/>
+      <c r="T2837" s="81"/>
+      <c r="U2837" s="81"/>
+      <c r="V2837" s="81"/>
+      <c r="W2837" s="81"/>
+      <c r="X2837" s="81"/>
+      <c r="Y2837" s="81"/>
+      <c r="Z2837" s="81"/>
+      <c r="AA2837" s="81"/>
+      <c r="AB2837" s="81"/>
+      <c r="AC2837" s="81"/>
+      <c r="AD2837" s="81"/>
+      <c r="AE2837" s="81"/>
+      <c r="AF2837" s="81"/>
+      <c r="AG2837" s="81"/>
+      <c r="AH2837" s="81"/>
     </row>
     <row r="2838" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2839" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20636,27 +20697,27 @@
     <row r="2841" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B72:AG72"/>
-    <mergeCell ref="B112:AH112"/>
-    <mergeCell ref="B308:AH308"/>
-    <mergeCell ref="B511:AH511"/>
-    <mergeCell ref="B712:AH712"/>
-    <mergeCell ref="B887:AH887"/>
-    <mergeCell ref="B1100:AH1100"/>
-    <mergeCell ref="B1227:AH1227"/>
-    <mergeCell ref="B1390:AH1390"/>
-    <mergeCell ref="B1502:AH1502"/>
-    <mergeCell ref="B1604:AH1604"/>
-    <mergeCell ref="B1698:AH1698"/>
-    <mergeCell ref="B1945:AH1945"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2719:AH2719"/>
     <mergeCell ref="B2837:AH2837"/>
     <mergeCell ref="B2153:AH2153"/>
     <mergeCell ref="B2317:AH2317"/>
     <mergeCell ref="B2419:AH2419"/>
     <mergeCell ref="B2509:AH2509"/>
     <mergeCell ref="B2598:AH2598"/>
+    <mergeCell ref="B1604:AH1604"/>
+    <mergeCell ref="B1698:AH1698"/>
+    <mergeCell ref="B1945:AH1945"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2719:AH2719"/>
+    <mergeCell ref="B887:AH887"/>
+    <mergeCell ref="B1100:AH1100"/>
+    <mergeCell ref="B1227:AH1227"/>
+    <mergeCell ref="B1390:AH1390"/>
+    <mergeCell ref="B1502:AH1502"/>
+    <mergeCell ref="B72:AG72"/>
+    <mergeCell ref="B112:AH112"/>
+    <mergeCell ref="B308:AH308"/>
+    <mergeCell ref="B511:AH511"/>
+    <mergeCell ref="B712:AH712"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27508,41 +27569,41 @@
       </c>
     </row>
     <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="81" t="s">
+      <c r="B112" s="82" t="s">
         <v>623</v>
       </c>
-      <c r="C112" s="78"/>
-      <c r="D112" s="78"/>
-      <c r="E112" s="78"/>
-      <c r="F112" s="78"/>
-      <c r="G112" s="78"/>
-      <c r="H112" s="78"/>
-      <c r="I112" s="78"/>
-      <c r="J112" s="78"/>
-      <c r="K112" s="78"/>
-      <c r="L112" s="78"/>
-      <c r="M112" s="78"/>
-      <c r="N112" s="78"/>
-      <c r="O112" s="78"/>
-      <c r="P112" s="78"/>
-      <c r="Q112" s="78"/>
-      <c r="R112" s="78"/>
-      <c r="S112" s="78"/>
-      <c r="T112" s="78"/>
-      <c r="U112" s="78"/>
-      <c r="V112" s="78"/>
-      <c r="W112" s="78"/>
-      <c r="X112" s="78"/>
-      <c r="Y112" s="78"/>
-      <c r="Z112" s="78"/>
-      <c r="AA112" s="78"/>
-      <c r="AB112" s="78"/>
-      <c r="AC112" s="78"/>
-      <c r="AD112" s="78"/>
-      <c r="AE112" s="78"/>
-      <c r="AF112" s="78"/>
-      <c r="AG112" s="78"/>
-      <c r="AH112" s="78"/>
+      <c r="C112" s="81"/>
+      <c r="D112" s="81"/>
+      <c r="E112" s="81"/>
+      <c r="F112" s="81"/>
+      <c r="G112" s="81"/>
+      <c r="H112" s="81"/>
+      <c r="I112" s="81"/>
+      <c r="J112" s="81"/>
+      <c r="K112" s="81"/>
+      <c r="L112" s="81"/>
+      <c r="M112" s="81"/>
+      <c r="N112" s="81"/>
+      <c r="O112" s="81"/>
+      <c r="P112" s="81"/>
+      <c r="Q112" s="81"/>
+      <c r="R112" s="81"/>
+      <c r="S112" s="81"/>
+      <c r="T112" s="81"/>
+      <c r="U112" s="81"/>
+      <c r="V112" s="81"/>
+      <c r="W112" s="81"/>
+      <c r="X112" s="81"/>
+      <c r="Y112" s="81"/>
+      <c r="Z112" s="81"/>
+      <c r="AA112" s="81"/>
+      <c r="AB112" s="81"/>
+      <c r="AC112" s="81"/>
+      <c r="AD112" s="81"/>
+      <c r="AE112" s="81"/>
+      <c r="AF112" s="81"/>
+      <c r="AG112" s="81"/>
+      <c r="AH112" s="81"/>
     </row>
     <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="41" t="s">
@@ -27772,39 +27833,39 @@
     <row r="306" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="307" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="78"/>
-      <c r="C308" s="78"/>
-      <c r="D308" s="78"/>
-      <c r="E308" s="78"/>
-      <c r="F308" s="78"/>
-      <c r="G308" s="78"/>
-      <c r="H308" s="78"/>
-      <c r="I308" s="78"/>
-      <c r="J308" s="78"/>
-      <c r="K308" s="78"/>
-      <c r="L308" s="78"/>
-      <c r="M308" s="78"/>
-      <c r="N308" s="78"/>
-      <c r="O308" s="78"/>
-      <c r="P308" s="78"/>
-      <c r="Q308" s="78"/>
-      <c r="R308" s="78"/>
-      <c r="S308" s="78"/>
-      <c r="T308" s="78"/>
-      <c r="U308" s="78"/>
-      <c r="V308" s="78"/>
-      <c r="W308" s="78"/>
-      <c r="X308" s="78"/>
-      <c r="Y308" s="78"/>
-      <c r="Z308" s="78"/>
-      <c r="AA308" s="78"/>
-      <c r="AB308" s="78"/>
-      <c r="AC308" s="78"/>
-      <c r="AD308" s="78"/>
-      <c r="AE308" s="78"/>
-      <c r="AF308" s="78"/>
-      <c r="AG308" s="78"/>
-      <c r="AH308" s="78"/>
+      <c r="B308" s="81"/>
+      <c r="C308" s="81"/>
+      <c r="D308" s="81"/>
+      <c r="E308" s="81"/>
+      <c r="F308" s="81"/>
+      <c r="G308" s="81"/>
+      <c r="H308" s="81"/>
+      <c r="I308" s="81"/>
+      <c r="J308" s="81"/>
+      <c r="K308" s="81"/>
+      <c r="L308" s="81"/>
+      <c r="M308" s="81"/>
+      <c r="N308" s="81"/>
+      <c r="O308" s="81"/>
+      <c r="P308" s="81"/>
+      <c r="Q308" s="81"/>
+      <c r="R308" s="81"/>
+      <c r="S308" s="81"/>
+      <c r="T308" s="81"/>
+      <c r="U308" s="81"/>
+      <c r="V308" s="81"/>
+      <c r="W308" s="81"/>
+      <c r="X308" s="81"/>
+      <c r="Y308" s="81"/>
+      <c r="Z308" s="81"/>
+      <c r="AA308" s="81"/>
+      <c r="AB308" s="81"/>
+      <c r="AC308" s="81"/>
+      <c r="AD308" s="81"/>
+      <c r="AE308" s="81"/>
+      <c r="AF308" s="81"/>
+      <c r="AG308" s="81"/>
+      <c r="AH308" s="81"/>
     </row>
     <row r="309" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="310" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28009,39 +28070,39 @@
     <row r="509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="78"/>
-      <c r="C511" s="78"/>
-      <c r="D511" s="78"/>
-      <c r="E511" s="78"/>
-      <c r="F511" s="78"/>
-      <c r="G511" s="78"/>
-      <c r="H511" s="78"/>
-      <c r="I511" s="78"/>
-      <c r="J511" s="78"/>
-      <c r="K511" s="78"/>
-      <c r="L511" s="78"/>
-      <c r="M511" s="78"/>
-      <c r="N511" s="78"/>
-      <c r="O511" s="78"/>
-      <c r="P511" s="78"/>
-      <c r="Q511" s="78"/>
-      <c r="R511" s="78"/>
-      <c r="S511" s="78"/>
-      <c r="T511" s="78"/>
-      <c r="U511" s="78"/>
-      <c r="V511" s="78"/>
-      <c r="W511" s="78"/>
-      <c r="X511" s="78"/>
-      <c r="Y511" s="78"/>
-      <c r="Z511" s="78"/>
-      <c r="AA511" s="78"/>
-      <c r="AB511" s="78"/>
-      <c r="AC511" s="78"/>
-      <c r="AD511" s="78"/>
-      <c r="AE511" s="78"/>
-      <c r="AF511" s="78"/>
-      <c r="AG511" s="78"/>
-      <c r="AH511" s="78"/>
+      <c r="B511" s="81"/>
+      <c r="C511" s="81"/>
+      <c r="D511" s="81"/>
+      <c r="E511" s="81"/>
+      <c r="F511" s="81"/>
+      <c r="G511" s="81"/>
+      <c r="H511" s="81"/>
+      <c r="I511" s="81"/>
+      <c r="J511" s="81"/>
+      <c r="K511" s="81"/>
+      <c r="L511" s="81"/>
+      <c r="M511" s="81"/>
+      <c r="N511" s="81"/>
+      <c r="O511" s="81"/>
+      <c r="P511" s="81"/>
+      <c r="Q511" s="81"/>
+      <c r="R511" s="81"/>
+      <c r="S511" s="81"/>
+      <c r="T511" s="81"/>
+      <c r="U511" s="81"/>
+      <c r="V511" s="81"/>
+      <c r="W511" s="81"/>
+      <c r="X511" s="81"/>
+      <c r="Y511" s="81"/>
+      <c r="Z511" s="81"/>
+      <c r="AA511" s="81"/>
+      <c r="AB511" s="81"/>
+      <c r="AC511" s="81"/>
+      <c r="AD511" s="81"/>
+      <c r="AE511" s="81"/>
+      <c r="AF511" s="81"/>
+      <c r="AG511" s="81"/>
+      <c r="AH511" s="81"/>
     </row>
     <row r="512" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="513" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28244,39 +28305,39 @@
     <row r="710" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="711" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B712" s="78"/>
-      <c r="C712" s="78"/>
-      <c r="D712" s="78"/>
-      <c r="E712" s="78"/>
-      <c r="F712" s="78"/>
-      <c r="G712" s="78"/>
-      <c r="H712" s="78"/>
-      <c r="I712" s="78"/>
-      <c r="J712" s="78"/>
-      <c r="K712" s="78"/>
-      <c r="L712" s="78"/>
-      <c r="M712" s="78"/>
-      <c r="N712" s="78"/>
-      <c r="O712" s="78"/>
-      <c r="P712" s="78"/>
-      <c r="Q712" s="78"/>
-      <c r="R712" s="78"/>
-      <c r="S712" s="78"/>
-      <c r="T712" s="78"/>
-      <c r="U712" s="78"/>
-      <c r="V712" s="78"/>
-      <c r="W712" s="78"/>
-      <c r="X712" s="78"/>
-      <c r="Y712" s="78"/>
-      <c r="Z712" s="78"/>
-      <c r="AA712" s="78"/>
-      <c r="AB712" s="78"/>
-      <c r="AC712" s="78"/>
-      <c r="AD712" s="78"/>
-      <c r="AE712" s="78"/>
-      <c r="AF712" s="78"/>
-      <c r="AG712" s="78"/>
-      <c r="AH712" s="78"/>
+      <c r="B712" s="81"/>
+      <c r="C712" s="81"/>
+      <c r="D712" s="81"/>
+      <c r="E712" s="81"/>
+      <c r="F712" s="81"/>
+      <c r="G712" s="81"/>
+      <c r="H712" s="81"/>
+      <c r="I712" s="81"/>
+      <c r="J712" s="81"/>
+      <c r="K712" s="81"/>
+      <c r="L712" s="81"/>
+      <c r="M712" s="81"/>
+      <c r="N712" s="81"/>
+      <c r="O712" s="81"/>
+      <c r="P712" s="81"/>
+      <c r="Q712" s="81"/>
+      <c r="R712" s="81"/>
+      <c r="S712" s="81"/>
+      <c r="T712" s="81"/>
+      <c r="U712" s="81"/>
+      <c r="V712" s="81"/>
+      <c r="W712" s="81"/>
+      <c r="X712" s="81"/>
+      <c r="Y712" s="81"/>
+      <c r="Z712" s="81"/>
+      <c r="AA712" s="81"/>
+      <c r="AB712" s="81"/>
+      <c r="AC712" s="81"/>
+      <c r="AD712" s="81"/>
+      <c r="AE712" s="81"/>
+      <c r="AF712" s="81"/>
+      <c r="AG712" s="81"/>
+      <c r="AH712" s="81"/>
     </row>
     <row r="713" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="714" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28453,39 +28514,39 @@
     <row r="885" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="886" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B887" s="78"/>
-      <c r="C887" s="78"/>
-      <c r="D887" s="78"/>
-      <c r="E887" s="78"/>
-      <c r="F887" s="78"/>
-      <c r="G887" s="78"/>
-      <c r="H887" s="78"/>
-      <c r="I887" s="78"/>
-      <c r="J887" s="78"/>
-      <c r="K887" s="78"/>
-      <c r="L887" s="78"/>
-      <c r="M887" s="78"/>
-      <c r="N887" s="78"/>
-      <c r="O887" s="78"/>
-      <c r="P887" s="78"/>
-      <c r="Q887" s="78"/>
-      <c r="R887" s="78"/>
-      <c r="S887" s="78"/>
-      <c r="T887" s="78"/>
-      <c r="U887" s="78"/>
-      <c r="V887" s="78"/>
-      <c r="W887" s="78"/>
-      <c r="X887" s="78"/>
-      <c r="Y887" s="78"/>
-      <c r="Z887" s="78"/>
-      <c r="AA887" s="78"/>
-      <c r="AB887" s="78"/>
-      <c r="AC887" s="78"/>
-      <c r="AD887" s="78"/>
-      <c r="AE887" s="78"/>
-      <c r="AF887" s="78"/>
-      <c r="AG887" s="78"/>
-      <c r="AH887" s="78"/>
+      <c r="B887" s="81"/>
+      <c r="C887" s="81"/>
+      <c r="D887" s="81"/>
+      <c r="E887" s="81"/>
+      <c r="F887" s="81"/>
+      <c r="G887" s="81"/>
+      <c r="H887" s="81"/>
+      <c r="I887" s="81"/>
+      <c r="J887" s="81"/>
+      <c r="K887" s="81"/>
+      <c r="L887" s="81"/>
+      <c r="M887" s="81"/>
+      <c r="N887" s="81"/>
+      <c r="O887" s="81"/>
+      <c r="P887" s="81"/>
+      <c r="Q887" s="81"/>
+      <c r="R887" s="81"/>
+      <c r="S887" s="81"/>
+      <c r="T887" s="81"/>
+      <c r="U887" s="81"/>
+      <c r="V887" s="81"/>
+      <c r="W887" s="81"/>
+      <c r="X887" s="81"/>
+      <c r="Y887" s="81"/>
+      <c r="Z887" s="81"/>
+      <c r="AA887" s="81"/>
+      <c r="AB887" s="81"/>
+      <c r="AC887" s="81"/>
+      <c r="AD887" s="81"/>
+      <c r="AE887" s="81"/>
+      <c r="AF887" s="81"/>
+      <c r="AG887" s="81"/>
+      <c r="AH887" s="81"/>
     </row>
     <row r="888" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="889" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28700,39 +28761,39 @@
     <row r="1098" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1099" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1100" s="78"/>
-      <c r="C1100" s="78"/>
-      <c r="D1100" s="78"/>
-      <c r="E1100" s="78"/>
-      <c r="F1100" s="78"/>
-      <c r="G1100" s="78"/>
-      <c r="H1100" s="78"/>
-      <c r="I1100" s="78"/>
-      <c r="J1100" s="78"/>
-      <c r="K1100" s="78"/>
-      <c r="L1100" s="78"/>
-      <c r="M1100" s="78"/>
-      <c r="N1100" s="78"/>
-      <c r="O1100" s="78"/>
-      <c r="P1100" s="78"/>
-      <c r="Q1100" s="78"/>
-      <c r="R1100" s="78"/>
-      <c r="S1100" s="78"/>
-      <c r="T1100" s="78"/>
-      <c r="U1100" s="78"/>
-      <c r="V1100" s="78"/>
-      <c r="W1100" s="78"/>
-      <c r="X1100" s="78"/>
-      <c r="Y1100" s="78"/>
-      <c r="Z1100" s="78"/>
-      <c r="AA1100" s="78"/>
-      <c r="AB1100" s="78"/>
-      <c r="AC1100" s="78"/>
-      <c r="AD1100" s="78"/>
-      <c r="AE1100" s="78"/>
-      <c r="AF1100" s="78"/>
-      <c r="AG1100" s="78"/>
-      <c r="AH1100" s="78"/>
+      <c r="B1100" s="81"/>
+      <c r="C1100" s="81"/>
+      <c r="D1100" s="81"/>
+      <c r="E1100" s="81"/>
+      <c r="F1100" s="81"/>
+      <c r="G1100" s="81"/>
+      <c r="H1100" s="81"/>
+      <c r="I1100" s="81"/>
+      <c r="J1100" s="81"/>
+      <c r="K1100" s="81"/>
+      <c r="L1100" s="81"/>
+      <c r="M1100" s="81"/>
+      <c r="N1100" s="81"/>
+      <c r="O1100" s="81"/>
+      <c r="P1100" s="81"/>
+      <c r="Q1100" s="81"/>
+      <c r="R1100" s="81"/>
+      <c r="S1100" s="81"/>
+      <c r="T1100" s="81"/>
+      <c r="U1100" s="81"/>
+      <c r="V1100" s="81"/>
+      <c r="W1100" s="81"/>
+      <c r="X1100" s="81"/>
+      <c r="Y1100" s="81"/>
+      <c r="Z1100" s="81"/>
+      <c r="AA1100" s="81"/>
+      <c r="AB1100" s="81"/>
+      <c r="AC1100" s="81"/>
+      <c r="AD1100" s="81"/>
+      <c r="AE1100" s="81"/>
+      <c r="AF1100" s="81"/>
+      <c r="AG1100" s="81"/>
+      <c r="AH1100" s="81"/>
     </row>
     <row r="1101" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1102" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28861,39 +28922,39 @@
     <row r="1225" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1226" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1227" s="78"/>
-      <c r="C1227" s="78"/>
-      <c r="D1227" s="78"/>
-      <c r="E1227" s="78"/>
-      <c r="F1227" s="78"/>
-      <c r="G1227" s="78"/>
-      <c r="H1227" s="78"/>
-      <c r="I1227" s="78"/>
-      <c r="J1227" s="78"/>
-      <c r="K1227" s="78"/>
-      <c r="L1227" s="78"/>
-      <c r="M1227" s="78"/>
-      <c r="N1227" s="78"/>
-      <c r="O1227" s="78"/>
-      <c r="P1227" s="78"/>
-      <c r="Q1227" s="78"/>
-      <c r="R1227" s="78"/>
-      <c r="S1227" s="78"/>
-      <c r="T1227" s="78"/>
-      <c r="U1227" s="78"/>
-      <c r="V1227" s="78"/>
-      <c r="W1227" s="78"/>
-      <c r="X1227" s="78"/>
-      <c r="Y1227" s="78"/>
-      <c r="Z1227" s="78"/>
-      <c r="AA1227" s="78"/>
-      <c r="AB1227" s="78"/>
-      <c r="AC1227" s="78"/>
-      <c r="AD1227" s="78"/>
-      <c r="AE1227" s="78"/>
-      <c r="AF1227" s="78"/>
-      <c r="AG1227" s="78"/>
-      <c r="AH1227" s="78"/>
+      <c r="B1227" s="81"/>
+      <c r="C1227" s="81"/>
+      <c r="D1227" s="81"/>
+      <c r="E1227" s="81"/>
+      <c r="F1227" s="81"/>
+      <c r="G1227" s="81"/>
+      <c r="H1227" s="81"/>
+      <c r="I1227" s="81"/>
+      <c r="J1227" s="81"/>
+      <c r="K1227" s="81"/>
+      <c r="L1227" s="81"/>
+      <c r="M1227" s="81"/>
+      <c r="N1227" s="81"/>
+      <c r="O1227" s="81"/>
+      <c r="P1227" s="81"/>
+      <c r="Q1227" s="81"/>
+      <c r="R1227" s="81"/>
+      <c r="S1227" s="81"/>
+      <c r="T1227" s="81"/>
+      <c r="U1227" s="81"/>
+      <c r="V1227" s="81"/>
+      <c r="W1227" s="81"/>
+      <c r="X1227" s="81"/>
+      <c r="Y1227" s="81"/>
+      <c r="Z1227" s="81"/>
+      <c r="AA1227" s="81"/>
+      <c r="AB1227" s="81"/>
+      <c r="AC1227" s="81"/>
+      <c r="AD1227" s="81"/>
+      <c r="AE1227" s="81"/>
+      <c r="AF1227" s="81"/>
+      <c r="AG1227" s="81"/>
+      <c r="AH1227" s="81"/>
     </row>
     <row r="1228" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1229" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29058,39 +29119,39 @@
     <row r="1388" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1389" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1390" s="78"/>
-      <c r="C1390" s="78"/>
-      <c r="D1390" s="78"/>
-      <c r="E1390" s="78"/>
-      <c r="F1390" s="78"/>
-      <c r="G1390" s="78"/>
-      <c r="H1390" s="78"/>
-      <c r="I1390" s="78"/>
-      <c r="J1390" s="78"/>
-      <c r="K1390" s="78"/>
-      <c r="L1390" s="78"/>
-      <c r="M1390" s="78"/>
-      <c r="N1390" s="78"/>
-      <c r="O1390" s="78"/>
-      <c r="P1390" s="78"/>
-      <c r="Q1390" s="78"/>
-      <c r="R1390" s="78"/>
-      <c r="S1390" s="78"/>
-      <c r="T1390" s="78"/>
-      <c r="U1390" s="78"/>
-      <c r="V1390" s="78"/>
-      <c r="W1390" s="78"/>
-      <c r="X1390" s="78"/>
-      <c r="Y1390" s="78"/>
-      <c r="Z1390" s="78"/>
-      <c r="AA1390" s="78"/>
-      <c r="AB1390" s="78"/>
-      <c r="AC1390" s="78"/>
-      <c r="AD1390" s="78"/>
-      <c r="AE1390" s="78"/>
-      <c r="AF1390" s="78"/>
-      <c r="AG1390" s="78"/>
-      <c r="AH1390" s="78"/>
+      <c r="B1390" s="81"/>
+      <c r="C1390" s="81"/>
+      <c r="D1390" s="81"/>
+      <c r="E1390" s="81"/>
+      <c r="F1390" s="81"/>
+      <c r="G1390" s="81"/>
+      <c r="H1390" s="81"/>
+      <c r="I1390" s="81"/>
+      <c r="J1390" s="81"/>
+      <c r="K1390" s="81"/>
+      <c r="L1390" s="81"/>
+      <c r="M1390" s="81"/>
+      <c r="N1390" s="81"/>
+      <c r="O1390" s="81"/>
+      <c r="P1390" s="81"/>
+      <c r="Q1390" s="81"/>
+      <c r="R1390" s="81"/>
+      <c r="S1390" s="81"/>
+      <c r="T1390" s="81"/>
+      <c r="U1390" s="81"/>
+      <c r="V1390" s="81"/>
+      <c r="W1390" s="81"/>
+      <c r="X1390" s="81"/>
+      <c r="Y1390" s="81"/>
+      <c r="Z1390" s="81"/>
+      <c r="AA1390" s="81"/>
+      <c r="AB1390" s="81"/>
+      <c r="AC1390" s="81"/>
+      <c r="AD1390" s="81"/>
+      <c r="AE1390" s="81"/>
+      <c r="AF1390" s="81"/>
+      <c r="AG1390" s="81"/>
+      <c r="AH1390" s="81"/>
     </row>
     <row r="1391" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1392" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29204,39 +29265,39 @@
     <row r="1500" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1501" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1502" s="78"/>
-      <c r="C1502" s="78"/>
-      <c r="D1502" s="78"/>
-      <c r="E1502" s="78"/>
-      <c r="F1502" s="78"/>
-      <c r="G1502" s="78"/>
-      <c r="H1502" s="78"/>
-      <c r="I1502" s="78"/>
-      <c r="J1502" s="78"/>
-      <c r="K1502" s="78"/>
-      <c r="L1502" s="78"/>
-      <c r="M1502" s="78"/>
-      <c r="N1502" s="78"/>
-      <c r="O1502" s="78"/>
-      <c r="P1502" s="78"/>
-      <c r="Q1502" s="78"/>
-      <c r="R1502" s="78"/>
-      <c r="S1502" s="78"/>
-      <c r="T1502" s="78"/>
-      <c r="U1502" s="78"/>
-      <c r="V1502" s="78"/>
-      <c r="W1502" s="78"/>
-      <c r="X1502" s="78"/>
-      <c r="Y1502" s="78"/>
-      <c r="Z1502" s="78"/>
-      <c r="AA1502" s="78"/>
-      <c r="AB1502" s="78"/>
-      <c r="AC1502" s="78"/>
-      <c r="AD1502" s="78"/>
-      <c r="AE1502" s="78"/>
-      <c r="AF1502" s="78"/>
-      <c r="AG1502" s="78"/>
-      <c r="AH1502" s="78"/>
+      <c r="B1502" s="81"/>
+      <c r="C1502" s="81"/>
+      <c r="D1502" s="81"/>
+      <c r="E1502" s="81"/>
+      <c r="F1502" s="81"/>
+      <c r="G1502" s="81"/>
+      <c r="H1502" s="81"/>
+      <c r="I1502" s="81"/>
+      <c r="J1502" s="81"/>
+      <c r="K1502" s="81"/>
+      <c r="L1502" s="81"/>
+      <c r="M1502" s="81"/>
+      <c r="N1502" s="81"/>
+      <c r="O1502" s="81"/>
+      <c r="P1502" s="81"/>
+      <c r="Q1502" s="81"/>
+      <c r="R1502" s="81"/>
+      <c r="S1502" s="81"/>
+      <c r="T1502" s="81"/>
+      <c r="U1502" s="81"/>
+      <c r="V1502" s="81"/>
+      <c r="W1502" s="81"/>
+      <c r="X1502" s="81"/>
+      <c r="Y1502" s="81"/>
+      <c r="Z1502" s="81"/>
+      <c r="AA1502" s="81"/>
+      <c r="AB1502" s="81"/>
+      <c r="AC1502" s="81"/>
+      <c r="AD1502" s="81"/>
+      <c r="AE1502" s="81"/>
+      <c r="AF1502" s="81"/>
+      <c r="AG1502" s="81"/>
+      <c r="AH1502" s="81"/>
     </row>
     <row r="1503" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1504" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29340,39 +29401,39 @@
     <row r="1602" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1603" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1604" s="78"/>
-      <c r="C1604" s="78"/>
-      <c r="D1604" s="78"/>
-      <c r="E1604" s="78"/>
-      <c r="F1604" s="78"/>
-      <c r="G1604" s="78"/>
-      <c r="H1604" s="78"/>
-      <c r="I1604" s="78"/>
-      <c r="J1604" s="78"/>
-      <c r="K1604" s="78"/>
-      <c r="L1604" s="78"/>
-      <c r="M1604" s="78"/>
-      <c r="N1604" s="78"/>
-      <c r="O1604" s="78"/>
-      <c r="P1604" s="78"/>
-      <c r="Q1604" s="78"/>
-      <c r="R1604" s="78"/>
-      <c r="S1604" s="78"/>
-      <c r="T1604" s="78"/>
-      <c r="U1604" s="78"/>
-      <c r="V1604" s="78"/>
-      <c r="W1604" s="78"/>
-      <c r="X1604" s="78"/>
-      <c r="Y1604" s="78"/>
-      <c r="Z1604" s="78"/>
-      <c r="AA1604" s="78"/>
-      <c r="AB1604" s="78"/>
-      <c r="AC1604" s="78"/>
-      <c r="AD1604" s="78"/>
-      <c r="AE1604" s="78"/>
-      <c r="AF1604" s="78"/>
-      <c r="AG1604" s="78"/>
-      <c r="AH1604" s="78"/>
+      <c r="B1604" s="81"/>
+      <c r="C1604" s="81"/>
+      <c r="D1604" s="81"/>
+      <c r="E1604" s="81"/>
+      <c r="F1604" s="81"/>
+      <c r="G1604" s="81"/>
+      <c r="H1604" s="81"/>
+      <c r="I1604" s="81"/>
+      <c r="J1604" s="81"/>
+      <c r="K1604" s="81"/>
+      <c r="L1604" s="81"/>
+      <c r="M1604" s="81"/>
+      <c r="N1604" s="81"/>
+      <c r="O1604" s="81"/>
+      <c r="P1604" s="81"/>
+      <c r="Q1604" s="81"/>
+      <c r="R1604" s="81"/>
+      <c r="S1604" s="81"/>
+      <c r="T1604" s="81"/>
+      <c r="U1604" s="81"/>
+      <c r="V1604" s="81"/>
+      <c r="W1604" s="81"/>
+      <c r="X1604" s="81"/>
+      <c r="Y1604" s="81"/>
+      <c r="Z1604" s="81"/>
+      <c r="AA1604" s="81"/>
+      <c r="AB1604" s="81"/>
+      <c r="AC1604" s="81"/>
+      <c r="AD1604" s="81"/>
+      <c r="AE1604" s="81"/>
+      <c r="AF1604" s="81"/>
+      <c r="AG1604" s="81"/>
+      <c r="AH1604" s="81"/>
     </row>
     <row r="1605" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1606" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29468,39 +29529,39 @@
     <row r="1696" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1697" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1698" s="78"/>
-      <c r="C1698" s="78"/>
-      <c r="D1698" s="78"/>
-      <c r="E1698" s="78"/>
-      <c r="F1698" s="78"/>
-      <c r="G1698" s="78"/>
-      <c r="H1698" s="78"/>
-      <c r="I1698" s="78"/>
-      <c r="J1698" s="78"/>
-      <c r="K1698" s="78"/>
-      <c r="L1698" s="78"/>
-      <c r="M1698" s="78"/>
-      <c r="N1698" s="78"/>
-      <c r="O1698" s="78"/>
-      <c r="P1698" s="78"/>
-      <c r="Q1698" s="78"/>
-      <c r="R1698" s="78"/>
-      <c r="S1698" s="78"/>
-      <c r="T1698" s="78"/>
-      <c r="U1698" s="78"/>
-      <c r="V1698" s="78"/>
-      <c r="W1698" s="78"/>
-      <c r="X1698" s="78"/>
-      <c r="Y1698" s="78"/>
-      <c r="Z1698" s="78"/>
-      <c r="AA1698" s="78"/>
-      <c r="AB1698" s="78"/>
-      <c r="AC1698" s="78"/>
-      <c r="AD1698" s="78"/>
-      <c r="AE1698" s="78"/>
-      <c r="AF1698" s="78"/>
-      <c r="AG1698" s="78"/>
-      <c r="AH1698" s="78"/>
+      <c r="B1698" s="81"/>
+      <c r="C1698" s="81"/>
+      <c r="D1698" s="81"/>
+      <c r="E1698" s="81"/>
+      <c r="F1698" s="81"/>
+      <c r="G1698" s="81"/>
+      <c r="H1698" s="81"/>
+      <c r="I1698" s="81"/>
+      <c r="J1698" s="81"/>
+      <c r="K1698" s="81"/>
+      <c r="L1698" s="81"/>
+      <c r="M1698" s="81"/>
+      <c r="N1698" s="81"/>
+      <c r="O1698" s="81"/>
+      <c r="P1698" s="81"/>
+      <c r="Q1698" s="81"/>
+      <c r="R1698" s="81"/>
+      <c r="S1698" s="81"/>
+      <c r="T1698" s="81"/>
+      <c r="U1698" s="81"/>
+      <c r="V1698" s="81"/>
+      <c r="W1698" s="81"/>
+      <c r="X1698" s="81"/>
+      <c r="Y1698" s="81"/>
+      <c r="Z1698" s="81"/>
+      <c r="AA1698" s="81"/>
+      <c r="AB1698" s="81"/>
+      <c r="AC1698" s="81"/>
+      <c r="AD1698" s="81"/>
+      <c r="AE1698" s="81"/>
+      <c r="AF1698" s="81"/>
+      <c r="AG1698" s="81"/>
+      <c r="AH1698" s="81"/>
     </row>
     <row r="1699" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1700" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29749,39 +29810,39 @@
     <row r="1943" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1944" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1945" s="78"/>
-      <c r="C1945" s="78"/>
-      <c r="D1945" s="78"/>
-      <c r="E1945" s="78"/>
-      <c r="F1945" s="78"/>
-      <c r="G1945" s="78"/>
-      <c r="H1945" s="78"/>
-      <c r="I1945" s="78"/>
-      <c r="J1945" s="78"/>
-      <c r="K1945" s="78"/>
-      <c r="L1945" s="78"/>
-      <c r="M1945" s="78"/>
-      <c r="N1945" s="78"/>
-      <c r="O1945" s="78"/>
-      <c r="P1945" s="78"/>
-      <c r="Q1945" s="78"/>
-      <c r="R1945" s="78"/>
-      <c r="S1945" s="78"/>
-      <c r="T1945" s="78"/>
-      <c r="U1945" s="78"/>
-      <c r="V1945" s="78"/>
-      <c r="W1945" s="78"/>
-      <c r="X1945" s="78"/>
-      <c r="Y1945" s="78"/>
-      <c r="Z1945" s="78"/>
-      <c r="AA1945" s="78"/>
-      <c r="AB1945" s="78"/>
-      <c r="AC1945" s="78"/>
-      <c r="AD1945" s="78"/>
-      <c r="AE1945" s="78"/>
-      <c r="AF1945" s="78"/>
-      <c r="AG1945" s="78"/>
-      <c r="AH1945" s="78"/>
+      <c r="B1945" s="81"/>
+      <c r="C1945" s="81"/>
+      <c r="D1945" s="81"/>
+      <c r="E1945" s="81"/>
+      <c r="F1945" s="81"/>
+      <c r="G1945" s="81"/>
+      <c r="H1945" s="81"/>
+      <c r="I1945" s="81"/>
+      <c r="J1945" s="81"/>
+      <c r="K1945" s="81"/>
+      <c r="L1945" s="81"/>
+      <c r="M1945" s="81"/>
+      <c r="N1945" s="81"/>
+      <c r="O1945" s="81"/>
+      <c r="P1945" s="81"/>
+      <c r="Q1945" s="81"/>
+      <c r="R1945" s="81"/>
+      <c r="S1945" s="81"/>
+      <c r="T1945" s="81"/>
+      <c r="U1945" s="81"/>
+      <c r="V1945" s="81"/>
+      <c r="W1945" s="81"/>
+      <c r="X1945" s="81"/>
+      <c r="Y1945" s="81"/>
+      <c r="Z1945" s="81"/>
+      <c r="AA1945" s="81"/>
+      <c r="AB1945" s="81"/>
+      <c r="AC1945" s="81"/>
+      <c r="AD1945" s="81"/>
+      <c r="AE1945" s="81"/>
+      <c r="AF1945" s="81"/>
+      <c r="AG1945" s="81"/>
+      <c r="AH1945" s="81"/>
     </row>
     <row r="1946" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1947" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29869,39 +29930,39 @@
     <row r="2029" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2030" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2031" s="78"/>
-      <c r="C2031" s="78"/>
-      <c r="D2031" s="78"/>
-      <c r="E2031" s="78"/>
-      <c r="F2031" s="78"/>
-      <c r="G2031" s="78"/>
-      <c r="H2031" s="78"/>
-      <c r="I2031" s="78"/>
-      <c r="J2031" s="78"/>
-      <c r="K2031" s="78"/>
-      <c r="L2031" s="78"/>
-      <c r="M2031" s="78"/>
-      <c r="N2031" s="78"/>
-      <c r="O2031" s="78"/>
-      <c r="P2031" s="78"/>
-      <c r="Q2031" s="78"/>
-      <c r="R2031" s="78"/>
-      <c r="S2031" s="78"/>
-      <c r="T2031" s="78"/>
-      <c r="U2031" s="78"/>
-      <c r="V2031" s="78"/>
-      <c r="W2031" s="78"/>
-      <c r="X2031" s="78"/>
-      <c r="Y2031" s="78"/>
-      <c r="Z2031" s="78"/>
-      <c r="AA2031" s="78"/>
-      <c r="AB2031" s="78"/>
-      <c r="AC2031" s="78"/>
-      <c r="AD2031" s="78"/>
-      <c r="AE2031" s="78"/>
-      <c r="AF2031" s="78"/>
-      <c r="AG2031" s="78"/>
-      <c r="AH2031" s="78"/>
+      <c r="B2031" s="81"/>
+      <c r="C2031" s="81"/>
+      <c r="D2031" s="81"/>
+      <c r="E2031" s="81"/>
+      <c r="F2031" s="81"/>
+      <c r="G2031" s="81"/>
+      <c r="H2031" s="81"/>
+      <c r="I2031" s="81"/>
+      <c r="J2031" s="81"/>
+      <c r="K2031" s="81"/>
+      <c r="L2031" s="81"/>
+      <c r="M2031" s="81"/>
+      <c r="N2031" s="81"/>
+      <c r="O2031" s="81"/>
+      <c r="P2031" s="81"/>
+      <c r="Q2031" s="81"/>
+      <c r="R2031" s="81"/>
+      <c r="S2031" s="81"/>
+      <c r="T2031" s="81"/>
+      <c r="U2031" s="81"/>
+      <c r="V2031" s="81"/>
+      <c r="W2031" s="81"/>
+      <c r="X2031" s="81"/>
+      <c r="Y2031" s="81"/>
+      <c r="Z2031" s="81"/>
+      <c r="AA2031" s="81"/>
+      <c r="AB2031" s="81"/>
+      <c r="AC2031" s="81"/>
+      <c r="AD2031" s="81"/>
+      <c r="AE2031" s="81"/>
+      <c r="AF2031" s="81"/>
+      <c r="AG2031" s="81"/>
+      <c r="AH2031" s="81"/>
     </row>
     <row r="2032" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2033" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30025,39 +30086,39 @@
     <row r="2151" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2152" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2153" s="78"/>
-      <c r="C2153" s="78"/>
-      <c r="D2153" s="78"/>
-      <c r="E2153" s="78"/>
-      <c r="F2153" s="78"/>
-      <c r="G2153" s="78"/>
-      <c r="H2153" s="78"/>
-      <c r="I2153" s="78"/>
-      <c r="J2153" s="78"/>
-      <c r="K2153" s="78"/>
-      <c r="L2153" s="78"/>
-      <c r="M2153" s="78"/>
-      <c r="N2153" s="78"/>
-      <c r="O2153" s="78"/>
-      <c r="P2153" s="78"/>
-      <c r="Q2153" s="78"/>
-      <c r="R2153" s="78"/>
-      <c r="S2153" s="78"/>
-      <c r="T2153" s="78"/>
-      <c r="U2153" s="78"/>
-      <c r="V2153" s="78"/>
-      <c r="W2153" s="78"/>
-      <c r="X2153" s="78"/>
-      <c r="Y2153" s="78"/>
-      <c r="Z2153" s="78"/>
-      <c r="AA2153" s="78"/>
-      <c r="AB2153" s="78"/>
-      <c r="AC2153" s="78"/>
-      <c r="AD2153" s="78"/>
-      <c r="AE2153" s="78"/>
-      <c r="AF2153" s="78"/>
-      <c r="AG2153" s="78"/>
-      <c r="AH2153" s="78"/>
+      <c r="B2153" s="81"/>
+      <c r="C2153" s="81"/>
+      <c r="D2153" s="81"/>
+      <c r="E2153" s="81"/>
+      <c r="F2153" s="81"/>
+      <c r="G2153" s="81"/>
+      <c r="H2153" s="81"/>
+      <c r="I2153" s="81"/>
+      <c r="J2153" s="81"/>
+      <c r="K2153" s="81"/>
+      <c r="L2153" s="81"/>
+      <c r="M2153" s="81"/>
+      <c r="N2153" s="81"/>
+      <c r="O2153" s="81"/>
+      <c r="P2153" s="81"/>
+      <c r="Q2153" s="81"/>
+      <c r="R2153" s="81"/>
+      <c r="S2153" s="81"/>
+      <c r="T2153" s="81"/>
+      <c r="U2153" s="81"/>
+      <c r="V2153" s="81"/>
+      <c r="W2153" s="81"/>
+      <c r="X2153" s="81"/>
+      <c r="Y2153" s="81"/>
+      <c r="Z2153" s="81"/>
+      <c r="AA2153" s="81"/>
+      <c r="AB2153" s="81"/>
+      <c r="AC2153" s="81"/>
+      <c r="AD2153" s="81"/>
+      <c r="AE2153" s="81"/>
+      <c r="AF2153" s="81"/>
+      <c r="AG2153" s="81"/>
+      <c r="AH2153" s="81"/>
     </row>
     <row r="2154" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2155" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30223,39 +30284,39 @@
     <row r="2315" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2316" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2317" s="78"/>
-      <c r="C2317" s="78"/>
-      <c r="D2317" s="78"/>
-      <c r="E2317" s="78"/>
-      <c r="F2317" s="78"/>
-      <c r="G2317" s="78"/>
-      <c r="H2317" s="78"/>
-      <c r="I2317" s="78"/>
-      <c r="J2317" s="78"/>
-      <c r="K2317" s="78"/>
-      <c r="L2317" s="78"/>
-      <c r="M2317" s="78"/>
-      <c r="N2317" s="78"/>
-      <c r="O2317" s="78"/>
-      <c r="P2317" s="78"/>
-      <c r="Q2317" s="78"/>
-      <c r="R2317" s="78"/>
-      <c r="S2317" s="78"/>
-      <c r="T2317" s="78"/>
-      <c r="U2317" s="78"/>
-      <c r="V2317" s="78"/>
-      <c r="W2317" s="78"/>
-      <c r="X2317" s="78"/>
-      <c r="Y2317" s="78"/>
-      <c r="Z2317" s="78"/>
-      <c r="AA2317" s="78"/>
-      <c r="AB2317" s="78"/>
-      <c r="AC2317" s="78"/>
-      <c r="AD2317" s="78"/>
-      <c r="AE2317" s="78"/>
-      <c r="AF2317" s="78"/>
-      <c r="AG2317" s="78"/>
-      <c r="AH2317" s="78"/>
+      <c r="B2317" s="81"/>
+      <c r="C2317" s="81"/>
+      <c r="D2317" s="81"/>
+      <c r="E2317" s="81"/>
+      <c r="F2317" s="81"/>
+      <c r="G2317" s="81"/>
+      <c r="H2317" s="81"/>
+      <c r="I2317" s="81"/>
+      <c r="J2317" s="81"/>
+      <c r="K2317" s="81"/>
+      <c r="L2317" s="81"/>
+      <c r="M2317" s="81"/>
+      <c r="N2317" s="81"/>
+      <c r="O2317" s="81"/>
+      <c r="P2317" s="81"/>
+      <c r="Q2317" s="81"/>
+      <c r="R2317" s="81"/>
+      <c r="S2317" s="81"/>
+      <c r="T2317" s="81"/>
+      <c r="U2317" s="81"/>
+      <c r="V2317" s="81"/>
+      <c r="W2317" s="81"/>
+      <c r="X2317" s="81"/>
+      <c r="Y2317" s="81"/>
+      <c r="Z2317" s="81"/>
+      <c r="AA2317" s="81"/>
+      <c r="AB2317" s="81"/>
+      <c r="AC2317" s="81"/>
+      <c r="AD2317" s="81"/>
+      <c r="AE2317" s="81"/>
+      <c r="AF2317" s="81"/>
+      <c r="AG2317" s="81"/>
+      <c r="AH2317" s="81"/>
     </row>
     <row r="2318" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2319" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30359,39 +30420,39 @@
     <row r="2417" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2418" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2419" s="78"/>
-      <c r="C2419" s="78"/>
-      <c r="D2419" s="78"/>
-      <c r="E2419" s="78"/>
-      <c r="F2419" s="78"/>
-      <c r="G2419" s="78"/>
-      <c r="H2419" s="78"/>
-      <c r="I2419" s="78"/>
-      <c r="J2419" s="78"/>
-      <c r="K2419" s="78"/>
-      <c r="L2419" s="78"/>
-      <c r="M2419" s="78"/>
-      <c r="N2419" s="78"/>
-      <c r="O2419" s="78"/>
-      <c r="P2419" s="78"/>
-      <c r="Q2419" s="78"/>
-      <c r="R2419" s="78"/>
-      <c r="S2419" s="78"/>
-      <c r="T2419" s="78"/>
-      <c r="U2419" s="78"/>
-      <c r="V2419" s="78"/>
-      <c r="W2419" s="78"/>
-      <c r="X2419" s="78"/>
-      <c r="Y2419" s="78"/>
-      <c r="Z2419" s="78"/>
-      <c r="AA2419" s="78"/>
-      <c r="AB2419" s="78"/>
-      <c r="AC2419" s="78"/>
-      <c r="AD2419" s="78"/>
-      <c r="AE2419" s="78"/>
-      <c r="AF2419" s="78"/>
-      <c r="AG2419" s="78"/>
-      <c r="AH2419" s="78"/>
+      <c r="B2419" s="81"/>
+      <c r="C2419" s="81"/>
+      <c r="D2419" s="81"/>
+      <c r="E2419" s="81"/>
+      <c r="F2419" s="81"/>
+      <c r="G2419" s="81"/>
+      <c r="H2419" s="81"/>
+      <c r="I2419" s="81"/>
+      <c r="J2419" s="81"/>
+      <c r="K2419" s="81"/>
+      <c r="L2419" s="81"/>
+      <c r="M2419" s="81"/>
+      <c r="N2419" s="81"/>
+      <c r="O2419" s="81"/>
+      <c r="P2419" s="81"/>
+      <c r="Q2419" s="81"/>
+      <c r="R2419" s="81"/>
+      <c r="S2419" s="81"/>
+      <c r="T2419" s="81"/>
+      <c r="U2419" s="81"/>
+      <c r="V2419" s="81"/>
+      <c r="W2419" s="81"/>
+      <c r="X2419" s="81"/>
+      <c r="Y2419" s="81"/>
+      <c r="Z2419" s="81"/>
+      <c r="AA2419" s="81"/>
+      <c r="AB2419" s="81"/>
+      <c r="AC2419" s="81"/>
+      <c r="AD2419" s="81"/>
+      <c r="AE2419" s="81"/>
+      <c r="AF2419" s="81"/>
+      <c r="AG2419" s="81"/>
+      <c r="AH2419" s="81"/>
     </row>
     <row r="2420" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2421" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30483,39 +30544,39 @@
     <row r="2507" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2508" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2509" s="78"/>
-      <c r="C2509" s="78"/>
-      <c r="D2509" s="78"/>
-      <c r="E2509" s="78"/>
-      <c r="F2509" s="78"/>
-      <c r="G2509" s="78"/>
-      <c r="H2509" s="78"/>
-      <c r="I2509" s="78"/>
-      <c r="J2509" s="78"/>
-      <c r="K2509" s="78"/>
-      <c r="L2509" s="78"/>
-      <c r="M2509" s="78"/>
-      <c r="N2509" s="78"/>
-      <c r="O2509" s="78"/>
-      <c r="P2509" s="78"/>
-      <c r="Q2509" s="78"/>
-      <c r="R2509" s="78"/>
-      <c r="S2509" s="78"/>
-      <c r="T2509" s="78"/>
-      <c r="U2509" s="78"/>
-      <c r="V2509" s="78"/>
-      <c r="W2509" s="78"/>
-      <c r="X2509" s="78"/>
-      <c r="Y2509" s="78"/>
-      <c r="Z2509" s="78"/>
-      <c r="AA2509" s="78"/>
-      <c r="AB2509" s="78"/>
-      <c r="AC2509" s="78"/>
-      <c r="AD2509" s="78"/>
-      <c r="AE2509" s="78"/>
-      <c r="AF2509" s="78"/>
-      <c r="AG2509" s="78"/>
-      <c r="AH2509" s="78"/>
+      <c r="B2509" s="81"/>
+      <c r="C2509" s="81"/>
+      <c r="D2509" s="81"/>
+      <c r="E2509" s="81"/>
+      <c r="F2509" s="81"/>
+      <c r="G2509" s="81"/>
+      <c r="H2509" s="81"/>
+      <c r="I2509" s="81"/>
+      <c r="J2509" s="81"/>
+      <c r="K2509" s="81"/>
+      <c r="L2509" s="81"/>
+      <c r="M2509" s="81"/>
+      <c r="N2509" s="81"/>
+      <c r="O2509" s="81"/>
+      <c r="P2509" s="81"/>
+      <c r="Q2509" s="81"/>
+      <c r="R2509" s="81"/>
+      <c r="S2509" s="81"/>
+      <c r="T2509" s="81"/>
+      <c r="U2509" s="81"/>
+      <c r="V2509" s="81"/>
+      <c r="W2509" s="81"/>
+      <c r="X2509" s="81"/>
+      <c r="Y2509" s="81"/>
+      <c r="Z2509" s="81"/>
+      <c r="AA2509" s="81"/>
+      <c r="AB2509" s="81"/>
+      <c r="AC2509" s="81"/>
+      <c r="AD2509" s="81"/>
+      <c r="AE2509" s="81"/>
+      <c r="AF2509" s="81"/>
+      <c r="AG2509" s="81"/>
+      <c r="AH2509" s="81"/>
     </row>
     <row r="2510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30606,39 +30667,39 @@
     <row r="2596" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2597" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2598" s="78"/>
-      <c r="C2598" s="78"/>
-      <c r="D2598" s="78"/>
-      <c r="E2598" s="78"/>
-      <c r="F2598" s="78"/>
-      <c r="G2598" s="78"/>
-      <c r="H2598" s="78"/>
-      <c r="I2598" s="78"/>
-      <c r="J2598" s="78"/>
-      <c r="K2598" s="78"/>
-      <c r="L2598" s="78"/>
-      <c r="M2598" s="78"/>
-      <c r="N2598" s="78"/>
-      <c r="O2598" s="78"/>
-      <c r="P2598" s="78"/>
-      <c r="Q2598" s="78"/>
-      <c r="R2598" s="78"/>
-      <c r="S2598" s="78"/>
-      <c r="T2598" s="78"/>
-      <c r="U2598" s="78"/>
-      <c r="V2598" s="78"/>
-      <c r="W2598" s="78"/>
-      <c r="X2598" s="78"/>
-      <c r="Y2598" s="78"/>
-      <c r="Z2598" s="78"/>
-      <c r="AA2598" s="78"/>
-      <c r="AB2598" s="78"/>
-      <c r="AC2598" s="78"/>
-      <c r="AD2598" s="78"/>
-      <c r="AE2598" s="78"/>
-      <c r="AF2598" s="78"/>
-      <c r="AG2598" s="78"/>
-      <c r="AH2598" s="78"/>
+      <c r="B2598" s="81"/>
+      <c r="C2598" s="81"/>
+      <c r="D2598" s="81"/>
+      <c r="E2598" s="81"/>
+      <c r="F2598" s="81"/>
+      <c r="G2598" s="81"/>
+      <c r="H2598" s="81"/>
+      <c r="I2598" s="81"/>
+      <c r="J2598" s="81"/>
+      <c r="K2598" s="81"/>
+      <c r="L2598" s="81"/>
+      <c r="M2598" s="81"/>
+      <c r="N2598" s="81"/>
+      <c r="O2598" s="81"/>
+      <c r="P2598" s="81"/>
+      <c r="Q2598" s="81"/>
+      <c r="R2598" s="81"/>
+      <c r="S2598" s="81"/>
+      <c r="T2598" s="81"/>
+      <c r="U2598" s="81"/>
+      <c r="V2598" s="81"/>
+      <c r="W2598" s="81"/>
+      <c r="X2598" s="81"/>
+      <c r="Y2598" s="81"/>
+      <c r="Z2598" s="81"/>
+      <c r="AA2598" s="81"/>
+      <c r="AB2598" s="81"/>
+      <c r="AC2598" s="81"/>
+      <c r="AD2598" s="81"/>
+      <c r="AE2598" s="81"/>
+      <c r="AF2598" s="81"/>
+      <c r="AG2598" s="81"/>
+      <c r="AH2598" s="81"/>
     </row>
     <row r="2599" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2600" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30761,39 +30822,39 @@
     <row r="2717" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2718" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2719" s="78"/>
-      <c r="C2719" s="78"/>
-      <c r="D2719" s="78"/>
-      <c r="E2719" s="78"/>
-      <c r="F2719" s="78"/>
-      <c r="G2719" s="78"/>
-      <c r="H2719" s="78"/>
-      <c r="I2719" s="78"/>
-      <c r="J2719" s="78"/>
-      <c r="K2719" s="78"/>
-      <c r="L2719" s="78"/>
-      <c r="M2719" s="78"/>
-      <c r="N2719" s="78"/>
-      <c r="O2719" s="78"/>
-      <c r="P2719" s="78"/>
-      <c r="Q2719" s="78"/>
-      <c r="R2719" s="78"/>
-      <c r="S2719" s="78"/>
-      <c r="T2719" s="78"/>
-      <c r="U2719" s="78"/>
-      <c r="V2719" s="78"/>
-      <c r="W2719" s="78"/>
-      <c r="X2719" s="78"/>
-      <c r="Y2719" s="78"/>
-      <c r="Z2719" s="78"/>
-      <c r="AA2719" s="78"/>
-      <c r="AB2719" s="78"/>
-      <c r="AC2719" s="78"/>
-      <c r="AD2719" s="78"/>
-      <c r="AE2719" s="78"/>
-      <c r="AF2719" s="78"/>
-      <c r="AG2719" s="78"/>
-      <c r="AH2719" s="78"/>
+      <c r="B2719" s="81"/>
+      <c r="C2719" s="81"/>
+      <c r="D2719" s="81"/>
+      <c r="E2719" s="81"/>
+      <c r="F2719" s="81"/>
+      <c r="G2719" s="81"/>
+      <c r="H2719" s="81"/>
+      <c r="I2719" s="81"/>
+      <c r="J2719" s="81"/>
+      <c r="K2719" s="81"/>
+      <c r="L2719" s="81"/>
+      <c r="M2719" s="81"/>
+      <c r="N2719" s="81"/>
+      <c r="O2719" s="81"/>
+      <c r="P2719" s="81"/>
+      <c r="Q2719" s="81"/>
+      <c r="R2719" s="81"/>
+      <c r="S2719" s="81"/>
+      <c r="T2719" s="81"/>
+      <c r="U2719" s="81"/>
+      <c r="V2719" s="81"/>
+      <c r="W2719" s="81"/>
+      <c r="X2719" s="81"/>
+      <c r="Y2719" s="81"/>
+      <c r="Z2719" s="81"/>
+      <c r="AA2719" s="81"/>
+      <c r="AB2719" s="81"/>
+      <c r="AC2719" s="81"/>
+      <c r="AD2719" s="81"/>
+      <c r="AE2719" s="81"/>
+      <c r="AF2719" s="81"/>
+      <c r="AG2719" s="81"/>
+      <c r="AH2719" s="81"/>
     </row>
     <row r="2720" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2721" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30913,63 +30974,63 @@
     <row r="2835" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2836" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2837" s="78"/>
-      <c r="C2837" s="78"/>
-      <c r="D2837" s="78"/>
-      <c r="E2837" s="78"/>
-      <c r="F2837" s="78"/>
-      <c r="G2837" s="78"/>
-      <c r="H2837" s="78"/>
-      <c r="I2837" s="78"/>
-      <c r="J2837" s="78"/>
-      <c r="K2837" s="78"/>
-      <c r="L2837" s="78"/>
-      <c r="M2837" s="78"/>
-      <c r="N2837" s="78"/>
-      <c r="O2837" s="78"/>
-      <c r="P2837" s="78"/>
-      <c r="Q2837" s="78"/>
-      <c r="R2837" s="78"/>
-      <c r="S2837" s="78"/>
-      <c r="T2837" s="78"/>
-      <c r="U2837" s="78"/>
-      <c r="V2837" s="78"/>
-      <c r="W2837" s="78"/>
-      <c r="X2837" s="78"/>
-      <c r="Y2837" s="78"/>
-      <c r="Z2837" s="78"/>
-      <c r="AA2837" s="78"/>
-      <c r="AB2837" s="78"/>
-      <c r="AC2837" s="78"/>
-      <c r="AD2837" s="78"/>
-      <c r="AE2837" s="78"/>
-      <c r="AF2837" s="78"/>
-      <c r="AG2837" s="78"/>
-      <c r="AH2837" s="78"/>
+      <c r="B2837" s="81"/>
+      <c r="C2837" s="81"/>
+      <c r="D2837" s="81"/>
+      <c r="E2837" s="81"/>
+      <c r="F2837" s="81"/>
+      <c r="G2837" s="81"/>
+      <c r="H2837" s="81"/>
+      <c r="I2837" s="81"/>
+      <c r="J2837" s="81"/>
+      <c r="K2837" s="81"/>
+      <c r="L2837" s="81"/>
+      <c r="M2837" s="81"/>
+      <c r="N2837" s="81"/>
+      <c r="O2837" s="81"/>
+      <c r="P2837" s="81"/>
+      <c r="Q2837" s="81"/>
+      <c r="R2837" s="81"/>
+      <c r="S2837" s="81"/>
+      <c r="T2837" s="81"/>
+      <c r="U2837" s="81"/>
+      <c r="V2837" s="81"/>
+      <c r="W2837" s="81"/>
+      <c r="X2837" s="81"/>
+      <c r="Y2837" s="81"/>
+      <c r="Z2837" s="81"/>
+      <c r="AA2837" s="81"/>
+      <c r="AB2837" s="81"/>
+      <c r="AC2837" s="81"/>
+      <c r="AD2837" s="81"/>
+      <c r="AE2837" s="81"/>
+      <c r="AF2837" s="81"/>
+      <c r="AG2837" s="81"/>
+      <c r="AH2837" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B100:AG100"/>
-    <mergeCell ref="B112:AH112"/>
-    <mergeCell ref="B308:AH308"/>
-    <mergeCell ref="B511:AH511"/>
-    <mergeCell ref="B712:AH712"/>
-    <mergeCell ref="B887:AH887"/>
-    <mergeCell ref="B1100:AH1100"/>
-    <mergeCell ref="B1227:AH1227"/>
-    <mergeCell ref="B1390:AH1390"/>
-    <mergeCell ref="B1502:AH1502"/>
-    <mergeCell ref="B1604:AH1604"/>
-    <mergeCell ref="B1698:AH1698"/>
-    <mergeCell ref="B1945:AH1945"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2719:AH2719"/>
     <mergeCell ref="B2837:AH2837"/>
     <mergeCell ref="B2153:AH2153"/>
     <mergeCell ref="B2317:AH2317"/>
     <mergeCell ref="B2419:AH2419"/>
     <mergeCell ref="B2509:AH2509"/>
     <mergeCell ref="B2598:AH2598"/>
+    <mergeCell ref="B1604:AH1604"/>
+    <mergeCell ref="B1698:AH1698"/>
+    <mergeCell ref="B1945:AH1945"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2719:AH2719"/>
+    <mergeCell ref="B887:AH887"/>
+    <mergeCell ref="B1100:AH1100"/>
+    <mergeCell ref="B1227:AH1227"/>
+    <mergeCell ref="B1390:AH1390"/>
+    <mergeCell ref="B1502:AH1502"/>
+    <mergeCell ref="B100:AG100"/>
+    <mergeCell ref="B112:AH112"/>
+    <mergeCell ref="B308:AH308"/>
+    <mergeCell ref="B511:AH511"/>
+    <mergeCell ref="B712:AH712"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37234,39 +37295,39 @@
       </c>
     </row>
     <row r="112" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="78"/>
-      <c r="C112" s="78"/>
-      <c r="D112" s="78"/>
-      <c r="E112" s="78"/>
-      <c r="F112" s="78"/>
-      <c r="G112" s="78"/>
-      <c r="H112" s="78"/>
-      <c r="I112" s="78"/>
-      <c r="J112" s="78"/>
-      <c r="K112" s="78"/>
-      <c r="L112" s="78"/>
-      <c r="M112" s="78"/>
-      <c r="N112" s="78"/>
-      <c r="O112" s="78"/>
-      <c r="P112" s="78"/>
-      <c r="Q112" s="78"/>
-      <c r="R112" s="78"/>
-      <c r="S112" s="78"/>
-      <c r="T112" s="78"/>
-      <c r="U112" s="78"/>
-      <c r="V112" s="78"/>
-      <c r="W112" s="78"/>
-      <c r="X112" s="78"/>
-      <c r="Y112" s="78"/>
-      <c r="Z112" s="78"/>
-      <c r="AA112" s="78"/>
-      <c r="AB112" s="78"/>
-      <c r="AC112" s="78"/>
-      <c r="AD112" s="78"/>
-      <c r="AE112" s="78"/>
-      <c r="AF112" s="78"/>
-      <c r="AG112" s="78"/>
-      <c r="AH112" s="78"/>
+      <c r="B112" s="81"/>
+      <c r="C112" s="81"/>
+      <c r="D112" s="81"/>
+      <c r="E112" s="81"/>
+      <c r="F112" s="81"/>
+      <c r="G112" s="81"/>
+      <c r="H112" s="81"/>
+      <c r="I112" s="81"/>
+      <c r="J112" s="81"/>
+      <c r="K112" s="81"/>
+      <c r="L112" s="81"/>
+      <c r="M112" s="81"/>
+      <c r="N112" s="81"/>
+      <c r="O112" s="81"/>
+      <c r="P112" s="81"/>
+      <c r="Q112" s="81"/>
+      <c r="R112" s="81"/>
+      <c r="S112" s="81"/>
+      <c r="T112" s="81"/>
+      <c r="U112" s="81"/>
+      <c r="V112" s="81"/>
+      <c r="W112" s="81"/>
+      <c r="X112" s="81"/>
+      <c r="Y112" s="81"/>
+      <c r="Z112" s="81"/>
+      <c r="AA112" s="81"/>
+      <c r="AB112" s="81"/>
+      <c r="AC112" s="81"/>
+      <c r="AD112" s="81"/>
+      <c r="AE112" s="81"/>
+      <c r="AF112" s="81"/>
+      <c r="AG112" s="81"/>
+      <c r="AH112" s="81"/>
     </row>
     <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37449,39 +37510,39 @@
     <row r="306" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="307" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="78"/>
-      <c r="C308" s="78"/>
-      <c r="D308" s="78"/>
-      <c r="E308" s="78"/>
-      <c r="F308" s="78"/>
-      <c r="G308" s="78"/>
-      <c r="H308" s="78"/>
-      <c r="I308" s="78"/>
-      <c r="J308" s="78"/>
-      <c r="K308" s="78"/>
-      <c r="L308" s="78"/>
-      <c r="M308" s="78"/>
-      <c r="N308" s="78"/>
-      <c r="O308" s="78"/>
-      <c r="P308" s="78"/>
-      <c r="Q308" s="78"/>
-      <c r="R308" s="78"/>
-      <c r="S308" s="78"/>
-      <c r="T308" s="78"/>
-      <c r="U308" s="78"/>
-      <c r="V308" s="78"/>
-      <c r="W308" s="78"/>
-      <c r="X308" s="78"/>
-      <c r="Y308" s="78"/>
-      <c r="Z308" s="78"/>
-      <c r="AA308" s="78"/>
-      <c r="AB308" s="78"/>
-      <c r="AC308" s="78"/>
-      <c r="AD308" s="78"/>
-      <c r="AE308" s="78"/>
-      <c r="AF308" s="78"/>
-      <c r="AG308" s="78"/>
-      <c r="AH308" s="78"/>
+      <c r="B308" s="81"/>
+      <c r="C308" s="81"/>
+      <c r="D308" s="81"/>
+      <c r="E308" s="81"/>
+      <c r="F308" s="81"/>
+      <c r="G308" s="81"/>
+      <c r="H308" s="81"/>
+      <c r="I308" s="81"/>
+      <c r="J308" s="81"/>
+      <c r="K308" s="81"/>
+      <c r="L308" s="81"/>
+      <c r="M308" s="81"/>
+      <c r="N308" s="81"/>
+      <c r="O308" s="81"/>
+      <c r="P308" s="81"/>
+      <c r="Q308" s="81"/>
+      <c r="R308" s="81"/>
+      <c r="S308" s="81"/>
+      <c r="T308" s="81"/>
+      <c r="U308" s="81"/>
+      <c r="V308" s="81"/>
+      <c r="W308" s="81"/>
+      <c r="X308" s="81"/>
+      <c r="Y308" s="81"/>
+      <c r="Z308" s="81"/>
+      <c r="AA308" s="81"/>
+      <c r="AB308" s="81"/>
+      <c r="AC308" s="81"/>
+      <c r="AD308" s="81"/>
+      <c r="AE308" s="81"/>
+      <c r="AF308" s="81"/>
+      <c r="AG308" s="81"/>
+      <c r="AH308" s="81"/>
     </row>
     <row r="309" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="310" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37686,39 +37747,39 @@
     <row r="509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="78"/>
-      <c r="C511" s="78"/>
-      <c r="D511" s="78"/>
-      <c r="E511" s="78"/>
-      <c r="F511" s="78"/>
-      <c r="G511" s="78"/>
-      <c r="H511" s="78"/>
-      <c r="I511" s="78"/>
-      <c r="J511" s="78"/>
-      <c r="K511" s="78"/>
-      <c r="L511" s="78"/>
-      <c r="M511" s="78"/>
-      <c r="N511" s="78"/>
-      <c r="O511" s="78"/>
-      <c r="P511" s="78"/>
-      <c r="Q511" s="78"/>
-      <c r="R511" s="78"/>
-      <c r="S511" s="78"/>
-      <c r="T511" s="78"/>
-      <c r="U511" s="78"/>
-      <c r="V511" s="78"/>
-      <c r="W511" s="78"/>
-      <c r="X511" s="78"/>
-      <c r="Y511" s="78"/>
-      <c r="Z511" s="78"/>
-      <c r="AA511" s="78"/>
-      <c r="AB511" s="78"/>
-      <c r="AC511" s="78"/>
-      <c r="AD511" s="78"/>
-      <c r="AE511" s="78"/>
-      <c r="AF511" s="78"/>
-      <c r="AG511" s="78"/>
-      <c r="AH511" s="78"/>
+      <c r="B511" s="81"/>
+      <c r="C511" s="81"/>
+      <c r="D511" s="81"/>
+      <c r="E511" s="81"/>
+      <c r="F511" s="81"/>
+      <c r="G511" s="81"/>
+      <c r="H511" s="81"/>
+      <c r="I511" s="81"/>
+      <c r="J511" s="81"/>
+      <c r="K511" s="81"/>
+      <c r="L511" s="81"/>
+      <c r="M511" s="81"/>
+      <c r="N511" s="81"/>
+      <c r="O511" s="81"/>
+      <c r="P511" s="81"/>
+      <c r="Q511" s="81"/>
+      <c r="R511" s="81"/>
+      <c r="S511" s="81"/>
+      <c r="T511" s="81"/>
+      <c r="U511" s="81"/>
+      <c r="V511" s="81"/>
+      <c r="W511" s="81"/>
+      <c r="X511" s="81"/>
+      <c r="Y511" s="81"/>
+      <c r="Z511" s="81"/>
+      <c r="AA511" s="81"/>
+      <c r="AB511" s="81"/>
+      <c r="AC511" s="81"/>
+      <c r="AD511" s="81"/>
+      <c r="AE511" s="81"/>
+      <c r="AF511" s="81"/>
+      <c r="AG511" s="81"/>
+      <c r="AH511" s="81"/>
     </row>
     <row r="512" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="513" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37921,39 +37982,39 @@
     <row r="710" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="711" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B712" s="78"/>
-      <c r="C712" s="78"/>
-      <c r="D712" s="78"/>
-      <c r="E712" s="78"/>
-      <c r="F712" s="78"/>
-      <c r="G712" s="78"/>
-      <c r="H712" s="78"/>
-      <c r="I712" s="78"/>
-      <c r="J712" s="78"/>
-      <c r="K712" s="78"/>
-      <c r="L712" s="78"/>
-      <c r="M712" s="78"/>
-      <c r="N712" s="78"/>
-      <c r="O712" s="78"/>
-      <c r="P712" s="78"/>
-      <c r="Q712" s="78"/>
-      <c r="R712" s="78"/>
-      <c r="S712" s="78"/>
-      <c r="T712" s="78"/>
-      <c r="U712" s="78"/>
-      <c r="V712" s="78"/>
-      <c r="W712" s="78"/>
-      <c r="X712" s="78"/>
-      <c r="Y712" s="78"/>
-      <c r="Z712" s="78"/>
-      <c r="AA712" s="78"/>
-      <c r="AB712" s="78"/>
-      <c r="AC712" s="78"/>
-      <c r="AD712" s="78"/>
-      <c r="AE712" s="78"/>
-      <c r="AF712" s="78"/>
-      <c r="AG712" s="78"/>
-      <c r="AH712" s="78"/>
+      <c r="B712" s="81"/>
+      <c r="C712" s="81"/>
+      <c r="D712" s="81"/>
+      <c r="E712" s="81"/>
+      <c r="F712" s="81"/>
+      <c r="G712" s="81"/>
+      <c r="H712" s="81"/>
+      <c r="I712" s="81"/>
+      <c r="J712" s="81"/>
+      <c r="K712" s="81"/>
+      <c r="L712" s="81"/>
+      <c r="M712" s="81"/>
+      <c r="N712" s="81"/>
+      <c r="O712" s="81"/>
+      <c r="P712" s="81"/>
+      <c r="Q712" s="81"/>
+      <c r="R712" s="81"/>
+      <c r="S712" s="81"/>
+      <c r="T712" s="81"/>
+      <c r="U712" s="81"/>
+      <c r="V712" s="81"/>
+      <c r="W712" s="81"/>
+      <c r="X712" s="81"/>
+      <c r="Y712" s="81"/>
+      <c r="Z712" s="81"/>
+      <c r="AA712" s="81"/>
+      <c r="AB712" s="81"/>
+      <c r="AC712" s="81"/>
+      <c r="AD712" s="81"/>
+      <c r="AE712" s="81"/>
+      <c r="AF712" s="81"/>
+      <c r="AG712" s="81"/>
+      <c r="AH712" s="81"/>
     </row>
     <row r="713" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="714" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38130,39 +38191,39 @@
     <row r="885" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="886" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B887" s="78"/>
-      <c r="C887" s="78"/>
-      <c r="D887" s="78"/>
-      <c r="E887" s="78"/>
-      <c r="F887" s="78"/>
-      <c r="G887" s="78"/>
-      <c r="H887" s="78"/>
-      <c r="I887" s="78"/>
-      <c r="J887" s="78"/>
-      <c r="K887" s="78"/>
-      <c r="L887" s="78"/>
-      <c r="M887" s="78"/>
-      <c r="N887" s="78"/>
-      <c r="O887" s="78"/>
-      <c r="P887" s="78"/>
-      <c r="Q887" s="78"/>
-      <c r="R887" s="78"/>
-      <c r="S887" s="78"/>
-      <c r="T887" s="78"/>
-      <c r="U887" s="78"/>
-      <c r="V887" s="78"/>
-      <c r="W887" s="78"/>
-      <c r="X887" s="78"/>
-      <c r="Y887" s="78"/>
-      <c r="Z887" s="78"/>
-      <c r="AA887" s="78"/>
-      <c r="AB887" s="78"/>
-      <c r="AC887" s="78"/>
-      <c r="AD887" s="78"/>
-      <c r="AE887" s="78"/>
-      <c r="AF887" s="78"/>
-      <c r="AG887" s="78"/>
-      <c r="AH887" s="78"/>
+      <c r="B887" s="81"/>
+      <c r="C887" s="81"/>
+      <c r="D887" s="81"/>
+      <c r="E887" s="81"/>
+      <c r="F887" s="81"/>
+      <c r="G887" s="81"/>
+      <c r="H887" s="81"/>
+      <c r="I887" s="81"/>
+      <c r="J887" s="81"/>
+      <c r="K887" s="81"/>
+      <c r="L887" s="81"/>
+      <c r="M887" s="81"/>
+      <c r="N887" s="81"/>
+      <c r="O887" s="81"/>
+      <c r="P887" s="81"/>
+      <c r="Q887" s="81"/>
+      <c r="R887" s="81"/>
+      <c r="S887" s="81"/>
+      <c r="T887" s="81"/>
+      <c r="U887" s="81"/>
+      <c r="V887" s="81"/>
+      <c r="W887" s="81"/>
+      <c r="X887" s="81"/>
+      <c r="Y887" s="81"/>
+      <c r="Z887" s="81"/>
+      <c r="AA887" s="81"/>
+      <c r="AB887" s="81"/>
+      <c r="AC887" s="81"/>
+      <c r="AD887" s="81"/>
+      <c r="AE887" s="81"/>
+      <c r="AF887" s="81"/>
+      <c r="AG887" s="81"/>
+      <c r="AH887" s="81"/>
     </row>
     <row r="888" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="889" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38377,39 +38438,39 @@
     <row r="1098" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1099" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1100" s="78"/>
-      <c r="C1100" s="78"/>
-      <c r="D1100" s="78"/>
-      <c r="E1100" s="78"/>
-      <c r="F1100" s="78"/>
-      <c r="G1100" s="78"/>
-      <c r="H1100" s="78"/>
-      <c r="I1100" s="78"/>
-      <c r="J1100" s="78"/>
-      <c r="K1100" s="78"/>
-      <c r="L1100" s="78"/>
-      <c r="M1100" s="78"/>
-      <c r="N1100" s="78"/>
-      <c r="O1100" s="78"/>
-      <c r="P1100" s="78"/>
-      <c r="Q1100" s="78"/>
-      <c r="R1100" s="78"/>
-      <c r="S1100" s="78"/>
-      <c r="T1100" s="78"/>
-      <c r="U1100" s="78"/>
-      <c r="V1100" s="78"/>
-      <c r="W1100" s="78"/>
-      <c r="X1100" s="78"/>
-      <c r="Y1100" s="78"/>
-      <c r="Z1100" s="78"/>
-      <c r="AA1100" s="78"/>
-      <c r="AB1100" s="78"/>
-      <c r="AC1100" s="78"/>
-      <c r="AD1100" s="78"/>
-      <c r="AE1100" s="78"/>
-      <c r="AF1100" s="78"/>
-      <c r="AG1100" s="78"/>
-      <c r="AH1100" s="78"/>
+      <c r="B1100" s="81"/>
+      <c r="C1100" s="81"/>
+      <c r="D1100" s="81"/>
+      <c r="E1100" s="81"/>
+      <c r="F1100" s="81"/>
+      <c r="G1100" s="81"/>
+      <c r="H1100" s="81"/>
+      <c r="I1100" s="81"/>
+      <c r="J1100" s="81"/>
+      <c r="K1100" s="81"/>
+      <c r="L1100" s="81"/>
+      <c r="M1100" s="81"/>
+      <c r="N1100" s="81"/>
+      <c r="O1100" s="81"/>
+      <c r="P1100" s="81"/>
+      <c r="Q1100" s="81"/>
+      <c r="R1100" s="81"/>
+      <c r="S1100" s="81"/>
+      <c r="T1100" s="81"/>
+      <c r="U1100" s="81"/>
+      <c r="V1100" s="81"/>
+      <c r="W1100" s="81"/>
+      <c r="X1100" s="81"/>
+      <c r="Y1100" s="81"/>
+      <c r="Z1100" s="81"/>
+      <c r="AA1100" s="81"/>
+      <c r="AB1100" s="81"/>
+      <c r="AC1100" s="81"/>
+      <c r="AD1100" s="81"/>
+      <c r="AE1100" s="81"/>
+      <c r="AF1100" s="81"/>
+      <c r="AG1100" s="81"/>
+      <c r="AH1100" s="81"/>
     </row>
     <row r="1101" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1102" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38538,39 +38599,39 @@
     <row r="1225" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1226" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1227" s="78"/>
-      <c r="C1227" s="78"/>
-      <c r="D1227" s="78"/>
-      <c r="E1227" s="78"/>
-      <c r="F1227" s="78"/>
-      <c r="G1227" s="78"/>
-      <c r="H1227" s="78"/>
-      <c r="I1227" s="78"/>
-      <c r="J1227" s="78"/>
-      <c r="K1227" s="78"/>
-      <c r="L1227" s="78"/>
-      <c r="M1227" s="78"/>
-      <c r="N1227" s="78"/>
-      <c r="O1227" s="78"/>
-      <c r="P1227" s="78"/>
-      <c r="Q1227" s="78"/>
-      <c r="R1227" s="78"/>
-      <c r="S1227" s="78"/>
-      <c r="T1227" s="78"/>
-      <c r="U1227" s="78"/>
-      <c r="V1227" s="78"/>
-      <c r="W1227" s="78"/>
-      <c r="X1227" s="78"/>
-      <c r="Y1227" s="78"/>
-      <c r="Z1227" s="78"/>
-      <c r="AA1227" s="78"/>
-      <c r="AB1227" s="78"/>
-      <c r="AC1227" s="78"/>
-      <c r="AD1227" s="78"/>
-      <c r="AE1227" s="78"/>
-      <c r="AF1227" s="78"/>
-      <c r="AG1227" s="78"/>
-      <c r="AH1227" s="78"/>
+      <c r="B1227" s="81"/>
+      <c r="C1227" s="81"/>
+      <c r="D1227" s="81"/>
+      <c r="E1227" s="81"/>
+      <c r="F1227" s="81"/>
+      <c r="G1227" s="81"/>
+      <c r="H1227" s="81"/>
+      <c r="I1227" s="81"/>
+      <c r="J1227" s="81"/>
+      <c r="K1227" s="81"/>
+      <c r="L1227" s="81"/>
+      <c r="M1227" s="81"/>
+      <c r="N1227" s="81"/>
+      <c r="O1227" s="81"/>
+      <c r="P1227" s="81"/>
+      <c r="Q1227" s="81"/>
+      <c r="R1227" s="81"/>
+      <c r="S1227" s="81"/>
+      <c r="T1227" s="81"/>
+      <c r="U1227" s="81"/>
+      <c r="V1227" s="81"/>
+      <c r="W1227" s="81"/>
+      <c r="X1227" s="81"/>
+      <c r="Y1227" s="81"/>
+      <c r="Z1227" s="81"/>
+      <c r="AA1227" s="81"/>
+      <c r="AB1227" s="81"/>
+      <c r="AC1227" s="81"/>
+      <c r="AD1227" s="81"/>
+      <c r="AE1227" s="81"/>
+      <c r="AF1227" s="81"/>
+      <c r="AG1227" s="81"/>
+      <c r="AH1227" s="81"/>
     </row>
     <row r="1228" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1229" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38735,39 +38796,39 @@
     <row r="1388" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1389" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1390" s="78"/>
-      <c r="C1390" s="78"/>
-      <c r="D1390" s="78"/>
-      <c r="E1390" s="78"/>
-      <c r="F1390" s="78"/>
-      <c r="G1390" s="78"/>
-      <c r="H1390" s="78"/>
-      <c r="I1390" s="78"/>
-      <c r="J1390" s="78"/>
-      <c r="K1390" s="78"/>
-      <c r="L1390" s="78"/>
-      <c r="M1390" s="78"/>
-      <c r="N1390" s="78"/>
-      <c r="O1390" s="78"/>
-      <c r="P1390" s="78"/>
-      <c r="Q1390" s="78"/>
-      <c r="R1390" s="78"/>
-      <c r="S1390" s="78"/>
-      <c r="T1390" s="78"/>
-      <c r="U1390" s="78"/>
-      <c r="V1390" s="78"/>
-      <c r="W1390" s="78"/>
-      <c r="X1390" s="78"/>
-      <c r="Y1390" s="78"/>
-      <c r="Z1390" s="78"/>
-      <c r="AA1390" s="78"/>
-      <c r="AB1390" s="78"/>
-      <c r="AC1390" s="78"/>
-      <c r="AD1390" s="78"/>
-      <c r="AE1390" s="78"/>
-      <c r="AF1390" s="78"/>
-      <c r="AG1390" s="78"/>
-      <c r="AH1390" s="78"/>
+      <c r="B1390" s="81"/>
+      <c r="C1390" s="81"/>
+      <c r="D1390" s="81"/>
+      <c r="E1390" s="81"/>
+      <c r="F1390" s="81"/>
+      <c r="G1390" s="81"/>
+      <c r="H1390" s="81"/>
+      <c r="I1390" s="81"/>
+      <c r="J1390" s="81"/>
+      <c r="K1390" s="81"/>
+      <c r="L1390" s="81"/>
+      <c r="M1390" s="81"/>
+      <c r="N1390" s="81"/>
+      <c r="O1390" s="81"/>
+      <c r="P1390" s="81"/>
+      <c r="Q1390" s="81"/>
+      <c r="R1390" s="81"/>
+      <c r="S1390" s="81"/>
+      <c r="T1390" s="81"/>
+      <c r="U1390" s="81"/>
+      <c r="V1390" s="81"/>
+      <c r="W1390" s="81"/>
+      <c r="X1390" s="81"/>
+      <c r="Y1390" s="81"/>
+      <c r="Z1390" s="81"/>
+      <c r="AA1390" s="81"/>
+      <c r="AB1390" s="81"/>
+      <c r="AC1390" s="81"/>
+      <c r="AD1390" s="81"/>
+      <c r="AE1390" s="81"/>
+      <c r="AF1390" s="81"/>
+      <c r="AG1390" s="81"/>
+      <c r="AH1390" s="81"/>
     </row>
     <row r="1391" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1392" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38881,39 +38942,39 @@
     <row r="1500" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1501" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1502" s="78"/>
-      <c r="C1502" s="78"/>
-      <c r="D1502" s="78"/>
-      <c r="E1502" s="78"/>
-      <c r="F1502" s="78"/>
-      <c r="G1502" s="78"/>
-      <c r="H1502" s="78"/>
-      <c r="I1502" s="78"/>
-      <c r="J1502" s="78"/>
-      <c r="K1502" s="78"/>
-      <c r="L1502" s="78"/>
-      <c r="M1502" s="78"/>
-      <c r="N1502" s="78"/>
-      <c r="O1502" s="78"/>
-      <c r="P1502" s="78"/>
-      <c r="Q1502" s="78"/>
-      <c r="R1502" s="78"/>
-      <c r="S1502" s="78"/>
-      <c r="T1502" s="78"/>
-      <c r="U1502" s="78"/>
-      <c r="V1502" s="78"/>
-      <c r="W1502" s="78"/>
-      <c r="X1502" s="78"/>
-      <c r="Y1502" s="78"/>
-      <c r="Z1502" s="78"/>
-      <c r="AA1502" s="78"/>
-      <c r="AB1502" s="78"/>
-      <c r="AC1502" s="78"/>
-      <c r="AD1502" s="78"/>
-      <c r="AE1502" s="78"/>
-      <c r="AF1502" s="78"/>
-      <c r="AG1502" s="78"/>
-      <c r="AH1502" s="78"/>
+      <c r="B1502" s="81"/>
+      <c r="C1502" s="81"/>
+      <c r="D1502" s="81"/>
+      <c r="E1502" s="81"/>
+      <c r="F1502" s="81"/>
+      <c r="G1502" s="81"/>
+      <c r="H1502" s="81"/>
+      <c r="I1502" s="81"/>
+      <c r="J1502" s="81"/>
+      <c r="K1502" s="81"/>
+      <c r="L1502" s="81"/>
+      <c r="M1502" s="81"/>
+      <c r="N1502" s="81"/>
+      <c r="O1502" s="81"/>
+      <c r="P1502" s="81"/>
+      <c r="Q1502" s="81"/>
+      <c r="R1502" s="81"/>
+      <c r="S1502" s="81"/>
+      <c r="T1502" s="81"/>
+      <c r="U1502" s="81"/>
+      <c r="V1502" s="81"/>
+      <c r="W1502" s="81"/>
+      <c r="X1502" s="81"/>
+      <c r="Y1502" s="81"/>
+      <c r="Z1502" s="81"/>
+      <c r="AA1502" s="81"/>
+      <c r="AB1502" s="81"/>
+      <c r="AC1502" s="81"/>
+      <c r="AD1502" s="81"/>
+      <c r="AE1502" s="81"/>
+      <c r="AF1502" s="81"/>
+      <c r="AG1502" s="81"/>
+      <c r="AH1502" s="81"/>
     </row>
     <row r="1503" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1504" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39017,39 +39078,39 @@
     <row r="1602" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1603" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1604" s="78"/>
-      <c r="C1604" s="78"/>
-      <c r="D1604" s="78"/>
-      <c r="E1604" s="78"/>
-      <c r="F1604" s="78"/>
-      <c r="G1604" s="78"/>
-      <c r="H1604" s="78"/>
-      <c r="I1604" s="78"/>
-      <c r="J1604" s="78"/>
-      <c r="K1604" s="78"/>
-      <c r="L1604" s="78"/>
-      <c r="M1604" s="78"/>
-      <c r="N1604" s="78"/>
-      <c r="O1604" s="78"/>
-      <c r="P1604" s="78"/>
-      <c r="Q1604" s="78"/>
-      <c r="R1604" s="78"/>
-      <c r="S1604" s="78"/>
-      <c r="T1604" s="78"/>
-      <c r="U1604" s="78"/>
-      <c r="V1604" s="78"/>
-      <c r="W1604" s="78"/>
-      <c r="X1604" s="78"/>
-      <c r="Y1604" s="78"/>
-      <c r="Z1604" s="78"/>
-      <c r="AA1604" s="78"/>
-      <c r="AB1604" s="78"/>
-      <c r="AC1604" s="78"/>
-      <c r="AD1604" s="78"/>
-      <c r="AE1604" s="78"/>
-      <c r="AF1604" s="78"/>
-      <c r="AG1604" s="78"/>
-      <c r="AH1604" s="78"/>
+      <c r="B1604" s="81"/>
+      <c r="C1604" s="81"/>
+      <c r="D1604" s="81"/>
+      <c r="E1604" s="81"/>
+      <c r="F1604" s="81"/>
+      <c r="G1604" s="81"/>
+      <c r="H1604" s="81"/>
+      <c r="I1604" s="81"/>
+      <c r="J1604" s="81"/>
+      <c r="K1604" s="81"/>
+      <c r="L1604" s="81"/>
+      <c r="M1604" s="81"/>
+      <c r="N1604" s="81"/>
+      <c r="O1604" s="81"/>
+      <c r="P1604" s="81"/>
+      <c r="Q1604" s="81"/>
+      <c r="R1604" s="81"/>
+      <c r="S1604" s="81"/>
+      <c r="T1604" s="81"/>
+      <c r="U1604" s="81"/>
+      <c r="V1604" s="81"/>
+      <c r="W1604" s="81"/>
+      <c r="X1604" s="81"/>
+      <c r="Y1604" s="81"/>
+      <c r="Z1604" s="81"/>
+      <c r="AA1604" s="81"/>
+      <c r="AB1604" s="81"/>
+      <c r="AC1604" s="81"/>
+      <c r="AD1604" s="81"/>
+      <c r="AE1604" s="81"/>
+      <c r="AF1604" s="81"/>
+      <c r="AG1604" s="81"/>
+      <c r="AH1604" s="81"/>
     </row>
     <row r="1605" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1606" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39145,39 +39206,39 @@
     <row r="1696" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1697" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1698" s="78"/>
-      <c r="C1698" s="78"/>
-      <c r="D1698" s="78"/>
-      <c r="E1698" s="78"/>
-      <c r="F1698" s="78"/>
-      <c r="G1698" s="78"/>
-      <c r="H1698" s="78"/>
-      <c r="I1698" s="78"/>
-      <c r="J1698" s="78"/>
-      <c r="K1698" s="78"/>
-      <c r="L1698" s="78"/>
-      <c r="M1698" s="78"/>
-      <c r="N1698" s="78"/>
-      <c r="O1698" s="78"/>
-      <c r="P1698" s="78"/>
-      <c r="Q1698" s="78"/>
-      <c r="R1698" s="78"/>
-      <c r="S1698" s="78"/>
-      <c r="T1698" s="78"/>
-      <c r="U1698" s="78"/>
-      <c r="V1698" s="78"/>
-      <c r="W1698" s="78"/>
-      <c r="X1698" s="78"/>
-      <c r="Y1698" s="78"/>
-      <c r="Z1698" s="78"/>
-      <c r="AA1698" s="78"/>
-      <c r="AB1698" s="78"/>
-      <c r="AC1698" s="78"/>
-      <c r="AD1698" s="78"/>
-      <c r="AE1698" s="78"/>
-      <c r="AF1698" s="78"/>
-      <c r="AG1698" s="78"/>
-      <c r="AH1698" s="78"/>
+      <c r="B1698" s="81"/>
+      <c r="C1698" s="81"/>
+      <c r="D1698" s="81"/>
+      <c r="E1698" s="81"/>
+      <c r="F1698" s="81"/>
+      <c r="G1698" s="81"/>
+      <c r="H1698" s="81"/>
+      <c r="I1698" s="81"/>
+      <c r="J1698" s="81"/>
+      <c r="K1698" s="81"/>
+      <c r="L1698" s="81"/>
+      <c r="M1698" s="81"/>
+      <c r="N1698" s="81"/>
+      <c r="O1698" s="81"/>
+      <c r="P1698" s="81"/>
+      <c r="Q1698" s="81"/>
+      <c r="R1698" s="81"/>
+      <c r="S1698" s="81"/>
+      <c r="T1698" s="81"/>
+      <c r="U1698" s="81"/>
+      <c r="V1698" s="81"/>
+      <c r="W1698" s="81"/>
+      <c r="X1698" s="81"/>
+      <c r="Y1698" s="81"/>
+      <c r="Z1698" s="81"/>
+      <c r="AA1698" s="81"/>
+      <c r="AB1698" s="81"/>
+      <c r="AC1698" s="81"/>
+      <c r="AD1698" s="81"/>
+      <c r="AE1698" s="81"/>
+      <c r="AF1698" s="81"/>
+      <c r="AG1698" s="81"/>
+      <c r="AH1698" s="81"/>
     </row>
     <row r="1699" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1700" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39426,39 +39487,39 @@
     <row r="1943" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1944" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1945" s="78"/>
-      <c r="C1945" s="78"/>
-      <c r="D1945" s="78"/>
-      <c r="E1945" s="78"/>
-      <c r="F1945" s="78"/>
-      <c r="G1945" s="78"/>
-      <c r="H1945" s="78"/>
-      <c r="I1945" s="78"/>
-      <c r="J1945" s="78"/>
-      <c r="K1945" s="78"/>
-      <c r="L1945" s="78"/>
-      <c r="M1945" s="78"/>
-      <c r="N1945" s="78"/>
-      <c r="O1945" s="78"/>
-      <c r="P1945" s="78"/>
-      <c r="Q1945" s="78"/>
-      <c r="R1945" s="78"/>
-      <c r="S1945" s="78"/>
-      <c r="T1945" s="78"/>
-      <c r="U1945" s="78"/>
-      <c r="V1945" s="78"/>
-      <c r="W1945" s="78"/>
-      <c r="X1945" s="78"/>
-      <c r="Y1945" s="78"/>
-      <c r="Z1945" s="78"/>
-      <c r="AA1945" s="78"/>
-      <c r="AB1945" s="78"/>
-      <c r="AC1945" s="78"/>
-      <c r="AD1945" s="78"/>
-      <c r="AE1945" s="78"/>
-      <c r="AF1945" s="78"/>
-      <c r="AG1945" s="78"/>
-      <c r="AH1945" s="78"/>
+      <c r="B1945" s="81"/>
+      <c r="C1945" s="81"/>
+      <c r="D1945" s="81"/>
+      <c r="E1945" s="81"/>
+      <c r="F1945" s="81"/>
+      <c r="G1945" s="81"/>
+      <c r="H1945" s="81"/>
+      <c r="I1945" s="81"/>
+      <c r="J1945" s="81"/>
+      <c r="K1945" s="81"/>
+      <c r="L1945" s="81"/>
+      <c r="M1945" s="81"/>
+      <c r="N1945" s="81"/>
+      <c r="O1945" s="81"/>
+      <c r="P1945" s="81"/>
+      <c r="Q1945" s="81"/>
+      <c r="R1945" s="81"/>
+      <c r="S1945" s="81"/>
+      <c r="T1945" s="81"/>
+      <c r="U1945" s="81"/>
+      <c r="V1945" s="81"/>
+      <c r="W1945" s="81"/>
+      <c r="X1945" s="81"/>
+      <c r="Y1945" s="81"/>
+      <c r="Z1945" s="81"/>
+      <c r="AA1945" s="81"/>
+      <c r="AB1945" s="81"/>
+      <c r="AC1945" s="81"/>
+      <c r="AD1945" s="81"/>
+      <c r="AE1945" s="81"/>
+      <c r="AF1945" s="81"/>
+      <c r="AG1945" s="81"/>
+      <c r="AH1945" s="81"/>
     </row>
     <row r="1946" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1947" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39546,39 +39607,39 @@
     <row r="2029" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2030" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2031" s="78"/>
-      <c r="C2031" s="78"/>
-      <c r="D2031" s="78"/>
-      <c r="E2031" s="78"/>
-      <c r="F2031" s="78"/>
-      <c r="G2031" s="78"/>
-      <c r="H2031" s="78"/>
-      <c r="I2031" s="78"/>
-      <c r="J2031" s="78"/>
-      <c r="K2031" s="78"/>
-      <c r="L2031" s="78"/>
-      <c r="M2031" s="78"/>
-      <c r="N2031" s="78"/>
-      <c r="O2031" s="78"/>
-      <c r="P2031" s="78"/>
-      <c r="Q2031" s="78"/>
-      <c r="R2031" s="78"/>
-      <c r="S2031" s="78"/>
-      <c r="T2031" s="78"/>
-      <c r="U2031" s="78"/>
-      <c r="V2031" s="78"/>
-      <c r="W2031" s="78"/>
-      <c r="X2031" s="78"/>
-      <c r="Y2031" s="78"/>
-      <c r="Z2031" s="78"/>
-      <c r="AA2031" s="78"/>
-      <c r="AB2031" s="78"/>
-      <c r="AC2031" s="78"/>
-      <c r="AD2031" s="78"/>
-      <c r="AE2031" s="78"/>
-      <c r="AF2031" s="78"/>
-      <c r="AG2031" s="78"/>
-      <c r="AH2031" s="78"/>
+      <c r="B2031" s="81"/>
+      <c r="C2031" s="81"/>
+      <c r="D2031" s="81"/>
+      <c r="E2031" s="81"/>
+      <c r="F2031" s="81"/>
+      <c r="G2031" s="81"/>
+      <c r="H2031" s="81"/>
+      <c r="I2031" s="81"/>
+      <c r="J2031" s="81"/>
+      <c r="K2031" s="81"/>
+      <c r="L2031" s="81"/>
+      <c r="M2031" s="81"/>
+      <c r="N2031" s="81"/>
+      <c r="O2031" s="81"/>
+      <c r="P2031" s="81"/>
+      <c r="Q2031" s="81"/>
+      <c r="R2031" s="81"/>
+      <c r="S2031" s="81"/>
+      <c r="T2031" s="81"/>
+      <c r="U2031" s="81"/>
+      <c r="V2031" s="81"/>
+      <c r="W2031" s="81"/>
+      <c r="X2031" s="81"/>
+      <c r="Y2031" s="81"/>
+      <c r="Z2031" s="81"/>
+      <c r="AA2031" s="81"/>
+      <c r="AB2031" s="81"/>
+      <c r="AC2031" s="81"/>
+      <c r="AD2031" s="81"/>
+      <c r="AE2031" s="81"/>
+      <c r="AF2031" s="81"/>
+      <c r="AG2031" s="81"/>
+      <c r="AH2031" s="81"/>
     </row>
     <row r="2032" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2033" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39702,39 +39763,39 @@
     <row r="2151" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2152" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2153" s="78"/>
-      <c r="C2153" s="78"/>
-      <c r="D2153" s="78"/>
-      <c r="E2153" s="78"/>
-      <c r="F2153" s="78"/>
-      <c r="G2153" s="78"/>
-      <c r="H2153" s="78"/>
-      <c r="I2153" s="78"/>
-      <c r="J2153" s="78"/>
-      <c r="K2153" s="78"/>
-      <c r="L2153" s="78"/>
-      <c r="M2153" s="78"/>
-      <c r="N2153" s="78"/>
-      <c r="O2153" s="78"/>
-      <c r="P2153" s="78"/>
-      <c r="Q2153" s="78"/>
-      <c r="R2153" s="78"/>
-      <c r="S2153" s="78"/>
-      <c r="T2153" s="78"/>
-      <c r="U2153" s="78"/>
-      <c r="V2153" s="78"/>
-      <c r="W2153" s="78"/>
-      <c r="X2153" s="78"/>
-      <c r="Y2153" s="78"/>
-      <c r="Z2153" s="78"/>
-      <c r="AA2153" s="78"/>
-      <c r="AB2153" s="78"/>
-      <c r="AC2153" s="78"/>
-      <c r="AD2153" s="78"/>
-      <c r="AE2153" s="78"/>
-      <c r="AF2153" s="78"/>
-      <c r="AG2153" s="78"/>
-      <c r="AH2153" s="78"/>
+      <c r="B2153" s="81"/>
+      <c r="C2153" s="81"/>
+      <c r="D2153" s="81"/>
+      <c r="E2153" s="81"/>
+      <c r="F2153" s="81"/>
+      <c r="G2153" s="81"/>
+      <c r="H2153" s="81"/>
+      <c r="I2153" s="81"/>
+      <c r="J2153" s="81"/>
+      <c r="K2153" s="81"/>
+      <c r="L2153" s="81"/>
+      <c r="M2153" s="81"/>
+      <c r="N2153" s="81"/>
+      <c r="O2153" s="81"/>
+      <c r="P2153" s="81"/>
+      <c r="Q2153" s="81"/>
+      <c r="R2153" s="81"/>
+      <c r="S2153" s="81"/>
+      <c r="T2153" s="81"/>
+      <c r="U2153" s="81"/>
+      <c r="V2153" s="81"/>
+      <c r="W2153" s="81"/>
+      <c r="X2153" s="81"/>
+      <c r="Y2153" s="81"/>
+      <c r="Z2153" s="81"/>
+      <c r="AA2153" s="81"/>
+      <c r="AB2153" s="81"/>
+      <c r="AC2153" s="81"/>
+      <c r="AD2153" s="81"/>
+      <c r="AE2153" s="81"/>
+      <c r="AF2153" s="81"/>
+      <c r="AG2153" s="81"/>
+      <c r="AH2153" s="81"/>
     </row>
     <row r="2154" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2155" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39900,39 +39961,39 @@
     <row r="2315" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2316" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2317" s="78"/>
-      <c r="C2317" s="78"/>
-      <c r="D2317" s="78"/>
-      <c r="E2317" s="78"/>
-      <c r="F2317" s="78"/>
-      <c r="G2317" s="78"/>
-      <c r="H2317" s="78"/>
-      <c r="I2317" s="78"/>
-      <c r="J2317" s="78"/>
-      <c r="K2317" s="78"/>
-      <c r="L2317" s="78"/>
-      <c r="M2317" s="78"/>
-      <c r="N2317" s="78"/>
-      <c r="O2317" s="78"/>
-      <c r="P2317" s="78"/>
-      <c r="Q2317" s="78"/>
-      <c r="R2317" s="78"/>
-      <c r="S2317" s="78"/>
-      <c r="T2317" s="78"/>
-      <c r="U2317" s="78"/>
-      <c r="V2317" s="78"/>
-      <c r="W2317" s="78"/>
-      <c r="X2317" s="78"/>
-      <c r="Y2317" s="78"/>
-      <c r="Z2317" s="78"/>
-      <c r="AA2317" s="78"/>
-      <c r="AB2317" s="78"/>
-      <c r="AC2317" s="78"/>
-      <c r="AD2317" s="78"/>
-      <c r="AE2317" s="78"/>
-      <c r="AF2317" s="78"/>
-      <c r="AG2317" s="78"/>
-      <c r="AH2317" s="78"/>
+      <c r="B2317" s="81"/>
+      <c r="C2317" s="81"/>
+      <c r="D2317" s="81"/>
+      <c r="E2317" s="81"/>
+      <c r="F2317" s="81"/>
+      <c r="G2317" s="81"/>
+      <c r="H2317" s="81"/>
+      <c r="I2317" s="81"/>
+      <c r="J2317" s="81"/>
+      <c r="K2317" s="81"/>
+      <c r="L2317" s="81"/>
+      <c r="M2317" s="81"/>
+      <c r="N2317" s="81"/>
+      <c r="O2317" s="81"/>
+      <c r="P2317" s="81"/>
+      <c r="Q2317" s="81"/>
+      <c r="R2317" s="81"/>
+      <c r="S2317" s="81"/>
+      <c r="T2317" s="81"/>
+      <c r="U2317" s="81"/>
+      <c r="V2317" s="81"/>
+      <c r="W2317" s="81"/>
+      <c r="X2317" s="81"/>
+      <c r="Y2317" s="81"/>
+      <c r="Z2317" s="81"/>
+      <c r="AA2317" s="81"/>
+      <c r="AB2317" s="81"/>
+      <c r="AC2317" s="81"/>
+      <c r="AD2317" s="81"/>
+      <c r="AE2317" s="81"/>
+      <c r="AF2317" s="81"/>
+      <c r="AG2317" s="81"/>
+      <c r="AH2317" s="81"/>
     </row>
     <row r="2318" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2319" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40036,39 +40097,39 @@
     <row r="2417" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2418" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2419" s="78"/>
-      <c r="C2419" s="78"/>
-      <c r="D2419" s="78"/>
-      <c r="E2419" s="78"/>
-      <c r="F2419" s="78"/>
-      <c r="G2419" s="78"/>
-      <c r="H2419" s="78"/>
-      <c r="I2419" s="78"/>
-      <c r="J2419" s="78"/>
-      <c r="K2419" s="78"/>
-      <c r="L2419" s="78"/>
-      <c r="M2419" s="78"/>
-      <c r="N2419" s="78"/>
-      <c r="O2419" s="78"/>
-      <c r="P2419" s="78"/>
-      <c r="Q2419" s="78"/>
-      <c r="R2419" s="78"/>
-      <c r="S2419" s="78"/>
-      <c r="T2419" s="78"/>
-      <c r="U2419" s="78"/>
-      <c r="V2419" s="78"/>
-      <c r="W2419" s="78"/>
-      <c r="X2419" s="78"/>
-      <c r="Y2419" s="78"/>
-      <c r="Z2419" s="78"/>
-      <c r="AA2419" s="78"/>
-      <c r="AB2419" s="78"/>
-      <c r="AC2419" s="78"/>
-      <c r="AD2419" s="78"/>
-      <c r="AE2419" s="78"/>
-      <c r="AF2419" s="78"/>
-      <c r="AG2419" s="78"/>
-      <c r="AH2419" s="78"/>
+      <c r="B2419" s="81"/>
+      <c r="C2419" s="81"/>
+      <c r="D2419" s="81"/>
+      <c r="E2419" s="81"/>
+      <c r="F2419" s="81"/>
+      <c r="G2419" s="81"/>
+      <c r="H2419" s="81"/>
+      <c r="I2419" s="81"/>
+      <c r="J2419" s="81"/>
+      <c r="K2419" s="81"/>
+      <c r="L2419" s="81"/>
+      <c r="M2419" s="81"/>
+      <c r="N2419" s="81"/>
+      <c r="O2419" s="81"/>
+      <c r="P2419" s="81"/>
+      <c r="Q2419" s="81"/>
+      <c r="R2419" s="81"/>
+      <c r="S2419" s="81"/>
+      <c r="T2419" s="81"/>
+      <c r="U2419" s="81"/>
+      <c r="V2419" s="81"/>
+      <c r="W2419" s="81"/>
+      <c r="X2419" s="81"/>
+      <c r="Y2419" s="81"/>
+      <c r="Z2419" s="81"/>
+      <c r="AA2419" s="81"/>
+      <c r="AB2419" s="81"/>
+      <c r="AC2419" s="81"/>
+      <c r="AD2419" s="81"/>
+      <c r="AE2419" s="81"/>
+      <c r="AF2419" s="81"/>
+      <c r="AG2419" s="81"/>
+      <c r="AH2419" s="81"/>
     </row>
     <row r="2420" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2421" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40160,39 +40221,39 @@
     <row r="2507" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2508" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2509" s="78"/>
-      <c r="C2509" s="78"/>
-      <c r="D2509" s="78"/>
-      <c r="E2509" s="78"/>
-      <c r="F2509" s="78"/>
-      <c r="G2509" s="78"/>
-      <c r="H2509" s="78"/>
-      <c r="I2509" s="78"/>
-      <c r="J2509" s="78"/>
-      <c r="K2509" s="78"/>
-      <c r="L2509" s="78"/>
-      <c r="M2509" s="78"/>
-      <c r="N2509" s="78"/>
-      <c r="O2509" s="78"/>
-      <c r="P2509" s="78"/>
-      <c r="Q2509" s="78"/>
-      <c r="R2509" s="78"/>
-      <c r="S2509" s="78"/>
-      <c r="T2509" s="78"/>
-      <c r="U2509" s="78"/>
-      <c r="V2509" s="78"/>
-      <c r="W2509" s="78"/>
-      <c r="X2509" s="78"/>
-      <c r="Y2509" s="78"/>
-      <c r="Z2509" s="78"/>
-      <c r="AA2509" s="78"/>
-      <c r="AB2509" s="78"/>
-      <c r="AC2509" s="78"/>
-      <c r="AD2509" s="78"/>
-      <c r="AE2509" s="78"/>
-      <c r="AF2509" s="78"/>
-      <c r="AG2509" s="78"/>
-      <c r="AH2509" s="78"/>
+      <c r="B2509" s="81"/>
+      <c r="C2509" s="81"/>
+      <c r="D2509" s="81"/>
+      <c r="E2509" s="81"/>
+      <c r="F2509" s="81"/>
+      <c r="G2509" s="81"/>
+      <c r="H2509" s="81"/>
+      <c r="I2509" s="81"/>
+      <c r="J2509" s="81"/>
+      <c r="K2509" s="81"/>
+      <c r="L2509" s="81"/>
+      <c r="M2509" s="81"/>
+      <c r="N2509" s="81"/>
+      <c r="O2509" s="81"/>
+      <c r="P2509" s="81"/>
+      <c r="Q2509" s="81"/>
+      <c r="R2509" s="81"/>
+      <c r="S2509" s="81"/>
+      <c r="T2509" s="81"/>
+      <c r="U2509" s="81"/>
+      <c r="V2509" s="81"/>
+      <c r="W2509" s="81"/>
+      <c r="X2509" s="81"/>
+      <c r="Y2509" s="81"/>
+      <c r="Z2509" s="81"/>
+      <c r="AA2509" s="81"/>
+      <c r="AB2509" s="81"/>
+      <c r="AC2509" s="81"/>
+      <c r="AD2509" s="81"/>
+      <c r="AE2509" s="81"/>
+      <c r="AF2509" s="81"/>
+      <c r="AG2509" s="81"/>
+      <c r="AH2509" s="81"/>
     </row>
     <row r="2510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40283,39 +40344,39 @@
     <row r="2596" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2597" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2598" s="78"/>
-      <c r="C2598" s="78"/>
-      <c r="D2598" s="78"/>
-      <c r="E2598" s="78"/>
-      <c r="F2598" s="78"/>
-      <c r="G2598" s="78"/>
-      <c r="H2598" s="78"/>
-      <c r="I2598" s="78"/>
-      <c r="J2598" s="78"/>
-      <c r="K2598" s="78"/>
-      <c r="L2598" s="78"/>
-      <c r="M2598" s="78"/>
-      <c r="N2598" s="78"/>
-      <c r="O2598" s="78"/>
-      <c r="P2598" s="78"/>
-      <c r="Q2598" s="78"/>
-      <c r="R2598" s="78"/>
-      <c r="S2598" s="78"/>
-      <c r="T2598" s="78"/>
-      <c r="U2598" s="78"/>
-      <c r="V2598" s="78"/>
-      <c r="W2598" s="78"/>
-      <c r="X2598" s="78"/>
-      <c r="Y2598" s="78"/>
-      <c r="Z2598" s="78"/>
-      <c r="AA2598" s="78"/>
-      <c r="AB2598" s="78"/>
-      <c r="AC2598" s="78"/>
-      <c r="AD2598" s="78"/>
-      <c r="AE2598" s="78"/>
-      <c r="AF2598" s="78"/>
-      <c r="AG2598" s="78"/>
-      <c r="AH2598" s="78"/>
+      <c r="B2598" s="81"/>
+      <c r="C2598" s="81"/>
+      <c r="D2598" s="81"/>
+      <c r="E2598" s="81"/>
+      <c r="F2598" s="81"/>
+      <c r="G2598" s="81"/>
+      <c r="H2598" s="81"/>
+      <c r="I2598" s="81"/>
+      <c r="J2598" s="81"/>
+      <c r="K2598" s="81"/>
+      <c r="L2598" s="81"/>
+      <c r="M2598" s="81"/>
+      <c r="N2598" s="81"/>
+      <c r="O2598" s="81"/>
+      <c r="P2598" s="81"/>
+      <c r="Q2598" s="81"/>
+      <c r="R2598" s="81"/>
+      <c r="S2598" s="81"/>
+      <c r="T2598" s="81"/>
+      <c r="U2598" s="81"/>
+      <c r="V2598" s="81"/>
+      <c r="W2598" s="81"/>
+      <c r="X2598" s="81"/>
+      <c r="Y2598" s="81"/>
+      <c r="Z2598" s="81"/>
+      <c r="AA2598" s="81"/>
+      <c r="AB2598" s="81"/>
+      <c r="AC2598" s="81"/>
+      <c r="AD2598" s="81"/>
+      <c r="AE2598" s="81"/>
+      <c r="AF2598" s="81"/>
+      <c r="AG2598" s="81"/>
+      <c r="AH2598" s="81"/>
     </row>
     <row r="2599" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2600" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40438,39 +40499,39 @@
     <row r="2717" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2718" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2719" s="78"/>
-      <c r="C2719" s="78"/>
-      <c r="D2719" s="78"/>
-      <c r="E2719" s="78"/>
-      <c r="F2719" s="78"/>
-      <c r="G2719" s="78"/>
-      <c r="H2719" s="78"/>
-      <c r="I2719" s="78"/>
-      <c r="J2719" s="78"/>
-      <c r="K2719" s="78"/>
-      <c r="L2719" s="78"/>
-      <c r="M2719" s="78"/>
-      <c r="N2719" s="78"/>
-      <c r="O2719" s="78"/>
-      <c r="P2719" s="78"/>
-      <c r="Q2719" s="78"/>
-      <c r="R2719" s="78"/>
-      <c r="S2719" s="78"/>
-      <c r="T2719" s="78"/>
-      <c r="U2719" s="78"/>
-      <c r="V2719" s="78"/>
-      <c r="W2719" s="78"/>
-      <c r="X2719" s="78"/>
-      <c r="Y2719" s="78"/>
-      <c r="Z2719" s="78"/>
-      <c r="AA2719" s="78"/>
-      <c r="AB2719" s="78"/>
-      <c r="AC2719" s="78"/>
-      <c r="AD2719" s="78"/>
-      <c r="AE2719" s="78"/>
-      <c r="AF2719" s="78"/>
-      <c r="AG2719" s="78"/>
-      <c r="AH2719" s="78"/>
+      <c r="B2719" s="81"/>
+      <c r="C2719" s="81"/>
+      <c r="D2719" s="81"/>
+      <c r="E2719" s="81"/>
+      <c r="F2719" s="81"/>
+      <c r="G2719" s="81"/>
+      <c r="H2719" s="81"/>
+      <c r="I2719" s="81"/>
+      <c r="J2719" s="81"/>
+      <c r="K2719" s="81"/>
+      <c r="L2719" s="81"/>
+      <c r="M2719" s="81"/>
+      <c r="N2719" s="81"/>
+      <c r="O2719" s="81"/>
+      <c r="P2719" s="81"/>
+      <c r="Q2719" s="81"/>
+      <c r="R2719" s="81"/>
+      <c r="S2719" s="81"/>
+      <c r="T2719" s="81"/>
+      <c r="U2719" s="81"/>
+      <c r="V2719" s="81"/>
+      <c r="W2719" s="81"/>
+      <c r="X2719" s="81"/>
+      <c r="Y2719" s="81"/>
+      <c r="Z2719" s="81"/>
+      <c r="AA2719" s="81"/>
+      <c r="AB2719" s="81"/>
+      <c r="AC2719" s="81"/>
+      <c r="AD2719" s="81"/>
+      <c r="AE2719" s="81"/>
+      <c r="AF2719" s="81"/>
+      <c r="AG2719" s="81"/>
+      <c r="AH2719" s="81"/>
     </row>
     <row r="2720" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2721" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40590,63 +40651,63 @@
     <row r="2835" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2836" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2837" s="78"/>
-      <c r="C2837" s="78"/>
-      <c r="D2837" s="78"/>
-      <c r="E2837" s="78"/>
-      <c r="F2837" s="78"/>
-      <c r="G2837" s="78"/>
-      <c r="H2837" s="78"/>
-      <c r="I2837" s="78"/>
-      <c r="J2837" s="78"/>
-      <c r="K2837" s="78"/>
-      <c r="L2837" s="78"/>
-      <c r="M2837" s="78"/>
-      <c r="N2837" s="78"/>
-      <c r="O2837" s="78"/>
-      <c r="P2837" s="78"/>
-      <c r="Q2837" s="78"/>
-      <c r="R2837" s="78"/>
-      <c r="S2837" s="78"/>
-      <c r="T2837" s="78"/>
-      <c r="U2837" s="78"/>
-      <c r="V2837" s="78"/>
-      <c r="W2837" s="78"/>
-      <c r="X2837" s="78"/>
-      <c r="Y2837" s="78"/>
-      <c r="Z2837" s="78"/>
-      <c r="AA2837" s="78"/>
-      <c r="AB2837" s="78"/>
-      <c r="AC2837" s="78"/>
-      <c r="AD2837" s="78"/>
-      <c r="AE2837" s="78"/>
-      <c r="AF2837" s="78"/>
-      <c r="AG2837" s="78"/>
-      <c r="AH2837" s="78"/>
+      <c r="B2837" s="81"/>
+      <c r="C2837" s="81"/>
+      <c r="D2837" s="81"/>
+      <c r="E2837" s="81"/>
+      <c r="F2837" s="81"/>
+      <c r="G2837" s="81"/>
+      <c r="H2837" s="81"/>
+      <c r="I2837" s="81"/>
+      <c r="J2837" s="81"/>
+      <c r="K2837" s="81"/>
+      <c r="L2837" s="81"/>
+      <c r="M2837" s="81"/>
+      <c r="N2837" s="81"/>
+      <c r="O2837" s="81"/>
+      <c r="P2837" s="81"/>
+      <c r="Q2837" s="81"/>
+      <c r="R2837" s="81"/>
+      <c r="S2837" s="81"/>
+      <c r="T2837" s="81"/>
+      <c r="U2837" s="81"/>
+      <c r="V2837" s="81"/>
+      <c r="W2837" s="81"/>
+      <c r="X2837" s="81"/>
+      <c r="Y2837" s="81"/>
+      <c r="Z2837" s="81"/>
+      <c r="AA2837" s="81"/>
+      <c r="AB2837" s="81"/>
+      <c r="AC2837" s="81"/>
+      <c r="AD2837" s="81"/>
+      <c r="AE2837" s="81"/>
+      <c r="AF2837" s="81"/>
+      <c r="AG2837" s="81"/>
+      <c r="AH2837" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B83:AG83"/>
-    <mergeCell ref="B112:AH112"/>
-    <mergeCell ref="B308:AH308"/>
-    <mergeCell ref="B511:AH511"/>
-    <mergeCell ref="B712:AH712"/>
-    <mergeCell ref="B887:AH887"/>
-    <mergeCell ref="B1100:AH1100"/>
-    <mergeCell ref="B1227:AH1227"/>
-    <mergeCell ref="B1390:AH1390"/>
-    <mergeCell ref="B1502:AH1502"/>
-    <mergeCell ref="B1604:AH1604"/>
-    <mergeCell ref="B1698:AH1698"/>
-    <mergeCell ref="B1945:AH1945"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2719:AH2719"/>
     <mergeCell ref="B2837:AH2837"/>
     <mergeCell ref="B2153:AH2153"/>
     <mergeCell ref="B2317:AH2317"/>
     <mergeCell ref="B2419:AH2419"/>
     <mergeCell ref="B2509:AH2509"/>
     <mergeCell ref="B2598:AH2598"/>
+    <mergeCell ref="B1604:AH1604"/>
+    <mergeCell ref="B1698:AH1698"/>
+    <mergeCell ref="B1945:AH1945"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2719:AH2719"/>
+    <mergeCell ref="B887:AH887"/>
+    <mergeCell ref="B1100:AH1100"/>
+    <mergeCell ref="B1227:AH1227"/>
+    <mergeCell ref="B1390:AH1390"/>
+    <mergeCell ref="B1502:AH1502"/>
+    <mergeCell ref="B83:AG83"/>
+    <mergeCell ref="B112:AH112"/>
+    <mergeCell ref="B308:AH308"/>
+    <mergeCell ref="B511:AH511"/>
+    <mergeCell ref="B712:AH712"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40657,7 +40718,7 @@
   <dimension ref="A1:AJ121"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:K12"/>
+      <selection activeCell="C37" sqref="C37:M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40959,55 +41020,55 @@
         <v>658</v>
       </c>
       <c r="C5" s="73">
-        <f>'Subsidies Paid'!K7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!K8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.20099999999999998</v>
       </c>
       <c r="D5" s="73">
-        <f>'Subsidies Paid'!L7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!L8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.20099999999999998</v>
       </c>
       <c r="E5" s="73">
-        <f>'Subsidies Paid'!M7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!M8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.17419999999999999</v>
       </c>
       <c r="F5" s="73">
-        <f>'Subsidies Paid'!N7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!N8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.17419999999999999</v>
       </c>
       <c r="G5" s="73">
-        <f>'Subsidies Paid'!O7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!O8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.17419999999999999</v>
       </c>
       <c r="H5" s="73">
-        <f>'Subsidies Paid'!P7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!P8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.14739999999999998</v>
       </c>
       <c r="I5" s="73">
-        <f>'Subsidies Paid'!Q7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!Q8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="J5" s="73">
-        <f>'Subsidies Paid'!R7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!R8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="K5" s="73">
-        <f>'Subsidies Paid'!S7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!S8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="L5" s="73">
-        <f>'Subsidies Paid'!T7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!T8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="M5" s="73">
-        <f>'Subsidies Paid'!U7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!U8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="N5" s="73">
-        <f>'Subsidies Paid'!V7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!V8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="O5" s="73">
-        <f>'Subsidies Paid'!W7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!W8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="P5" s="73">
@@ -41084,14 +41145,14 @@
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="83" t="s">
         <v>656</v>
       </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="73" t="s">
@@ -41468,27 +41529,27 @@
         <v>659</v>
       </c>
       <c r="C12" s="73">
-        <f>'Subsidies Paid'!M8*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!M9*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0</v>
       </c>
       <c r="D12" s="73">
-        <f>'Subsidies Paid'!N8*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!N9*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.20099999999999998</v>
       </c>
       <c r="E12" s="73">
-        <f>'Subsidies Paid'!O8*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!O9*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.20099999999999998</v>
       </c>
       <c r="F12" s="73">
-        <f>'Subsidies Paid'!P8*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!P9*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.20099999999999998</v>
       </c>
       <c r="G12" s="73">
-        <f>'Subsidies Paid'!Q8*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!Q9*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.20099999999999998</v>
       </c>
       <c r="H12" s="73">
-        <f>'Subsidies Paid'!R8*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!R9*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.20099999999999998</v>
       </c>
       <c r="I12" s="76">
@@ -41571,11 +41632,11 @@
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="I13" s="83" t="s">
+      <c r="I13" s="84" t="s">
         <v>657</v>
       </c>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="73" t="s">
@@ -41928,55 +41989,55 @@
         <v>660</v>
       </c>
       <c r="C19" s="73">
-        <f>'Subsidies Paid'!K7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!K8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.20099999999999998</v>
       </c>
       <c r="D19" s="73">
-        <f>'Subsidies Paid'!L7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!L8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.20099999999999998</v>
       </c>
       <c r="E19" s="73">
-        <f>'Subsidies Paid'!M7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!M8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.17419999999999999</v>
       </c>
       <c r="F19" s="73">
-        <f>'Subsidies Paid'!N7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!N8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.17419999999999999</v>
       </c>
       <c r="G19" s="73">
-        <f>'Subsidies Paid'!O7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!O8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.17419999999999999</v>
       </c>
       <c r="H19" s="73">
-        <f>'Subsidies Paid'!P7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!P8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>0.14739999999999998</v>
       </c>
       <c r="I19" s="73">
-        <f>'Subsidies Paid'!Q7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!Q8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="J19" s="73">
-        <f>'Subsidies Paid'!R7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!R8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="K19" s="73">
-        <f>'Subsidies Paid'!S7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!S8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="L19" s="73">
-        <f>'Subsidies Paid'!T7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!T8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="M19" s="73">
-        <f>'Subsidies Paid'!U7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!U8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="N19" s="73">
-        <f>'Subsidies Paid'!V7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!V8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="O19" s="73">
-        <f>'Subsidies Paid'!W7*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!W8*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="P19" s="73">
@@ -42054,14 +42115,14 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C20" s="74"/>
-      <c r="D20" s="82" t="s">
+      <c r="D20" s="83" t="s">
         <v>656</v>
       </c>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="73" t="s">
@@ -42436,47 +42497,47 @@
         <v>661</v>
       </c>
       <c r="C26" s="73">
-        <f>'Subsidies Paid'!M12*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!M13*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="D26" s="73">
-        <f>'Subsidies Paid'!N12*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!N13*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="E26" s="73">
-        <f>'Subsidies Paid'!O12*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!O13*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="F26" s="73">
-        <f>'Subsidies Paid'!P12*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!P13*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="G26" s="73">
-        <f>'Subsidies Paid'!Q12*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!Q13*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="H26" s="73">
-        <f>'Subsidies Paid'!R12*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!R13*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="I26" s="73">
-        <f>'Subsidies Paid'!S12*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!S13*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="J26" s="73">
-        <f>'Subsidies Paid'!T12*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!T13*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="K26" s="73">
-        <f>'Subsidies Paid'!U12*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!U13*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="L26" s="73">
-        <f>'Subsidies Paid'!V12*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!V13*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="M26" s="73">
-        <f>'Subsidies Paid'!W12*'Monetizing Tax Credit Penalty'!$A$30</f>
+        <f>'Subsidies Paid'!W13*'Monetizing Tax Credit Penalty'!$A$30</f>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="N26" s="73">
@@ -43374,128 +43435,128 @@
         <v>310</v>
       </c>
       <c r="C37" s="7">
-        <f>'Subsidies Paid'!K6*10^9</f>
+        <f>('Subsidies Paid'!K6+'Subsidies Paid'!M7)*10^9</f>
         <v>300000000</v>
       </c>
       <c r="D37" s="7">
-        <f>C37</f>
-        <v>300000000</v>
+        <f>('Subsidies Paid'!L6+'Subsidies Paid'!N7)*10^9</f>
+        <v>0</v>
       </c>
       <c r="E37" s="7">
-        <f t="shared" ref="E37:AG37" si="13">D37</f>
-        <v>300000000</v>
+        <f>('Subsidies Paid'!M6+'Subsidies Paid'!O7)*10^9</f>
+        <v>1200000000</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" si="13"/>
-        <v>300000000</v>
+        <f>('Subsidies Paid'!N6+'Subsidies Paid'!P7)*10^9</f>
+        <v>1200000000</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="13"/>
-        <v>300000000</v>
+        <f>('Subsidies Paid'!O6+'Subsidies Paid'!Q7)*10^9</f>
+        <v>1200000000</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" si="13"/>
-        <v>300000000</v>
+        <f>('Subsidies Paid'!P6+'Subsidies Paid'!R7)*10^9</f>
+        <v>1200000000</v>
       </c>
       <c r="I37" s="7">
-        <f t="shared" si="13"/>
-        <v>300000000</v>
+        <f>('Subsidies Paid'!Q6+'Subsidies Paid'!S7)*10^9</f>
+        <v>1200000000</v>
       </c>
       <c r="J37" s="7">
-        <f t="shared" si="13"/>
-        <v>300000000</v>
+        <f>('Subsidies Paid'!R6+'Subsidies Paid'!T7)*10^9</f>
+        <v>0</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="13"/>
-        <v>300000000</v>
+        <f>('Subsidies Paid'!S6+'Subsidies Paid'!U7)*10^9</f>
+        <v>0</v>
       </c>
       <c r="L37" s="7">
-        <f t="shared" si="13"/>
-        <v>300000000</v>
+        <f>('Subsidies Paid'!T6+'Subsidies Paid'!V7)*10^9</f>
+        <v>0</v>
       </c>
       <c r="M37" s="7">
-        <f t="shared" si="13"/>
-        <v>300000000</v>
+        <f>('Subsidies Paid'!U6+'Subsidies Paid'!W7)*10^9</f>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <f t="shared" si="13"/>
-        <v>300000000</v>
+        <f t="shared" ref="E37:AG37" si="13">M37</f>
+        <v>0</v>
       </c>
       <c r="O37" s="7">
         <f t="shared" si="13"/>
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="P37" s="7">
         <f t="shared" si="13"/>
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="7">
         <f t="shared" si="13"/>
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="R37" s="7">
         <f t="shared" si="13"/>
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="S37" s="7">
         <f t="shared" si="13"/>
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="T37" s="7">
         <f t="shared" si="13"/>
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="U37" s="7">
         <f t="shared" si="13"/>
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="V37" s="7">
         <f t="shared" si="13"/>
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="W37" s="7">
         <f t="shared" si="13"/>
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="X37" s="7">
         <f t="shared" si="13"/>
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="7">
         <f t="shared" si="13"/>
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="7">
         <f t="shared" si="13"/>
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="7">
         <f t="shared" si="13"/>
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="7">
         <f t="shared" si="13"/>
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="7">
         <f t="shared" si="13"/>
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="7">
         <f t="shared" si="13"/>
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="7">
         <f t="shared" si="13"/>
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="7">
         <f t="shared" si="13"/>
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="7">
         <f t="shared" si="13"/>
-        <v>300000000</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="7"/>
       <c r="AI37" s="7"/>
@@ -43644,123 +43705,123 @@
       </c>
       <c r="D39" s="73">
         <f t="shared" si="14"/>
-        <v>0.39443572157150553</v>
+        <v>0</v>
       </c>
       <c r="E39" s="73">
         <f t="shared" si="14"/>
-        <v>0.40723086674334885</v>
+        <v>1.6289234669733954</v>
       </c>
       <c r="F39" s="73">
         <f t="shared" si="14"/>
-        <v>0.40010800462129015</v>
+        <v>1.6004320184851606</v>
       </c>
       <c r="G39" s="73">
         <f t="shared" si="14"/>
-        <v>0.39844513003746906</v>
+        <v>1.5937805201498763</v>
       </c>
       <c r="H39" s="73">
         <f t="shared" si="14"/>
-        <v>0.40271755686722605</v>
+        <v>1.6108702274689042</v>
       </c>
       <c r="I39" s="73">
         <f t="shared" si="14"/>
-        <v>0.46767805340247015</v>
+        <v>1.8707122136098806</v>
       </c>
       <c r="J39" s="73">
         <f t="shared" si="14"/>
-        <v>0.52040018059204618</v>
+        <v>0</v>
       </c>
       <c r="K39" s="73">
         <f t="shared" si="14"/>
-        <v>0.53864874887274061</v>
+        <v>0</v>
       </c>
       <c r="L39" s="73">
         <f t="shared" si="14"/>
-        <v>0.59290565028946041</v>
+        <v>0</v>
       </c>
       <c r="M39" s="73">
         <f t="shared" si="14"/>
-        <v>0.59202932098623817</v>
+        <v>0</v>
       </c>
       <c r="N39" s="73">
         <f t="shared" si="14"/>
-        <v>0.61185818859970653</v>
+        <v>0</v>
       </c>
       <c r="O39" s="73">
         <f t="shared" si="14"/>
-        <v>0.62479995077076222</v>
+        <v>0</v>
       </c>
       <c r="P39" s="73">
         <f t="shared" ref="P39:Z39" si="15">P37/P38</f>
-        <v>0.63501000401110419</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="73">
         <f t="shared" si="15"/>
-        <v>0.65833298737934842</v>
+        <v>0</v>
       </c>
       <c r="R39" s="73">
         <f t="shared" si="15"/>
-        <v>0.65630941712720936</v>
+        <v>0</v>
       </c>
       <c r="S39" s="73">
         <f t="shared" si="15"/>
-        <v>0.66851940282525524</v>
+        <v>0</v>
       </c>
       <c r="T39" s="73">
         <f t="shared" si="15"/>
-        <v>0.69392874455140163</v>
+        <v>0</v>
       </c>
       <c r="U39" s="73">
         <f t="shared" si="15"/>
-        <v>0.70547952247389201</v>
+        <v>0</v>
       </c>
       <c r="V39" s="73">
         <f t="shared" si="15"/>
-        <v>0.70547952247389201</v>
+        <v>0</v>
       </c>
       <c r="W39" s="73">
         <f t="shared" si="15"/>
-        <v>0.70490788165115481</v>
+        <v>0</v>
       </c>
       <c r="X39" s="73">
         <f t="shared" si="15"/>
-        <v>0.70284013010976487</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="73">
         <f t="shared" si="15"/>
-        <v>0.70135214943323099</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="73">
         <f t="shared" si="15"/>
-        <v>0.73228366539716583</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="73">
         <f t="shared" ref="AA39:AG39" si="16">AA37/AA38</f>
-        <v>0.82286931116638973</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="73">
         <f t="shared" si="16"/>
-        <v>0.82102596258151184</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="73">
         <f t="shared" si="16"/>
-        <v>0.82006975294633289</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="73">
         <f t="shared" si="16"/>
-        <v>0.83692616669997488</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="73">
         <f t="shared" si="16"/>
-        <v>0.8730118707876432</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="73">
         <f t="shared" si="16"/>
-        <v>0.87219810030776468</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="73">
         <f t="shared" si="16"/>
-        <v>0.87102458247095493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
@@ -43950,7 +44011,7 @@
         <v>310</v>
       </c>
       <c r="C44" s="7">
-        <f>'Subsidies Paid'!K14*10^9</f>
+        <f>'Subsidies Paid'!K15*10^9</f>
         <v>100000000</v>
       </c>
       <c r="D44" s="7">
@@ -44352,7 +44413,7 @@
         <v>310</v>
       </c>
       <c r="C49" s="50">
-        <f>'Subsidies Paid'!H13</f>
+        <f>'Subsidies Paid'!H14</f>
         <v>53000000</v>
       </c>
       <c r="E49" s="7"/>
@@ -44707,7 +44768,7 @@
         <v>310</v>
       </c>
       <c r="C55" s="7">
-        <f>'Subsidies Paid'!J16*10^9</f>
+        <f>'Subsidies Paid'!J17*10^9</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="D55" s="7">
@@ -45245,7 +45306,7 @@
         <v>310</v>
       </c>
       <c r="C61" s="7">
-        <f>'Subsidies Paid'!J17*10^9</f>
+        <f>'Subsidies Paid'!J18*10^9</f>
         <v>140000000</v>
       </c>
       <c r="D61" s="7">
@@ -45783,7 +45844,7 @@
         <v>310</v>
       </c>
       <c r="C67" s="7">
-        <f>'Subsidies Paid'!K18*10^9</f>
+        <f>'Subsidies Paid'!K19*10^9</f>
         <v>1200000000</v>
       </c>
       <c r="D67" s="7">
@@ -46457,11 +46518,11 @@
         <v>310</v>
       </c>
       <c r="C74" s="73">
-        <f>'Subsidies Paid'!J15*10^9</f>
+        <f>'Subsidies Paid'!J16*10^9</f>
         <v>1300000000</v>
       </c>
       <c r="D74" s="73">
-        <f>'Subsidies Paid'!K15*10^9</f>
+        <f>'Subsidies Paid'!K16*10^9</f>
         <v>1300000000</v>
       </c>
       <c r="E74" s="73">
@@ -47133,11 +47194,11 @@
         <v>310</v>
       </c>
       <c r="C81" s="73">
-        <f>'Subsidies Paid'!J16*10^9</f>
+        <f>'Subsidies Paid'!J17*10^9</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="D81" s="73">
-        <f>'Subsidies Paid'!K16*10^9</f>
+        <f>'Subsidies Paid'!K17*10^9</f>
         <v>1620000000.0000002</v>
       </c>
       <c r="E81" s="73">
@@ -47944,11 +48005,11 @@
         <v>310</v>
       </c>
       <c r="C89" s="73">
-        <f>'Subsidies Paid'!J17*10^9</f>
+        <f>'Subsidies Paid'!J18*10^9</f>
         <v>140000000</v>
       </c>
       <c r="D89" s="73">
-        <f>'Subsidies Paid'!K17*10^9</f>
+        <f>'Subsidies Paid'!K18*10^9</f>
         <v>140000000</v>
       </c>
       <c r="E89" s="73">
@@ -48755,11 +48816,11 @@
         <v>310</v>
       </c>
       <c r="C97" s="73">
-        <f>'Subsidies Paid'!J18*10^9</f>
+        <f>'Subsidies Paid'!J19*10^9</f>
         <v>1200000000</v>
       </c>
       <c r="D97" s="73">
-        <f>'Subsidies Paid'!K18*10^9</f>
+        <f>'Subsidies Paid'!K19*10^9</f>
         <v>1200000000</v>
       </c>
       <c r="E97" s="73">
@@ -49566,7 +49627,7 @@
         <v>289</v>
       </c>
       <c r="D105" s="73">
-        <f>'Subsidies Paid'!H19</f>
+        <f>'Subsidies Paid'!H20</f>
         <v>10000000</v>
       </c>
     </row>
